--- a/dat/synchros-initiatives.xlsx
+++ b/dat/synchros-initiatives.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mori.P16\Documents\Workspace\mapping-initiatives\dat\"/>
     </mc:Choice>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
+    <sheet name="Table 1 updated" r:id="rId5" sheetId="4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="760">
   <si>
     <t>A consortium of agricultural cohort studies</t>
   </si>
@@ -1350,12 +1351,1020 @@
   </si>
   <si>
     <t>Adult Europeans</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>acronym</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>methodology.nbCohorts.total</t>
+  </si>
+  <si>
+    <t>methodology.nbCohorts.harmonized</t>
+  </si>
+  <si>
+    <t>methodology.moreCohortsToBeHarmonized</t>
+  </si>
+  <si>
+    <t>nbParticipants.total</t>
+  </si>
+  <si>
+    <t>nbParticipants.harmonized</t>
+  </si>
+  <si>
+    <t>age.min</t>
+  </si>
+  <si>
+    <t>age.max</t>
+  </si>
+  <si>
+    <t>methodology.nbHarmonizedVariables</t>
+  </si>
+  <si>
+    <t>cohortCriteria</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>n_countries</t>
+  </si>
+  <si>
+    <t>age_range</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>BBMRI-NL</t>
+  </si>
+  <si>
+    <t>CanPath</t>
+  </si>
+  <si>
+    <t>CORDELIA</t>
+  </si>
+  <si>
+    <t>EClipSE</t>
+  </si>
+  <si>
+    <t>EPHOR</t>
+  </si>
+  <si>
+    <t>EPOSA</t>
+  </si>
+  <si>
+    <t>EUCAN-Connect</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>HALCyon</t>
+  </si>
+  <si>
+    <t>HeLTI</t>
+  </si>
+  <si>
+    <t>I4C</t>
+  </si>
+  <si>
+    <t>ICC-dementia</t>
+  </si>
+  <si>
+    <t>IDEAR</t>
+  </si>
+  <si>
+    <t>IHCC</t>
+  </si>
+  <si>
+    <t>interconnect</t>
+  </si>
+  <si>
+    <t>InterLACE</t>
+  </si>
+  <si>
+    <t>LIFEPATH</t>
+  </si>
+  <si>
+    <t>OMEGA-NET</t>
+  </si>
+  <si>
+    <t>ReACH</t>
+  </si>
+  <si>
+    <t>SAPRIN</t>
+  </si>
+  <si>
+    <t>SIC</t>
+  </si>
+  <si>
+    <t>KoGES</t>
+  </si>
+  <si>
+    <t>RAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Asia Cohort Consortium </t>
+  </si>
+  <si>
+    <t>CHANCES</t>
+  </si>
+  <si>
+    <t>ECHO</t>
+  </si>
+  <si>
+    <t>FinnGen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genome Asia 100K  </t>
+  </si>
+  <si>
+    <t>DEMETRIQ</t>
+  </si>
+  <si>
+    <t>Tohoku Medical Megabank Project</t>
+  </si>
+  <si>
+    <t>SAGE+</t>
+  </si>
+  <si>
+    <t>RECAP</t>
+  </si>
+  <si>
+    <t>CHICOS</t>
+  </si>
+  <si>
+    <t>LONGITOOLS</t>
+  </si>
+  <si>
+    <t>MeDALL</t>
+  </si>
+  <si>
+    <t>DYNOPTA</t>
+  </si>
+  <si>
+    <t>HAVIC</t>
+  </si>
+  <si>
+    <t>CHARGE</t>
+  </si>
+  <si>
+    <t>CAPICE</t>
+  </si>
+  <si>
+    <t>LIFESPAN</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>DYNAHEALTH</t>
+  </si>
+  <si>
+    <t>Ageing Trajectories of Health: Longitudinal Opportunities and Synergies</t>
+  </si>
+  <si>
+    <t>Biobank Standardisation and Harmonisation for Research Excellence in the European Union</t>
+  </si>
+  <si>
+    <t>Canadian Partnership for Tomorrow’s Health</t>
+  </si>
+  <si>
+    <t>Swedish Cohort Consortium</t>
+  </si>
+  <si>
+    <t>Collaborative cOhorts Reassembled Data to study mEchanisms and Longterm Incidence of chronic diseAses</t>
+  </si>
+  <si>
+    <t>Epidemiological  Clinicopathological Studies in Europe</t>
+  </si>
+  <si>
+    <t>Exposome Project for Health and Occupational Research</t>
+  </si>
+  <si>
+    <t>European Project on Osteoarthritis</t>
+  </si>
+  <si>
+    <t>The Gateway to Global Aging Data</t>
+  </si>
+  <si>
+    <t>Healthy Ageing  across the Life Course</t>
+  </si>
+  <si>
+    <t>The Human Early-Life Exposome</t>
+  </si>
+  <si>
+    <t>Healthy Life Trajectories Initiative</t>
+  </si>
+  <si>
+    <t>International Childhood Cardiovascular Cohort Consortium</t>
+  </si>
+  <si>
+    <t>International Childhood  Cancer Cohort Consortium</t>
+  </si>
+  <si>
+    <t>International  Centenarian Consortium - dementia</t>
+  </si>
+  <si>
+    <t>Integrated Datasets in Europe for Ageing Research</t>
+  </si>
+  <si>
+    <t>Interplay of Genes and Environment across Multiple Studies</t>
+  </si>
+  <si>
+    <t>International HundredK+ Cohorts Consortium</t>
+  </si>
+  <si>
+    <t>International Collaboration for a Life Course Approach to  Reproductive Health and Chronic Disease Events</t>
+  </si>
+  <si>
+    <t>Promoting mental well-being and healthy ageing in cities</t>
+  </si>
+  <si>
+    <t>National E-lnfrastructure for Aging Research</t>
+  </si>
+  <si>
+    <t>Network on the Coordination and Harmonisation of European Occupational Cohorts project</t>
+  </si>
+  <si>
+    <t>Research Advancement through Cohort Cataloguing and Harmonization</t>
+  </si>
+  <si>
+    <t>South African Population  Research Infrastructure Network</t>
+  </si>
+  <si>
+    <t>Social Inequality in Cancer cohort study</t>
+  </si>
+  <si>
+    <t>The Korean Genome and Epidemiology Study (KoGES) Consortium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEPREP    </t>
+  </si>
+  <si>
+    <t>CLOSER (Cohort and Longitudinal Studies Enhancement Resources)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPIRIT (Sino-Quebec Perinatal Initiative in Research and Information Technology)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium on Health and Ageing: Network of cohorts in Europe and the United States (CHANCES)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental influences on Child Health Outcomes (ECHO): ECHO-wide Cohort    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finnish Genome Project (FinnGen) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEMETRIQ (Developing methodologies to reduce inequalities in the determinants of health)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAGE+ Wave 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research on European Children and adults born preterm (RECAP)  </t>
+  </si>
+  <si>
+    <t>DYNOPTA: Dynamic Analyses to Optimise Ageing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hand-Arm Vibration International Consortium (HAVIC): Prospective Studies on the Relationship Between Power Tool Exposure and Health Effects     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHARGE Consortium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIFESPAN (Early-life influences on suicidal ideation, suicide attempts and suicide mortality: a life-course perspective to inform prevention)        </t>
+  </si>
+  <si>
+    <t>Europe; Canada; Australia</t>
+  </si>
+  <si>
+    <t>America, Asia, Europe</t>
+  </si>
+  <si>
+    <t>America, Asia, Europe and Oceania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 countries from all over the world </t>
+  </si>
+  <si>
+    <t>Principally Canada</t>
+  </si>
+  <si>
+    <t>American, European, Asian countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe (27 countries)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe  </t>
+  </si>
+  <si>
+    <t>Australia, 15 European countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA, Europe </t>
+  </si>
+  <si>
+    <t>The objective of AGRICOH is to support and mantain collaboration and data sharing/pooling to research the association between agricultural exposures and different health outcomes, with emphasis on associations that involve rare exposures and/or health outcomes, and for which data pooling represents a significant gain in statistical power compared to analysis of individual cohorts.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The objective of the ATHLOS Project is to achieve a better understanding of ageing by identifying patterns of healthy ageing pathways or trajectories, the determinants of those patterns, the critical points in time when changes in trajectories are produced, and to propose timely clinical and public health interventions to optimize healthy ageing. Moreover, a new definition of 'old age' based on many characteristics rather than just the classical chronological definition of age will be used for calculating projections in each specific population and guide policy recommendations. To do so, the Consortium will create a harmonised dataset with over 400,000 individuals collated from existing longitudinal studies of ageing and including information on physical and mental health, biomarkers, life style habits, social environment and participation, among others.&lt;/p&gt;
+&lt;p&gt;ATHLOS is a five-year project funded by the European Union's Horizon 2020 Research and Innovation Programme under grant agreement number 635316.&lt;/p&gt;
+&lt;p&gt;The Consortium is coordinated by Dr Josep Maria Haro (Parc Sanitari Sant Joan de Déu) and consists of 14 partners from 11 European countries.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>The projects mission is to maximize the use of biosamples, images and data for health research on the prevention, diagnosis and treatment of diseases. For this, these resources are available in a FAIR way: Findable, Accessible, Interoperable and Reusable. This is done in compliance with ethical, legal and privacy demands, and with active participation of donors, citizens and patients.</t>
+  </si>
+  <si>
+    <t>The objective of BioSHaRE-EU is to build upon tools and methods available to achieve solutions for researchers to use pooled data from different cohort and biobank studies. This, in order to obtain the very large sample sizes needed to investigate current questions in multifactorial diseases</t>
+  </si>
+  <si>
+    <t>The Canadian Partnership for Tomorrow’s Health (CanPath) is Canada’s largest
+population health cohort and a national platform for health research. Comprised of more
+than 330,000 volunteer participants, CanPath is a unique Canadian platform that allows
+scientists to explore how genetics, environment, lifestyle, and behaviour interact and
+contribute to the development of chronic disease and cancer. CanPath is hosted by the
+University of Toronto’s Dalla Lana School of Public Health with national funding from the
+Canadian Partnership Against Cancer.</t>
+  </si>
+  <si>
+    <t>The objective of COHORTS.SE is to coordinate all Swedish prospective population-based cohorts in a national infrastructure, thereby improving the reliability, quality and accessibility of valuable cohorts, for better-powered research with higher value to patients and populations.</t>
+  </si>
+  <si>
+    <t>The aim of CORDELIA is to generate a population database of more than 170,000 participants followed for more than 5 years, from Spanish cohorts with prospective follow-up.</t>
+  </si>
+  <si>
+    <t>The aim of EClipSE is to address the lack of statistical power within individual studies for specific analyses assessing relationships between data collected during life (e.g., health, cognitive, psychological, and genetic) and neuropathology at death.</t>
+  </si>
+  <si>
+    <t>EPHOR will develop methods and tools to characterise the working-life exposome. By applying these, better and more complete knowledge on the working-life exposome will be obtained. Through uniquely combining large-scale pooling of existing data (&gt;40 cohorts; ~ 21 million people) systematically looking at many types of exposure and diseases with the collection of new data in case studies in which the effects of working-life exposure on respiratory health in the general population and night shift workers will be investigated.</t>
+  </si>
+  <si>
+    <t>EPOSA is a collaborative study involving six cohort studies on ageing from six countries from North to South Europe. This initiative studies the personal and societal burden and its determinants of osteoarthritis in the aging European population using data from six population-based cohort studies across Europe.</t>
+  </si>
+  <si>
+    <t>The specific objectives of EUCAN-Connect are:
+* to deliver an open, federated data platform to deposit, curate and analyse cohort (meta)data that meets FAIR principles
+* to create a sustainable framework for long-term collaboration that enables better data-reuse and increased benefit to scientific communities worldwide</t>
+  </si>
+  <si>
+    <t>euCanSHare is a joint EU-Canada project to establish a cross-border data sharing and multi-cohort cardiovascular research platform. 
+Specifically, the project will integrate data infrastructures, IT solutions and data sources from EU, Canada and other countries into a web-based data access system with functionalities for increased efficiency in cardiovascular data-driven research. euCanSHare integrates more than 35 Canadian and European cohorts making up over 1 million records and actively seeks to expand to other regions. 
+euCanSHare key objectives are: data sharing, knowledge discovery, legal compliance, and community building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Gateway to Global Aging Data (g2aging.org) is a data and information platform developed to facilitate longitudinal and cross-country analyses on aging, especially those using the family of Health and Retirement Studies (HRS) around the world. To further this effort, the Gateway provides searchable metadata, extensive cross-survey documentation, downloadable harmonized microdata with variables standardized across surveys, and graphs and tables that enable users to instantly compare variables of interest over time, across countries, and against macro-level contextual information at no cost.
+</t>
+  </si>
+  <si>
+    <t>The aim of GenomEUtwin is to develop novel strategies to maximally utilize the unique features of twin cohorts, including the availability of longitudinal data and sample information about lifestyle and environmental factors, in the characterization of complex traits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The HELIX project is funded to exploit novel tools and methods for characterisation of early-life exposure to a wide range of environmental hazards. These require integration and linkage with data on major child health outcomes, to develop an “Early-Life Exposome” approach.
+Six prospective birth cohort studies (INMA-Spain, RHEA-Greece, MoBa-Norway, EDEN-France, BiB-UK, KANC-Lithuania) are contributing to HELIX as the only realistic and feasible way to obtain the comprehensive, longitudinal, human data needed to build this early-life exposome. These cohorts have already collected large amounts of data as part of national and EU-funded projects. Results will be integrated with data from European cohorts (&gt;300,000 subjects) and registers, to estimate health impacts at the large European scale. This integration of the chemical, physical and molecular environment during critical early-life periods will lead to major improvements in health risk and impact assessments and thus to improved prevention strategies for vulnerable populations.
+</t>
+  </si>
+  <si>
+    <t>The specific objectives of the initiative are:
+- Conduct a set of harmonized, coordinated studies that will evaluate interventions along the life course from pre-conception to childhood to promote metabolic fitness and early development in children between 3-5 years of age;
+- Conduct mechanistic studies that will explain the effect of the selected interventions;
+- Conduct complementary policy and economic analyses;
+- Develop cross-country, cross-site collaborations that will provide a learning platform and training environment for young and talented scientists;
+- Use the generated evidence to guide policy and actions in the near future, and identify research and programmatic needs for long-term strategies.</t>
+  </si>
+  <si>
+    <t>The objectives of I3C are:
+1. Identify incident cardiovascular endpoints using self-reported morbidity validated by adjudication of medical records, and
+2. Identify decedents using the National Death Index and adjudicate cause of death for deceased participants.</t>
+  </si>
+  <si>
+    <t>The aim of I4C is to understand the aetiology and mechanistic underpinnings of childhood cancer by exploiting prospectively collected exposure and biomarker data.
+A summary is provided in the publication - 'The International Childhood Cancer Cohort Consortium (I4C): A research platform of prospective cohorts for studying the aetiology of childhood cancers' at the following link - https://onlinelibrary.wiley.com/doi/full/10.1111/ppe.12519</t>
+  </si>
+  <si>
+    <t>The aim of ICC-dementia is to harmonise centenarian and near-centenarian studies internationally to describe the cognitive and functional profiles of exceptionally old individuals, and ascertain the trajectories of decline and thereby the age-standardised prevalence and incidence of dementia.  The consortium is also interested in the genetic and environmental determinants of dementia-free exceptional longevity.</t>
+  </si>
+  <si>
+    <t>The aim of the IDEAR network is to investigate how determinants in later working life, during the retirement transition, and in early retirement influence for how long older individuals are able to live actively and healthily. 
+This will be done using by state of the art statistical modelling in well-established prospective occupational cohort studies, longitudinal ageing studies and registry data from Sweden, the UK, Finland, France and Denmark. 
+These studies represent countries in three different welfare regimes and cover up to several decades from mid-life, retirement, early old age, and the beginning of older-old age.</t>
+  </si>
+  <si>
+    <t>The maing objective of the IGEMS is to understand why early life adversity, and social factors such as isolation and loneliness, are associated with diverse outcomes including mortality, physical functioning (health, functional ability), and psychological functioning (well-being, cognition), particularly in later life.</t>
+  </si>
+  <si>
+    <t>To create a global network for translational research that utilizes large cohorts to enhance the understanding of the biological and genetic basis of disease and improve clinical care and population health. They also put in common challenges and better strategies in sharing data across cohorts.</t>
+  </si>
+  <si>
+    <t>The aim of interconnect is to develop a global data access and results sharing’ network that enables existing data to be readily used in cross-cohort analyses to understand population differences in the risk of diabetes and obesity.</t>
+  </si>
+  <si>
+    <t>The aim of InterLACE is to advance understandingof women’s reproductive health in relation to chronic disease risk by pooling individual participant data from several cohort and cross-sectional studies.</t>
+  </si>
+  <si>
+    <t>The overarching aim of the LIFEPATH project is to understand the determinants of diverging ageing pathways among individuals belonging to different socio-economic groups. This will be achieved via an original study design that integrates social science approaches with biology (including molecular epidemiology), using existing population cohorts and omics measurements (particularly epigenomics).</t>
+  </si>
+  <si>
+    <t>The objectives of MINDMAP are: 
+1. to harmonize and link data from population registries and cohort studies of mental health ageing in European cities to allow co-analysis of data, based on expertise by Erasmus MC with registry data and McGill University with survey data; 
+2. to develop a conceptual model of mental health in urban settings based on input from experts on mental health from multiple disciplinary perspectives and the integration of results from all work packages on the physical and social environmental, psychosocial, biological and genetic pathways linking the urban environment to mental health; and 
+3. to develop a methodological framework for the application of advanced causal inference and mediation analysis to study the causal impact of the urban environment on mental health.</t>
+  </si>
+  <si>
+    <t>The objective of NEAR is to improve the health, care, and well-being of older people by optimizing a national integration of the major Swedish longitudinal, population-based projects on the health and care of older people.</t>
+  </si>
+  <si>
+    <t>The overarching concept of OMEGA-NET is to create a network to optimize and integrate occupational, industrial, and population cohorts at the European level, and to provide a foundation for an enhanced evidence base for the identification of health risks and gains related to occupation and employment to foster safe and healthy preventive strategies and policies.
+Research Coordination Objectives and health
+Coordinate and integrate cohorts on occupational health in Europe:
+* Implement an online interactive tool with detailed information on existing cohorts
+* Facilitate work on harmonization of occupational exposure and standardization of health outcome information and new protocols for data collection
+* Promote stakeholder engagement from the start of the project.
+Capacity Building Objectives:
+* Connect scientific communities on occupational health in Europe
+* Provide networking and leadership opportunities for early career researchers, as well as researchers from COST Inclusiveness Target Countries
+* Provide training in occupational epidemiology and exposure assessment</t>
+  </si>
+  <si>
+    <t>The aim of ReACH is to provide resources in the form of a comprehensive web-based catalogue and an harmonization platform to optimize and expand the use of Canadian pregnancy and birth cohorts data and biological samples.</t>
+  </si>
+  <si>
+    <t>The objective of SAPRIN is to draw together and harmonise a network of South Africa’s health and demographic surveillance sites (HDSS) situated in rural and urban setting, each with a population of at least 100 000 individuals under surveillance.</t>
+  </si>
+  <si>
+    <t>The Social Inequality in Cancer (SIC) cohort study was established to determine path- ways through which socioeconomic position affects morbidity and mortality, in particular common subtypes of cancer.</t>
+  </si>
+  <si>
+    <t>To establish a genome epidemiological study platform for the research community with a health database and biobank, to investigate the genetic and environmental aetiology of common complex diseases in Koreans and causes of death with long-term follow-up. The ultimate goal of the KoGES was to develop comprehensive and applicable health care guidelines for common complex diseases in Koreans, reduce the burden of chronic diseases and improve the quality of life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To enable the conduct of studies of medication use and outcomes in pregnancy.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To maximise the use, value and impact of longitudinal studies to help improve our understanding of key social and biomedical challenges. </t>
+  </si>
+  <si>
+    <t>• harmonize pregnancy and birth cohort data for the 3D, MIREC and SBC studies • establish a collaborative research network on the topic of intra-uterine determinants of child health and development and on perinatal health services in Quebec and Shanghai (China) • establish an infrastructure of knowledge transfer and application between the partners and users of the network leading to updated guidelines, health policies, and knowledge transfer activities in clinical practice • reinforce the strategic positioning of academic and industrial partners in Quebec, China and internationally for providing access to new markets and expertise.</t>
+  </si>
+  <si>
+    <t>To understand the relationship between genetics, environmental exposures, and the etiology of disease through the establishment of a cohort, or population laboratory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHANCES aims at combining and integrating ongoing cohort studies in order to produce evidence on ageing-related health characteristics and determinants in Europe and their socio-economic implications.   </t>
+  </si>
+  <si>
+    <t>The scientific goal of ECHO, a research program launched by the National Institutes of Health, is to understand the effects of a broad range of early environmental influences on child health and development. ECHO uses information from existing longitudinal research projects (cohorts), which will include more than 50,000 children from diverse backgrounds across the United States. Together, these cohorts follow participants from before they are born through childhood and adolescence. ECHO also supports a 17-state clinical trials network to test prevention and treatment strategies among children from rural and medically underserved backgrounds. Program Objectives + Improve the health of children and adolescents by conducting observational and interventional research that will inform high-impact programs, policies, and practices. + Institute best practices for conducting Team Science in the 21st century, giving researchers the tools to work collaboratively to improve child health.</t>
+  </si>
+  <si>
+    <t>Project aims to improve human health through genetic research, and ultimately identify new therapeutic targets and diagnostics for treating numerous diseases. The collaborative nature of the project is exceptional compare to many ongoing studies, and all the partners are working closely together to ensure appropriate transparency, data security and ownership.</t>
+  </si>
+  <si>
+    <t>GenomeAsia 100K plans to create reference genomes for Asian population as well as identify rare and frequent alleles associated with these populations. In the process, we hope to understand biology of disease and enable new therapeutic options which will have global impact. The first stage aims to sequence 10,000 Asian individuals for ethnic stratification. This will be followed by sequencing an additional 90,000 individuals and combined with clinical and phenotype information to allow deeper analysis of diseased and healthy individuals. Our founding partners have direct access to cohorts of samples with specific disease characteristics which will be especially useful during this second stage and even allow for studies across longer time periods.</t>
+  </si>
+  <si>
+    <t>1 Develop, evaluate and refine methodologies for assessing the effects of social, economic and health policies on the pattern and magnitude of health inequalities among socioeconomic groups. 2 Assess the differential health effects by socioeconomic group of natural policy experiments’ in the fields of unemployment and poverty reduction; tobacco and alcohol control; and access to education and preventive health care. 3 Synthesise the evidence from the findings of objectives 1-2, and actively engage users in the research in order to promote the transfer of knowledge for policy and practice with maximum effectiveness.</t>
+  </si>
+  <si>
+    <t>Tohoku Medical Megabank Organization was founded to establish an advanced medical system to foster the reconstruction from the Great East Japan Earthquake. The organization has been developing a biobank that combines medical and genome information during the process of rebuilding the community medical system and supporting health and welfare in the Tohoku area.</t>
+  </si>
+  <si>
+    <t>The outcome of the harmonization work leading to SAGE+ Wave 1 and SAGE+ Wave 2 is two common datasets that will allow a wide range of cross-country comparisons and evaluation of the predictors of transitions in various domains, from subjective health status and risk factors shifts, to evaluation in relationships between wealth and health in countries at different levels of development. The aim of this article is to present the analogous results for SAGE+ Wave 2 which extends and adds unique data to SAGE+ Wave 1. The harmonization process for SAGE+ Wave 2 builds on SAGE+ Wave 1 processes and follows the same methodology. SAGE+ Wave 2 included the two additional studies, CHARLS and LASI, whose variables were subjected to the same harmonization process as used in SAGE+ Wave 1 without encountering major deviations. The inclusion of these studies allowed the creation of some additional harmonized variables, such as verbal fluency, depression, emotional/psychiatric problems, cataracts, and hip fracture, for some studies.</t>
+  </si>
+  <si>
+    <t>The overall aim of the RECAP preterm Project is to improve the health, development and quality of life of children and adults born very preterm (VPT) or with a very low birth weight (VLBW). This aim will be achieved by combining extensive data from European cohort studies and around the world, which makes it possible to evaluate changes in outcomes over time while providing important information on how the evolution in care and survival of these high risk babies has changed their developmental outcomes and quality of life. We want to develop a better understanding of the origins of VPT/VLBW health and developmental outcomes as well as more effective, evidence-based, personalized interventions and prevention.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To identify effective pathways to compressing morbidity and optimising ageing.                                                                                                                         Four key foci, including dementia and cognition, mental health, sensory impairment, and mobility/activity limitations. </t>
+  </si>
+  <si>
+    <t>Consortium (HAVIC), and cited the following objectives: 1) prospective design, 2) common exposure metrics across cohorts, 3) common health assessment instruments across cohorts, and 4) methods for multisite integration.</t>
+  </si>
+  <si>
+    <t>The primary aim is to conduct high-quality analyses that produce, in an efficient and timely manner, reliable and valid findings across multiple cardiovascular and aging-related phenotypes.</t>
+  </si>
+  <si>
+    <t>The LIFESPAN project adopts a life-course perspective to examine the early life influences (birth order, parental age, family/sibling size, birth weight, birth length) on suicide, suicidal ideation, and suicide attempts in the general population. It comprises 3 complementary objectives: (1) to summarise available studies about the longitudinal relations between early-life influences and suicide mortality by applying meta-analysis, the statistical approach most informative for policymakers, allowing to go beyond the heterogeneity of existing studies; (2) to investigate the associations between early-life influences and suicidal ideation and attempts in adolescence and young adulthood with data from 3 longitudinal population-based cohorts (from Canada and France; up to 25 years follow-up); (3) to identify specific mediating pathways (targetable with new preventive interventions) linking early-life factors and suicide risk, using advances longitudinal mediation analysis techniques relying on growth curve modelling.</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>All cohort study health outcomes in relation to environmental and occupational exposures in agricultural settings with the exception of three general population cohorts involving a large number of agricultural populations or oversampling individuals in agricultural areas.</t>
+  </si>
+  <si>
+    <t>Each study includes one or more populations and provides data on health determinants and age-related events.</t>
+  </si>
+  <si>
+    <t>Cohorts with Genetic, epigenetic, transcriptome and metabolome data available.</t>
+  </si>
+  <si>
+    <t>Large biobanks or study cohorts with no specific health context.</t>
+  </si>
+  <si>
+    <t>Canadian regional cohorts that investigate environmental, lifestyle and genetic factors related to the development and progression of cancer and chronic diseases.</t>
+  </si>
+  <si>
+    <t>Swedish prospective population-based cohorts.</t>
+  </si>
+  <si>
+    <t>Spanish population-based cohort studies with information on common chronic disease risk factors and follow up for chronic diseases events.</t>
+  </si>
+  <si>
+    <t>European population-based longitudinal cohorts of older adults with a brain-donation program at death</t>
+  </si>
+  <si>
+    <t>Cohort studies with occupational history information.</t>
+  </si>
+  <si>
+    <t>Criteria for selection were a good representation of countries across Europe, different physical and social environments and health care systems. In addition, initially (for the post-harmonisation) a requirement was the existence of a running cohort study on older people</t>
+  </si>
+  <si>
+    <t>European cohorts of babies born very preterm or with very low birth weight (VPT/ VLBW cohorts)</t>
+  </si>
+  <si>
+    <t>The project brings together 35 cardiovascular cohorts from EU, Canada* and beyond, including sociodemographic data, biosamples, omics data (DNA/RNA/proteins), cardiac imaging, lifestyle, environmental data, physical measurements and clinical outcomes.</t>
+  </si>
+  <si>
+    <t>Cohort studies about aging and health, most of them harmonized ex-ante with the family of international Health and Retirement studies.</t>
+  </si>
+  <si>
+    <t>Twin cohorts with genomic, lifestyle and environmental information.</t>
+  </si>
+  <si>
+    <t>The project focus on studies based in the UK with life course data and specific ageing outcomes measured in midlife or old age and/or repeat measures of capability in later life</t>
+  </si>
+  <si>
+    <t>The selected cohorts were  included in the
+HELIX project because: (a) they could provide substantial
+existing longitudinal data from early pregnancy
+through childhood, (b) they could follow-up children
+at similar ages, (c) they could integrate questionnaires, biosampling and clinical examinations using common
+HELIX protocols and (d) they offered heterogeneity in
+terms of exposure and population characteristics.</t>
+  </si>
+  <si>
+    <t>Intervention cohorts established in Canada, China, India and South Africa that examine the effects of interventions starting preconception, during pregnancy and into early childhood on body composition of children at 5 years of age and measures of early child development.</t>
+  </si>
+  <si>
+    <t>long-term observational studies of risk factors for heart disease started in groups of school children.</t>
+  </si>
+  <si>
+    <t>Cohorts eligible for inclusion in the I4C need to recruit mothers during pregnancy or around delivery. Eligible cohorts must systematically ascertain cases of CC in the offspring and should include questionnaire and/or other exposure data that address key CC aetiology-related hypotheses. The specific goals and original outcomes of the individual cohorts (eg, pregnancy complications and/ or serious chronic childhood conditions) may vary, but critical data items include parental and offspring demographic, life style, medical, reproductive, environmental factors and parental occupational information. Specific responsibilities of newly joining or participating I4C cohorts include sharing of data (and biospecimens-if available) for current and future proposals.</t>
+  </si>
+  <si>
+    <t>Studies are eligible to participate in ICC-Dementia if they meet the following criteria:
+1.	The main focus is on individuals aged ≥95 years
+2.	Have a minimum sample of 80 individuals
+3.	Assessment includes measures of cognitive function and activities of daily living
+4.	Informed consent forms allow for de-identified data sharing with academic partners.
+All participating studies have the opportunity to participate in the analyses and to propose specific projects and papers.</t>
+  </si>
+  <si>
+    <t>Prospective occupational cohort studies</t>
+  </si>
+  <si>
+    <t>Cohorts involving twins with measures of physical health, cognitive health and emotional health, and measures of multiple facets of adult socioeconomic status (SES; e.g.occupation, education, financial strain)</t>
+  </si>
+  <si>
+    <t>Cohorts that recruit 100k participants or more, are disease-agnostic, have available biospecimens, and have longitudinal follow-up activities. Cohorts from under-represented populations and low and middle-income countries (LMICs) may not fit some of these criteria, so exceptions are made to be inclusive as possible.</t>
+  </si>
+  <si>
+    <t>Cohort studies with information of diabetes and obesity.</t>
+  </si>
+  <si>
+    <t>Observational studies, which had collected prospective or retrospective survey data on women’s reproductive health across the lifespan (such as ages at menarche, first birth, and natural menopause), sociodemographic and lifestyle factors, and chronic disease events, could contribute data to the InterLACE consortium, regardless of the sample size and ethnic background of participants.</t>
+  </si>
+  <si>
+    <t>LIFEPATH  includes information and biological samples from 17 cohorts, including several with extensive phenotyping and repeat biological
+samples, and a very large cohort  (1 million individuals) without biological samples  (WHIP,  from Italy). They were chosen for the combination of good measures of
+socioeconomic status,  risk factors for non-communicable diseases (NCDs) and biomarkers already measured  (or availability of blood samples for further testing).</t>
+  </si>
+  <si>
+    <t>Cohort studies with information on the urban environment and the individual determinants of mental wellbeing in older age.</t>
+  </si>
+  <si>
+    <t>Cohorts of health and care with at least seven years of follow-up time of older people in the Swedish population.</t>
+  </si>
+  <si>
+    <t>European occupational, industrial, and population, and registry-based cohorts with data on occupational exposures.</t>
+  </si>
+  <si>
+    <t>(1) recruit Canadian mothers and/or children; 
+(2) have a longitudinal design (i.e. at least one follow-up of participants after the initial collection event); 
+(3) have collected data (baseline or follow-up) after 2000; 
+(4) collect information on pregnancy and birth outcomes</t>
+  </si>
+  <si>
+    <t>Standardised, population-based data in geographically-defined sections of impoverished communities.</t>
+  </si>
+  <si>
+    <t>The inclusion criteria for enrolment in the SIC cohort were: a population-based study from Denmark with data on behavioural and biological risk factors for sub-types of cancer and other common outcomes (i.e. cardiovascular diseases); and a baseline examination after 1980, since socioeconomic information drawn from the central registries was only available after January 1980.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community-dwellers and participants recruited from the national health examinee registry, men and women, aged ≥ 40 years at baseline. </t>
+  </si>
+  <si>
+    <t>Information on maternal and infant characteristics and medical care from the automated databases of the 11 health plans associated with the three FDA contract sites and birth certificate data obtained from the state departments of public health.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People born in different regions of the UK throughout the 20th and 21st centuries. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregnancy and birth population.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healthy people around the world aged 40 years or more. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Most cohorts included in the consortium included subjects aged 50 or over, and separate analyses were conducted, if deemed necessary, on health-related characteristics and determinants in subjects aged 50-59, 60-69, and 70+ years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More than 50,000 children from diverse racial, geographic and socioeconomic backgrounds.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biological samples of finnish population </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic information for Asian populations  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150,000 healthy Japanese participants with informed consent in Miyagi and Iwate prefectures. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">50+ general population. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children and adults born very preterm (VPT) or with a very low birth weight (VLBW).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australian adults 45+ years old. </t>
+  </si>
+  <si>
+    <t>Australia, Canada, Chile, Costa Rica, Denmark, France, New Zealand, Norway, South Korea, South Africa, United Kingdom, United States</t>
+  </si>
+  <si>
+    <t>Cuba, Mexico, Dominican Republic, Puerto Rico, China, Peru, India, Venezuela, Austria, Australia, Greece, Spain, Finland, Poland, United Kingdom, Russia, Lithuania, Czechia, United States, Japan, Ghana, Netherlands, South Korea, South Africa, Denmark, Hungary, Sweden, Switzerland, Ireland, Estonia, Belgium, Israel, Slovenia, Croatia, Luxembourg, Portugal, France, Germany, Italy</t>
+  </si>
+  <si>
+    <t>United Kingdom, Finland</t>
+  </si>
+  <si>
+    <t>Netherlands, Spain, United Kingdom, Denmark, Sweden, Belgium, Norway, France, Finland, Greece, Germany, Cyprus</t>
+  </si>
+  <si>
+    <t>Germany, Italy, Netherlands, Spain, United Kingdom, Sweden</t>
+  </si>
+  <si>
+    <t>Canada, Norway, France, Denmark, Estonia, Germany, Greece, Italy, Lithuania, Poland, Russia, Ireland, Portugal, Belgium, Spain, Sweden, Netherlands, United Kingdom, Finland, Australia</t>
+  </si>
+  <si>
+    <t>Germany, United Kingdom, Finland, Estonia, Denmark, Italy, Spain, Lithuania, Australia, Sweden, Russia, Poland, France, Norway, Canada</t>
+  </si>
+  <si>
+    <t>United States, Mexico, Israel, Costa Rica, South Korea, Japan, China, India, United Kingdom, Austria, Belgium, Croatia, Cyprus, Czechia, Denmark, Estonia, Finland, France, Germany, Greece, Hungary, Italy, Latvia, Lithuania, Luxembourg, Malta, Netherlands, Poland, Portugal, Romania, Slovakia, Slovenia, Spain, Sweden, Switzerland, Ireland, Indonesia, Ghana, Russia, South Africa, Brazil, Thailand, Malaysia</t>
+  </si>
+  <si>
+    <t>Denmark, Finland, Italy, Netherlands, Norway, United Kingdom, Australia, Sweden</t>
+  </si>
+  <si>
+    <t>France, Greece, Lithuania, Norway, Spain, United Kingdom</t>
+  </si>
+  <si>
+    <t>United States, Finland, Australia</t>
+  </si>
+  <si>
+    <t>Australia, Denmark, Brazil, China, France, Italy, Israel, Japan, Norway, United Kingdom, United States</t>
+  </si>
+  <si>
+    <t>Sweden, United Kingdom, Finland, France, Denmark</t>
+  </si>
+  <si>
+    <t>Sweden, Denmark, Finland, United States, Australia</t>
+  </si>
+  <si>
+    <t>Australia, United Kingdom, Denmark, France, Japan, United States, Lebanon, Spain, Sweden, Morocco, China</t>
+  </si>
+  <si>
+    <t>United Kingdom, Ireland, Portugal, France, Switzerland, Italy, Finland, United States, Australia</t>
+  </si>
+  <si>
+    <t>Canada, Netherlands, Russia, Poland, Norway, Germany, United States, France, Italy</t>
+  </si>
+  <si>
+    <t>Argentina, Australia, Belgium, Brazil, Canada, Chile, Croatia, Egypt, Estonia, Germany, Greece, Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Korea, Vietnam, Cambodia, Japan, China </t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States of America    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada, China   </t>
+  </si>
+  <si>
+    <t>Bangladesh, Japan, Taiwan, South Korea, China, India, Singapore, Iran, Mongolia, Singapore Malaysia,, the United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom, The Netherlands, Germany, France, Denmark, Greece, Finland, Norway, Sweden, United States   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asia  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tohoku (region of Japan) </t>
+  </si>
+  <si>
+    <t>China, Ghana, India, Mexico, the Russian Federation, South Africa, England, USA, Austria, Belgium, Denmark, France, Germany, Greece, Italy, Switzerland, The Netherlands, Spain, Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US, Sweden, Finland      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada, France        </t>
+  </si>
+  <si>
+    <t>0 - 150</t>
+  </si>
+  <si>
+    <t>18 - 120</t>
+  </si>
+  <si>
+    <t>0 - 120</t>
+  </si>
+  <si>
+    <t>30 - 74</t>
+  </si>
+  <si>
+    <t>0 - 90</t>
+  </si>
+  <si>
+    <t>35 - 84</t>
+  </si>
+  <si>
+    <t>65 - 150</t>
+  </si>
+  <si>
+    <t>65 - 85</t>
+  </si>
+  <si>
+    <t>45+</t>
+  </si>
+  <si>
+    <t>20 - 85</t>
+  </si>
+  <si>
+    <t>50 - 90</t>
+  </si>
+  <si>
+    <t>0 - 12</t>
+  </si>
+  <si>
+    <t>3 - 19</t>
+  </si>
+  <si>
+    <t>0 - 30</t>
+  </si>
+  <si>
+    <t>95+</t>
+  </si>
+  <si>
+    <t>10 - 74</t>
+  </si>
+  <si>
+    <t>14 - 103</t>
+  </si>
+  <si>
+    <t>30 - 75</t>
+  </si>
+  <si>
+    <t>26+</t>
+  </si>
+  <si>
+    <t>0 - 45</t>
+  </si>
+  <si>
+    <t>20 - 93</t>
+  </si>
+  <si>
+    <t>40+</t>
+  </si>
+  <si>
+    <t>0 - 17</t>
+  </si>
+  <si>
+    <t>45 - 106</t>
+  </si>
+  <si>
+    <t>32+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -6428,4 +7437,2725 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H1" t="s">
+        <v>448</v>
+      </c>
+      <c r="I1" t="s">
+        <v>449</v>
+      </c>
+      <c r="J1" t="s">
+        <v>450</v>
+      </c>
+      <c r="K1" t="s">
+        <v>451</v>
+      </c>
+      <c r="L1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M1" t="s">
+        <v>453</v>
+      </c>
+      <c r="N1" t="s">
+        <v>454</v>
+      </c>
+      <c r="O1" t="s">
+        <v>455</v>
+      </c>
+      <c r="P1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>457</v>
+      </c>
+      <c r="R1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G2" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>656</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1300000.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>316270.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="N2"/>
+      <c r="O2" t="s">
+        <v>658</v>
+      </c>
+      <c r="P2" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="s">
+        <v>609</v>
+      </c>
+      <c r="G3" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>656</v>
+      </c>
+      <c r="J3" t="n">
+        <v>411000.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>411000.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>659</v>
+      </c>
+      <c r="P3" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>610</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>657</v>
+      </c>
+      <c r="J4" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="N4"/>
+      <c r="O4" t="s">
+        <v>660</v>
+      </c>
+      <c r="P4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>560</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>611</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>657</v>
+      </c>
+      <c r="J5" t="n">
+        <v>935227.0</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>661</v>
+      </c>
+      <c r="P5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C6" t="s">
+        <v>518</v>
+      </c>
+      <c r="D6" t="s">
+        <v>561</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" t="s">
+        <v>612</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>656</v>
+      </c>
+      <c r="J6" t="n">
+        <v>386641.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>328700.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2840.0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>662</v>
+      </c>
+      <c r="P6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>562</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="s">
+        <v>613</v>
+      </c>
+      <c r="G7" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>656</v>
+      </c>
+      <c r="J7" t="n">
+        <v>950000.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>950000.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>663</v>
+      </c>
+      <c r="P7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C8" t="s">
+        <v>519</v>
+      </c>
+      <c r="D8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="s">
+        <v>614</v>
+      </c>
+      <c r="G8" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>656</v>
+      </c>
+      <c r="J8" t="n">
+        <v>188000.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>188000.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>664</v>
+      </c>
+      <c r="P8" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B9" t="s">
+        <v>520</v>
+      </c>
+      <c r="C9" t="s">
+        <v>520</v>
+      </c>
+      <c r="D9" t="s">
+        <v>564</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>615</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>657</v>
+      </c>
+      <c r="J9" t="n">
+        <v>987.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>987.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>665</v>
+      </c>
+      <c r="P9" t="s">
+        <v>705</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C10" t="s">
+        <v>521</v>
+      </c>
+      <c r="D10" t="s">
+        <v>565</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" t="s">
+        <v>616</v>
+      </c>
+      <c r="G10" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>656</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.1E7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>666</v>
+      </c>
+      <c r="P10" t="s">
+        <v>706</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>468</v>
+      </c>
+      <c r="B11" t="s">
+        <v>522</v>
+      </c>
+      <c r="C11" t="s">
+        <v>522</v>
+      </c>
+      <c r="D11" t="s">
+        <v>566</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" t="s">
+        <v>617</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>657</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2941.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1949.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>667</v>
+      </c>
+      <c r="P11" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>469</v>
+      </c>
+      <c r="B12" t="s">
+        <v>523</v>
+      </c>
+      <c r="C12" t="s">
+        <v>523</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" t="s">
+        <v>618</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>656</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>668</v>
+      </c>
+      <c r="P12" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="R12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>470</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>598</v>
+      </c>
+      <c r="F13" t="s">
+        <v>619</v>
+      </c>
+      <c r="G13" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13" t="s">
+        <v>656</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1000000.0</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13" t="s">
+        <v>669</v>
+      </c>
+      <c r="P13" t="s">
+        <v>709</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B14" t="s">
+        <v>524</v>
+      </c>
+      <c r="C14" t="s">
+        <v>524</v>
+      </c>
+      <c r="D14" t="s">
+        <v>567</v>
+      </c>
+      <c r="E14" t="s">
+        <v>599</v>
+      </c>
+      <c r="F14" t="s">
+        <v>620</v>
+      </c>
+      <c r="G14" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>656</v>
+      </c>
+      <c r="J14" t="n">
+        <v>351000.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>351000.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="M14"/>
+      <c r="N14" t="n">
+        <v>37000.0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>670</v>
+      </c>
+      <c r="P14" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>472</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>657</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1190000.0</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15" t="s">
+        <v>671</v>
+      </c>
+      <c r="P15" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>473</v>
+      </c>
+      <c r="B16" t="s">
+        <v>525</v>
+      </c>
+      <c r="C16" t="s">
+        <v>525</v>
+      </c>
+      <c r="D16" t="s">
+        <v>568</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>657</v>
+      </c>
+      <c r="J16" t="n">
+        <v>40000.0</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="N16"/>
+      <c r="O16" t="s">
+        <v>672</v>
+      </c>
+      <c r="P16" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>474</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>569</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>622</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>657</v>
+      </c>
+      <c r="J17" t="n">
+        <v>32000.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>32000.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17" t="s">
+        <v>673</v>
+      </c>
+      <c r="P17" t="s">
+        <v>712</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>475</v>
+      </c>
+      <c r="B18" t="s">
+        <v>526</v>
+      </c>
+      <c r="C18" t="s">
+        <v>526</v>
+      </c>
+      <c r="D18" t="s">
+        <v>570</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" t="s">
+        <v>623</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>657</v>
+      </c>
+      <c r="J18" t="n">
+        <v>22730.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>22000.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M18"/>
+      <c r="N18" t="n">
+        <v>1043.0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>674</v>
+      </c>
+      <c r="P18" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>476</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>571</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" t="s">
+        <v>624</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>657</v>
+      </c>
+      <c r="J19" t="n">
+        <v>42189.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>31000.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>675</v>
+      </c>
+      <c r="P19" t="s">
+        <v>713</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>477</v>
+      </c>
+      <c r="B20" t="s">
+        <v>527</v>
+      </c>
+      <c r="C20" t="s">
+        <v>527</v>
+      </c>
+      <c r="D20" t="s">
+        <v>572</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" t="s">
+        <v>625</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>656</v>
+      </c>
+      <c r="J20" t="n">
+        <v>388120.0</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>676</v>
+      </c>
+      <c r="P20" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>478</v>
+      </c>
+      <c r="B21" t="s">
+        <v>528</v>
+      </c>
+      <c r="C21" t="s">
+        <v>528</v>
+      </c>
+      <c r="D21" t="s">
+        <v>573</v>
+      </c>
+      <c r="E21" t="s">
+        <v>600</v>
+      </c>
+      <c r="F21" t="s">
+        <v>626</v>
+      </c>
+      <c r="G21" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>656</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7960.0</v>
+      </c>
+      <c r="K21"/>
+      <c r="L21" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21" t="s">
+        <v>677</v>
+      </c>
+      <c r="P21"/>
+      <c r="Q21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>479</v>
+      </c>
+      <c r="B22" t="s">
+        <v>529</v>
+      </c>
+      <c r="C22" t="s">
+        <v>529</v>
+      </c>
+      <c r="D22" t="s">
+        <v>574</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" t="s">
+        <v>627</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>657</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5000000.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>150000.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>678</v>
+      </c>
+      <c r="P22" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R22" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>480</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>575</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" t="s">
+        <v>628</v>
+      </c>
+      <c r="G23" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>656</v>
+      </c>
+      <c r="J23" t="n">
+        <v>76233.0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>76233.0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>679</v>
+      </c>
+      <c r="P23" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>481</v>
+      </c>
+      <c r="B24" t="s">
+        <v>530</v>
+      </c>
+      <c r="C24" t="s">
+        <v>530</v>
+      </c>
+      <c r="D24" t="s">
+        <v>576</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" t="s">
+        <v>629</v>
+      </c>
+      <c r="G24" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>656</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="N24"/>
+      <c r="O24" t="s">
+        <v>680</v>
+      </c>
+      <c r="P24"/>
+      <c r="Q24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>482</v>
+      </c>
+      <c r="B25" t="s">
+        <v>531</v>
+      </c>
+      <c r="C25" t="s">
+        <v>531</v>
+      </c>
+      <c r="D25" t="s">
+        <v>531</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>630</v>
+      </c>
+      <c r="G25" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>657</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1000000.0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1000000.0</v>
+      </c>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>681</v>
+      </c>
+      <c r="P25"/>
+      <c r="Q25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>483</v>
+      </c>
+      <c r="B26" t="s">
+        <v>532</v>
+      </c>
+      <c r="C26" t="s">
+        <v>532</v>
+      </c>
+      <c r="D26" t="s">
+        <v>577</v>
+      </c>
+      <c r="E26" t="s">
+        <v>601</v>
+      </c>
+      <c r="F26" t="s">
+        <v>631</v>
+      </c>
+      <c r="G26" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>656</v>
+      </c>
+      <c r="J26" t="n">
+        <v>839666.0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>839666.0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>682</v>
+      </c>
+      <c r="P26" t="s">
+        <v>717</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R26" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>484</v>
+      </c>
+      <c r="B27" t="s">
+        <v>533</v>
+      </c>
+      <c r="C27" t="s">
+        <v>533</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" t="s">
+        <v>632</v>
+      </c>
+      <c r="G27" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>657</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1941000.0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>102774.0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>683</v>
+      </c>
+      <c r="P27" t="s">
+        <v>718</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R27" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>485</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>578</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>633</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>657</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2662777.0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2662777.0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="M28"/>
+      <c r="N28" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>684</v>
+      </c>
+      <c r="P28" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>486</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>579</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29" t="s">
+        <v>634</v>
+      </c>
+      <c r="G29" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>656</v>
+      </c>
+      <c r="J29" t="n">
+        <v>190268.0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29" t="s">
+        <v>685</v>
+      </c>
+      <c r="P29" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R29" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B30" t="s">
+        <v>534</v>
+      </c>
+      <c r="C30" t="s">
+        <v>534</v>
+      </c>
+      <c r="D30" t="s">
+        <v>580</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>635</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>656</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30" t="s">
+        <v>686</v>
+      </c>
+      <c r="P30"/>
+      <c r="Q30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>488</v>
+      </c>
+      <c r="B31" t="s">
+        <v>535</v>
+      </c>
+      <c r="C31" t="s">
+        <v>535</v>
+      </c>
+      <c r="D31" t="s">
+        <v>581</v>
+      </c>
+      <c r="E31" t="s">
+        <v>602</v>
+      </c>
+      <c r="F31" t="s">
+        <v>636</v>
+      </c>
+      <c r="G31" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>656</v>
+      </c>
+      <c r="J31" t="n">
+        <v>89889.0</v>
+      </c>
+      <c r="K31"/>
+      <c r="L31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="N31"/>
+      <c r="O31" t="s">
+        <v>687</v>
+      </c>
+      <c r="P31" t="s">
+        <v>720</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R31" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>489</v>
+      </c>
+      <c r="B32" t="s">
+        <v>536</v>
+      </c>
+      <c r="C32" t="s">
+        <v>536</v>
+      </c>
+      <c r="D32" t="s">
+        <v>582</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32" t="s">
+        <v>637</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>656</v>
+      </c>
+      <c r="J32" t="n">
+        <v>315000.0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>315000.0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="O32" t="s">
+        <v>688</v>
+      </c>
+      <c r="P32" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R32" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>490</v>
+      </c>
+      <c r="B33" t="s">
+        <v>537</v>
+      </c>
+      <c r="C33" t="s">
+        <v>537</v>
+      </c>
+      <c r="D33" t="s">
+        <v>583</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33" t="s">
+        <v>638</v>
+      </c>
+      <c r="G33" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>657</v>
+      </c>
+      <c r="J33" t="n">
+        <v>83006.0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>83006.0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>689</v>
+      </c>
+      <c r="P33" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R33" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>491</v>
+      </c>
+      <c r="B34" t="s">
+        <v>538</v>
+      </c>
+      <c r="C34" t="s">
+        <v>538</v>
+      </c>
+      <c r="D34" t="s">
+        <v>584</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34" t="s">
+        <v>639</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H34"/>
+      <c r="I34" t="s">
+        <v>657</v>
+      </c>
+      <c r="J34" t="n">
+        <v>245000.0</v>
+      </c>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34" t="s">
+        <v>690</v>
+      </c>
+      <c r="P34" t="s">
+        <v>721</v>
+      </c>
+      <c r="Q34"/>
+      <c r="R34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>492</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>585</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35" t="s">
+        <v>640</v>
+      </c>
+      <c r="G35" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35" t="n">
+        <v>1221156.0</v>
+      </c>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35" t="s">
+        <v>691</v>
+      </c>
+      <c r="P35" t="s">
+        <v>722</v>
+      </c>
+      <c r="Q35"/>
+      <c r="R35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>493</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" t="s">
+        <v>586</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36" t="s">
+        <v>641</v>
+      </c>
+      <c r="G36" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36" t="n">
+        <v>119952.0</v>
+      </c>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O36" t="s">
+        <v>692</v>
+      </c>
+      <c r="P36" t="s">
+        <v>723</v>
+      </c>
+      <c r="Q36"/>
+      <c r="R36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>494</v>
+      </c>
+      <c r="B37" t="s">
+        <v>539</v>
+      </c>
+      <c r="C37" t="s">
+        <v>539</v>
+      </c>
+      <c r="D37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" t="s">
+        <v>603</v>
+      </c>
+      <c r="F37" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>656</v>
+      </c>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>495</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" t="s">
+        <v>587</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38" t="s">
+        <v>642</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38" t="n">
+        <v>16527.0</v>
+      </c>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38" t="s">
+        <v>693</v>
+      </c>
+      <c r="P38" t="s">
+        <v>724</v>
+      </c>
+      <c r="Q38"/>
+      <c r="R38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>496</v>
+      </c>
+      <c r="B39" t="s">
+        <v>540</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39" t="s">
+        <v>540</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39" t="s">
+        <v>643</v>
+      </c>
+      <c r="G39" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>656</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1221985.0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1221985.0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="M39"/>
+      <c r="N39" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>694</v>
+      </c>
+      <c r="P39" t="s">
+        <v>725</v>
+      </c>
+      <c r="Q39"/>
+      <c r="R39" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>497</v>
+      </c>
+      <c r="B40" t="s">
+        <v>541</v>
+      </c>
+      <c r="C40" t="s">
+        <v>541</v>
+      </c>
+      <c r="D40" t="s">
+        <v>588</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40" t="s">
+        <v>644</v>
+      </c>
+      <c r="G40" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>657</v>
+      </c>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M40"/>
+      <c r="N40" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="O40" t="s">
+        <v>695</v>
+      </c>
+      <c r="P40" t="s">
+        <v>726</v>
+      </c>
+      <c r="Q40"/>
+      <c r="R40" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>498</v>
+      </c>
+      <c r="B41" t="s">
+        <v>542</v>
+      </c>
+      <c r="C41" t="s">
+        <v>542</v>
+      </c>
+      <c r="D41" t="s">
+        <v>589</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41" t="s">
+        <v>645</v>
+      </c>
+      <c r="G41" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41" t="n">
+        <v>50000.0</v>
+      </c>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41" t="s">
+        <v>696</v>
+      </c>
+      <c r="P41" t="s">
+        <v>727</v>
+      </c>
+      <c r="Q41"/>
+      <c r="R41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>499</v>
+      </c>
+      <c r="B42" t="s">
+        <v>543</v>
+      </c>
+      <c r="C42" t="s">
+        <v>543</v>
+      </c>
+      <c r="D42" t="s">
+        <v>590</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42" t="s">
+        <v>646</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42" t="s">
+        <v>697</v>
+      </c>
+      <c r="P42" t="s">
+        <v>728</v>
+      </c>
+      <c r="Q42"/>
+      <c r="R42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>500</v>
+      </c>
+      <c r="B43" t="s">
+        <v>544</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43" t="s">
+        <v>544</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43" t="s">
+        <v>647</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43" t="s">
+        <v>698</v>
+      </c>
+      <c r="P43" t="s">
+        <v>729</v>
+      </c>
+      <c r="Q43"/>
+      <c r="R43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>501</v>
+      </c>
+      <c r="B44" t="s">
+        <v>545</v>
+      </c>
+      <c r="C44" t="s">
+        <v>545</v>
+      </c>
+      <c r="D44" t="s">
+        <v>591</v>
+      </c>
+      <c r="E44" t="s">
+        <v>604</v>
+      </c>
+      <c r="F44" t="s">
+        <v>648</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44" t="s">
+        <v>657</v>
+      </c>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B45" t="s">
+        <v>546</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45" t="s">
+        <v>546</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45" t="s">
+        <v>649</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45" t="s">
+        <v>657</v>
+      </c>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45" t="s">
+        <v>699</v>
+      </c>
+      <c r="P45" t="s">
+        <v>730</v>
+      </c>
+      <c r="Q45"/>
+      <c r="R45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>503</v>
+      </c>
+      <c r="B46" t="s">
+        <v>252</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46" t="s">
+        <v>252</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>253</v>
+      </c>
+      <c r="G46"/>
+      <c r="H46" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>656</v>
+      </c>
+      <c r="J46" t="n">
+        <v>250000.0</v>
+      </c>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46" t="s">
+        <v>258</v>
+      </c>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>504</v>
+      </c>
+      <c r="B47" t="s">
+        <v>547</v>
+      </c>
+      <c r="C47" t="s">
+        <v>547</v>
+      </c>
+      <c r="D47" t="s">
+        <v>592</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47" t="s">
+        <v>650</v>
+      </c>
+      <c r="G47" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>657</v>
+      </c>
+      <c r="J47" t="n">
+        <v>136128.0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>136128.0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47" t="s">
+        <v>700</v>
+      </c>
+      <c r="P47" t="s">
+        <v>731</v>
+      </c>
+      <c r="Q47"/>
+      <c r="R47" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>505</v>
+      </c>
+      <c r="B48" t="s">
+        <v>548</v>
+      </c>
+      <c r="C48" t="s">
+        <v>548</v>
+      </c>
+      <c r="D48" t="s">
+        <v>593</v>
+      </c>
+      <c r="E48" t="s">
+        <v>605</v>
+      </c>
+      <c r="F48" t="s">
+        <v>651</v>
+      </c>
+      <c r="G48" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48" t="s">
+        <v>701</v>
+      </c>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>506</v>
+      </c>
+      <c r="B49" t="s">
+        <v>280</v>
+      </c>
+      <c r="C49" t="s">
+        <v>280</v>
+      </c>
+      <c r="D49" t="s">
+        <v>280</v>
+      </c>
+      <c r="E49" t="s">
+        <v>606</v>
+      </c>
+      <c r="F49" t="s">
+        <v>282</v>
+      </c>
+      <c r="G49" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>656</v>
+      </c>
+      <c r="J49" t="n">
+        <v>320000.0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>320000.0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M49"/>
+      <c r="N49" t="n">
+        <v>281.0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>283</v>
+      </c>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>507</v>
+      </c>
+      <c r="B50" t="s">
+        <v>549</v>
+      </c>
+      <c r="C50" t="s">
+        <v>549</v>
+      </c>
+      <c r="D50" t="s">
+        <v>292</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50" t="s">
+        <v>294</v>
+      </c>
+      <c r="G50" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50" t="s">
+        <v>295</v>
+      </c>
+      <c r="P50" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q50"/>
+      <c r="R50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>508</v>
+      </c>
+      <c r="B51" t="s">
+        <v>550</v>
+      </c>
+      <c r="C51" t="s">
+        <v>550</v>
+      </c>
+      <c r="D51" t="s">
+        <v>335</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51" t="s">
+        <v>337</v>
+      </c>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q51"/>
+      <c r="R51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>509</v>
+      </c>
+      <c r="B52" t="s">
+        <v>551</v>
+      </c>
+      <c r="C52" t="s">
+        <v>551</v>
+      </c>
+      <c r="D52" t="s">
+        <v>338</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52" t="s">
+        <v>340</v>
+      </c>
+      <c r="G52" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>657</v>
+      </c>
+      <c r="J52" t="n">
+        <v>44010.0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>44010.0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="N52"/>
+      <c r="O52" t="s">
+        <v>342</v>
+      </c>
+      <c r="P52" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q52"/>
+      <c r="R52" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>510</v>
+      </c>
+      <c r="B53" t="s">
+        <v>552</v>
+      </c>
+      <c r="C53" t="s">
+        <v>552</v>
+      </c>
+      <c r="D53" t="s">
+        <v>594</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53" t="s">
+        <v>652</v>
+      </c>
+      <c r="G53" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>657</v>
+      </c>
+      <c r="J53" t="n">
+        <v>50562.0</v>
+      </c>
+      <c r="K53"/>
+      <c r="L53" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="O53" t="s">
+        <v>702</v>
+      </c>
+      <c r="P53" t="s">
+        <v>732</v>
+      </c>
+      <c r="Q53"/>
+      <c r="R53" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>511</v>
+      </c>
+      <c r="B54" t="s">
+        <v>553</v>
+      </c>
+      <c r="C54" t="s">
+        <v>553</v>
+      </c>
+      <c r="D54" t="s">
+        <v>595</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54" t="s">
+        <v>653</v>
+      </c>
+      <c r="G54" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q54"/>
+      <c r="R54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>512</v>
+      </c>
+      <c r="B55" t="s">
+        <v>554</v>
+      </c>
+      <c r="C55" t="s">
+        <v>554</v>
+      </c>
+      <c r="D55" t="s">
+        <v>596</v>
+      </c>
+      <c r="E55" t="s">
+        <v>607</v>
+      </c>
+      <c r="F55" t="s">
+        <v>654</v>
+      </c>
+      <c r="G55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>657</v>
+      </c>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>513</v>
+      </c>
+      <c r="B56" t="s">
+        <v>555</v>
+      </c>
+      <c r="C56" t="s">
+        <v>555</v>
+      </c>
+      <c r="D56" t="s">
+        <v>420</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56" t="s">
+        <v>422</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56" t="s">
+        <v>423</v>
+      </c>
+      <c r="P56" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q56"/>
+      <c r="R56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>514</v>
+      </c>
+      <c r="B57" t="s">
+        <v>556</v>
+      </c>
+      <c r="C57" t="s">
+        <v>556</v>
+      </c>
+      <c r="D57" t="s">
+        <v>597</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57" t="s">
+        <v>655</v>
+      </c>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q57"/>
+      <c r="R57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>515</v>
+      </c>
+      <c r="B58" t="s">
+        <v>557</v>
+      </c>
+      <c r="C58" t="s">
+        <v>557</v>
+      </c>
+      <c r="D58" t="s">
+        <v>435</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58" t="s">
+        <v>436</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>516</v>
+      </c>
+      <c r="B59" t="s">
+        <v>558</v>
+      </c>
+      <c r="C59" t="s">
+        <v>558</v>
+      </c>
+      <c r="D59" t="s">
+        <v>437</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59" t="s">
+        <v>439</v>
+      </c>
+      <c r="G59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59" t="s">
+        <v>441</v>
+      </c>
+      <c r="P59" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q59"/>
+      <c r="R59"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/dat/synchros-initiatives.xlsx
+++ b/dat/synchros-initiatives.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="20880" windowHeight="7995" tabRatio="500"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="20880" windowHeight="7995" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -2393,13 +2393,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2409,6 +2424,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2428,57 +2479,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2769,96 +2769,96 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="37" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="37" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" ht="381.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="23">
         <v>30</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="23">
         <v>3</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="25">
         <v>1300000</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="25">
         <v>316270</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="19" t="s">
+      <c r="K3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="23" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2866,53 +2866,53 @@
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="23">
         <v>6</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="19" t="s">
+      <c r="E5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="25">
         <v>245000</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="19" t="s">
+      <c r="H5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="23" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2920,52 +2920,52 @@
       <c r="A6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
     </row>
     <row r="7" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="31">
         <v>11</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="35">
+      <c r="E7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="25">
         <v>1221156</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="19" t="s">
+      <c r="H7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="23" t="s">
         <v>38</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -2973,122 +2973,122 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
       <c r="L9" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="204" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="23">
         <v>66</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="19" t="s">
+      <c r="E12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="1:12" ht="190.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
@@ -3109,7 +3109,7 @@
       <c r="F14" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="35">
         <v>300000</v>
       </c>
       <c r="H14" s="31" t="s">
@@ -3121,7 +3121,7 @@
       <c r="J14" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="35">
         <v>1477</v>
       </c>
       <c r="L14" s="31" t="s">
@@ -3132,53 +3132,53 @@
       <c r="A15" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="33"/>
     </row>
     <row r="16" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="23">
         <v>18</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="23">
         <v>18</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="25">
         <v>346553</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="25">
         <v>346553</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="23">
         <v>180</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="23" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3186,53 +3186,53 @@
       <c r="A17" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="1:12" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="23">
         <v>13</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="23">
         <v>13</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="35">
+      <c r="F18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="25">
         <v>773499</v>
       </c>
-      <c r="H18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="19">
+      <c r="H18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="23">
         <v>100</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3240,53 +3240,53 @@
       <c r="A19" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="23" t="s">
         <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="23">
         <v>10</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="23">
         <v>10</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="25">
         <v>2662777</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="25">
         <v>2662777</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="23">
         <v>9</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="23" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3294,35 +3294,35 @@
       <c r="A21" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="20"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
     </row>
     <row r="23" spans="1:12" ht="254.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
@@ -3331,34 +3331,34 @@
       <c r="B23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="23">
         <v>17</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="23">
         <v>17</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="25">
         <v>76233</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="25">
         <v>76233</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="23">
         <v>31</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="23" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3369,49 +3369,49 @@
       <c r="B24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
     </row>
     <row r="25" spans="1:12" ht="267" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="39">
         <v>34</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="39">
         <v>34</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="37">
         <v>950000</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="37">
         <v>950000</v>
       </c>
-      <c r="I25" s="33" t="s">
+      <c r="I25" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="J25" s="33" t="s">
+      <c r="J25" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="39">
         <v>12</v>
       </c>
       <c r="L25" s="5" t="s">
@@ -3422,16 +3422,16 @@
       <c r="A26" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
       <c r="L26" s="6" t="s">
         <v>92</v>
       </c>
@@ -3440,37 +3440,37 @@
       <c r="A27" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="23">
         <v>8</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="35">
+      <c r="F27" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="25">
         <v>119952</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="19" t="s">
+      <c r="I27" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="19">
+      <c r="J27" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="23">
         <v>8</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="23" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3478,53 +3478,53 @@
       <c r="A28" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
     </row>
     <row r="29" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="23">
         <v>17</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="23">
         <v>10</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="25">
         <v>280000</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="I29" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="J29" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="23" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3532,17 +3532,17 @@
       <c r="A30" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
     </row>
     <row r="31" spans="1:12" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
@@ -3586,37 +3586,37 @@
       <c r="A32" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="23" t="s">
         <v>111</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="23">
         <v>4</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="35">
+      <c r="E32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="25">
         <v>16527</v>
       </c>
-      <c r="H32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" s="19" t="s">
+      <c r="H32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="23" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3624,87 +3624,87 @@
       <c r="A33" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="21"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
     </row>
     <row r="34" spans="1:12" ht="267.75" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
-      <c r="B34" s="21"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
     </row>
     <row r="35" spans="1:12" ht="204.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="20"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
     </row>
     <row r="36" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="23">
         <v>15</v>
       </c>
       <c r="E36" s="31">
         <v>15</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G36" s="25">
         <v>190268</v>
       </c>
-      <c r="H36" s="35">
+      <c r="H36" s="25">
         <v>190268</v>
       </c>
-      <c r="I36" s="19" t="s">
+      <c r="I36" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="J36" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K36" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L36" s="19" t="s">
+      <c r="K36" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="23" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3712,53 +3712,53 @@
       <c r="A37" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
     </row>
     <row r="38" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="23" t="s">
         <v>122</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="23">
         <v>7</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="23">
         <v>7</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G38" s="25">
         <v>42189</v>
       </c>
-      <c r="H38" s="35">
+      <c r="H38" s="25">
         <v>31000</v>
       </c>
-      <c r="I38" s="19" t="s">
+      <c r="I38" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="J38" s="19" t="s">
+      <c r="J38" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K38" s="19">
+      <c r="K38" s="23">
         <v>15</v>
       </c>
-      <c r="L38" s="19" t="s">
+      <c r="L38" s="23" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3766,52 +3766,52 @@
       <c r="A39" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="20"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
     </row>
     <row r="40" spans="1:12" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="23" t="s">
         <v>128</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="23">
         <v>18</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="23">
         <v>8</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="H40" s="35">
+      <c r="H40" s="25">
         <v>102774</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J40" s="19" t="s">
+      <c r="J40" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K40" s="19">
+      <c r="K40" s="23">
         <v>270</v>
       </c>
       <c r="L40" s="2" t="s">
@@ -3822,88 +3822,88 @@
       <c r="A41" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="21"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="40"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="34"/>
       <c r="I41" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
       <c r="L41" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
-      <c r="B42" s="21"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="40"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="34"/>
       <c r="I42" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
       <c r="L42" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
-      <c r="B43" s="21"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="40"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="34"/>
       <c r="I43" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
       <c r="L43" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
-      <c r="B44" s="21"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="40"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="34"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
       <c r="L44" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="20"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="36"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="26"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
       <c r="L45" s="3" t="s">
         <v>141</v>
       </c>
@@ -3918,31 +3918,31 @@
       <c r="C46" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="E46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="19" t="s">
+      <c r="E46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="H46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L46" s="19" t="s">
+      <c r="H46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3956,29 +3956,29 @@
       <c r="C47" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
     </row>
     <row r="49" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -3986,15 +3986,15 @@
       <c r="C49" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
     </row>
     <row r="50" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
@@ -4002,15 +4002,15 @@
       <c r="C50" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
     </row>
     <row r="51" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
@@ -4018,15 +4018,15 @@
       <c r="C51" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
     </row>
     <row r="52" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
@@ -4034,29 +4034,29 @@
       <c r="C52" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="10"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
     </row>
     <row r="54" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
@@ -4064,15 +4064,15 @@
       <c r="C54" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
     </row>
     <row r="55" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
@@ -4080,15 +4080,15 @@
       <c r="C55" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
     </row>
     <row r="56" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
@@ -4096,15 +4096,15 @@
       <c r="C56" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
     </row>
     <row r="57" spans="1:12" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -4112,250 +4112,250 @@
       <c r="C57" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
     </row>
     <row r="58" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="23" t="s">
         <v>158</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="23">
         <v>36</v>
       </c>
-      <c r="E58" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="19" t="s">
+      <c r="E58" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="19" t="s">
+      <c r="G58" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="H58" s="19" t="s">
+      <c r="H58" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="I58" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J58" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K58" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L58" s="19" t="s">
+      <c r="I58" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J58" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K58" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="23"/>
-      <c r="B59" s="21"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="23"/>
-      <c r="B60" s="21"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="10"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
     </row>
     <row r="61" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="21"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
     </row>
     <row r="62" spans="1:12" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
-      <c r="B62" s="20"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
     </row>
     <row r="63" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="23" t="s">
         <v>166</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D63" s="23">
         <v>4</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E63" s="23">
         <v>4</v>
       </c>
-      <c r="F63" s="19" t="s">
+      <c r="F63" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G63" s="35">
+      <c r="G63" s="25">
         <v>22730</v>
       </c>
-      <c r="H63" s="19" t="s">
+      <c r="H63" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="I63" s="19" t="s">
+      <c r="I63" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="J63" s="19" t="s">
+      <c r="J63" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K63" s="19">
+      <c r="K63" s="23">
         <v>1043</v>
       </c>
-      <c r="L63" s="19" t="s">
+      <c r="L63" s="23" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="23"/>
-      <c r="B64" s="21"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="10"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
     </row>
     <row r="65" spans="1:12" ht="255" x14ac:dyDescent="0.2">
-      <c r="A65" s="23"/>
-      <c r="B65" s="21"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
     </row>
     <row r="66" spans="1:12" ht="102" x14ac:dyDescent="0.2">
-      <c r="A66" s="23"/>
-      <c r="B66" s="21"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
     </row>
     <row r="67" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="23"/>
-      <c r="B67" s="21"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
     </row>
     <row r="68" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="23"/>
-      <c r="B68" s="21"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
     </row>
     <row r="69" spans="1:12" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
-      <c r="B69" s="20"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
     </row>
     <row r="70" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="27" t="s">
         <v>176</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -4364,108 +4364,108 @@
       <c r="C70" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="23">
         <v>29</v>
       </c>
-      <c r="E70" s="19">
+      <c r="E70" s="23">
         <v>24</v>
       </c>
-      <c r="F70" s="19" t="s">
+      <c r="F70" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G70" s="35">
+      <c r="G70" s="25">
         <v>1221985</v>
       </c>
-      <c r="H70" s="35">
+      <c r="H70" s="25">
         <v>1221985</v>
       </c>
-      <c r="I70" s="19" t="s">
+      <c r="I70" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="J70" s="19" t="s">
+      <c r="J70" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K70" s="19">
+      <c r="K70" s="23">
         <v>600</v>
       </c>
-      <c r="L70" s="19" t="s">
+      <c r="L70" s="23" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="24"/>
+      <c r="A71" s="29"/>
       <c r="B71" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
     </row>
     <row r="72" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="23" t="s">
         <v>183</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D72" s="23">
         <v>29</v>
       </c>
-      <c r="E72" s="19">
+      <c r="E72" s="23">
         <v>29</v>
       </c>
-      <c r="F72" s="19" t="s">
+      <c r="F72" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G72" s="19">
+      <c r="G72" s="23">
         <v>700</v>
       </c>
-      <c r="H72" s="19">
+      <c r="H72" s="23">
         <v>700</v>
       </c>
-      <c r="I72" s="19" t="s">
+      <c r="I72" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="J72" s="19" t="s">
+      <c r="J72" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K72" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L72" s="19" t="s">
+      <c r="K72" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L72" s="23" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="306.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="24"/>
-      <c r="B73" s="20"/>
+      <c r="A73" s="29"/>
+      <c r="B73" s="24"/>
       <c r="C73" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
     </row>
     <row r="74" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="27" t="s">
         <v>188</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -4474,471 +4474,471 @@
       <c r="C74" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D74" s="19">
+      <c r="D74" s="23">
         <v>14</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E74" s="23">
         <v>14</v>
       </c>
-      <c r="F74" s="19" t="s">
+      <c r="F74" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G74" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H74" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I74" s="19" t="s">
+      <c r="G74" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="J74" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K74" s="19">
+      <c r="J74" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K74" s="23">
         <v>323</v>
       </c>
       <c r="L74" s="10"/>
     </row>
     <row r="75" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
+      <c r="A75" s="28"/>
       <c r="B75" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
       <c r="L75" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="23"/>
+      <c r="A76" s="28"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
       <c r="L76" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="23"/>
+      <c r="A77" s="28"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
       <c r="L77" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="24"/>
+      <c r="A78" s="29"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="20"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
       <c r="L78" s="3" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="23" t="s">
         <v>199</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E79" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G79" s="19">
+      <c r="E79" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79" s="23">
         <v>50000</v>
       </c>
-      <c r="H79" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I79" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J79" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K79" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L79" s="19" t="s">
+      <c r="H79" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J79" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K79" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L79" s="23" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="23"/>
-      <c r="B80" s="21"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="30"/>
       <c r="C80" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
-      <c r="I80" s="21"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="21"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="30"/>
     </row>
     <row r="81" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="23"/>
-      <c r="B81" s="21"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="30"/>
       <c r="C81" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="21"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
     </row>
     <row r="82" spans="1:12" ht="204" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="21"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="30"/>
       <c r="C82" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="30"/>
     </row>
     <row r="83" spans="1:12" ht="192" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="24"/>
-      <c r="B83" s="20"/>
+      <c r="A83" s="29"/>
+      <c r="B83" s="24"/>
       <c r="C83" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
     </row>
     <row r="84" spans="1:12" ht="204" x14ac:dyDescent="0.2">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="23" t="s">
         <v>208</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D84" s="19" t="s">
+      <c r="D84" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="E84" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F84" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G84" s="19" t="s">
+      <c r="E84" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G84" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="H84" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I84" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J84" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K84" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L84" s="19" t="s">
+      <c r="H84" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I84" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J84" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K84" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L84" s="23" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="24"/>
-      <c r="B85" s="20"/>
+      <c r="A85" s="29"/>
+      <c r="B85" s="24"/>
       <c r="C85" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
     </row>
     <row r="86" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="23" t="s">
         <v>215</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D86" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F86" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G86" s="35">
+      <c r="D86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G86" s="25">
         <v>100000</v>
       </c>
-      <c r="H86" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I86" s="19" t="s">
+      <c r="H86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I86" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J86" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K86" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L86" s="19" t="s">
+      <c r="J86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L86" s="23" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A87" s="23"/>
-      <c r="B87" s="21"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="30"/>
       <c r="C87" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="30"/>
+      <c r="L87" s="30"/>
     </row>
     <row r="88" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="24"/>
-      <c r="B88" s="20"/>
+      <c r="A88" s="29"/>
+      <c r="B88" s="24"/>
       <c r="C88" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
     </row>
     <row r="89" spans="1:12" ht="267.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="23" t="s">
         <v>222</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D89" s="19">
+      <c r="D89" s="23">
         <v>9</v>
       </c>
-      <c r="E89" s="19">
+      <c r="E89" s="23">
         <v>6</v>
       </c>
-      <c r="F89" s="19" t="s">
+      <c r="F89" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G89" s="19" t="s">
+      <c r="G89" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="H89" s="35">
+      <c r="H89" s="25">
         <v>150000</v>
       </c>
-      <c r="I89" s="19" t="s">
+      <c r="I89" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="J89" s="19" t="s">
+      <c r="J89" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K89" s="19">
+      <c r="K89" s="23">
         <v>15</v>
       </c>
-      <c r="L89" s="19" t="s">
+      <c r="L89" s="23" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="280.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="23"/>
-      <c r="B90" s="21"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="30"/>
       <c r="C90" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="21"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="30"/>
+      <c r="L90" s="30"/>
     </row>
     <row r="91" spans="1:12" ht="243" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="24"/>
-      <c r="B91" s="20"/>
+      <c r="A91" s="29"/>
+      <c r="B91" s="24"/>
       <c r="C91" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="20"/>
-      <c r="L91" s="20"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
     </row>
     <row r="92" spans="1:12" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B92" s="23" t="s">
         <v>230</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="E92" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F92" s="19" t="s">
+      <c r="E92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G92" s="19" t="s">
+      <c r="G92" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="H92" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I92" s="19" t="s">
+      <c r="H92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I92" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="J92" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K92" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L92" s="19" t="s">
+      <c r="J92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L92" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="293.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="23"/>
-      <c r="B93" s="21"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="30"/>
       <c r="C93" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="21"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="30"/>
+      <c r="L93" s="30"/>
     </row>
     <row r="94" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="24"/>
-      <c r="B94" s="20"/>
+      <c r="A94" s="29"/>
+      <c r="B94" s="24"/>
       <c r="C94" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
-      <c r="K94" s="20"/>
-      <c r="L94" s="20"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
     </row>
     <row r="95" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="23" t="s">
         <v>237</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -4947,28 +4947,28 @@
       <c r="D95" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E95" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F95" s="19" t="s">
+      <c r="E95" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G95" s="35">
+      <c r="G95" s="25">
         <v>315000</v>
       </c>
-      <c r="H95" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I95" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J95" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K95" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L95" s="19" t="s">
+      <c r="H95" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I95" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J95" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K95" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L95" s="23" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4976,71 +4976,71 @@
       <c r="A96" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B96" s="21"/>
+      <c r="B96" s="30"/>
       <c r="C96" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D96" s="10"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="40"/>
-      <c r="H96" s="21"/>
-      <c r="I96" s="21"/>
-      <c r="J96" s="21"/>
-      <c r="K96" s="21"/>
-      <c r="L96" s="21"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="30"/>
     </row>
     <row r="97" spans="1:12" ht="294" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="20"/>
+      <c r="B97" s="24"/>
       <c r="C97" s="9"/>
       <c r="D97" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="20"/>
-      <c r="L97" s="20"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
     </row>
     <row r="98" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="B98" s="23" t="s">
         <v>245</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D98" s="19" t="s">
+      <c r="D98" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="E98" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F98" s="19" t="s">
+      <c r="E98" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G98" s="19" t="s">
+      <c r="G98" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="H98" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I98" s="19" t="s">
+      <c r="H98" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I98" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="J98" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K98" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L98" s="19" t="s">
+      <c r="J98" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K98" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L98" s="23" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5048,19 +5048,19 @@
       <c r="A99" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="B99" s="20"/>
+      <c r="B99" s="24"/>
       <c r="C99" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="20"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="20"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
     </row>
     <row r="100" spans="1:12" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
@@ -5101,7 +5101,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="37" t="s">
+      <c r="A101" s="19" t="s">
         <v>259</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -5110,54 +5110,54 @@
       <c r="C101" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D101" s="19">
+      <c r="D101" s="23">
         <v>6</v>
       </c>
-      <c r="E101" s="19">
+      <c r="E101" s="23">
         <v>6</v>
       </c>
-      <c r="F101" s="19" t="s">
+      <c r="F101" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G101" s="35">
+      <c r="G101" s="25">
         <v>136128</v>
       </c>
-      <c r="H101" s="35">
+      <c r="H101" s="25">
         <v>136128</v>
       </c>
-      <c r="I101" s="19" t="s">
+      <c r="I101" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="J101" s="19" t="s">
+      <c r="J101" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="K101" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L101" s="19" t="s">
+      <c r="K101" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L101" s="23" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="39"/>
+      <c r="A102" s="20"/>
       <c r="B102" s="3" t="s">
         <v>261</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="20"/>
-      <c r="K102" s="20"/>
-      <c r="L102" s="20"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
     </row>
     <row r="103" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A103" s="37" t="s">
+      <c r="A103" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -5166,179 +5166,179 @@
       <c r="C103" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D103" s="19">
+      <c r="D103" s="23">
         <v>373</v>
       </c>
-      <c r="E103" s="19" t="s">
+      <c r="E103" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F103" s="19" t="s">
+      <c r="F103" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G103" s="19" t="s">
+      <c r="G103" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="H103" s="19" t="s">
+      <c r="H103" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="I103" s="19" t="s">
+      <c r="I103" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="J103" s="19" t="s">
+      <c r="J103" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K103" s="19" t="s">
+      <c r="K103" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="L103" s="19" t="s">
+      <c r="L103" s="23" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="38"/>
+      <c r="A104" s="41"/>
       <c r="B104" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C104" s="10"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="21"/>
-      <c r="H104" s="21"/>
-      <c r="I104" s="21"/>
-      <c r="J104" s="21"/>
-      <c r="K104" s="21"/>
-      <c r="L104" s="21"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
+      <c r="K104" s="30"/>
+      <c r="L104" s="30"/>
     </row>
     <row r="105" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="38"/>
+      <c r="A105" s="41"/>
       <c r="B105" s="8"/>
       <c r="C105" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="21"/>
-      <c r="I105" s="21"/>
-      <c r="J105" s="21"/>
-      <c r="K105" s="21"/>
-      <c r="L105" s="21"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
+      <c r="K105" s="30"/>
+      <c r="L105" s="30"/>
     </row>
     <row r="106" spans="1:12" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="39"/>
+      <c r="A106" s="20"/>
       <c r="B106" s="9"/>
       <c r="C106" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="20"/>
-      <c r="J106" s="20"/>
-      <c r="K106" s="20"/>
-      <c r="L106" s="20"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="24"/>
+      <c r="L106" s="24"/>
     </row>
     <row r="107" spans="1:12" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="37" t="s">
+      <c r="A107" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="B107" s="19" t="s">
+      <c r="B107" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D107" s="19">
+      <c r="D107" s="23">
         <v>20</v>
       </c>
-      <c r="E107" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F107" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G107" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H107" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I107" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J107" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K107" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L107" s="19" t="s">
+      <c r="E107" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F107" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G107" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H107" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I107" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J107" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K107" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L107" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" s="38"/>
-      <c r="B108" s="21"/>
+      <c r="A108" s="41"/>
+      <c r="B108" s="30"/>
       <c r="C108" s="10"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="21"/>
-      <c r="H108" s="21"/>
-      <c r="I108" s="21"/>
-      <c r="J108" s="21"/>
-      <c r="K108" s="21"/>
-      <c r="L108" s="21"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
+      <c r="K108" s="30"/>
+      <c r="L108" s="30"/>
     </row>
     <row r="109" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="38"/>
-      <c r="B109" s="21"/>
+      <c r="A109" s="41"/>
+      <c r="B109" s="30"/>
       <c r="C109" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D109" s="21"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="21"/>
-      <c r="H109" s="21"/>
-      <c r="I109" s="21"/>
-      <c r="J109" s="21"/>
-      <c r="K109" s="21"/>
-      <c r="L109" s="21"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
+      <c r="K109" s="30"/>
+      <c r="L109" s="30"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" s="38"/>
-      <c r="B110" s="21"/>
+      <c r="A110" s="41"/>
+      <c r="B110" s="30"/>
       <c r="C110" s="10"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="21"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="21"/>
-      <c r="H110" s="21"/>
-      <c r="I110" s="21"/>
-      <c r="J110" s="21"/>
-      <c r="K110" s="21"/>
-      <c r="L110" s="21"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="30"/>
+      <c r="K110" s="30"/>
+      <c r="L110" s="30"/>
     </row>
     <row r="111" spans="1:12" ht="243" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="39"/>
-      <c r="B111" s="20"/>
+      <c r="A111" s="20"/>
+      <c r="B111" s="24"/>
       <c r="C111" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="20"/>
-      <c r="I111" s="20"/>
-      <c r="J111" s="20"/>
-      <c r="K111" s="20"/>
-      <c r="L111" s="20"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="24"/>
     </row>
     <row r="112" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
@@ -5379,37 +5379,37 @@
       </c>
     </row>
     <row r="113" spans="1:12" ht="318.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="37" t="s">
+      <c r="A113" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B113" s="19" t="s">
+      <c r="B113" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D113" s="19">
+      <c r="D113" s="23">
         <v>6</v>
       </c>
-      <c r="E113" s="19">
+      <c r="E113" s="23">
         <v>6</v>
       </c>
-      <c r="F113" s="19" t="s">
+      <c r="F113" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G113" s="19" t="s">
+      <c r="G113" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="H113" s="19" t="s">
+      <c r="H113" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="I113" s="19" t="s">
+      <c r="I113" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="J113" s="19" t="s">
+      <c r="J113" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K113" s="19" t="s">
+      <c r="K113" s="23" t="s">
         <v>38</v>
       </c>
       <c r="L113" s="2" t="s">
@@ -5417,51 +5417,51 @@
       </c>
     </row>
     <row r="114" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A114" s="38"/>
-      <c r="B114" s="21"/>
+      <c r="A114" s="41"/>
+      <c r="B114" s="30"/>
       <c r="C114" s="10"/>
-      <c r="D114" s="21"/>
-      <c r="E114" s="21"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="21"/>
-      <c r="H114" s="21"/>
-      <c r="I114" s="21"/>
-      <c r="J114" s="21"/>
-      <c r="K114" s="21"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="30"/>
+      <c r="K114" s="30"/>
       <c r="L114" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="38"/>
-      <c r="B115" s="21"/>
+      <c r="A115" s="41"/>
+      <c r="B115" s="30"/>
       <c r="C115" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
-      <c r="I115" s="21"/>
-      <c r="J115" s="21"/>
-      <c r="K115" s="21"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="30"/>
+      <c r="I115" s="30"/>
+      <c r="J115" s="30"/>
+      <c r="K115" s="30"/>
       <c r="L115" s="8"/>
     </row>
     <row r="116" spans="1:12" ht="294" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="39"/>
-      <c r="B116" s="20"/>
+      <c r="A116" s="20"/>
+      <c r="B116" s="24"/>
       <c r="C116" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="20"/>
-      <c r="I116" s="20"/>
-      <c r="J116" s="20"/>
-      <c r="K116" s="20"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="24"/>
+      <c r="J116" s="24"/>
+      <c r="K116" s="24"/>
       <c r="L116" s="9"/>
     </row>
     <row r="117" spans="1:12" ht="396" thickBot="1" x14ac:dyDescent="0.25">
@@ -5579,182 +5579,182 @@
       </c>
     </row>
     <row r="120" spans="1:12" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="22" t="s">
+      <c r="A120" s="27" t="s">
         <v>310</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C120" s="33" t="s">
+      <c r="C120" s="39" t="s">
         <v>312</v>
       </c>
-      <c r="D120" s="19">
+      <c r="D120" s="23">
         <v>43</v>
       </c>
-      <c r="E120" s="19">
+      <c r="E120" s="23">
         <v>43</v>
       </c>
-      <c r="F120" s="19" t="s">
+      <c r="F120" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G120" s="35">
+      <c r="G120" s="25">
         <v>1000000</v>
       </c>
-      <c r="H120" s="35">
+      <c r="H120" s="25">
         <v>1000000</v>
       </c>
-      <c r="I120" s="19" t="s">
+      <c r="I120" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="J120" s="19" t="s">
+      <c r="J120" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="K120" s="19" t="s">
+      <c r="K120" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="L120" s="19" t="s">
+      <c r="L120" s="23" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="24"/>
+      <c r="A121" s="29"/>
       <c r="B121" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C121" s="34"/>
-      <c r="D121" s="20"/>
-      <c r="E121" s="20"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="36"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="20"/>
-      <c r="J121" s="20"/>
-      <c r="K121" s="20"/>
-      <c r="L121" s="20"/>
+      <c r="C121" s="40"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="26"/>
+      <c r="I121" s="24"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="24"/>
+      <c r="L121" s="24"/>
     </row>
     <row r="122" spans="1:12" ht="102" x14ac:dyDescent="0.2">
-      <c r="A122" s="22" t="s">
+      <c r="A122" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="B122" s="19" t="s">
+      <c r="B122" s="23" t="s">
         <v>318</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D122" s="19" t="s">
+      <c r="D122" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="E122" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F122" s="19" t="s">
+      <c r="E122" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F122" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G122" s="19" t="s">
+      <c r="G122" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="H122" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I122" s="19" t="s">
+      <c r="H122" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I122" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="J122" s="19" t="s">
+      <c r="J122" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K122" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L122" s="19" t="s">
+      <c r="K122" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L122" s="23" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="23"/>
-      <c r="B123" s="21"/>
+      <c r="A123" s="28"/>
+      <c r="B123" s="30"/>
       <c r="C123" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D123" s="21"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="21"/>
-      <c r="H123" s="21"/>
-      <c r="I123" s="21"/>
-      <c r="J123" s="21"/>
-      <c r="K123" s="21"/>
-      <c r="L123" s="21"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="30"/>
+      <c r="K123" s="30"/>
+      <c r="L123" s="30"/>
     </row>
     <row r="124" spans="1:12" ht="90" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="24"/>
-      <c r="B124" s="20"/>
+      <c r="A124" s="29"/>
+      <c r="B124" s="24"/>
       <c r="C124" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D124" s="20"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="20"/>
-      <c r="H124" s="20"/>
-      <c r="I124" s="20"/>
-      <c r="J124" s="20"/>
-      <c r="K124" s="20"/>
-      <c r="L124" s="20"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="24"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
     </row>
     <row r="125" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="22" t="s">
+      <c r="A125" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="B125" s="19" t="s">
+      <c r="B125" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="C125" s="19" t="s">
+      <c r="C125" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="D125" s="19" t="s">
+      <c r="D125" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="E125" s="19" t="s">
+      <c r="E125" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="F125" s="19" t="s">
+      <c r="F125" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="G125" s="19" t="s">
+      <c r="G125" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="H125" s="19" t="s">
+      <c r="H125" s="23" t="s">
         <v>330</v>
       </c>
       <c r="I125" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="J125" s="19" t="s">
+      <c r="J125" s="23" t="s">
         <v>330</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="L125" s="19" t="s">
+      <c r="L125" s="23" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="24"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="20"/>
-      <c r="D126" s="20"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="20"/>
-      <c r="H126" s="20"/>
-      <c r="I126" s="32"/>
-      <c r="J126" s="20"/>
+      <c r="A126" s="29"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="33"/>
+      <c r="J126" s="24"/>
       <c r="K126" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="L126" s="20"/>
+      <c r="L126" s="24"/>
     </row>
     <row r="127" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
@@ -5874,37 +5874,37 @@
       <c r="A130" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B130" s="19" t="s">
+      <c r="B130" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="C130" s="19" t="s">
+      <c r="C130" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="D130" s="19">
+      <c r="D130" s="23">
         <v>9</v>
       </c>
-      <c r="E130" s="19">
+      <c r="E130" s="23">
         <v>9</v>
       </c>
-      <c r="F130" s="19" t="s">
+      <c r="F130" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G130" s="25">
+      <c r="G130" s="42">
         <v>50562</v>
       </c>
-      <c r="H130" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I130" s="19" t="s">
+      <c r="H130" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I130" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="J130" s="19" t="s">
+      <c r="J130" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K130" s="27">
+      <c r="K130" s="44">
         <v>450</v>
       </c>
-      <c r="L130" s="19" t="s">
+      <c r="L130" s="23" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5912,53 +5912,53 @@
       <c r="A131" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B131" s="20"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="26"/>
-      <c r="H131" s="20"/>
-      <c r="I131" s="20"/>
-      <c r="J131" s="20"/>
-      <c r="K131" s="28"/>
-      <c r="L131" s="20"/>
+      <c r="B131" s="24"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="43"/>
+      <c r="H131" s="24"/>
+      <c r="I131" s="24"/>
+      <c r="J131" s="24"/>
+      <c r="K131" s="45"/>
+      <c r="L131" s="24"/>
     </row>
     <row r="132" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="B132" s="19" t="s">
+      <c r="B132" s="23" t="s">
         <v>356</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D132" s="27">
+      <c r="D132" s="44">
         <v>3</v>
       </c>
-      <c r="E132" s="19">
+      <c r="E132" s="23">
         <v>3</v>
       </c>
-      <c r="F132" s="19" t="s">
+      <c r="F132" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G132" s="19">
+      <c r="G132" s="23">
         <v>970</v>
       </c>
-      <c r="H132" s="19">
+      <c r="H132" s="23">
         <v>970</v>
       </c>
-      <c r="I132" s="19" t="s">
+      <c r="I132" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="J132" s="19" t="s">
+      <c r="J132" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K132" s="27" t="s">
+      <c r="K132" s="44" t="s">
         <v>360</v>
       </c>
-      <c r="L132" s="19" t="s">
+      <c r="L132" s="23" t="s">
         <v>361</v>
       </c>
     </row>
@@ -5966,113 +5966,113 @@
       <c r="A133" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B133" s="20"/>
+      <c r="B133" s="24"/>
       <c r="C133" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D133" s="28"/>
-      <c r="E133" s="20"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="20"/>
-      <c r="H133" s="20"/>
-      <c r="I133" s="20"/>
-      <c r="J133" s="20"/>
-      <c r="K133" s="28"/>
-      <c r="L133" s="20"/>
+      <c r="D133" s="45"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="24"/>
+      <c r="I133" s="24"/>
+      <c r="J133" s="24"/>
+      <c r="K133" s="45"/>
+      <c r="L133" s="24"/>
     </row>
     <row r="134" spans="1:12" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="29" t="s">
+      <c r="A134" s="46" t="s">
         <v>11</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C134" s="19" t="s">
+      <c r="C134" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="D134" s="27">
+      <c r="D134" s="44">
         <v>9</v>
       </c>
-      <c r="E134" s="19">
+      <c r="E134" s="23">
         <v>9</v>
       </c>
-      <c r="F134" s="19" t="s">
+      <c r="F134" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G134" s="25">
+      <c r="G134" s="42">
         <v>1190000</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="I134" s="19" t="s">
+      <c r="I134" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="J134" s="19" t="s">
+      <c r="J134" s="23" t="s">
         <v>37</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="L134" s="19" t="s">
+      <c r="L134" s="23" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="30"/>
+      <c r="A135" s="47"/>
       <c r="B135" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C135" s="20"/>
-      <c r="D135" s="28"/>
-      <c r="E135" s="20"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="26"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="45"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="43"/>
       <c r="H135" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="I135" s="20"/>
-      <c r="J135" s="20"/>
+      <c r="I135" s="24"/>
+      <c r="J135" s="24"/>
       <c r="K135" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="L135" s="20"/>
+      <c r="L135" s="24"/>
     </row>
     <row r="136" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="B136" s="19" t="s">
+      <c r="B136" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="C136" s="19" t="s">
+      <c r="C136" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D136" s="27">
+      <c r="D136" s="44">
         <v>9</v>
       </c>
-      <c r="E136" s="19">
+      <c r="E136" s="23">
         <v>9</v>
       </c>
-      <c r="F136" s="19" t="s">
+      <c r="F136" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G136" s="25">
+      <c r="G136" s="42">
         <v>40000</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="I136" s="19" t="s">
+      <c r="I136" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="J136" s="19" t="s">
+      <c r="J136" s="23" t="s">
         <v>37</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="L136" s="19" t="s">
+      <c r="L136" s="23" t="s">
         <v>377</v>
       </c>
     </row>
@@ -6080,57 +6080,57 @@
       <c r="A137" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="B137" s="20"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="28"/>
-      <c r="E137" s="20"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="26"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="45"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="43"/>
       <c r="H137" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="I137" s="20"/>
-      <c r="J137" s="20"/>
+      <c r="I137" s="24"/>
+      <c r="J137" s="24"/>
       <c r="K137" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="L137" s="20"/>
+      <c r="L137" s="24"/>
     </row>
     <row r="138" spans="1:12" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="B138" s="19" t="s">
+      <c r="B138" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="C138" s="19" t="s">
+      <c r="C138" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="D138" s="27">
+      <c r="D138" s="44">
         <v>6</v>
       </c>
-      <c r="E138" s="19">
+      <c r="E138" s="23">
         <v>6</v>
       </c>
-      <c r="F138" s="19" t="s">
+      <c r="F138" s="23" t="s">
         <v>4</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="H138" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I138" s="19" t="s">
+      <c r="H138" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I138" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="J138" s="19" t="s">
+      <c r="J138" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K138" s="27">
+      <c r="K138" s="44">
         <v>20</v>
       </c>
-      <c r="L138" s="19" t="s">
+      <c r="L138" s="23" t="s">
         <v>385</v>
       </c>
     </row>
@@ -6138,55 +6138,55 @@
       <c r="A139" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B139" s="20"/>
-      <c r="C139" s="20"/>
-      <c r="D139" s="28"/>
-      <c r="E139" s="20"/>
-      <c r="F139" s="20"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="45"/>
+      <c r="E139" s="24"/>
+      <c r="F139" s="24"/>
       <c r="G139" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="H139" s="20"/>
-      <c r="I139" s="20"/>
-      <c r="J139" s="20"/>
-      <c r="K139" s="28"/>
-      <c r="L139" s="20"/>
+      <c r="H139" s="24"/>
+      <c r="I139" s="24"/>
+      <c r="J139" s="24"/>
+      <c r="K139" s="45"/>
+      <c r="L139" s="24"/>
     </row>
     <row r="140" spans="1:12" ht="318" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="B140" s="19" t="s">
+      <c r="B140" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="C140" s="19" t="s">
+      <c r="C140" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="D140" s="27">
+      <c r="D140" s="44">
         <v>17</v>
       </c>
-      <c r="E140" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F140" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G140" s="19" t="s">
+      <c r="E140" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F140" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G140" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="H140" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I140" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J140" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K140" s="19" t="s">
+      <c r="H140" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I140" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J140" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K140" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="L140" s="19" t="s">
+      <c r="L140" s="23" t="s">
         <v>392</v>
       </c>
     </row>
@@ -6194,53 +6194,53 @@
       <c r="A141" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="B141" s="20"/>
-      <c r="C141" s="20"/>
-      <c r="D141" s="28"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="20"/>
-      <c r="G141" s="20"/>
-      <c r="H141" s="20"/>
-      <c r="I141" s="20"/>
-      <c r="J141" s="20"/>
-      <c r="K141" s="20"/>
-      <c r="L141" s="20"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="45"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="24"/>
+      <c r="H141" s="24"/>
+      <c r="I141" s="24"/>
+      <c r="J141" s="24"/>
+      <c r="K141" s="24"/>
+      <c r="L141" s="24"/>
     </row>
     <row r="142" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B142" s="19" t="s">
+      <c r="B142" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="C142" s="19" t="s">
+      <c r="C142" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="D142" s="19">
+      <c r="D142" s="23">
         <v>26</v>
       </c>
-      <c r="E142" s="19">
+      <c r="E142" s="23">
         <v>26</v>
       </c>
-      <c r="F142" s="19" t="s">
+      <c r="F142" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G142" s="25">
+      <c r="G142" s="42">
         <v>839666</v>
       </c>
-      <c r="H142" s="25">
+      <c r="H142" s="42">
         <v>839666</v>
       </c>
-      <c r="I142" s="19" t="s">
+      <c r="I142" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="J142" s="19" t="s">
+      <c r="J142" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K142" s="27">
+      <c r="K142" s="44">
         <v>1300</v>
       </c>
-      <c r="L142" s="19" t="s">
+      <c r="L142" s="23" t="s">
         <v>398</v>
       </c>
     </row>
@@ -6248,53 +6248,53 @@
       <c r="A143" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="B143" s="20"/>
-      <c r="C143" s="20"/>
-      <c r="D143" s="20"/>
-      <c r="E143" s="20"/>
-      <c r="F143" s="20"/>
-      <c r="G143" s="26"/>
-      <c r="H143" s="26"/>
-      <c r="I143" s="20"/>
-      <c r="J143" s="20"/>
-      <c r="K143" s="28"/>
-      <c r="L143" s="20"/>
+      <c r="B143" s="24"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="43"/>
+      <c r="H143" s="43"/>
+      <c r="I143" s="24"/>
+      <c r="J143" s="24"/>
+      <c r="K143" s="45"/>
+      <c r="L143" s="24"/>
     </row>
     <row r="144" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A144" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="B144" s="19" t="s">
+      <c r="B144" s="23" t="s">
         <v>401</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D144" s="19">
+      <c r="D144" s="23">
         <v>6</v>
       </c>
-      <c r="E144" s="19">
+      <c r="E144" s="23">
         <v>6</v>
       </c>
-      <c r="F144" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G144" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H144" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I144" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J144" s="19" t="s">
+      <c r="F144" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G144" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H144" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I144" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J144" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K144" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L144" s="19" t="s">
+      <c r="K144" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L144" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6302,99 +6302,99 @@
       <c r="A145" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="B145" s="21"/>
+      <c r="B145" s="30"/>
       <c r="C145" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D145" s="21"/>
-      <c r="E145" s="21"/>
-      <c r="F145" s="21"/>
-      <c r="G145" s="21"/>
-      <c r="H145" s="21"/>
-      <c r="I145" s="21"/>
-      <c r="J145" s="21"/>
-      <c r="K145" s="21"/>
-      <c r="L145" s="21"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="30"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="30"/>
+      <c r="I145" s="30"/>
+      <c r="J145" s="30"/>
+      <c r="K145" s="30"/>
+      <c r="L145" s="30"/>
     </row>
     <row r="146" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
-      <c r="B146" s="21"/>
+      <c r="B146" s="30"/>
       <c r="C146" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D146" s="21"/>
-      <c r="E146" s="21"/>
-      <c r="F146" s="21"/>
-      <c r="G146" s="21"/>
-      <c r="H146" s="21"/>
-      <c r="I146" s="21"/>
-      <c r="J146" s="21"/>
-      <c r="K146" s="21"/>
-      <c r="L146" s="21"/>
+      <c r="D146" s="30"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="30"/>
+      <c r="G146" s="30"/>
+      <c r="H146" s="30"/>
+      <c r="I146" s="30"/>
+      <c r="J146" s="30"/>
+      <c r="K146" s="30"/>
+      <c r="L146" s="30"/>
     </row>
     <row r="147" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
-      <c r="B147" s="21"/>
+      <c r="B147" s="30"/>
       <c r="C147" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D147" s="21"/>
-      <c r="E147" s="21"/>
-      <c r="F147" s="21"/>
-      <c r="G147" s="21"/>
-      <c r="H147" s="21"/>
-      <c r="I147" s="21"/>
-      <c r="J147" s="21"/>
-      <c r="K147" s="21"/>
-      <c r="L147" s="21"/>
+      <c r="D147" s="30"/>
+      <c r="E147" s="30"/>
+      <c r="F147" s="30"/>
+      <c r="G147" s="30"/>
+      <c r="H147" s="30"/>
+      <c r="I147" s="30"/>
+      <c r="J147" s="30"/>
+      <c r="K147" s="30"/>
+      <c r="L147" s="30"/>
     </row>
     <row r="148" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
-      <c r="B148" s="21"/>
+      <c r="B148" s="30"/>
       <c r="C148" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D148" s="21"/>
-      <c r="E148" s="21"/>
-      <c r="F148" s="21"/>
-      <c r="G148" s="21"/>
-      <c r="H148" s="21"/>
-      <c r="I148" s="21"/>
-      <c r="J148" s="21"/>
-      <c r="K148" s="21"/>
-      <c r="L148" s="21"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="30"/>
+      <c r="F148" s="30"/>
+      <c r="G148" s="30"/>
+      <c r="H148" s="30"/>
+      <c r="I148" s="30"/>
+      <c r="J148" s="30"/>
+      <c r="K148" s="30"/>
+      <c r="L148" s="30"/>
     </row>
     <row r="149" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
-      <c r="B149" s="21"/>
+      <c r="B149" s="30"/>
       <c r="C149" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D149" s="21"/>
-      <c r="E149" s="21"/>
-      <c r="F149" s="21"/>
-      <c r="G149" s="21"/>
-      <c r="H149" s="21"/>
-      <c r="I149" s="21"/>
-      <c r="J149" s="21"/>
-      <c r="K149" s="21"/>
-      <c r="L149" s="21"/>
+      <c r="D149" s="30"/>
+      <c r="E149" s="30"/>
+      <c r="F149" s="30"/>
+      <c r="G149" s="30"/>
+      <c r="H149" s="30"/>
+      <c r="I149" s="30"/>
+      <c r="J149" s="30"/>
+      <c r="K149" s="30"/>
+      <c r="L149" s="30"/>
     </row>
     <row r="150" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
-      <c r="B150" s="20"/>
+      <c r="B150" s="24"/>
       <c r="C150" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="D150" s="20"/>
-      <c r="E150" s="20"/>
-      <c r="F150" s="20"/>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20"/>
-      <c r="I150" s="20"/>
-      <c r="J150" s="20"/>
-      <c r="K150" s="20"/>
-      <c r="L150" s="20"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="24"/>
+      <c r="G150" s="24"/>
+      <c r="H150" s="24"/>
+      <c r="I150" s="24"/>
+      <c r="J150" s="24"/>
+      <c r="K150" s="24"/>
+      <c r="L150" s="24"/>
     </row>
     <row r="151" spans="1:12" ht="306.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="s">
@@ -6435,58 +6435,58 @@
       </c>
     </row>
     <row r="152" spans="1:12" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="22" t="s">
+      <c r="A152" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="B152" s="19" t="s">
+      <c r="B152" s="23" t="s">
         <v>415</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D152" s="19">
+      <c r="D152" s="23">
         <v>10</v>
       </c>
-      <c r="E152" s="19">
+      <c r="E152" s="23">
         <v>10</v>
       </c>
-      <c r="F152" s="19" t="s">
+      <c r="F152" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G152" s="19" t="s">
+      <c r="G152" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="H152" s="19" t="s">
+      <c r="H152" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="I152" s="19" t="s">
+      <c r="I152" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="J152" s="19" t="s">
+      <c r="J152" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K152" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L152" s="19" t="s">
+      <c r="K152" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L152" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="24"/>
-      <c r="B153" s="20"/>
+      <c r="A153" s="29"/>
+      <c r="B153" s="24"/>
       <c r="C153" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="20"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20"/>
-      <c r="I153" s="20"/>
-      <c r="J153" s="20"/>
-      <c r="K153" s="20"/>
-      <c r="L153" s="20"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="24"/>
+      <c r="G153" s="24"/>
+      <c r="H153" s="24"/>
+      <c r="I153" s="24"/>
+      <c r="J153" s="24"/>
+      <c r="K153" s="24"/>
+      <c r="L153" s="24"/>
     </row>
     <row r="154" spans="1:12" ht="408.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="s">
@@ -6527,170 +6527,170 @@
       </c>
     </row>
     <row r="155" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="22" t="s">
+      <c r="A155" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="B155" s="19" t="s">
+      <c r="B155" s="23" t="s">
         <v>425</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L155" s="19" t="s">
+      <c r="D155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L155" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A156" s="23"/>
-      <c r="B156" s="21"/>
+      <c r="A156" s="28"/>
+      <c r="B156" s="30"/>
       <c r="C156" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D156" s="21"/>
-      <c r="E156" s="21"/>
-      <c r="F156" s="21"/>
-      <c r="G156" s="21"/>
-      <c r="H156" s="21"/>
-      <c r="I156" s="21"/>
-      <c r="J156" s="21"/>
-      <c r="K156" s="21"/>
-      <c r="L156" s="21"/>
+      <c r="D156" s="30"/>
+      <c r="E156" s="30"/>
+      <c r="F156" s="30"/>
+      <c r="G156" s="30"/>
+      <c r="H156" s="30"/>
+      <c r="I156" s="30"/>
+      <c r="J156" s="30"/>
+      <c r="K156" s="30"/>
+      <c r="L156" s="30"/>
     </row>
     <row r="157" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="23"/>
-      <c r="B157" s="21"/>
+      <c r="A157" s="28"/>
+      <c r="B157" s="30"/>
       <c r="C157" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D157" s="21"/>
-      <c r="E157" s="21"/>
-      <c r="F157" s="21"/>
-      <c r="G157" s="21"/>
-      <c r="H157" s="21"/>
-      <c r="I157" s="21"/>
-      <c r="J157" s="21"/>
-      <c r="K157" s="21"/>
-      <c r="L157" s="21"/>
+      <c r="D157" s="30"/>
+      <c r="E157" s="30"/>
+      <c r="F157" s="30"/>
+      <c r="G157" s="30"/>
+      <c r="H157" s="30"/>
+      <c r="I157" s="30"/>
+      <c r="J157" s="30"/>
+      <c r="K157" s="30"/>
+      <c r="L157" s="30"/>
     </row>
     <row r="158" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A158" s="23"/>
-      <c r="B158" s="21"/>
+      <c r="A158" s="28"/>
+      <c r="B158" s="30"/>
       <c r="C158" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D158" s="21"/>
-      <c r="E158" s="21"/>
-      <c r="F158" s="21"/>
-      <c r="G158" s="21"/>
-      <c r="H158" s="21"/>
-      <c r="I158" s="21"/>
-      <c r="J158" s="21"/>
-      <c r="K158" s="21"/>
-      <c r="L158" s="21"/>
+      <c r="D158" s="30"/>
+      <c r="E158" s="30"/>
+      <c r="F158" s="30"/>
+      <c r="G158" s="30"/>
+      <c r="H158" s="30"/>
+      <c r="I158" s="30"/>
+      <c r="J158" s="30"/>
+      <c r="K158" s="30"/>
+      <c r="L158" s="30"/>
     </row>
     <row r="159" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="23"/>
-      <c r="B159" s="21"/>
+      <c r="A159" s="28"/>
+      <c r="B159" s="30"/>
       <c r="C159" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D159" s="21"/>
-      <c r="E159" s="21"/>
-      <c r="F159" s="21"/>
-      <c r="G159" s="21"/>
-      <c r="H159" s="21"/>
-      <c r="I159" s="21"/>
-      <c r="J159" s="21"/>
-      <c r="K159" s="21"/>
-      <c r="L159" s="21"/>
+      <c r="D159" s="30"/>
+      <c r="E159" s="30"/>
+      <c r="F159" s="30"/>
+      <c r="G159" s="30"/>
+      <c r="H159" s="30"/>
+      <c r="I159" s="30"/>
+      <c r="J159" s="30"/>
+      <c r="K159" s="30"/>
+      <c r="L159" s="30"/>
     </row>
     <row r="160" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A160" s="23"/>
-      <c r="B160" s="21"/>
+      <c r="A160" s="28"/>
+      <c r="B160" s="30"/>
       <c r="C160" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D160" s="21"/>
-      <c r="E160" s="21"/>
-      <c r="F160" s="21"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="21"/>
-      <c r="I160" s="21"/>
-      <c r="J160" s="21"/>
-      <c r="K160" s="21"/>
-      <c r="L160" s="21"/>
+      <c r="D160" s="30"/>
+      <c r="E160" s="30"/>
+      <c r="F160" s="30"/>
+      <c r="G160" s="30"/>
+      <c r="H160" s="30"/>
+      <c r="I160" s="30"/>
+      <c r="J160" s="30"/>
+      <c r="K160" s="30"/>
+      <c r="L160" s="30"/>
     </row>
     <row r="161" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="23"/>
-      <c r="B161" s="21"/>
+      <c r="A161" s="28"/>
+      <c r="B161" s="30"/>
       <c r="C161" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D161" s="21"/>
-      <c r="E161" s="21"/>
-      <c r="F161" s="21"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="21"/>
-      <c r="I161" s="21"/>
-      <c r="J161" s="21"/>
-      <c r="K161" s="21"/>
-      <c r="L161" s="21"/>
+      <c r="D161" s="30"/>
+      <c r="E161" s="30"/>
+      <c r="F161" s="30"/>
+      <c r="G161" s="30"/>
+      <c r="H161" s="30"/>
+      <c r="I161" s="30"/>
+      <c r="J161" s="30"/>
+      <c r="K161" s="30"/>
+      <c r="L161" s="30"/>
     </row>
     <row r="162" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A162" s="23"/>
-      <c r="B162" s="21"/>
+      <c r="A162" s="28"/>
+      <c r="B162" s="30"/>
       <c r="C162" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D162" s="21"/>
-      <c r="E162" s="21"/>
-      <c r="F162" s="21"/>
-      <c r="G162" s="21"/>
-      <c r="H162" s="21"/>
-      <c r="I162" s="21"/>
-      <c r="J162" s="21"/>
-      <c r="K162" s="21"/>
-      <c r="L162" s="21"/>
+      <c r="D162" s="30"/>
+      <c r="E162" s="30"/>
+      <c r="F162" s="30"/>
+      <c r="G162" s="30"/>
+      <c r="H162" s="30"/>
+      <c r="I162" s="30"/>
+      <c r="J162" s="30"/>
+      <c r="K162" s="30"/>
+      <c r="L162" s="30"/>
     </row>
     <row r="163" spans="1:12" ht="90" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="24"/>
-      <c r="B163" s="20"/>
+      <c r="A163" s="29"/>
+      <c r="B163" s="24"/>
       <c r="C163" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D163" s="20"/>
-      <c r="E163" s="20"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
-      <c r="H163" s="20"/>
-      <c r="I163" s="20"/>
-      <c r="J163" s="20"/>
-      <c r="K163" s="20"/>
-      <c r="L163" s="20"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="24"/>
+      <c r="F163" s="24"/>
+      <c r="G163" s="24"/>
+      <c r="H163" s="24"/>
+      <c r="I163" s="24"/>
+      <c r="J163" s="24"/>
+      <c r="K163" s="24"/>
+      <c r="L163" s="24"/>
     </row>
     <row r="164" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
@@ -6770,15 +6770,462 @@
     </row>
   </sheetData>
   <mergeCells count="489">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L152:L153"/>
+    <mergeCell ref="H144:H150"/>
+    <mergeCell ref="I144:I150"/>
+    <mergeCell ref="J144:J150"/>
+    <mergeCell ref="K144:K150"/>
+    <mergeCell ref="L144:L150"/>
+    <mergeCell ref="H155:H163"/>
+    <mergeCell ref="I155:I163"/>
+    <mergeCell ref="J155:J163"/>
+    <mergeCell ref="K155:K163"/>
+    <mergeCell ref="L155:L163"/>
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="H152:H153"/>
+    <mergeCell ref="I152:I153"/>
+    <mergeCell ref="J152:J153"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="A155:A163"/>
+    <mergeCell ref="B155:B163"/>
+    <mergeCell ref="D155:D163"/>
+    <mergeCell ref="E155:E163"/>
+    <mergeCell ref="F155:F163"/>
+    <mergeCell ref="G155:G163"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="E144:E150"/>
+    <mergeCell ref="F144:F150"/>
+    <mergeCell ref="G144:G150"/>
+    <mergeCell ref="I140:I141"/>
+    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="K140:K141"/>
+    <mergeCell ref="L140:L141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="J142:J143"/>
+    <mergeCell ref="K142:K143"/>
+    <mergeCell ref="B144:B150"/>
+    <mergeCell ref="D144:D150"/>
+    <mergeCell ref="L138:L139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="K138:K139"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="L136:L137"/>
+    <mergeCell ref="H132:H133"/>
+    <mergeCell ref="I132:I133"/>
+    <mergeCell ref="J132:J133"/>
+    <mergeCell ref="K132:K133"/>
+    <mergeCell ref="L132:L133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="L134:L135"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="K122:K124"/>
+    <mergeCell ref="L122:L124"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="G122:G124"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="J130:J131"/>
+    <mergeCell ref="K130:K131"/>
+    <mergeCell ref="L130:L131"/>
+    <mergeCell ref="L120:L121"/>
+    <mergeCell ref="G113:G116"/>
+    <mergeCell ref="H113:H116"/>
+    <mergeCell ref="I113:I116"/>
+    <mergeCell ref="J113:J116"/>
+    <mergeCell ref="K113:K116"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="D122:D124"/>
+    <mergeCell ref="E122:E124"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="L125:L126"/>
+    <mergeCell ref="H122:H124"/>
+    <mergeCell ref="I122:I124"/>
+    <mergeCell ref="J122:J124"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="H107:H111"/>
+    <mergeCell ref="I107:I111"/>
+    <mergeCell ref="J107:J111"/>
+    <mergeCell ref="K107:K111"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="J120:J121"/>
+    <mergeCell ref="K120:K121"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="F103:F106"/>
+    <mergeCell ref="G103:G106"/>
+    <mergeCell ref="H103:H106"/>
+    <mergeCell ref="L107:L111"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="D113:D116"/>
+    <mergeCell ref="E113:E116"/>
+    <mergeCell ref="F113:F116"/>
+    <mergeCell ref="I103:I106"/>
+    <mergeCell ref="J103:J106"/>
+    <mergeCell ref="K103:K106"/>
+    <mergeCell ref="L103:L106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="E107:E111"/>
+    <mergeCell ref="F107:F111"/>
+    <mergeCell ref="G107:G111"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="K92:K94"/>
+    <mergeCell ref="L92:L94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="G95:G97"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="J95:J97"/>
+    <mergeCell ref="K95:K97"/>
+    <mergeCell ref="L95:L97"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="G89:G91"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="K89:K91"/>
+    <mergeCell ref="L89:L91"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="J86:J88"/>
+    <mergeCell ref="K86:K88"/>
+    <mergeCell ref="L86:L88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="H79:H83"/>
+    <mergeCell ref="I79:I83"/>
+    <mergeCell ref="J79:J83"/>
+    <mergeCell ref="K79:K83"/>
+    <mergeCell ref="L79:L83"/>
+    <mergeCell ref="H74:H78"/>
+    <mergeCell ref="I74:I78"/>
+    <mergeCell ref="J74:J78"/>
+    <mergeCell ref="K74:K78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="F79:F83"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="G74:G78"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="K58:K62"/>
+    <mergeCell ref="L58:L62"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="D63:D69"/>
+    <mergeCell ref="E63:E69"/>
+    <mergeCell ref="F63:F69"/>
+    <mergeCell ref="G63:G69"/>
+    <mergeCell ref="H63:H69"/>
+    <mergeCell ref="I63:I69"/>
+    <mergeCell ref="J63:J69"/>
+    <mergeCell ref="K63:K69"/>
+    <mergeCell ref="L63:L69"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="F58:F62"/>
+    <mergeCell ref="G58:G62"/>
+    <mergeCell ref="H58:H62"/>
+    <mergeCell ref="I58:I62"/>
+    <mergeCell ref="J58:J62"/>
+    <mergeCell ref="D46:D57"/>
+    <mergeCell ref="E46:E57"/>
+    <mergeCell ref="F46:F57"/>
+    <mergeCell ref="G46:G57"/>
+    <mergeCell ref="H46:H57"/>
+    <mergeCell ref="I46:I57"/>
+    <mergeCell ref="J46:J57"/>
+    <mergeCell ref="K46:K57"/>
+    <mergeCell ref="L46:L57"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="J40:J45"/>
+    <mergeCell ref="K40:K45"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -6803,462 +7250,15 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F7:F11"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="L46:L57"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="F40:F45"/>
-    <mergeCell ref="G40:G45"/>
-    <mergeCell ref="H40:H45"/>
-    <mergeCell ref="J40:J45"/>
-    <mergeCell ref="K40:K45"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="J58:J62"/>
-    <mergeCell ref="D46:D57"/>
-    <mergeCell ref="E46:E57"/>
-    <mergeCell ref="F46:F57"/>
-    <mergeCell ref="G46:G57"/>
-    <mergeCell ref="H46:H57"/>
-    <mergeCell ref="I46:I57"/>
-    <mergeCell ref="J46:J57"/>
-    <mergeCell ref="K46:K57"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="K58:K62"/>
-    <mergeCell ref="L58:L62"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="D63:D69"/>
-    <mergeCell ref="E63:E69"/>
-    <mergeCell ref="F63:F69"/>
-    <mergeCell ref="G63:G69"/>
-    <mergeCell ref="H63:H69"/>
-    <mergeCell ref="I63:I69"/>
-    <mergeCell ref="J63:J69"/>
-    <mergeCell ref="K63:K69"/>
-    <mergeCell ref="L63:L69"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="F58:F62"/>
-    <mergeCell ref="G58:G62"/>
-    <mergeCell ref="H58:H62"/>
-    <mergeCell ref="I58:I62"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H74:H78"/>
-    <mergeCell ref="I74:I78"/>
-    <mergeCell ref="J74:J78"/>
-    <mergeCell ref="K74:K78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="F79:F83"/>
-    <mergeCell ref="G79:G83"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="G74:G78"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="H79:H83"/>
-    <mergeCell ref="I79:I83"/>
-    <mergeCell ref="J79:J83"/>
-    <mergeCell ref="K79:K83"/>
-    <mergeCell ref="L79:L83"/>
-    <mergeCell ref="J89:J91"/>
-    <mergeCell ref="K89:K91"/>
-    <mergeCell ref="L89:L91"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="J86:J88"/>
-    <mergeCell ref="K86:K88"/>
-    <mergeCell ref="L86:L88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="G89:G91"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="I92:I94"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="K92:K94"/>
-    <mergeCell ref="L92:L94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="G95:G97"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="I95:I97"/>
-    <mergeCell ref="J95:J97"/>
-    <mergeCell ref="K95:K97"/>
-    <mergeCell ref="L95:L97"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="F103:F106"/>
-    <mergeCell ref="G103:G106"/>
-    <mergeCell ref="H103:H106"/>
-    <mergeCell ref="L107:L111"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="D113:D116"/>
-    <mergeCell ref="E113:E116"/>
-    <mergeCell ref="F113:F116"/>
-    <mergeCell ref="I103:I106"/>
-    <mergeCell ref="J103:J106"/>
-    <mergeCell ref="K103:K106"/>
-    <mergeCell ref="L103:L106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="D107:D111"/>
-    <mergeCell ref="E107:E111"/>
-    <mergeCell ref="F107:F111"/>
-    <mergeCell ref="G107:G111"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="H107:H111"/>
-    <mergeCell ref="I107:I111"/>
-    <mergeCell ref="J107:J111"/>
-    <mergeCell ref="K107:K111"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="J120:J121"/>
-    <mergeCell ref="K120:K121"/>
-    <mergeCell ref="L120:L121"/>
-    <mergeCell ref="G113:G116"/>
-    <mergeCell ref="H113:H116"/>
-    <mergeCell ref="I113:I116"/>
-    <mergeCell ref="J113:J116"/>
-    <mergeCell ref="K113:K116"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="D122:D124"/>
-    <mergeCell ref="E122:E124"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="J125:J126"/>
-    <mergeCell ref="L125:L126"/>
-    <mergeCell ref="H122:H124"/>
-    <mergeCell ref="I122:I124"/>
-    <mergeCell ref="J122:J124"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="K122:K124"/>
-    <mergeCell ref="L122:L124"/>
-    <mergeCell ref="F122:F124"/>
-    <mergeCell ref="G122:G124"/>
-    <mergeCell ref="H130:H131"/>
-    <mergeCell ref="I130:I131"/>
-    <mergeCell ref="J130:J131"/>
-    <mergeCell ref="K130:K131"/>
-    <mergeCell ref="L130:L131"/>
-    <mergeCell ref="H132:H133"/>
-    <mergeCell ref="I132:I133"/>
-    <mergeCell ref="J132:J133"/>
-    <mergeCell ref="K132:K133"/>
-    <mergeCell ref="L132:L133"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="L134:L135"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="I136:I137"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="L136:L137"/>
-    <mergeCell ref="L138:L139"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="K138:K139"/>
-    <mergeCell ref="E144:E150"/>
-    <mergeCell ref="F144:F150"/>
-    <mergeCell ref="G144:G150"/>
-    <mergeCell ref="I140:I141"/>
-    <mergeCell ref="J140:J141"/>
-    <mergeCell ref="K140:K141"/>
-    <mergeCell ref="L140:L141"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="J142:J143"/>
-    <mergeCell ref="K142:K143"/>
-    <mergeCell ref="B144:B150"/>
-    <mergeCell ref="D144:D150"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="H152:H153"/>
-    <mergeCell ref="I152:I153"/>
-    <mergeCell ref="J152:J153"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="A155:A163"/>
-    <mergeCell ref="B155:B163"/>
-    <mergeCell ref="D155:D163"/>
-    <mergeCell ref="E155:E163"/>
-    <mergeCell ref="F155:F163"/>
-    <mergeCell ref="G155:G163"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="L152:L153"/>
-    <mergeCell ref="H144:H150"/>
-    <mergeCell ref="I144:I150"/>
-    <mergeCell ref="J144:J150"/>
-    <mergeCell ref="K144:K150"/>
-    <mergeCell ref="L144:L150"/>
-    <mergeCell ref="H155:H163"/>
-    <mergeCell ref="I155:I163"/>
-    <mergeCell ref="J155:J163"/>
-    <mergeCell ref="K155:K163"/>
-    <mergeCell ref="L155:L163"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/dat/synchros-initiatives.xlsx
+++ b/dat/synchros-initiatives.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="20880" windowHeight="7995" tabRatio="500"/>
+    <workbookView xWindow="8370" yWindow="0" windowWidth="20880" windowHeight="7995" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -2393,28 +2393,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2424,42 +2409,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2479,6 +2428,57 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2769,96 +2769,96 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="20"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:12" ht="381.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="19">
         <v>30</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="19">
         <v>3</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="35">
         <v>1300000</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="35">
         <v>316270</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="23" t="s">
+      <c r="K3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2866,53 +2866,53 @@
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="19">
         <v>6</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="35">
         <v>245000</v>
       </c>
-      <c r="H5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="23" t="s">
+      <c r="H5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2920,52 +2920,52 @@
       <c r="A6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="31">
         <v>11</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="25">
+      <c r="E7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="35">
         <v>1221156</v>
       </c>
-      <c r="H7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="23" t="s">
+      <c r="H7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="19" t="s">
         <v>38</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -2973,122 +2973,122 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
       <c r="L11" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="204" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="19">
         <v>66</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="23" t="s">
+      <c r="E12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:12" ht="190.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
@@ -3109,7 +3109,7 @@
       <c r="F14" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="43">
         <v>300000</v>
       </c>
       <c r="H14" s="31" t="s">
@@ -3121,7 +3121,7 @@
       <c r="J14" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="43">
         <v>1477</v>
       </c>
       <c r="L14" s="31" t="s">
@@ -3132,53 +3132,53 @@
       <c r="A15" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="33"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="19">
         <v>18</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="19">
         <v>18</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="35">
         <v>346553</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="35">
         <v>346553</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="19">
         <v>180</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3186,53 +3186,53 @@
       <c r="A17" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="19">
         <v>13</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="19">
         <v>13</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="25">
+      <c r="F18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="35">
         <v>773499</v>
       </c>
-      <c r="H18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="23">
+      <c r="H18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="19">
         <v>100</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3240,53 +3240,53 @@
       <c r="A19" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="19">
         <v>10</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="19">
         <v>10</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="35">
         <v>2662777</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="35">
         <v>2662777</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="19">
         <v>9</v>
       </c>
-      <c r="L20" s="23" t="s">
+      <c r="L20" s="19" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3294,35 +3294,35 @@
       <c r="A21" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="24"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
     </row>
     <row r="23" spans="1:12" ht="254.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
@@ -3331,34 +3331,34 @@
       <c r="B23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="19">
         <v>17</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="19">
         <v>17</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="35">
         <v>76233</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="35">
         <v>76233</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="19">
         <v>31</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" s="19" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3369,49 +3369,49 @@
       <c r="B24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
     </row>
     <row r="25" spans="1:12" ht="267" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="33">
         <v>34</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="33">
         <v>34</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="41">
         <v>950000</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="41">
         <v>950000</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="I25" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="J25" s="39" t="s">
+      <c r="J25" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K25" s="33">
         <v>12</v>
       </c>
       <c r="L25" s="5" t="s">
@@ -3422,16 +3422,16 @@
       <c r="A26" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="6" t="s">
         <v>92</v>
       </c>
@@ -3440,37 +3440,37 @@
       <c r="A27" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="19">
         <v>8</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="25">
+      <c r="F27" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="35">
         <v>119952</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="23">
+      <c r="J27" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="19">
         <v>8</v>
       </c>
-      <c r="L27" s="23" t="s">
+      <c r="L27" s="19" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3478,53 +3478,53 @@
       <c r="A28" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
     </row>
     <row r="29" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="19">
         <v>17</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="19">
         <v>10</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="35">
         <v>280000</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="K29" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L29" s="19" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3532,17 +3532,17 @@
       <c r="A30" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
     </row>
     <row r="31" spans="1:12" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
@@ -3586,37 +3586,37 @@
       <c r="A32" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="19" t="s">
         <v>111</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="19">
         <v>4</v>
       </c>
-      <c r="E32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="25">
+      <c r="E32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="35">
         <v>16527</v>
       </c>
-      <c r="H32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" s="23" t="s">
+      <c r="H32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="19" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3624,87 +3624,87 @@
       <c r="A33" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="30"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
     </row>
     <row r="34" spans="1:12" ht="267.75" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
-      <c r="B34" s="30"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
     </row>
     <row r="35" spans="1:12" ht="204.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="24"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
     </row>
     <row r="36" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="19">
         <v>15</v>
       </c>
       <c r="E36" s="31">
         <v>15</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="35">
         <v>190268</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="35">
         <v>190268</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="I36" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="J36" s="23" t="s">
+      <c r="J36" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L36" s="23" t="s">
+      <c r="K36" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="19" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3712,53 +3712,53 @@
       <c r="A37" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
     </row>
     <row r="38" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="19" t="s">
         <v>122</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="19">
         <v>7</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="19">
         <v>7</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="35">
         <v>42189</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="35">
         <v>31000</v>
       </c>
-      <c r="I38" s="23" t="s">
+      <c r="I38" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J38" s="23" t="s">
+      <c r="J38" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K38" s="23">
+      <c r="K38" s="19">
         <v>15</v>
       </c>
-      <c r="L38" s="23" t="s">
+      <c r="L38" s="19" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3766,52 +3766,52 @@
       <c r="A39" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="24"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
     </row>
     <row r="40" spans="1:12" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="19" t="s">
         <v>128</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="19">
         <v>18</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="19">
         <v>8</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="35">
         <v>102774</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="J40" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K40" s="23">
+      <c r="K40" s="19">
         <v>270</v>
       </c>
       <c r="L40" s="2" t="s">
@@ -3822,88 +3822,88 @@
       <c r="A41" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="30"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="34"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
       <c r="L41" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
-      <c r="B42" s="30"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="34"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="40"/>
       <c r="I42" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
       <c r="L42" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
-      <c r="B43" s="30"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="34"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="40"/>
       <c r="I43" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
       <c r="L43" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
-      <c r="B44" s="30"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="34"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
       <c r="L44" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="24"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="26"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="36"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
       <c r="L45" s="3" t="s">
         <v>141</v>
       </c>
@@ -3918,31 +3918,31 @@
       <c r="C46" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="E46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="23" t="s">
+      <c r="E46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="H46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L46" s="23" t="s">
+      <c r="H46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3956,29 +3956,29 @@
       <c r="C47" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
     </row>
     <row r="49" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -3986,15 +3986,15 @@
       <c r="C49" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
     </row>
     <row r="50" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
@@ -4002,15 +4002,15 @@
       <c r="C50" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
     </row>
     <row r="51" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
@@ -4018,15 +4018,15 @@
       <c r="C51" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
     </row>
     <row r="52" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
@@ -4034,29 +4034,29 @@
       <c r="C52" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="10"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
     </row>
     <row r="54" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
@@ -4064,15 +4064,15 @@
       <c r="C54" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
     </row>
     <row r="55" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
@@ -4080,15 +4080,15 @@
       <c r="C55" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
     </row>
     <row r="56" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
@@ -4096,15 +4096,15 @@
       <c r="C56" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
     </row>
     <row r="57" spans="1:12" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -4112,250 +4112,250 @@
       <c r="C57" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
     </row>
     <row r="58" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="19" t="s">
         <v>158</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="19">
         <v>36</v>
       </c>
-      <c r="E58" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="23" t="s">
+      <c r="E58" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="G58" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="H58" s="23" t="s">
+      <c r="H58" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I58" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J58" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K58" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L58" s="23" t="s">
+      <c r="I58" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J58" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K58" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
-      <c r="B59" s="30"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="28"/>
-      <c r="B60" s="30"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="10"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
     </row>
     <row r="61" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="28"/>
-      <c r="B61" s="30"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
     </row>
     <row r="62" spans="1:12" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
-      <c r="B62" s="24"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
     </row>
     <row r="63" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="19" t="s">
         <v>166</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D63" s="19">
         <v>4</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="19">
         <v>4</v>
       </c>
-      <c r="F63" s="23" t="s">
+      <c r="F63" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G63" s="25">
+      <c r="G63" s="35">
         <v>22730</v>
       </c>
-      <c r="H63" s="23" t="s">
+      <c r="H63" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="I63" s="23" t="s">
+      <c r="I63" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="J63" s="23" t="s">
+      <c r="J63" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K63" s="23">
+      <c r="K63" s="19">
         <v>1043</v>
       </c>
-      <c r="L63" s="23" t="s">
+      <c r="L63" s="19" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="28"/>
-      <c r="B64" s="30"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="10"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
     </row>
     <row r="65" spans="1:12" ht="255" x14ac:dyDescent="0.2">
-      <c r="A65" s="28"/>
-      <c r="B65" s="30"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
     </row>
     <row r="66" spans="1:12" ht="102" x14ac:dyDescent="0.2">
-      <c r="A66" s="28"/>
-      <c r="B66" s="30"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
     </row>
     <row r="67" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="28"/>
-      <c r="B67" s="30"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
     </row>
     <row r="68" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="28"/>
-      <c r="B68" s="30"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
     </row>
     <row r="69" spans="1:12" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="24"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
     </row>
     <row r="70" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="22" t="s">
         <v>176</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -4364,108 +4364,108 @@
       <c r="C70" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D70" s="23">
+      <c r="D70" s="19">
         <v>29</v>
       </c>
-      <c r="E70" s="23">
+      <c r="E70" s="19">
         <v>24</v>
       </c>
-      <c r="F70" s="23" t="s">
+      <c r="F70" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G70" s="25">
+      <c r="G70" s="35">
         <v>1221985</v>
       </c>
-      <c r="H70" s="25">
+      <c r="H70" s="35">
         <v>1221985</v>
       </c>
-      <c r="I70" s="23" t="s">
+      <c r="I70" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="J70" s="23" t="s">
+      <c r="J70" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K70" s="23">
+      <c r="K70" s="19">
         <v>600</v>
       </c>
-      <c r="L70" s="23" t="s">
+      <c r="L70" s="19" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
     </row>
     <row r="72" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="19" t="s">
         <v>183</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D72" s="23">
+      <c r="D72" s="19">
         <v>29</v>
       </c>
-      <c r="E72" s="23">
+      <c r="E72" s="19">
         <v>29</v>
       </c>
-      <c r="F72" s="23" t="s">
+      <c r="F72" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G72" s="23">
+      <c r="G72" s="19">
         <v>700</v>
       </c>
-      <c r="H72" s="23">
+      <c r="H72" s="19">
         <v>700</v>
       </c>
-      <c r="I72" s="23" t="s">
+      <c r="I72" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="J72" s="23" t="s">
+      <c r="J72" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K72" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L72" s="23" t="s">
+      <c r="K72" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L72" s="19" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="306.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="29"/>
-      <c r="B73" s="24"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
     </row>
     <row r="74" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="22" t="s">
         <v>188</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -4474,471 +4474,471 @@
       <c r="C74" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D74" s="23">
+      <c r="D74" s="19">
         <v>14</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="19">
         <v>14</v>
       </c>
-      <c r="F74" s="23" t="s">
+      <c r="F74" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G74" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H74" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I74" s="23" t="s">
+      <c r="G74" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H74" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="J74" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K74" s="23">
+      <c r="J74" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K74" s="19">
         <v>323</v>
       </c>
       <c r="L74" s="10"/>
     </row>
     <row r="75" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="28"/>
+      <c r="A75" s="23"/>
       <c r="B75" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="30"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
       <c r="L75" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="28"/>
+      <c r="A76" s="23"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="30"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
       <c r="L76" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="28"/>
+      <c r="A77" s="23"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
       <c r="L77" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
       <c r="L78" s="3" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B79" s="19" t="s">
         <v>199</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D79" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="E79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G79" s="23">
+      <c r="E79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79" s="19">
         <v>50000</v>
       </c>
-      <c r="H79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L79" s="23" t="s">
+      <c r="H79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L79" s="19" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="28"/>
-      <c r="B80" s="30"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="21"/>
       <c r="C80" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="30"/>
-      <c r="L80" s="30"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
     </row>
     <row r="81" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="28"/>
-      <c r="B81" s="30"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="21"/>
       <c r="C81" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="30"/>
-      <c r="L81" s="30"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
     </row>
     <row r="82" spans="1:12" ht="204" x14ac:dyDescent="0.2">
-      <c r="A82" s="28"/>
-      <c r="B82" s="30"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="21"/>
       <c r="C82" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
     </row>
     <row r="83" spans="1:12" ht="192" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="29"/>
-      <c r="B83" s="24"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
     </row>
     <row r="84" spans="1:12" ht="204" x14ac:dyDescent="0.2">
-      <c r="A84" s="27" t="s">
+      <c r="A84" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="19" t="s">
         <v>208</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D84" s="23" t="s">
+      <c r="D84" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="E84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G84" s="23" t="s">
+      <c r="E84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G84" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="H84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L84" s="23" t="s">
+      <c r="H84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L84" s="19" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="29"/>
-      <c r="B85" s="24"/>
+      <c r="A85" s="24"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
     </row>
     <row r="86" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="27" t="s">
+      <c r="A86" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="19" t="s">
         <v>215</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G86" s="25">
+      <c r="D86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G86" s="35">
         <v>100000</v>
       </c>
-      <c r="H86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I86" s="23" t="s">
+      <c r="H86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I86" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="J86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L86" s="23" t="s">
+      <c r="J86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L86" s="19" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A87" s="28"/>
-      <c r="B87" s="30"/>
+      <c r="A87" s="23"/>
+      <c r="B87" s="21"/>
       <c r="C87" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="30"/>
-      <c r="L87" s="30"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
     </row>
     <row r="88" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="29"/>
-      <c r="B88" s="24"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="24"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
     </row>
     <row r="89" spans="1:12" ht="267.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="27" t="s">
+      <c r="A89" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="B89" s="23" t="s">
+      <c r="B89" s="19" t="s">
         <v>222</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D89" s="23">
+      <c r="D89" s="19">
         <v>9</v>
       </c>
-      <c r="E89" s="23">
+      <c r="E89" s="19">
         <v>6</v>
       </c>
-      <c r="F89" s="23" t="s">
+      <c r="F89" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G89" s="23" t="s">
+      <c r="G89" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="H89" s="25">
+      <c r="H89" s="35">
         <v>150000</v>
       </c>
-      <c r="I89" s="23" t="s">
+      <c r="I89" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="J89" s="23" t="s">
+      <c r="J89" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K89" s="23">
+      <c r="K89" s="19">
         <v>15</v>
       </c>
-      <c r="L89" s="23" t="s">
+      <c r="L89" s="19" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="280.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="28"/>
-      <c r="B90" s="30"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="30"/>
-      <c r="K90" s="30"/>
-      <c r="L90" s="30"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
     </row>
     <row r="91" spans="1:12" ht="243" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
-      <c r="B91" s="24"/>
+      <c r="A91" s="24"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="24"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
     </row>
     <row r="92" spans="1:12" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="27" t="s">
+      <c r="A92" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="19" t="s">
         <v>230</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D92" s="23" t="s">
+      <c r="D92" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="E92" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F92" s="23" t="s">
+      <c r="E92" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G92" s="23" t="s">
+      <c r="G92" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="H92" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I92" s="23" t="s">
+      <c r="H92" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I92" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="J92" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K92" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L92" s="23" t="s">
+      <c r="J92" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K92" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L92" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="293.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="28"/>
-      <c r="B93" s="30"/>
+      <c r="A93" s="23"/>
+      <c r="B93" s="21"/>
       <c r="C93" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="30"/>
-      <c r="K93" s="30"/>
-      <c r="L93" s="30"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
     </row>
     <row r="94" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="29"/>
-      <c r="B94" s="24"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
     </row>
     <row r="95" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B95" s="23" t="s">
+      <c r="B95" s="19" t="s">
         <v>237</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -4947,28 +4947,28 @@
       <c r="D95" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E95" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F95" s="23" t="s">
+      <c r="E95" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G95" s="25">
+      <c r="G95" s="35">
         <v>315000</v>
       </c>
-      <c r="H95" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I95" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J95" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K95" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L95" s="23" t="s">
+      <c r="H95" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I95" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J95" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K95" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L95" s="19" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4976,71 +4976,71 @@
       <c r="A96" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B96" s="30"/>
+      <c r="B96" s="21"/>
       <c r="C96" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D96" s="10"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="30"/>
-      <c r="K96" s="30"/>
-      <c r="L96" s="30"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
     </row>
     <row r="97" spans="1:12" ht="294" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="24"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="9"/>
       <c r="D97" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="24"/>
-      <c r="K97" s="24"/>
-      <c r="L97" s="24"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20"/>
     </row>
     <row r="98" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B98" s="19" t="s">
         <v>245</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D98" s="23" t="s">
+      <c r="D98" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="E98" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F98" s="23" t="s">
+      <c r="E98" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G98" s="23" t="s">
+      <c r="G98" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="H98" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I98" s="23" t="s">
+      <c r="H98" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I98" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="J98" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K98" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L98" s="23" t="s">
+      <c r="J98" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K98" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L98" s="19" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5048,19 +5048,19 @@
       <c r="A99" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="B99" s="24"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="24"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="24"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20"/>
     </row>
     <row r="100" spans="1:12" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
@@ -5101,7 +5101,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="37" t="s">
         <v>259</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -5110,54 +5110,54 @@
       <c r="C101" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D101" s="23">
+      <c r="D101" s="19">
         <v>6</v>
       </c>
-      <c r="E101" s="23">
+      <c r="E101" s="19">
         <v>6</v>
       </c>
-      <c r="F101" s="23" t="s">
+      <c r="F101" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G101" s="25">
+      <c r="G101" s="35">
         <v>136128</v>
       </c>
-      <c r="H101" s="25">
+      <c r="H101" s="35">
         <v>136128</v>
       </c>
-      <c r="I101" s="23" t="s">
+      <c r="I101" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="J101" s="23" t="s">
+      <c r="J101" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="K101" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L101" s="23" t="s">
+      <c r="K101" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L101" s="19" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="20"/>
+      <c r="A102" s="39"/>
       <c r="B102" s="3" t="s">
         <v>261</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
     </row>
     <row r="103" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A103" s="19" t="s">
+      <c r="A103" s="37" t="s">
         <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -5166,179 +5166,179 @@
       <c r="C103" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D103" s="23">
+      <c r="D103" s="19">
         <v>373</v>
       </c>
-      <c r="E103" s="23" t="s">
+      <c r="E103" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="F103" s="23" t="s">
+      <c r="F103" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G103" s="23" t="s">
+      <c r="G103" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="H103" s="23" t="s">
+      <c r="H103" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="I103" s="23" t="s">
+      <c r="I103" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="J103" s="23" t="s">
+      <c r="J103" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K103" s="23" t="s">
+      <c r="K103" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="L103" s="23" t="s">
+      <c r="L103" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="41"/>
+      <c r="A104" s="38"/>
       <c r="B104" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C104" s="10"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="30"/>
-      <c r="I104" s="30"/>
-      <c r="J104" s="30"/>
-      <c r="K104" s="30"/>
-      <c r="L104" s="30"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="21"/>
     </row>
     <row r="105" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="41"/>
+      <c r="A105" s="38"/>
       <c r="B105" s="8"/>
       <c r="C105" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="30"/>
-      <c r="I105" s="30"/>
-      <c r="J105" s="30"/>
-      <c r="K105" s="30"/>
-      <c r="L105" s="30"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
     </row>
     <row r="106" spans="1:12" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
+      <c r="A106" s="39"/>
       <c r="B106" s="9"/>
       <c r="C106" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="24"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="24"/>
-      <c r="K106" s="24"/>
-      <c r="L106" s="24"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="20"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="20"/>
     </row>
     <row r="107" spans="1:12" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="19" t="s">
+      <c r="A107" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D107" s="23">
+      <c r="D107" s="19">
         <v>20</v>
       </c>
-      <c r="E107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L107" s="23" t="s">
+      <c r="E107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L107" s="19" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" s="41"/>
-      <c r="B108" s="30"/>
+      <c r="A108" s="38"/>
+      <c r="B108" s="21"/>
       <c r="C108" s="10"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="30"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="30"/>
-      <c r="I108" s="30"/>
-      <c r="J108" s="30"/>
-      <c r="K108" s="30"/>
-      <c r="L108" s="30"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="21"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="21"/>
     </row>
     <row r="109" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="41"/>
-      <c r="B109" s="30"/>
+      <c r="A109" s="38"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="30"/>
-      <c r="J109" s="30"/>
-      <c r="K109" s="30"/>
-      <c r="L109" s="30"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" s="41"/>
-      <c r="B110" s="30"/>
+      <c r="A110" s="38"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="10"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="30"/>
-      <c r="I110" s="30"/>
-      <c r="J110" s="30"/>
-      <c r="K110" s="30"/>
-      <c r="L110" s="30"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
     </row>
     <row r="111" spans="1:12" ht="243" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="20"/>
-      <c r="B111" s="24"/>
+      <c r="A111" s="39"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="24"/>
-      <c r="K111" s="24"/>
-      <c r="L111" s="24"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="20"/>
+      <c r="K111" s="20"/>
+      <c r="L111" s="20"/>
     </row>
     <row r="112" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
@@ -5379,37 +5379,37 @@
       </c>
     </row>
     <row r="113" spans="1:12" ht="318.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="19" t="s">
+      <c r="A113" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B113" s="23" t="s">
+      <c r="B113" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D113" s="23">
+      <c r="D113" s="19">
         <v>6</v>
       </c>
-      <c r="E113" s="23">
+      <c r="E113" s="19">
         <v>6</v>
       </c>
-      <c r="F113" s="23" t="s">
+      <c r="F113" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G113" s="23" t="s">
+      <c r="G113" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="H113" s="23" t="s">
+      <c r="H113" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="I113" s="23" t="s">
+      <c r="I113" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="J113" s="23" t="s">
+      <c r="J113" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K113" s="23" t="s">
+      <c r="K113" s="19" t="s">
         <v>38</v>
       </c>
       <c r="L113" s="2" t="s">
@@ -5417,51 +5417,51 @@
       </c>
     </row>
     <row r="114" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A114" s="41"/>
-      <c r="B114" s="30"/>
+      <c r="A114" s="38"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="10"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30"/>
-      <c r="F114" s="30"/>
-      <c r="G114" s="30"/>
-      <c r="H114" s="30"/>
-      <c r="I114" s="30"/>
-      <c r="J114" s="30"/>
-      <c r="K114" s="30"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="21"/>
+      <c r="J114" s="21"/>
+      <c r="K114" s="21"/>
       <c r="L114" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="41"/>
-      <c r="B115" s="30"/>
+      <c r="A115" s="38"/>
+      <c r="B115" s="21"/>
       <c r="C115" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D115" s="30"/>
-      <c r="E115" s="30"/>
-      <c r="F115" s="30"/>
-      <c r="G115" s="30"/>
-      <c r="H115" s="30"/>
-      <c r="I115" s="30"/>
-      <c r="J115" s="30"/>
-      <c r="K115" s="30"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
+      <c r="J115" s="21"/>
+      <c r="K115" s="21"/>
       <c r="L115" s="8"/>
     </row>
     <row r="116" spans="1:12" ht="294" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="20"/>
-      <c r="B116" s="24"/>
+      <c r="A116" s="39"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="24"/>
-      <c r="J116" s="24"/>
-      <c r="K116" s="24"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="20"/>
+      <c r="K116" s="20"/>
       <c r="L116" s="9"/>
     </row>
     <row r="117" spans="1:12" ht="396" thickBot="1" x14ac:dyDescent="0.25">
@@ -5579,182 +5579,182 @@
       </c>
     </row>
     <row r="120" spans="1:12" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="27" t="s">
+      <c r="A120" s="22" t="s">
         <v>310</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C120" s="39" t="s">
+      <c r="C120" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="D120" s="23">
+      <c r="D120" s="19">
         <v>43</v>
       </c>
-      <c r="E120" s="23">
+      <c r="E120" s="19">
         <v>43</v>
       </c>
-      <c r="F120" s="23" t="s">
+      <c r="F120" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G120" s="25">
+      <c r="G120" s="35">
         <v>1000000</v>
       </c>
-      <c r="H120" s="25">
+      <c r="H120" s="35">
         <v>1000000</v>
       </c>
-      <c r="I120" s="23" t="s">
+      <c r="I120" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="J120" s="23" t="s">
+      <c r="J120" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="K120" s="23" t="s">
+      <c r="K120" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="L120" s="23" t="s">
+      <c r="L120" s="19" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="29"/>
+      <c r="A121" s="24"/>
       <c r="B121" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C121" s="40"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="26"/>
-      <c r="H121" s="26"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="24"/>
-      <c r="K121" s="24"/>
-      <c r="L121" s="24"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="36"/>
+      <c r="H121" s="36"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="20"/>
+      <c r="K121" s="20"/>
+      <c r="L121" s="20"/>
     </row>
     <row r="122" spans="1:12" ht="102" x14ac:dyDescent="0.2">
-      <c r="A122" s="27" t="s">
+      <c r="A122" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="B122" s="23" t="s">
+      <c r="B122" s="19" t="s">
         <v>318</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D122" s="23" t="s">
+      <c r="D122" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="E122" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F122" s="23" t="s">
+      <c r="E122" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F122" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G122" s="23" t="s">
+      <c r="G122" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="H122" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I122" s="23" t="s">
+      <c r="H122" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I122" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="J122" s="23" t="s">
+      <c r="J122" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K122" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L122" s="23" t="s">
+      <c r="K122" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L122" s="19" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="28"/>
-      <c r="B123" s="30"/>
+      <c r="A123" s="23"/>
+      <c r="B123" s="21"/>
       <c r="C123" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
-      <c r="F123" s="30"/>
-      <c r="G123" s="30"/>
-      <c r="H123" s="30"/>
-      <c r="I123" s="30"/>
-      <c r="J123" s="30"/>
-      <c r="K123" s="30"/>
-      <c r="L123" s="30"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="21"/>
     </row>
     <row r="124" spans="1:12" ht="90" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
-      <c r="B124" s="24"/>
+      <c r="A124" s="24"/>
+      <c r="B124" s="20"/>
       <c r="C124" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="24"/>
-      <c r="H124" s="24"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="24"/>
-      <c r="K124" s="24"/>
-      <c r="L124" s="24"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="20"/>
+      <c r="K124" s="20"/>
+      <c r="L124" s="20"/>
     </row>
     <row r="125" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="27" t="s">
+      <c r="A125" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="B125" s="23" t="s">
+      <c r="B125" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="C125" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="D125" s="23" t="s">
+      <c r="D125" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="E125" s="23" t="s">
+      <c r="E125" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="F125" s="23" t="s">
+      <c r="F125" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="G125" s="23" t="s">
+      <c r="G125" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="H125" s="23" t="s">
+      <c r="H125" s="19" t="s">
         <v>330</v>
       </c>
       <c r="I125" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="J125" s="23" t="s">
+      <c r="J125" s="19" t="s">
         <v>330</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="L125" s="23" t="s">
+      <c r="L125" s="19" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="24"/>
-      <c r="H126" s="24"/>
-      <c r="I126" s="33"/>
-      <c r="J126" s="24"/>
+      <c r="A126" s="24"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="32"/>
+      <c r="J126" s="20"/>
       <c r="K126" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="L126" s="24"/>
+      <c r="L126" s="20"/>
     </row>
     <row r="127" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
@@ -5874,37 +5874,37 @@
       <c r="A130" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B130" s="23" t="s">
+      <c r="B130" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="C130" s="23" t="s">
+      <c r="C130" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="D130" s="23">
+      <c r="D130" s="19">
         <v>9</v>
       </c>
-      <c r="E130" s="23">
+      <c r="E130" s="19">
         <v>9</v>
       </c>
-      <c r="F130" s="23" t="s">
+      <c r="F130" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G130" s="42">
+      <c r="G130" s="25">
         <v>50562</v>
       </c>
-      <c r="H130" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I130" s="23" t="s">
+      <c r="H130" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I130" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="J130" s="23" t="s">
+      <c r="J130" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K130" s="44">
+      <c r="K130" s="27">
         <v>450</v>
       </c>
-      <c r="L130" s="23" t="s">
+      <c r="L130" s="19" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5912,53 +5912,53 @@
       <c r="A131" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="43"/>
-      <c r="H131" s="24"/>
-      <c r="I131" s="24"/>
-      <c r="J131" s="24"/>
-      <c r="K131" s="45"/>
-      <c r="L131" s="24"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="20"/>
+      <c r="K131" s="28"/>
+      <c r="L131" s="20"/>
     </row>
     <row r="132" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="B132" s="23" t="s">
+      <c r="B132" s="19" t="s">
         <v>356</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D132" s="44">
+      <c r="D132" s="27">
         <v>3</v>
       </c>
-      <c r="E132" s="23">
+      <c r="E132" s="19">
         <v>3</v>
       </c>
-      <c r="F132" s="23" t="s">
+      <c r="F132" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G132" s="23">
+      <c r="G132" s="19">
         <v>970</v>
       </c>
-      <c r="H132" s="23">
+      <c r="H132" s="19">
         <v>970</v>
       </c>
-      <c r="I132" s="23" t="s">
+      <c r="I132" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="J132" s="23" t="s">
+      <c r="J132" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K132" s="44" t="s">
+      <c r="K132" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="L132" s="23" t="s">
+      <c r="L132" s="19" t="s">
         <v>361</v>
       </c>
     </row>
@@ -5966,113 +5966,113 @@
       <c r="A133" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B133" s="24"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D133" s="45"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="24"/>
-      <c r="H133" s="24"/>
-      <c r="I133" s="24"/>
-      <c r="J133" s="24"/>
-      <c r="K133" s="45"/>
-      <c r="L133" s="24"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="20"/>
+      <c r="K133" s="28"/>
+      <c r="L133" s="20"/>
     </row>
     <row r="134" spans="1:12" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="46" t="s">
+      <c r="A134" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C134" s="23" t="s">
+      <c r="C134" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="D134" s="44">
+      <c r="D134" s="27">
         <v>9</v>
       </c>
-      <c r="E134" s="23">
+      <c r="E134" s="19">
         <v>9</v>
       </c>
-      <c r="F134" s="23" t="s">
+      <c r="F134" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G134" s="42">
+      <c r="G134" s="25">
         <v>1190000</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="I134" s="23" t="s">
+      <c r="I134" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="J134" s="23" t="s">
+      <c r="J134" s="19" t="s">
         <v>37</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="L134" s="23" t="s">
+      <c r="L134" s="19" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="47"/>
+      <c r="A135" s="30"/>
       <c r="B135" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C135" s="24"/>
-      <c r="D135" s="45"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="43"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="26"/>
       <c r="H135" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="I135" s="24"/>
-      <c r="J135" s="24"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="20"/>
       <c r="K135" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="L135" s="24"/>
+      <c r="L135" s="20"/>
     </row>
     <row r="136" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="B136" s="23" t="s">
+      <c r="B136" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="C136" s="23" t="s">
+      <c r="C136" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D136" s="44">
+      <c r="D136" s="27">
         <v>9</v>
       </c>
-      <c r="E136" s="23">
+      <c r="E136" s="19">
         <v>9</v>
       </c>
-      <c r="F136" s="23" t="s">
+      <c r="F136" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G136" s="42">
+      <c r="G136" s="25">
         <v>40000</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="I136" s="23" t="s">
+      <c r="I136" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="J136" s="23" t="s">
+      <c r="J136" s="19" t="s">
         <v>37</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="L136" s="23" t="s">
+      <c r="L136" s="19" t="s">
         <v>377</v>
       </c>
     </row>
@@ -6080,57 +6080,57 @@
       <c r="A137" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="B137" s="24"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="45"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="24"/>
-      <c r="G137" s="43"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="28"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="26"/>
       <c r="H137" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="I137" s="24"/>
-      <c r="J137" s="24"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="20"/>
       <c r="K137" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="L137" s="24"/>
+      <c r="L137" s="20"/>
     </row>
     <row r="138" spans="1:12" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="B138" s="23" t="s">
+      <c r="B138" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="C138" s="23" t="s">
+      <c r="C138" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="D138" s="44">
+      <c r="D138" s="27">
         <v>6</v>
       </c>
-      <c r="E138" s="23">
+      <c r="E138" s="19">
         <v>6</v>
       </c>
-      <c r="F138" s="23" t="s">
+      <c r="F138" s="19" t="s">
         <v>4</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="H138" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I138" s="23" t="s">
+      <c r="H138" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I138" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="J138" s="23" t="s">
+      <c r="J138" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K138" s="44">
+      <c r="K138" s="27">
         <v>20</v>
       </c>
-      <c r="L138" s="23" t="s">
+      <c r="L138" s="19" t="s">
         <v>385</v>
       </c>
     </row>
@@ -6138,55 +6138,55 @@
       <c r="A139" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="45"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="24"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="28"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="20"/>
       <c r="G139" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="H139" s="24"/>
-      <c r="I139" s="24"/>
-      <c r="J139" s="24"/>
-      <c r="K139" s="45"/>
-      <c r="L139" s="24"/>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="20"/>
+      <c r="K139" s="28"/>
+      <c r="L139" s="20"/>
     </row>
     <row r="140" spans="1:12" ht="318" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="B140" s="23" t="s">
+      <c r="B140" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="C140" s="23" t="s">
+      <c r="C140" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="D140" s="44">
+      <c r="D140" s="27">
         <v>17</v>
       </c>
-      <c r="E140" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F140" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G140" s="23" t="s">
+      <c r="E140" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F140" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G140" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="H140" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I140" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J140" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K140" s="23" t="s">
+      <c r="H140" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I140" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J140" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K140" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="L140" s="23" t="s">
+      <c r="L140" s="19" t="s">
         <v>392</v>
       </c>
     </row>
@@ -6194,53 +6194,53 @@
       <c r="A141" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="45"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="24"/>
-      <c r="G141" s="24"/>
-      <c r="H141" s="24"/>
-      <c r="I141" s="24"/>
-      <c r="J141" s="24"/>
-      <c r="K141" s="24"/>
-      <c r="L141" s="24"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="28"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="20"/>
+      <c r="K141" s="20"/>
+      <c r="L141" s="20"/>
     </row>
     <row r="142" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B142" s="23" t="s">
+      <c r="B142" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="C142" s="23" t="s">
+      <c r="C142" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="D142" s="23">
+      <c r="D142" s="19">
         <v>26</v>
       </c>
-      <c r="E142" s="23">
+      <c r="E142" s="19">
         <v>26</v>
       </c>
-      <c r="F142" s="23" t="s">
+      <c r="F142" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G142" s="42">
+      <c r="G142" s="25">
         <v>839666</v>
       </c>
-      <c r="H142" s="42">
+      <c r="H142" s="25">
         <v>839666</v>
       </c>
-      <c r="I142" s="23" t="s">
+      <c r="I142" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="J142" s="23" t="s">
+      <c r="J142" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K142" s="44">
+      <c r="K142" s="27">
         <v>1300</v>
       </c>
-      <c r="L142" s="23" t="s">
+      <c r="L142" s="19" t="s">
         <v>398</v>
       </c>
     </row>
@@ -6248,53 +6248,53 @@
       <c r="A143" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="B143" s="24"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="24"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="24"/>
-      <c r="G143" s="43"/>
-      <c r="H143" s="43"/>
-      <c r="I143" s="24"/>
-      <c r="J143" s="24"/>
-      <c r="K143" s="45"/>
-      <c r="L143" s="24"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="26"/>
+      <c r="H143" s="26"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="20"/>
+      <c r="K143" s="28"/>
+      <c r="L143" s="20"/>
     </row>
     <row r="144" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A144" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="B144" s="23" t="s">
+      <c r="B144" s="19" t="s">
         <v>401</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D144" s="23">
+      <c r="D144" s="19">
         <v>6</v>
       </c>
-      <c r="E144" s="23">
+      <c r="E144" s="19">
         <v>6</v>
       </c>
-      <c r="F144" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G144" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H144" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I144" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J144" s="23" t="s">
+      <c r="F144" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G144" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H144" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I144" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J144" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K144" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L144" s="23" t="s">
+      <c r="K144" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L144" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6302,99 +6302,99 @@
       <c r="A145" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="B145" s="30"/>
+      <c r="B145" s="21"/>
       <c r="C145" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D145" s="30"/>
-      <c r="E145" s="30"/>
-      <c r="F145" s="30"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="30"/>
-      <c r="I145" s="30"/>
-      <c r="J145" s="30"/>
-      <c r="K145" s="30"/>
-      <c r="L145" s="30"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="21"/>
+      <c r="I145" s="21"/>
+      <c r="J145" s="21"/>
+      <c r="K145" s="21"/>
+      <c r="L145" s="21"/>
     </row>
     <row r="146" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
-      <c r="B146" s="30"/>
+      <c r="B146" s="21"/>
       <c r="C146" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D146" s="30"/>
-      <c r="E146" s="30"/>
-      <c r="F146" s="30"/>
-      <c r="G146" s="30"/>
-      <c r="H146" s="30"/>
-      <c r="I146" s="30"/>
-      <c r="J146" s="30"/>
-      <c r="K146" s="30"/>
-      <c r="L146" s="30"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="21"/>
+      <c r="I146" s="21"/>
+      <c r="J146" s="21"/>
+      <c r="K146" s="21"/>
+      <c r="L146" s="21"/>
     </row>
     <row r="147" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
-      <c r="B147" s="30"/>
+      <c r="B147" s="21"/>
       <c r="C147" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D147" s="30"/>
-      <c r="E147" s="30"/>
-      <c r="F147" s="30"/>
-      <c r="G147" s="30"/>
-      <c r="H147" s="30"/>
-      <c r="I147" s="30"/>
-      <c r="J147" s="30"/>
-      <c r="K147" s="30"/>
-      <c r="L147" s="30"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="21"/>
+      <c r="J147" s="21"/>
+      <c r="K147" s="21"/>
+      <c r="L147" s="21"/>
     </row>
     <row r="148" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
-      <c r="B148" s="30"/>
+      <c r="B148" s="21"/>
       <c r="C148" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D148" s="30"/>
-      <c r="E148" s="30"/>
-      <c r="F148" s="30"/>
-      <c r="G148" s="30"/>
-      <c r="H148" s="30"/>
-      <c r="I148" s="30"/>
-      <c r="J148" s="30"/>
-      <c r="K148" s="30"/>
-      <c r="L148" s="30"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="21"/>
+      <c r="I148" s="21"/>
+      <c r="J148" s="21"/>
+      <c r="K148" s="21"/>
+      <c r="L148" s="21"/>
     </row>
     <row r="149" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
-      <c r="B149" s="30"/>
+      <c r="B149" s="21"/>
       <c r="C149" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D149" s="30"/>
-      <c r="E149" s="30"/>
-      <c r="F149" s="30"/>
-      <c r="G149" s="30"/>
-      <c r="H149" s="30"/>
-      <c r="I149" s="30"/>
-      <c r="J149" s="30"/>
-      <c r="K149" s="30"/>
-      <c r="L149" s="30"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="21"/>
+      <c r="I149" s="21"/>
+      <c r="J149" s="21"/>
+      <c r="K149" s="21"/>
+      <c r="L149" s="21"/>
     </row>
     <row r="150" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
-      <c r="B150" s="24"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="D150" s="24"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="24"/>
-      <c r="G150" s="24"/>
-      <c r="H150" s="24"/>
-      <c r="I150" s="24"/>
-      <c r="J150" s="24"/>
-      <c r="K150" s="24"/>
-      <c r="L150" s="24"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="20"/>
+      <c r="K150" s="20"/>
+      <c r="L150" s="20"/>
     </row>
     <row r="151" spans="1:12" ht="306.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="s">
@@ -6435,58 +6435,58 @@
       </c>
     </row>
     <row r="152" spans="1:12" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="27" t="s">
+      <c r="A152" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="B152" s="23" t="s">
+      <c r="B152" s="19" t="s">
         <v>415</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D152" s="23">
+      <c r="D152" s="19">
         <v>10</v>
       </c>
-      <c r="E152" s="23">
+      <c r="E152" s="19">
         <v>10</v>
       </c>
-      <c r="F152" s="23" t="s">
+      <c r="F152" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G152" s="23" t="s">
+      <c r="G152" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="H152" s="23" t="s">
+      <c r="H152" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="I152" s="23" t="s">
+      <c r="I152" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="J152" s="23" t="s">
+      <c r="J152" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K152" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L152" s="23" t="s">
+      <c r="K152" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L152" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="29"/>
-      <c r="B153" s="24"/>
+      <c r="A153" s="24"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D153" s="24"/>
-      <c r="E153" s="24"/>
-      <c r="F153" s="24"/>
-      <c r="G153" s="24"/>
-      <c r="H153" s="24"/>
-      <c r="I153" s="24"/>
-      <c r="J153" s="24"/>
-      <c r="K153" s="24"/>
-      <c r="L153" s="24"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="20"/>
+      <c r="K153" s="20"/>
+      <c r="L153" s="20"/>
     </row>
     <row r="154" spans="1:12" ht="408.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="s">
@@ -6527,170 +6527,170 @@
       </c>
     </row>
     <row r="155" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="27" t="s">
+      <c r="A155" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="B155" s="23" t="s">
+      <c r="B155" s="19" t="s">
         <v>425</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L155" s="23" t="s">
+      <c r="D155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L155" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A156" s="28"/>
-      <c r="B156" s="30"/>
+      <c r="A156" s="23"/>
+      <c r="B156" s="21"/>
       <c r="C156" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D156" s="30"/>
-      <c r="E156" s="30"/>
-      <c r="F156" s="30"/>
-      <c r="G156" s="30"/>
-      <c r="H156" s="30"/>
-      <c r="I156" s="30"/>
-      <c r="J156" s="30"/>
-      <c r="K156" s="30"/>
-      <c r="L156" s="30"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="21"/>
+      <c r="I156" s="21"/>
+      <c r="J156" s="21"/>
+      <c r="K156" s="21"/>
+      <c r="L156" s="21"/>
     </row>
     <row r="157" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="28"/>
-      <c r="B157" s="30"/>
+      <c r="A157" s="23"/>
+      <c r="B157" s="21"/>
       <c r="C157" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D157" s="30"/>
-      <c r="E157" s="30"/>
-      <c r="F157" s="30"/>
-      <c r="G157" s="30"/>
-      <c r="H157" s="30"/>
-      <c r="I157" s="30"/>
-      <c r="J157" s="30"/>
-      <c r="K157" s="30"/>
-      <c r="L157" s="30"/>
+      <c r="D157" s="21"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="21"/>
+      <c r="I157" s="21"/>
+      <c r="J157" s="21"/>
+      <c r="K157" s="21"/>
+      <c r="L157" s="21"/>
     </row>
     <row r="158" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A158" s="28"/>
-      <c r="B158" s="30"/>
+      <c r="A158" s="23"/>
+      <c r="B158" s="21"/>
       <c r="C158" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D158" s="30"/>
-      <c r="E158" s="30"/>
-      <c r="F158" s="30"/>
-      <c r="G158" s="30"/>
-      <c r="H158" s="30"/>
-      <c r="I158" s="30"/>
-      <c r="J158" s="30"/>
-      <c r="K158" s="30"/>
-      <c r="L158" s="30"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="21"/>
+      <c r="I158" s="21"/>
+      <c r="J158" s="21"/>
+      <c r="K158" s="21"/>
+      <c r="L158" s="21"/>
     </row>
     <row r="159" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="28"/>
-      <c r="B159" s="30"/>
+      <c r="A159" s="23"/>
+      <c r="B159" s="21"/>
       <c r="C159" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D159" s="30"/>
-      <c r="E159" s="30"/>
-      <c r="F159" s="30"/>
-      <c r="G159" s="30"/>
-      <c r="H159" s="30"/>
-      <c r="I159" s="30"/>
-      <c r="J159" s="30"/>
-      <c r="K159" s="30"/>
-      <c r="L159" s="30"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="21"/>
+      <c r="I159" s="21"/>
+      <c r="J159" s="21"/>
+      <c r="K159" s="21"/>
+      <c r="L159" s="21"/>
     </row>
     <row r="160" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A160" s="28"/>
-      <c r="B160" s="30"/>
+      <c r="A160" s="23"/>
+      <c r="B160" s="21"/>
       <c r="C160" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D160" s="30"/>
-      <c r="E160" s="30"/>
-      <c r="F160" s="30"/>
-      <c r="G160" s="30"/>
-      <c r="H160" s="30"/>
-      <c r="I160" s="30"/>
-      <c r="J160" s="30"/>
-      <c r="K160" s="30"/>
-      <c r="L160" s="30"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="21"/>
+      <c r="I160" s="21"/>
+      <c r="J160" s="21"/>
+      <c r="K160" s="21"/>
+      <c r="L160" s="21"/>
     </row>
     <row r="161" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="28"/>
-      <c r="B161" s="30"/>
+      <c r="A161" s="23"/>
+      <c r="B161" s="21"/>
       <c r="C161" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D161" s="30"/>
-      <c r="E161" s="30"/>
-      <c r="F161" s="30"/>
-      <c r="G161" s="30"/>
-      <c r="H161" s="30"/>
-      <c r="I161" s="30"/>
-      <c r="J161" s="30"/>
-      <c r="K161" s="30"/>
-      <c r="L161" s="30"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="21"/>
+      <c r="I161" s="21"/>
+      <c r="J161" s="21"/>
+      <c r="K161" s="21"/>
+      <c r="L161" s="21"/>
     </row>
     <row r="162" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A162" s="28"/>
-      <c r="B162" s="30"/>
+      <c r="A162" s="23"/>
+      <c r="B162" s="21"/>
       <c r="C162" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D162" s="30"/>
-      <c r="E162" s="30"/>
-      <c r="F162" s="30"/>
-      <c r="G162" s="30"/>
-      <c r="H162" s="30"/>
-      <c r="I162" s="30"/>
-      <c r="J162" s="30"/>
-      <c r="K162" s="30"/>
-      <c r="L162" s="30"/>
+      <c r="D162" s="21"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="21"/>
+      <c r="H162" s="21"/>
+      <c r="I162" s="21"/>
+      <c r="J162" s="21"/>
+      <c r="K162" s="21"/>
+      <c r="L162" s="21"/>
     </row>
     <row r="163" spans="1:12" ht="90" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="29"/>
-      <c r="B163" s="24"/>
+      <c r="A163" s="24"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D163" s="24"/>
-      <c r="E163" s="24"/>
-      <c r="F163" s="24"/>
-      <c r="G163" s="24"/>
-      <c r="H163" s="24"/>
-      <c r="I163" s="24"/>
-      <c r="J163" s="24"/>
-      <c r="K163" s="24"/>
-      <c r="L163" s="24"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="20"/>
+      <c r="K163" s="20"/>
+      <c r="L163" s="20"/>
     </row>
     <row r="164" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
@@ -6770,113 +6770,364 @@
     </row>
   </sheetData>
   <mergeCells count="489">
-    <mergeCell ref="L152:L153"/>
-    <mergeCell ref="H144:H150"/>
-    <mergeCell ref="I144:I150"/>
-    <mergeCell ref="J144:J150"/>
-    <mergeCell ref="K144:K150"/>
-    <mergeCell ref="L144:L150"/>
-    <mergeCell ref="H155:H163"/>
-    <mergeCell ref="I155:I163"/>
-    <mergeCell ref="J155:J163"/>
-    <mergeCell ref="K155:K163"/>
-    <mergeCell ref="L155:L163"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="H152:H153"/>
-    <mergeCell ref="I152:I153"/>
-    <mergeCell ref="J152:J153"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="A155:A163"/>
-    <mergeCell ref="B155:B163"/>
-    <mergeCell ref="D155:D163"/>
-    <mergeCell ref="E155:E163"/>
-    <mergeCell ref="F155:F163"/>
-    <mergeCell ref="G155:G163"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="E144:E150"/>
-    <mergeCell ref="F144:F150"/>
-    <mergeCell ref="G144:G150"/>
-    <mergeCell ref="I140:I141"/>
-    <mergeCell ref="J140:J141"/>
-    <mergeCell ref="K140:K141"/>
-    <mergeCell ref="L140:L141"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="J142:J143"/>
-    <mergeCell ref="K142:K143"/>
-    <mergeCell ref="B144:B150"/>
-    <mergeCell ref="D144:D150"/>
-    <mergeCell ref="L138:L139"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="K138:K139"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="I136:I137"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="L136:L137"/>
-    <mergeCell ref="H132:H133"/>
-    <mergeCell ref="I132:I133"/>
-    <mergeCell ref="J132:J133"/>
-    <mergeCell ref="K132:K133"/>
-    <mergeCell ref="L132:L133"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="L134:L135"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="K122:K124"/>
-    <mergeCell ref="L122:L124"/>
-    <mergeCell ref="F122:F124"/>
-    <mergeCell ref="G122:G124"/>
-    <mergeCell ref="H130:H131"/>
-    <mergeCell ref="I130:I131"/>
-    <mergeCell ref="J130:J131"/>
-    <mergeCell ref="K130:K131"/>
-    <mergeCell ref="L130:L131"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="L46:L57"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="J40:J45"/>
+    <mergeCell ref="K40:K45"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="J58:J62"/>
+    <mergeCell ref="D46:D57"/>
+    <mergeCell ref="E46:E57"/>
+    <mergeCell ref="F46:F57"/>
+    <mergeCell ref="G46:G57"/>
+    <mergeCell ref="H46:H57"/>
+    <mergeCell ref="I46:I57"/>
+    <mergeCell ref="J46:J57"/>
+    <mergeCell ref="K46:K57"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="K58:K62"/>
+    <mergeCell ref="L58:L62"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="D63:D69"/>
+    <mergeCell ref="E63:E69"/>
+    <mergeCell ref="F63:F69"/>
+    <mergeCell ref="G63:G69"/>
+    <mergeCell ref="H63:H69"/>
+    <mergeCell ref="I63:I69"/>
+    <mergeCell ref="J63:J69"/>
+    <mergeCell ref="K63:K69"/>
+    <mergeCell ref="L63:L69"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="F58:F62"/>
+    <mergeCell ref="G58:G62"/>
+    <mergeCell ref="H58:H62"/>
+    <mergeCell ref="I58:I62"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H74:H78"/>
+    <mergeCell ref="I74:I78"/>
+    <mergeCell ref="J74:J78"/>
+    <mergeCell ref="K74:K78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="F79:F83"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="G74:G78"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="H79:H83"/>
+    <mergeCell ref="I79:I83"/>
+    <mergeCell ref="J79:J83"/>
+    <mergeCell ref="K79:K83"/>
+    <mergeCell ref="L79:L83"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="K89:K91"/>
+    <mergeCell ref="L89:L91"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="J86:J88"/>
+    <mergeCell ref="K86:K88"/>
+    <mergeCell ref="L86:L88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="G89:G91"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="K92:K94"/>
+    <mergeCell ref="L92:L94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="G95:G97"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="J95:J97"/>
+    <mergeCell ref="K95:K97"/>
+    <mergeCell ref="L95:L97"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="F103:F106"/>
+    <mergeCell ref="G103:G106"/>
+    <mergeCell ref="H103:H106"/>
+    <mergeCell ref="L107:L111"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="D113:D116"/>
+    <mergeCell ref="E113:E116"/>
+    <mergeCell ref="F113:F116"/>
+    <mergeCell ref="I103:I106"/>
+    <mergeCell ref="J103:J106"/>
+    <mergeCell ref="K103:K106"/>
+    <mergeCell ref="L103:L106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="E107:E111"/>
+    <mergeCell ref="F107:F111"/>
+    <mergeCell ref="G107:G111"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="H107:H111"/>
+    <mergeCell ref="I107:I111"/>
+    <mergeCell ref="J107:J111"/>
+    <mergeCell ref="K107:K111"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="J120:J121"/>
+    <mergeCell ref="K120:K121"/>
     <mergeCell ref="L120:L121"/>
     <mergeCell ref="G113:G116"/>
     <mergeCell ref="H113:H116"/>
@@ -6901,364 +7152,113 @@
     <mergeCell ref="H122:H124"/>
     <mergeCell ref="I122:I124"/>
     <mergeCell ref="J122:J124"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="H107:H111"/>
-    <mergeCell ref="I107:I111"/>
-    <mergeCell ref="J107:J111"/>
-    <mergeCell ref="K107:K111"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="J120:J121"/>
-    <mergeCell ref="K120:K121"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="F103:F106"/>
-    <mergeCell ref="G103:G106"/>
-    <mergeCell ref="H103:H106"/>
-    <mergeCell ref="L107:L111"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="D113:D116"/>
-    <mergeCell ref="E113:E116"/>
-    <mergeCell ref="F113:F116"/>
-    <mergeCell ref="I103:I106"/>
-    <mergeCell ref="J103:J106"/>
-    <mergeCell ref="K103:K106"/>
-    <mergeCell ref="L103:L106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="D107:D111"/>
-    <mergeCell ref="E107:E111"/>
-    <mergeCell ref="F107:F111"/>
-    <mergeCell ref="G107:G111"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="K92:K94"/>
-    <mergeCell ref="L92:L94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="G95:G97"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="I95:I97"/>
-    <mergeCell ref="J95:J97"/>
-    <mergeCell ref="K95:K97"/>
-    <mergeCell ref="L95:L97"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="G89:G91"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="I92:I94"/>
-    <mergeCell ref="J89:J91"/>
-    <mergeCell ref="K89:K91"/>
-    <mergeCell ref="L89:L91"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="J86:J88"/>
-    <mergeCell ref="K86:K88"/>
-    <mergeCell ref="L86:L88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="H79:H83"/>
-    <mergeCell ref="I79:I83"/>
-    <mergeCell ref="J79:J83"/>
-    <mergeCell ref="K79:K83"/>
-    <mergeCell ref="L79:L83"/>
-    <mergeCell ref="H74:H78"/>
-    <mergeCell ref="I74:I78"/>
-    <mergeCell ref="J74:J78"/>
-    <mergeCell ref="K74:K78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="F79:F83"/>
-    <mergeCell ref="G79:G83"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="G74:G78"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="K58:K62"/>
-    <mergeCell ref="L58:L62"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="D63:D69"/>
-    <mergeCell ref="E63:E69"/>
-    <mergeCell ref="F63:F69"/>
-    <mergeCell ref="G63:G69"/>
-    <mergeCell ref="H63:H69"/>
-    <mergeCell ref="I63:I69"/>
-    <mergeCell ref="J63:J69"/>
-    <mergeCell ref="K63:K69"/>
-    <mergeCell ref="L63:L69"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="F58:F62"/>
-    <mergeCell ref="G58:G62"/>
-    <mergeCell ref="H58:H62"/>
-    <mergeCell ref="I58:I62"/>
-    <mergeCell ref="J58:J62"/>
-    <mergeCell ref="D46:D57"/>
-    <mergeCell ref="E46:E57"/>
-    <mergeCell ref="F46:F57"/>
-    <mergeCell ref="G46:G57"/>
-    <mergeCell ref="H46:H57"/>
-    <mergeCell ref="I46:I57"/>
-    <mergeCell ref="J46:J57"/>
-    <mergeCell ref="K46:K57"/>
-    <mergeCell ref="L46:L57"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="F40:F45"/>
-    <mergeCell ref="G40:G45"/>
-    <mergeCell ref="H40:H45"/>
-    <mergeCell ref="J40:J45"/>
-    <mergeCell ref="K40:K45"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="K122:K124"/>
+    <mergeCell ref="L122:L124"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="G122:G124"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="J130:J131"/>
+    <mergeCell ref="K130:K131"/>
+    <mergeCell ref="L130:L131"/>
+    <mergeCell ref="H132:H133"/>
+    <mergeCell ref="I132:I133"/>
+    <mergeCell ref="J132:J133"/>
+    <mergeCell ref="K132:K133"/>
+    <mergeCell ref="L132:L133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="L134:L135"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="L136:L137"/>
+    <mergeCell ref="L138:L139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="K138:K139"/>
+    <mergeCell ref="E144:E150"/>
+    <mergeCell ref="F144:F150"/>
+    <mergeCell ref="G144:G150"/>
+    <mergeCell ref="I140:I141"/>
+    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="K140:K141"/>
+    <mergeCell ref="L140:L141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="J142:J143"/>
+    <mergeCell ref="K142:K143"/>
+    <mergeCell ref="B144:B150"/>
+    <mergeCell ref="D144:D150"/>
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="H152:H153"/>
+    <mergeCell ref="I152:I153"/>
+    <mergeCell ref="J152:J153"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="A155:A163"/>
+    <mergeCell ref="B155:B163"/>
+    <mergeCell ref="D155:D163"/>
+    <mergeCell ref="E155:E163"/>
+    <mergeCell ref="F155:F163"/>
+    <mergeCell ref="G155:G163"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="L152:L153"/>
+    <mergeCell ref="H144:H150"/>
+    <mergeCell ref="I144:I150"/>
+    <mergeCell ref="J144:J150"/>
+    <mergeCell ref="K144:K150"/>
+    <mergeCell ref="L144:L150"/>
+    <mergeCell ref="H155:H163"/>
+    <mergeCell ref="I155:I163"/>
+    <mergeCell ref="J155:J163"/>
+    <mergeCell ref="K155:K163"/>
+    <mergeCell ref="L155:L163"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/dat/synchros-initiatives.xlsx
+++ b/dat/synchros-initiatives.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="20880" windowHeight="7995" tabRatio="500"/>
+    <workbookView xWindow="10230" yWindow="0" windowWidth="20880" windowHeight="7995" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="708">
   <si>
     <t>A consortium of agricultural cohort studies</t>
   </si>
@@ -1605,46 +1605,64 @@
     <t>Social Inequality in Cancer cohort study</t>
   </si>
   <si>
-    <t>The Korean Genome and Epidemiology Study (KoGES) Consortium</t>
+    <t>The Korean Genome and Epidemiology Study Consortium</t>
   </si>
   <si>
     <t xml:space="preserve">MEPREP    </t>
   </si>
   <si>
-    <t>CLOSER (Cohort and Longitudinal Studies Enhancement Resources)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPIRIT (Sino-Quebec Perinatal Initiative in Research and Information Technology)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consortium on Health and Ageing: Network of cohorts in Europe and the United States (CHANCES)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environmental influences on Child Health Outcomes (ECHO): ECHO-wide Cohort    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finnish Genome Project (FinnGen) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEMETRIQ (Developing methodologies to reduce inequalities in the determinants of health)  </t>
+    <t>Cohort and Longitudinal Studies Enhancement Resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sino-Quebec Perinatal Initiative in Research and Information Technology  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium on Health and Ageing: Network of cohorts in Europe and the United States    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental influences on Child Health Outcomes: ECHO-wide Cohort    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finnish Genome Project </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developing methodologies to reduce inequalities in the determinants of health  </t>
   </si>
   <si>
     <t xml:space="preserve">SAGE+ Wave 2 </t>
   </si>
   <si>
-    <t xml:space="preserve">Research on European Children and adults born preterm (RECAP)  </t>
-  </si>
-  <si>
-    <t>DYNOPTA: Dynamic Analyses to Optimise Ageing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Hand-Arm Vibration International Consortium (HAVIC): Prospective Studies on the Relationship Between Power Tool Exposure and Health Effects     </t>
+    <t xml:space="preserve">Research on European Children and adults born preterm  </t>
+  </si>
+  <si>
+    <t>Child Cohort Research Strategy for Europe</t>
+  </si>
+  <si>
+    <t>Dynamic longitudinal exposome trajectories in cardiovascular and metabolic non-communicable diseases</t>
+  </si>
+  <si>
+    <t>Mechanisms of the Development of Allergy Project</t>
+  </si>
+  <si>
+    <t>Dynamic Analyses to Optimise Ageing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hand-Arm Vibration International Consortium: Prospective Studies on the Relationship Between Power Tool Exposure and Health Effects     </t>
   </si>
   <si>
     <t xml:space="preserve">CHARGE Consortium </t>
   </si>
   <si>
-    <t xml:space="preserve">LIFESPAN (Early-life influences on suicidal ideation, suicide attempts and suicide mortality: a life-course perspective to inform prevention)        </t>
+    <t>Childhood and Adolescence Psychopathology: unravelling the complex etiology by a large Interdisciplinary Collaboration in Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early-life influences on suicidal ideation, suicide attempts and suicide mortality: a life-course perspective to inform prevention        </t>
+  </si>
+  <si>
+    <t>Science and Technology in childhood Obesity Policy</t>
+  </si>
+  <si>
+    <t>Understanding the dynamic determinants of glucose homeostasis and social capability to promote Healthy and active aging</t>
   </si>
   <si>
     <t>Europe; Canada; Australia</t>
@@ -2393,28 +2411,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2424,42 +2427,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2479,6 +2446,57 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2769,96 +2787,96 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="20"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:12" ht="381.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="19">
         <v>30</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="19">
         <v>3</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="35">
         <v>1300000</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="35">
         <v>316270</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="23" t="s">
+      <c r="K3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2866,53 +2884,53 @@
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="19">
         <v>6</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="35">
         <v>245000</v>
       </c>
-      <c r="H5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="23" t="s">
+      <c r="H5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2920,52 +2938,52 @@
       <c r="A6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="31">
         <v>11</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="25">
+      <c r="E7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="35">
         <v>1221156</v>
       </c>
-      <c r="H7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="23" t="s">
+      <c r="H7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="19" t="s">
         <v>38</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -2973,122 +2991,122 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
       <c r="L11" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="204" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="19">
         <v>66</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="23" t="s">
+      <c r="E12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:12" ht="190.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
@@ -3109,7 +3127,7 @@
       <c r="F14" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="43">
         <v>300000</v>
       </c>
       <c r="H14" s="31" t="s">
@@ -3121,7 +3139,7 @@
       <c r="J14" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="43">
         <v>1477</v>
       </c>
       <c r="L14" s="31" t="s">
@@ -3132,53 +3150,53 @@
       <c r="A15" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="33"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="19">
         <v>18</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="19">
         <v>18</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="35">
         <v>346553</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="35">
         <v>346553</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="19">
         <v>180</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3186,53 +3204,53 @@
       <c r="A17" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="19">
         <v>13</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="19">
         <v>13</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="25">
+      <c r="F18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="35">
         <v>773499</v>
       </c>
-      <c r="H18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="23">
+      <c r="H18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="19">
         <v>100</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3240,53 +3258,53 @@
       <c r="A19" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="19">
         <v>10</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="19">
         <v>10</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="35">
         <v>2662777</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="35">
         <v>2662777</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="19">
         <v>9</v>
       </c>
-      <c r="L20" s="23" t="s">
+      <c r="L20" s="19" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3294,35 +3312,35 @@
       <c r="A21" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="24"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
     </row>
     <row r="23" spans="1:12" ht="254.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
@@ -3331,34 +3349,34 @@
       <c r="B23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="19">
         <v>17</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="19">
         <v>17</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="35">
         <v>76233</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="35">
         <v>76233</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="19">
         <v>31</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" s="19" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3369,49 +3387,49 @@
       <c r="B24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
     </row>
     <row r="25" spans="1:12" ht="267" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="33">
         <v>34</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="33">
         <v>34</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="41">
         <v>950000</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="41">
         <v>950000</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="I25" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="J25" s="39" t="s">
+      <c r="J25" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K25" s="33">
         <v>12</v>
       </c>
       <c r="L25" s="5" t="s">
@@ -3422,16 +3440,16 @@
       <c r="A26" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="6" t="s">
         <v>92</v>
       </c>
@@ -3440,37 +3458,37 @@
       <c r="A27" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="19">
         <v>8</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="25">
+      <c r="F27" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="35">
         <v>119952</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="23">
+      <c r="J27" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="19">
         <v>8</v>
       </c>
-      <c r="L27" s="23" t="s">
+      <c r="L27" s="19" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3478,53 +3496,53 @@
       <c r="A28" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
     </row>
     <row r="29" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="19">
         <v>17</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="19">
         <v>10</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="35">
         <v>280000</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="K29" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L29" s="19" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3532,17 +3550,17 @@
       <c r="A30" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
     </row>
     <row r="31" spans="1:12" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
@@ -3586,37 +3604,37 @@
       <c r="A32" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="19" t="s">
         <v>111</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="19">
         <v>4</v>
       </c>
-      <c r="E32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="25">
+      <c r="E32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="35">
         <v>16527</v>
       </c>
-      <c r="H32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" s="23" t="s">
+      <c r="H32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="19" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3624,87 +3642,87 @@
       <c r="A33" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="30"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
     </row>
     <row r="34" spans="1:12" ht="267.75" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
-      <c r="B34" s="30"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
     </row>
     <row r="35" spans="1:12" ht="204.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="24"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
     </row>
     <row r="36" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="19">
         <v>15</v>
       </c>
       <c r="E36" s="31">
         <v>15</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="35">
         <v>190268</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="35">
         <v>190268</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="I36" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="J36" s="23" t="s">
+      <c r="J36" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L36" s="23" t="s">
+      <c r="K36" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="19" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3712,53 +3730,53 @@
       <c r="A37" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
     </row>
     <row r="38" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="19" t="s">
         <v>122</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="19">
         <v>7</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="19">
         <v>7</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="35">
         <v>42189</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="35">
         <v>31000</v>
       </c>
-      <c r="I38" s="23" t="s">
+      <c r="I38" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J38" s="23" t="s">
+      <c r="J38" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K38" s="23">
+      <c r="K38" s="19">
         <v>15</v>
       </c>
-      <c r="L38" s="23" t="s">
+      <c r="L38" s="19" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3766,52 +3784,52 @@
       <c r="A39" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="24"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
     </row>
     <row r="40" spans="1:12" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="19" t="s">
         <v>128</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="19">
         <v>18</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="19">
         <v>8</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="35">
         <v>102774</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="J40" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K40" s="23">
+      <c r="K40" s="19">
         <v>270</v>
       </c>
       <c r="L40" s="2" t="s">
@@ -3822,88 +3840,88 @@
       <c r="A41" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="30"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="34"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
       <c r="L41" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
-      <c r="B42" s="30"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="34"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="40"/>
       <c r="I42" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
       <c r="L42" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
-      <c r="B43" s="30"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="34"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="40"/>
       <c r="I43" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
       <c r="L43" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
-      <c r="B44" s="30"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="34"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
       <c r="L44" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="24"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="26"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="36"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
       <c r="L45" s="3" t="s">
         <v>141</v>
       </c>
@@ -3918,31 +3936,31 @@
       <c r="C46" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="E46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="23" t="s">
+      <c r="E46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="H46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L46" s="23" t="s">
+      <c r="H46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3956,29 +3974,29 @@
       <c r="C47" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
     </row>
     <row r="49" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -3986,15 +4004,15 @@
       <c r="C49" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
     </row>
     <row r="50" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
@@ -4002,15 +4020,15 @@
       <c r="C50" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
     </row>
     <row r="51" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
@@ -4018,15 +4036,15 @@
       <c r="C51" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
     </row>
     <row r="52" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
@@ -4034,29 +4052,29 @@
       <c r="C52" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="10"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
     </row>
     <row r="54" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
@@ -4064,15 +4082,15 @@
       <c r="C54" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
     </row>
     <row r="55" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
@@ -4080,15 +4098,15 @@
       <c r="C55" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
     </row>
     <row r="56" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
@@ -4096,15 +4114,15 @@
       <c r="C56" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
     </row>
     <row r="57" spans="1:12" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -4112,250 +4130,250 @@
       <c r="C57" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
     </row>
     <row r="58" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="19" t="s">
         <v>158</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="19">
         <v>36</v>
       </c>
-      <c r="E58" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="23" t="s">
+      <c r="E58" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="G58" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="H58" s="23" t="s">
+      <c r="H58" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I58" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J58" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K58" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L58" s="23" t="s">
+      <c r="I58" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J58" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K58" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
-      <c r="B59" s="30"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="28"/>
-      <c r="B60" s="30"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="10"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
     </row>
     <row r="61" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="28"/>
-      <c r="B61" s="30"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
     </row>
     <row r="62" spans="1:12" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
-      <c r="B62" s="24"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
     </row>
     <row r="63" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="19" t="s">
         <v>166</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D63" s="19">
         <v>4</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="19">
         <v>4</v>
       </c>
-      <c r="F63" s="23" t="s">
+      <c r="F63" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G63" s="25">
+      <c r="G63" s="35">
         <v>22730</v>
       </c>
-      <c r="H63" s="23" t="s">
+      <c r="H63" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="I63" s="23" t="s">
+      <c r="I63" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="J63" s="23" t="s">
+      <c r="J63" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K63" s="23">
+      <c r="K63" s="19">
         <v>1043</v>
       </c>
-      <c r="L63" s="23" t="s">
+      <c r="L63" s="19" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="28"/>
-      <c r="B64" s="30"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="10"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
     </row>
     <row r="65" spans="1:12" ht="255" x14ac:dyDescent="0.2">
-      <c r="A65" s="28"/>
-      <c r="B65" s="30"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
     </row>
     <row r="66" spans="1:12" ht="102" x14ac:dyDescent="0.2">
-      <c r="A66" s="28"/>
-      <c r="B66" s="30"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
     </row>
     <row r="67" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="28"/>
-      <c r="B67" s="30"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
     </row>
     <row r="68" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="28"/>
-      <c r="B68" s="30"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
     </row>
     <row r="69" spans="1:12" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="24"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
     </row>
     <row r="70" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="22" t="s">
         <v>176</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -4364,108 +4382,108 @@
       <c r="C70" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D70" s="23">
+      <c r="D70" s="19">
         <v>29</v>
       </c>
-      <c r="E70" s="23">
+      <c r="E70" s="19">
         <v>24</v>
       </c>
-      <c r="F70" s="23" t="s">
+      <c r="F70" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G70" s="25">
+      <c r="G70" s="35">
         <v>1221985</v>
       </c>
-      <c r="H70" s="25">
+      <c r="H70" s="35">
         <v>1221985</v>
       </c>
-      <c r="I70" s="23" t="s">
+      <c r="I70" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="J70" s="23" t="s">
+      <c r="J70" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K70" s="23">
+      <c r="K70" s="19">
         <v>600</v>
       </c>
-      <c r="L70" s="23" t="s">
+      <c r="L70" s="19" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
     </row>
     <row r="72" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="19" t="s">
         <v>183</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D72" s="23">
+      <c r="D72" s="19">
         <v>29</v>
       </c>
-      <c r="E72" s="23">
+      <c r="E72" s="19">
         <v>29</v>
       </c>
-      <c r="F72" s="23" t="s">
+      <c r="F72" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G72" s="23">
+      <c r="G72" s="19">
         <v>700</v>
       </c>
-      <c r="H72" s="23">
+      <c r="H72" s="19">
         <v>700</v>
       </c>
-      <c r="I72" s="23" t="s">
+      <c r="I72" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="J72" s="23" t="s">
+      <c r="J72" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K72" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L72" s="23" t="s">
+      <c r="K72" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L72" s="19" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="306.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="29"/>
-      <c r="B73" s="24"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
     </row>
     <row r="74" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="22" t="s">
         <v>188</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -4474,471 +4492,471 @@
       <c r="C74" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D74" s="23">
+      <c r="D74" s="19">
         <v>14</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="19">
         <v>14</v>
       </c>
-      <c r="F74" s="23" t="s">
+      <c r="F74" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G74" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H74" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I74" s="23" t="s">
+      <c r="G74" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H74" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="J74" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K74" s="23">
+      <c r="J74" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K74" s="19">
         <v>323</v>
       </c>
       <c r="L74" s="10"/>
     </row>
     <row r="75" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="28"/>
+      <c r="A75" s="23"/>
       <c r="B75" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="30"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
       <c r="L75" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="28"/>
+      <c r="A76" s="23"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="30"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
       <c r="L76" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="28"/>
+      <c r="A77" s="23"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
       <c r="L77" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
       <c r="L78" s="3" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B79" s="19" t="s">
         <v>199</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D79" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="E79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G79" s="23">
+      <c r="E79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79" s="19">
         <v>50000</v>
       </c>
-      <c r="H79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L79" s="23" t="s">
+      <c r="H79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L79" s="19" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="28"/>
-      <c r="B80" s="30"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="21"/>
       <c r="C80" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="30"/>
-      <c r="L80" s="30"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
     </row>
     <row r="81" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="28"/>
-      <c r="B81" s="30"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="21"/>
       <c r="C81" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="30"/>
-      <c r="L81" s="30"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
     </row>
     <row r="82" spans="1:12" ht="204" x14ac:dyDescent="0.2">
-      <c r="A82" s="28"/>
-      <c r="B82" s="30"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="21"/>
       <c r="C82" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
     </row>
     <row r="83" spans="1:12" ht="192" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="29"/>
-      <c r="B83" s="24"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
     </row>
     <row r="84" spans="1:12" ht="204" x14ac:dyDescent="0.2">
-      <c r="A84" s="27" t="s">
+      <c r="A84" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="19" t="s">
         <v>208</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D84" s="23" t="s">
+      <c r="D84" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="E84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G84" s="23" t="s">
+      <c r="E84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G84" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="H84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L84" s="23" t="s">
+      <c r="H84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L84" s="19" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="29"/>
-      <c r="B85" s="24"/>
+      <c r="A85" s="24"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
     </row>
     <row r="86" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="27" t="s">
+      <c r="A86" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="19" t="s">
         <v>215</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G86" s="25">
+      <c r="D86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G86" s="35">
         <v>100000</v>
       </c>
-      <c r="H86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I86" s="23" t="s">
+      <c r="H86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I86" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="J86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L86" s="23" t="s">
+      <c r="J86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L86" s="19" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A87" s="28"/>
-      <c r="B87" s="30"/>
+      <c r="A87" s="23"/>
+      <c r="B87" s="21"/>
       <c r="C87" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="30"/>
-      <c r="L87" s="30"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
     </row>
     <row r="88" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="29"/>
-      <c r="B88" s="24"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="24"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
     </row>
     <row r="89" spans="1:12" ht="267.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="27" t="s">
+      <c r="A89" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="B89" s="23" t="s">
+      <c r="B89" s="19" t="s">
         <v>222</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D89" s="23">
+      <c r="D89" s="19">
         <v>9</v>
       </c>
-      <c r="E89" s="23">
+      <c r="E89" s="19">
         <v>6</v>
       </c>
-      <c r="F89" s="23" t="s">
+      <c r="F89" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G89" s="23" t="s">
+      <c r="G89" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="H89" s="25">
+      <c r="H89" s="35">
         <v>150000</v>
       </c>
-      <c r="I89" s="23" t="s">
+      <c r="I89" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="J89" s="23" t="s">
+      <c r="J89" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K89" s="23">
+      <c r="K89" s="19">
         <v>15</v>
       </c>
-      <c r="L89" s="23" t="s">
+      <c r="L89" s="19" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="280.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="28"/>
-      <c r="B90" s="30"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="30"/>
-      <c r="K90" s="30"/>
-      <c r="L90" s="30"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
     </row>
     <row r="91" spans="1:12" ht="243" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
-      <c r="B91" s="24"/>
+      <c r="A91" s="24"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="24"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
     </row>
     <row r="92" spans="1:12" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="27" t="s">
+      <c r="A92" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="19" t="s">
         <v>230</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D92" s="23" t="s">
+      <c r="D92" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="E92" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F92" s="23" t="s">
+      <c r="E92" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G92" s="23" t="s">
+      <c r="G92" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="H92" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I92" s="23" t="s">
+      <c r="H92" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I92" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="J92" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K92" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L92" s="23" t="s">
+      <c r="J92" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K92" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L92" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="293.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="28"/>
-      <c r="B93" s="30"/>
+      <c r="A93" s="23"/>
+      <c r="B93" s="21"/>
       <c r="C93" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="30"/>
-      <c r="K93" s="30"/>
-      <c r="L93" s="30"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
     </row>
     <row r="94" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="29"/>
-      <c r="B94" s="24"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
     </row>
     <row r="95" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B95" s="23" t="s">
+      <c r="B95" s="19" t="s">
         <v>237</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -4947,28 +4965,28 @@
       <c r="D95" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E95" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F95" s="23" t="s">
+      <c r="E95" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G95" s="25">
+      <c r="G95" s="35">
         <v>315000</v>
       </c>
-      <c r="H95" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I95" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J95" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K95" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L95" s="23" t="s">
+      <c r="H95" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I95" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J95" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K95" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L95" s="19" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4976,71 +4994,71 @@
       <c r="A96" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B96" s="30"/>
+      <c r="B96" s="21"/>
       <c r="C96" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D96" s="10"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="30"/>
-      <c r="K96" s="30"/>
-      <c r="L96" s="30"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
     </row>
     <row r="97" spans="1:12" ht="294" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="24"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="9"/>
       <c r="D97" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="24"/>
-      <c r="K97" s="24"/>
-      <c r="L97" s="24"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20"/>
     </row>
     <row r="98" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B98" s="19" t="s">
         <v>245</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D98" s="23" t="s">
+      <c r="D98" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="E98" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F98" s="23" t="s">
+      <c r="E98" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G98" s="23" t="s">
+      <c r="G98" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="H98" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I98" s="23" t="s">
+      <c r="H98" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I98" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="J98" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K98" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L98" s="23" t="s">
+      <c r="J98" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K98" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L98" s="19" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5048,19 +5066,19 @@
       <c r="A99" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="B99" s="24"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="24"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="24"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20"/>
     </row>
     <row r="100" spans="1:12" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
@@ -5101,7 +5119,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="37" t="s">
         <v>259</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -5110,54 +5128,54 @@
       <c r="C101" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D101" s="23">
+      <c r="D101" s="19">
         <v>6</v>
       </c>
-      <c r="E101" s="23">
+      <c r="E101" s="19">
         <v>6</v>
       </c>
-      <c r="F101" s="23" t="s">
+      <c r="F101" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G101" s="25">
+      <c r="G101" s="35">
         <v>136128</v>
       </c>
-      <c r="H101" s="25">
+      <c r="H101" s="35">
         <v>136128</v>
       </c>
-      <c r="I101" s="23" t="s">
+      <c r="I101" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="J101" s="23" t="s">
+      <c r="J101" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="K101" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L101" s="23" t="s">
+      <c r="K101" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L101" s="19" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="20"/>
+      <c r="A102" s="39"/>
       <c r="B102" s="3" t="s">
         <v>261</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
     </row>
     <row r="103" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A103" s="19" t="s">
+      <c r="A103" s="37" t="s">
         <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -5166,179 +5184,179 @@
       <c r="C103" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D103" s="23">
+      <c r="D103" s="19">
         <v>373</v>
       </c>
-      <c r="E103" s="23" t="s">
+      <c r="E103" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="F103" s="23" t="s">
+      <c r="F103" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G103" s="23" t="s">
+      <c r="G103" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="H103" s="23" t="s">
+      <c r="H103" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="I103" s="23" t="s">
+      <c r="I103" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="J103" s="23" t="s">
+      <c r="J103" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K103" s="23" t="s">
+      <c r="K103" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="L103" s="23" t="s">
+      <c r="L103" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="41"/>
+      <c r="A104" s="38"/>
       <c r="B104" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C104" s="10"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="30"/>
-      <c r="I104" s="30"/>
-      <c r="J104" s="30"/>
-      <c r="K104" s="30"/>
-      <c r="L104" s="30"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="21"/>
     </row>
     <row r="105" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="41"/>
+      <c r="A105" s="38"/>
       <c r="B105" s="8"/>
       <c r="C105" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="30"/>
-      <c r="I105" s="30"/>
-      <c r="J105" s="30"/>
-      <c r="K105" s="30"/>
-      <c r="L105" s="30"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
     </row>
     <row r="106" spans="1:12" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
+      <c r="A106" s="39"/>
       <c r="B106" s="9"/>
       <c r="C106" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="24"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="24"/>
-      <c r="K106" s="24"/>
-      <c r="L106" s="24"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="20"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="20"/>
     </row>
     <row r="107" spans="1:12" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="19" t="s">
+      <c r="A107" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D107" s="23">
+      <c r="D107" s="19">
         <v>20</v>
       </c>
-      <c r="E107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L107" s="23" t="s">
+      <c r="E107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L107" s="19" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" s="41"/>
-      <c r="B108" s="30"/>
+      <c r="A108" s="38"/>
+      <c r="B108" s="21"/>
       <c r="C108" s="10"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="30"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="30"/>
-      <c r="I108" s="30"/>
-      <c r="J108" s="30"/>
-      <c r="K108" s="30"/>
-      <c r="L108" s="30"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="21"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="21"/>
     </row>
     <row r="109" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="41"/>
-      <c r="B109" s="30"/>
+      <c r="A109" s="38"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="30"/>
-      <c r="J109" s="30"/>
-      <c r="K109" s="30"/>
-      <c r="L109" s="30"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" s="41"/>
-      <c r="B110" s="30"/>
+      <c r="A110" s="38"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="10"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="30"/>
-      <c r="I110" s="30"/>
-      <c r="J110" s="30"/>
-      <c r="K110" s="30"/>
-      <c r="L110" s="30"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
     </row>
     <row r="111" spans="1:12" ht="243" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="20"/>
-      <c r="B111" s="24"/>
+      <c r="A111" s="39"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="24"/>
-      <c r="K111" s="24"/>
-      <c r="L111" s="24"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="20"/>
+      <c r="K111" s="20"/>
+      <c r="L111" s="20"/>
     </row>
     <row r="112" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
@@ -5379,37 +5397,37 @@
       </c>
     </row>
     <row r="113" spans="1:12" ht="318.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="19" t="s">
+      <c r="A113" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B113" s="23" t="s">
+      <c r="B113" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D113" s="23">
+      <c r="D113" s="19">
         <v>6</v>
       </c>
-      <c r="E113" s="23">
+      <c r="E113" s="19">
         <v>6</v>
       </c>
-      <c r="F113" s="23" t="s">
+      <c r="F113" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G113" s="23" t="s">
+      <c r="G113" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="H113" s="23" t="s">
+      <c r="H113" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="I113" s="23" t="s">
+      <c r="I113" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="J113" s="23" t="s">
+      <c r="J113" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K113" s="23" t="s">
+      <c r="K113" s="19" t="s">
         <v>38</v>
       </c>
       <c r="L113" s="2" t="s">
@@ -5417,51 +5435,51 @@
       </c>
     </row>
     <row r="114" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A114" s="41"/>
-      <c r="B114" s="30"/>
+      <c r="A114" s="38"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="10"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30"/>
-      <c r="F114" s="30"/>
-      <c r="G114" s="30"/>
-      <c r="H114" s="30"/>
-      <c r="I114" s="30"/>
-      <c r="J114" s="30"/>
-      <c r="K114" s="30"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="21"/>
+      <c r="J114" s="21"/>
+      <c r="K114" s="21"/>
       <c r="L114" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="41"/>
-      <c r="B115" s="30"/>
+      <c r="A115" s="38"/>
+      <c r="B115" s="21"/>
       <c r="C115" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D115" s="30"/>
-      <c r="E115" s="30"/>
-      <c r="F115" s="30"/>
-      <c r="G115" s="30"/>
-      <c r="H115" s="30"/>
-      <c r="I115" s="30"/>
-      <c r="J115" s="30"/>
-      <c r="K115" s="30"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
+      <c r="J115" s="21"/>
+      <c r="K115" s="21"/>
       <c r="L115" s="8"/>
     </row>
     <row r="116" spans="1:12" ht="294" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="20"/>
-      <c r="B116" s="24"/>
+      <c r="A116" s="39"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="24"/>
-      <c r="J116" s="24"/>
-      <c r="K116" s="24"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="20"/>
+      <c r="K116" s="20"/>
       <c r="L116" s="9"/>
     </row>
     <row r="117" spans="1:12" ht="396" thickBot="1" x14ac:dyDescent="0.25">
@@ -5579,182 +5597,182 @@
       </c>
     </row>
     <row r="120" spans="1:12" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="27" t="s">
+      <c r="A120" s="22" t="s">
         <v>310</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C120" s="39" t="s">
+      <c r="C120" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="D120" s="23">
+      <c r="D120" s="19">
         <v>43</v>
       </c>
-      <c r="E120" s="23">
+      <c r="E120" s="19">
         <v>43</v>
       </c>
-      <c r="F120" s="23" t="s">
+      <c r="F120" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G120" s="25">
+      <c r="G120" s="35">
         <v>1000000</v>
       </c>
-      <c r="H120" s="25">
+      <c r="H120" s="35">
         <v>1000000</v>
       </c>
-      <c r="I120" s="23" t="s">
+      <c r="I120" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="J120" s="23" t="s">
+      <c r="J120" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="K120" s="23" t="s">
+      <c r="K120" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="L120" s="23" t="s">
+      <c r="L120" s="19" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="29"/>
+      <c r="A121" s="24"/>
       <c r="B121" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C121" s="40"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="26"/>
-      <c r="H121" s="26"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="24"/>
-      <c r="K121" s="24"/>
-      <c r="L121" s="24"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="36"/>
+      <c r="H121" s="36"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="20"/>
+      <c r="K121" s="20"/>
+      <c r="L121" s="20"/>
     </row>
     <row r="122" spans="1:12" ht="102" x14ac:dyDescent="0.2">
-      <c r="A122" s="27" t="s">
+      <c r="A122" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="B122" s="23" t="s">
+      <c r="B122" s="19" t="s">
         <v>318</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D122" s="23" t="s">
+      <c r="D122" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="E122" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F122" s="23" t="s">
+      <c r="E122" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F122" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G122" s="23" t="s">
+      <c r="G122" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="H122" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I122" s="23" t="s">
+      <c r="H122" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I122" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="J122" s="23" t="s">
+      <c r="J122" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K122" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L122" s="23" t="s">
+      <c r="K122" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L122" s="19" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="28"/>
-      <c r="B123" s="30"/>
+      <c r="A123" s="23"/>
+      <c r="B123" s="21"/>
       <c r="C123" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
-      <c r="F123" s="30"/>
-      <c r="G123" s="30"/>
-      <c r="H123" s="30"/>
-      <c r="I123" s="30"/>
-      <c r="J123" s="30"/>
-      <c r="K123" s="30"/>
-      <c r="L123" s="30"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="21"/>
     </row>
     <row r="124" spans="1:12" ht="90" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
-      <c r="B124" s="24"/>
+      <c r="A124" s="24"/>
+      <c r="B124" s="20"/>
       <c r="C124" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="24"/>
-      <c r="H124" s="24"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="24"/>
-      <c r="K124" s="24"/>
-      <c r="L124" s="24"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="20"/>
+      <c r="K124" s="20"/>
+      <c r="L124" s="20"/>
     </row>
     <row r="125" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="27" t="s">
+      <c r="A125" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="B125" s="23" t="s">
+      <c r="B125" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="C125" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="D125" s="23" t="s">
+      <c r="D125" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="E125" s="23" t="s">
+      <c r="E125" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="F125" s="23" t="s">
+      <c r="F125" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="G125" s="23" t="s">
+      <c r="G125" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="H125" s="23" t="s">
+      <c r="H125" s="19" t="s">
         <v>330</v>
       </c>
       <c r="I125" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="J125" s="23" t="s">
+      <c r="J125" s="19" t="s">
         <v>330</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="L125" s="23" t="s">
+      <c r="L125" s="19" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="24"/>
-      <c r="H126" s="24"/>
-      <c r="I126" s="33"/>
-      <c r="J126" s="24"/>
+      <c r="A126" s="24"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="32"/>
+      <c r="J126" s="20"/>
       <c r="K126" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="L126" s="24"/>
+      <c r="L126" s="20"/>
     </row>
     <row r="127" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
@@ -5874,37 +5892,37 @@
       <c r="A130" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B130" s="23" t="s">
+      <c r="B130" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="C130" s="23" t="s">
+      <c r="C130" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="D130" s="23">
+      <c r="D130" s="19">
         <v>9</v>
       </c>
-      <c r="E130" s="23">
+      <c r="E130" s="19">
         <v>9</v>
       </c>
-      <c r="F130" s="23" t="s">
+      <c r="F130" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G130" s="42">
+      <c r="G130" s="25">
         <v>50562</v>
       </c>
-      <c r="H130" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I130" s="23" t="s">
+      <c r="H130" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I130" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="J130" s="23" t="s">
+      <c r="J130" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K130" s="44">
+      <c r="K130" s="27">
         <v>450</v>
       </c>
-      <c r="L130" s="23" t="s">
+      <c r="L130" s="19" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5912,53 +5930,53 @@
       <c r="A131" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="43"/>
-      <c r="H131" s="24"/>
-      <c r="I131" s="24"/>
-      <c r="J131" s="24"/>
-      <c r="K131" s="45"/>
-      <c r="L131" s="24"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="20"/>
+      <c r="K131" s="28"/>
+      <c r="L131" s="20"/>
     </row>
     <row r="132" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="B132" s="23" t="s">
+      <c r="B132" s="19" t="s">
         <v>356</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D132" s="44">
+      <c r="D132" s="27">
         <v>3</v>
       </c>
-      <c r="E132" s="23">
+      <c r="E132" s="19">
         <v>3</v>
       </c>
-      <c r="F132" s="23" t="s">
+      <c r="F132" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G132" s="23">
+      <c r="G132" s="19">
         <v>970</v>
       </c>
-      <c r="H132" s="23">
+      <c r="H132" s="19">
         <v>970</v>
       </c>
-      <c r="I132" s="23" t="s">
+      <c r="I132" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="J132" s="23" t="s">
+      <c r="J132" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K132" s="44" t="s">
+      <c r="K132" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="L132" s="23" t="s">
+      <c r="L132" s="19" t="s">
         <v>361</v>
       </c>
     </row>
@@ -5966,113 +5984,113 @@
       <c r="A133" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B133" s="24"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D133" s="45"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="24"/>
-      <c r="H133" s="24"/>
-      <c r="I133" s="24"/>
-      <c r="J133" s="24"/>
-      <c r="K133" s="45"/>
-      <c r="L133" s="24"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="20"/>
+      <c r="K133" s="28"/>
+      <c r="L133" s="20"/>
     </row>
     <row r="134" spans="1:12" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="46" t="s">
+      <c r="A134" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C134" s="23" t="s">
+      <c r="C134" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="D134" s="44">
+      <c r="D134" s="27">
         <v>9</v>
       </c>
-      <c r="E134" s="23">
+      <c r="E134" s="19">
         <v>9</v>
       </c>
-      <c r="F134" s="23" t="s">
+      <c r="F134" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G134" s="42">
+      <c r="G134" s="25">
         <v>1190000</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="I134" s="23" t="s">
+      <c r="I134" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="J134" s="23" t="s">
+      <c r="J134" s="19" t="s">
         <v>37</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="L134" s="23" t="s">
+      <c r="L134" s="19" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="47"/>
+      <c r="A135" s="30"/>
       <c r="B135" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C135" s="24"/>
-      <c r="D135" s="45"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="43"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="26"/>
       <c r="H135" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="I135" s="24"/>
-      <c r="J135" s="24"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="20"/>
       <c r="K135" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="L135" s="24"/>
+      <c r="L135" s="20"/>
     </row>
     <row r="136" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="B136" s="23" t="s">
+      <c r="B136" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="C136" s="23" t="s">
+      <c r="C136" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D136" s="44">
+      <c r="D136" s="27">
         <v>9</v>
       </c>
-      <c r="E136" s="23">
+      <c r="E136" s="19">
         <v>9</v>
       </c>
-      <c r="F136" s="23" t="s">
+      <c r="F136" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G136" s="42">
+      <c r="G136" s="25">
         <v>40000</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="I136" s="23" t="s">
+      <c r="I136" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="J136" s="23" t="s">
+      <c r="J136" s="19" t="s">
         <v>37</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="L136" s="23" t="s">
+      <c r="L136" s="19" t="s">
         <v>377</v>
       </c>
     </row>
@@ -6080,57 +6098,57 @@
       <c r="A137" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="B137" s="24"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="45"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="24"/>
-      <c r="G137" s="43"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="28"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="26"/>
       <c r="H137" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="I137" s="24"/>
-      <c r="J137" s="24"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="20"/>
       <c r="K137" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="L137" s="24"/>
+      <c r="L137" s="20"/>
     </row>
     <row r="138" spans="1:12" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="B138" s="23" t="s">
+      <c r="B138" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="C138" s="23" t="s">
+      <c r="C138" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="D138" s="44">
+      <c r="D138" s="27">
         <v>6</v>
       </c>
-      <c r="E138" s="23">
+      <c r="E138" s="19">
         <v>6</v>
       </c>
-      <c r="F138" s="23" t="s">
+      <c r="F138" s="19" t="s">
         <v>4</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="H138" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I138" s="23" t="s">
+      <c r="H138" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I138" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="J138" s="23" t="s">
+      <c r="J138" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K138" s="44">
+      <c r="K138" s="27">
         <v>20</v>
       </c>
-      <c r="L138" s="23" t="s">
+      <c r="L138" s="19" t="s">
         <v>385</v>
       </c>
     </row>
@@ -6138,55 +6156,55 @@
       <c r="A139" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="45"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="24"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="28"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="20"/>
       <c r="G139" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="H139" s="24"/>
-      <c r="I139" s="24"/>
-      <c r="J139" s="24"/>
-      <c r="K139" s="45"/>
-      <c r="L139" s="24"/>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="20"/>
+      <c r="K139" s="28"/>
+      <c r="L139" s="20"/>
     </row>
     <row r="140" spans="1:12" ht="318" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="B140" s="23" t="s">
+      <c r="B140" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="C140" s="23" t="s">
+      <c r="C140" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="D140" s="44">
+      <c r="D140" s="27">
         <v>17</v>
       </c>
-      <c r="E140" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F140" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G140" s="23" t="s">
+      <c r="E140" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F140" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G140" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="H140" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I140" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J140" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K140" s="23" t="s">
+      <c r="H140" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I140" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J140" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K140" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="L140" s="23" t="s">
+      <c r="L140" s="19" t="s">
         <v>392</v>
       </c>
     </row>
@@ -6194,53 +6212,53 @@
       <c r="A141" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="45"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="24"/>
-      <c r="G141" s="24"/>
-      <c r="H141" s="24"/>
-      <c r="I141" s="24"/>
-      <c r="J141" s="24"/>
-      <c r="K141" s="24"/>
-      <c r="L141" s="24"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="28"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="20"/>
+      <c r="K141" s="20"/>
+      <c r="L141" s="20"/>
     </row>
     <row r="142" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B142" s="23" t="s">
+      <c r="B142" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="C142" s="23" t="s">
+      <c r="C142" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="D142" s="23">
+      <c r="D142" s="19">
         <v>26</v>
       </c>
-      <c r="E142" s="23">
+      <c r="E142" s="19">
         <v>26</v>
       </c>
-      <c r="F142" s="23" t="s">
+      <c r="F142" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G142" s="42">
+      <c r="G142" s="25">
         <v>839666</v>
       </c>
-      <c r="H142" s="42">
+      <c r="H142" s="25">
         <v>839666</v>
       </c>
-      <c r="I142" s="23" t="s">
+      <c r="I142" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="J142" s="23" t="s">
+      <c r="J142" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K142" s="44">
+      <c r="K142" s="27">
         <v>1300</v>
       </c>
-      <c r="L142" s="23" t="s">
+      <c r="L142" s="19" t="s">
         <v>398</v>
       </c>
     </row>
@@ -6248,53 +6266,53 @@
       <c r="A143" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="B143" s="24"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="24"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="24"/>
-      <c r="G143" s="43"/>
-      <c r="H143" s="43"/>
-      <c r="I143" s="24"/>
-      <c r="J143" s="24"/>
-      <c r="K143" s="45"/>
-      <c r="L143" s="24"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="26"/>
+      <c r="H143" s="26"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="20"/>
+      <c r="K143" s="28"/>
+      <c r="L143" s="20"/>
     </row>
     <row r="144" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A144" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="B144" s="23" t="s">
+      <c r="B144" s="19" t="s">
         <v>401</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D144" s="23">
+      <c r="D144" s="19">
         <v>6</v>
       </c>
-      <c r="E144" s="23">
+      <c r="E144" s="19">
         <v>6</v>
       </c>
-      <c r="F144" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G144" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H144" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I144" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J144" s="23" t="s">
+      <c r="F144" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G144" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H144" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I144" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J144" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K144" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L144" s="23" t="s">
+      <c r="K144" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L144" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6302,99 +6320,99 @@
       <c r="A145" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="B145" s="30"/>
+      <c r="B145" s="21"/>
       <c r="C145" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D145" s="30"/>
-      <c r="E145" s="30"/>
-      <c r="F145" s="30"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="30"/>
-      <c r="I145" s="30"/>
-      <c r="J145" s="30"/>
-      <c r="K145" s="30"/>
-      <c r="L145" s="30"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="21"/>
+      <c r="I145" s="21"/>
+      <c r="J145" s="21"/>
+      <c r="K145" s="21"/>
+      <c r="L145" s="21"/>
     </row>
     <row r="146" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
-      <c r="B146" s="30"/>
+      <c r="B146" s="21"/>
       <c r="C146" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D146" s="30"/>
-      <c r="E146" s="30"/>
-      <c r="F146" s="30"/>
-      <c r="G146" s="30"/>
-      <c r="H146" s="30"/>
-      <c r="I146" s="30"/>
-      <c r="J146" s="30"/>
-      <c r="K146" s="30"/>
-      <c r="L146" s="30"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="21"/>
+      <c r="I146" s="21"/>
+      <c r="J146" s="21"/>
+      <c r="K146" s="21"/>
+      <c r="L146" s="21"/>
     </row>
     <row r="147" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
-      <c r="B147" s="30"/>
+      <c r="B147" s="21"/>
       <c r="C147" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D147" s="30"/>
-      <c r="E147" s="30"/>
-      <c r="F147" s="30"/>
-      <c r="G147" s="30"/>
-      <c r="H147" s="30"/>
-      <c r="I147" s="30"/>
-      <c r="J147" s="30"/>
-      <c r="K147" s="30"/>
-      <c r="L147" s="30"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="21"/>
+      <c r="J147" s="21"/>
+      <c r="K147" s="21"/>
+      <c r="L147" s="21"/>
     </row>
     <row r="148" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
-      <c r="B148" s="30"/>
+      <c r="B148" s="21"/>
       <c r="C148" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D148" s="30"/>
-      <c r="E148" s="30"/>
-      <c r="F148" s="30"/>
-      <c r="G148" s="30"/>
-      <c r="H148" s="30"/>
-      <c r="I148" s="30"/>
-      <c r="J148" s="30"/>
-      <c r="K148" s="30"/>
-      <c r="L148" s="30"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="21"/>
+      <c r="I148" s="21"/>
+      <c r="J148" s="21"/>
+      <c r="K148" s="21"/>
+      <c r="L148" s="21"/>
     </row>
     <row r="149" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
-      <c r="B149" s="30"/>
+      <c r="B149" s="21"/>
       <c r="C149" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D149" s="30"/>
-      <c r="E149" s="30"/>
-      <c r="F149" s="30"/>
-      <c r="G149" s="30"/>
-      <c r="H149" s="30"/>
-      <c r="I149" s="30"/>
-      <c r="J149" s="30"/>
-      <c r="K149" s="30"/>
-      <c r="L149" s="30"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="21"/>
+      <c r="I149" s="21"/>
+      <c r="J149" s="21"/>
+      <c r="K149" s="21"/>
+      <c r="L149" s="21"/>
     </row>
     <row r="150" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
-      <c r="B150" s="24"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="D150" s="24"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="24"/>
-      <c r="G150" s="24"/>
-      <c r="H150" s="24"/>
-      <c r="I150" s="24"/>
-      <c r="J150" s="24"/>
-      <c r="K150" s="24"/>
-      <c r="L150" s="24"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="20"/>
+      <c r="K150" s="20"/>
+      <c r="L150" s="20"/>
     </row>
     <row r="151" spans="1:12" ht="306.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="s">
@@ -6435,58 +6453,58 @@
       </c>
     </row>
     <row r="152" spans="1:12" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="27" t="s">
+      <c r="A152" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="B152" s="23" t="s">
+      <c r="B152" s="19" t="s">
         <v>415</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D152" s="23">
+      <c r="D152" s="19">
         <v>10</v>
       </c>
-      <c r="E152" s="23">
+      <c r="E152" s="19">
         <v>10</v>
       </c>
-      <c r="F152" s="23" t="s">
+      <c r="F152" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G152" s="23" t="s">
+      <c r="G152" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="H152" s="23" t="s">
+      <c r="H152" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="I152" s="23" t="s">
+      <c r="I152" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="J152" s="23" t="s">
+      <c r="J152" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K152" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L152" s="23" t="s">
+      <c r="K152" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L152" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="29"/>
-      <c r="B153" s="24"/>
+      <c r="A153" s="24"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D153" s="24"/>
-      <c r="E153" s="24"/>
-      <c r="F153" s="24"/>
-      <c r="G153" s="24"/>
-      <c r="H153" s="24"/>
-      <c r="I153" s="24"/>
-      <c r="J153" s="24"/>
-      <c r="K153" s="24"/>
-      <c r="L153" s="24"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="20"/>
+      <c r="K153" s="20"/>
+      <c r="L153" s="20"/>
     </row>
     <row r="154" spans="1:12" ht="408.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="s">
@@ -6527,170 +6545,170 @@
       </c>
     </row>
     <row r="155" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="27" t="s">
+      <c r="A155" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="B155" s="23" t="s">
+      <c r="B155" s="19" t="s">
         <v>425</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L155" s="23" t="s">
+      <c r="D155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L155" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A156" s="28"/>
-      <c r="B156" s="30"/>
+      <c r="A156" s="23"/>
+      <c r="B156" s="21"/>
       <c r="C156" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D156" s="30"/>
-      <c r="E156" s="30"/>
-      <c r="F156" s="30"/>
-      <c r="G156" s="30"/>
-      <c r="H156" s="30"/>
-      <c r="I156" s="30"/>
-      <c r="J156" s="30"/>
-      <c r="K156" s="30"/>
-      <c r="L156" s="30"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="21"/>
+      <c r="I156" s="21"/>
+      <c r="J156" s="21"/>
+      <c r="K156" s="21"/>
+      <c r="L156" s="21"/>
     </row>
     <row r="157" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="28"/>
-      <c r="B157" s="30"/>
+      <c r="A157" s="23"/>
+      <c r="B157" s="21"/>
       <c r="C157" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D157" s="30"/>
-      <c r="E157" s="30"/>
-      <c r="F157" s="30"/>
-      <c r="G157" s="30"/>
-      <c r="H157" s="30"/>
-      <c r="I157" s="30"/>
-      <c r="J157" s="30"/>
-      <c r="K157" s="30"/>
-      <c r="L157" s="30"/>
+      <c r="D157" s="21"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="21"/>
+      <c r="I157" s="21"/>
+      <c r="J157" s="21"/>
+      <c r="K157" s="21"/>
+      <c r="L157" s="21"/>
     </row>
     <row r="158" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A158" s="28"/>
-      <c r="B158" s="30"/>
+      <c r="A158" s="23"/>
+      <c r="B158" s="21"/>
       <c r="C158" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D158" s="30"/>
-      <c r="E158" s="30"/>
-      <c r="F158" s="30"/>
-      <c r="G158" s="30"/>
-      <c r="H158" s="30"/>
-      <c r="I158" s="30"/>
-      <c r="J158" s="30"/>
-      <c r="K158" s="30"/>
-      <c r="L158" s="30"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="21"/>
+      <c r="I158" s="21"/>
+      <c r="J158" s="21"/>
+      <c r="K158" s="21"/>
+      <c r="L158" s="21"/>
     </row>
     <row r="159" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="28"/>
-      <c r="B159" s="30"/>
+      <c r="A159" s="23"/>
+      <c r="B159" s="21"/>
       <c r="C159" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D159" s="30"/>
-      <c r="E159" s="30"/>
-      <c r="F159" s="30"/>
-      <c r="G159" s="30"/>
-      <c r="H159" s="30"/>
-      <c r="I159" s="30"/>
-      <c r="J159" s="30"/>
-      <c r="K159" s="30"/>
-      <c r="L159" s="30"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="21"/>
+      <c r="I159" s="21"/>
+      <c r="J159" s="21"/>
+      <c r="K159" s="21"/>
+      <c r="L159" s="21"/>
     </row>
     <row r="160" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A160" s="28"/>
-      <c r="B160" s="30"/>
+      <c r="A160" s="23"/>
+      <c r="B160" s="21"/>
       <c r="C160" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D160" s="30"/>
-      <c r="E160" s="30"/>
-      <c r="F160" s="30"/>
-      <c r="G160" s="30"/>
-      <c r="H160" s="30"/>
-      <c r="I160" s="30"/>
-      <c r="J160" s="30"/>
-      <c r="K160" s="30"/>
-      <c r="L160" s="30"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="21"/>
+      <c r="I160" s="21"/>
+      <c r="J160" s="21"/>
+      <c r="K160" s="21"/>
+      <c r="L160" s="21"/>
     </row>
     <row r="161" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="28"/>
-      <c r="B161" s="30"/>
+      <c r="A161" s="23"/>
+      <c r="B161" s="21"/>
       <c r="C161" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D161" s="30"/>
-      <c r="E161" s="30"/>
-      <c r="F161" s="30"/>
-      <c r="G161" s="30"/>
-      <c r="H161" s="30"/>
-      <c r="I161" s="30"/>
-      <c r="J161" s="30"/>
-      <c r="K161" s="30"/>
-      <c r="L161" s="30"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="21"/>
+      <c r="I161" s="21"/>
+      <c r="J161" s="21"/>
+      <c r="K161" s="21"/>
+      <c r="L161" s="21"/>
     </row>
     <row r="162" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A162" s="28"/>
-      <c r="B162" s="30"/>
+      <c r="A162" s="23"/>
+      <c r="B162" s="21"/>
       <c r="C162" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D162" s="30"/>
-      <c r="E162" s="30"/>
-      <c r="F162" s="30"/>
-      <c r="G162" s="30"/>
-      <c r="H162" s="30"/>
-      <c r="I162" s="30"/>
-      <c r="J162" s="30"/>
-      <c r="K162" s="30"/>
-      <c r="L162" s="30"/>
+      <c r="D162" s="21"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="21"/>
+      <c r="H162" s="21"/>
+      <c r="I162" s="21"/>
+      <c r="J162" s="21"/>
+      <c r="K162" s="21"/>
+      <c r="L162" s="21"/>
     </row>
     <row r="163" spans="1:12" ht="90" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="29"/>
-      <c r="B163" s="24"/>
+      <c r="A163" s="24"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D163" s="24"/>
-      <c r="E163" s="24"/>
-      <c r="F163" s="24"/>
-      <c r="G163" s="24"/>
-      <c r="H163" s="24"/>
-      <c r="I163" s="24"/>
-      <c r="J163" s="24"/>
-      <c r="K163" s="24"/>
-      <c r="L163" s="24"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="20"/>
+      <c r="K163" s="20"/>
+      <c r="L163" s="20"/>
     </row>
     <row r="164" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
@@ -6770,113 +6788,364 @@
     </row>
   </sheetData>
   <mergeCells count="489">
-    <mergeCell ref="L152:L153"/>
-    <mergeCell ref="H144:H150"/>
-    <mergeCell ref="I144:I150"/>
-    <mergeCell ref="J144:J150"/>
-    <mergeCell ref="K144:K150"/>
-    <mergeCell ref="L144:L150"/>
-    <mergeCell ref="H155:H163"/>
-    <mergeCell ref="I155:I163"/>
-    <mergeCell ref="J155:J163"/>
-    <mergeCell ref="K155:K163"/>
-    <mergeCell ref="L155:L163"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="H152:H153"/>
-    <mergeCell ref="I152:I153"/>
-    <mergeCell ref="J152:J153"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="A155:A163"/>
-    <mergeCell ref="B155:B163"/>
-    <mergeCell ref="D155:D163"/>
-    <mergeCell ref="E155:E163"/>
-    <mergeCell ref="F155:F163"/>
-    <mergeCell ref="G155:G163"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="E144:E150"/>
-    <mergeCell ref="F144:F150"/>
-    <mergeCell ref="G144:G150"/>
-    <mergeCell ref="I140:I141"/>
-    <mergeCell ref="J140:J141"/>
-    <mergeCell ref="K140:K141"/>
-    <mergeCell ref="L140:L141"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="J142:J143"/>
-    <mergeCell ref="K142:K143"/>
-    <mergeCell ref="B144:B150"/>
-    <mergeCell ref="D144:D150"/>
-    <mergeCell ref="L138:L139"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="K138:K139"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="I136:I137"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="L136:L137"/>
-    <mergeCell ref="H132:H133"/>
-    <mergeCell ref="I132:I133"/>
-    <mergeCell ref="J132:J133"/>
-    <mergeCell ref="K132:K133"/>
-    <mergeCell ref="L132:L133"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="L134:L135"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="K122:K124"/>
-    <mergeCell ref="L122:L124"/>
-    <mergeCell ref="F122:F124"/>
-    <mergeCell ref="G122:G124"/>
-    <mergeCell ref="H130:H131"/>
-    <mergeCell ref="I130:I131"/>
-    <mergeCell ref="J130:J131"/>
-    <mergeCell ref="K130:K131"/>
-    <mergeCell ref="L130:L131"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="L46:L57"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="J40:J45"/>
+    <mergeCell ref="K40:K45"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="J58:J62"/>
+    <mergeCell ref="D46:D57"/>
+    <mergeCell ref="E46:E57"/>
+    <mergeCell ref="F46:F57"/>
+    <mergeCell ref="G46:G57"/>
+    <mergeCell ref="H46:H57"/>
+    <mergeCell ref="I46:I57"/>
+    <mergeCell ref="J46:J57"/>
+    <mergeCell ref="K46:K57"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="K58:K62"/>
+    <mergeCell ref="L58:L62"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="D63:D69"/>
+    <mergeCell ref="E63:E69"/>
+    <mergeCell ref="F63:F69"/>
+    <mergeCell ref="G63:G69"/>
+    <mergeCell ref="H63:H69"/>
+    <mergeCell ref="I63:I69"/>
+    <mergeCell ref="J63:J69"/>
+    <mergeCell ref="K63:K69"/>
+    <mergeCell ref="L63:L69"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="F58:F62"/>
+    <mergeCell ref="G58:G62"/>
+    <mergeCell ref="H58:H62"/>
+    <mergeCell ref="I58:I62"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H74:H78"/>
+    <mergeCell ref="I74:I78"/>
+    <mergeCell ref="J74:J78"/>
+    <mergeCell ref="K74:K78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="F79:F83"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="G74:G78"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="H79:H83"/>
+    <mergeCell ref="I79:I83"/>
+    <mergeCell ref="J79:J83"/>
+    <mergeCell ref="K79:K83"/>
+    <mergeCell ref="L79:L83"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="K89:K91"/>
+    <mergeCell ref="L89:L91"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="J86:J88"/>
+    <mergeCell ref="K86:K88"/>
+    <mergeCell ref="L86:L88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="G89:G91"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="K92:K94"/>
+    <mergeCell ref="L92:L94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="G95:G97"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="J95:J97"/>
+    <mergeCell ref="K95:K97"/>
+    <mergeCell ref="L95:L97"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="F103:F106"/>
+    <mergeCell ref="G103:G106"/>
+    <mergeCell ref="H103:H106"/>
+    <mergeCell ref="L107:L111"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="D113:D116"/>
+    <mergeCell ref="E113:E116"/>
+    <mergeCell ref="F113:F116"/>
+    <mergeCell ref="I103:I106"/>
+    <mergeCell ref="J103:J106"/>
+    <mergeCell ref="K103:K106"/>
+    <mergeCell ref="L103:L106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="E107:E111"/>
+    <mergeCell ref="F107:F111"/>
+    <mergeCell ref="G107:G111"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="H107:H111"/>
+    <mergeCell ref="I107:I111"/>
+    <mergeCell ref="J107:J111"/>
+    <mergeCell ref="K107:K111"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="J120:J121"/>
+    <mergeCell ref="K120:K121"/>
     <mergeCell ref="L120:L121"/>
     <mergeCell ref="G113:G116"/>
     <mergeCell ref="H113:H116"/>
@@ -6901,364 +7170,113 @@
     <mergeCell ref="H122:H124"/>
     <mergeCell ref="I122:I124"/>
     <mergeCell ref="J122:J124"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="H107:H111"/>
-    <mergeCell ref="I107:I111"/>
-    <mergeCell ref="J107:J111"/>
-    <mergeCell ref="K107:K111"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="J120:J121"/>
-    <mergeCell ref="K120:K121"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="F103:F106"/>
-    <mergeCell ref="G103:G106"/>
-    <mergeCell ref="H103:H106"/>
-    <mergeCell ref="L107:L111"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="D113:D116"/>
-    <mergeCell ref="E113:E116"/>
-    <mergeCell ref="F113:F116"/>
-    <mergeCell ref="I103:I106"/>
-    <mergeCell ref="J103:J106"/>
-    <mergeCell ref="K103:K106"/>
-    <mergeCell ref="L103:L106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="D107:D111"/>
-    <mergeCell ref="E107:E111"/>
-    <mergeCell ref="F107:F111"/>
-    <mergeCell ref="G107:G111"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="K92:K94"/>
-    <mergeCell ref="L92:L94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="G95:G97"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="I95:I97"/>
-    <mergeCell ref="J95:J97"/>
-    <mergeCell ref="K95:K97"/>
-    <mergeCell ref="L95:L97"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="G89:G91"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="I92:I94"/>
-    <mergeCell ref="J89:J91"/>
-    <mergeCell ref="K89:K91"/>
-    <mergeCell ref="L89:L91"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="J86:J88"/>
-    <mergeCell ref="K86:K88"/>
-    <mergeCell ref="L86:L88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="H79:H83"/>
-    <mergeCell ref="I79:I83"/>
-    <mergeCell ref="J79:J83"/>
-    <mergeCell ref="K79:K83"/>
-    <mergeCell ref="L79:L83"/>
-    <mergeCell ref="H74:H78"/>
-    <mergeCell ref="I74:I78"/>
-    <mergeCell ref="J74:J78"/>
-    <mergeCell ref="K74:K78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="F79:F83"/>
-    <mergeCell ref="G79:G83"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="G74:G78"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="K58:K62"/>
-    <mergeCell ref="L58:L62"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="D63:D69"/>
-    <mergeCell ref="E63:E69"/>
-    <mergeCell ref="F63:F69"/>
-    <mergeCell ref="G63:G69"/>
-    <mergeCell ref="H63:H69"/>
-    <mergeCell ref="I63:I69"/>
-    <mergeCell ref="J63:J69"/>
-    <mergeCell ref="K63:K69"/>
-    <mergeCell ref="L63:L69"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="F58:F62"/>
-    <mergeCell ref="G58:G62"/>
-    <mergeCell ref="H58:H62"/>
-    <mergeCell ref="I58:I62"/>
-    <mergeCell ref="J58:J62"/>
-    <mergeCell ref="D46:D57"/>
-    <mergeCell ref="E46:E57"/>
-    <mergeCell ref="F46:F57"/>
-    <mergeCell ref="G46:G57"/>
-    <mergeCell ref="H46:H57"/>
-    <mergeCell ref="I46:I57"/>
-    <mergeCell ref="J46:J57"/>
-    <mergeCell ref="K46:K57"/>
-    <mergeCell ref="L46:L57"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="F40:F45"/>
-    <mergeCell ref="G40:G45"/>
-    <mergeCell ref="H40:H45"/>
-    <mergeCell ref="J40:J45"/>
-    <mergeCell ref="K40:K45"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="K122:K124"/>
+    <mergeCell ref="L122:L124"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="G122:G124"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="J130:J131"/>
+    <mergeCell ref="K130:K131"/>
+    <mergeCell ref="L130:L131"/>
+    <mergeCell ref="H132:H133"/>
+    <mergeCell ref="I132:I133"/>
+    <mergeCell ref="J132:J133"/>
+    <mergeCell ref="K132:K133"/>
+    <mergeCell ref="L132:L133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="L134:L135"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="L136:L137"/>
+    <mergeCell ref="L138:L139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="K138:K139"/>
+    <mergeCell ref="E144:E150"/>
+    <mergeCell ref="F144:F150"/>
+    <mergeCell ref="G144:G150"/>
+    <mergeCell ref="I140:I141"/>
+    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="K140:K141"/>
+    <mergeCell ref="L140:L141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="J142:J143"/>
+    <mergeCell ref="K142:K143"/>
+    <mergeCell ref="B144:B150"/>
+    <mergeCell ref="D144:D150"/>
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="H152:H153"/>
+    <mergeCell ref="I152:I153"/>
+    <mergeCell ref="J152:J153"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="A155:A163"/>
+    <mergeCell ref="B155:B163"/>
+    <mergeCell ref="D155:D163"/>
+    <mergeCell ref="E155:E163"/>
+    <mergeCell ref="F155:F163"/>
+    <mergeCell ref="G155:G163"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="L152:L153"/>
+    <mergeCell ref="H144:H150"/>
+    <mergeCell ref="I144:I150"/>
+    <mergeCell ref="J144:J150"/>
+    <mergeCell ref="K144:K150"/>
+    <mergeCell ref="L144:L150"/>
+    <mergeCell ref="H155:H163"/>
+    <mergeCell ref="I155:I163"/>
+    <mergeCell ref="J155:J163"/>
+    <mergeCell ref="K155:K163"/>
+    <mergeCell ref="L155:L163"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -7338,7 +7356,7 @@
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="F2" t="n">
         <v>30.0</v>
@@ -7347,7 +7365,7 @@
         <v>3.0</v>
       </c>
       <c r="H2" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I2" t="n">
         <v>1300000.0</v>
@@ -7363,16 +7381,16 @@
       </c>
       <c r="M2"/>
       <c r="N2" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="O2" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="P2" t="n">
         <v>12.0</v>
       </c>
       <c r="Q2" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="3">
@@ -7387,7 +7405,7 @@
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="F3" t="n">
         <v>18.0</v>
@@ -7396,7 +7414,7 @@
         <v>18.0</v>
       </c>
       <c r="H3" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I3" t="n">
         <v>411000.0</v>
@@ -7414,16 +7432,16 @@
         <v>180.0</v>
       </c>
       <c r="N3" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="O3" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="P3" t="n">
         <v>39.0</v>
       </c>
       <c r="Q3" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4">
@@ -7438,7 +7456,7 @@
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="F4" t="n">
         <v>29.0</v>
@@ -7447,7 +7465,7 @@
         <v>29.0</v>
       </c>
       <c r="H4" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I4" t="n">
         <v>700.0</v>
@@ -7463,7 +7481,7 @@
       </c>
       <c r="M4"/>
       <c r="N4" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="O4" t="s">
         <v>183</v>
@@ -7472,7 +7490,7 @@
         <v>1.0</v>
       </c>
       <c r="Q4" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="5">
@@ -7487,7 +7505,7 @@
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="F5" t="n">
         <v>15.0</v>
@@ -7496,7 +7514,7 @@
         <v>8.0</v>
       </c>
       <c r="H5" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I5" t="n">
         <v>935227.0</v>
@@ -7510,7 +7528,7 @@
         <v>100.0</v>
       </c>
       <c r="N5" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="O5" t="s">
         <v>71</v>
@@ -7534,7 +7552,7 @@
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F6" t="n">
         <v>7.0</v>
@@ -7543,7 +7561,7 @@
         <v>6.0</v>
       </c>
       <c r="H6" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I6" t="n">
         <v>386641.0</v>
@@ -7561,7 +7579,7 @@
         <v>2840.0</v>
       </c>
       <c r="N6" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="O6" t="s">
         <v>60</v>
@@ -7570,7 +7588,7 @@
         <v>1.0</v>
       </c>
       <c r="Q6" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="7">
@@ -7585,7 +7603,7 @@
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="F7" t="n">
         <v>40.0</v>
@@ -7594,7 +7612,7 @@
         <v>21.0</v>
       </c>
       <c r="H7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I7" t="n">
         <v>950000.0</v>
@@ -7612,7 +7630,7 @@
         <v>12.0</v>
       </c>
       <c r="N7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="O7" t="s">
         <v>88</v>
@@ -7621,7 +7639,7 @@
         <v>1.0</v>
       </c>
       <c r="Q7" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8">
@@ -7636,7 +7654,7 @@
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="F8" t="n">
         <v>35.0</v>
@@ -7645,7 +7663,7 @@
         <v>35.0</v>
       </c>
       <c r="H8" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I8" t="n">
         <v>188000.0</v>
@@ -7663,7 +7681,7 @@
         <v>85.0</v>
       </c>
       <c r="N8" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="O8" t="s">
         <v>304</v>
@@ -7672,7 +7690,7 @@
         <v>1.0</v>
       </c>
       <c r="Q8" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9">
@@ -7687,7 +7705,7 @@
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="F9" t="n">
         <v>3.0</v>
@@ -7696,7 +7714,7 @@
         <v>3.0</v>
       </c>
       <c r="H9" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I9" t="n">
         <v>987.0</v>
@@ -7714,16 +7732,16 @@
         <v>1000.0</v>
       </c>
       <c r="N9" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="O9" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="P9" t="n">
         <v>2.0</v>
       </c>
       <c r="Q9" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="10">
@@ -7738,7 +7756,7 @@
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="F10" t="n">
         <v>40.0</v>
@@ -7747,7 +7765,7 @@
         <v>0.0</v>
       </c>
       <c r="H10" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I10" t="n">
         <v>2.1E7</v>
@@ -7761,10 +7779,10 @@
         <v>0.0</v>
       </c>
       <c r="N10" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="O10" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="P10" t="n">
         <v>12.0</v>
@@ -7783,7 +7801,7 @@
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="F11" t="n">
         <v>6.0</v>
@@ -7792,7 +7810,7 @@
         <v>6.0</v>
       </c>
       <c r="H11" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I11" t="n">
         <v>2941.0</v>
@@ -7810,16 +7828,16 @@
         <v>500.0</v>
       </c>
       <c r="N11" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="O11" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="P11" t="n">
         <v>6.0</v>
       </c>
       <c r="Q11" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="12">
@@ -7834,7 +7852,7 @@
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="F12" t="n">
         <v>20.0</v>
@@ -7843,7 +7861,7 @@
         <v>0.0</v>
       </c>
       <c r="H12" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -7853,10 +7871,10 @@
         <v>0.0</v>
       </c>
       <c r="N12" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="O12" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="P12" t="n">
         <v>20.0</v>
@@ -7874,17 +7892,17 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="E13" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="F13" t="n">
         <v>32.0</v>
       </c>
       <c r="G13"/>
       <c r="H13" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I13" t="n">
         <v>1000000.0</v>
@@ -7894,10 +7912,10 @@
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="O13" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="P13" t="n">
         <v>15.0</v>
@@ -7915,10 +7933,10 @@
         <v>509</v>
       </c>
       <c r="D14" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="E14" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="F14" t="n">
         <v>18.0</v>
@@ -7927,7 +7945,7 @@
         <v>10.0</v>
       </c>
       <c r="H14" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I14" t="n">
         <v>351000.0</v>
@@ -7943,16 +7961,16 @@
         <v>37000.0</v>
       </c>
       <c r="N14" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="O14" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="P14" t="n">
         <v>43.0</v>
       </c>
       <c r="Q14" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="15">
@@ -7967,7 +7985,7 @@
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F15" t="n">
         <v>9.0</v>
@@ -7976,7 +7994,7 @@
         <v>9.0</v>
       </c>
       <c r="H15" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I15" t="n">
         <v>1190000.0</v>
@@ -7990,16 +8008,16 @@
       </c>
       <c r="M15"/>
       <c r="N15" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="O15" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="P15" t="n">
         <v>8.0</v>
       </c>
       <c r="Q15" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16">
@@ -8023,7 +8041,7 @@
         <v>9.0</v>
       </c>
       <c r="H16" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I16" t="n">
         <v>40000.0</v>
@@ -8037,7 +8055,7 @@
       </c>
       <c r="M16"/>
       <c r="N16" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="O16" t="s">
         <v>95</v>
@@ -8046,7 +8064,7 @@
         <v>1.0</v>
       </c>
       <c r="Q16" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="17">
@@ -8063,7 +8081,7 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="F17" t="n">
         <v>6.0</v>
@@ -8072,7 +8090,7 @@
         <v>6.0</v>
       </c>
       <c r="H17" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I17" t="n">
         <v>32000.0</v>
@@ -8088,16 +8106,16 @@
       </c>
       <c r="M17"/>
       <c r="N17" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="O17" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="P17" t="n">
         <v>6.0</v>
       </c>
       <c r="Q17" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="18">
@@ -8112,7 +8130,7 @@
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="F18" t="n">
         <v>4.0</v>
@@ -8121,7 +8139,7 @@
         <v>4.0</v>
       </c>
       <c r="H18" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I18" t="n">
         <v>22730.0</v>
@@ -8137,7 +8155,7 @@
         <v>1043.0</v>
       </c>
       <c r="N18" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="O18" t="s">
         <v>166</v>
@@ -8161,7 +8179,7 @@
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="F19" t="n">
         <v>7.0</v>
@@ -8170,7 +8188,7 @@
         <v>7.0</v>
       </c>
       <c r="H19" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I19" t="n">
         <v>42189.0</v>
@@ -8188,16 +8206,16 @@
         <v>15.0</v>
       </c>
       <c r="N19" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="O19" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="P19" t="n">
         <v>3.0</v>
       </c>
       <c r="Q19" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="20">
@@ -8212,7 +8230,7 @@
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="F20" t="n">
         <v>6.0</v>
@@ -8221,7 +8239,7 @@
         <v>6.0</v>
       </c>
       <c r="H20" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I20" t="n">
         <v>388120.0</v>
@@ -8237,16 +8255,16 @@
         <v>20.0</v>
       </c>
       <c r="N20" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="O20" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="P20" t="n">
         <v>11.0</v>
       </c>
       <c r="Q20" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21">
@@ -8260,10 +8278,10 @@
         <v>515</v>
       </c>
       <c r="D21" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="E21" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="F21" t="n">
         <v>18.0</v>
@@ -8272,7 +8290,7 @@
         <v>18.0</v>
       </c>
       <c r="H21" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I21" t="n">
         <v>7960.0</v>
@@ -8284,14 +8302,14 @@
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="O21"/>
       <c r="P21" t="n">
         <v>1.0</v>
       </c>
       <c r="Q21" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="22">
@@ -8306,7 +8324,7 @@
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="F22" t="n">
         <v>10.0</v>
@@ -8315,7 +8333,7 @@
         <v>6.0</v>
       </c>
       <c r="H22" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I22" t="n">
         <v>5000000.0</v>
@@ -8333,16 +8351,16 @@
         <v>15.0</v>
       </c>
       <c r="N22" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="O22" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="P22" t="n">
         <v>5.0</v>
       </c>
       <c r="Q22" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="23">
@@ -8357,7 +8375,7 @@
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="F23" t="n">
         <v>18.0</v>
@@ -8366,7 +8384,7 @@
         <v>18.0</v>
       </c>
       <c r="H23" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I23" t="n">
         <v>76233.0</v>
@@ -8384,16 +8402,16 @@
         <v>31.0</v>
       </c>
       <c r="N23" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="O23" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="P23" t="n">
         <v>5.0</v>
       </c>
       <c r="Q23" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="24">
@@ -8408,7 +8426,7 @@
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="F24" t="n">
         <v>67.0</v>
@@ -8417,7 +8435,7 @@
         <v>0.0</v>
       </c>
       <c r="H24" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -8429,14 +8447,14 @@
       </c>
       <c r="M24"/>
       <c r="N24" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="O24"/>
       <c r="P24" t="n">
         <v>1.0</v>
       </c>
       <c r="Q24" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="25">
@@ -8453,7 +8471,7 @@
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="F25" t="n">
         <v>43.0</v>
@@ -8462,7 +8480,7 @@
         <v>43.0</v>
       </c>
       <c r="H25" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I25" t="n">
         <v>1000000.0</v>
@@ -8476,7 +8494,7 @@
         <v>100.0</v>
       </c>
       <c r="N25" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="O25"/>
       <c r="P25" t="n">
@@ -8495,10 +8513,10 @@
         <v>519</v>
       </c>
       <c r="D26" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="E26" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="F26" t="n">
         <v>26.0</v>
@@ -8507,7 +8525,7 @@
         <v>26.0</v>
       </c>
       <c r="H26" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I26" t="n">
         <v>839666.0</v>
@@ -8525,16 +8543,16 @@
         <v>1300.0</v>
       </c>
       <c r="N26" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O26" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="P26" t="n">
         <v>11.0</v>
       </c>
       <c r="Q26" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="27">
@@ -8549,7 +8567,7 @@
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="F27" t="n">
         <v>18.0</v>
@@ -8558,7 +8576,7 @@
         <v>8.0</v>
       </c>
       <c r="H27" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I27" t="n">
         <v>1941000.0</v>
@@ -8576,16 +8594,16 @@
         <v>270.0</v>
       </c>
       <c r="N27" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="O27" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="P27" t="n">
         <v>9.0</v>
       </c>
       <c r="Q27" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="28">
@@ -8600,7 +8618,7 @@
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="F28" t="n">
         <v>10.0</v>
@@ -8609,7 +8627,7 @@
         <v>9.0</v>
       </c>
       <c r="H28" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I28" t="n">
         <v>2662777.0</v>
@@ -8625,10 +8643,10 @@
         <v>2560.0</v>
       </c>
       <c r="N28" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="O28" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="P28" t="n">
         <v>9.0</v>
@@ -8649,7 +8667,7 @@
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="F29" t="n">
         <v>15.0</v>
@@ -8658,7 +8676,7 @@
         <v>0.0</v>
       </c>
       <c r="H29" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I29" t="n">
         <v>190268.0</v>
@@ -8672,7 +8690,7 @@
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="O29" t="s">
         <v>88</v>
@@ -8681,7 +8699,7 @@
         <v>1.0</v>
       </c>
       <c r="Q29" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
     </row>
     <row r="30">
@@ -8698,14 +8716,14 @@
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
         <v>0.0</v>
       </c>
       <c r="H30" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -8713,7 +8731,7 @@
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="O30"/>
       <c r="P30" t="n">
@@ -8732,10 +8750,10 @@
         <v>523</v>
       </c>
       <c r="D31" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E31" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="F31" t="n">
         <v>27.0</v>
@@ -8744,7 +8762,7 @@
         <v>27.0</v>
       </c>
       <c r="H31" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I31" t="n">
         <v>89889.0</v>
@@ -8758,16 +8776,16 @@
       </c>
       <c r="M31"/>
       <c r="N31" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="O31" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="P31" t="n">
         <v>12.0</v>
       </c>
       <c r="Q31" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
     </row>
     <row r="32">
@@ -8782,7 +8800,7 @@
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="F32" t="n">
         <v>5.0</v>
@@ -8791,7 +8809,7 @@
         <v>3.0</v>
       </c>
       <c r="H32" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I32" t="n">
         <v>315000.0</v>
@@ -8809,7 +8827,7 @@
         <v>52.0</v>
       </c>
       <c r="N32" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="O32" t="s">
         <v>237</v>
@@ -8818,7 +8836,7 @@
         <v>1.0</v>
       </c>
       <c r="Q32" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="33">
@@ -8833,7 +8851,7 @@
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="F33" t="n">
         <v>7.0</v>
@@ -8842,7 +8860,7 @@
         <v>7.0</v>
       </c>
       <c r="H33" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I33" t="n">
         <v>83006.0</v>
@@ -8860,7 +8878,7 @@
         <v>28.0</v>
       </c>
       <c r="N33" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="O33" t="s">
         <v>344</v>
@@ -8869,7 +8887,7 @@
         <v>1.0</v>
       </c>
       <c r="Q33" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
     </row>
     <row r="34">
@@ -8884,14 +8902,14 @@
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="F34" t="n">
         <v>6.0</v>
       </c>
       <c r="G34"/>
       <c r="H34" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I34" t="n">
         <v>245000.0</v>
@@ -8901,10 +8919,10 @@
       <c r="L34"/>
       <c r="M34"/>
       <c r="N34" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="O34" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="P34"/>
       <c r="Q34"/>
@@ -8921,7 +8939,7 @@
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="F35" t="n">
         <v>11.0</v>
@@ -8936,10 +8954,10 @@
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="O35" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="P35"/>
       <c r="Q35"/>
@@ -8956,7 +8974,7 @@
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="F36" t="n">
         <v>8.0</v>
@@ -8973,10 +8991,10 @@
         <v>8.0</v>
       </c>
       <c r="N36" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="O36" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="P36"/>
       <c r="Q36"/>
@@ -8992,7 +9010,7 @@
         <v>106</v>
       </c>
       <c r="D37" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="E37" t="s">
         <v>108</v>
@@ -9004,7 +9022,7 @@
         <v>4.0</v>
       </c>
       <c r="H37" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I37"/>
       <c r="J37"/>
@@ -9028,7 +9046,7 @@
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="F38" t="n">
         <v>4.0</v>
@@ -9043,10 +9061,10 @@
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="O38" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="P38"/>
       <c r="Q38"/>
@@ -9061,7 +9079,7 @@
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F39" t="n">
         <v>29.0</v>
@@ -9070,7 +9088,7 @@
         <v>24.0</v>
       </c>
       <c r="H39" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I39" t="n">
         <v>1221985.0</v>
@@ -9086,14 +9104,14 @@
         <v>600.0</v>
       </c>
       <c r="N39" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="O39" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="P39"/>
       <c r="Q39" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="40">
@@ -9108,7 +9126,7 @@
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F40" t="n">
         <v>14.0</v>
@@ -9117,7 +9135,7 @@
         <v>14.0</v>
       </c>
       <c r="H40" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I40"/>
       <c r="J40"/>
@@ -9129,10 +9147,10 @@
         <v>323.0</v>
       </c>
       <c r="N40" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="O40" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="P40"/>
       <c r="Q40" t="s">
@@ -9151,7 +9169,7 @@
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="F41" t="n">
         <v>84.0</v>
@@ -9166,10 +9184,10 @@
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="O41" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="P41"/>
       <c r="Q41"/>
@@ -9186,7 +9204,7 @@
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="F42"/>
       <c r="G42"/>
@@ -9197,10 +9215,10 @@
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="O42" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="P42"/>
       <c r="Q42"/>
@@ -9215,7 +9233,7 @@
       </c>
       <c r="D43"/>
       <c r="E43" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="F43"/>
       <c r="G43"/>
@@ -9228,10 +9246,10 @@
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="O43" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="P43"/>
       <c r="Q43"/>
@@ -9247,15 +9265,15 @@
         <v>533</v>
       </c>
       <c r="D44" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="E44" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I44"/>
       <c r="J44"/>
@@ -9277,12 +9295,12 @@
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I45"/>
       <c r="J45"/>
@@ -9290,10 +9308,10 @@
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="O45" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="P45"/>
       <c r="Q45"/>
@@ -9317,7 +9335,7 @@
         <v>19.0</v>
       </c>
       <c r="H46" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I46" t="n">
         <v>250000.0</v>
@@ -9345,7 +9363,7 @@
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="F47" t="n">
         <v>6.0</v>
@@ -9354,7 +9372,7 @@
         <v>6.0</v>
       </c>
       <c r="H47" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I47" t="n">
         <v>136128.0</v>
@@ -9368,10 +9386,10 @@
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="O47" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="P47"/>
       <c r="Q47" t="s">
@@ -9389,10 +9407,10 @@
         <v>535</v>
       </c>
       <c r="D48" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="E48" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="F48" t="n">
         <v>20.0</v>
@@ -9405,7 +9423,7 @@
       <c r="L48"/>
       <c r="M48"/>
       <c r="N48" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="O48"/>
       <c r="P48"/>
@@ -9422,7 +9440,7 @@
         <v>280</v>
       </c>
       <c r="D49" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="E49" t="s">
         <v>282</v>
@@ -9434,7 +9452,7 @@
         <v>69.0</v>
       </c>
       <c r="H49" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I49" t="n">
         <v>320000.0</v>
@@ -9466,7 +9484,7 @@
         <v>491</v>
       </c>
       <c r="C50" t="s">
-        <v>292</v>
+        <v>536</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
@@ -9499,7 +9517,7 @@
         <v>492</v>
       </c>
       <c r="C51" t="s">
-        <v>335</v>
+        <v>537</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
@@ -9528,7 +9546,7 @@
         <v>493</v>
       </c>
       <c r="C52" t="s">
-        <v>338</v>
+        <v>538</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
@@ -9541,7 +9559,7 @@
         <v>13.0</v>
       </c>
       <c r="H52" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I52" t="n">
         <v>44010.0</v>
@@ -9564,7 +9582,7 @@
       </c>
       <c r="P52"/>
       <c r="Q52" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="53">
@@ -9575,11 +9593,11 @@
         <v>494</v>
       </c>
       <c r="C53" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D53"/>
       <c r="E53" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="F53" t="n">
         <v>9.0</v>
@@ -9588,7 +9606,7 @@
         <v>9.0</v>
       </c>
       <c r="H53" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I53" t="n">
         <v>50562.0</v>
@@ -9604,14 +9622,14 @@
         <v>450.0</v>
       </c>
       <c r="N53" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="O53" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="P53"/>
       <c r="Q53" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
     </row>
     <row r="54">
@@ -9622,11 +9640,11 @@
         <v>495</v>
       </c>
       <c r="C54" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="F54" t="n">
         <v>6.0</v>
@@ -9642,7 +9660,7 @@
       <c r="M54"/>
       <c r="N54"/>
       <c r="O54" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="P54"/>
       <c r="Q54"/>
@@ -9655,13 +9673,13 @@
         <v>496</v>
       </c>
       <c r="C55" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D55" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="E55" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="F55" t="n">
         <v>10.0</v>
@@ -9670,7 +9688,7 @@
         <v>10.0</v>
       </c>
       <c r="H55" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I55"/>
       <c r="J55"/>
@@ -9683,7 +9701,7 @@
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
     </row>
     <row r="56">
@@ -9694,7 +9712,7 @@
         <v>497</v>
       </c>
       <c r="C56" t="s">
-        <v>420</v>
+        <v>542</v>
       </c>
       <c r="D56"/>
       <c r="E56" t="s">
@@ -9725,11 +9743,11 @@
         <v>498</v>
       </c>
       <c r="C57" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
@@ -9741,7 +9759,7 @@
       <c r="M57"/>
       <c r="N57"/>
       <c r="O57" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="P57"/>
       <c r="Q57"/>
@@ -9754,7 +9772,7 @@
         <v>499</v>
       </c>
       <c r="C58" t="s">
-        <v>435</v>
+        <v>544</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
@@ -9781,7 +9799,7 @@
         <v>500</v>
       </c>
       <c r="C59" t="s">
-        <v>437</v>
+        <v>545</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">

--- a/dat/synchros-initiatives.xlsx
+++ b/dat/synchros-initiatives.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="20880" windowHeight="7995" tabRatio="500"/>
+    <workbookView xWindow="12090" yWindow="0" windowWidth="20880" windowHeight="7995" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>

--- a/dat/synchros-initiatives.xlsx
+++ b/dat/synchros-initiatives.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="0" windowWidth="20880" windowHeight="7995" tabRatio="500"/>
+    <workbookView xWindow="13950" yWindow="0" windowWidth="20880" windowHeight="7995" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="747">
   <si>
     <t>A consortium of agricultural cohort studies</t>
   </si>
@@ -1401,6 +1401,9 @@
     <t>n_countries</t>
   </si>
   <si>
+    <t>initiative</t>
+  </si>
+  <si>
     <t>age_range</t>
   </si>
   <si>
@@ -1698,9 +1701,9 @@
     <t>The objective of AGRICOH is to support and mantain collaboration and data sharing/pooling to research the association between agricultural exposures and different health outcomes, with emphasis on associations that involve rare exposures and/or health outcomes, and for which data pooling represents a significant gain in statistical power compared to analysis of individual cohorts.</t>
   </si>
   <si>
-    <t>&lt;p&gt;The objective of the ATHLOS Project is to achieve a better understanding of ageing by identifying patterns of healthy ageing pathways or trajectories, the determinants of those patterns, the critical points in time when changes in trajectories are produced, and to propose timely clinical and public health interventions to optimize healthy ageing. Moreover, a new definition of 'old age' based on many characteristics rather than just the classical chronological definition of age will be used for calculating projections in each specific population and guide policy recommendations. To do so, the Consortium will create a harmonised dataset with over 400,000 individuals collated from existing longitudinal studies of ageing and including information on physical and mental health, biomarkers, life style habits, social environment and participation, among others.&lt;/p&gt;
-&lt;p&gt;ATHLOS is a five-year project funded by the European Union's Horizon 2020 Research and Innovation Programme under grant agreement number 635316.&lt;/p&gt;
-&lt;p&gt;The Consortium is coordinated by Dr Josep Maria Haro (Parc Sanitari Sant Joan de Déu) and consists of 14 partners from 11 European countries.&lt;/p&gt;</t>
+    <t>The objective of the ATHLOS Project is to achieve a better understanding of ageing by identifying patterns of healthy ageing pathways or trajectories, the determinants of those patterns, the critical points in time when changes in trajectories are produced, and to propose timely clinical and public health interventions to optimize healthy ageing. Moreover, a new definition of 'old age' based on many characteristics rather than just the classical chronological definition of age will be used for calculating projections in each specific population and guide policy recommendations. To do so, the Consortium will create a harmonised dataset with over 400,000 individuals collated from existing longitudinal studies of ageing and including information on physical and mental health, biomarkers, life style habits, social environment and participation, among others.
+ATHLOS is a five-year project funded by the European Union's Horizon 2020 Research and Innovation Programme under grant agreement number 635316.
+The Consortium is coordinated by Dr Josep Maria Haro (Parc Sanitari Sant Joan de Déu) and consists of 14 partners from 11 European countries.</t>
   </si>
   <si>
     <t>The projects mission is to maximize the use of biosamples, images and data for health research on the prevention, diagnosis and treatment of diseases. For this, these resources are available in a FAIR way: Findable, Accessible, Interoperable and Reusable. This is done in compliance with ethical, legal and privacy demands, and with active participation of donors, citizens and patients.</t>
@@ -1734,25 +1737,23 @@
   </si>
   <si>
     <t>The specific objectives of EUCAN-Connect are:
-* to deliver an open, federated data platform to deposit, curate and analyse cohort (meta)data that meets FAIR principles
-* to create a sustainable framework for long-term collaboration that enables better data-reuse and increased benefit to scientific communities worldwide</t>
-  </si>
-  <si>
-    <t>euCanSHare is a joint EU-Canada project to establish a cross-border data sharing and multi-cohort cardiovascular research platform. 
-Specifically, the project will integrate data infrastructures, IT solutions and data sources from EU, Canada and other countries into a web-based data access system with functionalities for increased efficiency in cardiovascular data-driven research. euCanSHare integrates more than 35 Canadian and European cohorts making up over 1 million records and actively seeks to expand to other regions. 
+- to deliver an open, federated data platform to deposit, curate and analyse cohort (meta)data that meets FAIR principles
+- to create a sustainable framework for long-term collaboration that enables better data-reuse and increased benefit to scientific communities worldwide</t>
+  </si>
+  <si>
+    <t>euCanSHare is a joint EU-Canada project to establish a cross-border data sharing and multi-cohort cardiovascular research platform.
+Specifically, the project will integrate data infrastructures, IT solutions and data sources from EU, Canada and other countries into a web-based data access system with functionalities for increased efficiency in cardiovascular data-driven research. euCanSHare integrates more than 35 Canadian and European cohorts making up over 1 million records and actively seeks to expand to other regions.
 euCanSHare key objectives are: data sharing, knowledge discovery, legal compliance, and community building</t>
   </si>
   <si>
-    <t xml:space="preserve">The Gateway to Global Aging Data (g2aging.org) is a data and information platform developed to facilitate longitudinal and cross-country analyses on aging, especially those using the family of Health and Retirement Studies (HRS) around the world. To further this effort, the Gateway provides searchable metadata, extensive cross-survey documentation, downloadable harmonized microdata with variables standardized across surveys, and graphs and tables that enable users to instantly compare variables of interest over time, across countries, and against macro-level contextual information at no cost.
-</t>
+    <t>The Gateway to Global Aging Data (g2aging.org) is a data and information platform developed to facilitate longitudinal and cross-country analyses on aging, especially those using the family of Health and Retirement Studies (HRS) around the world. To further this effort, the Gateway provides searchable metadata, extensive cross-survey documentation, downloadable harmonized microdata with variables standardized across surveys, and graphs and tables that enable users to instantly compare variables of interest over time, across countries, and against macro-level contextual information at no cost.</t>
   </si>
   <si>
     <t>The aim of GenomEUtwin is to develop novel strategies to maximally utilize the unique features of twin cohorts, including the availability of longitudinal data and sample information about lifestyle and environmental factors, in the characterization of complex traits.</t>
   </si>
   <si>
-    <t xml:space="preserve">The HELIX project is funded to exploit novel tools and methods for characterisation of early-life exposure to a wide range of environmental hazards. These require integration and linkage with data on major child health outcomes, to develop an “Early-Life Exposome” approach.
-Six prospective birth cohort studies (INMA-Spain, RHEA-Greece, MoBa-Norway, EDEN-France, BiB-UK, KANC-Lithuania) are contributing to HELIX as the only realistic and feasible way to obtain the comprehensive, longitudinal, human data needed to build this early-life exposome. These cohorts have already collected large amounts of data as part of national and EU-funded projects. Results will be integrated with data from European cohorts (&gt;300,000 subjects) and registers, to estimate health impacts at the large European scale. This integration of the chemical, physical and molecular environment during critical early-life periods will lead to major improvements in health risk and impact assessments and thus to improved prevention strategies for vulnerable populations.
-</t>
+    <t>The HELIX project is funded to exploit novel tools and methods for characterisation of early-life exposure to a wide range of environmental hazards. These require integration and linkage with data on major child health outcomes, to develop an “Early-Life Exposome” approach.
+Six prospective birth cohort studies (INMA-Spain, RHEA-Greece, MoBa-Norway, EDEN-France, BiB-UK, KANC-Lithuania) are contributing to HELIX as the only realistic and feasible way to obtain the comprehensive, longitudinal, human data needed to build this early-life exposome. These cohorts have already collected large amounts of data as part of national and EU-funded projects. Results will be integrated with data from European cohorts (&gt;300,000 subjects) and registers, to estimate health impacts at the large European scale. This integration of the chemical, physical and molecular environment during critical early-life periods will lead to major improvements in health risk and impact assessments and thus to improved prevention strategies for vulnerable populations.</t>
   </si>
   <si>
     <t>The specific objectives of the initiative are:
@@ -1772,11 +1773,11 @@
 A summary is provided in the publication - 'The International Childhood Cancer Cohort Consortium (I4C): A research platform of prospective cohorts for studying the aetiology of childhood cancers' at the following link - https://onlinelibrary.wiley.com/doi/full/10.1111/ppe.12519</t>
   </si>
   <si>
-    <t>The aim of ICC-dementia is to harmonise centenarian and near-centenarian studies internationally to describe the cognitive and functional profiles of exceptionally old individuals, and ascertain the trajectories of decline and thereby the age-standardised prevalence and incidence of dementia.  The consortium is also interested in the genetic and environmental determinants of dementia-free exceptional longevity.</t>
-  </si>
-  <si>
-    <t>The aim of the IDEAR network is to investigate how determinants in later working life, during the retirement transition, and in early retirement influence for how long older individuals are able to live actively and healthily. 
-This will be done using by state of the art statistical modelling in well-established prospective occupational cohort studies, longitudinal ageing studies and registry data from Sweden, the UK, Finland, France and Denmark. 
+    <t>The aim of ICC-dementia is to harmonise centenarian and near-centenarian studies internationally to describe the cognitive and functional profiles of exceptionally old individuals, and ascertain the trajectories of decline and thereby the age-standardised prevalence and incidence of dementia. The consortium is also interested in the genetic and environmental determinants of dementia-free exceptional longevity.</t>
+  </si>
+  <si>
+    <t>The aim of the IDEAR network is to investigate how determinants in later working life, during the retirement transition, and in early retirement influence for how long older individuals are able to live actively and healthily.
+This will be done using by state of the art statistical modelling in well-established prospective occupational cohort studies, longitudinal ageing studies and registry data from Sweden, the UK, Finland, France and Denmark.
 These studies represent countries in three different welfare regimes and cover up to several decades from mid-life, retirement, early old age, and the beginning of older-old age.</t>
   </si>
   <si>
@@ -1795,9 +1796,9 @@
     <t>The overarching aim of the LIFEPATH project is to understand the determinants of diverging ageing pathways among individuals belonging to different socio-economic groups. This will be achieved via an original study design that integrates social science approaches with biology (including molecular epidemiology), using existing population cohorts and omics measurements (particularly epigenomics).</t>
   </si>
   <si>
-    <t>The objectives of MINDMAP are: 
-1. to harmonize and link data from population registries and cohort studies of mental health ageing in European cities to allow co-analysis of data, based on expertise by Erasmus MC with registry data and McGill University with survey data; 
-2. to develop a conceptual model of mental health in urban settings based on input from experts on mental health from multiple disciplinary perspectives and the integration of results from all work packages on the physical and social environmental, psychosocial, biological and genetic pathways linking the urban environment to mental health; and 
+    <t>The objectives of MINDMAP are:
+1. to harmonize and link data from population registries and cohort studies of mental health ageing in European cities to allow co-analysis of data, based on expertise by Erasmus MC with registry data and McGill University with survey data;
+2. to develop a conceptual model of mental health in urban settings based on input from experts on mental health from multiple disciplinary perspectives and the integration of results from all work packages on the physical and social environmental, psychosocial, biological and genetic pathways linking the urban environment to mental health; and
 3. to develop a methodological framework for the application of advanced causal inference and mediation analysis to study the causal impact of the urban environment on mental health.</t>
   </si>
   <si>
@@ -1807,13 +1808,13 @@
     <t>The overarching concept of OMEGA-NET is to create a network to optimize and integrate occupational, industrial, and population cohorts at the European level, and to provide a foundation for an enhanced evidence base for the identification of health risks and gains related to occupation and employment to foster safe and healthy preventive strategies and policies.
 Research Coordination Objectives and health
 Coordinate and integrate cohorts on occupational health in Europe:
-* Implement an online interactive tool with detailed information on existing cohorts
-* Facilitate work on harmonization of occupational exposure and standardization of health outcome information and new protocols for data collection
-* Promote stakeholder engagement from the start of the project.
+- Implement an online interactive tool with detailed information on existing cohorts
+- Facilitate work on harmonization of occupational exposure and standardization of health outcome information and new protocols for data collection
+- Promote stakeholder engagement from the start of the project.
 Capacity Building Objectives:
-* Connect scientific communities on occupational health in Europe
-* Provide networking and leadership opportunities for early career researchers, as well as researchers from COST Inclusiveness Target Countries
-* Provide training in occupational epidemiology and exposure assessment</t>
+- Connect scientific communities on occupational health in Europe
+- Provide networking and leadership opportunities for early career researchers, as well as researchers from COST Inclusiveness Target Countries
+- Provide training in occupational epidemiology and exposure assessment</t>
   </si>
   <si>
     <t>The aim of ReACH is to provide resources in the form of a comprehensive web-based catalogue and an harmonization platform to optimize and expand the use of Canadian pregnancy and birth cohorts data and biological samples.</t>
@@ -1822,28 +1823,27 @@
     <t>The objective of SAPRIN is to draw together and harmonise a network of South Africa’s health and demographic surveillance sites (HDSS) situated in rural and urban setting, each with a population of at least 100 000 individuals under surveillance.</t>
   </si>
   <si>
-    <t>The Social Inequality in Cancer (SIC) cohort study was established to determine path- ways through which socioeconomic position affects morbidity and mortality, in particular common subtypes of cancer.</t>
+    <t>The Social Inequality in Cancer (SIC) cohort study was established to determine path-ways through which socioeconomic position affects morbidity and mortality, in particular common subtypes of cancer.</t>
   </si>
   <si>
     <t>To establish a genome epidemiological study platform for the research community with a health database and biobank, to investigate the genetic and environmental aetiology of common complex diseases in Koreans and causes of death with long-term follow-up. The ultimate goal of the KoGES was to develop comprehensive and applicable health care guidelines for common complex diseases in Koreans, reduce the burden of chronic diseases and improve the quality of life.</t>
   </si>
   <si>
-    <t xml:space="preserve">To enable the conduct of studies of medication use and outcomes in pregnancy.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To maximise the use, value and impact of longitudinal studies to help improve our understanding of key social and biomedical challenges. </t>
-  </si>
-  <si>
-    <t>• harmonize pregnancy and birth cohort data for the 3D, MIREC and SBC studies • establish a collaborative research network on the topic of intra-uterine determinants of child health and development and on perinatal health services in Quebec and Shanghai (China) • establish an infrastructure of knowledge transfer and application between the partners and users of the network leading to updated guidelines, health policies, and knowledge transfer activities in clinical practice • reinforce the strategic positioning of academic and industrial partners in Quebec, China and internationally for providing access to new markets and expertise.</t>
+    <t>- harmonize pregnancy and birth cohort data for the 3D, MIREC and SBC studies
+- establish a collaborative research network on the topic of intra-uterine determinants of child health and development and on perinatal health services in Quebec and Shanghai (China)
+- establish an infrastructure of knowledge transfer and application between the partners and users of the network leading to updated guidelines, health policies, and knowledge transfer activities in clinical practice
+- reinforce the strategic positioning of academic and industrial partners in Quebec, China and internationally for providing access to new markets and expertise.</t>
   </si>
   <si>
     <t>To understand the relationship between genetics, environmental exposures, and the etiology of disease through the establishment of a cohort, or population laboratory.</t>
   </si>
   <si>
-    <t xml:space="preserve">CHANCES aims at combining and integrating ongoing cohort studies in order to produce evidence on ageing-related health characteristics and determinants in Europe and their socio-economic implications.   </t>
-  </si>
-  <si>
-    <t>The scientific goal of ECHO, a research program launched by the National Institutes of Health, is to understand the effects of a broad range of early environmental influences on child health and development. ECHO uses information from existing longitudinal research projects (cohorts), which will include more than 50,000 children from diverse backgrounds across the United States. Together, these cohorts follow participants from before they are born through childhood and adolescence. ECHO also supports a 17-state clinical trials network to test prevention and treatment strategies among children from rural and medically underserved backgrounds. Program Objectives + Improve the health of children and adolescents by conducting observational and interventional research that will inform high-impact programs, policies, and practices. + Institute best practices for conducting Team Science in the 21st century, giving researchers the tools to work collaboratively to improve child health.</t>
+    <t>CHANCES aims at combining and integrating ongoing cohort studies in order to produce evidence on ageing-related health characteristics and determinants in Europe and their socio-economic implications.</t>
+  </si>
+  <si>
+    <t>The scientific goal of ECHO, a research program launched by the National Institutes of Health, is to understand the effects of a broad range of early environmental influences on child health and development. ECHO uses information from existing longitudinal research projects (cohorts), which will include more than 50,000 children from diverse backgrounds across the United States. Together, these cohorts follow participants from before they are born through childhood and adolescence. ECHO also supports a 17-state clinical trials network to test prevention and treatment strategies among children from rural and medically underserved backgrounds. Program Objectives
+- Improve the health of children and adolescents by conducting observational and interventional research that will inform high-impact programs, policies, and practices.
+- Institute best practices for conducting Team Science in the 21st century, giving researchers the tools to work collaboratively to improve child health.</t>
   </si>
   <si>
     <t>Project aims to improve human health through genetic research, and ultimately identify new therapeutic targets and diagnostics for treating numerous diseases. The collaborative nature of the project is exceptional compare to many ongoing studies, and all the partners are working closely together to ensure appropriate transparency, data security and ownership.</t>
@@ -1864,7 +1864,7 @@
     <t>The overall aim of the RECAP preterm Project is to improve the health, development and quality of life of children and adults born very preterm (VPT) or with a very low birth weight (VLBW). This aim will be achieved by combining extensive data from European cohort studies and around the world, which makes it possible to evaluate changes in outcomes over time while providing important information on how the evolution in care and survival of these high risk babies has changed their developmental outcomes and quality of life. We want to develop a better understanding of the origins of VPT/VLBW health and developmental outcomes as well as more effective, evidence-based, personalized interventions and prevention.</t>
   </si>
   <si>
-    <t xml:space="preserve">To identify effective pathways to compressing morbidity and optimising ageing.                                                                                                                         Four key foci, including dementia and cognition, mental health, sensory impairment, and mobility/activity limitations. </t>
+    <t>To identify effective pathways to compressing morbidity and optimising ageing. Four key foci, including dementia and cognition, mental health, sensory impairment, and mobility/activity limitations.</t>
   </si>
   <si>
     <t>Consortium (HAVIC), and cited the following objectives: 1) prospective design, 2) common exposure metrics across cohorts, 3) common health assessment instruments across cohorts, and 4) methods for multisite integration.</t>
@@ -2127,6 +2127,126 @@
   </si>
   <si>
     <t xml:space="preserve">Canada, France        </t>
+  </si>
+  <si>
+    <t>AGRICOH: A consortium of agricultural cohort studies</t>
+  </si>
+  <si>
+    <t>ATHLOS: Ageing Trajectories of Health: Longitudinal Opportunities and Synergies</t>
+  </si>
+  <si>
+    <t>BioSHaRE-EU: Biobank Standardisation and Harmonisation for Research Excellence in the European Union</t>
+  </si>
+  <si>
+    <t>CanPath: Canadian Partnership for Tomorrow’s Health</t>
+  </si>
+  <si>
+    <t>COHORTS.SE: Swedish Cohort Consortium</t>
+  </si>
+  <si>
+    <t>CORDELIA: Collaborative cOhorts Reassembled Data to study mEchanisms and Longterm Incidence of chronic diseAses</t>
+  </si>
+  <si>
+    <t>EClipSE: Epidemiological  Clinicopathological Studies in Europe</t>
+  </si>
+  <si>
+    <t>EPHOR: Exposome Project for Health and Occupational Research</t>
+  </si>
+  <si>
+    <t>HALCyon: Healthy Ageing  across the Life Course</t>
+  </si>
+  <si>
+    <t>HELIX: The Human Early-Life Exposome</t>
+  </si>
+  <si>
+    <t>HeLTI: Healthy Life Trajectories Initiative</t>
+  </si>
+  <si>
+    <t>I3C: International Childhood Cardiovascular Cohort Consortium</t>
+  </si>
+  <si>
+    <t>I4C: International Childhood  Cancer Cohort Consortium</t>
+  </si>
+  <si>
+    <t>ICC-dementia: International  Centenarian Consortium - dementia</t>
+  </si>
+  <si>
+    <t>IDEAR: Integrated Datasets in Europe for Ageing Research</t>
+  </si>
+  <si>
+    <t>IGEMS: Interplay of Genes and Environment across Multiple Studies</t>
+  </si>
+  <si>
+    <t>IHCC: International HundredK+ Cohorts Consortium</t>
+  </si>
+  <si>
+    <t>InterLACE: International Collaboration for a Life Course Approach to  Reproductive Health and Chronic Disease Events</t>
+  </si>
+  <si>
+    <t>LIFEPATH: Lifecourse biological pathways underlying social differences in healthy ageing</t>
+  </si>
+  <si>
+    <t>MINDMAP: Promoting mental well-being and healthy ageing in cities</t>
+  </si>
+  <si>
+    <t>NEAR: National E-lnfrastructure for Aging Research</t>
+  </si>
+  <si>
+    <t>OMEGA-NET: Network on the Coordination and Harmonisation of European Occupational Cohorts project</t>
+  </si>
+  <si>
+    <t>ReACH: Research Advancement through Cohort Cataloguing and Harmonization</t>
+  </si>
+  <si>
+    <t>SAPRIN: South African Population  Research Infrastructure Network</t>
+  </si>
+  <si>
+    <t>SIC: Social Inequality in Cancer cohort study</t>
+  </si>
+  <si>
+    <t>KoGES: The Korean Genome and Epidemiology Study Consortium</t>
+  </si>
+  <si>
+    <t>CLOSER: Cohort and Longitudinal Studies Enhancement Resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPIRIT: Sino-Quebec Perinatal Initiative in Research and Information Technology  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHANCES: Consortium on Health and Ageing: Network of cohorts in Europe and the United States    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FinnGen: Finnish Genome Project </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEMETRIQ: Developing methodologies to reduce inequalities in the determinants of health  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECAP: Research on European Children and adults born preterm  </t>
+  </si>
+  <si>
+    <t>CHICOS: Child Cohort Research Strategy for Europe</t>
+  </si>
+  <si>
+    <t>MeDALL: Mechanisms of the Development of Allergy Project</t>
+  </si>
+  <si>
+    <t>DYNOPTA: Dynamic Analyses to Optimise Ageing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAVIC: The Hand-Arm Vibration International Consortium: Prospective Studies on the Relationship Between Power Tool Exposure and Health Effects     </t>
+  </si>
+  <si>
+    <t>CAPICE: Childhood and Adolescence Psychopathology: unravelling the complex etiology by a large Interdisciplinary Collaboration in Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIFESPAN: Early-life influences on suicidal ideation, suicide attempts and suicide mortality: a life-course perspective to inform prevention        </t>
+  </si>
+  <si>
+    <t>STOP: Science and Technology in childhood Obesity Policy</t>
+  </si>
+  <si>
+    <t>DYNAHEALTH: Understanding the dynamic determinants of glucose homeostasis and social capability to promote Healthy and active aging</t>
   </si>
   <si>
     <t>0 - 150</t>
@@ -2780,8 +2900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40:H45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7343,6 +7463,9 @@
       <c r="Q1" t="s">
         <v>458</v>
       </c>
+      <c r="R1" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -7356,7 +7479,7 @@
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F2" t="n">
         <v>30.0</v>
@@ -7365,7 +7488,7 @@
         <v>3.0</v>
       </c>
       <c r="H2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I2" t="n">
         <v>1300000.0</v>
@@ -7381,16 +7504,19 @@
       </c>
       <c r="M2"/>
       <c r="N2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="P2" t="n">
         <v>12.0</v>
       </c>
       <c r="Q2" t="s">
-        <v>683</v>
+        <v>682</v>
+      </c>
+      <c r="R2" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="3">
@@ -7401,11 +7527,11 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F3" t="n">
         <v>18.0</v>
@@ -7414,7 +7540,7 @@
         <v>18.0</v>
       </c>
       <c r="H3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I3" t="n">
         <v>411000.0</v>
@@ -7432,31 +7558,34 @@
         <v>180.0</v>
       </c>
       <c r="N3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="P3" t="n">
         <v>39.0</v>
       </c>
       <c r="Q3" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="R3" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F4" t="n">
         <v>29.0</v>
@@ -7465,7 +7594,7 @@
         <v>29.0</v>
       </c>
       <c r="H4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I4" t="n">
         <v>700.0</v>
@@ -7481,7 +7610,7 @@
       </c>
       <c r="M4"/>
       <c r="N4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O4" t="s">
         <v>183</v>
@@ -7490,7 +7619,10 @@
         <v>1.0</v>
       </c>
       <c r="Q4" t="s">
-        <v>685</v>
+        <v>5</v>
+      </c>
+      <c r="R4" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="5">
@@ -7501,11 +7633,11 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F5" t="n">
         <v>15.0</v>
@@ -7514,7 +7646,7 @@
         <v>8.0</v>
       </c>
       <c r="H5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I5" t="n">
         <v>935227.0</v>
@@ -7528,7 +7660,7 @@
         <v>100.0</v>
       </c>
       <c r="N5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O5" t="s">
         <v>71</v>
@@ -7537,22 +7669,25 @@
         <v>8.0</v>
       </c>
       <c r="Q5" t="s">
+        <v>684</v>
+      </c>
+      <c r="R5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F6" t="n">
         <v>7.0</v>
@@ -7561,7 +7696,7 @@
         <v>6.0</v>
       </c>
       <c r="H6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I6" t="n">
         <v>386641.0</v>
@@ -7579,7 +7714,7 @@
         <v>2840.0</v>
       </c>
       <c r="N6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O6" t="s">
         <v>60</v>
@@ -7588,7 +7723,10 @@
         <v>1.0</v>
       </c>
       <c r="Q6" t="s">
-        <v>686</v>
+        <v>685</v>
+      </c>
+      <c r="R6" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="7">
@@ -7599,11 +7737,11 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F7" t="n">
         <v>40.0</v>
@@ -7612,7 +7750,7 @@
         <v>21.0</v>
       </c>
       <c r="H7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I7" t="n">
         <v>950000.0</v>
@@ -7630,7 +7768,7 @@
         <v>12.0</v>
       </c>
       <c r="N7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O7" t="s">
         <v>88</v>
@@ -7639,22 +7777,25 @@
         <v>1.0</v>
       </c>
       <c r="Q7" t="s">
-        <v>687</v>
+        <v>686</v>
+      </c>
+      <c r="R7" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C8" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F8" t="n">
         <v>35.0</v>
@@ -7663,7 +7804,7 @@
         <v>35.0</v>
       </c>
       <c r="H8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I8" t="n">
         <v>188000.0</v>
@@ -7681,7 +7822,7 @@
         <v>85.0</v>
       </c>
       <c r="N8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="O8" t="s">
         <v>304</v>
@@ -7690,22 +7831,25 @@
         <v>1.0</v>
       </c>
       <c r="Q8" t="s">
-        <v>688</v>
+        <v>687</v>
+      </c>
+      <c r="R8" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F9" t="n">
         <v>3.0</v>
@@ -7714,7 +7858,7 @@
         <v>3.0</v>
       </c>
       <c r="H9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I9" t="n">
         <v>987.0</v>
@@ -7732,31 +7876,34 @@
         <v>1000.0</v>
       </c>
       <c r="N9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="P9" t="n">
         <v>2.0</v>
       </c>
       <c r="Q9" t="s">
-        <v>689</v>
+        <v>688</v>
+      </c>
+      <c r="R9" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F10" t="n">
         <v>40.0</v>
@@ -7765,7 +7912,7 @@
         <v>0.0</v>
       </c>
       <c r="H10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I10" t="n">
         <v>2.1E7</v>
@@ -7779,29 +7926,32 @@
         <v>0.0</v>
       </c>
       <c r="N10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="P10" t="n">
         <v>12.0</v>
       </c>
-      <c r="Q10"/>
+      <c r="Q10" t="s">
+        <v>689</v>
+      </c>
+      <c r="R10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C11" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F11" t="n">
         <v>6.0</v>
@@ -7810,7 +7960,7 @@
         <v>6.0</v>
       </c>
       <c r="H11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I11" t="n">
         <v>2941.0</v>
@@ -7828,31 +7978,34 @@
         <v>500.0</v>
       </c>
       <c r="N11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="P11" t="n">
         <v>6.0</v>
       </c>
       <c r="Q11" t="s">
-        <v>690</v>
+        <v>409</v>
+      </c>
+      <c r="R11" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B12" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F12" t="n">
         <v>20.0</v>
@@ -7861,7 +8014,7 @@
         <v>0.0</v>
       </c>
       <c r="H12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -7871,15 +8024,18 @@
         <v>0.0</v>
       </c>
       <c r="N12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="P12" t="n">
         <v>20.0</v>
       </c>
-      <c r="Q12"/>
+      <c r="Q12" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -7892,17 +8048,17 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E13" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F13" t="n">
         <v>32.0</v>
       </c>
       <c r="G13"/>
       <c r="H13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I13" t="n">
         <v>1000000.0</v>
@@ -7912,31 +8068,34 @@
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O13" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="P13" t="n">
         <v>15.0</v>
       </c>
-      <c r="Q13"/>
+      <c r="Q13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B14" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C14" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D14" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E14" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F14" t="n">
         <v>18.0</v>
@@ -7945,7 +8104,7 @@
         <v>10.0</v>
       </c>
       <c r="H14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I14" t="n">
         <v>351000.0</v>
@@ -7961,16 +8120,19 @@
         <v>37000.0</v>
       </c>
       <c r="N14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O14" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="P14" t="n">
         <v>43.0</v>
       </c>
       <c r="Q14" t="s">
-        <v>691</v>
+        <v>510</v>
+      </c>
+      <c r="R14" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="15">
@@ -7985,7 +8147,7 @@
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F15" t="n">
         <v>9.0</v>
@@ -7994,7 +8156,7 @@
         <v>9.0</v>
       </c>
       <c r="H15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I15" t="n">
         <v>1190000.0</v>
@@ -8008,27 +8170,30 @@
       </c>
       <c r="M15"/>
       <c r="N15" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="P15" t="n">
         <v>8.0</v>
       </c>
       <c r="Q15" t="s">
-        <v>692</v>
+        <v>11</v>
+      </c>
+      <c r="R15" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B16" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C16" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
@@ -8041,7 +8206,7 @@
         <v>9.0</v>
       </c>
       <c r="H16" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I16" t="n">
         <v>40000.0</v>
@@ -8055,7 +8220,7 @@
       </c>
       <c r="M16"/>
       <c r="N16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="O16" t="s">
         <v>95</v>
@@ -8064,7 +8229,10 @@
         <v>1.0</v>
       </c>
       <c r="Q16" t="s">
-        <v>693</v>
+        <v>690</v>
+      </c>
+      <c r="R16" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="17">
@@ -8075,13 +8243,13 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F17" t="n">
         <v>6.0</v>
@@ -8090,7 +8258,7 @@
         <v>6.0</v>
       </c>
       <c r="H17" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I17" t="n">
         <v>32000.0</v>
@@ -8106,31 +8274,34 @@
       </c>
       <c r="M17"/>
       <c r="N17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="P17" t="n">
         <v>6.0</v>
       </c>
       <c r="Q17" t="s">
-        <v>694</v>
+        <v>691</v>
+      </c>
+      <c r="R17" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B18" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C18" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F18" t="n">
         <v>4.0</v>
@@ -8139,7 +8310,7 @@
         <v>4.0</v>
       </c>
       <c r="H18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I18" t="n">
         <v>22730.0</v>
@@ -8155,7 +8326,7 @@
         <v>1043.0</v>
       </c>
       <c r="N18" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="O18" t="s">
         <v>166</v>
@@ -8164,6 +8335,9 @@
         <v>4.0</v>
       </c>
       <c r="Q18" t="s">
+        <v>692</v>
+      </c>
+      <c r="R18" t="s">
         <v>174</v>
       </c>
     </row>
@@ -8175,11 +8349,11 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F19" t="n">
         <v>7.0</v>
@@ -8188,7 +8362,7 @@
         <v>7.0</v>
       </c>
       <c r="H19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I19" t="n">
         <v>42189.0</v>
@@ -8206,31 +8380,34 @@
         <v>15.0</v>
       </c>
       <c r="N19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="O19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P19" t="n">
         <v>3.0</v>
       </c>
       <c r="Q19" t="s">
-        <v>695</v>
+        <v>693</v>
+      </c>
+      <c r="R19" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B20" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C20" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F20" t="n">
         <v>6.0</v>
@@ -8239,7 +8416,7 @@
         <v>6.0</v>
       </c>
       <c r="H20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I20" t="n">
         <v>388120.0</v>
@@ -8255,33 +8432,36 @@
         <v>20.0</v>
       </c>
       <c r="N20" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="O20" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P20" t="n">
         <v>11.0</v>
       </c>
       <c r="Q20" t="s">
-        <v>696</v>
+        <v>694</v>
+      </c>
+      <c r="R20" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C21" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E21" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F21" t="n">
         <v>18.0</v>
@@ -8290,7 +8470,7 @@
         <v>18.0</v>
       </c>
       <c r="H21" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I21" t="n">
         <v>7960.0</v>
@@ -8302,29 +8482,32 @@
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O21"/>
       <c r="P21" t="n">
         <v>1.0</v>
       </c>
       <c r="Q21" t="s">
-        <v>697</v>
+        <v>695</v>
+      </c>
+      <c r="R21" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B22" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F22" t="n">
         <v>10.0</v>
@@ -8333,7 +8516,7 @@
         <v>6.0</v>
       </c>
       <c r="H22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I22" t="n">
         <v>5000000.0</v>
@@ -8351,16 +8534,19 @@
         <v>15.0</v>
       </c>
       <c r="N22" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P22" t="n">
         <v>5.0</v>
       </c>
       <c r="Q22" t="s">
-        <v>698</v>
+        <v>696</v>
+      </c>
+      <c r="R22" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="23">
@@ -8371,11 +8557,11 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F23" t="n">
         <v>18.0</v>
@@ -8384,7 +8570,7 @@
         <v>18.0</v>
       </c>
       <c r="H23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I23" t="n">
         <v>76233.0</v>
@@ -8402,31 +8588,34 @@
         <v>31.0</v>
       </c>
       <c r="N23" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O23" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P23" t="n">
         <v>5.0</v>
       </c>
       <c r="Q23" t="s">
-        <v>699</v>
+        <v>697</v>
+      </c>
+      <c r="R23" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B24" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C24" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F24" t="n">
         <v>67.0</v>
@@ -8435,7 +8624,7 @@
         <v>0.0</v>
       </c>
       <c r="H24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -8447,31 +8636,34 @@
       </c>
       <c r="M24"/>
       <c r="N24" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O24"/>
       <c r="P24" t="n">
         <v>1.0</v>
       </c>
       <c r="Q24" t="s">
-        <v>683</v>
+        <v>698</v>
+      </c>
+      <c r="R24" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B25" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C25" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F25" t="n">
         <v>43.0</v>
@@ -8480,7 +8672,7 @@
         <v>43.0</v>
       </c>
       <c r="H25" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I25" t="n">
         <v>1000000.0</v>
@@ -8494,29 +8686,32 @@
         <v>100.0</v>
       </c>
       <c r="N25" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="O25"/>
       <c r="P25" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q25"/>
+      <c r="Q25" t="s">
+        <v>474</v>
+      </c>
+      <c r="R25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B26" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C26" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D26" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E26" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F26" t="n">
         <v>26.0</v>
@@ -8525,7 +8720,7 @@
         <v>26.0</v>
       </c>
       <c r="H26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I26" t="n">
         <v>839666.0</v>
@@ -8543,31 +8738,34 @@
         <v>1300.0</v>
       </c>
       <c r="N26" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O26" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P26" t="n">
         <v>11.0</v>
       </c>
       <c r="Q26" t="s">
-        <v>700</v>
+        <v>699</v>
+      </c>
+      <c r="R26" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B27" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F27" t="n">
         <v>18.0</v>
@@ -8576,7 +8774,7 @@
         <v>8.0</v>
       </c>
       <c r="H27" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I27" t="n">
         <v>1941000.0</v>
@@ -8594,16 +8792,19 @@
         <v>270.0</v>
       </c>
       <c r="N27" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="O27" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="P27" t="n">
         <v>9.0</v>
       </c>
       <c r="Q27" t="s">
-        <v>683</v>
+        <v>700</v>
+      </c>
+      <c r="R27" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="28">
@@ -8614,11 +8815,11 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F28" t="n">
         <v>10.0</v>
@@ -8627,7 +8828,7 @@
         <v>9.0</v>
       </c>
       <c r="H28" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I28" t="n">
         <v>2662777.0</v>
@@ -8643,15 +8844,18 @@
         <v>2560.0</v>
       </c>
       <c r="N28" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="O28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="P28" t="n">
         <v>9.0</v>
       </c>
       <c r="Q28" t="s">
+        <v>701</v>
+      </c>
+      <c r="R28" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8663,11 +8867,11 @@
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F29" t="n">
         <v>15.0</v>
@@ -8676,7 +8880,7 @@
         <v>0.0</v>
       </c>
       <c r="H29" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I29" t="n">
         <v>190268.0</v>
@@ -8690,7 +8894,7 @@
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O29" t="s">
         <v>88</v>
@@ -8699,31 +8903,34 @@
         <v>1.0</v>
       </c>
       <c r="Q29" t="s">
-        <v>701</v>
+        <v>702</v>
+      </c>
+      <c r="R29" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B30" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C30" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
         <v>0.0</v>
       </c>
       <c r="H30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -8731,29 +8938,32 @@
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O30"/>
       <c r="P30" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q30"/>
+      <c r="Q30" t="s">
+        <v>703</v>
+      </c>
+      <c r="R30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B31" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C31" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D31" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E31" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F31" t="n">
         <v>27.0</v>
@@ -8762,7 +8972,7 @@
         <v>27.0</v>
       </c>
       <c r="H31" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I31" t="n">
         <v>89889.0</v>
@@ -8776,31 +8986,34 @@
       </c>
       <c r="M31"/>
       <c r="N31" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="O31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="P31" t="n">
         <v>12.0</v>
       </c>
       <c r="Q31" t="s">
-        <v>702</v>
+        <v>704</v>
+      </c>
+      <c r="R31" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B32" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C32" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F32" t="n">
         <v>5.0</v>
@@ -8809,7 +9022,7 @@
         <v>3.0</v>
       </c>
       <c r="H32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I32" t="n">
         <v>315000.0</v>
@@ -8827,7 +9040,7 @@
         <v>52.0</v>
       </c>
       <c r="N32" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="O32" t="s">
         <v>237</v>
@@ -8836,22 +9049,25 @@
         <v>1.0</v>
       </c>
       <c r="Q32" t="s">
-        <v>685</v>
+        <v>705</v>
+      </c>
+      <c r="R32" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B33" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C33" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F33" t="n">
         <v>7.0</v>
@@ -8860,7 +9076,7 @@
         <v>7.0</v>
       </c>
       <c r="H33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I33" t="n">
         <v>83006.0</v>
@@ -8878,7 +9094,7 @@
         <v>28.0</v>
       </c>
       <c r="N33" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="O33" t="s">
         <v>344</v>
@@ -8887,29 +9103,32 @@
         <v>1.0</v>
       </c>
       <c r="Q33" t="s">
-        <v>703</v>
+        <v>706</v>
+      </c>
+      <c r="R33" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B34" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C34" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F34" t="n">
         <v>6.0</v>
       </c>
       <c r="G34"/>
       <c r="H34" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I34" t="n">
         <v>245000.0</v>
@@ -8919,13 +9138,16 @@
       <c r="L34"/>
       <c r="M34"/>
       <c r="N34" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O34" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="P34"/>
-      <c r="Q34"/>
+      <c r="Q34" t="s">
+        <v>707</v>
+      </c>
+      <c r="R34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -8935,11 +9157,11 @@
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
-        <v>588</v>
+        <v>49</v>
       </c>
       <c r="F35" t="n">
         <v>11.0</v>
@@ -8954,13 +9176,16 @@
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="O35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="P35"/>
-      <c r="Q35"/>
+      <c r="Q35" t="s">
+        <v>528</v>
+      </c>
+      <c r="R35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -8970,11 +9195,11 @@
         <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>589</v>
+        <v>96</v>
       </c>
       <c r="F36" t="n">
         <v>8.0</v>
@@ -8991,26 +9216,29 @@
         <v>8.0</v>
       </c>
       <c r="N36" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="O36" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="P36"/>
-      <c r="Q36"/>
+      <c r="Q36" t="s">
+        <v>708</v>
+      </c>
+      <c r="R36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B37" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C37" t="s">
         <v>106</v>
       </c>
       <c r="D37" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E37" t="s">
         <v>108</v>
@@ -9022,7 +9250,7 @@
         <v>4.0</v>
       </c>
       <c r="H37" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I37"/>
       <c r="J37"/>
@@ -9032,7 +9260,10 @@
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
-      <c r="Q37"/>
+      <c r="Q37" t="s">
+        <v>106</v>
+      </c>
+      <c r="R37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -9042,11 +9273,11 @@
         <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F38" t="n">
         <v>4.0</v>
@@ -9061,25 +9292,28 @@
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="O38" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="P38"/>
-      <c r="Q38"/>
+      <c r="Q38" t="s">
+        <v>709</v>
+      </c>
+      <c r="R38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B39"/>
       <c r="C39" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F39" t="n">
         <v>29.0</v>
@@ -9088,7 +9322,7 @@
         <v>24.0</v>
       </c>
       <c r="H39" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I39" t="n">
         <v>1221985.0</v>
@@ -9104,29 +9338,32 @@
         <v>600.0</v>
       </c>
       <c r="N39" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O39" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="P39"/>
       <c r="Q39" t="s">
-        <v>704</v>
+        <v>483</v>
+      </c>
+      <c r="R39" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B40" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C40" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F40" t="n">
         <v>14.0</v>
@@ -9135,7 +9372,7 @@
         <v>14.0</v>
       </c>
       <c r="H40" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I40"/>
       <c r="J40"/>
@@ -9147,29 +9384,32 @@
         <v>323.0</v>
       </c>
       <c r="N40" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="O40" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P40"/>
       <c r="Q40" t="s">
+        <v>710</v>
+      </c>
+      <c r="R40" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B41" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C41" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F41" t="n">
         <v>84.0</v>
@@ -9184,27 +9424,30 @@
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="O41" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="P41"/>
-      <c r="Q41"/>
+      <c r="Q41" t="s">
+        <v>532</v>
+      </c>
+      <c r="R41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B42" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C42" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F42"/>
       <c r="G42"/>
@@ -9215,25 +9458,28 @@
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="O42" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="P42"/>
-      <c r="Q42"/>
+      <c r="Q42" t="s">
+        <v>711</v>
+      </c>
+      <c r="R42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F43"/>
       <c r="G43"/>
@@ -9246,34 +9492,37 @@
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="O43" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="P43"/>
-      <c r="Q43"/>
+      <c r="Q43" t="s">
+        <v>487</v>
+      </c>
+      <c r="R43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B44" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C44" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D44" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E44" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I44"/>
       <c r="J44"/>
@@ -9283,24 +9532,27 @@
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44"/>
-      <c r="Q44"/>
+      <c r="Q44" t="s">
+        <v>712</v>
+      </c>
+      <c r="R44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I45"/>
       <c r="J45"/>
@@ -9308,13 +9560,16 @@
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="O45" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="P45"/>
-      <c r="Q45"/>
+      <c r="Q45" t="s">
+        <v>489</v>
+      </c>
+      <c r="R45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -9335,7 +9590,7 @@
         <v>19.0</v>
       </c>
       <c r="H46" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I46" t="n">
         <v>250000.0</v>
@@ -9349,21 +9604,24 @@
       </c>
       <c r="O46"/>
       <c r="P46"/>
-      <c r="Q46"/>
+      <c r="Q46" t="s">
+        <v>252</v>
+      </c>
+      <c r="R46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B47" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C47" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F47" t="n">
         <v>6.0</v>
@@ -9372,7 +9630,7 @@
         <v>6.0</v>
       </c>
       <c r="H47" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I47" t="n">
         <v>136128.0</v>
@@ -9386,31 +9644,34 @@
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O47" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="P47"/>
       <c r="Q47" t="s">
+        <v>535</v>
+      </c>
+      <c r="R47" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B48" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C48" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D48" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E48" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F48" t="n">
         <v>20.0</v>
@@ -9423,11 +9684,14 @@
       <c r="L48"/>
       <c r="M48"/>
       <c r="N48" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="O48"/>
       <c r="P48"/>
-      <c r="Q48"/>
+      <c r="Q48" t="s">
+        <v>713</v>
+      </c>
+      <c r="R48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -9440,7 +9704,7 @@
         <v>280</v>
       </c>
       <c r="D49" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E49" t="s">
         <v>282</v>
@@ -9452,7 +9716,7 @@
         <v>69.0</v>
       </c>
       <c r="H49" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I49" t="n">
         <v>320000.0</v>
@@ -9473,18 +9737,21 @@
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49" t="s">
+        <v>280</v>
+      </c>
+      <c r="R49" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B50" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C50" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
@@ -9507,17 +9774,20 @@
         <v>293</v>
       </c>
       <c r="P50"/>
-      <c r="Q50"/>
+      <c r="Q50" t="s">
+        <v>714</v>
+      </c>
+      <c r="R50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B51" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C51" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
@@ -9536,17 +9806,20 @@
         <v>336</v>
       </c>
       <c r="P51"/>
-      <c r="Q51"/>
+      <c r="Q51" t="s">
+        <v>335</v>
+      </c>
+      <c r="R51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B52" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C52" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
@@ -9559,7 +9832,7 @@
         <v>13.0</v>
       </c>
       <c r="H52" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I52" t="n">
         <v>44010.0</v>
@@ -9582,22 +9855,25 @@
       </c>
       <c r="P52"/>
       <c r="Q52" t="s">
-        <v>705</v>
+        <v>715</v>
+      </c>
+      <c r="R52" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B53" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C53" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D53"/>
       <c r="E53" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F53" t="n">
         <v>9.0</v>
@@ -9606,7 +9882,7 @@
         <v>9.0</v>
       </c>
       <c r="H53" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I53" t="n">
         <v>50562.0</v>
@@ -9622,29 +9898,32 @@
         <v>450.0</v>
       </c>
       <c r="N53" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="O53" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P53"/>
       <c r="Q53" t="s">
-        <v>706</v>
+        <v>716</v>
+      </c>
+      <c r="R53" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B54" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C54" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F54" t="n">
         <v>6.0</v>
@@ -9660,26 +9939,29 @@
       <c r="M54"/>
       <c r="N54"/>
       <c r="O54" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P54"/>
-      <c r="Q54"/>
+      <c r="Q54" t="s">
+        <v>717</v>
+      </c>
+      <c r="R54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B55" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C55" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D55" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E55" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F55" t="n">
         <v>10.0</v>
@@ -9688,7 +9970,7 @@
         <v>10.0</v>
       </c>
       <c r="H55" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I55"/>
       <c r="J55"/>
@@ -9701,18 +9983,21 @@
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55" t="s">
-        <v>707</v>
+        <v>542</v>
+      </c>
+      <c r="R55" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B56" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C56" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D56"/>
       <c r="E56" t="s">
@@ -9733,21 +10018,24 @@
         <v>421</v>
       </c>
       <c r="P56"/>
-      <c r="Q56"/>
+      <c r="Q56" t="s">
+        <v>718</v>
+      </c>
+      <c r="R56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B57" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C57" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
@@ -9759,20 +10047,23 @@
       <c r="M57"/>
       <c r="N57"/>
       <c r="O57" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P57"/>
-      <c r="Q57"/>
+      <c r="Q57" t="s">
+        <v>719</v>
+      </c>
+      <c r="R57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B58" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C58" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
@@ -9789,17 +10080,20 @@
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
-      <c r="Q58"/>
+      <c r="Q58" t="s">
+        <v>720</v>
+      </c>
+      <c r="R58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B59" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C59" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
@@ -9822,7 +10116,10 @@
         <v>438</v>
       </c>
       <c r="P59"/>
-      <c r="Q59"/>
+      <c r="Q59" t="s">
+        <v>721</v>
+      </c>
+      <c r="R59"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/dat/synchros-initiatives.xlsx
+++ b/dat/synchros-initiatives.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13950" yWindow="0" windowWidth="20880" windowHeight="7995" tabRatio="500"/>
+    <workbookView xWindow="14880" yWindow="0" windowWidth="20880" windowHeight="7995" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="748">
   <si>
     <t>A consortium of agricultural cohort studies</t>
   </si>
@@ -1399,6 +1399,9 @@
   </si>
   <si>
     <t>n_countries</t>
+  </si>
+  <si>
+    <t>region_countries</t>
   </si>
   <si>
     <t>initiative</t>
@@ -2531,13 +2534,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2547,6 +2565,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2566,57 +2620,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2907,96 +2910,96 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="37" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="37" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" ht="381.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="23">
         <v>30</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="23">
         <v>3</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="25">
         <v>1300000</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="25">
         <v>316270</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="19" t="s">
+      <c r="K3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="23" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3004,53 +3007,53 @@
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="23">
         <v>6</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="19" t="s">
+      <c r="E5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="25">
         <v>245000</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="19" t="s">
+      <c r="H5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="23" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3058,52 +3061,52 @@
       <c r="A6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
     </row>
     <row r="7" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="31">
         <v>11</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="35">
+      <c r="E7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="25">
         <v>1221156</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="19" t="s">
+      <c r="H7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="23" t="s">
         <v>38</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -3111,122 +3114,122 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
       <c r="L9" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="204" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="23">
         <v>66</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="19" t="s">
+      <c r="E12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="1:12" ht="190.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
@@ -3247,7 +3250,7 @@
       <c r="F14" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="35">
         <v>300000</v>
       </c>
       <c r="H14" s="31" t="s">
@@ -3259,7 +3262,7 @@
       <c r="J14" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="35">
         <v>1477</v>
       </c>
       <c r="L14" s="31" t="s">
@@ -3270,53 +3273,53 @@
       <c r="A15" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="33"/>
     </row>
     <row r="16" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="23">
         <v>18</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="23">
         <v>18</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="25">
         <v>346553</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="25">
         <v>346553</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="23">
         <v>180</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="23" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3324,53 +3327,53 @@
       <c r="A17" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="1:12" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="23">
         <v>13</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="23">
         <v>13</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="35">
+      <c r="F18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="25">
         <v>773499</v>
       </c>
-      <c r="H18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="19">
+      <c r="H18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="23">
         <v>100</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3378,53 +3381,53 @@
       <c r="A19" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="23" t="s">
         <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="23">
         <v>10</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="23">
         <v>10</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="25">
         <v>2662777</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="25">
         <v>2662777</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="23">
         <v>9</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="23" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3432,35 +3435,35 @@
       <c r="A21" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="20"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
     </row>
     <row r="23" spans="1:12" ht="254.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
@@ -3469,34 +3472,34 @@
       <c r="B23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="23">
         <v>17</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="23">
         <v>17</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="25">
         <v>76233</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="25">
         <v>76233</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="23">
         <v>31</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="23" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3507,49 +3510,49 @@
       <c r="B24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
     </row>
     <row r="25" spans="1:12" ht="267" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="39">
         <v>34</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="39">
         <v>34</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="37">
         <v>950000</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="37">
         <v>950000</v>
       </c>
-      <c r="I25" s="33" t="s">
+      <c r="I25" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="J25" s="33" t="s">
+      <c r="J25" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="39">
         <v>12</v>
       </c>
       <c r="L25" s="5" t="s">
@@ -3560,16 +3563,16 @@
       <c r="A26" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
       <c r="L26" s="6" t="s">
         <v>92</v>
       </c>
@@ -3578,37 +3581,37 @@
       <c r="A27" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="23">
         <v>8</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="35">
+      <c r="F27" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="25">
         <v>119952</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="19" t="s">
+      <c r="I27" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="19">
+      <c r="J27" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="23">
         <v>8</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="23" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3616,53 +3619,53 @@
       <c r="A28" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
     </row>
     <row r="29" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="23">
         <v>17</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="23">
         <v>10</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="25">
         <v>280000</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="I29" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="J29" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="23" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3670,17 +3673,17 @@
       <c r="A30" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
     </row>
     <row r="31" spans="1:12" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
@@ -3724,37 +3727,37 @@
       <c r="A32" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="23" t="s">
         <v>111</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="23">
         <v>4</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="35">
+      <c r="E32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="25">
         <v>16527</v>
       </c>
-      <c r="H32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" s="19" t="s">
+      <c r="H32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="23" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3762,87 +3765,87 @@
       <c r="A33" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="21"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
     </row>
     <row r="34" spans="1:12" ht="267.75" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
-      <c r="B34" s="21"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
     </row>
     <row r="35" spans="1:12" ht="204.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="20"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
     </row>
     <row r="36" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="23">
         <v>15</v>
       </c>
       <c r="E36" s="31">
         <v>15</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G36" s="25">
         <v>190268</v>
       </c>
-      <c r="H36" s="35">
+      <c r="H36" s="25">
         <v>190268</v>
       </c>
-      <c r="I36" s="19" t="s">
+      <c r="I36" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="J36" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K36" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L36" s="19" t="s">
+      <c r="K36" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="23" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3850,53 +3853,53 @@
       <c r="A37" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
     </row>
     <row r="38" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="23" t="s">
         <v>122</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="23">
         <v>7</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="23">
         <v>7</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G38" s="25">
         <v>42189</v>
       </c>
-      <c r="H38" s="35">
+      <c r="H38" s="25">
         <v>31000</v>
       </c>
-      <c r="I38" s="19" t="s">
+      <c r="I38" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="J38" s="19" t="s">
+      <c r="J38" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K38" s="19">
+      <c r="K38" s="23">
         <v>15</v>
       </c>
-      <c r="L38" s="19" t="s">
+      <c r="L38" s="23" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3904,52 +3907,52 @@
       <c r="A39" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="20"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
     </row>
     <row r="40" spans="1:12" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="23" t="s">
         <v>128</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="23">
         <v>18</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="23">
         <v>8</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="H40" s="35">
+      <c r="H40" s="25">
         <v>102774</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J40" s="19" t="s">
+      <c r="J40" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K40" s="19">
+      <c r="K40" s="23">
         <v>270</v>
       </c>
       <c r="L40" s="2" t="s">
@@ -3960,88 +3963,88 @@
       <c r="A41" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="21"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="40"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="34"/>
       <c r="I41" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
       <c r="L41" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
-      <c r="B42" s="21"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="40"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="34"/>
       <c r="I42" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
       <c r="L42" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
-      <c r="B43" s="21"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="40"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="34"/>
       <c r="I43" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
       <c r="L43" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
-      <c r="B44" s="21"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="40"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="34"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
       <c r="L44" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="20"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="36"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="26"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
       <c r="L45" s="3" t="s">
         <v>141</v>
       </c>
@@ -4056,31 +4059,31 @@
       <c r="C46" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="E46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="19" t="s">
+      <c r="E46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="H46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L46" s="19" t="s">
+      <c r="H46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4094,29 +4097,29 @@
       <c r="C47" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
     </row>
     <row r="49" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -4124,15 +4127,15 @@
       <c r="C49" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
     </row>
     <row r="50" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
@@ -4140,15 +4143,15 @@
       <c r="C50" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
     </row>
     <row r="51" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
@@ -4156,15 +4159,15 @@
       <c r="C51" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
     </row>
     <row r="52" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
@@ -4172,29 +4175,29 @@
       <c r="C52" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="10"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
     </row>
     <row r="54" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
@@ -4202,15 +4205,15 @@
       <c r="C54" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
     </row>
     <row r="55" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
@@ -4218,15 +4221,15 @@
       <c r="C55" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
     </row>
     <row r="56" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
@@ -4234,15 +4237,15 @@
       <c r="C56" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
     </row>
     <row r="57" spans="1:12" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -4250,250 +4253,250 @@
       <c r="C57" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
     </row>
     <row r="58" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="23" t="s">
         <v>158</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="23">
         <v>36</v>
       </c>
-      <c r="E58" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="19" t="s">
+      <c r="E58" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="19" t="s">
+      <c r="G58" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="H58" s="19" t="s">
+      <c r="H58" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="I58" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J58" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K58" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L58" s="19" t="s">
+      <c r="I58" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J58" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K58" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="23"/>
-      <c r="B59" s="21"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="23"/>
-      <c r="B60" s="21"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="10"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
     </row>
     <row r="61" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="21"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
     </row>
     <row r="62" spans="1:12" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
-      <c r="B62" s="20"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
     </row>
     <row r="63" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="23" t="s">
         <v>166</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D63" s="23">
         <v>4</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E63" s="23">
         <v>4</v>
       </c>
-      <c r="F63" s="19" t="s">
+      <c r="F63" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G63" s="35">
+      <c r="G63" s="25">
         <v>22730</v>
       </c>
-      <c r="H63" s="19" t="s">
+      <c r="H63" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="I63" s="19" t="s">
+      <c r="I63" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="J63" s="19" t="s">
+      <c r="J63" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K63" s="19">
+      <c r="K63" s="23">
         <v>1043</v>
       </c>
-      <c r="L63" s="19" t="s">
+      <c r="L63" s="23" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="23"/>
-      <c r="B64" s="21"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="10"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
     </row>
     <row r="65" spans="1:12" ht="255" x14ac:dyDescent="0.2">
-      <c r="A65" s="23"/>
-      <c r="B65" s="21"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
     </row>
     <row r="66" spans="1:12" ht="102" x14ac:dyDescent="0.2">
-      <c r="A66" s="23"/>
-      <c r="B66" s="21"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
     </row>
     <row r="67" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="23"/>
-      <c r="B67" s="21"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
     </row>
     <row r="68" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="23"/>
-      <c r="B68" s="21"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
     </row>
     <row r="69" spans="1:12" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
-      <c r="B69" s="20"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
     </row>
     <row r="70" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="27" t="s">
         <v>176</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -4502,108 +4505,108 @@
       <c r="C70" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="23">
         <v>29</v>
       </c>
-      <c r="E70" s="19">
+      <c r="E70" s="23">
         <v>24</v>
       </c>
-      <c r="F70" s="19" t="s">
+      <c r="F70" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G70" s="35">
+      <c r="G70" s="25">
         <v>1221985</v>
       </c>
-      <c r="H70" s="35">
+      <c r="H70" s="25">
         <v>1221985</v>
       </c>
-      <c r="I70" s="19" t="s">
+      <c r="I70" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="J70" s="19" t="s">
+      <c r="J70" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K70" s="19">
+      <c r="K70" s="23">
         <v>600</v>
       </c>
-      <c r="L70" s="19" t="s">
+      <c r="L70" s="23" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="24"/>
+      <c r="A71" s="29"/>
       <c r="B71" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
     </row>
     <row r="72" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="23" t="s">
         <v>183</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D72" s="23">
         <v>29</v>
       </c>
-      <c r="E72" s="19">
+      <c r="E72" s="23">
         <v>29</v>
       </c>
-      <c r="F72" s="19" t="s">
+      <c r="F72" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G72" s="19">
+      <c r="G72" s="23">
         <v>700</v>
       </c>
-      <c r="H72" s="19">
+      <c r="H72" s="23">
         <v>700</v>
       </c>
-      <c r="I72" s="19" t="s">
+      <c r="I72" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="J72" s="19" t="s">
+      <c r="J72" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K72" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L72" s="19" t="s">
+      <c r="K72" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L72" s="23" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="306.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="24"/>
-      <c r="B73" s="20"/>
+      <c r="A73" s="29"/>
+      <c r="B73" s="24"/>
       <c r="C73" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
     </row>
     <row r="74" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="27" t="s">
         <v>188</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -4612,471 +4615,471 @@
       <c r="C74" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D74" s="19">
+      <c r="D74" s="23">
         <v>14</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E74" s="23">
         <v>14</v>
       </c>
-      <c r="F74" s="19" t="s">
+      <c r="F74" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G74" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H74" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I74" s="19" t="s">
+      <c r="G74" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="J74" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K74" s="19">
+      <c r="J74" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K74" s="23">
         <v>323</v>
       </c>
       <c r="L74" s="10"/>
     </row>
     <row r="75" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
+      <c r="A75" s="28"/>
       <c r="B75" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
       <c r="L75" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="23"/>
+      <c r="A76" s="28"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
       <c r="L76" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="23"/>
+      <c r="A77" s="28"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
       <c r="L77" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="24"/>
+      <c r="A78" s="29"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="20"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
       <c r="L78" s="3" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="23" t="s">
         <v>199</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E79" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G79" s="19">
+      <c r="E79" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79" s="23">
         <v>50000</v>
       </c>
-      <c r="H79" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I79" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J79" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K79" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L79" s="19" t="s">
+      <c r="H79" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J79" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K79" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L79" s="23" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="23"/>
-      <c r="B80" s="21"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="30"/>
       <c r="C80" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
-      <c r="I80" s="21"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="21"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="30"/>
     </row>
     <row r="81" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="23"/>
-      <c r="B81" s="21"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="30"/>
       <c r="C81" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="21"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
     </row>
     <row r="82" spans="1:12" ht="204" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="21"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="30"/>
       <c r="C82" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="30"/>
     </row>
     <row r="83" spans="1:12" ht="192" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="24"/>
-      <c r="B83" s="20"/>
+      <c r="A83" s="29"/>
+      <c r="B83" s="24"/>
       <c r="C83" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
     </row>
     <row r="84" spans="1:12" ht="204" x14ac:dyDescent="0.2">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="23" t="s">
         <v>208</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D84" s="19" t="s">
+      <c r="D84" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="E84" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F84" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G84" s="19" t="s">
+      <c r="E84" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G84" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="H84" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I84" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J84" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K84" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L84" s="19" t="s">
+      <c r="H84" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I84" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J84" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K84" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L84" s="23" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="24"/>
-      <c r="B85" s="20"/>
+      <c r="A85" s="29"/>
+      <c r="B85" s="24"/>
       <c r="C85" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
     </row>
     <row r="86" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="23" t="s">
         <v>215</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D86" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F86" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G86" s="35">
+      <c r="D86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G86" s="25">
         <v>100000</v>
       </c>
-      <c r="H86" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I86" s="19" t="s">
+      <c r="H86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I86" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J86" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K86" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L86" s="19" t="s">
+      <c r="J86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L86" s="23" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A87" s="23"/>
-      <c r="B87" s="21"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="30"/>
       <c r="C87" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="30"/>
+      <c r="L87" s="30"/>
     </row>
     <row r="88" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="24"/>
-      <c r="B88" s="20"/>
+      <c r="A88" s="29"/>
+      <c r="B88" s="24"/>
       <c r="C88" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
     </row>
     <row r="89" spans="1:12" ht="267.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="23" t="s">
         <v>222</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D89" s="19">
+      <c r="D89" s="23">
         <v>9</v>
       </c>
-      <c r="E89" s="19">
+      <c r="E89" s="23">
         <v>6</v>
       </c>
-      <c r="F89" s="19" t="s">
+      <c r="F89" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G89" s="19" t="s">
+      <c r="G89" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="H89" s="35">
+      <c r="H89" s="25">
         <v>150000</v>
       </c>
-      <c r="I89" s="19" t="s">
+      <c r="I89" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="J89" s="19" t="s">
+      <c r="J89" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K89" s="19">
+      <c r="K89" s="23">
         <v>15</v>
       </c>
-      <c r="L89" s="19" t="s">
+      <c r="L89" s="23" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="280.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="23"/>
-      <c r="B90" s="21"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="30"/>
       <c r="C90" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="21"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="30"/>
+      <c r="L90" s="30"/>
     </row>
     <row r="91" spans="1:12" ht="243" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="24"/>
-      <c r="B91" s="20"/>
+      <c r="A91" s="29"/>
+      <c r="B91" s="24"/>
       <c r="C91" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="20"/>
-      <c r="L91" s="20"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
     </row>
     <row r="92" spans="1:12" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B92" s="23" t="s">
         <v>230</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="E92" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F92" s="19" t="s">
+      <c r="E92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G92" s="19" t="s">
+      <c r="G92" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="H92" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I92" s="19" t="s">
+      <c r="H92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I92" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="J92" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K92" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L92" s="19" t="s">
+      <c r="J92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L92" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="293.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="23"/>
-      <c r="B93" s="21"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="30"/>
       <c r="C93" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="21"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="30"/>
+      <c r="L93" s="30"/>
     </row>
     <row r="94" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="24"/>
-      <c r="B94" s="20"/>
+      <c r="A94" s="29"/>
+      <c r="B94" s="24"/>
       <c r="C94" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
-      <c r="K94" s="20"/>
-      <c r="L94" s="20"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
     </row>
     <row r="95" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="23" t="s">
         <v>237</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -5085,28 +5088,28 @@
       <c r="D95" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E95" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F95" s="19" t="s">
+      <c r="E95" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G95" s="35">
+      <c r="G95" s="25">
         <v>315000</v>
       </c>
-      <c r="H95" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I95" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J95" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K95" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L95" s="19" t="s">
+      <c r="H95" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I95" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J95" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K95" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L95" s="23" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5114,71 +5117,71 @@
       <c r="A96" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B96" s="21"/>
+      <c r="B96" s="30"/>
       <c r="C96" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D96" s="10"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="40"/>
-      <c r="H96" s="21"/>
-      <c r="I96" s="21"/>
-      <c r="J96" s="21"/>
-      <c r="K96" s="21"/>
-      <c r="L96" s="21"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="30"/>
     </row>
     <row r="97" spans="1:12" ht="294" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="20"/>
+      <c r="B97" s="24"/>
       <c r="C97" s="9"/>
       <c r="D97" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="20"/>
-      <c r="L97" s="20"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
     </row>
     <row r="98" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="B98" s="23" t="s">
         <v>245</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D98" s="19" t="s">
+      <c r="D98" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="E98" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F98" s="19" t="s">
+      <c r="E98" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G98" s="19" t="s">
+      <c r="G98" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="H98" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I98" s="19" t="s">
+      <c r="H98" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I98" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="J98" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K98" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L98" s="19" t="s">
+      <c r="J98" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K98" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L98" s="23" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5186,19 +5189,19 @@
       <c r="A99" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="B99" s="20"/>
+      <c r="B99" s="24"/>
       <c r="C99" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="20"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="20"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
     </row>
     <row r="100" spans="1:12" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
@@ -5239,7 +5242,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="37" t="s">
+      <c r="A101" s="19" t="s">
         <v>259</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -5248,54 +5251,54 @@
       <c r="C101" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D101" s="19">
+      <c r="D101" s="23">
         <v>6</v>
       </c>
-      <c r="E101" s="19">
+      <c r="E101" s="23">
         <v>6</v>
       </c>
-      <c r="F101" s="19" t="s">
+      <c r="F101" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G101" s="35">
+      <c r="G101" s="25">
         <v>136128</v>
       </c>
-      <c r="H101" s="35">
+      <c r="H101" s="25">
         <v>136128</v>
       </c>
-      <c r="I101" s="19" t="s">
+      <c r="I101" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="J101" s="19" t="s">
+      <c r="J101" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="K101" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L101" s="19" t="s">
+      <c r="K101" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L101" s="23" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="39"/>
+      <c r="A102" s="20"/>
       <c r="B102" s="3" t="s">
         <v>261</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="20"/>
-      <c r="K102" s="20"/>
-      <c r="L102" s="20"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
     </row>
     <row r="103" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A103" s="37" t="s">
+      <c r="A103" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -5304,179 +5307,179 @@
       <c r="C103" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D103" s="19">
+      <c r="D103" s="23">
         <v>373</v>
       </c>
-      <c r="E103" s="19" t="s">
+      <c r="E103" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F103" s="19" t="s">
+      <c r="F103" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G103" s="19" t="s">
+      <c r="G103" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="H103" s="19" t="s">
+      <c r="H103" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="I103" s="19" t="s">
+      <c r="I103" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="J103" s="19" t="s">
+      <c r="J103" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K103" s="19" t="s">
+      <c r="K103" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="L103" s="19" t="s">
+      <c r="L103" s="23" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="38"/>
+      <c r="A104" s="41"/>
       <c r="B104" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C104" s="10"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="21"/>
-      <c r="H104" s="21"/>
-      <c r="I104" s="21"/>
-      <c r="J104" s="21"/>
-      <c r="K104" s="21"/>
-      <c r="L104" s="21"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
+      <c r="K104" s="30"/>
+      <c r="L104" s="30"/>
     </row>
     <row r="105" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="38"/>
+      <c r="A105" s="41"/>
       <c r="B105" s="8"/>
       <c r="C105" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="21"/>
-      <c r="I105" s="21"/>
-      <c r="J105" s="21"/>
-      <c r="K105" s="21"/>
-      <c r="L105" s="21"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
+      <c r="K105" s="30"/>
+      <c r="L105" s="30"/>
     </row>
     <row r="106" spans="1:12" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="39"/>
+      <c r="A106" s="20"/>
       <c r="B106" s="9"/>
       <c r="C106" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="20"/>
-      <c r="J106" s="20"/>
-      <c r="K106" s="20"/>
-      <c r="L106" s="20"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="24"/>
+      <c r="L106" s="24"/>
     </row>
     <row r="107" spans="1:12" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="37" t="s">
+      <c r="A107" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="B107" s="19" t="s">
+      <c r="B107" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D107" s="19">
+      <c r="D107" s="23">
         <v>20</v>
       </c>
-      <c r="E107" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F107" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G107" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H107" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I107" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J107" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K107" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L107" s="19" t="s">
+      <c r="E107" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F107" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G107" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H107" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I107" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J107" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K107" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L107" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" s="38"/>
-      <c r="B108" s="21"/>
+      <c r="A108" s="41"/>
+      <c r="B108" s="30"/>
       <c r="C108" s="10"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="21"/>
-      <c r="H108" s="21"/>
-      <c r="I108" s="21"/>
-      <c r="J108" s="21"/>
-      <c r="K108" s="21"/>
-      <c r="L108" s="21"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
+      <c r="K108" s="30"/>
+      <c r="L108" s="30"/>
     </row>
     <row r="109" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="38"/>
-      <c r="B109" s="21"/>
+      <c r="A109" s="41"/>
+      <c r="B109" s="30"/>
       <c r="C109" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D109" s="21"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="21"/>
-      <c r="H109" s="21"/>
-      <c r="I109" s="21"/>
-      <c r="J109" s="21"/>
-      <c r="K109" s="21"/>
-      <c r="L109" s="21"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
+      <c r="K109" s="30"/>
+      <c r="L109" s="30"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" s="38"/>
-      <c r="B110" s="21"/>
+      <c r="A110" s="41"/>
+      <c r="B110" s="30"/>
       <c r="C110" s="10"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="21"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="21"/>
-      <c r="H110" s="21"/>
-      <c r="I110" s="21"/>
-      <c r="J110" s="21"/>
-      <c r="K110" s="21"/>
-      <c r="L110" s="21"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="30"/>
+      <c r="K110" s="30"/>
+      <c r="L110" s="30"/>
     </row>
     <row r="111" spans="1:12" ht="243" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="39"/>
-      <c r="B111" s="20"/>
+      <c r="A111" s="20"/>
+      <c r="B111" s="24"/>
       <c r="C111" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="20"/>
-      <c r="I111" s="20"/>
-      <c r="J111" s="20"/>
-      <c r="K111" s="20"/>
-      <c r="L111" s="20"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="24"/>
     </row>
     <row r="112" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
@@ -5517,37 +5520,37 @@
       </c>
     </row>
     <row r="113" spans="1:12" ht="318.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="37" t="s">
+      <c r="A113" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B113" s="19" t="s">
+      <c r="B113" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D113" s="19">
+      <c r="D113" s="23">
         <v>6</v>
       </c>
-      <c r="E113" s="19">
+      <c r="E113" s="23">
         <v>6</v>
       </c>
-      <c r="F113" s="19" t="s">
+      <c r="F113" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G113" s="19" t="s">
+      <c r="G113" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="H113" s="19" t="s">
+      <c r="H113" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="I113" s="19" t="s">
+      <c r="I113" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="J113" s="19" t="s">
+      <c r="J113" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K113" s="19" t="s">
+      <c r="K113" s="23" t="s">
         <v>38</v>
       </c>
       <c r="L113" s="2" t="s">
@@ -5555,51 +5558,51 @@
       </c>
     </row>
     <row r="114" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A114" s="38"/>
-      <c r="B114" s="21"/>
+      <c r="A114" s="41"/>
+      <c r="B114" s="30"/>
       <c r="C114" s="10"/>
-      <c r="D114" s="21"/>
-      <c r="E114" s="21"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="21"/>
-      <c r="H114" s="21"/>
-      <c r="I114" s="21"/>
-      <c r="J114" s="21"/>
-      <c r="K114" s="21"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="30"/>
+      <c r="K114" s="30"/>
       <c r="L114" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="38"/>
-      <c r="B115" s="21"/>
+      <c r="A115" s="41"/>
+      <c r="B115" s="30"/>
       <c r="C115" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
-      <c r="I115" s="21"/>
-      <c r="J115" s="21"/>
-      <c r="K115" s="21"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="30"/>
+      <c r="I115" s="30"/>
+      <c r="J115" s="30"/>
+      <c r="K115" s="30"/>
       <c r="L115" s="8"/>
     </row>
     <row r="116" spans="1:12" ht="294" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="39"/>
-      <c r="B116" s="20"/>
+      <c r="A116" s="20"/>
+      <c r="B116" s="24"/>
       <c r="C116" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="20"/>
-      <c r="I116" s="20"/>
-      <c r="J116" s="20"/>
-      <c r="K116" s="20"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="24"/>
+      <c r="J116" s="24"/>
+      <c r="K116" s="24"/>
       <c r="L116" s="9"/>
     </row>
     <row r="117" spans="1:12" ht="396" thickBot="1" x14ac:dyDescent="0.25">
@@ -5717,182 +5720,182 @@
       </c>
     </row>
     <row r="120" spans="1:12" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="22" t="s">
+      <c r="A120" s="27" t="s">
         <v>310</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C120" s="33" t="s">
+      <c r="C120" s="39" t="s">
         <v>312</v>
       </c>
-      <c r="D120" s="19">
+      <c r="D120" s="23">
         <v>43</v>
       </c>
-      <c r="E120" s="19">
+      <c r="E120" s="23">
         <v>43</v>
       </c>
-      <c r="F120" s="19" t="s">
+      <c r="F120" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G120" s="35">
+      <c r="G120" s="25">
         <v>1000000</v>
       </c>
-      <c r="H120" s="35">
+      <c r="H120" s="25">
         <v>1000000</v>
       </c>
-      <c r="I120" s="19" t="s">
+      <c r="I120" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="J120" s="19" t="s">
+      <c r="J120" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="K120" s="19" t="s">
+      <c r="K120" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="L120" s="19" t="s">
+      <c r="L120" s="23" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="24"/>
+      <c r="A121" s="29"/>
       <c r="B121" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C121" s="34"/>
-      <c r="D121" s="20"/>
-      <c r="E121" s="20"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="36"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="20"/>
-      <c r="J121" s="20"/>
-      <c r="K121" s="20"/>
-      <c r="L121" s="20"/>
+      <c r="C121" s="40"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="26"/>
+      <c r="I121" s="24"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="24"/>
+      <c r="L121" s="24"/>
     </row>
     <row r="122" spans="1:12" ht="102" x14ac:dyDescent="0.2">
-      <c r="A122" s="22" t="s">
+      <c r="A122" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="B122" s="19" t="s">
+      <c r="B122" s="23" t="s">
         <v>318</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D122" s="19" t="s">
+      <c r="D122" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="E122" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F122" s="19" t="s">
+      <c r="E122" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F122" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G122" s="19" t="s">
+      <c r="G122" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="H122" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I122" s="19" t="s">
+      <c r="H122" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I122" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="J122" s="19" t="s">
+      <c r="J122" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K122" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L122" s="19" t="s">
+      <c r="K122" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L122" s="23" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="23"/>
-      <c r="B123" s="21"/>
+      <c r="A123" s="28"/>
+      <c r="B123" s="30"/>
       <c r="C123" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D123" s="21"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="21"/>
-      <c r="H123" s="21"/>
-      <c r="I123" s="21"/>
-      <c r="J123" s="21"/>
-      <c r="K123" s="21"/>
-      <c r="L123" s="21"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="30"/>
+      <c r="K123" s="30"/>
+      <c r="L123" s="30"/>
     </row>
     <row r="124" spans="1:12" ht="90" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="24"/>
-      <c r="B124" s="20"/>
+      <c r="A124" s="29"/>
+      <c r="B124" s="24"/>
       <c r="C124" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D124" s="20"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="20"/>
-      <c r="H124" s="20"/>
-      <c r="I124" s="20"/>
-      <c r="J124" s="20"/>
-      <c r="K124" s="20"/>
-      <c r="L124" s="20"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="24"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
     </row>
     <row r="125" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="22" t="s">
+      <c r="A125" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="B125" s="19" t="s">
+      <c r="B125" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="C125" s="19" t="s">
+      <c r="C125" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="D125" s="19" t="s">
+      <c r="D125" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="E125" s="19" t="s">
+      <c r="E125" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="F125" s="19" t="s">
+      <c r="F125" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="G125" s="19" t="s">
+      <c r="G125" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="H125" s="19" t="s">
+      <c r="H125" s="23" t="s">
         <v>330</v>
       </c>
       <c r="I125" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="J125" s="19" t="s">
+      <c r="J125" s="23" t="s">
         <v>330</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="L125" s="19" t="s">
+      <c r="L125" s="23" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="24"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="20"/>
-      <c r="D126" s="20"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="20"/>
-      <c r="H126" s="20"/>
-      <c r="I126" s="32"/>
-      <c r="J126" s="20"/>
+      <c r="A126" s="29"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="33"/>
+      <c r="J126" s="24"/>
       <c r="K126" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="L126" s="20"/>
+      <c r="L126" s="24"/>
     </row>
     <row r="127" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
@@ -6012,37 +6015,37 @@
       <c r="A130" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B130" s="19" t="s">
+      <c r="B130" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="C130" s="19" t="s">
+      <c r="C130" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="D130" s="19">
+      <c r="D130" s="23">
         <v>9</v>
       </c>
-      <c r="E130" s="19">
+      <c r="E130" s="23">
         <v>9</v>
       </c>
-      <c r="F130" s="19" t="s">
+      <c r="F130" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G130" s="25">
+      <c r="G130" s="42">
         <v>50562</v>
       </c>
-      <c r="H130" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I130" s="19" t="s">
+      <c r="H130" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I130" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="J130" s="19" t="s">
+      <c r="J130" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K130" s="27">
+      <c r="K130" s="44">
         <v>450</v>
       </c>
-      <c r="L130" s="19" t="s">
+      <c r="L130" s="23" t="s">
         <v>353</v>
       </c>
     </row>
@@ -6050,53 +6053,53 @@
       <c r="A131" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B131" s="20"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="26"/>
-      <c r="H131" s="20"/>
-      <c r="I131" s="20"/>
-      <c r="J131" s="20"/>
-      <c r="K131" s="28"/>
-      <c r="L131" s="20"/>
+      <c r="B131" s="24"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="43"/>
+      <c r="H131" s="24"/>
+      <c r="I131" s="24"/>
+      <c r="J131" s="24"/>
+      <c r="K131" s="45"/>
+      <c r="L131" s="24"/>
     </row>
     <row r="132" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="B132" s="19" t="s">
+      <c r="B132" s="23" t="s">
         <v>356</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D132" s="27">
+      <c r="D132" s="44">
         <v>3</v>
       </c>
-      <c r="E132" s="19">
+      <c r="E132" s="23">
         <v>3</v>
       </c>
-      <c r="F132" s="19" t="s">
+      <c r="F132" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G132" s="19">
+      <c r="G132" s="23">
         <v>970</v>
       </c>
-      <c r="H132" s="19">
+      <c r="H132" s="23">
         <v>970</v>
       </c>
-      <c r="I132" s="19" t="s">
+      <c r="I132" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="J132" s="19" t="s">
+      <c r="J132" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K132" s="27" t="s">
+      <c r="K132" s="44" t="s">
         <v>360</v>
       </c>
-      <c r="L132" s="19" t="s">
+      <c r="L132" s="23" t="s">
         <v>361</v>
       </c>
     </row>
@@ -6104,113 +6107,113 @@
       <c r="A133" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B133" s="20"/>
+      <c r="B133" s="24"/>
       <c r="C133" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D133" s="28"/>
-      <c r="E133" s="20"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="20"/>
-      <c r="H133" s="20"/>
-      <c r="I133" s="20"/>
-      <c r="J133" s="20"/>
-      <c r="K133" s="28"/>
-      <c r="L133" s="20"/>
+      <c r="D133" s="45"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="24"/>
+      <c r="I133" s="24"/>
+      <c r="J133" s="24"/>
+      <c r="K133" s="45"/>
+      <c r="L133" s="24"/>
     </row>
     <row r="134" spans="1:12" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="29" t="s">
+      <c r="A134" s="46" t="s">
         <v>11</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C134" s="19" t="s">
+      <c r="C134" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="D134" s="27">
+      <c r="D134" s="44">
         <v>9</v>
       </c>
-      <c r="E134" s="19">
+      <c r="E134" s="23">
         <v>9</v>
       </c>
-      <c r="F134" s="19" t="s">
+      <c r="F134" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G134" s="25">
+      <c r="G134" s="42">
         <v>1190000</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="I134" s="19" t="s">
+      <c r="I134" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="J134" s="19" t="s">
+      <c r="J134" s="23" t="s">
         <v>37</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="L134" s="19" t="s">
+      <c r="L134" s="23" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="30"/>
+      <c r="A135" s="47"/>
       <c r="B135" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C135" s="20"/>
-      <c r="D135" s="28"/>
-      <c r="E135" s="20"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="26"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="45"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="43"/>
       <c r="H135" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="I135" s="20"/>
-      <c r="J135" s="20"/>
+      <c r="I135" s="24"/>
+      <c r="J135" s="24"/>
       <c r="K135" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="L135" s="20"/>
+      <c r="L135" s="24"/>
     </row>
     <row r="136" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="B136" s="19" t="s">
+      <c r="B136" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="C136" s="19" t="s">
+      <c r="C136" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D136" s="27">
+      <c r="D136" s="44">
         <v>9</v>
       </c>
-      <c r="E136" s="19">
+      <c r="E136" s="23">
         <v>9</v>
       </c>
-      <c r="F136" s="19" t="s">
+      <c r="F136" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G136" s="25">
+      <c r="G136" s="42">
         <v>40000</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="I136" s="19" t="s">
+      <c r="I136" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="J136" s="19" t="s">
+      <c r="J136" s="23" t="s">
         <v>37</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="L136" s="19" t="s">
+      <c r="L136" s="23" t="s">
         <v>377</v>
       </c>
     </row>
@@ -6218,57 +6221,57 @@
       <c r="A137" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="B137" s="20"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="28"/>
-      <c r="E137" s="20"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="26"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="45"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="43"/>
       <c r="H137" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="I137" s="20"/>
-      <c r="J137" s="20"/>
+      <c r="I137" s="24"/>
+      <c r="J137" s="24"/>
       <c r="K137" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="L137" s="20"/>
+      <c r="L137" s="24"/>
     </row>
     <row r="138" spans="1:12" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="B138" s="19" t="s">
+      <c r="B138" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="C138" s="19" t="s">
+      <c r="C138" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="D138" s="27">
+      <c r="D138" s="44">
         <v>6</v>
       </c>
-      <c r="E138" s="19">
+      <c r="E138" s="23">
         <v>6</v>
       </c>
-      <c r="F138" s="19" t="s">
+      <c r="F138" s="23" t="s">
         <v>4</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="H138" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I138" s="19" t="s">
+      <c r="H138" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I138" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="J138" s="19" t="s">
+      <c r="J138" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K138" s="27">
+      <c r="K138" s="44">
         <v>20</v>
       </c>
-      <c r="L138" s="19" t="s">
+      <c r="L138" s="23" t="s">
         <v>385</v>
       </c>
     </row>
@@ -6276,55 +6279,55 @@
       <c r="A139" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B139" s="20"/>
-      <c r="C139" s="20"/>
-      <c r="D139" s="28"/>
-      <c r="E139" s="20"/>
-      <c r="F139" s="20"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="45"/>
+      <c r="E139" s="24"/>
+      <c r="F139" s="24"/>
       <c r="G139" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="H139" s="20"/>
-      <c r="I139" s="20"/>
-      <c r="J139" s="20"/>
-      <c r="K139" s="28"/>
-      <c r="L139" s="20"/>
+      <c r="H139" s="24"/>
+      <c r="I139" s="24"/>
+      <c r="J139" s="24"/>
+      <c r="K139" s="45"/>
+      <c r="L139" s="24"/>
     </row>
     <row r="140" spans="1:12" ht="318" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="B140" s="19" t="s">
+      <c r="B140" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="C140" s="19" t="s">
+      <c r="C140" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="D140" s="27">
+      <c r="D140" s="44">
         <v>17</v>
       </c>
-      <c r="E140" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F140" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G140" s="19" t="s">
+      <c r="E140" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F140" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G140" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="H140" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I140" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J140" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K140" s="19" t="s">
+      <c r="H140" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I140" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J140" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K140" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="L140" s="19" t="s">
+      <c r="L140" s="23" t="s">
         <v>392</v>
       </c>
     </row>
@@ -6332,53 +6335,53 @@
       <c r="A141" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="B141" s="20"/>
-      <c r="C141" s="20"/>
-      <c r="D141" s="28"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="20"/>
-      <c r="G141" s="20"/>
-      <c r="H141" s="20"/>
-      <c r="I141" s="20"/>
-      <c r="J141" s="20"/>
-      <c r="K141" s="20"/>
-      <c r="L141" s="20"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="45"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="24"/>
+      <c r="H141" s="24"/>
+      <c r="I141" s="24"/>
+      <c r="J141" s="24"/>
+      <c r="K141" s="24"/>
+      <c r="L141" s="24"/>
     </row>
     <row r="142" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B142" s="19" t="s">
+      <c r="B142" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="C142" s="19" t="s">
+      <c r="C142" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="D142" s="19">
+      <c r="D142" s="23">
         <v>26</v>
       </c>
-      <c r="E142" s="19">
+      <c r="E142" s="23">
         <v>26</v>
       </c>
-      <c r="F142" s="19" t="s">
+      <c r="F142" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G142" s="25">
+      <c r="G142" s="42">
         <v>839666</v>
       </c>
-      <c r="H142" s="25">
+      <c r="H142" s="42">
         <v>839666</v>
       </c>
-      <c r="I142" s="19" t="s">
+      <c r="I142" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="J142" s="19" t="s">
+      <c r="J142" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K142" s="27">
+      <c r="K142" s="44">
         <v>1300</v>
       </c>
-      <c r="L142" s="19" t="s">
+      <c r="L142" s="23" t="s">
         <v>398</v>
       </c>
     </row>
@@ -6386,53 +6389,53 @@
       <c r="A143" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="B143" s="20"/>
-      <c r="C143" s="20"/>
-      <c r="D143" s="20"/>
-      <c r="E143" s="20"/>
-      <c r="F143" s="20"/>
-      <c r="G143" s="26"/>
-      <c r="H143" s="26"/>
-      <c r="I143" s="20"/>
-      <c r="J143" s="20"/>
-      <c r="K143" s="28"/>
-      <c r="L143" s="20"/>
+      <c r="B143" s="24"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="43"/>
+      <c r="H143" s="43"/>
+      <c r="I143" s="24"/>
+      <c r="J143" s="24"/>
+      <c r="K143" s="45"/>
+      <c r="L143" s="24"/>
     </row>
     <row r="144" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A144" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="B144" s="19" t="s">
+      <c r="B144" s="23" t="s">
         <v>401</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D144" s="19">
+      <c r="D144" s="23">
         <v>6</v>
       </c>
-      <c r="E144" s="19">
+      <c r="E144" s="23">
         <v>6</v>
       </c>
-      <c r="F144" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G144" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H144" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I144" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J144" s="19" t="s">
+      <c r="F144" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G144" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H144" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I144" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J144" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K144" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L144" s="19" t="s">
+      <c r="K144" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L144" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6440,99 +6443,99 @@
       <c r="A145" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="B145" s="21"/>
+      <c r="B145" s="30"/>
       <c r="C145" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D145" s="21"/>
-      <c r="E145" s="21"/>
-      <c r="F145" s="21"/>
-      <c r="G145" s="21"/>
-      <c r="H145" s="21"/>
-      <c r="I145" s="21"/>
-      <c r="J145" s="21"/>
-      <c r="K145" s="21"/>
-      <c r="L145" s="21"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="30"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="30"/>
+      <c r="I145" s="30"/>
+      <c r="J145" s="30"/>
+      <c r="K145" s="30"/>
+      <c r="L145" s="30"/>
     </row>
     <row r="146" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
-      <c r="B146" s="21"/>
+      <c r="B146" s="30"/>
       <c r="C146" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D146" s="21"/>
-      <c r="E146" s="21"/>
-      <c r="F146" s="21"/>
-      <c r="G146" s="21"/>
-      <c r="H146" s="21"/>
-      <c r="I146" s="21"/>
-      <c r="J146" s="21"/>
-      <c r="K146" s="21"/>
-      <c r="L146" s="21"/>
+      <c r="D146" s="30"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="30"/>
+      <c r="G146" s="30"/>
+      <c r="H146" s="30"/>
+      <c r="I146" s="30"/>
+      <c r="J146" s="30"/>
+      <c r="K146" s="30"/>
+      <c r="L146" s="30"/>
     </row>
     <row r="147" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
-      <c r="B147" s="21"/>
+      <c r="B147" s="30"/>
       <c r="C147" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D147" s="21"/>
-      <c r="E147" s="21"/>
-      <c r="F147" s="21"/>
-      <c r="G147" s="21"/>
-      <c r="H147" s="21"/>
-      <c r="I147" s="21"/>
-      <c r="J147" s="21"/>
-      <c r="K147" s="21"/>
-      <c r="L147" s="21"/>
+      <c r="D147" s="30"/>
+      <c r="E147" s="30"/>
+      <c r="F147" s="30"/>
+      <c r="G147" s="30"/>
+      <c r="H147" s="30"/>
+      <c r="I147" s="30"/>
+      <c r="J147" s="30"/>
+      <c r="K147" s="30"/>
+      <c r="L147" s="30"/>
     </row>
     <row r="148" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
-      <c r="B148" s="21"/>
+      <c r="B148" s="30"/>
       <c r="C148" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D148" s="21"/>
-      <c r="E148" s="21"/>
-      <c r="F148" s="21"/>
-      <c r="G148" s="21"/>
-      <c r="H148" s="21"/>
-      <c r="I148" s="21"/>
-      <c r="J148" s="21"/>
-      <c r="K148" s="21"/>
-      <c r="L148" s="21"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="30"/>
+      <c r="F148" s="30"/>
+      <c r="G148" s="30"/>
+      <c r="H148" s="30"/>
+      <c r="I148" s="30"/>
+      <c r="J148" s="30"/>
+      <c r="K148" s="30"/>
+      <c r="L148" s="30"/>
     </row>
     <row r="149" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
-      <c r="B149" s="21"/>
+      <c r="B149" s="30"/>
       <c r="C149" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D149" s="21"/>
-      <c r="E149" s="21"/>
-      <c r="F149" s="21"/>
-      <c r="G149" s="21"/>
-      <c r="H149" s="21"/>
-      <c r="I149" s="21"/>
-      <c r="J149" s="21"/>
-      <c r="K149" s="21"/>
-      <c r="L149" s="21"/>
+      <c r="D149" s="30"/>
+      <c r="E149" s="30"/>
+      <c r="F149" s="30"/>
+      <c r="G149" s="30"/>
+      <c r="H149" s="30"/>
+      <c r="I149" s="30"/>
+      <c r="J149" s="30"/>
+      <c r="K149" s="30"/>
+      <c r="L149" s="30"/>
     </row>
     <row r="150" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
-      <c r="B150" s="20"/>
+      <c r="B150" s="24"/>
       <c r="C150" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="D150" s="20"/>
-      <c r="E150" s="20"/>
-      <c r="F150" s="20"/>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20"/>
-      <c r="I150" s="20"/>
-      <c r="J150" s="20"/>
-      <c r="K150" s="20"/>
-      <c r="L150" s="20"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="24"/>
+      <c r="G150" s="24"/>
+      <c r="H150" s="24"/>
+      <c r="I150" s="24"/>
+      <c r="J150" s="24"/>
+      <c r="K150" s="24"/>
+      <c r="L150" s="24"/>
     </row>
     <row r="151" spans="1:12" ht="306.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="s">
@@ -6573,58 +6576,58 @@
       </c>
     </row>
     <row r="152" spans="1:12" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="22" t="s">
+      <c r="A152" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="B152" s="19" t="s">
+      <c r="B152" s="23" t="s">
         <v>415</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D152" s="19">
+      <c r="D152" s="23">
         <v>10</v>
       </c>
-      <c r="E152" s="19">
+      <c r="E152" s="23">
         <v>10</v>
       </c>
-      <c r="F152" s="19" t="s">
+      <c r="F152" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G152" s="19" t="s">
+      <c r="G152" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="H152" s="19" t="s">
+      <c r="H152" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="I152" s="19" t="s">
+      <c r="I152" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="J152" s="19" t="s">
+      <c r="J152" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K152" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L152" s="19" t="s">
+      <c r="K152" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L152" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="24"/>
-      <c r="B153" s="20"/>
+      <c r="A153" s="29"/>
+      <c r="B153" s="24"/>
       <c r="C153" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="20"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20"/>
-      <c r="I153" s="20"/>
-      <c r="J153" s="20"/>
-      <c r="K153" s="20"/>
-      <c r="L153" s="20"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="24"/>
+      <c r="G153" s="24"/>
+      <c r="H153" s="24"/>
+      <c r="I153" s="24"/>
+      <c r="J153" s="24"/>
+      <c r="K153" s="24"/>
+      <c r="L153" s="24"/>
     </row>
     <row r="154" spans="1:12" ht="408.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="s">
@@ -6665,170 +6668,170 @@
       </c>
     </row>
     <row r="155" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="22" t="s">
+      <c r="A155" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="B155" s="19" t="s">
+      <c r="B155" s="23" t="s">
         <v>425</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L155" s="19" t="s">
+      <c r="D155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L155" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A156" s="23"/>
-      <c r="B156" s="21"/>
+      <c r="A156" s="28"/>
+      <c r="B156" s="30"/>
       <c r="C156" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D156" s="21"/>
-      <c r="E156" s="21"/>
-      <c r="F156" s="21"/>
-      <c r="G156" s="21"/>
-      <c r="H156" s="21"/>
-      <c r="I156" s="21"/>
-      <c r="J156" s="21"/>
-      <c r="K156" s="21"/>
-      <c r="L156" s="21"/>
+      <c r="D156" s="30"/>
+      <c r="E156" s="30"/>
+      <c r="F156" s="30"/>
+      <c r="G156" s="30"/>
+      <c r="H156" s="30"/>
+      <c r="I156" s="30"/>
+      <c r="J156" s="30"/>
+      <c r="K156" s="30"/>
+      <c r="L156" s="30"/>
     </row>
     <row r="157" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="23"/>
-      <c r="B157" s="21"/>
+      <c r="A157" s="28"/>
+      <c r="B157" s="30"/>
       <c r="C157" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D157" s="21"/>
-      <c r="E157" s="21"/>
-      <c r="F157" s="21"/>
-      <c r="G157" s="21"/>
-      <c r="H157" s="21"/>
-      <c r="I157" s="21"/>
-      <c r="J157" s="21"/>
-      <c r="K157" s="21"/>
-      <c r="L157" s="21"/>
+      <c r="D157" s="30"/>
+      <c r="E157" s="30"/>
+      <c r="F157" s="30"/>
+      <c r="G157" s="30"/>
+      <c r="H157" s="30"/>
+      <c r="I157" s="30"/>
+      <c r="J157" s="30"/>
+      <c r="K157" s="30"/>
+      <c r="L157" s="30"/>
     </row>
     <row r="158" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A158" s="23"/>
-      <c r="B158" s="21"/>
+      <c r="A158" s="28"/>
+      <c r="B158" s="30"/>
       <c r="C158" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D158" s="21"/>
-      <c r="E158" s="21"/>
-      <c r="F158" s="21"/>
-      <c r="G158" s="21"/>
-      <c r="H158" s="21"/>
-      <c r="I158" s="21"/>
-      <c r="J158" s="21"/>
-      <c r="K158" s="21"/>
-      <c r="L158" s="21"/>
+      <c r="D158" s="30"/>
+      <c r="E158" s="30"/>
+      <c r="F158" s="30"/>
+      <c r="G158" s="30"/>
+      <c r="H158" s="30"/>
+      <c r="I158" s="30"/>
+      <c r="J158" s="30"/>
+      <c r="K158" s="30"/>
+      <c r="L158" s="30"/>
     </row>
     <row r="159" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="23"/>
-      <c r="B159" s="21"/>
+      <c r="A159" s="28"/>
+      <c r="B159" s="30"/>
       <c r="C159" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D159" s="21"/>
-      <c r="E159" s="21"/>
-      <c r="F159" s="21"/>
-      <c r="G159" s="21"/>
-      <c r="H159" s="21"/>
-      <c r="I159" s="21"/>
-      <c r="J159" s="21"/>
-      <c r="K159" s="21"/>
-      <c r="L159" s="21"/>
+      <c r="D159" s="30"/>
+      <c r="E159" s="30"/>
+      <c r="F159" s="30"/>
+      <c r="G159" s="30"/>
+      <c r="H159" s="30"/>
+      <c r="I159" s="30"/>
+      <c r="J159" s="30"/>
+      <c r="K159" s="30"/>
+      <c r="L159" s="30"/>
     </row>
     <row r="160" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A160" s="23"/>
-      <c r="B160" s="21"/>
+      <c r="A160" s="28"/>
+      <c r="B160" s="30"/>
       <c r="C160" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D160" s="21"/>
-      <c r="E160" s="21"/>
-      <c r="F160" s="21"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="21"/>
-      <c r="I160" s="21"/>
-      <c r="J160" s="21"/>
-      <c r="K160" s="21"/>
-      <c r="L160" s="21"/>
+      <c r="D160" s="30"/>
+      <c r="E160" s="30"/>
+      <c r="F160" s="30"/>
+      <c r="G160" s="30"/>
+      <c r="H160" s="30"/>
+      <c r="I160" s="30"/>
+      <c r="J160" s="30"/>
+      <c r="K160" s="30"/>
+      <c r="L160" s="30"/>
     </row>
     <row r="161" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="23"/>
-      <c r="B161" s="21"/>
+      <c r="A161" s="28"/>
+      <c r="B161" s="30"/>
       <c r="C161" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D161" s="21"/>
-      <c r="E161" s="21"/>
-      <c r="F161" s="21"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="21"/>
-      <c r="I161" s="21"/>
-      <c r="J161" s="21"/>
-      <c r="K161" s="21"/>
-      <c r="L161" s="21"/>
+      <c r="D161" s="30"/>
+      <c r="E161" s="30"/>
+      <c r="F161" s="30"/>
+      <c r="G161" s="30"/>
+      <c r="H161" s="30"/>
+      <c r="I161" s="30"/>
+      <c r="J161" s="30"/>
+      <c r="K161" s="30"/>
+      <c r="L161" s="30"/>
     </row>
     <row r="162" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A162" s="23"/>
-      <c r="B162" s="21"/>
+      <c r="A162" s="28"/>
+      <c r="B162" s="30"/>
       <c r="C162" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D162" s="21"/>
-      <c r="E162" s="21"/>
-      <c r="F162" s="21"/>
-      <c r="G162" s="21"/>
-      <c r="H162" s="21"/>
-      <c r="I162" s="21"/>
-      <c r="J162" s="21"/>
-      <c r="K162" s="21"/>
-      <c r="L162" s="21"/>
+      <c r="D162" s="30"/>
+      <c r="E162" s="30"/>
+      <c r="F162" s="30"/>
+      <c r="G162" s="30"/>
+      <c r="H162" s="30"/>
+      <c r="I162" s="30"/>
+      <c r="J162" s="30"/>
+      <c r="K162" s="30"/>
+      <c r="L162" s="30"/>
     </row>
     <row r="163" spans="1:12" ht="90" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="24"/>
-      <c r="B163" s="20"/>
+      <c r="A163" s="29"/>
+      <c r="B163" s="24"/>
       <c r="C163" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D163" s="20"/>
-      <c r="E163" s="20"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
-      <c r="H163" s="20"/>
-      <c r="I163" s="20"/>
-      <c r="J163" s="20"/>
-      <c r="K163" s="20"/>
-      <c r="L163" s="20"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="24"/>
+      <c r="F163" s="24"/>
+      <c r="G163" s="24"/>
+      <c r="H163" s="24"/>
+      <c r="I163" s="24"/>
+      <c r="J163" s="24"/>
+      <c r="K163" s="24"/>
+      <c r="L163" s="24"/>
     </row>
     <row r="164" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
@@ -6908,15 +6911,462 @@
     </row>
   </sheetData>
   <mergeCells count="489">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L152:L153"/>
+    <mergeCell ref="H144:H150"/>
+    <mergeCell ref="I144:I150"/>
+    <mergeCell ref="J144:J150"/>
+    <mergeCell ref="K144:K150"/>
+    <mergeCell ref="L144:L150"/>
+    <mergeCell ref="H155:H163"/>
+    <mergeCell ref="I155:I163"/>
+    <mergeCell ref="J155:J163"/>
+    <mergeCell ref="K155:K163"/>
+    <mergeCell ref="L155:L163"/>
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="H152:H153"/>
+    <mergeCell ref="I152:I153"/>
+    <mergeCell ref="J152:J153"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="A155:A163"/>
+    <mergeCell ref="B155:B163"/>
+    <mergeCell ref="D155:D163"/>
+    <mergeCell ref="E155:E163"/>
+    <mergeCell ref="F155:F163"/>
+    <mergeCell ref="G155:G163"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="E144:E150"/>
+    <mergeCell ref="F144:F150"/>
+    <mergeCell ref="G144:G150"/>
+    <mergeCell ref="I140:I141"/>
+    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="K140:K141"/>
+    <mergeCell ref="L140:L141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="J142:J143"/>
+    <mergeCell ref="K142:K143"/>
+    <mergeCell ref="B144:B150"/>
+    <mergeCell ref="D144:D150"/>
+    <mergeCell ref="L138:L139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="K138:K139"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="L136:L137"/>
+    <mergeCell ref="H132:H133"/>
+    <mergeCell ref="I132:I133"/>
+    <mergeCell ref="J132:J133"/>
+    <mergeCell ref="K132:K133"/>
+    <mergeCell ref="L132:L133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="L134:L135"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="K122:K124"/>
+    <mergeCell ref="L122:L124"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="G122:G124"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="J130:J131"/>
+    <mergeCell ref="K130:K131"/>
+    <mergeCell ref="L130:L131"/>
+    <mergeCell ref="L120:L121"/>
+    <mergeCell ref="G113:G116"/>
+    <mergeCell ref="H113:H116"/>
+    <mergeCell ref="I113:I116"/>
+    <mergeCell ref="J113:J116"/>
+    <mergeCell ref="K113:K116"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="D122:D124"/>
+    <mergeCell ref="E122:E124"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="L125:L126"/>
+    <mergeCell ref="H122:H124"/>
+    <mergeCell ref="I122:I124"/>
+    <mergeCell ref="J122:J124"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="H107:H111"/>
+    <mergeCell ref="I107:I111"/>
+    <mergeCell ref="J107:J111"/>
+    <mergeCell ref="K107:K111"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="J120:J121"/>
+    <mergeCell ref="K120:K121"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="F103:F106"/>
+    <mergeCell ref="G103:G106"/>
+    <mergeCell ref="H103:H106"/>
+    <mergeCell ref="L107:L111"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="D113:D116"/>
+    <mergeCell ref="E113:E116"/>
+    <mergeCell ref="F113:F116"/>
+    <mergeCell ref="I103:I106"/>
+    <mergeCell ref="J103:J106"/>
+    <mergeCell ref="K103:K106"/>
+    <mergeCell ref="L103:L106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="E107:E111"/>
+    <mergeCell ref="F107:F111"/>
+    <mergeCell ref="G107:G111"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="K92:K94"/>
+    <mergeCell ref="L92:L94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="G95:G97"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="J95:J97"/>
+    <mergeCell ref="K95:K97"/>
+    <mergeCell ref="L95:L97"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="G89:G91"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="K89:K91"/>
+    <mergeCell ref="L89:L91"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="J86:J88"/>
+    <mergeCell ref="K86:K88"/>
+    <mergeCell ref="L86:L88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="H79:H83"/>
+    <mergeCell ref="I79:I83"/>
+    <mergeCell ref="J79:J83"/>
+    <mergeCell ref="K79:K83"/>
+    <mergeCell ref="L79:L83"/>
+    <mergeCell ref="H74:H78"/>
+    <mergeCell ref="I74:I78"/>
+    <mergeCell ref="J74:J78"/>
+    <mergeCell ref="K74:K78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="F79:F83"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="G74:G78"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="K58:K62"/>
+    <mergeCell ref="L58:L62"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="D63:D69"/>
+    <mergeCell ref="E63:E69"/>
+    <mergeCell ref="F63:F69"/>
+    <mergeCell ref="G63:G69"/>
+    <mergeCell ref="H63:H69"/>
+    <mergeCell ref="I63:I69"/>
+    <mergeCell ref="J63:J69"/>
+    <mergeCell ref="K63:K69"/>
+    <mergeCell ref="L63:L69"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="F58:F62"/>
+    <mergeCell ref="G58:G62"/>
+    <mergeCell ref="H58:H62"/>
+    <mergeCell ref="I58:I62"/>
+    <mergeCell ref="J58:J62"/>
+    <mergeCell ref="D46:D57"/>
+    <mergeCell ref="E46:E57"/>
+    <mergeCell ref="F46:F57"/>
+    <mergeCell ref="G46:G57"/>
+    <mergeCell ref="H46:H57"/>
+    <mergeCell ref="I46:I57"/>
+    <mergeCell ref="J46:J57"/>
+    <mergeCell ref="K46:K57"/>
+    <mergeCell ref="L46:L57"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="J40:J45"/>
+    <mergeCell ref="K40:K45"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -6941,462 +7391,15 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F7:F11"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="L46:L57"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="F40:F45"/>
-    <mergeCell ref="G40:G45"/>
-    <mergeCell ref="H40:H45"/>
-    <mergeCell ref="J40:J45"/>
-    <mergeCell ref="K40:K45"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="J58:J62"/>
-    <mergeCell ref="D46:D57"/>
-    <mergeCell ref="E46:E57"/>
-    <mergeCell ref="F46:F57"/>
-    <mergeCell ref="G46:G57"/>
-    <mergeCell ref="H46:H57"/>
-    <mergeCell ref="I46:I57"/>
-    <mergeCell ref="J46:J57"/>
-    <mergeCell ref="K46:K57"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="K58:K62"/>
-    <mergeCell ref="L58:L62"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="D63:D69"/>
-    <mergeCell ref="E63:E69"/>
-    <mergeCell ref="F63:F69"/>
-    <mergeCell ref="G63:G69"/>
-    <mergeCell ref="H63:H69"/>
-    <mergeCell ref="I63:I69"/>
-    <mergeCell ref="J63:J69"/>
-    <mergeCell ref="K63:K69"/>
-    <mergeCell ref="L63:L69"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="F58:F62"/>
-    <mergeCell ref="G58:G62"/>
-    <mergeCell ref="H58:H62"/>
-    <mergeCell ref="I58:I62"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H74:H78"/>
-    <mergeCell ref="I74:I78"/>
-    <mergeCell ref="J74:J78"/>
-    <mergeCell ref="K74:K78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="F79:F83"/>
-    <mergeCell ref="G79:G83"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="G74:G78"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="H79:H83"/>
-    <mergeCell ref="I79:I83"/>
-    <mergeCell ref="J79:J83"/>
-    <mergeCell ref="K79:K83"/>
-    <mergeCell ref="L79:L83"/>
-    <mergeCell ref="J89:J91"/>
-    <mergeCell ref="K89:K91"/>
-    <mergeCell ref="L89:L91"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="J86:J88"/>
-    <mergeCell ref="K86:K88"/>
-    <mergeCell ref="L86:L88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="G89:G91"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="I92:I94"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="K92:K94"/>
-    <mergeCell ref="L92:L94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="G95:G97"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="I95:I97"/>
-    <mergeCell ref="J95:J97"/>
-    <mergeCell ref="K95:K97"/>
-    <mergeCell ref="L95:L97"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="F103:F106"/>
-    <mergeCell ref="G103:G106"/>
-    <mergeCell ref="H103:H106"/>
-    <mergeCell ref="L107:L111"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="D113:D116"/>
-    <mergeCell ref="E113:E116"/>
-    <mergeCell ref="F113:F116"/>
-    <mergeCell ref="I103:I106"/>
-    <mergeCell ref="J103:J106"/>
-    <mergeCell ref="K103:K106"/>
-    <mergeCell ref="L103:L106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="D107:D111"/>
-    <mergeCell ref="E107:E111"/>
-    <mergeCell ref="F107:F111"/>
-    <mergeCell ref="G107:G111"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="H107:H111"/>
-    <mergeCell ref="I107:I111"/>
-    <mergeCell ref="J107:J111"/>
-    <mergeCell ref="K107:K111"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="J120:J121"/>
-    <mergeCell ref="K120:K121"/>
-    <mergeCell ref="L120:L121"/>
-    <mergeCell ref="G113:G116"/>
-    <mergeCell ref="H113:H116"/>
-    <mergeCell ref="I113:I116"/>
-    <mergeCell ref="J113:J116"/>
-    <mergeCell ref="K113:K116"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="D122:D124"/>
-    <mergeCell ref="E122:E124"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="J125:J126"/>
-    <mergeCell ref="L125:L126"/>
-    <mergeCell ref="H122:H124"/>
-    <mergeCell ref="I122:I124"/>
-    <mergeCell ref="J122:J124"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="K122:K124"/>
-    <mergeCell ref="L122:L124"/>
-    <mergeCell ref="F122:F124"/>
-    <mergeCell ref="G122:G124"/>
-    <mergeCell ref="H130:H131"/>
-    <mergeCell ref="I130:I131"/>
-    <mergeCell ref="J130:J131"/>
-    <mergeCell ref="K130:K131"/>
-    <mergeCell ref="L130:L131"/>
-    <mergeCell ref="H132:H133"/>
-    <mergeCell ref="I132:I133"/>
-    <mergeCell ref="J132:J133"/>
-    <mergeCell ref="K132:K133"/>
-    <mergeCell ref="L132:L133"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="L134:L135"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="I136:I137"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="L136:L137"/>
-    <mergeCell ref="L138:L139"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="K138:K139"/>
-    <mergeCell ref="E144:E150"/>
-    <mergeCell ref="F144:F150"/>
-    <mergeCell ref="G144:G150"/>
-    <mergeCell ref="I140:I141"/>
-    <mergeCell ref="J140:J141"/>
-    <mergeCell ref="K140:K141"/>
-    <mergeCell ref="L140:L141"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="J142:J143"/>
-    <mergeCell ref="K142:K143"/>
-    <mergeCell ref="B144:B150"/>
-    <mergeCell ref="D144:D150"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="H152:H153"/>
-    <mergeCell ref="I152:I153"/>
-    <mergeCell ref="J152:J153"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="A155:A163"/>
-    <mergeCell ref="B155:B163"/>
-    <mergeCell ref="D155:D163"/>
-    <mergeCell ref="E155:E163"/>
-    <mergeCell ref="F155:F163"/>
-    <mergeCell ref="G155:G163"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="L152:L153"/>
-    <mergeCell ref="H144:H150"/>
-    <mergeCell ref="I144:I150"/>
-    <mergeCell ref="J144:J150"/>
-    <mergeCell ref="K144:K150"/>
-    <mergeCell ref="L144:L150"/>
-    <mergeCell ref="H155:H163"/>
-    <mergeCell ref="I155:I163"/>
-    <mergeCell ref="J155:J163"/>
-    <mergeCell ref="K155:K163"/>
-    <mergeCell ref="L155:L163"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -7466,6 +7469,9 @@
       <c r="R1" t="s">
         <v>459</v>
       </c>
+      <c r="S1" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -7479,7 +7485,7 @@
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F2" t="n">
         <v>30.0</v>
@@ -7488,7 +7494,7 @@
         <v>3.0</v>
       </c>
       <c r="H2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I2" t="n">
         <v>1300000.0</v>
@@ -7504,19 +7510,22 @@
       </c>
       <c r="M2"/>
       <c r="N2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="O2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="P2" t="n">
         <v>12.0</v>
       </c>
       <c r="Q2" t="s">
-        <v>682</v>
+        <v>651</v>
       </c>
       <c r="R2" t="s">
-        <v>722</v>
+        <v>683</v>
+      </c>
+      <c r="S2" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="3">
@@ -7527,11 +7536,11 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F3" t="n">
         <v>18.0</v>
@@ -7540,7 +7549,7 @@
         <v>18.0</v>
       </c>
       <c r="H3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I3" t="n">
         <v>411000.0</v>
@@ -7558,34 +7567,37 @@
         <v>180.0</v>
       </c>
       <c r="N3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="P3" t="n">
         <v>39.0</v>
       </c>
       <c r="Q3" t="s">
-        <v>683</v>
+        <v>652</v>
       </c>
       <c r="R3" t="s">
-        <v>723</v>
+        <v>684</v>
+      </c>
+      <c r="S3" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F4" t="n">
         <v>29.0</v>
@@ -7594,7 +7606,7 @@
         <v>29.0</v>
       </c>
       <c r="H4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I4" t="n">
         <v>700.0</v>
@@ -7610,7 +7622,7 @@
       </c>
       <c r="M4"/>
       <c r="N4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O4" t="s">
         <v>183</v>
@@ -7619,10 +7631,13 @@
         <v>1.0</v>
       </c>
       <c r="Q4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R4" t="s">
         <v>5</v>
       </c>
-      <c r="R4" t="s">
-        <v>724</v>
+      <c r="S4" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="5">
@@ -7633,11 +7648,11 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F5" t="n">
         <v>15.0</v>
@@ -7646,7 +7661,7 @@
         <v>8.0</v>
       </c>
       <c r="H5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I5" t="n">
         <v>935227.0</v>
@@ -7660,7 +7675,7 @@
         <v>100.0</v>
       </c>
       <c r="N5" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O5" t="s">
         <v>71</v>
@@ -7669,25 +7684,28 @@
         <v>8.0</v>
       </c>
       <c r="Q5" t="s">
-        <v>684</v>
+        <v>71</v>
       </c>
       <c r="R5" t="s">
+        <v>685</v>
+      </c>
+      <c r="S5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F6" t="n">
         <v>7.0</v>
@@ -7696,7 +7714,7 @@
         <v>6.0</v>
       </c>
       <c r="H6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I6" t="n">
         <v>386641.0</v>
@@ -7714,7 +7732,7 @@
         <v>2840.0</v>
       </c>
       <c r="N6" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O6" t="s">
         <v>60</v>
@@ -7723,10 +7741,13 @@
         <v>1.0</v>
       </c>
       <c r="Q6" t="s">
-        <v>685</v>
+        <v>60</v>
       </c>
       <c r="R6" t="s">
-        <v>725</v>
+        <v>686</v>
+      </c>
+      <c r="S6" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="7">
@@ -7737,11 +7758,11 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F7" t="n">
         <v>40.0</v>
@@ -7750,7 +7771,7 @@
         <v>21.0</v>
       </c>
       <c r="H7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I7" t="n">
         <v>950000.0</v>
@@ -7768,7 +7789,7 @@
         <v>12.0</v>
       </c>
       <c r="N7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O7" t="s">
         <v>88</v>
@@ -7777,25 +7798,28 @@
         <v>1.0</v>
       </c>
       <c r="Q7" t="s">
-        <v>686</v>
+        <v>88</v>
       </c>
       <c r="R7" t="s">
-        <v>726</v>
+        <v>687</v>
+      </c>
+      <c r="S7" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C8" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F8" t="n">
         <v>35.0</v>
@@ -7804,7 +7828,7 @@
         <v>35.0</v>
       </c>
       <c r="H8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I8" t="n">
         <v>188000.0</v>
@@ -7822,7 +7846,7 @@
         <v>85.0</v>
       </c>
       <c r="N8" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="O8" t="s">
         <v>304</v>
@@ -7831,25 +7855,28 @@
         <v>1.0</v>
       </c>
       <c r="Q8" t="s">
-        <v>687</v>
+        <v>304</v>
       </c>
       <c r="R8" t="s">
-        <v>727</v>
+        <v>688</v>
+      </c>
+      <c r="S8" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F9" t="n">
         <v>3.0</v>
@@ -7858,7 +7885,7 @@
         <v>3.0</v>
       </c>
       <c r="H9" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I9" t="n">
         <v>987.0</v>
@@ -7876,34 +7903,37 @@
         <v>1000.0</v>
       </c>
       <c r="N9" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O9" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="P9" t="n">
         <v>2.0</v>
       </c>
       <c r="Q9" t="s">
-        <v>688</v>
+        <v>653</v>
       </c>
       <c r="R9" t="s">
-        <v>728</v>
+        <v>689</v>
+      </c>
+      <c r="S9" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F10" t="n">
         <v>40.0</v>
@@ -7912,7 +7942,7 @@
         <v>0.0</v>
       </c>
       <c r="H10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I10" t="n">
         <v>2.1E7</v>
@@ -7926,32 +7956,35 @@
         <v>0.0</v>
       </c>
       <c r="N10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="O10" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="P10" t="n">
         <v>12.0</v>
       </c>
       <c r="Q10" t="s">
-        <v>689</v>
-      </c>
-      <c r="R10"/>
+        <v>654</v>
+      </c>
+      <c r="R10" t="s">
+        <v>690</v>
+      </c>
+      <c r="S10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C11" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F11" t="n">
         <v>6.0</v>
@@ -7960,7 +7993,7 @@
         <v>6.0</v>
       </c>
       <c r="H11" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I11" t="n">
         <v>2941.0</v>
@@ -7978,34 +8011,37 @@
         <v>500.0</v>
       </c>
       <c r="N11" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O11" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="P11" t="n">
         <v>6.0</v>
       </c>
       <c r="Q11" t="s">
+        <v>655</v>
+      </c>
+      <c r="R11" t="s">
         <v>409</v>
       </c>
-      <c r="R11" t="s">
-        <v>729</v>
+      <c r="S11" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B12" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F12" t="n">
         <v>20.0</v>
@@ -8014,7 +8050,7 @@
         <v>0.0</v>
       </c>
       <c r="H12" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -8024,18 +8060,21 @@
         <v>0.0</v>
       </c>
       <c r="N12" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O12" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="P12" t="n">
         <v>20.0</v>
       </c>
       <c r="Q12" t="s">
+        <v>656</v>
+      </c>
+      <c r="R12" t="s">
         <v>8</v>
       </c>
-      <c r="R12"/>
+      <c r="S12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -8048,17 +8087,17 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E13" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F13" t="n">
         <v>32.0</v>
       </c>
       <c r="G13"/>
       <c r="H13" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I13" t="n">
         <v>1000000.0</v>
@@ -8068,34 +8107,37 @@
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O13" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="P13" t="n">
         <v>15.0</v>
       </c>
       <c r="Q13" t="s">
+        <v>657</v>
+      </c>
+      <c r="R13" t="s">
         <v>9</v>
       </c>
-      <c r="R13"/>
+      <c r="S13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C14" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D14" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E14" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F14" t="n">
         <v>18.0</v>
@@ -8104,7 +8146,7 @@
         <v>10.0</v>
       </c>
       <c r="H14" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I14" t="n">
         <v>351000.0</v>
@@ -8120,19 +8162,22 @@
         <v>37000.0</v>
       </c>
       <c r="N14" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="O14" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="P14" t="n">
         <v>43.0</v>
       </c>
       <c r="Q14" t="s">
-        <v>510</v>
+        <v>658</v>
       </c>
       <c r="R14" t="s">
-        <v>730</v>
+        <v>511</v>
+      </c>
+      <c r="S14" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="15">
@@ -8147,7 +8192,7 @@
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F15" t="n">
         <v>9.0</v>
@@ -8156,7 +8201,7 @@
         <v>9.0</v>
       </c>
       <c r="H15" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I15" t="n">
         <v>1190000.0</v>
@@ -8170,30 +8215,33 @@
       </c>
       <c r="M15"/>
       <c r="N15" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O15" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="P15" t="n">
         <v>8.0</v>
       </c>
       <c r="Q15" t="s">
+        <v>659</v>
+      </c>
+      <c r="R15" t="s">
         <v>11</v>
       </c>
-      <c r="R15" t="s">
-        <v>731</v>
+      <c r="S15" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B16" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C16" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
@@ -8206,7 +8254,7 @@
         <v>9.0</v>
       </c>
       <c r="H16" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I16" t="n">
         <v>40000.0</v>
@@ -8220,7 +8268,7 @@
       </c>
       <c r="M16"/>
       <c r="N16" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O16" t="s">
         <v>95</v>
@@ -8229,10 +8277,13 @@
         <v>1.0</v>
       </c>
       <c r="Q16" t="s">
-        <v>690</v>
+        <v>95</v>
       </c>
       <c r="R16" t="s">
-        <v>732</v>
+        <v>691</v>
+      </c>
+      <c r="S16" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="17">
@@ -8243,13 +8294,13 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F17" t="n">
         <v>6.0</v>
@@ -8258,7 +8309,7 @@
         <v>6.0</v>
       </c>
       <c r="H17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I17" t="n">
         <v>32000.0</v>
@@ -8274,34 +8325,37 @@
       </c>
       <c r="M17"/>
       <c r="N17" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O17" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="P17" t="n">
         <v>6.0</v>
       </c>
       <c r="Q17" t="s">
-        <v>691</v>
+        <v>660</v>
       </c>
       <c r="R17" t="s">
-        <v>733</v>
+        <v>692</v>
+      </c>
+      <c r="S17" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B18" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C18" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F18" t="n">
         <v>4.0</v>
@@ -8310,7 +8364,7 @@
         <v>4.0</v>
       </c>
       <c r="H18" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I18" t="n">
         <v>22730.0</v>
@@ -8326,7 +8380,7 @@
         <v>1043.0</v>
       </c>
       <c r="N18" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O18" t="s">
         <v>166</v>
@@ -8335,9 +8389,12 @@
         <v>4.0</v>
       </c>
       <c r="Q18" t="s">
-        <v>692</v>
+        <v>166</v>
       </c>
       <c r="R18" t="s">
+        <v>693</v>
+      </c>
+      <c r="S18" t="s">
         <v>174</v>
       </c>
     </row>
@@ -8349,11 +8406,11 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F19" t="n">
         <v>7.0</v>
@@ -8362,7 +8419,7 @@
         <v>7.0</v>
       </c>
       <c r="H19" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I19" t="n">
         <v>42189.0</v>
@@ -8380,34 +8437,37 @@
         <v>15.0</v>
       </c>
       <c r="N19" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O19" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="P19" t="n">
         <v>3.0</v>
       </c>
       <c r="Q19" t="s">
-        <v>693</v>
+        <v>661</v>
       </c>
       <c r="R19" t="s">
-        <v>734</v>
+        <v>694</v>
+      </c>
+      <c r="S19" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B20" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C20" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F20" t="n">
         <v>6.0</v>
@@ -8416,7 +8476,7 @@
         <v>6.0</v>
       </c>
       <c r="H20" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I20" t="n">
         <v>388120.0</v>
@@ -8432,36 +8492,39 @@
         <v>20.0</v>
       </c>
       <c r="N20" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O20" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="P20" t="n">
         <v>11.0</v>
       </c>
       <c r="Q20" t="s">
-        <v>694</v>
+        <v>662</v>
       </c>
       <c r="R20" t="s">
-        <v>735</v>
+        <v>695</v>
+      </c>
+      <c r="S20" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B21" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C21" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D21" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E21" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F21" t="n">
         <v>18.0</v>
@@ -8470,7 +8533,7 @@
         <v>18.0</v>
       </c>
       <c r="H21" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I21" t="n">
         <v>7960.0</v>
@@ -8482,32 +8545,35 @@
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O21"/>
       <c r="P21" t="n">
         <v>1.0</v>
       </c>
       <c r="Q21" t="s">
-        <v>695</v>
+        <v>550</v>
       </c>
       <c r="R21" t="s">
-        <v>736</v>
+        <v>696</v>
+      </c>
+      <c r="S21" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B22" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C22" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F22" t="n">
         <v>10.0</v>
@@ -8516,7 +8582,7 @@
         <v>6.0</v>
       </c>
       <c r="H22" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I22" t="n">
         <v>5000000.0</v>
@@ -8534,19 +8600,22 @@
         <v>15.0</v>
       </c>
       <c r="N22" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O22" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="P22" t="n">
         <v>5.0</v>
       </c>
       <c r="Q22" t="s">
-        <v>696</v>
+        <v>663</v>
       </c>
       <c r="R22" t="s">
-        <v>737</v>
+        <v>697</v>
+      </c>
+      <c r="S22" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="23">
@@ -8557,11 +8626,11 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F23" t="n">
         <v>18.0</v>
@@ -8570,7 +8639,7 @@
         <v>18.0</v>
       </c>
       <c r="H23" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I23" t="n">
         <v>76233.0</v>
@@ -8588,34 +8657,37 @@
         <v>31.0</v>
       </c>
       <c r="N23" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O23" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="P23" t="n">
         <v>5.0</v>
       </c>
       <c r="Q23" t="s">
-        <v>697</v>
+        <v>664</v>
       </c>
       <c r="R23" t="s">
-        <v>738</v>
+        <v>698</v>
+      </c>
+      <c r="S23" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B24" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C24" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F24" t="n">
         <v>67.0</v>
@@ -8624,7 +8696,7 @@
         <v>0.0</v>
       </c>
       <c r="H24" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -8636,34 +8708,35 @@
       </c>
       <c r="M24"/>
       <c r="N24" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="O24"/>
       <c r="P24" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q24" t="s">
-        <v>698</v>
-      </c>
+      <c r="Q24"/>
       <c r="R24" t="s">
-        <v>722</v>
+        <v>699</v>
+      </c>
+      <c r="S24" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B25" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C25" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F25" t="n">
         <v>43.0</v>
@@ -8672,7 +8745,7 @@
         <v>43.0</v>
       </c>
       <c r="H25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I25" t="n">
         <v>1000000.0</v>
@@ -8686,32 +8759,35 @@
         <v>100.0</v>
       </c>
       <c r="N25" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O25"/>
       <c r="P25" t="n">
         <v>1.0</v>
       </c>
       <c r="Q25" t="s">
-        <v>474</v>
-      </c>
-      <c r="R25"/>
+        <v>17</v>
+      </c>
+      <c r="R25" t="s">
+        <v>475</v>
+      </c>
+      <c r="S25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B26" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C26" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D26" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E26" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F26" t="n">
         <v>26.0</v>
@@ -8720,7 +8796,7 @@
         <v>26.0</v>
       </c>
       <c r="H26" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I26" t="n">
         <v>839666.0</v>
@@ -8738,34 +8814,37 @@
         <v>1300.0</v>
       </c>
       <c r="N26" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="O26" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="P26" t="n">
         <v>11.0</v>
       </c>
       <c r="Q26" t="s">
-        <v>699</v>
+        <v>665</v>
       </c>
       <c r="R26" t="s">
-        <v>739</v>
+        <v>700</v>
+      </c>
+      <c r="S26" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B27" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F27" t="n">
         <v>18.0</v>
@@ -8774,7 +8853,7 @@
         <v>8.0</v>
       </c>
       <c r="H27" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I27" t="n">
         <v>1941000.0</v>
@@ -8792,19 +8871,22 @@
         <v>270.0</v>
       </c>
       <c r="N27" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O27" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="P27" t="n">
         <v>9.0</v>
       </c>
       <c r="Q27" t="s">
-        <v>700</v>
+        <v>666</v>
       </c>
       <c r="R27" t="s">
-        <v>722</v>
+        <v>701</v>
+      </c>
+      <c r="S27" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="28">
@@ -8815,11 +8897,11 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F28" t="n">
         <v>10.0</v>
@@ -8828,7 +8910,7 @@
         <v>9.0</v>
       </c>
       <c r="H28" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I28" t="n">
         <v>2662777.0</v>
@@ -8844,18 +8926,21 @@
         <v>2560.0</v>
       </c>
       <c r="N28" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="O28" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="P28" t="n">
         <v>9.0</v>
       </c>
       <c r="Q28" t="s">
-        <v>701</v>
+        <v>667</v>
       </c>
       <c r="R28" t="s">
+        <v>702</v>
+      </c>
+      <c r="S28" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8867,11 +8952,11 @@
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F29" t="n">
         <v>15.0</v>
@@ -8880,7 +8965,7 @@
         <v>0.0</v>
       </c>
       <c r="H29" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I29" t="n">
         <v>190268.0</v>
@@ -8894,7 +8979,7 @@
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O29" t="s">
         <v>88</v>
@@ -8903,34 +8988,37 @@
         <v>1.0</v>
       </c>
       <c r="Q29" t="s">
-        <v>702</v>
+        <v>88</v>
       </c>
       <c r="R29" t="s">
-        <v>740</v>
+        <v>703</v>
+      </c>
+      <c r="S29" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B30" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C30" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
         <v>0.0</v>
       </c>
       <c r="H30" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -8938,32 +9026,35 @@
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="O30"/>
       <c r="P30" t="n">
         <v>1.0</v>
       </c>
       <c r="Q30" t="s">
-        <v>703</v>
-      </c>
-      <c r="R30"/>
+        <v>14</v>
+      </c>
+      <c r="R30" t="s">
+        <v>704</v>
+      </c>
+      <c r="S30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B31" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C31" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D31" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E31" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F31" t="n">
         <v>27.0</v>
@@ -8972,7 +9063,7 @@
         <v>27.0</v>
       </c>
       <c r="H31" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I31" t="n">
         <v>89889.0</v>
@@ -8986,34 +9077,37 @@
       </c>
       <c r="M31"/>
       <c r="N31" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O31" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="P31" t="n">
         <v>12.0</v>
       </c>
       <c r="Q31" t="s">
-        <v>704</v>
+        <v>668</v>
       </c>
       <c r="R31" t="s">
-        <v>741</v>
+        <v>705</v>
+      </c>
+      <c r="S31" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B32" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C32" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F32" t="n">
         <v>5.0</v>
@@ -9022,7 +9116,7 @@
         <v>3.0</v>
       </c>
       <c r="H32" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I32" t="n">
         <v>315000.0</v>
@@ -9040,7 +9134,7 @@
         <v>52.0</v>
       </c>
       <c r="N32" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="O32" t="s">
         <v>237</v>
@@ -9049,25 +9143,28 @@
         <v>1.0</v>
       </c>
       <c r="Q32" t="s">
-        <v>705</v>
+        <v>237</v>
       </c>
       <c r="R32" t="s">
-        <v>724</v>
+        <v>706</v>
+      </c>
+      <c r="S32" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B33" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C33" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F33" t="n">
         <v>7.0</v>
@@ -9076,7 +9173,7 @@
         <v>7.0</v>
       </c>
       <c r="H33" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I33" t="n">
         <v>83006.0</v>
@@ -9094,7 +9191,7 @@
         <v>28.0</v>
       </c>
       <c r="N33" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O33" t="s">
         <v>344</v>
@@ -9103,32 +9200,35 @@
         <v>1.0</v>
       </c>
       <c r="Q33" t="s">
-        <v>706</v>
+        <v>344</v>
       </c>
       <c r="R33" t="s">
-        <v>742</v>
+        <v>707</v>
+      </c>
+      <c r="S33" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B34" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C34" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F34" t="n">
         <v>6.0</v>
       </c>
       <c r="G34"/>
       <c r="H34" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I34" t="n">
         <v>245000.0</v>
@@ -9138,16 +9238,19 @@
       <c r="L34"/>
       <c r="M34"/>
       <c r="N34" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O34" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="P34"/>
       <c r="Q34" t="s">
-        <v>707</v>
-      </c>
-      <c r="R34"/>
+        <v>669</v>
+      </c>
+      <c r="R34" t="s">
+        <v>708</v>
+      </c>
+      <c r="S34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -9157,7 +9260,7 @@
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
@@ -9176,16 +9279,19 @@
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O35" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="P35"/>
       <c r="Q35" t="s">
-        <v>528</v>
-      </c>
-      <c r="R35"/>
+        <v>670</v>
+      </c>
+      <c r="R35" t="s">
+        <v>529</v>
+      </c>
+      <c r="S35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -9195,7 +9301,7 @@
         <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
@@ -9216,29 +9322,32 @@
         <v>8.0</v>
       </c>
       <c r="N36" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O36" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="P36"/>
       <c r="Q36" t="s">
-        <v>708</v>
-      </c>
-      <c r="R36"/>
+        <v>671</v>
+      </c>
+      <c r="R36" t="s">
+        <v>709</v>
+      </c>
+      <c r="S36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B37" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C37" t="s">
         <v>106</v>
       </c>
       <c r="D37" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E37" t="s">
         <v>108</v>
@@ -9250,7 +9359,7 @@
         <v>4.0</v>
       </c>
       <c r="H37" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I37"/>
       <c r="J37"/>
@@ -9261,9 +9370,12 @@
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37" t="s">
+        <v>553</v>
+      </c>
+      <c r="R37" t="s">
         <v>106</v>
       </c>
-      <c r="R37"/>
+      <c r="S37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -9273,11 +9385,11 @@
         <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F38" t="n">
         <v>4.0</v>
@@ -9292,28 +9404,31 @@
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="O38" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="P38"/>
       <c r="Q38" t="s">
-        <v>709</v>
-      </c>
-      <c r="R38"/>
+        <v>672</v>
+      </c>
+      <c r="R38" t="s">
+        <v>710</v>
+      </c>
+      <c r="S38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B39"/>
       <c r="C39" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F39" t="n">
         <v>29.0</v>
@@ -9322,7 +9437,7 @@
         <v>24.0</v>
       </c>
       <c r="H39" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I39" t="n">
         <v>1221985.0</v>
@@ -9338,32 +9453,35 @@
         <v>600.0</v>
       </c>
       <c r="N39" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="O39" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="P39"/>
       <c r="Q39" t="s">
-        <v>483</v>
+        <v>673</v>
       </c>
       <c r="R39" t="s">
-        <v>743</v>
+        <v>484</v>
+      </c>
+      <c r="S39" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B40" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C40" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F40" t="n">
         <v>14.0</v>
@@ -9372,7 +9490,7 @@
         <v>14.0</v>
       </c>
       <c r="H40" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I40"/>
       <c r="J40"/>
@@ -9384,32 +9502,35 @@
         <v>323.0</v>
       </c>
       <c r="N40" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="O40" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="P40"/>
       <c r="Q40" t="s">
-        <v>710</v>
+        <v>674</v>
       </c>
       <c r="R40" t="s">
+        <v>711</v>
+      </c>
+      <c r="S40" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B41" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C41" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F41" t="n">
         <v>84.0</v>
@@ -9424,30 +9545,33 @@
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="O41" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="P41"/>
       <c r="Q41" t="s">
-        <v>532</v>
-      </c>
-      <c r="R41"/>
+        <v>675</v>
+      </c>
+      <c r="R41" t="s">
+        <v>533</v>
+      </c>
+      <c r="S41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B42" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C42" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F42"/>
       <c r="G42"/>
@@ -9458,28 +9582,31 @@
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="O42" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="P42"/>
       <c r="Q42" t="s">
-        <v>711</v>
-      </c>
-      <c r="R42"/>
+        <v>676</v>
+      </c>
+      <c r="R42" t="s">
+        <v>712</v>
+      </c>
+      <c r="S42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F43"/>
       <c r="G43"/>
@@ -9492,37 +9619,40 @@
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="O43" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="P43"/>
       <c r="Q43" t="s">
-        <v>487</v>
-      </c>
-      <c r="R43"/>
+        <v>677</v>
+      </c>
+      <c r="R43" t="s">
+        <v>488</v>
+      </c>
+      <c r="S43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B44" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C44" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D44" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E44" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I44"/>
       <c r="J44"/>
@@ -9533,26 +9663,29 @@
       <c r="O44"/>
       <c r="P44"/>
       <c r="Q44" t="s">
-        <v>712</v>
-      </c>
-      <c r="R44"/>
+        <v>554</v>
+      </c>
+      <c r="R44" t="s">
+        <v>713</v>
+      </c>
+      <c r="S44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I45"/>
       <c r="J45"/>
@@ -9560,16 +9693,19 @@
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="O45" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="P45"/>
       <c r="Q45" t="s">
-        <v>489</v>
-      </c>
-      <c r="R45"/>
+        <v>678</v>
+      </c>
+      <c r="R45" t="s">
+        <v>490</v>
+      </c>
+      <c r="S45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -9590,7 +9726,7 @@
         <v>19.0</v>
       </c>
       <c r="H46" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I46" t="n">
         <v>250000.0</v>
@@ -9605,23 +9741,26 @@
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46" t="s">
+        <v>14</v>
+      </c>
+      <c r="R46" t="s">
         <v>252</v>
       </c>
-      <c r="R46"/>
+      <c r="S46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B47" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C47" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F47" t="n">
         <v>6.0</v>
@@ -9630,7 +9769,7 @@
         <v>6.0</v>
       </c>
       <c r="H47" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I47" t="n">
         <v>136128.0</v>
@@ -9644,34 +9783,37 @@
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="O47" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="P47"/>
       <c r="Q47" t="s">
-        <v>535</v>
+        <v>679</v>
       </c>
       <c r="R47" t="s">
+        <v>536</v>
+      </c>
+      <c r="S47" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B48" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C48" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D48" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E48" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F48" t="n">
         <v>20.0</v>
@@ -9684,14 +9826,17 @@
       <c r="L48"/>
       <c r="M48"/>
       <c r="N48" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48" t="s">
-        <v>713</v>
-      </c>
-      <c r="R48"/>
+        <v>555</v>
+      </c>
+      <c r="R48" t="s">
+        <v>714</v>
+      </c>
+      <c r="S48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -9704,7 +9849,7 @@
         <v>280</v>
       </c>
       <c r="D49" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E49" t="s">
         <v>282</v>
@@ -9716,7 +9861,7 @@
         <v>69.0</v>
       </c>
       <c r="H49" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I49" t="n">
         <v>320000.0</v>
@@ -9737,21 +9882,24 @@
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49" t="s">
+        <v>556</v>
+      </c>
+      <c r="R49" t="s">
         <v>280</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B50" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C50" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
@@ -9775,19 +9923,22 @@
       </c>
       <c r="P50"/>
       <c r="Q50" t="s">
-        <v>714</v>
-      </c>
-      <c r="R50"/>
+        <v>293</v>
+      </c>
+      <c r="R50" t="s">
+        <v>715</v>
+      </c>
+      <c r="S50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B51" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C51" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
@@ -9807,19 +9958,22 @@
       </c>
       <c r="P51"/>
       <c r="Q51" t="s">
+        <v>336</v>
+      </c>
+      <c r="R51" t="s">
         <v>335</v>
       </c>
-      <c r="R51"/>
+      <c r="S51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B52" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C52" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
@@ -9832,7 +9986,7 @@
         <v>13.0</v>
       </c>
       <c r="H52" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I52" t="n">
         <v>44010.0</v>
@@ -9855,25 +10009,28 @@
       </c>
       <c r="P52"/>
       <c r="Q52" t="s">
-        <v>715</v>
+        <v>339</v>
       </c>
       <c r="R52" t="s">
-        <v>744</v>
+        <v>716</v>
+      </c>
+      <c r="S52" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B53" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C53" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D53"/>
       <c r="E53" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F53" t="n">
         <v>9.0</v>
@@ -9882,7 +10039,7 @@
         <v>9.0</v>
       </c>
       <c r="H53" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I53" t="n">
         <v>50562.0</v>
@@ -9898,32 +10055,35 @@
         <v>450.0</v>
       </c>
       <c r="N53" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="O53" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="P53"/>
       <c r="Q53" t="s">
-        <v>716</v>
+        <v>680</v>
       </c>
       <c r="R53" t="s">
-        <v>745</v>
+        <v>717</v>
+      </c>
+      <c r="S53" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B54" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C54" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F54" t="n">
         <v>6.0</v>
@@ -9939,29 +10099,32 @@
       <c r="M54"/>
       <c r="N54"/>
       <c r="O54" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="P54"/>
       <c r="Q54" t="s">
-        <v>717</v>
-      </c>
-      <c r="R54"/>
+        <v>681</v>
+      </c>
+      <c r="R54" t="s">
+        <v>718</v>
+      </c>
+      <c r="S54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B55" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C55" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D55" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E55" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F55" t="n">
         <v>10.0</v>
@@ -9970,7 +10133,7 @@
         <v>10.0</v>
       </c>
       <c r="H55" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I55"/>
       <c r="J55"/>
@@ -9983,21 +10146,24 @@
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="R55" t="s">
-        <v>746</v>
+        <v>543</v>
+      </c>
+      <c r="S55" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B56" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C56" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D56"/>
       <c r="E56" t="s">
@@ -10019,23 +10185,26 @@
       </c>
       <c r="P56"/>
       <c r="Q56" t="s">
-        <v>718</v>
-      </c>
-      <c r="R56"/>
+        <v>421</v>
+      </c>
+      <c r="R56" t="s">
+        <v>719</v>
+      </c>
+      <c r="S56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B57" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C57" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
@@ -10047,23 +10216,26 @@
       <c r="M57"/>
       <c r="N57"/>
       <c r="O57" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P57"/>
       <c r="Q57" t="s">
-        <v>719</v>
-      </c>
-      <c r="R57"/>
+        <v>682</v>
+      </c>
+      <c r="R57" t="s">
+        <v>720</v>
+      </c>
+      <c r="S57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B58" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C58" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
@@ -10080,20 +10252,21 @@
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
-      <c r="Q58" t="s">
-        <v>720</v>
-      </c>
-      <c r="R58"/>
+      <c r="Q58"/>
+      <c r="R58" t="s">
+        <v>721</v>
+      </c>
+      <c r="S58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B59" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C59" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
@@ -10117,9 +10290,12 @@
       </c>
       <c r="P59"/>
       <c r="Q59" t="s">
-        <v>721</v>
-      </c>
-      <c r="R59"/>
+        <v>438</v>
+      </c>
+      <c r="R59" t="s">
+        <v>722</v>
+      </c>
+      <c r="S59"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/dat/synchros-initiatives.xlsx
+++ b/dat/synchros-initiatives.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="0" windowWidth="20880" windowHeight="7995" tabRatio="500"/>
+    <workbookView xWindow="18600" yWindow="0" windowWidth="20880" windowHeight="7995" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="752">
   <si>
     <t>A consortium of agricultural cohort studies</t>
   </si>
@@ -1686,7 +1686,7 @@
     <t>Principally Canada</t>
   </si>
   <si>
-    <t>American, European, Asian countries</t>
+    <t xml:space="preserve">Asia  </t>
   </si>
   <si>
     <t xml:space="preserve">Europe (27 countries)  </t>
@@ -1695,10 +1695,7 @@
     <t xml:space="preserve">Europe  </t>
   </si>
   <si>
-    <t>Australia, 15 European countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA, Europe </t>
+    <t xml:space="preserve">USA and Europe </t>
   </si>
   <si>
     <t>The objective of AGRICOH is to support and mantain collaboration and data sharing/pooling to research the association between agricultural exposures and different health outcomes, with emphasis on associations that involve rare exposures and/or health outcomes, and for which data pooling represents a significant gain in statistical power compared to analysis of individual cohorts.</t>
@@ -2090,46 +2087,40 @@
     <t>Argentina, Australia, Belgium, Brazil, Canada, Chile, Croatia, Egypt, Estonia, Germany, Greece, Hungary</t>
   </si>
   <si>
-    <t xml:space="preserve">South Korea, Vietnam, Cambodia, Japan, China </t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States of America    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada, China   </t>
-  </si>
-  <si>
-    <t>Bangladesh, Japan, Taiwan, South Korea, China, India, Singapore, Iran, Mongolia, Singapore Malaysia,, the United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom, The Netherlands, Germany, France, Denmark, Greece, Finland, Norway, Sweden, United States   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tohoku (region of Japan) </t>
-  </si>
-  <si>
-    <t>China, Ghana, India, Mexico, the Russian Federation, South Africa, England, USA, Austria, Belgium, Denmark, France, Germany, Greece, Italy, Switzerland, The Netherlands, Spain, Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">US, Sweden, Finland      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada, France        </t>
+    <t>Canada, China</t>
+  </si>
+  <si>
+    <t>Bangladesh, Japan, Taiwan, South Korea, China, India, Singapore, Iran, Mongolia, Singapore, Malaysia, United States</t>
+  </si>
+  <si>
+    <t>United Kingdom, Netherlands, Germany, France, Denmark, Greece, Finland, Norway, Sweden, United States</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>China, Ghana, India, Mexico, Russia, South Africa, United Kingdom, United States, Austria, Belgium, Denmark, France, Germany, Greece, Italy, Switzerland, Netherlands, Spain, Sweden</t>
+  </si>
+  <si>
+    <t>Belgium, Czechia, Denmark, Faroe Islands, Finland, France, Germany, Greece, Ireland, Italy, Lithuania, Netherlands, Norway, Poland, Portugal, Slovakia, Spain, Sweden, Switzerland, Ukraine, United Kingdom</t>
+  </si>
+  <si>
+    <t>Norway, Finland, Sweden, United Kingdom, Netherlands, France, Spain, Italy</t>
+  </si>
+  <si>
+    <t>Spain, Sweden, United Kingdom, Denmark, Norway, France, Germany, Netherlands, Greece, Italy</t>
+  </si>
+  <si>
+    <t>United States, Sweden, Finland</t>
+  </si>
+  <si>
+    <t>Italy, Netherlands, United Kingdom, Sweden</t>
+  </si>
+  <si>
+    <t>Canada, France</t>
+  </si>
+  <si>
+    <t>Finland, Denmark, Netherlands, Germany, Spain, Belgium, Italy, Poland</t>
   </si>
   <si>
     <t>AGRICOH: A consortium of agricultural cohort studies</t>
@@ -2273,9 +2264,15 @@
     <t>65 - 150</t>
   </si>
   <si>
+    <t xml:space="preserve">To be determined. The project has not begun yet. </t>
+  </si>
+  <si>
     <t>65 - 85</t>
   </si>
   <si>
+    <t xml:space="preserve">To Be Determined   </t>
+  </si>
+  <si>
     <t>45+</t>
   </si>
   <si>
@@ -2303,6 +2300,9 @@
     <t>14 - 103</t>
   </si>
   <si>
+    <t xml:space="preserve">This depends on the consortium in question </t>
+  </si>
+  <si>
     <t>30 - 75</t>
   </si>
   <si>
@@ -2315,7 +2315,19 @@
     <t>20 - 93</t>
   </si>
   <si>
+    <t xml:space="preserve">It depends on the project </t>
+  </si>
+  <si>
     <t>40+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all ages  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undefined  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All (Fetus to old ages) </t>
   </si>
   <si>
     <t>0 - 17</t>
@@ -7485,7 +7497,7 @@
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F2" t="n">
         <v>30.0</v>
@@ -7494,7 +7506,7 @@
         <v>3.0</v>
       </c>
       <c r="H2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I2" t="n">
         <v>1300000.0</v>
@@ -7510,22 +7522,22 @@
       </c>
       <c r="M2"/>
       <c r="N2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="P2" t="n">
         <v>12.0</v>
       </c>
       <c r="Q2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="S2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="3">
@@ -7540,7 +7552,7 @@
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F3" t="n">
         <v>18.0</v>
@@ -7549,7 +7561,7 @@
         <v>18.0</v>
       </c>
       <c r="H3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I3" t="n">
         <v>411000.0</v>
@@ -7567,22 +7579,22 @@
         <v>180.0</v>
       </c>
       <c r="N3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="P3" t="n">
         <v>39.0</v>
       </c>
       <c r="Q3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="S3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="4">
@@ -7597,7 +7609,7 @@
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F4" t="n">
         <v>29.0</v>
@@ -7606,7 +7618,7 @@
         <v>29.0</v>
       </c>
       <c r="H4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I4" t="n">
         <v>700.0</v>
@@ -7622,7 +7634,7 @@
       </c>
       <c r="M4"/>
       <c r="N4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O4" t="s">
         <v>183</v>
@@ -7637,7 +7649,7 @@
         <v>5</v>
       </c>
       <c r="S4" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5">
@@ -7652,7 +7664,7 @@
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F5" t="n">
         <v>15.0</v>
@@ -7661,7 +7673,7 @@
         <v>8.0</v>
       </c>
       <c r="H5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I5" t="n">
         <v>935227.0</v>
@@ -7675,7 +7687,7 @@
         <v>100.0</v>
       </c>
       <c r="N5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O5" t="s">
         <v>71</v>
@@ -7687,7 +7699,7 @@
         <v>71</v>
       </c>
       <c r="R5" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="S5" t="s">
         <v>174</v>
@@ -7705,7 +7717,7 @@
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F6" t="n">
         <v>7.0</v>
@@ -7714,7 +7726,7 @@
         <v>6.0</v>
       </c>
       <c r="H6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I6" t="n">
         <v>386641.0</v>
@@ -7732,7 +7744,7 @@
         <v>2840.0</v>
       </c>
       <c r="N6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O6" t="s">
         <v>60</v>
@@ -7744,10 +7756,10 @@
         <v>60</v>
       </c>
       <c r="R6" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="S6" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7">
@@ -7762,7 +7774,7 @@
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F7" t="n">
         <v>40.0</v>
@@ -7771,7 +7783,7 @@
         <v>21.0</v>
       </c>
       <c r="H7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I7" t="n">
         <v>950000.0</v>
@@ -7789,7 +7801,7 @@
         <v>12.0</v>
       </c>
       <c r="N7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O7" t="s">
         <v>88</v>
@@ -7801,10 +7813,10 @@
         <v>88</v>
       </c>
       <c r="R7" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="S7" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="8">
@@ -7819,7 +7831,7 @@
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F8" t="n">
         <v>35.0</v>
@@ -7828,7 +7840,7 @@
         <v>35.0</v>
       </c>
       <c r="H8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I8" t="n">
         <v>188000.0</v>
@@ -7846,7 +7858,7 @@
         <v>85.0</v>
       </c>
       <c r="N8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="O8" t="s">
         <v>304</v>
@@ -7858,10 +7870,10 @@
         <v>304</v>
       </c>
       <c r="R8" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="S8" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="9">
@@ -7876,7 +7888,7 @@
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F9" t="n">
         <v>3.0</v>
@@ -7885,7 +7897,7 @@
         <v>3.0</v>
       </c>
       <c r="H9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I9" t="n">
         <v>987.0</v>
@@ -7903,22 +7915,22 @@
         <v>1000.0</v>
       </c>
       <c r="N9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="P9" t="n">
         <v>2.0</v>
       </c>
       <c r="Q9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="R9" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="S9" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10">
@@ -7933,7 +7945,7 @@
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F10" t="n">
         <v>40.0</v>
@@ -7942,7 +7954,7 @@
         <v>0.0</v>
       </c>
       <c r="H10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I10" t="n">
         <v>2.1E7</v>
@@ -7956,21 +7968,23 @@
         <v>0.0</v>
       </c>
       <c r="N10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="P10" t="n">
         <v>12.0</v>
       </c>
       <c r="Q10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="R10" t="s">
-        <v>690</v>
-      </c>
-      <c r="S10"/>
+        <v>687</v>
+      </c>
+      <c r="S10" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -7984,7 +7998,7 @@
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F11" t="n">
         <v>6.0</v>
@@ -7993,7 +8007,7 @@
         <v>6.0</v>
       </c>
       <c r="H11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I11" t="n">
         <v>2941.0</v>
@@ -8011,22 +8025,22 @@
         <v>500.0</v>
       </c>
       <c r="N11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="P11" t="n">
         <v>6.0</v>
       </c>
       <c r="Q11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="R11" t="s">
         <v>409</v>
       </c>
       <c r="S11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="12">
@@ -8041,7 +8055,7 @@
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F12" t="n">
         <v>20.0</v>
@@ -8050,7 +8064,7 @@
         <v>0.0</v>
       </c>
       <c r="H12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -8060,21 +8074,23 @@
         <v>0.0</v>
       </c>
       <c r="N12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="P12" t="n">
         <v>20.0</v>
       </c>
       <c r="Q12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="R12" t="s">
         <v>8</v>
       </c>
-      <c r="S12"/>
+      <c r="S12" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -8090,14 +8106,14 @@
         <v>548</v>
       </c>
       <c r="E13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F13" t="n">
         <v>32.0</v>
       </c>
       <c r="G13"/>
       <c r="H13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I13" t="n">
         <v>1000000.0</v>
@@ -8107,16 +8123,16 @@
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O13" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="P13" t="n">
         <v>15.0</v>
       </c>
       <c r="Q13" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="R13" t="s">
         <v>9</v>
@@ -8137,7 +8153,7 @@
         <v>549</v>
       </c>
       <c r="E14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F14" t="n">
         <v>18.0</v>
@@ -8146,7 +8162,7 @@
         <v>10.0</v>
       </c>
       <c r="H14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I14" t="n">
         <v>351000.0</v>
@@ -8162,22 +8178,22 @@
         <v>37000.0</v>
       </c>
       <c r="N14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O14" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="P14" t="n">
         <v>43.0</v>
       </c>
       <c r="Q14" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="R14" t="s">
         <v>511</v>
       </c>
       <c r="S14" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="15">
@@ -8192,7 +8208,7 @@
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F15" t="n">
         <v>9.0</v>
@@ -8201,7 +8217,7 @@
         <v>9.0</v>
       </c>
       <c r="H15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I15" t="n">
         <v>1190000.0</v>
@@ -8215,22 +8231,22 @@
       </c>
       <c r="M15"/>
       <c r="N15" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="P15" t="n">
         <v>8.0</v>
       </c>
       <c r="Q15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="R15" t="s">
         <v>11</v>
       </c>
       <c r="S15" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="16">
@@ -8254,7 +8270,7 @@
         <v>9.0</v>
       </c>
       <c r="H16" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I16" t="n">
         <v>40000.0</v>
@@ -8268,7 +8284,7 @@
       </c>
       <c r="M16"/>
       <c r="N16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="O16" t="s">
         <v>95</v>
@@ -8280,10 +8296,10 @@
         <v>95</v>
       </c>
       <c r="R16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="S16" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="17">
@@ -8300,7 +8316,7 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F17" t="n">
         <v>6.0</v>
@@ -8309,7 +8325,7 @@
         <v>6.0</v>
       </c>
       <c r="H17" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I17" t="n">
         <v>32000.0</v>
@@ -8325,22 +8341,22 @@
       </c>
       <c r="M17"/>
       <c r="N17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="P17" t="n">
         <v>6.0</v>
       </c>
       <c r="Q17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="R17" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="S17" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="18">
@@ -8355,7 +8371,7 @@
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F18" t="n">
         <v>4.0</v>
@@ -8364,7 +8380,7 @@
         <v>4.0</v>
       </c>
       <c r="H18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I18" t="n">
         <v>22730.0</v>
@@ -8380,7 +8396,7 @@
         <v>1043.0</v>
       </c>
       <c r="N18" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="O18" t="s">
         <v>166</v>
@@ -8392,7 +8408,7 @@
         <v>166</v>
       </c>
       <c r="R18" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="S18" t="s">
         <v>174</v>
@@ -8410,7 +8426,7 @@
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F19" t="n">
         <v>7.0</v>
@@ -8419,7 +8435,7 @@
         <v>7.0</v>
       </c>
       <c r="H19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I19" t="n">
         <v>42189.0</v>
@@ -8437,22 +8453,22 @@
         <v>15.0</v>
       </c>
       <c r="N19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="O19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P19" t="n">
         <v>3.0</v>
       </c>
       <c r="Q19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R19" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="S19" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="20">
@@ -8467,7 +8483,7 @@
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F20" t="n">
         <v>6.0</v>
@@ -8476,7 +8492,7 @@
         <v>6.0</v>
       </c>
       <c r="H20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I20" t="n">
         <v>388120.0</v>
@@ -8492,22 +8508,22 @@
         <v>20.0</v>
       </c>
       <c r="N20" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="O20" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P20" t="n">
         <v>11.0</v>
       </c>
       <c r="Q20" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="R20" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="S20" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="21">
@@ -8524,7 +8540,7 @@
         <v>550</v>
       </c>
       <c r="E21" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F21" t="n">
         <v>18.0</v>
@@ -8533,7 +8549,7 @@
         <v>18.0</v>
       </c>
       <c r="H21" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I21" t="n">
         <v>7960.0</v>
@@ -8545,7 +8561,7 @@
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O21"/>
       <c r="P21" t="n">
@@ -8555,10 +8571,10 @@
         <v>550</v>
       </c>
       <c r="R21" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="S21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="22">
@@ -8573,7 +8589,7 @@
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F22" t="n">
         <v>10.0</v>
@@ -8582,7 +8598,7 @@
         <v>6.0</v>
       </c>
       <c r="H22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I22" t="n">
         <v>5000000.0</v>
@@ -8600,22 +8616,22 @@
         <v>15.0</v>
       </c>
       <c r="N22" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P22" t="n">
         <v>5.0</v>
       </c>
       <c r="Q22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="R22" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="S22" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="23">
@@ -8630,7 +8646,7 @@
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F23" t="n">
         <v>18.0</v>
@@ -8639,7 +8655,7 @@
         <v>18.0</v>
       </c>
       <c r="H23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I23" t="n">
         <v>76233.0</v>
@@ -8657,22 +8673,22 @@
         <v>31.0</v>
       </c>
       <c r="N23" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O23" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P23" t="n">
         <v>5.0</v>
       </c>
       <c r="Q23" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="R23" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="S23" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="24">
@@ -8687,7 +8703,7 @@
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F24" t="n">
         <v>67.0</v>
@@ -8696,7 +8712,7 @@
         <v>0.0</v>
       </c>
       <c r="H24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -8708,7 +8724,7 @@
       </c>
       <c r="M24"/>
       <c r="N24" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O24"/>
       <c r="P24" t="n">
@@ -8716,10 +8732,10 @@
       </c>
       <c r="Q24"/>
       <c r="R24" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="S24" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="25">
@@ -8736,7 +8752,7 @@
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F25" t="n">
         <v>43.0</v>
@@ -8745,7 +8761,7 @@
         <v>43.0</v>
       </c>
       <c r="H25" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I25" t="n">
         <v>1000000.0</v>
@@ -8759,7 +8775,7 @@
         <v>100.0</v>
       </c>
       <c r="N25" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="O25"/>
       <c r="P25" t="n">
@@ -8771,7 +8787,9 @@
       <c r="R25" t="s">
         <v>475</v>
       </c>
-      <c r="S25"/>
+      <c r="S25" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -8787,7 +8805,7 @@
         <v>551</v>
       </c>
       <c r="E26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F26" t="n">
         <v>26.0</v>
@@ -8796,7 +8814,7 @@
         <v>26.0</v>
       </c>
       <c r="H26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I26" t="n">
         <v>839666.0</v>
@@ -8814,19 +8832,19 @@
         <v>1300.0</v>
       </c>
       <c r="N26" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O26" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P26" t="n">
         <v>11.0</v>
       </c>
       <c r="Q26" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R26" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="S26" t="s">
         <v>740</v>
@@ -8844,7 +8862,7 @@
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F27" t="n">
         <v>18.0</v>
@@ -8853,7 +8871,7 @@
         <v>8.0</v>
       </c>
       <c r="H27" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I27" t="n">
         <v>1941000.0</v>
@@ -8871,22 +8889,22 @@
         <v>270.0</v>
       </c>
       <c r="N27" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="O27" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="P27" t="n">
         <v>9.0</v>
       </c>
       <c r="Q27" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R27" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="S27" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="28">
@@ -8901,7 +8919,7 @@
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F28" t="n">
         <v>10.0</v>
@@ -8910,7 +8928,7 @@
         <v>9.0</v>
       </c>
       <c r="H28" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I28" t="n">
         <v>2662777.0</v>
@@ -8926,19 +8944,19 @@
         <v>2560.0</v>
       </c>
       <c r="N28" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="O28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="P28" t="n">
         <v>9.0</v>
       </c>
       <c r="Q28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="R28" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="S28" t="s">
         <v>78</v>
@@ -8956,7 +8974,7 @@
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F29" t="n">
         <v>15.0</v>
@@ -8965,7 +8983,7 @@
         <v>0.0</v>
       </c>
       <c r="H29" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I29" t="n">
         <v>190268.0</v>
@@ -8979,7 +8997,7 @@
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O29" t="s">
         <v>88</v>
@@ -8991,7 +9009,7 @@
         <v>88</v>
       </c>
       <c r="R29" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="S29" t="s">
         <v>741</v>
@@ -9011,14 +9029,14 @@
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
         <v>0.0</v>
       </c>
       <c r="H30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -9026,7 +9044,7 @@
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O30"/>
       <c r="P30" t="n">
@@ -9036,7 +9054,7 @@
         <v>14</v>
       </c>
       <c r="R30" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="S30"/>
     </row>
@@ -9054,7 +9072,7 @@
         <v>552</v>
       </c>
       <c r="E31" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F31" t="n">
         <v>27.0</v>
@@ -9063,7 +9081,7 @@
         <v>27.0</v>
       </c>
       <c r="H31" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I31" t="n">
         <v>89889.0</v>
@@ -9077,19 +9095,19 @@
       </c>
       <c r="M31"/>
       <c r="N31" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="O31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="P31" t="n">
         <v>12.0</v>
       </c>
       <c r="Q31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="R31" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="S31" t="s">
         <v>742</v>
@@ -9107,7 +9125,7 @@
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F32" t="n">
         <v>5.0</v>
@@ -9116,7 +9134,7 @@
         <v>3.0</v>
       </c>
       <c r="H32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I32" t="n">
         <v>315000.0</v>
@@ -9134,7 +9152,7 @@
         <v>52.0</v>
       </c>
       <c r="N32" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="O32" t="s">
         <v>237</v>
@@ -9146,10 +9164,10 @@
         <v>237</v>
       </c>
       <c r="R32" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="S32" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="33">
@@ -9164,7 +9182,7 @@
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F33" t="n">
         <v>7.0</v>
@@ -9173,7 +9191,7 @@
         <v>7.0</v>
       </c>
       <c r="H33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I33" t="n">
         <v>83006.0</v>
@@ -9191,7 +9209,7 @@
         <v>28.0</v>
       </c>
       <c r="N33" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="O33" t="s">
         <v>344</v>
@@ -9203,7 +9221,7 @@
         <v>344</v>
       </c>
       <c r="R33" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="S33" t="s">
         <v>743</v>
@@ -9221,14 +9239,14 @@
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F34" t="n">
         <v>6.0</v>
       </c>
       <c r="G34"/>
       <c r="H34" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I34" t="n">
         <v>245000.0</v>
@@ -9238,17 +9256,17 @@
       <c r="L34"/>
       <c r="M34"/>
       <c r="N34" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O34" t="s">
-        <v>669</v>
+        <v>42</v>
       </c>
       <c r="P34"/>
       <c r="Q34" t="s">
-        <v>669</v>
+        <v>42</v>
       </c>
       <c r="R34" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="S34"/>
     </row>
@@ -9279,14 +9297,14 @@
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="O35" t="s">
-        <v>670</v>
+        <v>199</v>
       </c>
       <c r="P35"/>
       <c r="Q35" t="s">
-        <v>670</v>
+        <v>199</v>
       </c>
       <c r="R35" t="s">
         <v>529</v>
@@ -9322,19 +9340,21 @@
         <v>8.0</v>
       </c>
       <c r="N36" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="O36" t="s">
-        <v>671</v>
+        <v>95</v>
       </c>
       <c r="P36"/>
       <c r="Q36" t="s">
-        <v>671</v>
+        <v>95</v>
       </c>
       <c r="R36" t="s">
-        <v>709</v>
-      </c>
-      <c r="S36"/>
+        <v>706</v>
+      </c>
+      <c r="S36" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -9347,7 +9367,7 @@
         <v>106</v>
       </c>
       <c r="D37" t="s">
-        <v>553</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
         <v>108</v>
@@ -9359,7 +9379,7 @@
         <v>4.0</v>
       </c>
       <c r="H37" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I37"/>
       <c r="J37"/>
@@ -9370,7 +9390,7 @@
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37" t="s">
-        <v>553</v>
+        <v>107</v>
       </c>
       <c r="R37" t="s">
         <v>106</v>
@@ -9389,7 +9409,7 @@
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F38" t="n">
         <v>4.0</v>
@@ -9404,17 +9424,17 @@
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="O38" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="P38"/>
       <c r="Q38" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="R38" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="S38"/>
     </row>
@@ -9428,7 +9448,7 @@
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F39" t="n">
         <v>29.0</v>
@@ -9437,7 +9457,7 @@
         <v>24.0</v>
       </c>
       <c r="H39" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I39" t="n">
         <v>1221985.0</v>
@@ -9453,20 +9473,20 @@
         <v>600.0</v>
       </c>
       <c r="N39" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O39" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="P39"/>
       <c r="Q39" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="R39" t="s">
         <v>484</v>
       </c>
       <c r="S39" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="40">
@@ -9481,7 +9501,7 @@
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F40" t="n">
         <v>14.0</v>
@@ -9490,7 +9510,7 @@
         <v>14.0</v>
       </c>
       <c r="H40" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I40"/>
       <c r="J40"/>
@@ -9502,17 +9522,17 @@
         <v>323.0</v>
       </c>
       <c r="N40" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="O40" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="P40"/>
       <c r="Q40" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="R40" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="S40" t="s">
         <v>264</v>
@@ -9530,7 +9550,7 @@
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F41" t="n">
         <v>84.0</v>
@@ -9545,14 +9565,14 @@
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="O41" t="s">
-        <v>675</v>
+        <v>199</v>
       </c>
       <c r="P41"/>
       <c r="Q41" t="s">
-        <v>675</v>
+        <v>199</v>
       </c>
       <c r="R41" t="s">
         <v>533</v>
@@ -9571,7 +9591,7 @@
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F42"/>
       <c r="G42"/>
@@ -9582,17 +9602,17 @@
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="O42" t="s">
-        <v>676</v>
+        <v>208</v>
       </c>
       <c r="P42"/>
       <c r="Q42" t="s">
-        <v>676</v>
+        <v>208</v>
       </c>
       <c r="R42" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="S42"/>
     </row>
@@ -9604,9 +9624,11 @@
       <c r="C43" t="s">
         <v>488</v>
       </c>
-      <c r="D43"/>
+      <c r="D43" t="s">
+        <v>553</v>
+      </c>
       <c r="E43" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F43"/>
       <c r="G43"/>
@@ -9619,19 +9641,19 @@
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43" t="s">
-        <v>646</v>
-      </c>
-      <c r="O43" t="s">
-        <v>677</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="O43"/>
       <c r="P43"/>
       <c r="Q43" t="s">
-        <v>677</v>
+        <v>553</v>
       </c>
       <c r="R43" t="s">
         <v>488</v>
       </c>
-      <c r="S43"/>
+      <c r="S43" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -9647,12 +9669,12 @@
         <v>554</v>
       </c>
       <c r="E44" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I44"/>
       <c r="J44"/>
@@ -9666,9 +9688,11 @@
         <v>554</v>
       </c>
       <c r="R44" t="s">
-        <v>713</v>
-      </c>
-      <c r="S44"/>
+        <v>710</v>
+      </c>
+      <c r="S44" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -9680,12 +9704,12 @@
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I45"/>
       <c r="J45"/>
@@ -9693,19 +9717,21 @@
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="O45" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="P45"/>
       <c r="Q45" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="R45" t="s">
         <v>490</v>
       </c>
-      <c r="S45"/>
+      <c r="S45" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -9726,7 +9752,7 @@
         <v>19.0</v>
       </c>
       <c r="H46" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I46" t="n">
         <v>250000.0</v>
@@ -9746,7 +9772,9 @@
       <c r="R46" t="s">
         <v>252</v>
       </c>
-      <c r="S46"/>
+      <c r="S46" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -9760,7 +9788,7 @@
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F47" t="n">
         <v>6.0</v>
@@ -9769,7 +9797,7 @@
         <v>6.0</v>
       </c>
       <c r="H47" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I47" t="n">
         <v>136128.0</v>
@@ -9783,14 +9811,14 @@
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O47" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="P47"/>
       <c r="Q47" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="R47" t="s">
         <v>536</v>
@@ -9813,7 +9841,7 @@
         <v>555</v>
       </c>
       <c r="E48" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F48" t="n">
         <v>20.0</v>
@@ -9826,7 +9854,7 @@
       <c r="L48"/>
       <c r="M48"/>
       <c r="N48" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="O48"/>
       <c r="P48"/>
@@ -9834,7 +9862,7 @@
         <v>555</v>
       </c>
       <c r="R48" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="S48"/>
     </row>
@@ -9849,7 +9877,7 @@
         <v>280</v>
       </c>
       <c r="D49" t="s">
-        <v>556</v>
+        <v>281</v>
       </c>
       <c r="E49" t="s">
         <v>282</v>
@@ -9861,7 +9889,7 @@
         <v>69.0</v>
       </c>
       <c r="H49" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I49" t="n">
         <v>320000.0</v>
@@ -9882,7 +9910,7 @@
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49" t="s">
-        <v>556</v>
+        <v>281</v>
       </c>
       <c r="R49" t="s">
         <v>280</v>
@@ -9919,14 +9947,14 @@
         <v>295</v>
       </c>
       <c r="O50" t="s">
-        <v>293</v>
+        <v>673</v>
       </c>
       <c r="P50"/>
       <c r="Q50" t="s">
-        <v>293</v>
+        <v>673</v>
       </c>
       <c r="R50" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="S50"/>
     </row>
@@ -9954,11 +9982,11 @@
       <c r="M51"/>
       <c r="N51"/>
       <c r="O51" t="s">
-        <v>336</v>
+        <v>674</v>
       </c>
       <c r="P51"/>
       <c r="Q51" t="s">
-        <v>336</v>
+        <v>674</v>
       </c>
       <c r="R51" t="s">
         <v>335</v>
@@ -9986,7 +10014,7 @@
         <v>13.0</v>
       </c>
       <c r="H52" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I52" t="n">
         <v>44010.0</v>
@@ -10005,17 +10033,17 @@
         <v>342</v>
       </c>
       <c r="O52" t="s">
-        <v>339</v>
+        <v>675</v>
       </c>
       <c r="P52"/>
       <c r="Q52" t="s">
-        <v>339</v>
+        <v>675</v>
       </c>
       <c r="R52" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="S52" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
     </row>
     <row r="53">
@@ -10030,7 +10058,7 @@
       </c>
       <c r="D53"/>
       <c r="E53" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F53" t="n">
         <v>9.0</v>
@@ -10039,7 +10067,7 @@
         <v>9.0</v>
       </c>
       <c r="H53" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I53" t="n">
         <v>50562.0</v>
@@ -10055,20 +10083,20 @@
         <v>450.0</v>
       </c>
       <c r="N53" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="O53" t="s">
-        <v>680</v>
+        <v>350</v>
       </c>
       <c r="P53"/>
       <c r="Q53" t="s">
-        <v>680</v>
+        <v>350</v>
       </c>
       <c r="R53" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="S53" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
     </row>
     <row r="54">
@@ -10083,7 +10111,7 @@
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F54" t="n">
         <v>6.0</v>
@@ -10099,14 +10127,14 @@
       <c r="M54"/>
       <c r="N54"/>
       <c r="O54" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="P54"/>
       <c r="Q54" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="R54" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="S54"/>
     </row>
@@ -10121,10 +10149,10 @@
         <v>543</v>
       </c>
       <c r="D55" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E55" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F55" t="n">
         <v>10.0</v>
@@ -10133,7 +10161,7 @@
         <v>10.0</v>
       </c>
       <c r="H55" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I55"/>
       <c r="J55"/>
@@ -10146,13 +10174,13 @@
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="R55" t="s">
         <v>543</v>
       </c>
       <c r="S55" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="56">
@@ -10181,14 +10209,14 @@
         <v>423</v>
       </c>
       <c r="O56" t="s">
-        <v>421</v>
+        <v>677</v>
       </c>
       <c r="P56"/>
       <c r="Q56" t="s">
-        <v>421</v>
+        <v>677</v>
       </c>
       <c r="R56" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="S56"/>
     </row>
@@ -10204,7 +10232,7 @@
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
@@ -10216,14 +10244,14 @@
       <c r="M57"/>
       <c r="N57"/>
       <c r="O57" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="P57"/>
       <c r="Q57" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="R57" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="S57"/>
     </row>
@@ -10254,7 +10282,7 @@
       <c r="P58"/>
       <c r="Q58"/>
       <c r="R58" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="S58"/>
     </row>
@@ -10286,14 +10314,14 @@
         <v>441</v>
       </c>
       <c r="O59" t="s">
-        <v>438</v>
+        <v>679</v>
       </c>
       <c r="P59"/>
       <c r="Q59" t="s">
-        <v>438</v>
+        <v>679</v>
       </c>
       <c r="R59" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="S59"/>
     </row>

--- a/dat/synchros-initiatives.xlsx
+++ b/dat/synchros-initiatives.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18600" yWindow="0" windowWidth="20880" windowHeight="7995" tabRatio="500"/>
+    <workbookView xWindow="19530" yWindow="0" windowWidth="20880" windowHeight="7995" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="775">
   <si>
     <t>A consortium of agricultural cohort studies</t>
   </si>
@@ -1393,6 +1393,9 @@
   </si>
   <si>
     <t>cohortCriteria</t>
+  </si>
+  <si>
+    <t>healthTopic</t>
   </si>
   <si>
     <t>countries</t>
@@ -2031,6 +2034,72 @@
   </si>
   <si>
     <t xml:space="preserve">Australian adults 45+ years old. </t>
+  </si>
+  <si>
+    <t>environmental_health|occupational_health</t>
+  </si>
+  <si>
+    <t>ageing|general_epidemiology</t>
+  </si>
+  <si>
+    <t>biomedicine|genetics|other_omics|medical_imaging</t>
+  </si>
+  <si>
+    <t>environmental_health|chronic_diseases</t>
+  </si>
+  <si>
+    <t>ageing|mental_health|environmental_health|occupational_health|public_health|social_environment|cancer|cardiovascular_diseases|respiratory_diseases|neurological_diseases|musculoskeletal_diseases|chronic_diseases|non_communicable_diseases|communicable_diseases|general_epidemiology|genetics|genomics|other_omics|medical_imaging</t>
+  </si>
+  <si>
+    <t>general_epidemiology</t>
+  </si>
+  <si>
+    <t>cardiovascular_diseases|chronic_diseases</t>
+  </si>
+  <si>
+    <t>ageing|mental_health|neurological_diseases|general_epidemiology|genetics</t>
+  </si>
+  <si>
+    <t>ageing|environmental_health|public_health|musculoskeletal_diseases</t>
+  </si>
+  <si>
+    <t>cardiovascular_diseases</t>
+  </si>
+  <si>
+    <t>ageing</t>
+  </si>
+  <si>
+    <t>environmental_health|social_environment|genetics</t>
+  </si>
+  <si>
+    <t>environmental_health|birth_infancy_childhood_health</t>
+  </si>
+  <si>
+    <t>birth_infancy_childhood_health</t>
+  </si>
+  <si>
+    <t>birth_infancy_childhood_health|cancer</t>
+  </si>
+  <si>
+    <t>ageing|mental_health|neurological_diseases</t>
+  </si>
+  <si>
+    <t>public_health|genetics</t>
+  </si>
+  <si>
+    <t>reproductive_health|chronic_diseases</t>
+  </si>
+  <si>
+    <t>ageing|social_environment|general_epidemiology|other_omics</t>
+  </si>
+  <si>
+    <t>ageing|mental_health|environmental_health|public_health|social_environment|general_epidemiology|genetics</t>
+  </si>
+  <si>
+    <t>public_health</t>
+  </si>
+  <si>
+    <t>social_environment|cancer</t>
   </si>
   <si>
     <t>Australia, Canada, Chile, Costa Rica, Denmark, France, New Zealand, Norway, South Korea, South Africa, United Kingdom, United States</t>
@@ -2546,28 +2615,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2577,42 +2631,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2632,6 +2650,57 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2922,96 +2991,96 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="20"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:12" ht="381.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="19">
         <v>30</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="19">
         <v>3</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="35">
         <v>1300000</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="35">
         <v>316270</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="23" t="s">
+      <c r="K3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3019,53 +3088,53 @@
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="19">
         <v>6</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="35">
         <v>245000</v>
       </c>
-      <c r="H5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="23" t="s">
+      <c r="H5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3073,52 +3142,52 @@
       <c r="A6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="31">
         <v>11</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="25">
+      <c r="E7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="35">
         <v>1221156</v>
       </c>
-      <c r="H7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="23" t="s">
+      <c r="H7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="19" t="s">
         <v>38</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -3126,122 +3195,122 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
       <c r="L11" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="204" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="19">
         <v>66</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="23" t="s">
+      <c r="E12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:12" ht="190.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
@@ -3262,7 +3331,7 @@
       <c r="F14" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="43">
         <v>300000</v>
       </c>
       <c r="H14" s="31" t="s">
@@ -3274,7 +3343,7 @@
       <c r="J14" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="43">
         <v>1477</v>
       </c>
       <c r="L14" s="31" t="s">
@@ -3285,53 +3354,53 @@
       <c r="A15" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="33"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="19">
         <v>18</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="19">
         <v>18</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="35">
         <v>346553</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="35">
         <v>346553</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="19">
         <v>180</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3339,53 +3408,53 @@
       <c r="A17" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="19">
         <v>13</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="19">
         <v>13</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="25">
+      <c r="F18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="35">
         <v>773499</v>
       </c>
-      <c r="H18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="23">
+      <c r="H18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="19">
         <v>100</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3393,53 +3462,53 @@
       <c r="A19" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="19">
         <v>10</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="19">
         <v>10</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="35">
         <v>2662777</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="35">
         <v>2662777</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="19">
         <v>9</v>
       </c>
-      <c r="L20" s="23" t="s">
+      <c r="L20" s="19" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3447,35 +3516,35 @@
       <c r="A21" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="24"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
     </row>
     <row r="23" spans="1:12" ht="254.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
@@ -3484,34 +3553,34 @@
       <c r="B23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="19">
         <v>17</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="19">
         <v>17</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="35">
         <v>76233</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="35">
         <v>76233</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="19">
         <v>31</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" s="19" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3522,49 +3591,49 @@
       <c r="B24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
     </row>
     <row r="25" spans="1:12" ht="267" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="33">
         <v>34</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="33">
         <v>34</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="41">
         <v>950000</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="41">
         <v>950000</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="I25" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="J25" s="39" t="s">
+      <c r="J25" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K25" s="33">
         <v>12</v>
       </c>
       <c r="L25" s="5" t="s">
@@ -3575,16 +3644,16 @@
       <c r="A26" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="6" t="s">
         <v>92</v>
       </c>
@@ -3593,37 +3662,37 @@
       <c r="A27" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="19">
         <v>8</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="25">
+      <c r="F27" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="35">
         <v>119952</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="23">
+      <c r="J27" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="19">
         <v>8</v>
       </c>
-      <c r="L27" s="23" t="s">
+      <c r="L27" s="19" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3631,53 +3700,53 @@
       <c r="A28" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
     </row>
     <row r="29" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="19">
         <v>17</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="19">
         <v>10</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="35">
         <v>280000</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="K29" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L29" s="19" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3685,17 +3754,17 @@
       <c r="A30" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
     </row>
     <row r="31" spans="1:12" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
@@ -3739,37 +3808,37 @@
       <c r="A32" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="19" t="s">
         <v>111</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="19">
         <v>4</v>
       </c>
-      <c r="E32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="25">
+      <c r="E32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="35">
         <v>16527</v>
       </c>
-      <c r="H32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" s="23" t="s">
+      <c r="H32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="19" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3777,87 +3846,87 @@
       <c r="A33" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="30"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
     </row>
     <row r="34" spans="1:12" ht="267.75" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
-      <c r="B34" s="30"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
     </row>
     <row r="35" spans="1:12" ht="204.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="24"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
     </row>
     <row r="36" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="19">
         <v>15</v>
       </c>
       <c r="E36" s="31">
         <v>15</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="35">
         <v>190268</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="35">
         <v>190268</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="I36" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="J36" s="23" t="s">
+      <c r="J36" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L36" s="23" t="s">
+      <c r="K36" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="19" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3865,53 +3934,53 @@
       <c r="A37" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
     </row>
     <row r="38" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="19" t="s">
         <v>122</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="19">
         <v>7</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="19">
         <v>7</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="35">
         <v>42189</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="35">
         <v>31000</v>
       </c>
-      <c r="I38" s="23" t="s">
+      <c r="I38" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J38" s="23" t="s">
+      <c r="J38" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K38" s="23">
+      <c r="K38" s="19">
         <v>15</v>
       </c>
-      <c r="L38" s="23" t="s">
+      <c r="L38" s="19" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3919,52 +3988,52 @@
       <c r="A39" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="24"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
     </row>
     <row r="40" spans="1:12" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="19" t="s">
         <v>128</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="19">
         <v>18</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="19">
         <v>8</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="35">
         <v>102774</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="J40" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K40" s="23">
+      <c r="K40" s="19">
         <v>270</v>
       </c>
       <c r="L40" s="2" t="s">
@@ -3975,88 +4044,88 @@
       <c r="A41" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="30"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="34"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
       <c r="L41" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
-      <c r="B42" s="30"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="34"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="40"/>
       <c r="I42" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
       <c r="L42" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
-      <c r="B43" s="30"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="34"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="40"/>
       <c r="I43" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
       <c r="L43" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
-      <c r="B44" s="30"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="34"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
       <c r="L44" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="24"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="26"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="36"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
       <c r="L45" s="3" t="s">
         <v>141</v>
       </c>
@@ -4071,31 +4140,31 @@
       <c r="C46" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="E46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="23" t="s">
+      <c r="E46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="H46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L46" s="23" t="s">
+      <c r="H46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4109,29 +4178,29 @@
       <c r="C47" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
     </row>
     <row r="49" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -4139,15 +4208,15 @@
       <c r="C49" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
     </row>
     <row r="50" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
@@ -4155,15 +4224,15 @@
       <c r="C50" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
     </row>
     <row r="51" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
@@ -4171,15 +4240,15 @@
       <c r="C51" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
     </row>
     <row r="52" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
@@ -4187,29 +4256,29 @@
       <c r="C52" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="10"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
     </row>
     <row r="54" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
@@ -4217,15 +4286,15 @@
       <c r="C54" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
     </row>
     <row r="55" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
@@ -4233,15 +4302,15 @@
       <c r="C55" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
     </row>
     <row r="56" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
@@ -4249,15 +4318,15 @@
       <c r="C56" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
     </row>
     <row r="57" spans="1:12" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -4265,250 +4334,250 @@
       <c r="C57" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
     </row>
     <row r="58" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="19" t="s">
         <v>158</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="19">
         <v>36</v>
       </c>
-      <c r="E58" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="23" t="s">
+      <c r="E58" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="G58" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="H58" s="23" t="s">
+      <c r="H58" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I58" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J58" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K58" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L58" s="23" t="s">
+      <c r="I58" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J58" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K58" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
-      <c r="B59" s="30"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="28"/>
-      <c r="B60" s="30"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="10"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
     </row>
     <row r="61" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="28"/>
-      <c r="B61" s="30"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
     </row>
     <row r="62" spans="1:12" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
-      <c r="B62" s="24"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
     </row>
     <row r="63" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="19" t="s">
         <v>166</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D63" s="19">
         <v>4</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="19">
         <v>4</v>
       </c>
-      <c r="F63" s="23" t="s">
+      <c r="F63" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G63" s="25">
+      <c r="G63" s="35">
         <v>22730</v>
       </c>
-      <c r="H63" s="23" t="s">
+      <c r="H63" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="I63" s="23" t="s">
+      <c r="I63" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="J63" s="23" t="s">
+      <c r="J63" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K63" s="23">
+      <c r="K63" s="19">
         <v>1043</v>
       </c>
-      <c r="L63" s="23" t="s">
+      <c r="L63" s="19" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="28"/>
-      <c r="B64" s="30"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="10"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
     </row>
     <row r="65" spans="1:12" ht="255" x14ac:dyDescent="0.2">
-      <c r="A65" s="28"/>
-      <c r="B65" s="30"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
     </row>
     <row r="66" spans="1:12" ht="102" x14ac:dyDescent="0.2">
-      <c r="A66" s="28"/>
-      <c r="B66" s="30"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
     </row>
     <row r="67" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="28"/>
-      <c r="B67" s="30"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
     </row>
     <row r="68" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="28"/>
-      <c r="B68" s="30"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
     </row>
     <row r="69" spans="1:12" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="24"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
     </row>
     <row r="70" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="22" t="s">
         <v>176</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -4517,108 +4586,108 @@
       <c r="C70" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D70" s="23">
+      <c r="D70" s="19">
         <v>29</v>
       </c>
-      <c r="E70" s="23">
+      <c r="E70" s="19">
         <v>24</v>
       </c>
-      <c r="F70" s="23" t="s">
+      <c r="F70" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G70" s="25">
+      <c r="G70" s="35">
         <v>1221985</v>
       </c>
-      <c r="H70" s="25">
+      <c r="H70" s="35">
         <v>1221985</v>
       </c>
-      <c r="I70" s="23" t="s">
+      <c r="I70" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="J70" s="23" t="s">
+      <c r="J70" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K70" s="23">
+      <c r="K70" s="19">
         <v>600</v>
       </c>
-      <c r="L70" s="23" t="s">
+      <c r="L70" s="19" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
     </row>
     <row r="72" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="19" t="s">
         <v>183</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D72" s="23">
+      <c r="D72" s="19">
         <v>29</v>
       </c>
-      <c r="E72" s="23">
+      <c r="E72" s="19">
         <v>29</v>
       </c>
-      <c r="F72" s="23" t="s">
+      <c r="F72" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G72" s="23">
+      <c r="G72" s="19">
         <v>700</v>
       </c>
-      <c r="H72" s="23">
+      <c r="H72" s="19">
         <v>700</v>
       </c>
-      <c r="I72" s="23" t="s">
+      <c r="I72" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="J72" s="23" t="s">
+      <c r="J72" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K72" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L72" s="23" t="s">
+      <c r="K72" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L72" s="19" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="306.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="29"/>
-      <c r="B73" s="24"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
     </row>
     <row r="74" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="22" t="s">
         <v>188</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -4627,471 +4696,471 @@
       <c r="C74" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D74" s="23">
+      <c r="D74" s="19">
         <v>14</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="19">
         <v>14</v>
       </c>
-      <c r="F74" s="23" t="s">
+      <c r="F74" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G74" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H74" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I74" s="23" t="s">
+      <c r="G74" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H74" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="J74" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K74" s="23">
+      <c r="J74" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K74" s="19">
         <v>323</v>
       </c>
       <c r="L74" s="10"/>
     </row>
     <row r="75" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="28"/>
+      <c r="A75" s="23"/>
       <c r="B75" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="30"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
       <c r="L75" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="28"/>
+      <c r="A76" s="23"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="30"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
       <c r="L76" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="28"/>
+      <c r="A77" s="23"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
       <c r="L77" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
       <c r="L78" s="3" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B79" s="19" t="s">
         <v>199</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D79" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="E79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G79" s="23">
+      <c r="E79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79" s="19">
         <v>50000</v>
       </c>
-      <c r="H79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L79" s="23" t="s">
+      <c r="H79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L79" s="19" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="28"/>
-      <c r="B80" s="30"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="21"/>
       <c r="C80" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="30"/>
-      <c r="L80" s="30"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
     </row>
     <row r="81" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="28"/>
-      <c r="B81" s="30"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="21"/>
       <c r="C81" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="30"/>
-      <c r="L81" s="30"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
     </row>
     <row r="82" spans="1:12" ht="204" x14ac:dyDescent="0.2">
-      <c r="A82" s="28"/>
-      <c r="B82" s="30"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="21"/>
       <c r="C82" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
     </row>
     <row r="83" spans="1:12" ht="192" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="29"/>
-      <c r="B83" s="24"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
     </row>
     <row r="84" spans="1:12" ht="204" x14ac:dyDescent="0.2">
-      <c r="A84" s="27" t="s">
+      <c r="A84" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="19" t="s">
         <v>208</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D84" s="23" t="s">
+      <c r="D84" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="E84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G84" s="23" t="s">
+      <c r="E84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G84" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="H84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L84" s="23" t="s">
+      <c r="H84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L84" s="19" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="29"/>
-      <c r="B85" s="24"/>
+      <c r="A85" s="24"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
     </row>
     <row r="86" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="27" t="s">
+      <c r="A86" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="19" t="s">
         <v>215</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G86" s="25">
+      <c r="D86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G86" s="35">
         <v>100000</v>
       </c>
-      <c r="H86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I86" s="23" t="s">
+      <c r="H86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I86" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="J86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L86" s="23" t="s">
+      <c r="J86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L86" s="19" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A87" s="28"/>
-      <c r="B87" s="30"/>
+      <c r="A87" s="23"/>
+      <c r="B87" s="21"/>
       <c r="C87" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="30"/>
-      <c r="L87" s="30"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
     </row>
     <row r="88" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="29"/>
-      <c r="B88" s="24"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="24"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
     </row>
     <row r="89" spans="1:12" ht="267.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="27" t="s">
+      <c r="A89" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="B89" s="23" t="s">
+      <c r="B89" s="19" t="s">
         <v>222</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D89" s="23">
+      <c r="D89" s="19">
         <v>9</v>
       </c>
-      <c r="E89" s="23">
+      <c r="E89" s="19">
         <v>6</v>
       </c>
-      <c r="F89" s="23" t="s">
+      <c r="F89" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G89" s="23" t="s">
+      <c r="G89" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="H89" s="25">
+      <c r="H89" s="35">
         <v>150000</v>
       </c>
-      <c r="I89" s="23" t="s">
+      <c r="I89" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="J89" s="23" t="s">
+      <c r="J89" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K89" s="23">
+      <c r="K89" s="19">
         <v>15</v>
       </c>
-      <c r="L89" s="23" t="s">
+      <c r="L89" s="19" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="280.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="28"/>
-      <c r="B90" s="30"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="30"/>
-      <c r="K90" s="30"/>
-      <c r="L90" s="30"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
     </row>
     <row r="91" spans="1:12" ht="243" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
-      <c r="B91" s="24"/>
+      <c r="A91" s="24"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="24"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
     </row>
     <row r="92" spans="1:12" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="27" t="s">
+      <c r="A92" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="19" t="s">
         <v>230</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D92" s="23" t="s">
+      <c r="D92" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="E92" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F92" s="23" t="s">
+      <c r="E92" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G92" s="23" t="s">
+      <c r="G92" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="H92" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I92" s="23" t="s">
+      <c r="H92" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I92" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="J92" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K92" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L92" s="23" t="s">
+      <c r="J92" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K92" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L92" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="293.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="28"/>
-      <c r="B93" s="30"/>
+      <c r="A93" s="23"/>
+      <c r="B93" s="21"/>
       <c r="C93" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="30"/>
-      <c r="K93" s="30"/>
-      <c r="L93" s="30"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
     </row>
     <row r="94" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="29"/>
-      <c r="B94" s="24"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
     </row>
     <row r="95" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B95" s="23" t="s">
+      <c r="B95" s="19" t="s">
         <v>237</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -5100,28 +5169,28 @@
       <c r="D95" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E95" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F95" s="23" t="s">
+      <c r="E95" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G95" s="25">
+      <c r="G95" s="35">
         <v>315000</v>
       </c>
-      <c r="H95" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I95" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J95" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K95" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L95" s="23" t="s">
+      <c r="H95" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I95" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J95" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K95" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L95" s="19" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5129,71 +5198,71 @@
       <c r="A96" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B96" s="30"/>
+      <c r="B96" s="21"/>
       <c r="C96" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D96" s="10"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="30"/>
-      <c r="K96" s="30"/>
-      <c r="L96" s="30"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
     </row>
     <row r="97" spans="1:12" ht="294" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="24"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="9"/>
       <c r="D97" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="24"/>
-      <c r="K97" s="24"/>
-      <c r="L97" s="24"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20"/>
     </row>
     <row r="98" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B98" s="19" t="s">
         <v>245</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D98" s="23" t="s">
+      <c r="D98" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="E98" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F98" s="23" t="s">
+      <c r="E98" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G98" s="23" t="s">
+      <c r="G98" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="H98" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I98" s="23" t="s">
+      <c r="H98" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I98" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="J98" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K98" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L98" s="23" t="s">
+      <c r="J98" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K98" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L98" s="19" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5201,19 +5270,19 @@
       <c r="A99" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="B99" s="24"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="24"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="24"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20"/>
     </row>
     <row r="100" spans="1:12" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
@@ -5254,7 +5323,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="37" t="s">
         <v>259</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -5263,54 +5332,54 @@
       <c r="C101" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D101" s="23">
+      <c r="D101" s="19">
         <v>6</v>
       </c>
-      <c r="E101" s="23">
+      <c r="E101" s="19">
         <v>6</v>
       </c>
-      <c r="F101" s="23" t="s">
+      <c r="F101" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G101" s="25">
+      <c r="G101" s="35">
         <v>136128</v>
       </c>
-      <c r="H101" s="25">
+      <c r="H101" s="35">
         <v>136128</v>
       </c>
-      <c r="I101" s="23" t="s">
+      <c r="I101" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="J101" s="23" t="s">
+      <c r="J101" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="K101" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L101" s="23" t="s">
+      <c r="K101" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L101" s="19" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="20"/>
+      <c r="A102" s="39"/>
       <c r="B102" s="3" t="s">
         <v>261</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
     </row>
     <row r="103" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A103" s="19" t="s">
+      <c r="A103" s="37" t="s">
         <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -5319,179 +5388,179 @@
       <c r="C103" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D103" s="23">
+      <c r="D103" s="19">
         <v>373</v>
       </c>
-      <c r="E103" s="23" t="s">
+      <c r="E103" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="F103" s="23" t="s">
+      <c r="F103" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G103" s="23" t="s">
+      <c r="G103" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="H103" s="23" t="s">
+      <c r="H103" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="I103" s="23" t="s">
+      <c r="I103" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="J103" s="23" t="s">
+      <c r="J103" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K103" s="23" t="s">
+      <c r="K103" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="L103" s="23" t="s">
+      <c r="L103" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="41"/>
+      <c r="A104" s="38"/>
       <c r="B104" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C104" s="10"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="30"/>
-      <c r="I104" s="30"/>
-      <c r="J104" s="30"/>
-      <c r="K104" s="30"/>
-      <c r="L104" s="30"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="21"/>
     </row>
     <row r="105" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="41"/>
+      <c r="A105" s="38"/>
       <c r="B105" s="8"/>
       <c r="C105" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="30"/>
-      <c r="I105" s="30"/>
-      <c r="J105" s="30"/>
-      <c r="K105" s="30"/>
-      <c r="L105" s="30"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
     </row>
     <row r="106" spans="1:12" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
+      <c r="A106" s="39"/>
       <c r="B106" s="9"/>
       <c r="C106" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="24"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="24"/>
-      <c r="K106" s="24"/>
-      <c r="L106" s="24"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="20"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="20"/>
     </row>
     <row r="107" spans="1:12" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="19" t="s">
+      <c r="A107" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D107" s="23">
+      <c r="D107" s="19">
         <v>20</v>
       </c>
-      <c r="E107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L107" s="23" t="s">
+      <c r="E107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L107" s="19" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" s="41"/>
-      <c r="B108" s="30"/>
+      <c r="A108" s="38"/>
+      <c r="B108" s="21"/>
       <c r="C108" s="10"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="30"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="30"/>
-      <c r="I108" s="30"/>
-      <c r="J108" s="30"/>
-      <c r="K108" s="30"/>
-      <c r="L108" s="30"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="21"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="21"/>
     </row>
     <row r="109" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="41"/>
-      <c r="B109" s="30"/>
+      <c r="A109" s="38"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="30"/>
-      <c r="J109" s="30"/>
-      <c r="K109" s="30"/>
-      <c r="L109" s="30"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" s="41"/>
-      <c r="B110" s="30"/>
+      <c r="A110" s="38"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="10"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="30"/>
-      <c r="I110" s="30"/>
-      <c r="J110" s="30"/>
-      <c r="K110" s="30"/>
-      <c r="L110" s="30"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
     </row>
     <row r="111" spans="1:12" ht="243" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="20"/>
-      <c r="B111" s="24"/>
+      <c r="A111" s="39"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="24"/>
-      <c r="K111" s="24"/>
-      <c r="L111" s="24"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="20"/>
+      <c r="K111" s="20"/>
+      <c r="L111" s="20"/>
     </row>
     <row r="112" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
@@ -5532,37 +5601,37 @@
       </c>
     </row>
     <row r="113" spans="1:12" ht="318.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="19" t="s">
+      <c r="A113" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B113" s="23" t="s">
+      <c r="B113" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D113" s="23">
+      <c r="D113" s="19">
         <v>6</v>
       </c>
-      <c r="E113" s="23">
+      <c r="E113" s="19">
         <v>6</v>
       </c>
-      <c r="F113" s="23" t="s">
+      <c r="F113" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G113" s="23" t="s">
+      <c r="G113" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="H113" s="23" t="s">
+      <c r="H113" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="I113" s="23" t="s">
+      <c r="I113" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="J113" s="23" t="s">
+      <c r="J113" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K113" s="23" t="s">
+      <c r="K113" s="19" t="s">
         <v>38</v>
       </c>
       <c r="L113" s="2" t="s">
@@ -5570,51 +5639,51 @@
       </c>
     </row>
     <row r="114" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A114" s="41"/>
-      <c r="B114" s="30"/>
+      <c r="A114" s="38"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="10"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30"/>
-      <c r="F114" s="30"/>
-      <c r="G114" s="30"/>
-      <c r="H114" s="30"/>
-      <c r="I114" s="30"/>
-      <c r="J114" s="30"/>
-      <c r="K114" s="30"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="21"/>
+      <c r="J114" s="21"/>
+      <c r="K114" s="21"/>
       <c r="L114" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="41"/>
-      <c r="B115" s="30"/>
+      <c r="A115" s="38"/>
+      <c r="B115" s="21"/>
       <c r="C115" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D115" s="30"/>
-      <c r="E115" s="30"/>
-      <c r="F115" s="30"/>
-      <c r="G115" s="30"/>
-      <c r="H115" s="30"/>
-      <c r="I115" s="30"/>
-      <c r="J115" s="30"/>
-      <c r="K115" s="30"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
+      <c r="J115" s="21"/>
+      <c r="K115" s="21"/>
       <c r="L115" s="8"/>
     </row>
     <row r="116" spans="1:12" ht="294" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="20"/>
-      <c r="B116" s="24"/>
+      <c r="A116" s="39"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="24"/>
-      <c r="J116" s="24"/>
-      <c r="K116" s="24"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="20"/>
+      <c r="K116" s="20"/>
       <c r="L116" s="9"/>
     </row>
     <row r="117" spans="1:12" ht="396" thickBot="1" x14ac:dyDescent="0.25">
@@ -5732,182 +5801,182 @@
       </c>
     </row>
     <row r="120" spans="1:12" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="27" t="s">
+      <c r="A120" s="22" t="s">
         <v>310</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C120" s="39" t="s">
+      <c r="C120" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="D120" s="23">
+      <c r="D120" s="19">
         <v>43</v>
       </c>
-      <c r="E120" s="23">
+      <c r="E120" s="19">
         <v>43</v>
       </c>
-      <c r="F120" s="23" t="s">
+      <c r="F120" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G120" s="25">
+      <c r="G120" s="35">
         <v>1000000</v>
       </c>
-      <c r="H120" s="25">
+      <c r="H120" s="35">
         <v>1000000</v>
       </c>
-      <c r="I120" s="23" t="s">
+      <c r="I120" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="J120" s="23" t="s">
+      <c r="J120" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="K120" s="23" t="s">
+      <c r="K120" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="L120" s="23" t="s">
+      <c r="L120" s="19" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="29"/>
+      <c r="A121" s="24"/>
       <c r="B121" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C121" s="40"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="26"/>
-      <c r="H121" s="26"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="24"/>
-      <c r="K121" s="24"/>
-      <c r="L121" s="24"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="36"/>
+      <c r="H121" s="36"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="20"/>
+      <c r="K121" s="20"/>
+      <c r="L121" s="20"/>
     </row>
     <row r="122" spans="1:12" ht="102" x14ac:dyDescent="0.2">
-      <c r="A122" s="27" t="s">
+      <c r="A122" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="B122" s="23" t="s">
+      <c r="B122" s="19" t="s">
         <v>318</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D122" s="23" t="s">
+      <c r="D122" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="E122" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F122" s="23" t="s">
+      <c r="E122" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F122" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G122" s="23" t="s">
+      <c r="G122" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="H122" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I122" s="23" t="s">
+      <c r="H122" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I122" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="J122" s="23" t="s">
+      <c r="J122" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K122" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L122" s="23" t="s">
+      <c r="K122" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L122" s="19" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="28"/>
-      <c r="B123" s="30"/>
+      <c r="A123" s="23"/>
+      <c r="B123" s="21"/>
       <c r="C123" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
-      <c r="F123" s="30"/>
-      <c r="G123" s="30"/>
-      <c r="H123" s="30"/>
-      <c r="I123" s="30"/>
-      <c r="J123" s="30"/>
-      <c r="K123" s="30"/>
-      <c r="L123" s="30"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="21"/>
     </row>
     <row r="124" spans="1:12" ht="90" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
-      <c r="B124" s="24"/>
+      <c r="A124" s="24"/>
+      <c r="B124" s="20"/>
       <c r="C124" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="24"/>
-      <c r="H124" s="24"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="24"/>
-      <c r="K124" s="24"/>
-      <c r="L124" s="24"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="20"/>
+      <c r="K124" s="20"/>
+      <c r="L124" s="20"/>
     </row>
     <row r="125" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="27" t="s">
+      <c r="A125" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="B125" s="23" t="s">
+      <c r="B125" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="C125" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="D125" s="23" t="s">
+      <c r="D125" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="E125" s="23" t="s">
+      <c r="E125" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="F125" s="23" t="s">
+      <c r="F125" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="G125" s="23" t="s">
+      <c r="G125" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="H125" s="23" t="s">
+      <c r="H125" s="19" t="s">
         <v>330</v>
       </c>
       <c r="I125" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="J125" s="23" t="s">
+      <c r="J125" s="19" t="s">
         <v>330</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="L125" s="23" t="s">
+      <c r="L125" s="19" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="24"/>
-      <c r="H126" s="24"/>
-      <c r="I126" s="33"/>
-      <c r="J126" s="24"/>
+      <c r="A126" s="24"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="32"/>
+      <c r="J126" s="20"/>
       <c r="K126" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="L126" s="24"/>
+      <c r="L126" s="20"/>
     </row>
     <row r="127" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
@@ -6027,37 +6096,37 @@
       <c r="A130" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B130" s="23" t="s">
+      <c r="B130" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="C130" s="23" t="s">
+      <c r="C130" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="D130" s="23">
+      <c r="D130" s="19">
         <v>9</v>
       </c>
-      <c r="E130" s="23">
+      <c r="E130" s="19">
         <v>9</v>
       </c>
-      <c r="F130" s="23" t="s">
+      <c r="F130" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G130" s="42">
+      <c r="G130" s="25">
         <v>50562</v>
       </c>
-      <c r="H130" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I130" s="23" t="s">
+      <c r="H130" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I130" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="J130" s="23" t="s">
+      <c r="J130" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K130" s="44">
+      <c r="K130" s="27">
         <v>450</v>
       </c>
-      <c r="L130" s="23" t="s">
+      <c r="L130" s="19" t="s">
         <v>353</v>
       </c>
     </row>
@@ -6065,53 +6134,53 @@
       <c r="A131" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="43"/>
-      <c r="H131" s="24"/>
-      <c r="I131" s="24"/>
-      <c r="J131" s="24"/>
-      <c r="K131" s="45"/>
-      <c r="L131" s="24"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="20"/>
+      <c r="K131" s="28"/>
+      <c r="L131" s="20"/>
     </row>
     <row r="132" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="B132" s="23" t="s">
+      <c r="B132" s="19" t="s">
         <v>356</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D132" s="44">
+      <c r="D132" s="27">
         <v>3</v>
       </c>
-      <c r="E132" s="23">
+      <c r="E132" s="19">
         <v>3</v>
       </c>
-      <c r="F132" s="23" t="s">
+      <c r="F132" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G132" s="23">
+      <c r="G132" s="19">
         <v>970</v>
       </c>
-      <c r="H132" s="23">
+      <c r="H132" s="19">
         <v>970</v>
       </c>
-      <c r="I132" s="23" t="s">
+      <c r="I132" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="J132" s="23" t="s">
+      <c r="J132" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K132" s="44" t="s">
+      <c r="K132" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="L132" s="23" t="s">
+      <c r="L132" s="19" t="s">
         <v>361</v>
       </c>
     </row>
@@ -6119,113 +6188,113 @@
       <c r="A133" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B133" s="24"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D133" s="45"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="24"/>
-      <c r="H133" s="24"/>
-      <c r="I133" s="24"/>
-      <c r="J133" s="24"/>
-      <c r="K133" s="45"/>
-      <c r="L133" s="24"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="20"/>
+      <c r="K133" s="28"/>
+      <c r="L133" s="20"/>
     </row>
     <row r="134" spans="1:12" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="46" t="s">
+      <c r="A134" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C134" s="23" t="s">
+      <c r="C134" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="D134" s="44">
+      <c r="D134" s="27">
         <v>9</v>
       </c>
-      <c r="E134" s="23">
+      <c r="E134" s="19">
         <v>9</v>
       </c>
-      <c r="F134" s="23" t="s">
+      <c r="F134" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G134" s="42">
+      <c r="G134" s="25">
         <v>1190000</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="I134" s="23" t="s">
+      <c r="I134" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="J134" s="23" t="s">
+      <c r="J134" s="19" t="s">
         <v>37</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="L134" s="23" t="s">
+      <c r="L134" s="19" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="47"/>
+      <c r="A135" s="30"/>
       <c r="B135" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C135" s="24"/>
-      <c r="D135" s="45"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="43"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="26"/>
       <c r="H135" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="I135" s="24"/>
-      <c r="J135" s="24"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="20"/>
       <c r="K135" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="L135" s="24"/>
+      <c r="L135" s="20"/>
     </row>
     <row r="136" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="B136" s="23" t="s">
+      <c r="B136" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="C136" s="23" t="s">
+      <c r="C136" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D136" s="44">
+      <c r="D136" s="27">
         <v>9</v>
       </c>
-      <c r="E136" s="23">
+      <c r="E136" s="19">
         <v>9</v>
       </c>
-      <c r="F136" s="23" t="s">
+      <c r="F136" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G136" s="42">
+      <c r="G136" s="25">
         <v>40000</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="I136" s="23" t="s">
+      <c r="I136" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="J136" s="23" t="s">
+      <c r="J136" s="19" t="s">
         <v>37</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="L136" s="23" t="s">
+      <c r="L136" s="19" t="s">
         <v>377</v>
       </c>
     </row>
@@ -6233,57 +6302,57 @@
       <c r="A137" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="B137" s="24"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="45"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="24"/>
-      <c r="G137" s="43"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="28"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="26"/>
       <c r="H137" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="I137" s="24"/>
-      <c r="J137" s="24"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="20"/>
       <c r="K137" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="L137" s="24"/>
+      <c r="L137" s="20"/>
     </row>
     <row r="138" spans="1:12" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="B138" s="23" t="s">
+      <c r="B138" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="C138" s="23" t="s">
+      <c r="C138" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="D138" s="44">
+      <c r="D138" s="27">
         <v>6</v>
       </c>
-      <c r="E138" s="23">
+      <c r="E138" s="19">
         <v>6</v>
       </c>
-      <c r="F138" s="23" t="s">
+      <c r="F138" s="19" t="s">
         <v>4</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="H138" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I138" s="23" t="s">
+      <c r="H138" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I138" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="J138" s="23" t="s">
+      <c r="J138" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K138" s="44">
+      <c r="K138" s="27">
         <v>20</v>
       </c>
-      <c r="L138" s="23" t="s">
+      <c r="L138" s="19" t="s">
         <v>385</v>
       </c>
     </row>
@@ -6291,55 +6360,55 @@
       <c r="A139" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="45"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="24"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="28"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="20"/>
       <c r="G139" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="H139" s="24"/>
-      <c r="I139" s="24"/>
-      <c r="J139" s="24"/>
-      <c r="K139" s="45"/>
-      <c r="L139" s="24"/>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="20"/>
+      <c r="K139" s="28"/>
+      <c r="L139" s="20"/>
     </row>
     <row r="140" spans="1:12" ht="318" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="B140" s="23" t="s">
+      <c r="B140" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="C140" s="23" t="s">
+      <c r="C140" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="D140" s="44">
+      <c r="D140" s="27">
         <v>17</v>
       </c>
-      <c r="E140" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F140" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G140" s="23" t="s">
+      <c r="E140" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F140" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G140" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="H140" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I140" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J140" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K140" s="23" t="s">
+      <c r="H140" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I140" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J140" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K140" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="L140" s="23" t="s">
+      <c r="L140" s="19" t="s">
         <v>392</v>
       </c>
     </row>
@@ -6347,53 +6416,53 @@
       <c r="A141" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="45"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="24"/>
-      <c r="G141" s="24"/>
-      <c r="H141" s="24"/>
-      <c r="I141" s="24"/>
-      <c r="J141" s="24"/>
-      <c r="K141" s="24"/>
-      <c r="L141" s="24"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="28"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="20"/>
+      <c r="K141" s="20"/>
+      <c r="L141" s="20"/>
     </row>
     <row r="142" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B142" s="23" t="s">
+      <c r="B142" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="C142" s="23" t="s">
+      <c r="C142" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="D142" s="23">
+      <c r="D142" s="19">
         <v>26</v>
       </c>
-      <c r="E142" s="23">
+      <c r="E142" s="19">
         <v>26</v>
       </c>
-      <c r="F142" s="23" t="s">
+      <c r="F142" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G142" s="42">
+      <c r="G142" s="25">
         <v>839666</v>
       </c>
-      <c r="H142" s="42">
+      <c r="H142" s="25">
         <v>839666</v>
       </c>
-      <c r="I142" s="23" t="s">
+      <c r="I142" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="J142" s="23" t="s">
+      <c r="J142" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K142" s="44">
+      <c r="K142" s="27">
         <v>1300</v>
       </c>
-      <c r="L142" s="23" t="s">
+      <c r="L142" s="19" t="s">
         <v>398</v>
       </c>
     </row>
@@ -6401,53 +6470,53 @@
       <c r="A143" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="B143" s="24"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="24"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="24"/>
-      <c r="G143" s="43"/>
-      <c r="H143" s="43"/>
-      <c r="I143" s="24"/>
-      <c r="J143" s="24"/>
-      <c r="K143" s="45"/>
-      <c r="L143" s="24"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="26"/>
+      <c r="H143" s="26"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="20"/>
+      <c r="K143" s="28"/>
+      <c r="L143" s="20"/>
     </row>
     <row r="144" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A144" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="B144" s="23" t="s">
+      <c r="B144" s="19" t="s">
         <v>401</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D144" s="23">
+      <c r="D144" s="19">
         <v>6</v>
       </c>
-      <c r="E144" s="23">
+      <c r="E144" s="19">
         <v>6</v>
       </c>
-      <c r="F144" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G144" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H144" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I144" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J144" s="23" t="s">
+      <c r="F144" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G144" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H144" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I144" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J144" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K144" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L144" s="23" t="s">
+      <c r="K144" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L144" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6455,99 +6524,99 @@
       <c r="A145" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="B145" s="30"/>
+      <c r="B145" s="21"/>
       <c r="C145" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D145" s="30"/>
-      <c r="E145" s="30"/>
-      <c r="F145" s="30"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="30"/>
-      <c r="I145" s="30"/>
-      <c r="J145" s="30"/>
-      <c r="K145" s="30"/>
-      <c r="L145" s="30"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="21"/>
+      <c r="I145" s="21"/>
+      <c r="J145" s="21"/>
+      <c r="K145" s="21"/>
+      <c r="L145" s="21"/>
     </row>
     <row r="146" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
-      <c r="B146" s="30"/>
+      <c r="B146" s="21"/>
       <c r="C146" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D146" s="30"/>
-      <c r="E146" s="30"/>
-      <c r="F146" s="30"/>
-      <c r="G146" s="30"/>
-      <c r="H146" s="30"/>
-      <c r="I146" s="30"/>
-      <c r="J146" s="30"/>
-      <c r="K146" s="30"/>
-      <c r="L146" s="30"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="21"/>
+      <c r="I146" s="21"/>
+      <c r="J146" s="21"/>
+      <c r="K146" s="21"/>
+      <c r="L146" s="21"/>
     </row>
     <row r="147" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
-      <c r="B147" s="30"/>
+      <c r="B147" s="21"/>
       <c r="C147" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D147" s="30"/>
-      <c r="E147" s="30"/>
-      <c r="F147" s="30"/>
-      <c r="G147" s="30"/>
-      <c r="H147" s="30"/>
-      <c r="I147" s="30"/>
-      <c r="J147" s="30"/>
-      <c r="K147" s="30"/>
-      <c r="L147" s="30"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="21"/>
+      <c r="J147" s="21"/>
+      <c r="K147" s="21"/>
+      <c r="L147" s="21"/>
     </row>
     <row r="148" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
-      <c r="B148" s="30"/>
+      <c r="B148" s="21"/>
       <c r="C148" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D148" s="30"/>
-      <c r="E148" s="30"/>
-      <c r="F148" s="30"/>
-      <c r="G148" s="30"/>
-      <c r="H148" s="30"/>
-      <c r="I148" s="30"/>
-      <c r="J148" s="30"/>
-      <c r="K148" s="30"/>
-      <c r="L148" s="30"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="21"/>
+      <c r="I148" s="21"/>
+      <c r="J148" s="21"/>
+      <c r="K148" s="21"/>
+      <c r="L148" s="21"/>
     </row>
     <row r="149" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
-      <c r="B149" s="30"/>
+      <c r="B149" s="21"/>
       <c r="C149" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D149" s="30"/>
-      <c r="E149" s="30"/>
-      <c r="F149" s="30"/>
-      <c r="G149" s="30"/>
-      <c r="H149" s="30"/>
-      <c r="I149" s="30"/>
-      <c r="J149" s="30"/>
-      <c r="K149" s="30"/>
-      <c r="L149" s="30"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="21"/>
+      <c r="I149" s="21"/>
+      <c r="J149" s="21"/>
+      <c r="K149" s="21"/>
+      <c r="L149" s="21"/>
     </row>
     <row r="150" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
-      <c r="B150" s="24"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="D150" s="24"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="24"/>
-      <c r="G150" s="24"/>
-      <c r="H150" s="24"/>
-      <c r="I150" s="24"/>
-      <c r="J150" s="24"/>
-      <c r="K150" s="24"/>
-      <c r="L150" s="24"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="20"/>
+      <c r="K150" s="20"/>
+      <c r="L150" s="20"/>
     </row>
     <row r="151" spans="1:12" ht="306.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="s">
@@ -6588,58 +6657,58 @@
       </c>
     </row>
     <row r="152" spans="1:12" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="27" t="s">
+      <c r="A152" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="B152" s="23" t="s">
+      <c r="B152" s="19" t="s">
         <v>415</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D152" s="23">
+      <c r="D152" s="19">
         <v>10</v>
       </c>
-      <c r="E152" s="23">
+      <c r="E152" s="19">
         <v>10</v>
       </c>
-      <c r="F152" s="23" t="s">
+      <c r="F152" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G152" s="23" t="s">
+      <c r="G152" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="H152" s="23" t="s">
+      <c r="H152" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="I152" s="23" t="s">
+      <c r="I152" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="J152" s="23" t="s">
+      <c r="J152" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K152" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L152" s="23" t="s">
+      <c r="K152" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L152" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="29"/>
-      <c r="B153" s="24"/>
+      <c r="A153" s="24"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D153" s="24"/>
-      <c r="E153" s="24"/>
-      <c r="F153" s="24"/>
-      <c r="G153" s="24"/>
-      <c r="H153" s="24"/>
-      <c r="I153" s="24"/>
-      <c r="J153" s="24"/>
-      <c r="K153" s="24"/>
-      <c r="L153" s="24"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="20"/>
+      <c r="K153" s="20"/>
+      <c r="L153" s="20"/>
     </row>
     <row r="154" spans="1:12" ht="408.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="s">
@@ -6680,170 +6749,170 @@
       </c>
     </row>
     <row r="155" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="27" t="s">
+      <c r="A155" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="B155" s="23" t="s">
+      <c r="B155" s="19" t="s">
         <v>425</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L155" s="23" t="s">
+      <c r="D155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L155" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A156" s="28"/>
-      <c r="B156" s="30"/>
+      <c r="A156" s="23"/>
+      <c r="B156" s="21"/>
       <c r="C156" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D156" s="30"/>
-      <c r="E156" s="30"/>
-      <c r="F156" s="30"/>
-      <c r="G156" s="30"/>
-      <c r="H156" s="30"/>
-      <c r="I156" s="30"/>
-      <c r="J156" s="30"/>
-      <c r="K156" s="30"/>
-      <c r="L156" s="30"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="21"/>
+      <c r="I156" s="21"/>
+      <c r="J156" s="21"/>
+      <c r="K156" s="21"/>
+      <c r="L156" s="21"/>
     </row>
     <row r="157" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="28"/>
-      <c r="B157" s="30"/>
+      <c r="A157" s="23"/>
+      <c r="B157" s="21"/>
       <c r="C157" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D157" s="30"/>
-      <c r="E157" s="30"/>
-      <c r="F157" s="30"/>
-      <c r="G157" s="30"/>
-      <c r="H157" s="30"/>
-      <c r="I157" s="30"/>
-      <c r="J157" s="30"/>
-      <c r="K157" s="30"/>
-      <c r="L157" s="30"/>
+      <c r="D157" s="21"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="21"/>
+      <c r="I157" s="21"/>
+      <c r="J157" s="21"/>
+      <c r="K157" s="21"/>
+      <c r="L157" s="21"/>
     </row>
     <row r="158" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A158" s="28"/>
-      <c r="B158" s="30"/>
+      <c r="A158" s="23"/>
+      <c r="B158" s="21"/>
       <c r="C158" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D158" s="30"/>
-      <c r="E158" s="30"/>
-      <c r="F158" s="30"/>
-      <c r="G158" s="30"/>
-      <c r="H158" s="30"/>
-      <c r="I158" s="30"/>
-      <c r="J158" s="30"/>
-      <c r="K158" s="30"/>
-      <c r="L158" s="30"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="21"/>
+      <c r="I158" s="21"/>
+      <c r="J158" s="21"/>
+      <c r="K158" s="21"/>
+      <c r="L158" s="21"/>
     </row>
     <row r="159" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="28"/>
-      <c r="B159" s="30"/>
+      <c r="A159" s="23"/>
+      <c r="B159" s="21"/>
       <c r="C159" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D159" s="30"/>
-      <c r="E159" s="30"/>
-      <c r="F159" s="30"/>
-      <c r="G159" s="30"/>
-      <c r="H159" s="30"/>
-      <c r="I159" s="30"/>
-      <c r="J159" s="30"/>
-      <c r="K159" s="30"/>
-      <c r="L159" s="30"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="21"/>
+      <c r="I159" s="21"/>
+      <c r="J159" s="21"/>
+      <c r="K159" s="21"/>
+      <c r="L159" s="21"/>
     </row>
     <row r="160" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A160" s="28"/>
-      <c r="B160" s="30"/>
+      <c r="A160" s="23"/>
+      <c r="B160" s="21"/>
       <c r="C160" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D160" s="30"/>
-      <c r="E160" s="30"/>
-      <c r="F160" s="30"/>
-      <c r="G160" s="30"/>
-      <c r="H160" s="30"/>
-      <c r="I160" s="30"/>
-      <c r="J160" s="30"/>
-      <c r="K160" s="30"/>
-      <c r="L160" s="30"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="21"/>
+      <c r="I160" s="21"/>
+      <c r="J160" s="21"/>
+      <c r="K160" s="21"/>
+      <c r="L160" s="21"/>
     </row>
     <row r="161" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="28"/>
-      <c r="B161" s="30"/>
+      <c r="A161" s="23"/>
+      <c r="B161" s="21"/>
       <c r="C161" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D161" s="30"/>
-      <c r="E161" s="30"/>
-      <c r="F161" s="30"/>
-      <c r="G161" s="30"/>
-      <c r="H161" s="30"/>
-      <c r="I161" s="30"/>
-      <c r="J161" s="30"/>
-      <c r="K161" s="30"/>
-      <c r="L161" s="30"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="21"/>
+      <c r="I161" s="21"/>
+      <c r="J161" s="21"/>
+      <c r="K161" s="21"/>
+      <c r="L161" s="21"/>
     </row>
     <row r="162" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A162" s="28"/>
-      <c r="B162" s="30"/>
+      <c r="A162" s="23"/>
+      <c r="B162" s="21"/>
       <c r="C162" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D162" s="30"/>
-      <c r="E162" s="30"/>
-      <c r="F162" s="30"/>
-      <c r="G162" s="30"/>
-      <c r="H162" s="30"/>
-      <c r="I162" s="30"/>
-      <c r="J162" s="30"/>
-      <c r="K162" s="30"/>
-      <c r="L162" s="30"/>
+      <c r="D162" s="21"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="21"/>
+      <c r="H162" s="21"/>
+      <c r="I162" s="21"/>
+      <c r="J162" s="21"/>
+      <c r="K162" s="21"/>
+      <c r="L162" s="21"/>
     </row>
     <row r="163" spans="1:12" ht="90" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="29"/>
-      <c r="B163" s="24"/>
+      <c r="A163" s="24"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D163" s="24"/>
-      <c r="E163" s="24"/>
-      <c r="F163" s="24"/>
-      <c r="G163" s="24"/>
-      <c r="H163" s="24"/>
-      <c r="I163" s="24"/>
-      <c r="J163" s="24"/>
-      <c r="K163" s="24"/>
-      <c r="L163" s="24"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="20"/>
+      <c r="K163" s="20"/>
+      <c r="L163" s="20"/>
     </row>
     <row r="164" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
@@ -6923,113 +6992,364 @@
     </row>
   </sheetData>
   <mergeCells count="489">
-    <mergeCell ref="L152:L153"/>
-    <mergeCell ref="H144:H150"/>
-    <mergeCell ref="I144:I150"/>
-    <mergeCell ref="J144:J150"/>
-    <mergeCell ref="K144:K150"/>
-    <mergeCell ref="L144:L150"/>
-    <mergeCell ref="H155:H163"/>
-    <mergeCell ref="I155:I163"/>
-    <mergeCell ref="J155:J163"/>
-    <mergeCell ref="K155:K163"/>
-    <mergeCell ref="L155:L163"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="H152:H153"/>
-    <mergeCell ref="I152:I153"/>
-    <mergeCell ref="J152:J153"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="A155:A163"/>
-    <mergeCell ref="B155:B163"/>
-    <mergeCell ref="D155:D163"/>
-    <mergeCell ref="E155:E163"/>
-    <mergeCell ref="F155:F163"/>
-    <mergeCell ref="G155:G163"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="E144:E150"/>
-    <mergeCell ref="F144:F150"/>
-    <mergeCell ref="G144:G150"/>
-    <mergeCell ref="I140:I141"/>
-    <mergeCell ref="J140:J141"/>
-    <mergeCell ref="K140:K141"/>
-    <mergeCell ref="L140:L141"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="J142:J143"/>
-    <mergeCell ref="K142:K143"/>
-    <mergeCell ref="B144:B150"/>
-    <mergeCell ref="D144:D150"/>
-    <mergeCell ref="L138:L139"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="K138:K139"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="I136:I137"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="L136:L137"/>
-    <mergeCell ref="H132:H133"/>
-    <mergeCell ref="I132:I133"/>
-    <mergeCell ref="J132:J133"/>
-    <mergeCell ref="K132:K133"/>
-    <mergeCell ref="L132:L133"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="L134:L135"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="K122:K124"/>
-    <mergeCell ref="L122:L124"/>
-    <mergeCell ref="F122:F124"/>
-    <mergeCell ref="G122:G124"/>
-    <mergeCell ref="H130:H131"/>
-    <mergeCell ref="I130:I131"/>
-    <mergeCell ref="J130:J131"/>
-    <mergeCell ref="K130:K131"/>
-    <mergeCell ref="L130:L131"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="L46:L57"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="J40:J45"/>
+    <mergeCell ref="K40:K45"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="J58:J62"/>
+    <mergeCell ref="D46:D57"/>
+    <mergeCell ref="E46:E57"/>
+    <mergeCell ref="F46:F57"/>
+    <mergeCell ref="G46:G57"/>
+    <mergeCell ref="H46:H57"/>
+    <mergeCell ref="I46:I57"/>
+    <mergeCell ref="J46:J57"/>
+    <mergeCell ref="K46:K57"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="K58:K62"/>
+    <mergeCell ref="L58:L62"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="D63:D69"/>
+    <mergeCell ref="E63:E69"/>
+    <mergeCell ref="F63:F69"/>
+    <mergeCell ref="G63:G69"/>
+    <mergeCell ref="H63:H69"/>
+    <mergeCell ref="I63:I69"/>
+    <mergeCell ref="J63:J69"/>
+    <mergeCell ref="K63:K69"/>
+    <mergeCell ref="L63:L69"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="F58:F62"/>
+    <mergeCell ref="G58:G62"/>
+    <mergeCell ref="H58:H62"/>
+    <mergeCell ref="I58:I62"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H74:H78"/>
+    <mergeCell ref="I74:I78"/>
+    <mergeCell ref="J74:J78"/>
+    <mergeCell ref="K74:K78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="F79:F83"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="G74:G78"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="H79:H83"/>
+    <mergeCell ref="I79:I83"/>
+    <mergeCell ref="J79:J83"/>
+    <mergeCell ref="K79:K83"/>
+    <mergeCell ref="L79:L83"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="K89:K91"/>
+    <mergeCell ref="L89:L91"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="J86:J88"/>
+    <mergeCell ref="K86:K88"/>
+    <mergeCell ref="L86:L88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="G89:G91"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="K92:K94"/>
+    <mergeCell ref="L92:L94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="G95:G97"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="J95:J97"/>
+    <mergeCell ref="K95:K97"/>
+    <mergeCell ref="L95:L97"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="F103:F106"/>
+    <mergeCell ref="G103:G106"/>
+    <mergeCell ref="H103:H106"/>
+    <mergeCell ref="L107:L111"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="D113:D116"/>
+    <mergeCell ref="E113:E116"/>
+    <mergeCell ref="F113:F116"/>
+    <mergeCell ref="I103:I106"/>
+    <mergeCell ref="J103:J106"/>
+    <mergeCell ref="K103:K106"/>
+    <mergeCell ref="L103:L106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="E107:E111"/>
+    <mergeCell ref="F107:F111"/>
+    <mergeCell ref="G107:G111"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="H107:H111"/>
+    <mergeCell ref="I107:I111"/>
+    <mergeCell ref="J107:J111"/>
+    <mergeCell ref="K107:K111"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="J120:J121"/>
+    <mergeCell ref="K120:K121"/>
     <mergeCell ref="L120:L121"/>
     <mergeCell ref="G113:G116"/>
     <mergeCell ref="H113:H116"/>
@@ -7054,364 +7374,113 @@
     <mergeCell ref="H122:H124"/>
     <mergeCell ref="I122:I124"/>
     <mergeCell ref="J122:J124"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="H107:H111"/>
-    <mergeCell ref="I107:I111"/>
-    <mergeCell ref="J107:J111"/>
-    <mergeCell ref="K107:K111"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="J120:J121"/>
-    <mergeCell ref="K120:K121"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="F103:F106"/>
-    <mergeCell ref="G103:G106"/>
-    <mergeCell ref="H103:H106"/>
-    <mergeCell ref="L107:L111"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="D113:D116"/>
-    <mergeCell ref="E113:E116"/>
-    <mergeCell ref="F113:F116"/>
-    <mergeCell ref="I103:I106"/>
-    <mergeCell ref="J103:J106"/>
-    <mergeCell ref="K103:K106"/>
-    <mergeCell ref="L103:L106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="D107:D111"/>
-    <mergeCell ref="E107:E111"/>
-    <mergeCell ref="F107:F111"/>
-    <mergeCell ref="G107:G111"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="K92:K94"/>
-    <mergeCell ref="L92:L94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="G95:G97"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="I95:I97"/>
-    <mergeCell ref="J95:J97"/>
-    <mergeCell ref="K95:K97"/>
-    <mergeCell ref="L95:L97"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="G89:G91"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="I92:I94"/>
-    <mergeCell ref="J89:J91"/>
-    <mergeCell ref="K89:K91"/>
-    <mergeCell ref="L89:L91"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="J86:J88"/>
-    <mergeCell ref="K86:K88"/>
-    <mergeCell ref="L86:L88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="H79:H83"/>
-    <mergeCell ref="I79:I83"/>
-    <mergeCell ref="J79:J83"/>
-    <mergeCell ref="K79:K83"/>
-    <mergeCell ref="L79:L83"/>
-    <mergeCell ref="H74:H78"/>
-    <mergeCell ref="I74:I78"/>
-    <mergeCell ref="J74:J78"/>
-    <mergeCell ref="K74:K78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="F79:F83"/>
-    <mergeCell ref="G79:G83"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="G74:G78"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="K58:K62"/>
-    <mergeCell ref="L58:L62"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="D63:D69"/>
-    <mergeCell ref="E63:E69"/>
-    <mergeCell ref="F63:F69"/>
-    <mergeCell ref="G63:G69"/>
-    <mergeCell ref="H63:H69"/>
-    <mergeCell ref="I63:I69"/>
-    <mergeCell ref="J63:J69"/>
-    <mergeCell ref="K63:K69"/>
-    <mergeCell ref="L63:L69"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="F58:F62"/>
-    <mergeCell ref="G58:G62"/>
-    <mergeCell ref="H58:H62"/>
-    <mergeCell ref="I58:I62"/>
-    <mergeCell ref="J58:J62"/>
-    <mergeCell ref="D46:D57"/>
-    <mergeCell ref="E46:E57"/>
-    <mergeCell ref="F46:F57"/>
-    <mergeCell ref="G46:G57"/>
-    <mergeCell ref="H46:H57"/>
-    <mergeCell ref="I46:I57"/>
-    <mergeCell ref="J46:J57"/>
-    <mergeCell ref="K46:K57"/>
-    <mergeCell ref="L46:L57"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="F40:F45"/>
-    <mergeCell ref="G40:G45"/>
-    <mergeCell ref="H40:H45"/>
-    <mergeCell ref="J40:J45"/>
-    <mergeCell ref="K40:K45"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="K122:K124"/>
+    <mergeCell ref="L122:L124"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="G122:G124"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="J130:J131"/>
+    <mergeCell ref="K130:K131"/>
+    <mergeCell ref="L130:L131"/>
+    <mergeCell ref="H132:H133"/>
+    <mergeCell ref="I132:I133"/>
+    <mergeCell ref="J132:J133"/>
+    <mergeCell ref="K132:K133"/>
+    <mergeCell ref="L132:L133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="L134:L135"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="L136:L137"/>
+    <mergeCell ref="L138:L139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="K138:K139"/>
+    <mergeCell ref="E144:E150"/>
+    <mergeCell ref="F144:F150"/>
+    <mergeCell ref="G144:G150"/>
+    <mergeCell ref="I140:I141"/>
+    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="K140:K141"/>
+    <mergeCell ref="L140:L141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="J142:J143"/>
+    <mergeCell ref="K142:K143"/>
+    <mergeCell ref="B144:B150"/>
+    <mergeCell ref="D144:D150"/>
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="H152:H153"/>
+    <mergeCell ref="I152:I153"/>
+    <mergeCell ref="J152:J153"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="A155:A163"/>
+    <mergeCell ref="B155:B163"/>
+    <mergeCell ref="D155:D163"/>
+    <mergeCell ref="E155:E163"/>
+    <mergeCell ref="F155:F163"/>
+    <mergeCell ref="G155:G163"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="L152:L153"/>
+    <mergeCell ref="H144:H150"/>
+    <mergeCell ref="I144:I150"/>
+    <mergeCell ref="J144:J150"/>
+    <mergeCell ref="K144:K150"/>
+    <mergeCell ref="L144:L150"/>
+    <mergeCell ref="H155:H163"/>
+    <mergeCell ref="I155:I163"/>
+    <mergeCell ref="J155:J163"/>
+    <mergeCell ref="K155:K163"/>
+    <mergeCell ref="L155:L163"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -7484,6 +7553,9 @@
       <c r="S1" t="s">
         <v>460</v>
       </c>
+      <c r="T1" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -7497,7 +7569,7 @@
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F2" t="n">
         <v>30.0</v>
@@ -7506,7 +7578,7 @@
         <v>3.0</v>
       </c>
       <c r="H2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I2" t="n">
         <v>1300000.0</v>
@@ -7522,22 +7594,25 @@
       </c>
       <c r="M2"/>
       <c r="N2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="O2" t="s">
-        <v>650</v>
-      </c>
-      <c r="P2" t="n">
+        <v>651</v>
+      </c>
+      <c r="P2" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q2" t="n">
         <v>12.0</v>
       </c>
-      <c r="Q2" t="s">
-        <v>650</v>
-      </c>
       <c r="R2" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="S2" t="s">
-        <v>720</v>
+        <v>703</v>
+      </c>
+      <c r="T2" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="3">
@@ -7548,11 +7623,11 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F3" t="n">
         <v>18.0</v>
@@ -7561,7 +7636,7 @@
         <v>18.0</v>
       </c>
       <c r="H3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I3" t="n">
         <v>411000.0</v>
@@ -7579,37 +7654,40 @@
         <v>180.0</v>
       </c>
       <c r="N3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O3" t="s">
-        <v>651</v>
-      </c>
-      <c r="P3" t="n">
+        <v>652</v>
+      </c>
+      <c r="P3" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q3" t="n">
         <v>39.0</v>
       </c>
-      <c r="Q3" t="s">
-        <v>651</v>
-      </c>
       <c r="R3" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="S3" t="s">
-        <v>721</v>
+        <v>704</v>
+      </c>
+      <c r="T3" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F4" t="n">
         <v>29.0</v>
@@ -7618,7 +7696,7 @@
         <v>29.0</v>
       </c>
       <c r="H4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I4" t="n">
         <v>700.0</v>
@@ -7634,22 +7712,25 @@
       </c>
       <c r="M4"/>
       <c r="N4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O4" t="s">
+        <v>653</v>
+      </c>
+      <c r="P4" t="s">
         <v>183</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>183</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>5</v>
       </c>
-      <c r="S4" t="s">
-        <v>722</v>
+      <c r="T4" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="5">
@@ -7660,11 +7741,11 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F5" t="n">
         <v>15.0</v>
@@ -7673,7 +7754,7 @@
         <v>8.0</v>
       </c>
       <c r="H5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I5" t="n">
         <v>935227.0</v>
@@ -7687,37 +7768,40 @@
         <v>100.0</v>
       </c>
       <c r="N5" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O5" t="s">
+        <v>654</v>
+      </c>
+      <c r="P5" t="s">
         <v>71</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>8.0</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>71</v>
       </c>
-      <c r="R5" t="s">
-        <v>682</v>
-      </c>
       <c r="S5" t="s">
+        <v>705</v>
+      </c>
+      <c r="T5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F6" t="n">
         <v>7.0</v>
@@ -7726,7 +7810,7 @@
         <v>6.0</v>
       </c>
       <c r="H6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I6" t="n">
         <v>386641.0</v>
@@ -7744,22 +7828,25 @@
         <v>2840.0</v>
       </c>
       <c r="N6" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O6" t="s">
+        <v>655</v>
+      </c>
+      <c r="P6" t="s">
         <v>60</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>60</v>
       </c>
-      <c r="R6" t="s">
-        <v>683</v>
-      </c>
       <c r="S6" t="s">
-        <v>723</v>
+        <v>706</v>
+      </c>
+      <c r="T6" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="7">
@@ -7770,11 +7857,11 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F7" t="n">
         <v>40.0</v>
@@ -7783,7 +7870,7 @@
         <v>21.0</v>
       </c>
       <c r="H7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I7" t="n">
         <v>950000.0</v>
@@ -7801,37 +7888,40 @@
         <v>12.0</v>
       </c>
       <c r="N7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O7" t="s">
+        <v>656</v>
+      </c>
+      <c r="P7" t="s">
         <v>88</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>88</v>
       </c>
-      <c r="R7" t="s">
-        <v>684</v>
-      </c>
       <c r="S7" t="s">
-        <v>724</v>
+        <v>707</v>
+      </c>
+      <c r="T7" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F8" t="n">
         <v>35.0</v>
@@ -7840,7 +7930,7 @@
         <v>35.0</v>
       </c>
       <c r="H8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I8" t="n">
         <v>188000.0</v>
@@ -7858,37 +7948,40 @@
         <v>85.0</v>
       </c>
       <c r="N8" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="O8" t="s">
+        <v>657</v>
+      </c>
+      <c r="P8" t="s">
         <v>304</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>304</v>
       </c>
-      <c r="R8" t="s">
-        <v>685</v>
-      </c>
       <c r="S8" t="s">
-        <v>725</v>
+        <v>708</v>
+      </c>
+      <c r="T8" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F9" t="n">
         <v>3.0</v>
@@ -7897,7 +7990,7 @@
         <v>3.0</v>
       </c>
       <c r="H9" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I9" t="n">
         <v>987.0</v>
@@ -7915,37 +8008,40 @@
         <v>1000.0</v>
       </c>
       <c r="N9" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O9" t="s">
-        <v>652</v>
-      </c>
-      <c r="P9" t="n">
+        <v>658</v>
+      </c>
+      <c r="P9" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q9" t="s">
-        <v>652</v>
-      </c>
       <c r="R9" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="S9" t="s">
-        <v>726</v>
+        <v>709</v>
+      </c>
+      <c r="T9" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F10" t="n">
         <v>40.0</v>
@@ -7954,7 +8050,7 @@
         <v>0.0</v>
       </c>
       <c r="H10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I10" t="n">
         <v>2.1E7</v>
@@ -7968,37 +8064,38 @@
         <v>0.0</v>
       </c>
       <c r="N10" t="s">
-        <v>613</v>
-      </c>
-      <c r="O10" t="s">
-        <v>653</v>
-      </c>
-      <c r="P10" t="n">
+        <v>614</v>
+      </c>
+      <c r="O10"/>
+      <c r="P10" t="s">
+        <v>676</v>
+      </c>
+      <c r="Q10" t="n">
         <v>12.0</v>
       </c>
-      <c r="Q10" t="s">
-        <v>653</v>
-      </c>
       <c r="R10" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="S10" t="s">
-        <v>727</v>
+        <v>710</v>
+      </c>
+      <c r="T10" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C11" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F11" t="n">
         <v>6.0</v>
@@ -8007,7 +8104,7 @@
         <v>6.0</v>
       </c>
       <c r="H11" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I11" t="n">
         <v>2941.0</v>
@@ -8025,37 +8122,40 @@
         <v>500.0</v>
       </c>
       <c r="N11" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O11" t="s">
-        <v>654</v>
-      </c>
-      <c r="P11" t="n">
+        <v>659</v>
+      </c>
+      <c r="P11" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q11" t="n">
         <v>6.0</v>
       </c>
-      <c r="Q11" t="s">
-        <v>654</v>
-      </c>
       <c r="R11" t="s">
+        <v>677</v>
+      </c>
+      <c r="S11" t="s">
         <v>409</v>
       </c>
-      <c r="S11" t="s">
-        <v>728</v>
+      <c r="T11" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B12" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F12" t="n">
         <v>20.0</v>
@@ -8064,7 +8164,7 @@
         <v>0.0</v>
       </c>
       <c r="H12" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -8074,22 +8174,23 @@
         <v>0.0</v>
       </c>
       <c r="N12" t="s">
-        <v>615</v>
-      </c>
-      <c r="O12" t="s">
-        <v>655</v>
-      </c>
-      <c r="P12" t="n">
+        <v>616</v>
+      </c>
+      <c r="O12"/>
+      <c r="P12" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q12" t="n">
         <v>20.0</v>
       </c>
-      <c r="Q12" t="s">
-        <v>655</v>
-      </c>
       <c r="R12" t="s">
+        <v>678</v>
+      </c>
+      <c r="S12" t="s">
         <v>8</v>
       </c>
-      <c r="S12" t="s">
-        <v>729</v>
+      <c r="T12" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="13">
@@ -8103,17 +8204,17 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E13" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F13" t="n">
         <v>32.0</v>
       </c>
       <c r="G13"/>
       <c r="H13" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I13" t="n">
         <v>1000000.0</v>
@@ -8123,37 +8224,40 @@
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O13" t="s">
-        <v>656</v>
-      </c>
-      <c r="P13" t="n">
+        <v>660</v>
+      </c>
+      <c r="P13" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q13" t="n">
         <v>15.0</v>
       </c>
-      <c r="Q13" t="s">
-        <v>656</v>
-      </c>
       <c r="R13" t="s">
+        <v>679</v>
+      </c>
+      <c r="S13" t="s">
         <v>9</v>
       </c>
-      <c r="S13"/>
+      <c r="T13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B14" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C14" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D14" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E14" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F14" t="n">
         <v>18.0</v>
@@ -8162,7 +8266,7 @@
         <v>10.0</v>
       </c>
       <c r="H14" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I14" t="n">
         <v>351000.0</v>
@@ -8178,22 +8282,25 @@
         <v>37000.0</v>
       </c>
       <c r="N14" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="O14" t="s">
-        <v>657</v>
-      </c>
-      <c r="P14" t="n">
+        <v>661</v>
+      </c>
+      <c r="P14" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q14" t="n">
         <v>43.0</v>
       </c>
-      <c r="Q14" t="s">
-        <v>657</v>
-      </c>
       <c r="R14" t="s">
-        <v>511</v>
+        <v>680</v>
       </c>
       <c r="S14" t="s">
-        <v>730</v>
+        <v>512</v>
+      </c>
+      <c r="T14" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="15">
@@ -8208,7 +8315,7 @@
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F15" t="n">
         <v>9.0</v>
@@ -8217,7 +8324,7 @@
         <v>9.0</v>
       </c>
       <c r="H15" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I15" t="n">
         <v>1190000.0</v>
@@ -8231,33 +8338,36 @@
       </c>
       <c r="M15"/>
       <c r="N15" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O15" t="s">
-        <v>658</v>
-      </c>
-      <c r="P15" t="n">
+        <v>662</v>
+      </c>
+      <c r="P15" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q15" t="n">
         <v>8.0</v>
       </c>
-      <c r="Q15" t="s">
-        <v>658</v>
-      </c>
       <c r="R15" t="s">
+        <v>681</v>
+      </c>
+      <c r="S15" t="s">
         <v>11</v>
       </c>
-      <c r="S15" t="s">
-        <v>731</v>
+      <c r="T15" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B16" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C16" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
@@ -8270,7 +8380,7 @@
         <v>9.0</v>
       </c>
       <c r="H16" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I16" t="n">
         <v>40000.0</v>
@@ -8284,22 +8394,25 @@
       </c>
       <c r="M16"/>
       <c r="N16" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O16" t="s">
+        <v>661</v>
+      </c>
+      <c r="P16" t="s">
         <v>95</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>95</v>
       </c>
-      <c r="R16" t="s">
-        <v>688</v>
-      </c>
       <c r="S16" t="s">
-        <v>732</v>
+        <v>711</v>
+      </c>
+      <c r="T16" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="17">
@@ -8310,13 +8423,13 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F17" t="n">
         <v>6.0</v>
@@ -8325,7 +8438,7 @@
         <v>6.0</v>
       </c>
       <c r="H17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I17" t="n">
         <v>32000.0</v>
@@ -8341,37 +8454,40 @@
       </c>
       <c r="M17"/>
       <c r="N17" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O17" t="s">
-        <v>659</v>
-      </c>
-      <c r="P17" t="n">
+        <v>663</v>
+      </c>
+      <c r="P17" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q17" t="n">
         <v>6.0</v>
       </c>
-      <c r="Q17" t="s">
-        <v>659</v>
-      </c>
       <c r="R17" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="S17" t="s">
-        <v>733</v>
+        <v>712</v>
+      </c>
+      <c r="T17" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B18" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C18" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F18" t="n">
         <v>4.0</v>
@@ -8380,7 +8496,7 @@
         <v>4.0</v>
       </c>
       <c r="H18" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I18" t="n">
         <v>22730.0</v>
@@ -8396,21 +8512,24 @@
         <v>1043.0</v>
       </c>
       <c r="N18" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O18" t="s">
+        <v>664</v>
+      </c>
+      <c r="P18" t="s">
         <v>166</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>4.0</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>166</v>
       </c>
-      <c r="R18" t="s">
-        <v>690</v>
-      </c>
       <c r="S18" t="s">
+        <v>713</v>
+      </c>
+      <c r="T18" t="s">
         <v>174</v>
       </c>
     </row>
@@ -8422,11 +8541,11 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F19" t="n">
         <v>7.0</v>
@@ -8435,7 +8554,7 @@
         <v>7.0</v>
       </c>
       <c r="H19" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I19" t="n">
         <v>42189.0</v>
@@ -8453,37 +8572,40 @@
         <v>15.0</v>
       </c>
       <c r="N19" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O19" t="s">
         <v>660</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q19" t="n">
         <v>3.0</v>
       </c>
-      <c r="Q19" t="s">
-        <v>660</v>
-      </c>
       <c r="R19" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="S19" t="s">
-        <v>734</v>
+        <v>714</v>
+      </c>
+      <c r="T19" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B20" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C20" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F20" t="n">
         <v>6.0</v>
@@ -8492,7 +8614,7 @@
         <v>6.0</v>
       </c>
       <c r="H20" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I20" t="n">
         <v>388120.0</v>
@@ -8508,39 +8630,42 @@
         <v>20.0</v>
       </c>
       <c r="N20" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O20" t="s">
-        <v>661</v>
-      </c>
-      <c r="P20" t="n">
+        <v>665</v>
+      </c>
+      <c r="P20" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q20" t="n">
         <v>11.0</v>
       </c>
-      <c r="Q20" t="s">
-        <v>661</v>
-      </c>
       <c r="R20" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="S20" t="s">
-        <v>735</v>
+        <v>715</v>
+      </c>
+      <c r="T20" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B21" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C21" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D21" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E21" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F21" t="n">
         <v>18.0</v>
@@ -8549,7 +8674,7 @@
         <v>18.0</v>
       </c>
       <c r="H21" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I21" t="n">
         <v>7960.0</v>
@@ -8561,35 +8686,38 @@
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21" t="s">
-        <v>624</v>
-      </c>
-      <c r="O21"/>
-      <c r="P21" t="n">
+        <v>625</v>
+      </c>
+      <c r="O21" t="s">
+        <v>666</v>
+      </c>
+      <c r="P21"/>
+      <c r="Q21" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q21" t="s">
-        <v>550</v>
-      </c>
       <c r="R21" t="s">
-        <v>693</v>
+        <v>551</v>
       </c>
       <c r="S21" t="s">
-        <v>736</v>
+        <v>716</v>
+      </c>
+      <c r="T21" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B22" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C22" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F22" t="n">
         <v>10.0</v>
@@ -8598,7 +8726,7 @@
         <v>6.0</v>
       </c>
       <c r="H22" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I22" t="n">
         <v>5000000.0</v>
@@ -8616,22 +8744,23 @@
         <v>15.0</v>
       </c>
       <c r="N22" t="s">
-        <v>625</v>
-      </c>
-      <c r="O22" t="s">
-        <v>662</v>
-      </c>
-      <c r="P22" t="n">
+        <v>626</v>
+      </c>
+      <c r="O22"/>
+      <c r="P22" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q22" t="n">
         <v>5.0</v>
       </c>
-      <c r="Q22" t="s">
-        <v>662</v>
-      </c>
       <c r="R22" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="S22" t="s">
-        <v>737</v>
+        <v>717</v>
+      </c>
+      <c r="T22" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="23">
@@ -8642,11 +8771,11 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F23" t="n">
         <v>18.0</v>
@@ -8655,7 +8784,7 @@
         <v>18.0</v>
       </c>
       <c r="H23" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I23" t="n">
         <v>76233.0</v>
@@ -8673,37 +8802,38 @@
         <v>31.0</v>
       </c>
       <c r="N23" t="s">
-        <v>626</v>
-      </c>
-      <c r="O23" t="s">
-        <v>663</v>
-      </c>
-      <c r="P23" t="n">
+        <v>627</v>
+      </c>
+      <c r="O23"/>
+      <c r="P23" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q23" t="n">
         <v>5.0</v>
       </c>
-      <c r="Q23" t="s">
-        <v>663</v>
-      </c>
       <c r="R23" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="S23" t="s">
-        <v>738</v>
+        <v>718</v>
+      </c>
+      <c r="T23" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B24" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C24" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F24" t="n">
         <v>67.0</v>
@@ -8712,7 +8842,7 @@
         <v>0.0</v>
       </c>
       <c r="H24" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -8724,35 +8854,38 @@
       </c>
       <c r="M24"/>
       <c r="N24" t="s">
-        <v>627</v>
-      </c>
-      <c r="O24"/>
-      <c r="P24" t="n">
+        <v>628</v>
+      </c>
+      <c r="O24" t="s">
+        <v>667</v>
+      </c>
+      <c r="P24"/>
+      <c r="Q24" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q24"/>
-      <c r="R24" t="s">
-        <v>696</v>
-      </c>
+      <c r="R24"/>
       <c r="S24" t="s">
-        <v>720</v>
+        <v>719</v>
+      </c>
+      <c r="T24" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B25" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C25" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F25" t="n">
         <v>43.0</v>
@@ -8761,7 +8894,7 @@
         <v>43.0</v>
       </c>
       <c r="H25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I25" t="n">
         <v>1000000.0</v>
@@ -8775,37 +8908,40 @@
         <v>100.0</v>
       </c>
       <c r="N25" t="s">
-        <v>628</v>
-      </c>
-      <c r="O25"/>
-      <c r="P25" t="n">
+        <v>629</v>
+      </c>
+      <c r="O25" t="s">
+        <v>656</v>
+      </c>
+      <c r="P25"/>
+      <c r="Q25" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>17</v>
       </c>
-      <c r="R25" t="s">
-        <v>475</v>
-      </c>
       <c r="S25" t="s">
-        <v>739</v>
+        <v>476</v>
+      </c>
+      <c r="T25" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B26" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C26" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D26" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E26" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F26" t="n">
         <v>26.0</v>
@@ -8814,7 +8950,7 @@
         <v>26.0</v>
       </c>
       <c r="H26" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I26" t="n">
         <v>839666.0</v>
@@ -8832,37 +8968,40 @@
         <v>1300.0</v>
       </c>
       <c r="N26" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="O26" t="s">
-        <v>664</v>
-      </c>
-      <c r="P26" t="n">
+        <v>668</v>
+      </c>
+      <c r="P26" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q26" t="n">
         <v>11.0</v>
       </c>
-      <c r="Q26" t="s">
-        <v>664</v>
-      </c>
       <c r="R26" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="S26" t="s">
-        <v>740</v>
+        <v>720</v>
+      </c>
+      <c r="T26" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B27" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F27" t="n">
         <v>18.0</v>
@@ -8871,7 +9010,7 @@
         <v>8.0</v>
       </c>
       <c r="H27" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I27" t="n">
         <v>1941000.0</v>
@@ -8889,22 +9028,25 @@
         <v>270.0</v>
       </c>
       <c r="N27" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O27" t="s">
-        <v>665</v>
-      </c>
-      <c r="P27" t="n">
+        <v>669</v>
+      </c>
+      <c r="P27" t="s">
+        <v>688</v>
+      </c>
+      <c r="Q27" t="n">
         <v>9.0</v>
       </c>
-      <c r="Q27" t="s">
-        <v>665</v>
-      </c>
       <c r="R27" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="S27" t="s">
-        <v>720</v>
+        <v>721</v>
+      </c>
+      <c r="T27" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="28">
@@ -8915,11 +9057,11 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F28" t="n">
         <v>10.0</v>
@@ -8928,7 +9070,7 @@
         <v>9.0</v>
       </c>
       <c r="H28" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I28" t="n">
         <v>2662777.0</v>
@@ -8944,21 +9086,24 @@
         <v>2560.0</v>
       </c>
       <c r="N28" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="O28" t="s">
-        <v>666</v>
-      </c>
-      <c r="P28" t="n">
+        <v>670</v>
+      </c>
+      <c r="P28" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q28" t="n">
         <v>9.0</v>
       </c>
-      <c r="Q28" t="s">
-        <v>666</v>
-      </c>
       <c r="R28" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="S28" t="s">
+        <v>722</v>
+      </c>
+      <c r="T28" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8970,11 +9115,11 @@
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F29" t="n">
         <v>15.0</v>
@@ -8983,7 +9128,7 @@
         <v>0.0</v>
       </c>
       <c r="H29" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I29" t="n">
         <v>190268.0</v>
@@ -8997,46 +9142,47 @@
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29" t="s">
-        <v>632</v>
-      </c>
-      <c r="O29" t="s">
+        <v>633</v>
+      </c>
+      <c r="O29"/>
+      <c r="P29" t="s">
         <v>88</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>88</v>
       </c>
-      <c r="R29" t="s">
-        <v>700</v>
-      </c>
       <c r="S29" t="s">
-        <v>741</v>
+        <v>723</v>
+      </c>
+      <c r="T29" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B30" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C30" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
         <v>0.0</v>
       </c>
       <c r="H30" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -9044,35 +9190,36 @@
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="O30"/>
-      <c r="P30" t="n">
+      <c r="P30"/>
+      <c r="Q30" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>14</v>
       </c>
-      <c r="R30" t="s">
-        <v>701</v>
-      </c>
-      <c r="S30"/>
+      <c r="S30" t="s">
+        <v>724</v>
+      </c>
+      <c r="T30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B31" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C31" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D31" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E31" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F31" t="n">
         <v>27.0</v>
@@ -9081,7 +9228,7 @@
         <v>27.0</v>
       </c>
       <c r="H31" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I31" t="n">
         <v>89889.0</v>
@@ -9095,37 +9242,40 @@
       </c>
       <c r="M31"/>
       <c r="N31" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O31" t="s">
-        <v>667</v>
-      </c>
-      <c r="P31" t="n">
+        <v>664</v>
+      </c>
+      <c r="P31" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q31" t="n">
         <v>12.0</v>
       </c>
-      <c r="Q31" t="s">
-        <v>667</v>
-      </c>
       <c r="R31" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="S31" t="s">
-        <v>742</v>
+        <v>725</v>
+      </c>
+      <c r="T31" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B32" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C32" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F32" t="n">
         <v>5.0</v>
@@ -9134,7 +9284,7 @@
         <v>3.0</v>
       </c>
       <c r="H32" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I32" t="n">
         <v>315000.0</v>
@@ -9152,37 +9302,40 @@
         <v>52.0</v>
       </c>
       <c r="N32" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="O32" t="s">
+        <v>671</v>
+      </c>
+      <c r="P32" t="s">
         <v>237</v>
       </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>237</v>
       </c>
-      <c r="R32" t="s">
-        <v>703</v>
-      </c>
       <c r="S32" t="s">
-        <v>722</v>
+        <v>726</v>
+      </c>
+      <c r="T32" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B33" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C33" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F33" t="n">
         <v>7.0</v>
@@ -9191,7 +9344,7 @@
         <v>7.0</v>
       </c>
       <c r="H33" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I33" t="n">
         <v>83006.0</v>
@@ -9209,44 +9362,47 @@
         <v>28.0</v>
       </c>
       <c r="N33" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O33" t="s">
+        <v>672</v>
+      </c>
+      <c r="P33" t="s">
         <v>344</v>
       </c>
-      <c r="P33" t="n">
+      <c r="Q33" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>344</v>
       </c>
-      <c r="R33" t="s">
-        <v>704</v>
-      </c>
       <c r="S33" t="s">
-        <v>743</v>
+        <v>727</v>
+      </c>
+      <c r="T33" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B34" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C34" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F34" t="n">
         <v>6.0</v>
       </c>
       <c r="G34"/>
       <c r="H34" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I34" t="n">
         <v>245000.0</v>
@@ -9256,19 +9412,20 @@
       <c r="L34"/>
       <c r="M34"/>
       <c r="N34" t="s">
-        <v>637</v>
-      </c>
-      <c r="O34" t="s">
+        <v>638</v>
+      </c>
+      <c r="O34"/>
+      <c r="P34" t="s">
         <v>42</v>
       </c>
-      <c r="P34"/>
-      <c r="Q34" t="s">
+      <c r="Q34"/>
+      <c r="R34" t="s">
         <v>42</v>
       </c>
-      <c r="R34" t="s">
-        <v>705</v>
-      </c>
-      <c r="S34"/>
+      <c r="S34" t="s">
+        <v>728</v>
+      </c>
+      <c r="T34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -9278,7 +9435,7 @@
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
@@ -9297,19 +9454,20 @@
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35" t="s">
-        <v>638</v>
-      </c>
-      <c r="O35" t="s">
+        <v>639</v>
+      </c>
+      <c r="O35"/>
+      <c r="P35" t="s">
         <v>199</v>
       </c>
-      <c r="P35"/>
-      <c r="Q35" t="s">
+      <c r="Q35"/>
+      <c r="R35" t="s">
         <v>199</v>
       </c>
-      <c r="R35" t="s">
-        <v>529</v>
-      </c>
-      <c r="S35"/>
+      <c r="S35" t="s">
+        <v>530</v>
+      </c>
+      <c r="T35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -9319,7 +9477,7 @@
         <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
@@ -9340,28 +9498,29 @@
         <v>8.0</v>
       </c>
       <c r="N36" t="s">
-        <v>639</v>
-      </c>
-      <c r="O36" t="s">
+        <v>640</v>
+      </c>
+      <c r="O36"/>
+      <c r="P36" t="s">
         <v>95</v>
       </c>
-      <c r="P36"/>
-      <c r="Q36" t="s">
+      <c r="Q36"/>
+      <c r="R36" t="s">
         <v>95</v>
       </c>
-      <c r="R36" t="s">
-        <v>706</v>
-      </c>
       <c r="S36" t="s">
-        <v>744</v>
+        <v>729</v>
+      </c>
+      <c r="T36" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B37" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C37" t="s">
         <v>106</v>
@@ -9379,7 +9538,7 @@
         <v>4.0</v>
       </c>
       <c r="H37" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I37"/>
       <c r="J37"/>
@@ -9389,13 +9548,14 @@
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
-      <c r="Q37" t="s">
+      <c r="Q37"/>
+      <c r="R37" t="s">
         <v>107</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>106</v>
       </c>
-      <c r="S37"/>
+      <c r="T37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -9405,11 +9565,11 @@
         <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F38" t="n">
         <v>4.0</v>
@@ -9424,31 +9584,32 @@
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38" t="s">
-        <v>640</v>
-      </c>
-      <c r="O38" t="s">
-        <v>668</v>
-      </c>
-      <c r="P38"/>
-      <c r="Q38" t="s">
-        <v>668</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="O38"/>
+      <c r="P38" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q38"/>
       <c r="R38" t="s">
-        <v>707</v>
-      </c>
-      <c r="S38"/>
+        <v>691</v>
+      </c>
+      <c r="S38" t="s">
+        <v>730</v>
+      </c>
+      <c r="T38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B39"/>
       <c r="C39" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F39" t="n">
         <v>29.0</v>
@@ -9457,7 +9618,7 @@
         <v>24.0</v>
       </c>
       <c r="H39" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I39" t="n">
         <v>1221985.0</v>
@@ -9473,35 +9634,36 @@
         <v>600.0</v>
       </c>
       <c r="N39" t="s">
-        <v>641</v>
-      </c>
-      <c r="O39" t="s">
-        <v>669</v>
-      </c>
-      <c r="P39"/>
-      <c r="Q39" t="s">
-        <v>669</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="O39"/>
+      <c r="P39" t="s">
+        <v>692</v>
+      </c>
+      <c r="Q39"/>
       <c r="R39" t="s">
-        <v>484</v>
+        <v>692</v>
       </c>
       <c r="S39" t="s">
-        <v>745</v>
+        <v>485</v>
+      </c>
+      <c r="T39" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B40" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C40" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F40" t="n">
         <v>14.0</v>
@@ -9510,7 +9672,7 @@
         <v>14.0</v>
       </c>
       <c r="H40" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I40"/>
       <c r="J40"/>
@@ -9522,35 +9684,36 @@
         <v>323.0</v>
       </c>
       <c r="N40" t="s">
-        <v>642</v>
-      </c>
-      <c r="O40" t="s">
-        <v>670</v>
-      </c>
-      <c r="P40"/>
-      <c r="Q40" t="s">
-        <v>670</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="O40"/>
+      <c r="P40" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q40"/>
       <c r="R40" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="S40" t="s">
+        <v>731</v>
+      </c>
+      <c r="T40" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B41" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C41" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F41" t="n">
         <v>84.0</v>
@@ -9565,33 +9728,34 @@
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41" t="s">
-        <v>643</v>
-      </c>
-      <c r="O41" t="s">
+        <v>644</v>
+      </c>
+      <c r="O41"/>
+      <c r="P41" t="s">
         <v>199</v>
       </c>
-      <c r="P41"/>
-      <c r="Q41" t="s">
+      <c r="Q41"/>
+      <c r="R41" t="s">
         <v>199</v>
       </c>
-      <c r="R41" t="s">
-        <v>533</v>
-      </c>
-      <c r="S41"/>
+      <c r="S41" t="s">
+        <v>534</v>
+      </c>
+      <c r="T41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B42" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C42" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F42"/>
       <c r="G42"/>
@@ -9602,33 +9766,34 @@
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42" t="s">
-        <v>644</v>
-      </c>
-      <c r="O42" t="s">
+        <v>645</v>
+      </c>
+      <c r="O42"/>
+      <c r="P42" t="s">
         <v>208</v>
       </c>
-      <c r="P42"/>
-      <c r="Q42" t="s">
+      <c r="Q42"/>
+      <c r="R42" t="s">
         <v>208</v>
       </c>
-      <c r="R42" t="s">
-        <v>709</v>
-      </c>
-      <c r="S42"/>
+      <c r="S42" t="s">
+        <v>732</v>
+      </c>
+      <c r="T42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D43" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E43" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F43"/>
       <c r="G43"/>
@@ -9641,40 +9806,41 @@
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="O43"/>
       <c r="P43"/>
-      <c r="Q43" t="s">
-        <v>553</v>
-      </c>
+      <c r="Q43"/>
       <c r="R43" t="s">
-        <v>488</v>
+        <v>554</v>
       </c>
       <c r="S43" t="s">
-        <v>746</v>
+        <v>489</v>
+      </c>
+      <c r="T43" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B44" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C44" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D44" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E44" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I44"/>
       <c r="J44"/>
@@ -9684,32 +9850,33 @@
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44"/>
-      <c r="Q44" t="s">
-        <v>554</v>
-      </c>
+      <c r="Q44"/>
       <c r="R44" t="s">
-        <v>710</v>
+        <v>555</v>
       </c>
       <c r="S44" t="s">
-        <v>747</v>
+        <v>733</v>
+      </c>
+      <c r="T44" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I45"/>
       <c r="J45"/>
@@ -9717,20 +9884,21 @@
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45" t="s">
-        <v>646</v>
-      </c>
-      <c r="O45" t="s">
-        <v>671</v>
-      </c>
-      <c r="P45"/>
-      <c r="Q45" t="s">
-        <v>671</v>
-      </c>
+        <v>647</v>
+      </c>
+      <c r="O45"/>
+      <c r="P45" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q45"/>
       <c r="R45" t="s">
-        <v>490</v>
+        <v>694</v>
       </c>
       <c r="S45" t="s">
-        <v>748</v>
+        <v>491</v>
+      </c>
+      <c r="T45" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="46">
@@ -9752,7 +9920,7 @@
         <v>19.0</v>
       </c>
       <c r="H46" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I46" t="n">
         <v>250000.0</v>
@@ -9766,29 +9934,30 @@
       </c>
       <c r="O46"/>
       <c r="P46"/>
-      <c r="Q46" t="s">
+      <c r="Q46"/>
+      <c r="R46" t="s">
         <v>14</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>252</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B47" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C47" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F47" t="n">
         <v>6.0</v>
@@ -9797,7 +9966,7 @@
         <v>6.0</v>
       </c>
       <c r="H47" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I47" t="n">
         <v>136128.0</v>
@@ -9811,37 +9980,38 @@
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47" t="s">
-        <v>647</v>
-      </c>
-      <c r="O47" t="s">
-        <v>672</v>
-      </c>
-      <c r="P47"/>
-      <c r="Q47" t="s">
-        <v>672</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="O47"/>
+      <c r="P47" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q47"/>
       <c r="R47" t="s">
-        <v>536</v>
+        <v>695</v>
       </c>
       <c r="S47" t="s">
+        <v>537</v>
+      </c>
+      <c r="T47" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B48" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C48" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D48" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E48" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F48" t="n">
         <v>20.0</v>
@@ -9854,17 +10024,18 @@
       <c r="L48"/>
       <c r="M48"/>
       <c r="N48" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O48"/>
       <c r="P48"/>
-      <c r="Q48" t="s">
-        <v>555</v>
-      </c>
+      <c r="Q48"/>
       <c r="R48" t="s">
-        <v>711</v>
-      </c>
-      <c r="S48"/>
+        <v>556</v>
+      </c>
+      <c r="S48" t="s">
+        <v>734</v>
+      </c>
+      <c r="T48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -9889,7 +10060,7 @@
         <v>69.0</v>
       </c>
       <c r="H49" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I49" t="n">
         <v>320000.0</v>
@@ -9909,25 +10080,26 @@
       </c>
       <c r="O49"/>
       <c r="P49"/>
-      <c r="Q49" t="s">
+      <c r="Q49"/>
+      <c r="R49" t="s">
         <v>281</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>280</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B50" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C50" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
@@ -9946,27 +10118,28 @@
       <c r="N50" t="s">
         <v>295</v>
       </c>
-      <c r="O50" t="s">
-        <v>673</v>
-      </c>
-      <c r="P50"/>
-      <c r="Q50" t="s">
-        <v>673</v>
-      </c>
+      <c r="O50"/>
+      <c r="P50" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q50"/>
       <c r="R50" t="s">
-        <v>712</v>
-      </c>
-      <c r="S50"/>
+        <v>696</v>
+      </c>
+      <c r="S50" t="s">
+        <v>735</v>
+      </c>
+      <c r="T50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B51" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C51" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
@@ -9981,27 +10154,28 @@
       <c r="L51"/>
       <c r="M51"/>
       <c r="N51"/>
-      <c r="O51" t="s">
-        <v>674</v>
-      </c>
-      <c r="P51"/>
-      <c r="Q51" t="s">
-        <v>674</v>
-      </c>
+      <c r="O51"/>
+      <c r="P51" t="s">
+        <v>697</v>
+      </c>
+      <c r="Q51"/>
       <c r="R51" t="s">
+        <v>697</v>
+      </c>
+      <c r="S51" t="s">
         <v>335</v>
       </c>
-      <c r="S51"/>
+      <c r="T51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B52" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C52" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
@@ -10014,7 +10188,7 @@
         <v>13.0</v>
       </c>
       <c r="H52" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I52" t="n">
         <v>44010.0</v>
@@ -10032,33 +10206,34 @@
       <c r="N52" t="s">
         <v>342</v>
       </c>
-      <c r="O52" t="s">
-        <v>675</v>
-      </c>
-      <c r="P52"/>
-      <c r="Q52" t="s">
-        <v>675</v>
-      </c>
+      <c r="O52"/>
+      <c r="P52" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q52"/>
       <c r="R52" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="S52" t="s">
-        <v>749</v>
+        <v>736</v>
+      </c>
+      <c r="T52" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B53" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C53" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D53"/>
       <c r="E53" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F53" t="n">
         <v>9.0</v>
@@ -10067,7 +10242,7 @@
         <v>9.0</v>
       </c>
       <c r="H53" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I53" t="n">
         <v>50562.0</v>
@@ -10083,35 +10258,36 @@
         <v>450.0</v>
       </c>
       <c r="N53" t="s">
-        <v>649</v>
-      </c>
-      <c r="O53" t="s">
+        <v>650</v>
+      </c>
+      <c r="O53"/>
+      <c r="P53" t="s">
         <v>350</v>
       </c>
-      <c r="P53"/>
-      <c r="Q53" t="s">
+      <c r="Q53"/>
+      <c r="R53" t="s">
         <v>350</v>
       </c>
-      <c r="R53" t="s">
-        <v>714</v>
-      </c>
       <c r="S53" t="s">
-        <v>750</v>
+        <v>737</v>
+      </c>
+      <c r="T53" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B54" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C54" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F54" t="n">
         <v>6.0</v>
@@ -10126,33 +10302,34 @@
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
-      <c r="O54" t="s">
-        <v>676</v>
-      </c>
-      <c r="P54"/>
-      <c r="Q54" t="s">
-        <v>676</v>
-      </c>
+      <c r="O54"/>
+      <c r="P54" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q54"/>
       <c r="R54" t="s">
-        <v>715</v>
-      </c>
-      <c r="S54"/>
+        <v>699</v>
+      </c>
+      <c r="S54" t="s">
+        <v>738</v>
+      </c>
+      <c r="T54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B55" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C55" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D55" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E55" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F55" t="n">
         <v>10.0</v>
@@ -10161,7 +10338,7 @@
         <v>10.0</v>
       </c>
       <c r="H55" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I55"/>
       <c r="J55"/>
@@ -10173,25 +10350,26 @@
       <c r="N55"/>
       <c r="O55"/>
       <c r="P55"/>
-      <c r="Q55" t="s">
-        <v>556</v>
-      </c>
+      <c r="Q55"/>
       <c r="R55" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="S55" t="s">
-        <v>751</v>
+        <v>544</v>
+      </c>
+      <c r="T55" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B56" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C56" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D56"/>
       <c r="E56" t="s">
@@ -10208,31 +10386,32 @@
       <c r="N56" t="s">
         <v>423</v>
       </c>
-      <c r="O56" t="s">
-        <v>677</v>
-      </c>
-      <c r="P56"/>
-      <c r="Q56" t="s">
-        <v>677</v>
-      </c>
+      <c r="O56"/>
+      <c r="P56" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q56"/>
       <c r="R56" t="s">
-        <v>716</v>
-      </c>
-      <c r="S56"/>
+        <v>700</v>
+      </c>
+      <c r="S56" t="s">
+        <v>739</v>
+      </c>
+      <c r="T56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B57" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C57" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
@@ -10243,27 +10422,28 @@
       <c r="L57"/>
       <c r="M57"/>
       <c r="N57"/>
-      <c r="O57" t="s">
-        <v>678</v>
-      </c>
-      <c r="P57"/>
-      <c r="Q57" t="s">
-        <v>678</v>
-      </c>
+      <c r="O57"/>
+      <c r="P57" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q57"/>
       <c r="R57" t="s">
-        <v>717</v>
-      </c>
-      <c r="S57"/>
+        <v>701</v>
+      </c>
+      <c r="S57" t="s">
+        <v>740</v>
+      </c>
+      <c r="T57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B58" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C58" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
@@ -10281,20 +10461,21 @@
       <c r="O58"/>
       <c r="P58"/>
       <c r="Q58"/>
-      <c r="R58" t="s">
-        <v>718</v>
-      </c>
-      <c r="S58"/>
+      <c r="R58"/>
+      <c r="S58" t="s">
+        <v>741</v>
+      </c>
+      <c r="T58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B59" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C59" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
@@ -10313,17 +10494,18 @@
       <c r="N59" t="s">
         <v>441</v>
       </c>
-      <c r="O59" t="s">
-        <v>679</v>
-      </c>
-      <c r="P59"/>
-      <c r="Q59" t="s">
-        <v>679</v>
-      </c>
+      <c r="O59"/>
+      <c r="P59" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q59"/>
       <c r="R59" t="s">
-        <v>719</v>
-      </c>
-      <c r="S59"/>
+        <v>702</v>
+      </c>
+      <c r="S59" t="s">
+        <v>742</v>
+      </c>
+      <c r="T59"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/dat/synchros-initiatives.xlsx
+++ b/dat/synchros-initiatives.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22320" yWindow="0" windowWidth="20880" windowHeight="7995" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="23250" yWindow="0" windowWidth="20880" windowHeight="7995" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -2989,28 +2989,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3020,42 +3005,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3075,6 +3024,57 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3365,96 +3365,96 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="20"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:12" ht="381.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="19">
         <v>30</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="19">
         <v>3</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="35">
         <v>1300000</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="35">
         <v>316270</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="23" t="s">
+      <c r="K3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3462,53 +3462,53 @@
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="19">
         <v>6</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="35">
         <v>245000</v>
       </c>
-      <c r="H5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="23" t="s">
+      <c r="H5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3516,52 +3516,52 @@
       <c r="A6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="31">
         <v>11</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="25">
+      <c r="E7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="35">
         <v>1221156</v>
       </c>
-      <c r="H7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="23" t="s">
+      <c r="H7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="19" t="s">
         <v>38</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -3569,122 +3569,122 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
       <c r="L11" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="204" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="19">
         <v>66</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="23" t="s">
+      <c r="E12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:12" ht="190.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
@@ -3705,7 +3705,7 @@
       <c r="F14" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="43">
         <v>300000</v>
       </c>
       <c r="H14" s="31" t="s">
@@ -3717,7 +3717,7 @@
       <c r="J14" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="43">
         <v>1477</v>
       </c>
       <c r="L14" s="31" t="s">
@@ -3728,53 +3728,53 @@
       <c r="A15" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="33"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="19">
         <v>18</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="19">
         <v>18</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="35">
         <v>346553</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="35">
         <v>346553</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="19">
         <v>180</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3782,53 +3782,53 @@
       <c r="A17" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="19">
         <v>13</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="19">
         <v>13</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="25">
+      <c r="F18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="35">
         <v>773499</v>
       </c>
-      <c r="H18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="23">
+      <c r="H18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="19">
         <v>100</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3836,53 +3836,53 @@
       <c r="A19" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="19">
         <v>10</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="19">
         <v>10</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="35">
         <v>2662777</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="35">
         <v>2662777</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="19">
         <v>9</v>
       </c>
-      <c r="L20" s="23" t="s">
+      <c r="L20" s="19" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3890,35 +3890,35 @@
       <c r="A21" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="24"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
     </row>
     <row r="23" spans="1:12" ht="254.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
@@ -3927,34 +3927,34 @@
       <c r="B23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="19">
         <v>17</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="19">
         <v>17</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="35">
         <v>76233</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="35">
         <v>76233</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="19">
         <v>31</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" s="19" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3965,49 +3965,49 @@
       <c r="B24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
     </row>
     <row r="25" spans="1:12" ht="267" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="33">
         <v>34</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="33">
         <v>34</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="41">
         <v>950000</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="41">
         <v>950000</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="I25" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="J25" s="39" t="s">
+      <c r="J25" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K25" s="33">
         <v>12</v>
       </c>
       <c r="L25" s="5" t="s">
@@ -4018,16 +4018,16 @@
       <c r="A26" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="6" t="s">
         <v>92</v>
       </c>
@@ -4036,37 +4036,37 @@
       <c r="A27" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="19">
         <v>8</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="25">
+      <c r="F27" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="35">
         <v>119952</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="23">
+      <c r="J27" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="19">
         <v>8</v>
       </c>
-      <c r="L27" s="23" t="s">
+      <c r="L27" s="19" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4074,53 +4074,53 @@
       <c r="A28" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
     </row>
     <row r="29" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="19">
         <v>17</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="19">
         <v>10</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="35">
         <v>280000</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="K29" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L29" s="19" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4128,17 +4128,17 @@
       <c r="A30" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
     </row>
     <row r="31" spans="1:12" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
@@ -4182,37 +4182,37 @@
       <c r="A32" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="19" t="s">
         <v>111</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="19">
         <v>4</v>
       </c>
-      <c r="E32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="25">
+      <c r="E32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="35">
         <v>16527</v>
       </c>
-      <c r="H32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" s="23" t="s">
+      <c r="H32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="19" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4220,87 +4220,87 @@
       <c r="A33" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="30"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
     </row>
     <row r="34" spans="1:12" ht="267.75" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
-      <c r="B34" s="30"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
     </row>
     <row r="35" spans="1:12" ht="204.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="24"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
     </row>
     <row r="36" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="19">
         <v>15</v>
       </c>
       <c r="E36" s="31">
         <v>15</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="35">
         <v>190268</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="35">
         <v>190268</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="I36" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="J36" s="23" t="s">
+      <c r="J36" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L36" s="23" t="s">
+      <c r="K36" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="19" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4308,53 +4308,53 @@
       <c r="A37" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
     </row>
     <row r="38" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="19" t="s">
         <v>122</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="19">
         <v>7</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="19">
         <v>7</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="35">
         <v>42189</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="35">
         <v>31000</v>
       </c>
-      <c r="I38" s="23" t="s">
+      <c r="I38" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J38" s="23" t="s">
+      <c r="J38" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K38" s="23">
+      <c r="K38" s="19">
         <v>15</v>
       </c>
-      <c r="L38" s="23" t="s">
+      <c r="L38" s="19" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4362,52 +4362,52 @@
       <c r="A39" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="24"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
     </row>
     <row r="40" spans="1:12" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="19" t="s">
         <v>128</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="19">
         <v>18</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="19">
         <v>8</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="35">
         <v>102774</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="J40" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K40" s="23">
+      <c r="K40" s="19">
         <v>270</v>
       </c>
       <c r="L40" s="2" t="s">
@@ -4418,88 +4418,88 @@
       <c r="A41" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="30"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="34"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
       <c r="L41" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
-      <c r="B42" s="30"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="34"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="40"/>
       <c r="I42" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
       <c r="L42" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
-      <c r="B43" s="30"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="34"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="40"/>
       <c r="I43" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
       <c r="L43" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
-      <c r="B44" s="30"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="34"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
       <c r="L44" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="24"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="26"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="36"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
       <c r="L45" s="3" t="s">
         <v>141</v>
       </c>
@@ -4514,31 +4514,31 @@
       <c r="C46" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="E46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="23" t="s">
+      <c r="E46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="H46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L46" s="23" t="s">
+      <c r="H46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4552,29 +4552,29 @@
       <c r="C47" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
     </row>
     <row r="49" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -4582,15 +4582,15 @@
       <c r="C49" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
     </row>
     <row r="50" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
@@ -4598,15 +4598,15 @@
       <c r="C50" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
     </row>
     <row r="51" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
@@ -4614,15 +4614,15 @@
       <c r="C51" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
     </row>
     <row r="52" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
@@ -4630,29 +4630,29 @@
       <c r="C52" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="10"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
     </row>
     <row r="54" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
@@ -4660,15 +4660,15 @@
       <c r="C54" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
     </row>
     <row r="55" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
@@ -4676,15 +4676,15 @@
       <c r="C55" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
     </row>
     <row r="56" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
@@ -4692,15 +4692,15 @@
       <c r="C56" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
     </row>
     <row r="57" spans="1:12" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -4708,250 +4708,250 @@
       <c r="C57" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
     </row>
     <row r="58" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="19" t="s">
         <v>158</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="19">
         <v>36</v>
       </c>
-      <c r="E58" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="23" t="s">
+      <c r="E58" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="G58" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="H58" s="23" t="s">
+      <c r="H58" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I58" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J58" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K58" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L58" s="23" t="s">
+      <c r="I58" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J58" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K58" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
-      <c r="B59" s="30"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="28"/>
-      <c r="B60" s="30"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="10"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
     </row>
     <row r="61" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="28"/>
-      <c r="B61" s="30"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
     </row>
     <row r="62" spans="1:12" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
-      <c r="B62" s="24"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
     </row>
     <row r="63" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="19" t="s">
         <v>166</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D63" s="19">
         <v>4</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="19">
         <v>4</v>
       </c>
-      <c r="F63" s="23" t="s">
+      <c r="F63" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G63" s="25">
+      <c r="G63" s="35">
         <v>22730</v>
       </c>
-      <c r="H63" s="23" t="s">
+      <c r="H63" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="I63" s="23" t="s">
+      <c r="I63" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="J63" s="23" t="s">
+      <c r="J63" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K63" s="23">
+      <c r="K63" s="19">
         <v>1043</v>
       </c>
-      <c r="L63" s="23" t="s">
+      <c r="L63" s="19" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="28"/>
-      <c r="B64" s="30"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="10"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
     </row>
     <row r="65" spans="1:12" ht="255" x14ac:dyDescent="0.2">
-      <c r="A65" s="28"/>
-      <c r="B65" s="30"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
     </row>
     <row r="66" spans="1:12" ht="102" x14ac:dyDescent="0.2">
-      <c r="A66" s="28"/>
-      <c r="B66" s="30"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
     </row>
     <row r="67" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="28"/>
-      <c r="B67" s="30"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
     </row>
     <row r="68" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="28"/>
-      <c r="B68" s="30"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
     </row>
     <row r="69" spans="1:12" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="24"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
     </row>
     <row r="70" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="22" t="s">
         <v>176</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -4960,108 +4960,108 @@
       <c r="C70" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D70" s="23">
+      <c r="D70" s="19">
         <v>29</v>
       </c>
-      <c r="E70" s="23">
+      <c r="E70" s="19">
         <v>24</v>
       </c>
-      <c r="F70" s="23" t="s">
+      <c r="F70" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G70" s="25">
+      <c r="G70" s="35">
         <v>1221985</v>
       </c>
-      <c r="H70" s="25">
+      <c r="H70" s="35">
         <v>1221985</v>
       </c>
-      <c r="I70" s="23" t="s">
+      <c r="I70" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="J70" s="23" t="s">
+      <c r="J70" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K70" s="23">
+      <c r="K70" s="19">
         <v>600</v>
       </c>
-      <c r="L70" s="23" t="s">
+      <c r="L70" s="19" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
     </row>
     <row r="72" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="19" t="s">
         <v>183</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D72" s="23">
+      <c r="D72" s="19">
         <v>29</v>
       </c>
-      <c r="E72" s="23">
+      <c r="E72" s="19">
         <v>29</v>
       </c>
-      <c r="F72" s="23" t="s">
+      <c r="F72" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G72" s="23">
+      <c r="G72" s="19">
         <v>700</v>
       </c>
-      <c r="H72" s="23">
+      <c r="H72" s="19">
         <v>700</v>
       </c>
-      <c r="I72" s="23" t="s">
+      <c r="I72" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="J72" s="23" t="s">
+      <c r="J72" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K72" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L72" s="23" t="s">
+      <c r="K72" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L72" s="19" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="306.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="29"/>
-      <c r="B73" s="24"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
     </row>
     <row r="74" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="22" t="s">
         <v>188</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -5070,471 +5070,471 @@
       <c r="C74" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D74" s="23">
+      <c r="D74" s="19">
         <v>14</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="19">
         <v>14</v>
       </c>
-      <c r="F74" s="23" t="s">
+      <c r="F74" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G74" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H74" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I74" s="23" t="s">
+      <c r="G74" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H74" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="J74" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K74" s="23">
+      <c r="J74" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K74" s="19">
         <v>323</v>
       </c>
       <c r="L74" s="10"/>
     </row>
     <row r="75" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="28"/>
+      <c r="A75" s="23"/>
       <c r="B75" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="30"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
       <c r="L75" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="28"/>
+      <c r="A76" s="23"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="30"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
       <c r="L76" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="28"/>
+      <c r="A77" s="23"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
       <c r="L77" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
       <c r="L78" s="3" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B79" s="19" t="s">
         <v>199</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D79" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="E79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G79" s="23">
+      <c r="E79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79" s="19">
         <v>50000</v>
       </c>
-      <c r="H79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L79" s="23" t="s">
+      <c r="H79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L79" s="19" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="28"/>
-      <c r="B80" s="30"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="21"/>
       <c r="C80" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="30"/>
-      <c r="L80" s="30"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
     </row>
     <row r="81" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="28"/>
-      <c r="B81" s="30"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="21"/>
       <c r="C81" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="30"/>
-      <c r="L81" s="30"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
     </row>
     <row r="82" spans="1:12" ht="204" x14ac:dyDescent="0.2">
-      <c r="A82" s="28"/>
-      <c r="B82" s="30"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="21"/>
       <c r="C82" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
     </row>
     <row r="83" spans="1:12" ht="192" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="29"/>
-      <c r="B83" s="24"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
     </row>
     <row r="84" spans="1:12" ht="204" x14ac:dyDescent="0.2">
-      <c r="A84" s="27" t="s">
+      <c r="A84" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="19" t="s">
         <v>208</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D84" s="23" t="s">
+      <c r="D84" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="E84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G84" s="23" t="s">
+      <c r="E84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G84" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="H84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K84" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L84" s="23" t="s">
+      <c r="H84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L84" s="19" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="29"/>
-      <c r="B85" s="24"/>
+      <c r="A85" s="24"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
     </row>
     <row r="86" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="27" t="s">
+      <c r="A86" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="19" t="s">
         <v>215</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G86" s="25">
+      <c r="D86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G86" s="35">
         <v>100000</v>
       </c>
-      <c r="H86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I86" s="23" t="s">
+      <c r="H86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I86" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="J86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K86" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L86" s="23" t="s">
+      <c r="J86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K86" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L86" s="19" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A87" s="28"/>
-      <c r="B87" s="30"/>
+      <c r="A87" s="23"/>
+      <c r="B87" s="21"/>
       <c r="C87" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="30"/>
-      <c r="L87" s="30"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
     </row>
     <row r="88" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="29"/>
-      <c r="B88" s="24"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="24"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
     </row>
     <row r="89" spans="1:12" ht="267.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="27" t="s">
+      <c r="A89" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="B89" s="23" t="s">
+      <c r="B89" s="19" t="s">
         <v>222</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D89" s="23">
+      <c r="D89" s="19">
         <v>9</v>
       </c>
-      <c r="E89" s="23">
+      <c r="E89" s="19">
         <v>6</v>
       </c>
-      <c r="F89" s="23" t="s">
+      <c r="F89" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G89" s="23" t="s">
+      <c r="G89" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="H89" s="25">
+      <c r="H89" s="35">
         <v>150000</v>
       </c>
-      <c r="I89" s="23" t="s">
+      <c r="I89" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="J89" s="23" t="s">
+      <c r="J89" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K89" s="23">
+      <c r="K89" s="19">
         <v>15</v>
       </c>
-      <c r="L89" s="23" t="s">
+      <c r="L89" s="19" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="280.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="28"/>
-      <c r="B90" s="30"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="30"/>
-      <c r="K90" s="30"/>
-      <c r="L90" s="30"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
     </row>
     <row r="91" spans="1:12" ht="243" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
-      <c r="B91" s="24"/>
+      <c r="A91" s="24"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="24"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
     </row>
     <row r="92" spans="1:12" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="27" t="s">
+      <c r="A92" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="19" t="s">
         <v>230</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D92" s="23" t="s">
+      <c r="D92" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="E92" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F92" s="23" t="s">
+      <c r="E92" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G92" s="23" t="s">
+      <c r="G92" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="H92" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I92" s="23" t="s">
+      <c r="H92" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I92" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="J92" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K92" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L92" s="23" t="s">
+      <c r="J92" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K92" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L92" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="293.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="28"/>
-      <c r="B93" s="30"/>
+      <c r="A93" s="23"/>
+      <c r="B93" s="21"/>
       <c r="C93" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="30"/>
-      <c r="K93" s="30"/>
-      <c r="L93" s="30"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
     </row>
     <row r="94" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="29"/>
-      <c r="B94" s="24"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
     </row>
     <row r="95" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B95" s="23" t="s">
+      <c r="B95" s="19" t="s">
         <v>237</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -5543,28 +5543,28 @@
       <c r="D95" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E95" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F95" s="23" t="s">
+      <c r="E95" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G95" s="25">
+      <c r="G95" s="35">
         <v>315000</v>
       </c>
-      <c r="H95" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I95" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J95" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K95" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L95" s="23" t="s">
+      <c r="H95" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I95" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J95" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K95" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L95" s="19" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5572,71 +5572,71 @@
       <c r="A96" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B96" s="30"/>
+      <c r="B96" s="21"/>
       <c r="C96" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D96" s="10"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="30"/>
-      <c r="K96" s="30"/>
-      <c r="L96" s="30"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
     </row>
     <row r="97" spans="1:12" ht="294" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="24"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="9"/>
       <c r="D97" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="24"/>
-      <c r="K97" s="24"/>
-      <c r="L97" s="24"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20"/>
     </row>
     <row r="98" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B98" s="19" t="s">
         <v>245</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D98" s="23" t="s">
+      <c r="D98" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="E98" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F98" s="23" t="s">
+      <c r="E98" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G98" s="23" t="s">
+      <c r="G98" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="H98" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I98" s="23" t="s">
+      <c r="H98" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I98" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="J98" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K98" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L98" s="23" t="s">
+      <c r="J98" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K98" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L98" s="19" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5644,19 +5644,19 @@
       <c r="A99" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="B99" s="24"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="24"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="24"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20"/>
     </row>
     <row r="100" spans="1:12" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
@@ -5697,7 +5697,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="37" t="s">
         <v>259</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -5706,54 +5706,54 @@
       <c r="C101" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D101" s="23">
+      <c r="D101" s="19">
         <v>6</v>
       </c>
-      <c r="E101" s="23">
+      <c r="E101" s="19">
         <v>6</v>
       </c>
-      <c r="F101" s="23" t="s">
+      <c r="F101" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G101" s="25">
+      <c r="G101" s="35">
         <v>136128</v>
       </c>
-      <c r="H101" s="25">
+      <c r="H101" s="35">
         <v>136128</v>
       </c>
-      <c r="I101" s="23" t="s">
+      <c r="I101" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="J101" s="23" t="s">
+      <c r="J101" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="K101" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L101" s="23" t="s">
+      <c r="K101" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L101" s="19" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="20"/>
+      <c r="A102" s="39"/>
       <c r="B102" s="3" t="s">
         <v>261</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
     </row>
     <row r="103" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A103" s="19" t="s">
+      <c r="A103" s="37" t="s">
         <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -5762,179 +5762,179 @@
       <c r="C103" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D103" s="23">
+      <c r="D103" s="19">
         <v>373</v>
       </c>
-      <c r="E103" s="23" t="s">
+      <c r="E103" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="F103" s="23" t="s">
+      <c r="F103" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G103" s="23" t="s">
+      <c r="G103" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="H103" s="23" t="s">
+      <c r="H103" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="I103" s="23" t="s">
+      <c r="I103" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="J103" s="23" t="s">
+      <c r="J103" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K103" s="23" t="s">
+      <c r="K103" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="L103" s="23" t="s">
+      <c r="L103" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="41"/>
+      <c r="A104" s="38"/>
       <c r="B104" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C104" s="10"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="30"/>
-      <c r="I104" s="30"/>
-      <c r="J104" s="30"/>
-      <c r="K104" s="30"/>
-      <c r="L104" s="30"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="21"/>
     </row>
     <row r="105" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="41"/>
+      <c r="A105" s="38"/>
       <c r="B105" s="8"/>
       <c r="C105" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="30"/>
-      <c r="I105" s="30"/>
-      <c r="J105" s="30"/>
-      <c r="K105" s="30"/>
-      <c r="L105" s="30"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
     </row>
     <row r="106" spans="1:12" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
+      <c r="A106" s="39"/>
       <c r="B106" s="9"/>
       <c r="C106" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="24"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="24"/>
-      <c r="K106" s="24"/>
-      <c r="L106" s="24"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="20"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="20"/>
     </row>
     <row r="107" spans="1:12" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="19" t="s">
+      <c r="A107" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D107" s="23">
+      <c r="D107" s="19">
         <v>20</v>
       </c>
-      <c r="E107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K107" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L107" s="23" t="s">
+      <c r="E107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K107" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L107" s="19" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" s="41"/>
-      <c r="B108" s="30"/>
+      <c r="A108" s="38"/>
+      <c r="B108" s="21"/>
       <c r="C108" s="10"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="30"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="30"/>
-      <c r="I108" s="30"/>
-      <c r="J108" s="30"/>
-      <c r="K108" s="30"/>
-      <c r="L108" s="30"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="21"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="21"/>
     </row>
     <row r="109" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="41"/>
-      <c r="B109" s="30"/>
+      <c r="A109" s="38"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="30"/>
-      <c r="J109" s="30"/>
-      <c r="K109" s="30"/>
-      <c r="L109" s="30"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" s="41"/>
-      <c r="B110" s="30"/>
+      <c r="A110" s="38"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="10"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="30"/>
-      <c r="I110" s="30"/>
-      <c r="J110" s="30"/>
-      <c r="K110" s="30"/>
-      <c r="L110" s="30"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
     </row>
     <row r="111" spans="1:12" ht="243" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="20"/>
-      <c r="B111" s="24"/>
+      <c r="A111" s="39"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="24"/>
-      <c r="K111" s="24"/>
-      <c r="L111" s="24"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="20"/>
+      <c r="K111" s="20"/>
+      <c r="L111" s="20"/>
     </row>
     <row r="112" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
@@ -5975,37 +5975,37 @@
       </c>
     </row>
     <row r="113" spans="1:12" ht="318.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="19" t="s">
+      <c r="A113" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B113" s="23" t="s">
+      <c r="B113" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D113" s="23">
+      <c r="D113" s="19">
         <v>6</v>
       </c>
-      <c r="E113" s="23">
+      <c r="E113" s="19">
         <v>6</v>
       </c>
-      <c r="F113" s="23" t="s">
+      <c r="F113" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G113" s="23" t="s">
+      <c r="G113" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="H113" s="23" t="s">
+      <c r="H113" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="I113" s="23" t="s">
+      <c r="I113" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="J113" s="23" t="s">
+      <c r="J113" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K113" s="23" t="s">
+      <c r="K113" s="19" t="s">
         <v>38</v>
       </c>
       <c r="L113" s="2" t="s">
@@ -6013,51 +6013,51 @@
       </c>
     </row>
     <row r="114" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A114" s="41"/>
-      <c r="B114" s="30"/>
+      <c r="A114" s="38"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="10"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30"/>
-      <c r="F114" s="30"/>
-      <c r="G114" s="30"/>
-      <c r="H114" s="30"/>
-      <c r="I114" s="30"/>
-      <c r="J114" s="30"/>
-      <c r="K114" s="30"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="21"/>
+      <c r="J114" s="21"/>
+      <c r="K114" s="21"/>
       <c r="L114" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="41"/>
-      <c r="B115" s="30"/>
+      <c r="A115" s="38"/>
+      <c r="B115" s="21"/>
       <c r="C115" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D115" s="30"/>
-      <c r="E115" s="30"/>
-      <c r="F115" s="30"/>
-      <c r="G115" s="30"/>
-      <c r="H115" s="30"/>
-      <c r="I115" s="30"/>
-      <c r="J115" s="30"/>
-      <c r="K115" s="30"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
+      <c r="J115" s="21"/>
+      <c r="K115" s="21"/>
       <c r="L115" s="8"/>
     </row>
     <row r="116" spans="1:12" ht="294" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="20"/>
-      <c r="B116" s="24"/>
+      <c r="A116" s="39"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="24"/>
-      <c r="J116" s="24"/>
-      <c r="K116" s="24"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="20"/>
+      <c r="K116" s="20"/>
       <c r="L116" s="9"/>
     </row>
     <row r="117" spans="1:12" ht="396" thickBot="1" x14ac:dyDescent="0.25">
@@ -6175,182 +6175,182 @@
       </c>
     </row>
     <row r="120" spans="1:12" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="27" t="s">
+      <c r="A120" s="22" t="s">
         <v>310</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C120" s="39" t="s">
+      <c r="C120" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="D120" s="23">
+      <c r="D120" s="19">
         <v>43</v>
       </c>
-      <c r="E120" s="23">
+      <c r="E120" s="19">
         <v>43</v>
       </c>
-      <c r="F120" s="23" t="s">
+      <c r="F120" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G120" s="25">
+      <c r="G120" s="35">
         <v>1000000</v>
       </c>
-      <c r="H120" s="25">
+      <c r="H120" s="35">
         <v>1000000</v>
       </c>
-      <c r="I120" s="23" t="s">
+      <c r="I120" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="J120" s="23" t="s">
+      <c r="J120" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="K120" s="23" t="s">
+      <c r="K120" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="L120" s="23" t="s">
+      <c r="L120" s="19" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="29"/>
+      <c r="A121" s="24"/>
       <c r="B121" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C121" s="40"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="26"/>
-      <c r="H121" s="26"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="24"/>
-      <c r="K121" s="24"/>
-      <c r="L121" s="24"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="36"/>
+      <c r="H121" s="36"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="20"/>
+      <c r="K121" s="20"/>
+      <c r="L121" s="20"/>
     </row>
     <row r="122" spans="1:12" ht="102" x14ac:dyDescent="0.2">
-      <c r="A122" s="27" t="s">
+      <c r="A122" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="B122" s="23" t="s">
+      <c r="B122" s="19" t="s">
         <v>318</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D122" s="23" t="s">
+      <c r="D122" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="E122" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F122" s="23" t="s">
+      <c r="E122" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F122" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G122" s="23" t="s">
+      <c r="G122" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="H122" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I122" s="23" t="s">
+      <c r="H122" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I122" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="J122" s="23" t="s">
+      <c r="J122" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K122" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L122" s="23" t="s">
+      <c r="K122" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L122" s="19" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="28"/>
-      <c r="B123" s="30"/>
+      <c r="A123" s="23"/>
+      <c r="B123" s="21"/>
       <c r="C123" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
-      <c r="F123" s="30"/>
-      <c r="G123" s="30"/>
-      <c r="H123" s="30"/>
-      <c r="I123" s="30"/>
-      <c r="J123" s="30"/>
-      <c r="K123" s="30"/>
-      <c r="L123" s="30"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="21"/>
     </row>
     <row r="124" spans="1:12" ht="90" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
-      <c r="B124" s="24"/>
+      <c r="A124" s="24"/>
+      <c r="B124" s="20"/>
       <c r="C124" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="24"/>
-      <c r="H124" s="24"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="24"/>
-      <c r="K124" s="24"/>
-      <c r="L124" s="24"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="20"/>
+      <c r="K124" s="20"/>
+      <c r="L124" s="20"/>
     </row>
     <row r="125" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="27" t="s">
+      <c r="A125" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="B125" s="23" t="s">
+      <c r="B125" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="C125" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="D125" s="23" t="s">
+      <c r="D125" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="E125" s="23" t="s">
+      <c r="E125" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="F125" s="23" t="s">
+      <c r="F125" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="G125" s="23" t="s">
+      <c r="G125" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="H125" s="23" t="s">
+      <c r="H125" s="19" t="s">
         <v>330</v>
       </c>
       <c r="I125" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="J125" s="23" t="s">
+      <c r="J125" s="19" t="s">
         <v>330</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="L125" s="23" t="s">
+      <c r="L125" s="19" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="24"/>
-      <c r="H126" s="24"/>
-      <c r="I126" s="33"/>
-      <c r="J126" s="24"/>
+      <c r="A126" s="24"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="32"/>
+      <c r="J126" s="20"/>
       <c r="K126" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="L126" s="24"/>
+      <c r="L126" s="20"/>
     </row>
     <row r="127" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
@@ -6470,37 +6470,37 @@
       <c r="A130" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B130" s="23" t="s">
+      <c r="B130" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="C130" s="23" t="s">
+      <c r="C130" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="D130" s="23">
+      <c r="D130" s="19">
         <v>9</v>
       </c>
-      <c r="E130" s="23">
+      <c r="E130" s="19">
         <v>9</v>
       </c>
-      <c r="F130" s="23" t="s">
+      <c r="F130" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G130" s="42">
+      <c r="G130" s="25">
         <v>50562</v>
       </c>
-      <c r="H130" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I130" s="23" t="s">
+      <c r="H130" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I130" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="J130" s="23" t="s">
+      <c r="J130" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K130" s="44">
+      <c r="K130" s="27">
         <v>450</v>
       </c>
-      <c r="L130" s="23" t="s">
+      <c r="L130" s="19" t="s">
         <v>353</v>
       </c>
     </row>
@@ -6508,53 +6508,53 @@
       <c r="A131" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="43"/>
-      <c r="H131" s="24"/>
-      <c r="I131" s="24"/>
-      <c r="J131" s="24"/>
-      <c r="K131" s="45"/>
-      <c r="L131" s="24"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="20"/>
+      <c r="K131" s="28"/>
+      <c r="L131" s="20"/>
     </row>
     <row r="132" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="B132" s="23" t="s">
+      <c r="B132" s="19" t="s">
         <v>356</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D132" s="44">
+      <c r="D132" s="27">
         <v>3</v>
       </c>
-      <c r="E132" s="23">
+      <c r="E132" s="19">
         <v>3</v>
       </c>
-      <c r="F132" s="23" t="s">
+      <c r="F132" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G132" s="23">
+      <c r="G132" s="19">
         <v>970</v>
       </c>
-      <c r="H132" s="23">
+      <c r="H132" s="19">
         <v>970</v>
       </c>
-      <c r="I132" s="23" t="s">
+      <c r="I132" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="J132" s="23" t="s">
+      <c r="J132" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K132" s="44" t="s">
+      <c r="K132" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="L132" s="23" t="s">
+      <c r="L132" s="19" t="s">
         <v>361</v>
       </c>
     </row>
@@ -6562,113 +6562,113 @@
       <c r="A133" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B133" s="24"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D133" s="45"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="24"/>
-      <c r="H133" s="24"/>
-      <c r="I133" s="24"/>
-      <c r="J133" s="24"/>
-      <c r="K133" s="45"/>
-      <c r="L133" s="24"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="20"/>
+      <c r="K133" s="28"/>
+      <c r="L133" s="20"/>
     </row>
     <row r="134" spans="1:12" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="46" t="s">
+      <c r="A134" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C134" s="23" t="s">
+      <c r="C134" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="D134" s="44">
+      <c r="D134" s="27">
         <v>9</v>
       </c>
-      <c r="E134" s="23">
+      <c r="E134" s="19">
         <v>9</v>
       </c>
-      <c r="F134" s="23" t="s">
+      <c r="F134" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G134" s="42">
+      <c r="G134" s="25">
         <v>1190000</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="I134" s="23" t="s">
+      <c r="I134" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="J134" s="23" t="s">
+      <c r="J134" s="19" t="s">
         <v>37</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="L134" s="23" t="s">
+      <c r="L134" s="19" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="47"/>
+      <c r="A135" s="30"/>
       <c r="B135" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C135" s="24"/>
-      <c r="D135" s="45"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="43"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="26"/>
       <c r="H135" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="I135" s="24"/>
-      <c r="J135" s="24"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="20"/>
       <c r="K135" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="L135" s="24"/>
+      <c r="L135" s="20"/>
     </row>
     <row r="136" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="B136" s="23" t="s">
+      <c r="B136" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="C136" s="23" t="s">
+      <c r="C136" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D136" s="44">
+      <c r="D136" s="27">
         <v>9</v>
       </c>
-      <c r="E136" s="23">
+      <c r="E136" s="19">
         <v>9</v>
       </c>
-      <c r="F136" s="23" t="s">
+      <c r="F136" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G136" s="42">
+      <c r="G136" s="25">
         <v>40000</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="I136" s="23" t="s">
+      <c r="I136" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="J136" s="23" t="s">
+      <c r="J136" s="19" t="s">
         <v>37</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="L136" s="23" t="s">
+      <c r="L136" s="19" t="s">
         <v>377</v>
       </c>
     </row>
@@ -6676,57 +6676,57 @@
       <c r="A137" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="B137" s="24"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="45"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="24"/>
-      <c r="G137" s="43"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="28"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="26"/>
       <c r="H137" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="I137" s="24"/>
-      <c r="J137" s="24"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="20"/>
       <c r="K137" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="L137" s="24"/>
+      <c r="L137" s="20"/>
     </row>
     <row r="138" spans="1:12" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="B138" s="23" t="s">
+      <c r="B138" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="C138" s="23" t="s">
+      <c r="C138" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="D138" s="44">
+      <c r="D138" s="27">
         <v>6</v>
       </c>
-      <c r="E138" s="23">
+      <c r="E138" s="19">
         <v>6</v>
       </c>
-      <c r="F138" s="23" t="s">
+      <c r="F138" s="19" t="s">
         <v>4</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="H138" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I138" s="23" t="s">
+      <c r="H138" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I138" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="J138" s="23" t="s">
+      <c r="J138" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K138" s="44">
+      <c r="K138" s="27">
         <v>20</v>
       </c>
-      <c r="L138" s="23" t="s">
+      <c r="L138" s="19" t="s">
         <v>385</v>
       </c>
     </row>
@@ -6734,55 +6734,55 @@
       <c r="A139" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="45"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="24"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="28"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="20"/>
       <c r="G139" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="H139" s="24"/>
-      <c r="I139" s="24"/>
-      <c r="J139" s="24"/>
-      <c r="K139" s="45"/>
-      <c r="L139" s="24"/>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="20"/>
+      <c r="K139" s="28"/>
+      <c r="L139" s="20"/>
     </row>
     <row r="140" spans="1:12" ht="318" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="B140" s="23" t="s">
+      <c r="B140" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="C140" s="23" t="s">
+      <c r="C140" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="D140" s="44">
+      <c r="D140" s="27">
         <v>17</v>
       </c>
-      <c r="E140" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F140" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G140" s="23" t="s">
+      <c r="E140" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F140" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G140" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="H140" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I140" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J140" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K140" s="23" t="s">
+      <c r="H140" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I140" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J140" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K140" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="L140" s="23" t="s">
+      <c r="L140" s="19" t="s">
         <v>392</v>
       </c>
     </row>
@@ -6790,53 +6790,53 @@
       <c r="A141" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="45"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="24"/>
-      <c r="G141" s="24"/>
-      <c r="H141" s="24"/>
-      <c r="I141" s="24"/>
-      <c r="J141" s="24"/>
-      <c r="K141" s="24"/>
-      <c r="L141" s="24"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="28"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="20"/>
+      <c r="K141" s="20"/>
+      <c r="L141" s="20"/>
     </row>
     <row r="142" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B142" s="23" t="s">
+      <c r="B142" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="C142" s="23" t="s">
+      <c r="C142" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="D142" s="23">
+      <c r="D142" s="19">
         <v>26</v>
       </c>
-      <c r="E142" s="23">
+      <c r="E142" s="19">
         <v>26</v>
       </c>
-      <c r="F142" s="23" t="s">
+      <c r="F142" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G142" s="42">
+      <c r="G142" s="25">
         <v>839666</v>
       </c>
-      <c r="H142" s="42">
+      <c r="H142" s="25">
         <v>839666</v>
       </c>
-      <c r="I142" s="23" t="s">
+      <c r="I142" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="J142" s="23" t="s">
+      <c r="J142" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K142" s="44">
+      <c r="K142" s="27">
         <v>1300</v>
       </c>
-      <c r="L142" s="23" t="s">
+      <c r="L142" s="19" t="s">
         <v>398</v>
       </c>
     </row>
@@ -6844,53 +6844,53 @@
       <c r="A143" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="B143" s="24"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="24"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="24"/>
-      <c r="G143" s="43"/>
-      <c r="H143" s="43"/>
-      <c r="I143" s="24"/>
-      <c r="J143" s="24"/>
-      <c r="K143" s="45"/>
-      <c r="L143" s="24"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="26"/>
+      <c r="H143" s="26"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="20"/>
+      <c r="K143" s="28"/>
+      <c r="L143" s="20"/>
     </row>
     <row r="144" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A144" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="B144" s="23" t="s">
+      <c r="B144" s="19" t="s">
         <v>401</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D144" s="23">
+      <c r="D144" s="19">
         <v>6</v>
       </c>
-      <c r="E144" s="23">
+      <c r="E144" s="19">
         <v>6</v>
       </c>
-      <c r="F144" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G144" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H144" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I144" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J144" s="23" t="s">
+      <c r="F144" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G144" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H144" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I144" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J144" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K144" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L144" s="23" t="s">
+      <c r="K144" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L144" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6898,99 +6898,99 @@
       <c r="A145" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="B145" s="30"/>
+      <c r="B145" s="21"/>
       <c r="C145" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D145" s="30"/>
-      <c r="E145" s="30"/>
-      <c r="F145" s="30"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="30"/>
-      <c r="I145" s="30"/>
-      <c r="J145" s="30"/>
-      <c r="K145" s="30"/>
-      <c r="L145" s="30"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="21"/>
+      <c r="I145" s="21"/>
+      <c r="J145" s="21"/>
+      <c r="K145" s="21"/>
+      <c r="L145" s="21"/>
     </row>
     <row r="146" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
-      <c r="B146" s="30"/>
+      <c r="B146" s="21"/>
       <c r="C146" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D146" s="30"/>
-      <c r="E146" s="30"/>
-      <c r="F146" s="30"/>
-      <c r="G146" s="30"/>
-      <c r="H146" s="30"/>
-      <c r="I146" s="30"/>
-      <c r="J146" s="30"/>
-      <c r="K146" s="30"/>
-      <c r="L146" s="30"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="21"/>
+      <c r="I146" s="21"/>
+      <c r="J146" s="21"/>
+      <c r="K146" s="21"/>
+      <c r="L146" s="21"/>
     </row>
     <row r="147" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
-      <c r="B147" s="30"/>
+      <c r="B147" s="21"/>
       <c r="C147" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D147" s="30"/>
-      <c r="E147" s="30"/>
-      <c r="F147" s="30"/>
-      <c r="G147" s="30"/>
-      <c r="H147" s="30"/>
-      <c r="I147" s="30"/>
-      <c r="J147" s="30"/>
-      <c r="K147" s="30"/>
-      <c r="L147" s="30"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="21"/>
+      <c r="J147" s="21"/>
+      <c r="K147" s="21"/>
+      <c r="L147" s="21"/>
     </row>
     <row r="148" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
-      <c r="B148" s="30"/>
+      <c r="B148" s="21"/>
       <c r="C148" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D148" s="30"/>
-      <c r="E148" s="30"/>
-      <c r="F148" s="30"/>
-      <c r="G148" s="30"/>
-      <c r="H148" s="30"/>
-      <c r="I148" s="30"/>
-      <c r="J148" s="30"/>
-      <c r="K148" s="30"/>
-      <c r="L148" s="30"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="21"/>
+      <c r="I148" s="21"/>
+      <c r="J148" s="21"/>
+      <c r="K148" s="21"/>
+      <c r="L148" s="21"/>
     </row>
     <row r="149" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
-      <c r="B149" s="30"/>
+      <c r="B149" s="21"/>
       <c r="C149" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D149" s="30"/>
-      <c r="E149" s="30"/>
-      <c r="F149" s="30"/>
-      <c r="G149" s="30"/>
-      <c r="H149" s="30"/>
-      <c r="I149" s="30"/>
-      <c r="J149" s="30"/>
-      <c r="K149" s="30"/>
-      <c r="L149" s="30"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="21"/>
+      <c r="I149" s="21"/>
+      <c r="J149" s="21"/>
+      <c r="K149" s="21"/>
+      <c r="L149" s="21"/>
     </row>
     <row r="150" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
-      <c r="B150" s="24"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="D150" s="24"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="24"/>
-      <c r="G150" s="24"/>
-      <c r="H150" s="24"/>
-      <c r="I150" s="24"/>
-      <c r="J150" s="24"/>
-      <c r="K150" s="24"/>
-      <c r="L150" s="24"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="20"/>
+      <c r="K150" s="20"/>
+      <c r="L150" s="20"/>
     </row>
     <row r="151" spans="1:12" ht="306.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="s">
@@ -7031,58 +7031,58 @@
       </c>
     </row>
     <row r="152" spans="1:12" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="27" t="s">
+      <c r="A152" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="B152" s="23" t="s">
+      <c r="B152" s="19" t="s">
         <v>415</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D152" s="23">
+      <c r="D152" s="19">
         <v>10</v>
       </c>
-      <c r="E152" s="23">
+      <c r="E152" s="19">
         <v>10</v>
       </c>
-      <c r="F152" s="23" t="s">
+      <c r="F152" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G152" s="23" t="s">
+      <c r="G152" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="H152" s="23" t="s">
+      <c r="H152" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="I152" s="23" t="s">
+      <c r="I152" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="J152" s="23" t="s">
+      <c r="J152" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K152" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L152" s="23" t="s">
+      <c r="K152" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L152" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="29"/>
-      <c r="B153" s="24"/>
+      <c r="A153" s="24"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D153" s="24"/>
-      <c r="E153" s="24"/>
-      <c r="F153" s="24"/>
-      <c r="G153" s="24"/>
-      <c r="H153" s="24"/>
-      <c r="I153" s="24"/>
-      <c r="J153" s="24"/>
-      <c r="K153" s="24"/>
-      <c r="L153" s="24"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="20"/>
+      <c r="K153" s="20"/>
+      <c r="L153" s="20"/>
     </row>
     <row r="154" spans="1:12" ht="408.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="s">
@@ -7123,170 +7123,170 @@
       </c>
     </row>
     <row r="155" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="27" t="s">
+      <c r="A155" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="B155" s="23" t="s">
+      <c r="B155" s="19" t="s">
         <v>425</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L155" s="23" t="s">
+      <c r="D155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L155" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A156" s="28"/>
-      <c r="B156" s="30"/>
+      <c r="A156" s="23"/>
+      <c r="B156" s="21"/>
       <c r="C156" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D156" s="30"/>
-      <c r="E156" s="30"/>
-      <c r="F156" s="30"/>
-      <c r="G156" s="30"/>
-      <c r="H156" s="30"/>
-      <c r="I156" s="30"/>
-      <c r="J156" s="30"/>
-      <c r="K156" s="30"/>
-      <c r="L156" s="30"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="21"/>
+      <c r="I156" s="21"/>
+      <c r="J156" s="21"/>
+      <c r="K156" s="21"/>
+      <c r="L156" s="21"/>
     </row>
     <row r="157" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="28"/>
-      <c r="B157" s="30"/>
+      <c r="A157" s="23"/>
+      <c r="B157" s="21"/>
       <c r="C157" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D157" s="30"/>
-      <c r="E157" s="30"/>
-      <c r="F157" s="30"/>
-      <c r="G157" s="30"/>
-      <c r="H157" s="30"/>
-      <c r="I157" s="30"/>
-      <c r="J157" s="30"/>
-      <c r="K157" s="30"/>
-      <c r="L157" s="30"/>
+      <c r="D157" s="21"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="21"/>
+      <c r="I157" s="21"/>
+      <c r="J157" s="21"/>
+      <c r="K157" s="21"/>
+      <c r="L157" s="21"/>
     </row>
     <row r="158" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A158" s="28"/>
-      <c r="B158" s="30"/>
+      <c r="A158" s="23"/>
+      <c r="B158" s="21"/>
       <c r="C158" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D158" s="30"/>
-      <c r="E158" s="30"/>
-      <c r="F158" s="30"/>
-      <c r="G158" s="30"/>
-      <c r="H158" s="30"/>
-      <c r="I158" s="30"/>
-      <c r="J158" s="30"/>
-      <c r="K158" s="30"/>
-      <c r="L158" s="30"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="21"/>
+      <c r="I158" s="21"/>
+      <c r="J158" s="21"/>
+      <c r="K158" s="21"/>
+      <c r="L158" s="21"/>
     </row>
     <row r="159" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="28"/>
-      <c r="B159" s="30"/>
+      <c r="A159" s="23"/>
+      <c r="B159" s="21"/>
       <c r="C159" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D159" s="30"/>
-      <c r="E159" s="30"/>
-      <c r="F159" s="30"/>
-      <c r="G159" s="30"/>
-      <c r="H159" s="30"/>
-      <c r="I159" s="30"/>
-      <c r="J159" s="30"/>
-      <c r="K159" s="30"/>
-      <c r="L159" s="30"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="21"/>
+      <c r="I159" s="21"/>
+      <c r="J159" s="21"/>
+      <c r="K159" s="21"/>
+      <c r="L159" s="21"/>
     </row>
     <row r="160" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A160" s="28"/>
-      <c r="B160" s="30"/>
+      <c r="A160" s="23"/>
+      <c r="B160" s="21"/>
       <c r="C160" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D160" s="30"/>
-      <c r="E160" s="30"/>
-      <c r="F160" s="30"/>
-      <c r="G160" s="30"/>
-      <c r="H160" s="30"/>
-      <c r="I160" s="30"/>
-      <c r="J160" s="30"/>
-      <c r="K160" s="30"/>
-      <c r="L160" s="30"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="21"/>
+      <c r="I160" s="21"/>
+      <c r="J160" s="21"/>
+      <c r="K160" s="21"/>
+      <c r="L160" s="21"/>
     </row>
     <row r="161" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="28"/>
-      <c r="B161" s="30"/>
+      <c r="A161" s="23"/>
+      <c r="B161" s="21"/>
       <c r="C161" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D161" s="30"/>
-      <c r="E161" s="30"/>
-      <c r="F161" s="30"/>
-      <c r="G161" s="30"/>
-      <c r="H161" s="30"/>
-      <c r="I161" s="30"/>
-      <c r="J161" s="30"/>
-      <c r="K161" s="30"/>
-      <c r="L161" s="30"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="21"/>
+      <c r="I161" s="21"/>
+      <c r="J161" s="21"/>
+      <c r="K161" s="21"/>
+      <c r="L161" s="21"/>
     </row>
     <row r="162" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A162" s="28"/>
-      <c r="B162" s="30"/>
+      <c r="A162" s="23"/>
+      <c r="B162" s="21"/>
       <c r="C162" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D162" s="30"/>
-      <c r="E162" s="30"/>
-      <c r="F162" s="30"/>
-      <c r="G162" s="30"/>
-      <c r="H162" s="30"/>
-      <c r="I162" s="30"/>
-      <c r="J162" s="30"/>
-      <c r="K162" s="30"/>
-      <c r="L162" s="30"/>
+      <c r="D162" s="21"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="21"/>
+      <c r="H162" s="21"/>
+      <c r="I162" s="21"/>
+      <c r="J162" s="21"/>
+      <c r="K162" s="21"/>
+      <c r="L162" s="21"/>
     </row>
     <row r="163" spans="1:12" ht="90" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="29"/>
-      <c r="B163" s="24"/>
+      <c r="A163" s="24"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D163" s="24"/>
-      <c r="E163" s="24"/>
-      <c r="F163" s="24"/>
-      <c r="G163" s="24"/>
-      <c r="H163" s="24"/>
-      <c r="I163" s="24"/>
-      <c r="J163" s="24"/>
-      <c r="K163" s="24"/>
-      <c r="L163" s="24"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="20"/>
+      <c r="K163" s="20"/>
+      <c r="L163" s="20"/>
     </row>
     <row r="164" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
@@ -7366,113 +7366,364 @@
     </row>
   </sheetData>
   <mergeCells count="489">
-    <mergeCell ref="L152:L153"/>
-    <mergeCell ref="H144:H150"/>
-    <mergeCell ref="I144:I150"/>
-    <mergeCell ref="J144:J150"/>
-    <mergeCell ref="K144:K150"/>
-    <mergeCell ref="L144:L150"/>
-    <mergeCell ref="H155:H163"/>
-    <mergeCell ref="I155:I163"/>
-    <mergeCell ref="J155:J163"/>
-    <mergeCell ref="K155:K163"/>
-    <mergeCell ref="L155:L163"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="H152:H153"/>
-    <mergeCell ref="I152:I153"/>
-    <mergeCell ref="J152:J153"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="A155:A163"/>
-    <mergeCell ref="B155:B163"/>
-    <mergeCell ref="D155:D163"/>
-    <mergeCell ref="E155:E163"/>
-    <mergeCell ref="F155:F163"/>
-    <mergeCell ref="G155:G163"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="E144:E150"/>
-    <mergeCell ref="F144:F150"/>
-    <mergeCell ref="G144:G150"/>
-    <mergeCell ref="I140:I141"/>
-    <mergeCell ref="J140:J141"/>
-    <mergeCell ref="K140:K141"/>
-    <mergeCell ref="L140:L141"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="J142:J143"/>
-    <mergeCell ref="K142:K143"/>
-    <mergeCell ref="B144:B150"/>
-    <mergeCell ref="D144:D150"/>
-    <mergeCell ref="L138:L139"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="K138:K139"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="I136:I137"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="L136:L137"/>
-    <mergeCell ref="H132:H133"/>
-    <mergeCell ref="I132:I133"/>
-    <mergeCell ref="J132:J133"/>
-    <mergeCell ref="K132:K133"/>
-    <mergeCell ref="L132:L133"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="L134:L135"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="K122:K124"/>
-    <mergeCell ref="L122:L124"/>
-    <mergeCell ref="F122:F124"/>
-    <mergeCell ref="G122:G124"/>
-    <mergeCell ref="H130:H131"/>
-    <mergeCell ref="I130:I131"/>
-    <mergeCell ref="J130:J131"/>
-    <mergeCell ref="K130:K131"/>
-    <mergeCell ref="L130:L131"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="L46:L57"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="J40:J45"/>
+    <mergeCell ref="K40:K45"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="J58:J62"/>
+    <mergeCell ref="D46:D57"/>
+    <mergeCell ref="E46:E57"/>
+    <mergeCell ref="F46:F57"/>
+    <mergeCell ref="G46:G57"/>
+    <mergeCell ref="H46:H57"/>
+    <mergeCell ref="I46:I57"/>
+    <mergeCell ref="J46:J57"/>
+    <mergeCell ref="K46:K57"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="K58:K62"/>
+    <mergeCell ref="L58:L62"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="D63:D69"/>
+    <mergeCell ref="E63:E69"/>
+    <mergeCell ref="F63:F69"/>
+    <mergeCell ref="G63:G69"/>
+    <mergeCell ref="H63:H69"/>
+    <mergeCell ref="I63:I69"/>
+    <mergeCell ref="J63:J69"/>
+    <mergeCell ref="K63:K69"/>
+    <mergeCell ref="L63:L69"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="F58:F62"/>
+    <mergeCell ref="G58:G62"/>
+    <mergeCell ref="H58:H62"/>
+    <mergeCell ref="I58:I62"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H74:H78"/>
+    <mergeCell ref="I74:I78"/>
+    <mergeCell ref="J74:J78"/>
+    <mergeCell ref="K74:K78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="F79:F83"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="G74:G78"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="H79:H83"/>
+    <mergeCell ref="I79:I83"/>
+    <mergeCell ref="J79:J83"/>
+    <mergeCell ref="K79:K83"/>
+    <mergeCell ref="L79:L83"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="K89:K91"/>
+    <mergeCell ref="L89:L91"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="J86:J88"/>
+    <mergeCell ref="K86:K88"/>
+    <mergeCell ref="L86:L88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="G89:G91"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="K92:K94"/>
+    <mergeCell ref="L92:L94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="G95:G97"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="J95:J97"/>
+    <mergeCell ref="K95:K97"/>
+    <mergeCell ref="L95:L97"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="F103:F106"/>
+    <mergeCell ref="G103:G106"/>
+    <mergeCell ref="H103:H106"/>
+    <mergeCell ref="L107:L111"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="D113:D116"/>
+    <mergeCell ref="E113:E116"/>
+    <mergeCell ref="F113:F116"/>
+    <mergeCell ref="I103:I106"/>
+    <mergeCell ref="J103:J106"/>
+    <mergeCell ref="K103:K106"/>
+    <mergeCell ref="L103:L106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="E107:E111"/>
+    <mergeCell ref="F107:F111"/>
+    <mergeCell ref="G107:G111"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="H107:H111"/>
+    <mergeCell ref="I107:I111"/>
+    <mergeCell ref="J107:J111"/>
+    <mergeCell ref="K107:K111"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="J120:J121"/>
+    <mergeCell ref="K120:K121"/>
     <mergeCell ref="L120:L121"/>
     <mergeCell ref="G113:G116"/>
     <mergeCell ref="H113:H116"/>
@@ -7497,364 +7748,113 @@
     <mergeCell ref="H122:H124"/>
     <mergeCell ref="I122:I124"/>
     <mergeCell ref="J122:J124"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="H107:H111"/>
-    <mergeCell ref="I107:I111"/>
-    <mergeCell ref="J107:J111"/>
-    <mergeCell ref="K107:K111"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="J120:J121"/>
-    <mergeCell ref="K120:K121"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="F103:F106"/>
-    <mergeCell ref="G103:G106"/>
-    <mergeCell ref="H103:H106"/>
-    <mergeCell ref="L107:L111"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="D113:D116"/>
-    <mergeCell ref="E113:E116"/>
-    <mergeCell ref="F113:F116"/>
-    <mergeCell ref="I103:I106"/>
-    <mergeCell ref="J103:J106"/>
-    <mergeCell ref="K103:K106"/>
-    <mergeCell ref="L103:L106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="D107:D111"/>
-    <mergeCell ref="E107:E111"/>
-    <mergeCell ref="F107:F111"/>
-    <mergeCell ref="G107:G111"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="K92:K94"/>
-    <mergeCell ref="L92:L94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="G95:G97"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="I95:I97"/>
-    <mergeCell ref="J95:J97"/>
-    <mergeCell ref="K95:K97"/>
-    <mergeCell ref="L95:L97"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="G89:G91"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="I92:I94"/>
-    <mergeCell ref="J89:J91"/>
-    <mergeCell ref="K89:K91"/>
-    <mergeCell ref="L89:L91"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="J86:J88"/>
-    <mergeCell ref="K86:K88"/>
-    <mergeCell ref="L86:L88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="H79:H83"/>
-    <mergeCell ref="I79:I83"/>
-    <mergeCell ref="J79:J83"/>
-    <mergeCell ref="K79:K83"/>
-    <mergeCell ref="L79:L83"/>
-    <mergeCell ref="H74:H78"/>
-    <mergeCell ref="I74:I78"/>
-    <mergeCell ref="J74:J78"/>
-    <mergeCell ref="K74:K78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="F79:F83"/>
-    <mergeCell ref="G79:G83"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="G74:G78"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="K58:K62"/>
-    <mergeCell ref="L58:L62"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="D63:D69"/>
-    <mergeCell ref="E63:E69"/>
-    <mergeCell ref="F63:F69"/>
-    <mergeCell ref="G63:G69"/>
-    <mergeCell ref="H63:H69"/>
-    <mergeCell ref="I63:I69"/>
-    <mergeCell ref="J63:J69"/>
-    <mergeCell ref="K63:K69"/>
-    <mergeCell ref="L63:L69"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="F58:F62"/>
-    <mergeCell ref="G58:G62"/>
-    <mergeCell ref="H58:H62"/>
-    <mergeCell ref="I58:I62"/>
-    <mergeCell ref="J58:J62"/>
-    <mergeCell ref="D46:D57"/>
-    <mergeCell ref="E46:E57"/>
-    <mergeCell ref="F46:F57"/>
-    <mergeCell ref="G46:G57"/>
-    <mergeCell ref="H46:H57"/>
-    <mergeCell ref="I46:I57"/>
-    <mergeCell ref="J46:J57"/>
-    <mergeCell ref="K46:K57"/>
-    <mergeCell ref="L46:L57"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="F40:F45"/>
-    <mergeCell ref="G40:G45"/>
-    <mergeCell ref="H40:H45"/>
-    <mergeCell ref="J40:J45"/>
-    <mergeCell ref="K40:K45"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="K122:K124"/>
+    <mergeCell ref="L122:L124"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="G122:G124"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="J130:J131"/>
+    <mergeCell ref="K130:K131"/>
+    <mergeCell ref="L130:L131"/>
+    <mergeCell ref="H132:H133"/>
+    <mergeCell ref="I132:I133"/>
+    <mergeCell ref="J132:J133"/>
+    <mergeCell ref="K132:K133"/>
+    <mergeCell ref="L132:L133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="L134:L135"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="L136:L137"/>
+    <mergeCell ref="L138:L139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="K138:K139"/>
+    <mergeCell ref="E144:E150"/>
+    <mergeCell ref="F144:F150"/>
+    <mergeCell ref="G144:G150"/>
+    <mergeCell ref="I140:I141"/>
+    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="K140:K141"/>
+    <mergeCell ref="L140:L141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="J142:J143"/>
+    <mergeCell ref="K142:K143"/>
+    <mergeCell ref="B144:B150"/>
+    <mergeCell ref="D144:D150"/>
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="H152:H153"/>
+    <mergeCell ref="I152:I153"/>
+    <mergeCell ref="J152:J153"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="A155:A163"/>
+    <mergeCell ref="B155:B163"/>
+    <mergeCell ref="D155:D163"/>
+    <mergeCell ref="E155:E163"/>
+    <mergeCell ref="F155:F163"/>
+    <mergeCell ref="G155:G163"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="L152:L153"/>
+    <mergeCell ref="H144:H150"/>
+    <mergeCell ref="I144:I150"/>
+    <mergeCell ref="J144:J150"/>
+    <mergeCell ref="K144:K150"/>
+    <mergeCell ref="L144:L150"/>
+    <mergeCell ref="H155:H163"/>
+    <mergeCell ref="I155:I163"/>
+    <mergeCell ref="J155:J163"/>
+    <mergeCell ref="K155:K163"/>
+    <mergeCell ref="L155:L163"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/dat/synchros-initiatives.xlsx
+++ b/dat/synchros-initiatives.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23250" yWindow="0" windowWidth="20880" windowHeight="7995" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="24180" yWindow="0" windowWidth="20880" windowHeight="7995" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="822">
   <si>
     <t>A consortium of agricultural cohort studies</t>
   </si>
@@ -2409,12 +2409,6 @@
     <t>32+</t>
   </si>
   <si>
-    <t>acronym.x</t>
-  </si>
-  <si>
-    <t>initiative.x</t>
-  </si>
-  <si>
     <t>setting</t>
   </si>
   <si>
@@ -2437,12 +2431,6 @@
   </si>
   <si>
     <t>methodology.harmonizationStrategy</t>
-  </si>
-  <si>
-    <t>initiative.y</t>
-  </si>
-  <si>
-    <t>acronym.y</t>
   </si>
   <si>
     <t>omics</t>
@@ -2615,171 +2603,7 @@
     <t>international</t>
   </si>
   <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>local_regional</t>
-  </si>
-  <si>
-    <t>air_pollution|environmental_hazards</t>
-  </si>
-  <si>
-    <t>air_pollution|urbanization</t>
-  </si>
-  <si>
-    <t>air_pollution|environmental_hazards|urbanization|work_related_stress|other</t>
-  </si>
-  <si>
-    <t>air_pollution|other</t>
-  </si>
-  <si>
-    <t>work_related_stress|work_life_balance</t>
-  </si>
-  <si>
-    <t>air_pollution|environmental_hazards|short_half_life_chemicals|urbanization|other</t>
-  </si>
-  <si>
-    <t>environmental_hazards|work_related_stress</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>work_related_stress|work_life_balance|migration|other</t>
-  </si>
-  <si>
-    <t>climate_change|urbanization|migration</t>
-  </si>
-  <si>
-    <t>migration</t>
-  </si>
-  <si>
-    <t>urbanization|work_related_stress|work_life_balance|endocrine_disruptors</t>
-  </si>
-  <si>
-    <t>air_pollution|migration|endocrine_disruptors</t>
-  </si>
-  <si>
-    <t>air_pollution|urbanization|endocrine_disruptors</t>
-  </si>
-  <si>
-    <t>air_pollution|endocrine_disruptors</t>
-  </si>
-  <si>
-    <t>Endocrine disruptors</t>
-  </si>
-  <si>
-    <t>Socio-economic status; quality of life</t>
-  </si>
-  <si>
-    <t>pension policies, macroeconomic environment</t>
-  </si>
-  <si>
-    <t>Endocrine disruptors; lifestyle exposures; chemical exposures; socioeconomic position</t>
-  </si>
-  <si>
-    <t>Work-related hazards</t>
-  </si>
-  <si>
-    <t>meta|pooled</t>
-  </si>
-  <si>
-    <t>pooled</t>
-  </si>
-  <si>
-    <t>pooled|federated</t>
-  </si>
-  <si>
-    <t>federated</t>
-  </si>
-  <si>
-    <t>meta|federated</t>
-  </si>
-  <si>
-    <t>meta|pooled|federated|na</t>
-  </si>
-  <si>
-    <t>meta</t>
-  </si>
-  <si>
     <t>under_request</t>
-  </si>
-  <si>
-    <t>ex_post</t>
-  </si>
-  <si>
-    <t>prospective</t>
-  </si>
-  <si>
-    <t>ex_ante</t>
-  </si>
-  <si>
-    <t>Medication Exposure in Pregnancy Risk Evaluation Program</t>
-  </si>
-  <si>
-    <t>Environmental influences on Child Health Outcomes wide Cohort</t>
-  </si>
-  <si>
-    <t>LifeCycle EU Child Cohort Network</t>
-  </si>
-  <si>
-    <t>SAGE plus CHARLS, ELSA, HRS, LASI and SHARE (SAGE+ Wave 2)</t>
-  </si>
-  <si>
-    <t>MONICA Risk, Genetics, Archiving and Monograph</t>
-  </si>
-  <si>
-    <t>Mechanisms of the Development of Allergy  Project</t>
-  </si>
-  <si>
-    <t>The Hand-Arm Vibration International
-Consortium: Prospective Studies on the Relationship Between Power Tool Exposure and Health Effects</t>
-  </si>
-  <si>
-    <t>Cohorts for Heart &amp; Aging Research in Genomic Epidemiology Consortium</t>
-  </si>
-  <si>
-    <t>ACC</t>
-  </si>
-  <si>
-    <t>Tohoku Medical 
-Megabank Project</t>
-  </si>
-  <si>
-    <t>LifeCycle</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>The Netherlands</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Southafrica</t>
-  </si>
-  <si>
-    <t>Korea</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Public institution</t>
-  </si>
-  <si>
-    <t>Mix</t>
   </si>
 </sst>
 </file>
@@ -2989,13 +2813,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3005,6 +2844,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3024,57 +2899,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3365,96 +3189,96 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="37" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="37" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" ht="381.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="23">
         <v>30</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="23">
         <v>3</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="25">
         <v>1300000</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="25">
         <v>316270</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="19" t="s">
+      <c r="K3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="23" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3462,53 +3286,53 @@
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="23">
         <v>6</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="19" t="s">
+      <c r="E5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="25">
         <v>245000</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="19" t="s">
+      <c r="H5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="23" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3516,52 +3340,52 @@
       <c r="A6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
     </row>
     <row r="7" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="31">
         <v>11</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="35">
+      <c r="E7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="25">
         <v>1221156</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="19" t="s">
+      <c r="H7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="23" t="s">
         <v>38</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -3569,122 +3393,122 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
       <c r="L9" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="204" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="23">
         <v>66</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="19" t="s">
+      <c r="E12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="1:12" ht="190.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
@@ -3705,7 +3529,7 @@
       <c r="F14" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="35">
         <v>300000</v>
       </c>
       <c r="H14" s="31" t="s">
@@ -3717,7 +3541,7 @@
       <c r="J14" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="35">
         <v>1477</v>
       </c>
       <c r="L14" s="31" t="s">
@@ -3728,53 +3552,53 @@
       <c r="A15" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="33"/>
     </row>
     <row r="16" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="23">
         <v>18</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="23">
         <v>18</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="25">
         <v>346553</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="25">
         <v>346553</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="23">
         <v>180</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="23" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3782,53 +3606,53 @@
       <c r="A17" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="1:12" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="23">
         <v>13</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="23">
         <v>13</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="35">
+      <c r="F18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="25">
         <v>773499</v>
       </c>
-      <c r="H18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="19">
+      <c r="H18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="23">
         <v>100</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3836,53 +3660,53 @@
       <c r="A19" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="23" t="s">
         <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="23">
         <v>10</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="23">
         <v>10</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="25">
         <v>2662777</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="25">
         <v>2662777</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="23">
         <v>9</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="23" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3890,35 +3714,35 @@
       <c r="A21" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="20"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
     </row>
     <row r="23" spans="1:12" ht="254.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
@@ -3927,34 +3751,34 @@
       <c r="B23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="23">
         <v>17</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="23">
         <v>17</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="25">
         <v>76233</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="25">
         <v>76233</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="23">
         <v>31</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="23" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3965,49 +3789,49 @@
       <c r="B24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
     </row>
     <row r="25" spans="1:12" ht="267" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="39">
         <v>34</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="39">
         <v>34</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="37">
         <v>950000</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="37">
         <v>950000</v>
       </c>
-      <c r="I25" s="33" t="s">
+      <c r="I25" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="J25" s="33" t="s">
+      <c r="J25" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="39">
         <v>12</v>
       </c>
       <c r="L25" s="5" t="s">
@@ -4018,16 +3842,16 @@
       <c r="A26" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
       <c r="L26" s="6" t="s">
         <v>92</v>
       </c>
@@ -4036,37 +3860,37 @@
       <c r="A27" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="23">
         <v>8</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="35">
+      <c r="F27" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="25">
         <v>119952</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="19" t="s">
+      <c r="I27" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="19">
+      <c r="J27" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="23">
         <v>8</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="23" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4074,53 +3898,53 @@
       <c r="A28" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
     </row>
     <row r="29" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="23">
         <v>17</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="23">
         <v>10</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="25">
         <v>280000</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="I29" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="J29" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="23" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4128,17 +3952,17 @@
       <c r="A30" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
     </row>
     <row r="31" spans="1:12" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
@@ -4182,37 +4006,37 @@
       <c r="A32" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="23" t="s">
         <v>111</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="23">
         <v>4</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="35">
+      <c r="E32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="25">
         <v>16527</v>
       </c>
-      <c r="H32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" s="19" t="s">
+      <c r="H32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="23" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4220,87 +4044,87 @@
       <c r="A33" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="21"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
     </row>
     <row r="34" spans="1:12" ht="267.75" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
-      <c r="B34" s="21"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
     </row>
     <row r="35" spans="1:12" ht="204.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="20"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
     </row>
     <row r="36" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="23">
         <v>15</v>
       </c>
       <c r="E36" s="31">
         <v>15</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G36" s="25">
         <v>190268</v>
       </c>
-      <c r="H36" s="35">
+      <c r="H36" s="25">
         <v>190268</v>
       </c>
-      <c r="I36" s="19" t="s">
+      <c r="I36" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="J36" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K36" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L36" s="19" t="s">
+      <c r="K36" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="23" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4308,53 +4132,53 @@
       <c r="A37" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
     </row>
     <row r="38" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="23" t="s">
         <v>122</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="23">
         <v>7</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="23">
         <v>7</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G38" s="25">
         <v>42189</v>
       </c>
-      <c r="H38" s="35">
+      <c r="H38" s="25">
         <v>31000</v>
       </c>
-      <c r="I38" s="19" t="s">
+      <c r="I38" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="J38" s="19" t="s">
+      <c r="J38" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K38" s="19">
+      <c r="K38" s="23">
         <v>15</v>
       </c>
-      <c r="L38" s="19" t="s">
+      <c r="L38" s="23" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4362,52 +4186,52 @@
       <c r="A39" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="20"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
     </row>
     <row r="40" spans="1:12" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="23" t="s">
         <v>128</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="23">
         <v>18</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="23">
         <v>8</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="H40" s="35">
+      <c r="H40" s="25">
         <v>102774</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J40" s="19" t="s">
+      <c r="J40" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K40" s="19">
+      <c r="K40" s="23">
         <v>270</v>
       </c>
       <c r="L40" s="2" t="s">
@@ -4418,88 +4242,88 @@
       <c r="A41" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="21"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="40"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="34"/>
       <c r="I41" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
       <c r="L41" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
-      <c r="B42" s="21"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="40"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="34"/>
       <c r="I42" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
       <c r="L42" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
-      <c r="B43" s="21"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="40"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="34"/>
       <c r="I43" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
       <c r="L43" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
-      <c r="B44" s="21"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="40"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="34"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
       <c r="L44" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="20"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="36"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="26"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
       <c r="L45" s="3" t="s">
         <v>141</v>
       </c>
@@ -4514,31 +4338,31 @@
       <c r="C46" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="E46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="19" t="s">
+      <c r="E46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="H46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L46" s="19" t="s">
+      <c r="H46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4552,29 +4376,29 @@
       <c r="C47" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
     </row>
     <row r="49" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -4582,15 +4406,15 @@
       <c r="C49" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
     </row>
     <row r="50" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
@@ -4598,15 +4422,15 @@
       <c r="C50" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
     </row>
     <row r="51" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
@@ -4614,15 +4438,15 @@
       <c r="C51" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
     </row>
     <row r="52" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
@@ -4630,29 +4454,29 @@
       <c r="C52" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="10"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
     </row>
     <row r="54" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
@@ -4660,15 +4484,15 @@
       <c r="C54" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
     </row>
     <row r="55" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
@@ -4676,15 +4500,15 @@
       <c r="C55" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
     </row>
     <row r="56" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
@@ -4692,15 +4516,15 @@
       <c r="C56" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
     </row>
     <row r="57" spans="1:12" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -4708,250 +4532,250 @@
       <c r="C57" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
     </row>
     <row r="58" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="23" t="s">
         <v>158</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="23">
         <v>36</v>
       </c>
-      <c r="E58" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="19" t="s">
+      <c r="E58" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="19" t="s">
+      <c r="G58" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="H58" s="19" t="s">
+      <c r="H58" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="I58" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J58" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K58" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L58" s="19" t="s">
+      <c r="I58" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J58" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K58" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="23"/>
-      <c r="B59" s="21"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="23"/>
-      <c r="B60" s="21"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="10"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
     </row>
     <row r="61" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="21"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
     </row>
     <row r="62" spans="1:12" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
-      <c r="B62" s="20"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
     </row>
     <row r="63" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="23" t="s">
         <v>166</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D63" s="23">
         <v>4</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E63" s="23">
         <v>4</v>
       </c>
-      <c r="F63" s="19" t="s">
+      <c r="F63" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G63" s="35">
+      <c r="G63" s="25">
         <v>22730</v>
       </c>
-      <c r="H63" s="19" t="s">
+      <c r="H63" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="I63" s="19" t="s">
+      <c r="I63" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="J63" s="19" t="s">
+      <c r="J63" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K63" s="19">
+      <c r="K63" s="23">
         <v>1043</v>
       </c>
-      <c r="L63" s="19" t="s">
+      <c r="L63" s="23" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="23"/>
-      <c r="B64" s="21"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="10"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
     </row>
     <row r="65" spans="1:12" ht="255" x14ac:dyDescent="0.2">
-      <c r="A65" s="23"/>
-      <c r="B65" s="21"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
     </row>
     <row r="66" spans="1:12" ht="102" x14ac:dyDescent="0.2">
-      <c r="A66" s="23"/>
-      <c r="B66" s="21"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
     </row>
     <row r="67" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="23"/>
-      <c r="B67" s="21"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
     </row>
     <row r="68" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="23"/>
-      <c r="B68" s="21"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
     </row>
     <row r="69" spans="1:12" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
-      <c r="B69" s="20"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
     </row>
     <row r="70" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="27" t="s">
         <v>176</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -4960,108 +4784,108 @@
       <c r="C70" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="23">
         <v>29</v>
       </c>
-      <c r="E70" s="19">
+      <c r="E70" s="23">
         <v>24</v>
       </c>
-      <c r="F70" s="19" t="s">
+      <c r="F70" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G70" s="35">
+      <c r="G70" s="25">
         <v>1221985</v>
       </c>
-      <c r="H70" s="35">
+      <c r="H70" s="25">
         <v>1221985</v>
       </c>
-      <c r="I70" s="19" t="s">
+      <c r="I70" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="J70" s="19" t="s">
+      <c r="J70" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K70" s="19">
+      <c r="K70" s="23">
         <v>600</v>
       </c>
-      <c r="L70" s="19" t="s">
+      <c r="L70" s="23" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="24"/>
+      <c r="A71" s="29"/>
       <c r="B71" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
     </row>
     <row r="72" spans="1:12" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="23" t="s">
         <v>183</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D72" s="23">
         <v>29</v>
       </c>
-      <c r="E72" s="19">
+      <c r="E72" s="23">
         <v>29</v>
       </c>
-      <c r="F72" s="19" t="s">
+      <c r="F72" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G72" s="19">
+      <c r="G72" s="23">
         <v>700</v>
       </c>
-      <c r="H72" s="19">
+      <c r="H72" s="23">
         <v>700</v>
       </c>
-      <c r="I72" s="19" t="s">
+      <c r="I72" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="J72" s="19" t="s">
+      <c r="J72" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K72" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L72" s="19" t="s">
+      <c r="K72" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L72" s="23" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="306.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="24"/>
-      <c r="B73" s="20"/>
+      <c r="A73" s="29"/>
+      <c r="B73" s="24"/>
       <c r="C73" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
     </row>
     <row r="74" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="27" t="s">
         <v>188</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -5070,471 +4894,471 @@
       <c r="C74" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D74" s="19">
+      <c r="D74" s="23">
         <v>14</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E74" s="23">
         <v>14</v>
       </c>
-      <c r="F74" s="19" t="s">
+      <c r="F74" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G74" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H74" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I74" s="19" t="s">
+      <c r="G74" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="J74" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K74" s="19">
+      <c r="J74" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K74" s="23">
         <v>323</v>
       </c>
       <c r="L74" s="10"/>
     </row>
     <row r="75" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
+      <c r="A75" s="28"/>
       <c r="B75" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
       <c r="L75" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="23"/>
+      <c r="A76" s="28"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
       <c r="L76" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="23"/>
+      <c r="A77" s="28"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
       <c r="L77" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="24"/>
+      <c r="A78" s="29"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="20"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
       <c r="L78" s="3" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="23" t="s">
         <v>199</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E79" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G79" s="19">
+      <c r="E79" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79" s="23">
         <v>50000</v>
       </c>
-      <c r="H79" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I79" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J79" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K79" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L79" s="19" t="s">
+      <c r="H79" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J79" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K79" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L79" s="23" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="23"/>
-      <c r="B80" s="21"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="30"/>
       <c r="C80" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
-      <c r="I80" s="21"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="21"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="30"/>
     </row>
     <row r="81" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="23"/>
-      <c r="B81" s="21"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="30"/>
       <c r="C81" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="21"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
     </row>
     <row r="82" spans="1:12" ht="204" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="21"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="30"/>
       <c r="C82" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="30"/>
     </row>
     <row r="83" spans="1:12" ht="192" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="24"/>
-      <c r="B83" s="20"/>
+      <c r="A83" s="29"/>
+      <c r="B83" s="24"/>
       <c r="C83" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
     </row>
     <row r="84" spans="1:12" ht="204" x14ac:dyDescent="0.2">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="23" t="s">
         <v>208</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D84" s="19" t="s">
+      <c r="D84" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="E84" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F84" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G84" s="19" t="s">
+      <c r="E84" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G84" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="H84" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I84" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J84" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K84" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L84" s="19" t="s">
+      <c r="H84" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I84" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J84" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K84" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L84" s="23" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="24"/>
-      <c r="B85" s="20"/>
+      <c r="A85" s="29"/>
+      <c r="B85" s="24"/>
       <c r="C85" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
     </row>
     <row r="86" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="23" t="s">
         <v>215</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D86" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F86" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G86" s="35">
+      <c r="D86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G86" s="25">
         <v>100000</v>
       </c>
-      <c r="H86" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I86" s="19" t="s">
+      <c r="H86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I86" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J86" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K86" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L86" s="19" t="s">
+      <c r="J86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L86" s="23" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A87" s="23"/>
-      <c r="B87" s="21"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="30"/>
       <c r="C87" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="30"/>
+      <c r="L87" s="30"/>
     </row>
     <row r="88" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="24"/>
-      <c r="B88" s="20"/>
+      <c r="A88" s="29"/>
+      <c r="B88" s="24"/>
       <c r="C88" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
     </row>
     <row r="89" spans="1:12" ht="267.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="23" t="s">
         <v>222</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D89" s="19">
+      <c r="D89" s="23">
         <v>9</v>
       </c>
-      <c r="E89" s="19">
+      <c r="E89" s="23">
         <v>6</v>
       </c>
-      <c r="F89" s="19" t="s">
+      <c r="F89" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G89" s="19" t="s">
+      <c r="G89" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="H89" s="35">
+      <c r="H89" s="25">
         <v>150000</v>
       </c>
-      <c r="I89" s="19" t="s">
+      <c r="I89" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="J89" s="19" t="s">
+      <c r="J89" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K89" s="19">
+      <c r="K89" s="23">
         <v>15</v>
       </c>
-      <c r="L89" s="19" t="s">
+      <c r="L89" s="23" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="280.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="23"/>
-      <c r="B90" s="21"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="30"/>
       <c r="C90" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="21"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="30"/>
+      <c r="L90" s="30"/>
     </row>
     <row r="91" spans="1:12" ht="243" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="24"/>
-      <c r="B91" s="20"/>
+      <c r="A91" s="29"/>
+      <c r="B91" s="24"/>
       <c r="C91" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="20"/>
-      <c r="L91" s="20"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
     </row>
     <row r="92" spans="1:12" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B92" s="23" t="s">
         <v>230</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="E92" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F92" s="19" t="s">
+      <c r="E92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G92" s="19" t="s">
+      <c r="G92" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="H92" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I92" s="19" t="s">
+      <c r="H92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I92" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="J92" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K92" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L92" s="19" t="s">
+      <c r="J92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L92" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="293.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="23"/>
-      <c r="B93" s="21"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="30"/>
       <c r="C93" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="21"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="30"/>
+      <c r="L93" s="30"/>
     </row>
     <row r="94" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="24"/>
-      <c r="B94" s="20"/>
+      <c r="A94" s="29"/>
+      <c r="B94" s="24"/>
       <c r="C94" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
-      <c r="K94" s="20"/>
-      <c r="L94" s="20"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
     </row>
     <row r="95" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="23" t="s">
         <v>237</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -5543,28 +5367,28 @@
       <c r="D95" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E95" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F95" s="19" t="s">
+      <c r="E95" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G95" s="35">
+      <c r="G95" s="25">
         <v>315000</v>
       </c>
-      <c r="H95" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I95" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J95" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K95" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L95" s="19" t="s">
+      <c r="H95" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I95" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J95" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K95" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L95" s="23" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5572,71 +5396,71 @@
       <c r="A96" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B96" s="21"/>
+      <c r="B96" s="30"/>
       <c r="C96" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D96" s="10"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="40"/>
-      <c r="H96" s="21"/>
-      <c r="I96" s="21"/>
-      <c r="J96" s="21"/>
-      <c r="K96" s="21"/>
-      <c r="L96" s="21"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="30"/>
     </row>
     <row r="97" spans="1:12" ht="294" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="20"/>
+      <c r="B97" s="24"/>
       <c r="C97" s="9"/>
       <c r="D97" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="20"/>
-      <c r="L97" s="20"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
     </row>
     <row r="98" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="B98" s="23" t="s">
         <v>245</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D98" s="19" t="s">
+      <c r="D98" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="E98" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F98" s="19" t="s">
+      <c r="E98" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G98" s="19" t="s">
+      <c r="G98" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="H98" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I98" s="19" t="s">
+      <c r="H98" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I98" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="J98" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K98" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L98" s="19" t="s">
+      <c r="J98" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K98" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L98" s="23" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5644,19 +5468,19 @@
       <c r="A99" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="B99" s="20"/>
+      <c r="B99" s="24"/>
       <c r="C99" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="20"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="20"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
     </row>
     <row r="100" spans="1:12" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
@@ -5697,7 +5521,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="37" t="s">
+      <c r="A101" s="19" t="s">
         <v>259</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -5706,54 +5530,54 @@
       <c r="C101" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D101" s="19">
+      <c r="D101" s="23">
         <v>6</v>
       </c>
-      <c r="E101" s="19">
+      <c r="E101" s="23">
         <v>6</v>
       </c>
-      <c r="F101" s="19" t="s">
+      <c r="F101" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G101" s="35">
+      <c r="G101" s="25">
         <v>136128</v>
       </c>
-      <c r="H101" s="35">
+      <c r="H101" s="25">
         <v>136128</v>
       </c>
-      <c r="I101" s="19" t="s">
+      <c r="I101" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="J101" s="19" t="s">
+      <c r="J101" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="K101" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L101" s="19" t="s">
+      <c r="K101" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L101" s="23" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="39"/>
+      <c r="A102" s="20"/>
       <c r="B102" s="3" t="s">
         <v>261</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="20"/>
-      <c r="K102" s="20"/>
-      <c r="L102" s="20"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
     </row>
     <row r="103" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A103" s="37" t="s">
+      <c r="A103" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -5762,179 +5586,179 @@
       <c r="C103" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D103" s="19">
+      <c r="D103" s="23">
         <v>373</v>
       </c>
-      <c r="E103" s="19" t="s">
+      <c r="E103" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F103" s="19" t="s">
+      <c r="F103" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G103" s="19" t="s">
+      <c r="G103" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="H103" s="19" t="s">
+      <c r="H103" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="I103" s="19" t="s">
+      <c r="I103" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="J103" s="19" t="s">
+      <c r="J103" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K103" s="19" t="s">
+      <c r="K103" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="L103" s="19" t="s">
+      <c r="L103" s="23" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="38"/>
+      <c r="A104" s="41"/>
       <c r="B104" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C104" s="10"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="21"/>
-      <c r="H104" s="21"/>
-      <c r="I104" s="21"/>
-      <c r="J104" s="21"/>
-      <c r="K104" s="21"/>
-      <c r="L104" s="21"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
+      <c r="K104" s="30"/>
+      <c r="L104" s="30"/>
     </row>
     <row r="105" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="38"/>
+      <c r="A105" s="41"/>
       <c r="B105" s="8"/>
       <c r="C105" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="21"/>
-      <c r="I105" s="21"/>
-      <c r="J105" s="21"/>
-      <c r="K105" s="21"/>
-      <c r="L105" s="21"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
+      <c r="K105" s="30"/>
+      <c r="L105" s="30"/>
     </row>
     <row r="106" spans="1:12" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="39"/>
+      <c r="A106" s="20"/>
       <c r="B106" s="9"/>
       <c r="C106" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="20"/>
-      <c r="J106" s="20"/>
-      <c r="K106" s="20"/>
-      <c r="L106" s="20"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="24"/>
+      <c r="L106" s="24"/>
     </row>
     <row r="107" spans="1:12" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="37" t="s">
+      <c r="A107" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="B107" s="19" t="s">
+      <c r="B107" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D107" s="19">
+      <c r="D107" s="23">
         <v>20</v>
       </c>
-      <c r="E107" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F107" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G107" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H107" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I107" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J107" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K107" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L107" s="19" t="s">
+      <c r="E107" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F107" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G107" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H107" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I107" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J107" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K107" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L107" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" s="38"/>
-      <c r="B108" s="21"/>
+      <c r="A108" s="41"/>
+      <c r="B108" s="30"/>
       <c r="C108" s="10"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="21"/>
-      <c r="H108" s="21"/>
-      <c r="I108" s="21"/>
-      <c r="J108" s="21"/>
-      <c r="K108" s="21"/>
-      <c r="L108" s="21"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
+      <c r="K108" s="30"/>
+      <c r="L108" s="30"/>
     </row>
     <row r="109" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="38"/>
-      <c r="B109" s="21"/>
+      <c r="A109" s="41"/>
+      <c r="B109" s="30"/>
       <c r="C109" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D109" s="21"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="21"/>
-      <c r="H109" s="21"/>
-      <c r="I109" s="21"/>
-      <c r="J109" s="21"/>
-      <c r="K109" s="21"/>
-      <c r="L109" s="21"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
+      <c r="K109" s="30"/>
+      <c r="L109" s="30"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" s="38"/>
-      <c r="B110" s="21"/>
+      <c r="A110" s="41"/>
+      <c r="B110" s="30"/>
       <c r="C110" s="10"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="21"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="21"/>
-      <c r="H110" s="21"/>
-      <c r="I110" s="21"/>
-      <c r="J110" s="21"/>
-      <c r="K110" s="21"/>
-      <c r="L110" s="21"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="30"/>
+      <c r="K110" s="30"/>
+      <c r="L110" s="30"/>
     </row>
     <row r="111" spans="1:12" ht="243" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="39"/>
-      <c r="B111" s="20"/>
+      <c r="A111" s="20"/>
+      <c r="B111" s="24"/>
       <c r="C111" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="20"/>
-      <c r="I111" s="20"/>
-      <c r="J111" s="20"/>
-      <c r="K111" s="20"/>
-      <c r="L111" s="20"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="24"/>
     </row>
     <row r="112" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
@@ -5975,37 +5799,37 @@
       </c>
     </row>
     <row r="113" spans="1:12" ht="318.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="37" t="s">
+      <c r="A113" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B113" s="19" t="s">
+      <c r="B113" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D113" s="19">
+      <c r="D113" s="23">
         <v>6</v>
       </c>
-      <c r="E113" s="19">
+      <c r="E113" s="23">
         <v>6</v>
       </c>
-      <c r="F113" s="19" t="s">
+      <c r="F113" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G113" s="19" t="s">
+      <c r="G113" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="H113" s="19" t="s">
+      <c r="H113" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="I113" s="19" t="s">
+      <c r="I113" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="J113" s="19" t="s">
+      <c r="J113" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K113" s="19" t="s">
+      <c r="K113" s="23" t="s">
         <v>38</v>
       </c>
       <c r="L113" s="2" t="s">
@@ -6013,51 +5837,51 @@
       </c>
     </row>
     <row r="114" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A114" s="38"/>
-      <c r="B114" s="21"/>
+      <c r="A114" s="41"/>
+      <c r="B114" s="30"/>
       <c r="C114" s="10"/>
-      <c r="D114" s="21"/>
-      <c r="E114" s="21"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="21"/>
-      <c r="H114" s="21"/>
-      <c r="I114" s="21"/>
-      <c r="J114" s="21"/>
-      <c r="K114" s="21"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="30"/>
+      <c r="K114" s="30"/>
       <c r="L114" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="38"/>
-      <c r="B115" s="21"/>
+      <c r="A115" s="41"/>
+      <c r="B115" s="30"/>
       <c r="C115" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
-      <c r="I115" s="21"/>
-      <c r="J115" s="21"/>
-      <c r="K115" s="21"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="30"/>
+      <c r="I115" s="30"/>
+      <c r="J115" s="30"/>
+      <c r="K115" s="30"/>
       <c r="L115" s="8"/>
     </row>
     <row r="116" spans="1:12" ht="294" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="39"/>
-      <c r="B116" s="20"/>
+      <c r="A116" s="20"/>
+      <c r="B116" s="24"/>
       <c r="C116" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="20"/>
-      <c r="I116" s="20"/>
-      <c r="J116" s="20"/>
-      <c r="K116" s="20"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="24"/>
+      <c r="J116" s="24"/>
+      <c r="K116" s="24"/>
       <c r="L116" s="9"/>
     </row>
     <row r="117" spans="1:12" ht="396" thickBot="1" x14ac:dyDescent="0.25">
@@ -6175,182 +5999,182 @@
       </c>
     </row>
     <row r="120" spans="1:12" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="22" t="s">
+      <c r="A120" s="27" t="s">
         <v>310</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C120" s="33" t="s">
+      <c r="C120" s="39" t="s">
         <v>312</v>
       </c>
-      <c r="D120" s="19">
+      <c r="D120" s="23">
         <v>43</v>
       </c>
-      <c r="E120" s="19">
+      <c r="E120" s="23">
         <v>43</v>
       </c>
-      <c r="F120" s="19" t="s">
+      <c r="F120" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G120" s="35">
+      <c r="G120" s="25">
         <v>1000000</v>
       </c>
-      <c r="H120" s="35">
+      <c r="H120" s="25">
         <v>1000000</v>
       </c>
-      <c r="I120" s="19" t="s">
+      <c r="I120" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="J120" s="19" t="s">
+      <c r="J120" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="K120" s="19" t="s">
+      <c r="K120" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="L120" s="19" t="s">
+      <c r="L120" s="23" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="24"/>
+      <c r="A121" s="29"/>
       <c r="B121" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C121" s="34"/>
-      <c r="D121" s="20"/>
-      <c r="E121" s="20"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="36"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="20"/>
-      <c r="J121" s="20"/>
-      <c r="K121" s="20"/>
-      <c r="L121" s="20"/>
+      <c r="C121" s="40"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="26"/>
+      <c r="I121" s="24"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="24"/>
+      <c r="L121" s="24"/>
     </row>
     <row r="122" spans="1:12" ht="102" x14ac:dyDescent="0.2">
-      <c r="A122" s="22" t="s">
+      <c r="A122" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="B122" s="19" t="s">
+      <c r="B122" s="23" t="s">
         <v>318</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D122" s="19" t="s">
+      <c r="D122" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="E122" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F122" s="19" t="s">
+      <c r="E122" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F122" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G122" s="19" t="s">
+      <c r="G122" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="H122" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I122" s="19" t="s">
+      <c r="H122" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I122" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="J122" s="19" t="s">
+      <c r="J122" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K122" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L122" s="19" t="s">
+      <c r="K122" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L122" s="23" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="23"/>
-      <c r="B123" s="21"/>
+      <c r="A123" s="28"/>
+      <c r="B123" s="30"/>
       <c r="C123" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D123" s="21"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="21"/>
-      <c r="H123" s="21"/>
-      <c r="I123" s="21"/>
-      <c r="J123" s="21"/>
-      <c r="K123" s="21"/>
-      <c r="L123" s="21"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="30"/>
+      <c r="K123" s="30"/>
+      <c r="L123" s="30"/>
     </row>
     <row r="124" spans="1:12" ht="90" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="24"/>
-      <c r="B124" s="20"/>
+      <c r="A124" s="29"/>
+      <c r="B124" s="24"/>
       <c r="C124" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D124" s="20"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="20"/>
-      <c r="H124" s="20"/>
-      <c r="I124" s="20"/>
-      <c r="J124" s="20"/>
-      <c r="K124" s="20"/>
-      <c r="L124" s="20"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="24"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
     </row>
     <row r="125" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="22" t="s">
+      <c r="A125" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="B125" s="19" t="s">
+      <c r="B125" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="C125" s="19" t="s">
+      <c r="C125" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="D125" s="19" t="s">
+      <c r="D125" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="E125" s="19" t="s">
+      <c r="E125" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="F125" s="19" t="s">
+      <c r="F125" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="G125" s="19" t="s">
+      <c r="G125" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="H125" s="19" t="s">
+      <c r="H125" s="23" t="s">
         <v>330</v>
       </c>
       <c r="I125" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="J125" s="19" t="s">
+      <c r="J125" s="23" t="s">
         <v>330</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="L125" s="19" t="s">
+      <c r="L125" s="23" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="24"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="20"/>
-      <c r="D126" s="20"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="20"/>
-      <c r="H126" s="20"/>
-      <c r="I126" s="32"/>
-      <c r="J126" s="20"/>
+      <c r="A126" s="29"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="33"/>
+      <c r="J126" s="24"/>
       <c r="K126" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="L126" s="20"/>
+      <c r="L126" s="24"/>
     </row>
     <row r="127" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
@@ -6470,37 +6294,37 @@
       <c r="A130" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B130" s="19" t="s">
+      <c r="B130" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="C130" s="19" t="s">
+      <c r="C130" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="D130" s="19">
+      <c r="D130" s="23">
         <v>9</v>
       </c>
-      <c r="E130" s="19">
+      <c r="E130" s="23">
         <v>9</v>
       </c>
-      <c r="F130" s="19" t="s">
+      <c r="F130" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G130" s="25">
+      <c r="G130" s="42">
         <v>50562</v>
       </c>
-      <c r="H130" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I130" s="19" t="s">
+      <c r="H130" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I130" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="J130" s="19" t="s">
+      <c r="J130" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K130" s="27">
+      <c r="K130" s="44">
         <v>450</v>
       </c>
-      <c r="L130" s="19" t="s">
+      <c r="L130" s="23" t="s">
         <v>353</v>
       </c>
     </row>
@@ -6508,53 +6332,53 @@
       <c r="A131" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B131" s="20"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="26"/>
-      <c r="H131" s="20"/>
-      <c r="I131" s="20"/>
-      <c r="J131" s="20"/>
-      <c r="K131" s="28"/>
-      <c r="L131" s="20"/>
+      <c r="B131" s="24"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="43"/>
+      <c r="H131" s="24"/>
+      <c r="I131" s="24"/>
+      <c r="J131" s="24"/>
+      <c r="K131" s="45"/>
+      <c r="L131" s="24"/>
     </row>
     <row r="132" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="B132" s="19" t="s">
+      <c r="B132" s="23" t="s">
         <v>356</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D132" s="27">
+      <c r="D132" s="44">
         <v>3</v>
       </c>
-      <c r="E132" s="19">
+      <c r="E132" s="23">
         <v>3</v>
       </c>
-      <c r="F132" s="19" t="s">
+      <c r="F132" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G132" s="19">
+      <c r="G132" s="23">
         <v>970</v>
       </c>
-      <c r="H132" s="19">
+      <c r="H132" s="23">
         <v>970</v>
       </c>
-      <c r="I132" s="19" t="s">
+      <c r="I132" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="J132" s="19" t="s">
+      <c r="J132" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K132" s="27" t="s">
+      <c r="K132" s="44" t="s">
         <v>360</v>
       </c>
-      <c r="L132" s="19" t="s">
+      <c r="L132" s="23" t="s">
         <v>361</v>
       </c>
     </row>
@@ -6562,113 +6386,113 @@
       <c r="A133" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B133" s="20"/>
+      <c r="B133" s="24"/>
       <c r="C133" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D133" s="28"/>
-      <c r="E133" s="20"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="20"/>
-      <c r="H133" s="20"/>
-      <c r="I133" s="20"/>
-      <c r="J133" s="20"/>
-      <c r="K133" s="28"/>
-      <c r="L133" s="20"/>
+      <c r="D133" s="45"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="24"/>
+      <c r="I133" s="24"/>
+      <c r="J133" s="24"/>
+      <c r="K133" s="45"/>
+      <c r="L133" s="24"/>
     </row>
     <row r="134" spans="1:12" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="29" t="s">
+      <c r="A134" s="46" t="s">
         <v>11</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C134" s="19" t="s">
+      <c r="C134" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="D134" s="27">
+      <c r="D134" s="44">
         <v>9</v>
       </c>
-      <c r="E134" s="19">
+      <c r="E134" s="23">
         <v>9</v>
       </c>
-      <c r="F134" s="19" t="s">
+      <c r="F134" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G134" s="25">
+      <c r="G134" s="42">
         <v>1190000</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="I134" s="19" t="s">
+      <c r="I134" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="J134" s="19" t="s">
+      <c r="J134" s="23" t="s">
         <v>37</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="L134" s="19" t="s">
+      <c r="L134" s="23" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="30"/>
+      <c r="A135" s="47"/>
       <c r="B135" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C135" s="20"/>
-      <c r="D135" s="28"/>
-      <c r="E135" s="20"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="26"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="45"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="43"/>
       <c r="H135" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="I135" s="20"/>
-      <c r="J135" s="20"/>
+      <c r="I135" s="24"/>
+      <c r="J135" s="24"/>
       <c r="K135" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="L135" s="20"/>
+      <c r="L135" s="24"/>
     </row>
     <row r="136" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="B136" s="19" t="s">
+      <c r="B136" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="C136" s="19" t="s">
+      <c r="C136" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D136" s="27">
+      <c r="D136" s="44">
         <v>9</v>
       </c>
-      <c r="E136" s="19">
+      <c r="E136" s="23">
         <v>9</v>
       </c>
-      <c r="F136" s="19" t="s">
+      <c r="F136" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G136" s="25">
+      <c r="G136" s="42">
         <v>40000</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="I136" s="19" t="s">
+      <c r="I136" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="J136" s="19" t="s">
+      <c r="J136" s="23" t="s">
         <v>37</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="L136" s="19" t="s">
+      <c r="L136" s="23" t="s">
         <v>377</v>
       </c>
     </row>
@@ -6676,57 +6500,57 @@
       <c r="A137" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="B137" s="20"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="28"/>
-      <c r="E137" s="20"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="26"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="45"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="43"/>
       <c r="H137" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="I137" s="20"/>
-      <c r="J137" s="20"/>
+      <c r="I137" s="24"/>
+      <c r="J137" s="24"/>
       <c r="K137" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="L137" s="20"/>
+      <c r="L137" s="24"/>
     </row>
     <row r="138" spans="1:12" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="B138" s="19" t="s">
+      <c r="B138" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="C138" s="19" t="s">
+      <c r="C138" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="D138" s="27">
+      <c r="D138" s="44">
         <v>6</v>
       </c>
-      <c r="E138" s="19">
+      <c r="E138" s="23">
         <v>6</v>
       </c>
-      <c r="F138" s="19" t="s">
+      <c r="F138" s="23" t="s">
         <v>4</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="H138" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I138" s="19" t="s">
+      <c r="H138" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I138" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="J138" s="19" t="s">
+      <c r="J138" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K138" s="27">
+      <c r="K138" s="44">
         <v>20</v>
       </c>
-      <c r="L138" s="19" t="s">
+      <c r="L138" s="23" t="s">
         <v>385</v>
       </c>
     </row>
@@ -6734,55 +6558,55 @@
       <c r="A139" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B139" s="20"/>
-      <c r="C139" s="20"/>
-      <c r="D139" s="28"/>
-      <c r="E139" s="20"/>
-      <c r="F139" s="20"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="45"/>
+      <c r="E139" s="24"/>
+      <c r="F139" s="24"/>
       <c r="G139" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="H139" s="20"/>
-      <c r="I139" s="20"/>
-      <c r="J139" s="20"/>
-      <c r="K139" s="28"/>
-      <c r="L139" s="20"/>
+      <c r="H139" s="24"/>
+      <c r="I139" s="24"/>
+      <c r="J139" s="24"/>
+      <c r="K139" s="45"/>
+      <c r="L139" s="24"/>
     </row>
     <row r="140" spans="1:12" ht="318" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="B140" s="19" t="s">
+      <c r="B140" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="C140" s="19" t="s">
+      <c r="C140" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="D140" s="27">
+      <c r="D140" s="44">
         <v>17</v>
       </c>
-      <c r="E140" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F140" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G140" s="19" t="s">
+      <c r="E140" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F140" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G140" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="H140" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I140" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J140" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K140" s="19" t="s">
+      <c r="H140" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I140" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J140" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K140" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="L140" s="19" t="s">
+      <c r="L140" s="23" t="s">
         <v>392</v>
       </c>
     </row>
@@ -6790,53 +6614,53 @@
       <c r="A141" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="B141" s="20"/>
-      <c r="C141" s="20"/>
-      <c r="D141" s="28"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="20"/>
-      <c r="G141" s="20"/>
-      <c r="H141" s="20"/>
-      <c r="I141" s="20"/>
-      <c r="J141" s="20"/>
-      <c r="K141" s="20"/>
-      <c r="L141" s="20"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="45"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="24"/>
+      <c r="H141" s="24"/>
+      <c r="I141" s="24"/>
+      <c r="J141" s="24"/>
+      <c r="K141" s="24"/>
+      <c r="L141" s="24"/>
     </row>
     <row r="142" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B142" s="19" t="s">
+      <c r="B142" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="C142" s="19" t="s">
+      <c r="C142" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="D142" s="19">
+      <c r="D142" s="23">
         <v>26</v>
       </c>
-      <c r="E142" s="19">
+      <c r="E142" s="23">
         <v>26</v>
       </c>
-      <c r="F142" s="19" t="s">
+      <c r="F142" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G142" s="25">
+      <c r="G142" s="42">
         <v>839666</v>
       </c>
-      <c r="H142" s="25">
+      <c r="H142" s="42">
         <v>839666</v>
       </c>
-      <c r="I142" s="19" t="s">
+      <c r="I142" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="J142" s="19" t="s">
+      <c r="J142" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K142" s="27">
+      <c r="K142" s="44">
         <v>1300</v>
       </c>
-      <c r="L142" s="19" t="s">
+      <c r="L142" s="23" t="s">
         <v>398</v>
       </c>
     </row>
@@ -6844,53 +6668,53 @@
       <c r="A143" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="B143" s="20"/>
-      <c r="C143" s="20"/>
-      <c r="D143" s="20"/>
-      <c r="E143" s="20"/>
-      <c r="F143" s="20"/>
-      <c r="G143" s="26"/>
-      <c r="H143" s="26"/>
-      <c r="I143" s="20"/>
-      <c r="J143" s="20"/>
-      <c r="K143" s="28"/>
-      <c r="L143" s="20"/>
+      <c r="B143" s="24"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="43"/>
+      <c r="H143" s="43"/>
+      <c r="I143" s="24"/>
+      <c r="J143" s="24"/>
+      <c r="K143" s="45"/>
+      <c r="L143" s="24"/>
     </row>
     <row r="144" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A144" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="B144" s="19" t="s">
+      <c r="B144" s="23" t="s">
         <v>401</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D144" s="19">
+      <c r="D144" s="23">
         <v>6</v>
       </c>
-      <c r="E144" s="19">
+      <c r="E144" s="23">
         <v>6</v>
       </c>
-      <c r="F144" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G144" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H144" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I144" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J144" s="19" t="s">
+      <c r="F144" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G144" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H144" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I144" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J144" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K144" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L144" s="19" t="s">
+      <c r="K144" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L144" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6898,99 +6722,99 @@
       <c r="A145" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="B145" s="21"/>
+      <c r="B145" s="30"/>
       <c r="C145" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D145" s="21"/>
-      <c r="E145" s="21"/>
-      <c r="F145" s="21"/>
-      <c r="G145" s="21"/>
-      <c r="H145" s="21"/>
-      <c r="I145" s="21"/>
-      <c r="J145" s="21"/>
-      <c r="K145" s="21"/>
-      <c r="L145" s="21"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="30"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="30"/>
+      <c r="I145" s="30"/>
+      <c r="J145" s="30"/>
+      <c r="K145" s="30"/>
+      <c r="L145" s="30"/>
     </row>
     <row r="146" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
-      <c r="B146" s="21"/>
+      <c r="B146" s="30"/>
       <c r="C146" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D146" s="21"/>
-      <c r="E146" s="21"/>
-      <c r="F146" s="21"/>
-      <c r="G146" s="21"/>
-      <c r="H146" s="21"/>
-      <c r="I146" s="21"/>
-      <c r="J146" s="21"/>
-      <c r="K146" s="21"/>
-      <c r="L146" s="21"/>
+      <c r="D146" s="30"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="30"/>
+      <c r="G146" s="30"/>
+      <c r="H146" s="30"/>
+      <c r="I146" s="30"/>
+      <c r="J146" s="30"/>
+      <c r="K146" s="30"/>
+      <c r="L146" s="30"/>
     </row>
     <row r="147" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
-      <c r="B147" s="21"/>
+      <c r="B147" s="30"/>
       <c r="C147" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D147" s="21"/>
-      <c r="E147" s="21"/>
-      <c r="F147" s="21"/>
-      <c r="G147" s="21"/>
-      <c r="H147" s="21"/>
-      <c r="I147" s="21"/>
-      <c r="J147" s="21"/>
-      <c r="K147" s="21"/>
-      <c r="L147" s="21"/>
+      <c r="D147" s="30"/>
+      <c r="E147" s="30"/>
+      <c r="F147" s="30"/>
+      <c r="G147" s="30"/>
+      <c r="H147" s="30"/>
+      <c r="I147" s="30"/>
+      <c r="J147" s="30"/>
+      <c r="K147" s="30"/>
+      <c r="L147" s="30"/>
     </row>
     <row r="148" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
-      <c r="B148" s="21"/>
+      <c r="B148" s="30"/>
       <c r="C148" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D148" s="21"/>
-      <c r="E148" s="21"/>
-      <c r="F148" s="21"/>
-      <c r="G148" s="21"/>
-      <c r="H148" s="21"/>
-      <c r="I148" s="21"/>
-      <c r="J148" s="21"/>
-      <c r="K148" s="21"/>
-      <c r="L148" s="21"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="30"/>
+      <c r="F148" s="30"/>
+      <c r="G148" s="30"/>
+      <c r="H148" s="30"/>
+      <c r="I148" s="30"/>
+      <c r="J148" s="30"/>
+      <c r="K148" s="30"/>
+      <c r="L148" s="30"/>
     </row>
     <row r="149" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
-      <c r="B149" s="21"/>
+      <c r="B149" s="30"/>
       <c r="C149" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D149" s="21"/>
-      <c r="E149" s="21"/>
-      <c r="F149" s="21"/>
-      <c r="G149" s="21"/>
-      <c r="H149" s="21"/>
-      <c r="I149" s="21"/>
-      <c r="J149" s="21"/>
-      <c r="K149" s="21"/>
-      <c r="L149" s="21"/>
+      <c r="D149" s="30"/>
+      <c r="E149" s="30"/>
+      <c r="F149" s="30"/>
+      <c r="G149" s="30"/>
+      <c r="H149" s="30"/>
+      <c r="I149" s="30"/>
+      <c r="J149" s="30"/>
+      <c r="K149" s="30"/>
+      <c r="L149" s="30"/>
     </row>
     <row r="150" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
-      <c r="B150" s="20"/>
+      <c r="B150" s="24"/>
       <c r="C150" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="D150" s="20"/>
-      <c r="E150" s="20"/>
-      <c r="F150" s="20"/>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20"/>
-      <c r="I150" s="20"/>
-      <c r="J150" s="20"/>
-      <c r="K150" s="20"/>
-      <c r="L150" s="20"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="24"/>
+      <c r="G150" s="24"/>
+      <c r="H150" s="24"/>
+      <c r="I150" s="24"/>
+      <c r="J150" s="24"/>
+      <c r="K150" s="24"/>
+      <c r="L150" s="24"/>
     </row>
     <row r="151" spans="1:12" ht="306.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="s">
@@ -7031,58 +6855,58 @@
       </c>
     </row>
     <row r="152" spans="1:12" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="22" t="s">
+      <c r="A152" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="B152" s="19" t="s">
+      <c r="B152" s="23" t="s">
         <v>415</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D152" s="19">
+      <c r="D152" s="23">
         <v>10</v>
       </c>
-      <c r="E152" s="19">
+      <c r="E152" s="23">
         <v>10</v>
       </c>
-      <c r="F152" s="19" t="s">
+      <c r="F152" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G152" s="19" t="s">
+      <c r="G152" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="H152" s="19" t="s">
+      <c r="H152" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="I152" s="19" t="s">
+      <c r="I152" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="J152" s="19" t="s">
+      <c r="J152" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K152" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L152" s="19" t="s">
+      <c r="K152" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L152" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="24"/>
-      <c r="B153" s="20"/>
+      <c r="A153" s="29"/>
+      <c r="B153" s="24"/>
       <c r="C153" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="20"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20"/>
-      <c r="I153" s="20"/>
-      <c r="J153" s="20"/>
-      <c r="K153" s="20"/>
-      <c r="L153" s="20"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="24"/>
+      <c r="G153" s="24"/>
+      <c r="H153" s="24"/>
+      <c r="I153" s="24"/>
+      <c r="J153" s="24"/>
+      <c r="K153" s="24"/>
+      <c r="L153" s="24"/>
     </row>
     <row r="154" spans="1:12" ht="408.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="s">
@@ -7123,170 +6947,170 @@
       </c>
     </row>
     <row r="155" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="22" t="s">
+      <c r="A155" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="B155" s="19" t="s">
+      <c r="B155" s="23" t="s">
         <v>425</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K155" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L155" s="19" t="s">
+      <c r="D155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L155" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A156" s="23"/>
-      <c r="B156" s="21"/>
+      <c r="A156" s="28"/>
+      <c r="B156" s="30"/>
       <c r="C156" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D156" s="21"/>
-      <c r="E156" s="21"/>
-      <c r="F156" s="21"/>
-      <c r="G156" s="21"/>
-      <c r="H156" s="21"/>
-      <c r="I156" s="21"/>
-      <c r="J156" s="21"/>
-      <c r="K156" s="21"/>
-      <c r="L156" s="21"/>
+      <c r="D156" s="30"/>
+      <c r="E156" s="30"/>
+      <c r="F156" s="30"/>
+      <c r="G156" s="30"/>
+      <c r="H156" s="30"/>
+      <c r="I156" s="30"/>
+      <c r="J156" s="30"/>
+      <c r="K156" s="30"/>
+      <c r="L156" s="30"/>
     </row>
     <row r="157" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="23"/>
-      <c r="B157" s="21"/>
+      <c r="A157" s="28"/>
+      <c r="B157" s="30"/>
       <c r="C157" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D157" s="21"/>
-      <c r="E157" s="21"/>
-      <c r="F157" s="21"/>
-      <c r="G157" s="21"/>
-      <c r="H157" s="21"/>
-      <c r="I157" s="21"/>
-      <c r="J157" s="21"/>
-      <c r="K157" s="21"/>
-      <c r="L157" s="21"/>
+      <c r="D157" s="30"/>
+      <c r="E157" s="30"/>
+      <c r="F157" s="30"/>
+      <c r="G157" s="30"/>
+      <c r="H157" s="30"/>
+      <c r="I157" s="30"/>
+      <c r="J157" s="30"/>
+      <c r="K157" s="30"/>
+      <c r="L157" s="30"/>
     </row>
     <row r="158" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A158" s="23"/>
-      <c r="B158" s="21"/>
+      <c r="A158" s="28"/>
+      <c r="B158" s="30"/>
       <c r="C158" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D158" s="21"/>
-      <c r="E158" s="21"/>
-      <c r="F158" s="21"/>
-      <c r="G158" s="21"/>
-      <c r="H158" s="21"/>
-      <c r="I158" s="21"/>
-      <c r="J158" s="21"/>
-      <c r="K158" s="21"/>
-      <c r="L158" s="21"/>
+      <c r="D158" s="30"/>
+      <c r="E158" s="30"/>
+      <c r="F158" s="30"/>
+      <c r="G158" s="30"/>
+      <c r="H158" s="30"/>
+      <c r="I158" s="30"/>
+      <c r="J158" s="30"/>
+      <c r="K158" s="30"/>
+      <c r="L158" s="30"/>
     </row>
     <row r="159" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="23"/>
-      <c r="B159" s="21"/>
+      <c r="A159" s="28"/>
+      <c r="B159" s="30"/>
       <c r="C159" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D159" s="21"/>
-      <c r="E159" s="21"/>
-      <c r="F159" s="21"/>
-      <c r="G159" s="21"/>
-      <c r="H159" s="21"/>
-      <c r="I159" s="21"/>
-      <c r="J159" s="21"/>
-      <c r="K159" s="21"/>
-      <c r="L159" s="21"/>
+      <c r="D159" s="30"/>
+      <c r="E159" s="30"/>
+      <c r="F159" s="30"/>
+      <c r="G159" s="30"/>
+      <c r="H159" s="30"/>
+      <c r="I159" s="30"/>
+      <c r="J159" s="30"/>
+      <c r="K159" s="30"/>
+      <c r="L159" s="30"/>
     </row>
     <row r="160" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A160" s="23"/>
-      <c r="B160" s="21"/>
+      <c r="A160" s="28"/>
+      <c r="B160" s="30"/>
       <c r="C160" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D160" s="21"/>
-      <c r="E160" s="21"/>
-      <c r="F160" s="21"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="21"/>
-      <c r="I160" s="21"/>
-      <c r="J160" s="21"/>
-      <c r="K160" s="21"/>
-      <c r="L160" s="21"/>
+      <c r="D160" s="30"/>
+      <c r="E160" s="30"/>
+      <c r="F160" s="30"/>
+      <c r="G160" s="30"/>
+      <c r="H160" s="30"/>
+      <c r="I160" s="30"/>
+      <c r="J160" s="30"/>
+      <c r="K160" s="30"/>
+      <c r="L160" s="30"/>
     </row>
     <row r="161" spans="1:12" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="23"/>
-      <c r="B161" s="21"/>
+      <c r="A161" s="28"/>
+      <c r="B161" s="30"/>
       <c r="C161" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D161" s="21"/>
-      <c r="E161" s="21"/>
-      <c r="F161" s="21"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="21"/>
-      <c r="I161" s="21"/>
-      <c r="J161" s="21"/>
-      <c r="K161" s="21"/>
-      <c r="L161" s="21"/>
+      <c r="D161" s="30"/>
+      <c r="E161" s="30"/>
+      <c r="F161" s="30"/>
+      <c r="G161" s="30"/>
+      <c r="H161" s="30"/>
+      <c r="I161" s="30"/>
+      <c r="J161" s="30"/>
+      <c r="K161" s="30"/>
+      <c r="L161" s="30"/>
     </row>
     <row r="162" spans="1:12" ht="153" x14ac:dyDescent="0.2">
-      <c r="A162" s="23"/>
-      <c r="B162" s="21"/>
+      <c r="A162" s="28"/>
+      <c r="B162" s="30"/>
       <c r="C162" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D162" s="21"/>
-      <c r="E162" s="21"/>
-      <c r="F162" s="21"/>
-      <c r="G162" s="21"/>
-      <c r="H162" s="21"/>
-      <c r="I162" s="21"/>
-      <c r="J162" s="21"/>
-      <c r="K162" s="21"/>
-      <c r="L162" s="21"/>
+      <c r="D162" s="30"/>
+      <c r="E162" s="30"/>
+      <c r="F162" s="30"/>
+      <c r="G162" s="30"/>
+      <c r="H162" s="30"/>
+      <c r="I162" s="30"/>
+      <c r="J162" s="30"/>
+      <c r="K162" s="30"/>
+      <c r="L162" s="30"/>
     </row>
     <row r="163" spans="1:12" ht="90" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="24"/>
-      <c r="B163" s="20"/>
+      <c r="A163" s="29"/>
+      <c r="B163" s="24"/>
       <c r="C163" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D163" s="20"/>
-      <c r="E163" s="20"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
-      <c r="H163" s="20"/>
-      <c r="I163" s="20"/>
-      <c r="J163" s="20"/>
-      <c r="K163" s="20"/>
-      <c r="L163" s="20"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="24"/>
+      <c r="F163" s="24"/>
+      <c r="G163" s="24"/>
+      <c r="H163" s="24"/>
+      <c r="I163" s="24"/>
+      <c r="J163" s="24"/>
+      <c r="K163" s="24"/>
+      <c r="L163" s="24"/>
     </row>
     <row r="164" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
@@ -7366,15 +7190,462 @@
     </row>
   </sheetData>
   <mergeCells count="489">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L152:L153"/>
+    <mergeCell ref="H144:H150"/>
+    <mergeCell ref="I144:I150"/>
+    <mergeCell ref="J144:J150"/>
+    <mergeCell ref="K144:K150"/>
+    <mergeCell ref="L144:L150"/>
+    <mergeCell ref="H155:H163"/>
+    <mergeCell ref="I155:I163"/>
+    <mergeCell ref="J155:J163"/>
+    <mergeCell ref="K155:K163"/>
+    <mergeCell ref="L155:L163"/>
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="H152:H153"/>
+    <mergeCell ref="I152:I153"/>
+    <mergeCell ref="J152:J153"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="A155:A163"/>
+    <mergeCell ref="B155:B163"/>
+    <mergeCell ref="D155:D163"/>
+    <mergeCell ref="E155:E163"/>
+    <mergeCell ref="F155:F163"/>
+    <mergeCell ref="G155:G163"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="E144:E150"/>
+    <mergeCell ref="F144:F150"/>
+    <mergeCell ref="G144:G150"/>
+    <mergeCell ref="I140:I141"/>
+    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="K140:K141"/>
+    <mergeCell ref="L140:L141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="J142:J143"/>
+    <mergeCell ref="K142:K143"/>
+    <mergeCell ref="B144:B150"/>
+    <mergeCell ref="D144:D150"/>
+    <mergeCell ref="L138:L139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="K138:K139"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="L136:L137"/>
+    <mergeCell ref="H132:H133"/>
+    <mergeCell ref="I132:I133"/>
+    <mergeCell ref="J132:J133"/>
+    <mergeCell ref="K132:K133"/>
+    <mergeCell ref="L132:L133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="L134:L135"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="K122:K124"/>
+    <mergeCell ref="L122:L124"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="G122:G124"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="J130:J131"/>
+    <mergeCell ref="K130:K131"/>
+    <mergeCell ref="L130:L131"/>
+    <mergeCell ref="L120:L121"/>
+    <mergeCell ref="G113:G116"/>
+    <mergeCell ref="H113:H116"/>
+    <mergeCell ref="I113:I116"/>
+    <mergeCell ref="J113:J116"/>
+    <mergeCell ref="K113:K116"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="D122:D124"/>
+    <mergeCell ref="E122:E124"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="L125:L126"/>
+    <mergeCell ref="H122:H124"/>
+    <mergeCell ref="I122:I124"/>
+    <mergeCell ref="J122:J124"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="H107:H111"/>
+    <mergeCell ref="I107:I111"/>
+    <mergeCell ref="J107:J111"/>
+    <mergeCell ref="K107:K111"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="J120:J121"/>
+    <mergeCell ref="K120:K121"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="F103:F106"/>
+    <mergeCell ref="G103:G106"/>
+    <mergeCell ref="H103:H106"/>
+    <mergeCell ref="L107:L111"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="D113:D116"/>
+    <mergeCell ref="E113:E116"/>
+    <mergeCell ref="F113:F116"/>
+    <mergeCell ref="I103:I106"/>
+    <mergeCell ref="J103:J106"/>
+    <mergeCell ref="K103:K106"/>
+    <mergeCell ref="L103:L106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="E107:E111"/>
+    <mergeCell ref="F107:F111"/>
+    <mergeCell ref="G107:G111"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="K92:K94"/>
+    <mergeCell ref="L92:L94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="G95:G97"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="J95:J97"/>
+    <mergeCell ref="K95:K97"/>
+    <mergeCell ref="L95:L97"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="G89:G91"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="K89:K91"/>
+    <mergeCell ref="L89:L91"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="J86:J88"/>
+    <mergeCell ref="K86:K88"/>
+    <mergeCell ref="L86:L88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="H79:H83"/>
+    <mergeCell ref="I79:I83"/>
+    <mergeCell ref="J79:J83"/>
+    <mergeCell ref="K79:K83"/>
+    <mergeCell ref="L79:L83"/>
+    <mergeCell ref="H74:H78"/>
+    <mergeCell ref="I74:I78"/>
+    <mergeCell ref="J74:J78"/>
+    <mergeCell ref="K74:K78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="F79:F83"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="G74:G78"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="K58:K62"/>
+    <mergeCell ref="L58:L62"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="D63:D69"/>
+    <mergeCell ref="E63:E69"/>
+    <mergeCell ref="F63:F69"/>
+    <mergeCell ref="G63:G69"/>
+    <mergeCell ref="H63:H69"/>
+    <mergeCell ref="I63:I69"/>
+    <mergeCell ref="J63:J69"/>
+    <mergeCell ref="K63:K69"/>
+    <mergeCell ref="L63:L69"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="F58:F62"/>
+    <mergeCell ref="G58:G62"/>
+    <mergeCell ref="H58:H62"/>
+    <mergeCell ref="I58:I62"/>
+    <mergeCell ref="J58:J62"/>
+    <mergeCell ref="D46:D57"/>
+    <mergeCell ref="E46:E57"/>
+    <mergeCell ref="F46:F57"/>
+    <mergeCell ref="G46:G57"/>
+    <mergeCell ref="H46:H57"/>
+    <mergeCell ref="I46:I57"/>
+    <mergeCell ref="J46:J57"/>
+    <mergeCell ref="K46:K57"/>
+    <mergeCell ref="L46:L57"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="J40:J45"/>
+    <mergeCell ref="K40:K45"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -7399,462 +7670,15 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F7:F11"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="L46:L57"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="F40:F45"/>
-    <mergeCell ref="G40:G45"/>
-    <mergeCell ref="H40:H45"/>
-    <mergeCell ref="J40:J45"/>
-    <mergeCell ref="K40:K45"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="J58:J62"/>
-    <mergeCell ref="D46:D57"/>
-    <mergeCell ref="E46:E57"/>
-    <mergeCell ref="F46:F57"/>
-    <mergeCell ref="G46:G57"/>
-    <mergeCell ref="H46:H57"/>
-    <mergeCell ref="I46:I57"/>
-    <mergeCell ref="J46:J57"/>
-    <mergeCell ref="K46:K57"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="K58:K62"/>
-    <mergeCell ref="L58:L62"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="D63:D69"/>
-    <mergeCell ref="E63:E69"/>
-    <mergeCell ref="F63:F69"/>
-    <mergeCell ref="G63:G69"/>
-    <mergeCell ref="H63:H69"/>
-    <mergeCell ref="I63:I69"/>
-    <mergeCell ref="J63:J69"/>
-    <mergeCell ref="K63:K69"/>
-    <mergeCell ref="L63:L69"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="F58:F62"/>
-    <mergeCell ref="G58:G62"/>
-    <mergeCell ref="H58:H62"/>
-    <mergeCell ref="I58:I62"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H74:H78"/>
-    <mergeCell ref="I74:I78"/>
-    <mergeCell ref="J74:J78"/>
-    <mergeCell ref="K74:K78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="F79:F83"/>
-    <mergeCell ref="G79:G83"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="G74:G78"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="H79:H83"/>
-    <mergeCell ref="I79:I83"/>
-    <mergeCell ref="J79:J83"/>
-    <mergeCell ref="K79:K83"/>
-    <mergeCell ref="L79:L83"/>
-    <mergeCell ref="J89:J91"/>
-    <mergeCell ref="K89:K91"/>
-    <mergeCell ref="L89:L91"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="J86:J88"/>
-    <mergeCell ref="K86:K88"/>
-    <mergeCell ref="L86:L88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="G89:G91"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="I92:I94"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="K92:K94"/>
-    <mergeCell ref="L92:L94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="G95:G97"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="I95:I97"/>
-    <mergeCell ref="J95:J97"/>
-    <mergeCell ref="K95:K97"/>
-    <mergeCell ref="L95:L97"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="F103:F106"/>
-    <mergeCell ref="G103:G106"/>
-    <mergeCell ref="H103:H106"/>
-    <mergeCell ref="L107:L111"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="D113:D116"/>
-    <mergeCell ref="E113:E116"/>
-    <mergeCell ref="F113:F116"/>
-    <mergeCell ref="I103:I106"/>
-    <mergeCell ref="J103:J106"/>
-    <mergeCell ref="K103:K106"/>
-    <mergeCell ref="L103:L106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="D107:D111"/>
-    <mergeCell ref="E107:E111"/>
-    <mergeCell ref="F107:F111"/>
-    <mergeCell ref="G107:G111"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="H107:H111"/>
-    <mergeCell ref="I107:I111"/>
-    <mergeCell ref="J107:J111"/>
-    <mergeCell ref="K107:K111"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="J120:J121"/>
-    <mergeCell ref="K120:K121"/>
-    <mergeCell ref="L120:L121"/>
-    <mergeCell ref="G113:G116"/>
-    <mergeCell ref="H113:H116"/>
-    <mergeCell ref="I113:I116"/>
-    <mergeCell ref="J113:J116"/>
-    <mergeCell ref="K113:K116"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="D122:D124"/>
-    <mergeCell ref="E122:E124"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="J125:J126"/>
-    <mergeCell ref="L125:L126"/>
-    <mergeCell ref="H122:H124"/>
-    <mergeCell ref="I122:I124"/>
-    <mergeCell ref="J122:J124"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="K122:K124"/>
-    <mergeCell ref="L122:L124"/>
-    <mergeCell ref="F122:F124"/>
-    <mergeCell ref="G122:G124"/>
-    <mergeCell ref="H130:H131"/>
-    <mergeCell ref="I130:I131"/>
-    <mergeCell ref="J130:J131"/>
-    <mergeCell ref="K130:K131"/>
-    <mergeCell ref="L130:L131"/>
-    <mergeCell ref="H132:H133"/>
-    <mergeCell ref="I132:I133"/>
-    <mergeCell ref="J132:J133"/>
-    <mergeCell ref="K132:K133"/>
-    <mergeCell ref="L132:L133"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="L134:L135"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="I136:I137"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="L136:L137"/>
-    <mergeCell ref="L138:L139"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="K138:K139"/>
-    <mergeCell ref="E144:E150"/>
-    <mergeCell ref="F144:F150"/>
-    <mergeCell ref="G144:G150"/>
-    <mergeCell ref="I140:I141"/>
-    <mergeCell ref="J140:J141"/>
-    <mergeCell ref="K140:K141"/>
-    <mergeCell ref="L140:L141"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="J142:J143"/>
-    <mergeCell ref="K142:K143"/>
-    <mergeCell ref="B144:B150"/>
-    <mergeCell ref="D144:D150"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="H152:H153"/>
-    <mergeCell ref="I152:I153"/>
-    <mergeCell ref="J152:J153"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="A155:A163"/>
-    <mergeCell ref="B155:B163"/>
-    <mergeCell ref="D155:D163"/>
-    <mergeCell ref="E155:E163"/>
-    <mergeCell ref="F155:F163"/>
-    <mergeCell ref="G155:G163"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="L152:L153"/>
-    <mergeCell ref="H144:H150"/>
-    <mergeCell ref="I144:I150"/>
-    <mergeCell ref="J144:J150"/>
-    <mergeCell ref="K144:K150"/>
-    <mergeCell ref="L144:L150"/>
-    <mergeCell ref="H155:H163"/>
-    <mergeCell ref="I155:I163"/>
-    <mergeCell ref="J155:J163"/>
-    <mergeCell ref="K155:K163"/>
-    <mergeCell ref="L155:L163"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -10576,7 +10400,7 @@
         <v>442</v>
       </c>
       <c r="B1" t="s">
-        <v>775</v>
+        <v>443</v>
       </c>
       <c r="C1" t="s">
         <v>444</v>
@@ -10627,52 +10451,46 @@
         <v>459</v>
       </c>
       <c r="S1" t="s">
-        <v>776</v>
+        <v>460</v>
       </c>
       <c r="T1" t="s">
         <v>461</v>
       </c>
       <c r="U1" t="s">
+        <v>775</v>
+      </c>
+      <c r="V1" t="s">
+        <v>776</v>
+      </c>
+      <c r="W1" t="s">
         <v>777</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>778</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>779</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>780</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>781</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>782</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>783</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>784</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>785</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>786</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>787</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>788</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>789</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="2">
@@ -10732,36 +10550,18 @@
       <c r="T2" t="s">
         <v>743</v>
       </c>
-      <c r="U2" t="s">
-        <v>824</v>
-      </c>
-      <c r="V2" t="s">
-        <v>827</v>
-      </c>
+      <c r="U2"/>
+      <c r="V2"/>
       <c r="W2"/>
-      <c r="X2" t="s">
-        <v>847</v>
-      </c>
+      <c r="X2"/>
       <c r="Y2"/>
-      <c r="Z2" t="s">
-        <v>854</v>
-      </c>
+      <c r="Z2"/>
       <c r="AA2"/>
-      <c r="AB2" t="s">
-        <v>855</v>
-      </c>
+      <c r="AB2"/>
       <c r="AC2"/>
       <c r="AD2"/>
       <c r="AE2"/>
-      <c r="AF2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>869</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -10775,7 +10575,7 @@
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F3" t="n">
         <v>18.0</v>
@@ -10822,36 +10622,18 @@
       <c r="T3" t="s">
         <v>744</v>
       </c>
-      <c r="U3" t="s">
-        <v>824</v>
-      </c>
+      <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
-      <c r="X3" t="s">
-        <v>848</v>
-      </c>
+      <c r="X3"/>
       <c r="Y3"/>
-      <c r="Z3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>854</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>855</v>
-      </c>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
       <c r="AC3"/>
       <c r="AD3"/>
       <c r="AE3"/>
-      <c r="AF3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -10910,30 +10692,18 @@
       <c r="T4" t="s">
         <v>745</v>
       </c>
-      <c r="U4" t="s">
-        <v>825</v>
-      </c>
+      <c r="U4"/>
       <c r="V4"/>
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
-      <c r="AB4" t="s">
-        <v>855</v>
-      </c>
+      <c r="AB4"/>
       <c r="AC4"/>
       <c r="AD4"/>
       <c r="AE4"/>
-      <c r="AF4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>870</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -10990,38 +10760,18 @@
       <c r="T5" t="s">
         <v>174</v>
       </c>
-      <c r="U5" t="s">
-        <v>824</v>
-      </c>
-      <c r="V5" t="s">
-        <v>828</v>
-      </c>
+      <c r="U5"/>
+      <c r="V5"/>
       <c r="W5"/>
-      <c r="X5" t="s">
-        <v>849</v>
-      </c>
+      <c r="X5"/>
       <c r="Y5"/>
-      <c r="Z5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>855</v>
-      </c>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
-      <c r="AF5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>870</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -11035,7 +10785,7 @@
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F6" t="n">
         <v>7.0</v>
@@ -11082,40 +10832,18 @@
       <c r="T6" t="s">
         <v>746</v>
       </c>
-      <c r="U6" t="s">
-        <v>825</v>
-      </c>
-      <c r="V6" t="s">
-        <v>829</v>
-      </c>
-      <c r="W6" t="s">
-        <v>842</v>
-      </c>
-      <c r="X6" t="s">
-        <v>848</v>
-      </c>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
       <c r="Y6"/>
-      <c r="Z6" t="s">
-        <v>854</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>854</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>856</v>
-      </c>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
       <c r="AC6"/>
       <c r="AD6"/>
       <c r="AE6"/>
-      <c r="AF6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>879</v>
-      </c>
+      <c r="AF6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -11176,34 +10904,18 @@
       <c r="T7" t="s">
         <v>747</v>
       </c>
-      <c r="U7" t="s">
-        <v>825</v>
-      </c>
+      <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
-      <c r="X7" t="s">
-        <v>849</v>
-      </c>
+      <c r="X7"/>
       <c r="Y7"/>
-      <c r="Z7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>857</v>
-      </c>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
       <c r="AC7"/>
       <c r="AD7"/>
       <c r="AE7"/>
-      <c r="AF7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH7"/>
+      <c r="AF7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -11264,40 +10976,18 @@
       <c r="T8" t="s">
         <v>748</v>
       </c>
-      <c r="U8" t="s">
-        <v>825</v>
-      </c>
-      <c r="V8" t="s">
-        <v>830</v>
-      </c>
-      <c r="W8" t="s">
-        <v>843</v>
-      </c>
-      <c r="X8" t="s">
-        <v>848</v>
-      </c>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
       <c r="Y8"/>
-      <c r="Z8" t="s">
-        <v>854</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>854</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>855</v>
-      </c>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
       <c r="AC8"/>
       <c r="AD8"/>
       <c r="AE8"/>
-      <c r="AF8" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -11358,32 +11048,18 @@
       <c r="T9" t="s">
         <v>749</v>
       </c>
-      <c r="U9" t="s">
-        <v>824</v>
-      </c>
+      <c r="U9"/>
       <c r="V9"/>
       <c r="W9"/>
-      <c r="X9" t="s">
-        <v>848</v>
-      </c>
+      <c r="X9"/>
       <c r="Y9"/>
       <c r="Z9"/>
       <c r="AA9"/>
-      <c r="AB9" t="s">
-        <v>855</v>
-      </c>
+      <c r="AB9"/>
       <c r="AC9"/>
       <c r="AD9"/>
       <c r="AE9"/>
-      <c r="AF9" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>371</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -11438,32 +11114,18 @@
       <c r="T10" t="s">
         <v>330</v>
       </c>
-      <c r="U10" t="s">
-        <v>824</v>
-      </c>
-      <c r="V10" t="s">
-        <v>831</v>
-      </c>
+      <c r="U10"/>
+      <c r="V10"/>
       <c r="W10"/>
       <c r="X10"/>
       <c r="Y10"/>
       <c r="Z10"/>
       <c r="AA10"/>
-      <c r="AB10" t="s">
-        <v>855</v>
-      </c>
+      <c r="AB10"/>
       <c r="AC10"/>
       <c r="AD10"/>
       <c r="AE10"/>
-      <c r="AF10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>870</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -11524,34 +11186,18 @@
       <c r="T11" t="s">
         <v>751</v>
       </c>
-      <c r="U11" t="s">
-        <v>824</v>
-      </c>
+      <c r="U11"/>
       <c r="V11"/>
       <c r="W11"/>
-      <c r="X11" t="s">
-        <v>848</v>
-      </c>
+      <c r="X11"/>
       <c r="Y11"/>
-      <c r="Z11" t="s">
-        <v>854</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>854</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>857</v>
-      </c>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
       <c r="AC11"/>
       <c r="AD11"/>
       <c r="AE11"/>
-      <c r="AF11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>870</v>
-      </c>
-      <c r="AH11"/>
+      <c r="AF11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -11565,7 +11211,7 @@
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F12" t="n">
         <v>20.0</v>
@@ -11602,32 +11248,18 @@
       <c r="T12" t="s">
         <v>273</v>
       </c>
-      <c r="U12" t="s">
-        <v>824</v>
-      </c>
+      <c r="U12"/>
       <c r="V12"/>
       <c r="W12"/>
-      <c r="X12" t="s">
-        <v>849</v>
-      </c>
+      <c r="X12"/>
       <c r="Y12"/>
       <c r="Z12"/>
       <c r="AA12"/>
-      <c r="AB12" t="s">
-        <v>855</v>
-      </c>
+      <c r="AB12"/>
       <c r="AC12"/>
       <c r="AD12"/>
       <c r="AE12"/>
-      <c r="AF12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>870</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -11643,7 +11275,7 @@
         <v>549</v>
       </c>
       <c r="E13" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="F13" t="n">
         <v>32.0</v>
@@ -11678,36 +11310,18 @@
         <v>9</v>
       </c>
       <c r="T13"/>
-      <c r="U13" t="s">
-        <v>824</v>
-      </c>
+      <c r="U13"/>
       <c r="V13"/>
       <c r="W13"/>
-      <c r="X13" t="s">
-        <v>847</v>
-      </c>
+      <c r="X13"/>
       <c r="Y13"/>
-      <c r="Z13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>854</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>855</v>
-      </c>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
       <c r="AC13"/>
       <c r="AD13"/>
       <c r="AE13"/>
-      <c r="AF13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -11768,40 +11382,18 @@
       <c r="T14" t="s">
         <v>753</v>
       </c>
-      <c r="U14" t="s">
-        <v>824</v>
-      </c>
-      <c r="V14" t="s">
-        <v>830</v>
-      </c>
-      <c r="W14" t="s">
-        <v>844</v>
-      </c>
-      <c r="X14" t="s">
-        <v>848</v>
-      </c>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
       <c r="Y14"/>
-      <c r="Z14" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>854</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>855</v>
-      </c>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
       <c r="AC14"/>
       <c r="AD14"/>
       <c r="AE14"/>
-      <c r="AF14" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>869</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>879</v>
-      </c>
+      <c r="AF14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -11858,32 +11450,18 @@
       <c r="T15" t="s">
         <v>754</v>
       </c>
-      <c r="U15" t="s">
-        <v>824</v>
-      </c>
+      <c r="U15"/>
       <c r="V15"/>
       <c r="W15"/>
-      <c r="X15" t="s">
-        <v>849</v>
-      </c>
+      <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15"/>
       <c r="AA15"/>
-      <c r="AB15" t="s">
-        <v>855</v>
-      </c>
+      <c r="AB15"/>
       <c r="AC15"/>
       <c r="AD15"/>
       <c r="AE15"/>
-      <c r="AF15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>208</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -11940,34 +11518,18 @@
       <c r="T16" t="s">
         <v>755</v>
       </c>
-      <c r="U16" t="s">
-        <v>825</v>
-      </c>
+      <c r="U16"/>
       <c r="V16"/>
       <c r="W16"/>
-      <c r="X16" t="s">
-        <v>847</v>
-      </c>
+      <c r="X16"/>
       <c r="Y16"/>
-      <c r="Z16" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z16"/>
       <c r="AA16"/>
-      <c r="AB16" t="s">
-        <v>855</v>
-      </c>
+      <c r="AB16"/>
       <c r="AC16"/>
       <c r="AD16"/>
       <c r="AE16"/>
-      <c r="AF16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>371</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -11983,7 +11545,7 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F17" t="n">
         <v>6.0</v>
@@ -12008,7 +11570,7 @@
       </c>
       <c r="M17"/>
       <c r="N17" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="O17" t="s">
         <v>663</v>
@@ -12028,38 +11590,18 @@
       <c r="T17" t="s">
         <v>756</v>
       </c>
-      <c r="U17" t="s">
-        <v>824</v>
-      </c>
-      <c r="V17" t="s">
-        <v>832</v>
-      </c>
-      <c r="W17" t="s">
-        <v>845</v>
-      </c>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
       <c r="X17"/>
       <c r="Y17"/>
-      <c r="Z17" t="s">
-        <v>854</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>854</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>855</v>
-      </c>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
       <c r="AC17"/>
       <c r="AD17"/>
       <c r="AE17"/>
-      <c r="AF17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -12073,7 +11615,7 @@
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="F18" t="n">
         <v>4.0</v>
@@ -12118,30 +11660,18 @@
       <c r="T18" t="s">
         <v>174</v>
       </c>
-      <c r="U18" t="s">
-        <v>824</v>
-      </c>
+      <c r="U18"/>
       <c r="V18"/>
       <c r="W18"/>
       <c r="X18"/>
       <c r="Y18"/>
       <c r="Z18"/>
       <c r="AA18"/>
-      <c r="AB18" t="s">
-        <v>856</v>
-      </c>
+      <c r="AB18"/>
       <c r="AC18"/>
       <c r="AD18"/>
       <c r="AE18"/>
-      <c r="AF18" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>871</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -12155,7 +11685,7 @@
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F19" t="n">
         <v>7.0</v>
@@ -12202,34 +11732,18 @@
       <c r="T19" t="s">
         <v>757</v>
       </c>
-      <c r="U19" t="s">
-        <v>824</v>
-      </c>
+      <c r="U19"/>
       <c r="V19"/>
       <c r="W19"/>
-      <c r="X19" t="s">
-        <v>847</v>
-      </c>
+      <c r="X19"/>
       <c r="Y19"/>
-      <c r="Z19" t="s">
-        <v>854</v>
-      </c>
+      <c r="Z19"/>
       <c r="AA19"/>
-      <c r="AB19" t="s">
-        <v>855</v>
-      </c>
+      <c r="AB19"/>
       <c r="AC19"/>
       <c r="AD19"/>
       <c r="AE19"/>
-      <c r="AF19" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>350</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>879</v>
-      </c>
+      <c r="AF19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -12243,7 +11757,7 @@
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F20" t="n">
         <v>6.0</v>
@@ -12288,28 +11802,18 @@
       <c r="T20" t="s">
         <v>758</v>
       </c>
-      <c r="U20" t="s">
-        <v>824</v>
-      </c>
+      <c r="U20"/>
       <c r="V20"/>
       <c r="W20"/>
-      <c r="X20" t="s">
-        <v>848</v>
-      </c>
+      <c r="X20"/>
       <c r="Y20"/>
       <c r="Z20"/>
       <c r="AA20"/>
-      <c r="AB20" t="s">
-        <v>855</v>
-      </c>
+      <c r="AB20"/>
       <c r="AC20"/>
       <c r="AD20"/>
       <c r="AE20"/>
       <c r="AF20"/>
-      <c r="AG20" t="s">
-        <v>350</v>
-      </c>
-      <c r="AH20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -12346,7 +11850,7 @@
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="O21" t="s">
         <v>666</v>
@@ -12364,26 +11868,18 @@
       <c r="T21" t="s">
         <v>759</v>
       </c>
-      <c r="U21" t="s">
-        <v>824</v>
-      </c>
+      <c r="U21"/>
       <c r="V21"/>
       <c r="W21"/>
-      <c r="X21" t="s">
-        <v>848</v>
-      </c>
+      <c r="X21"/>
       <c r="Y21"/>
       <c r="Z21"/>
       <c r="AA21"/>
-      <c r="AB21" t="s">
-        <v>855</v>
-      </c>
+      <c r="AB21"/>
       <c r="AC21"/>
       <c r="AD21"/>
       <c r="AE21"/>
       <c r="AF21"/>
-      <c r="AG21"/>
-      <c r="AH21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -12397,7 +11893,7 @@
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F22" t="n">
         <v>10.0</v>
@@ -12442,30 +11938,18 @@
       <c r="T22" t="s">
         <v>760</v>
       </c>
-      <c r="U22" t="s">
-        <v>824</v>
-      </c>
-      <c r="V22" t="s">
-        <v>831</v>
-      </c>
+      <c r="U22"/>
+      <c r="V22"/>
       <c r="W22"/>
       <c r="X22"/>
       <c r="Y22"/>
       <c r="Z22"/>
       <c r="AA22"/>
-      <c r="AB22" t="s">
-        <v>855</v>
-      </c>
+      <c r="AB22"/>
       <c r="AC22"/>
       <c r="AD22"/>
       <c r="AE22"/>
-      <c r="AF22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG22"/>
-      <c r="AH22" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -12524,38 +12008,18 @@
       <c r="T23" t="s">
         <v>761</v>
       </c>
-      <c r="U23" t="s">
-        <v>824</v>
-      </c>
-      <c r="V23" t="s">
-        <v>833</v>
-      </c>
+      <c r="U23"/>
+      <c r="V23"/>
       <c r="W23"/>
-      <c r="X23" t="s">
-        <v>847</v>
-      </c>
+      <c r="X23"/>
       <c r="Y23"/>
-      <c r="Z23" t="s">
-        <v>854</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>855</v>
-      </c>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
       <c r="AC23"/>
       <c r="AD23"/>
       <c r="AE23"/>
-      <c r="AF23" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>869</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>879</v>
-      </c>
+      <c r="AF23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -12606,30 +12070,18 @@
       <c r="T24" t="s">
         <v>743</v>
       </c>
-      <c r="U24" t="s">
-        <v>824</v>
-      </c>
+      <c r="U24"/>
       <c r="V24"/>
       <c r="W24"/>
-      <c r="X24" t="s">
-        <v>850</v>
-      </c>
+      <c r="X24"/>
       <c r="Y24"/>
       <c r="Z24"/>
       <c r="AA24"/>
-      <c r="AB24" t="s">
-        <v>855</v>
-      </c>
+      <c r="AB24"/>
       <c r="AC24"/>
       <c r="AD24"/>
       <c r="AE24"/>
-      <c r="AF24" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>869</v>
-      </c>
-      <c r="AH24"/>
+      <c r="AF24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -12686,36 +12138,18 @@
       <c r="T25" t="s">
         <v>313</v>
       </c>
-      <c r="U25" t="s">
-        <v>824</v>
-      </c>
+      <c r="U25"/>
       <c r="V25"/>
       <c r="W25"/>
-      <c r="X25" t="s">
-        <v>851</v>
-      </c>
+      <c r="X25"/>
       <c r="Y25"/>
-      <c r="Z25" t="s">
-        <v>854</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>855</v>
-      </c>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
       <c r="AC25"/>
       <c r="AD25"/>
       <c r="AE25"/>
-      <c r="AF25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>371</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -12778,32 +12212,18 @@
       <c r="T26" t="s">
         <v>763</v>
       </c>
-      <c r="U26" t="s">
-        <v>824</v>
-      </c>
+      <c r="U26"/>
       <c r="V26"/>
       <c r="W26"/>
-      <c r="X26" t="s">
-        <v>848</v>
-      </c>
+      <c r="X26"/>
       <c r="Y26"/>
       <c r="Z26"/>
       <c r="AA26"/>
-      <c r="AB26" t="s">
-        <v>855</v>
-      </c>
+      <c r="AB26"/>
       <c r="AC26"/>
       <c r="AD26"/>
       <c r="AE26"/>
-      <c r="AF26" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>350</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -12844,7 +12264,7 @@
         <v>270.0</v>
       </c>
       <c r="N27" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="O27" t="s">
         <v>669</v>
@@ -12864,34 +12284,18 @@
       <c r="T27" t="s">
         <v>743</v>
       </c>
-      <c r="U27" t="s">
-        <v>824</v>
-      </c>
+      <c r="U27"/>
       <c r="V27"/>
       <c r="W27"/>
-      <c r="X27" t="s">
-        <v>847</v>
-      </c>
+      <c r="X27"/>
       <c r="Y27"/>
-      <c r="Z27" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z27"/>
       <c r="AA27"/>
-      <c r="AB27" t="s">
-        <v>855</v>
-      </c>
+      <c r="AB27"/>
       <c r="AC27"/>
       <c r="AD27"/>
       <c r="AE27"/>
-      <c r="AF27" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>371</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -12905,7 +12309,7 @@
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="F28" t="n">
         <v>10.0</v>
@@ -12950,38 +12354,18 @@
       <c r="T28" t="s">
         <v>78</v>
       </c>
-      <c r="U28" t="s">
-        <v>824</v>
-      </c>
-      <c r="V28" t="s">
-        <v>834</v>
-      </c>
-      <c r="W28" t="s">
-        <v>842</v>
-      </c>
-      <c r="X28" t="s">
-        <v>850</v>
-      </c>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
       <c r="Y28"/>
-      <c r="Z28" t="s">
-        <v>854</v>
-      </c>
+      <c r="Z28"/>
       <c r="AA28"/>
-      <c r="AB28" t="s">
-        <v>855</v>
-      </c>
+      <c r="AB28"/>
       <c r="AC28"/>
       <c r="AD28"/>
       <c r="AE28"/>
-      <c r="AF28" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>870</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -13036,36 +12420,18 @@
       <c r="T29" t="s">
         <v>764</v>
       </c>
-      <c r="U29" t="s">
-        <v>825</v>
-      </c>
+      <c r="U29"/>
       <c r="V29"/>
       <c r="W29"/>
-      <c r="X29" t="s">
-        <v>852</v>
-      </c>
+      <c r="X29"/>
       <c r="Y29"/>
-      <c r="Z29" t="s">
-        <v>854</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>854</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>855</v>
-      </c>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
       <c r="AC29"/>
       <c r="AD29"/>
       <c r="AE29"/>
-      <c r="AF29" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -13081,7 +12447,7 @@
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
@@ -13110,38 +12476,18 @@
         <v>724</v>
       </c>
       <c r="T30"/>
-      <c r="U30" t="s">
-        <v>824</v>
-      </c>
-      <c r="V30" t="s">
-        <v>835</v>
-      </c>
-      <c r="W30" t="s">
-        <v>846</v>
-      </c>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
       <c r="X30"/>
       <c r="Y30"/>
-      <c r="Z30" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>855</v>
-      </c>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
       <c r="AC30"/>
       <c r="AD30"/>
       <c r="AE30"/>
-      <c r="AF30" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>872</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -13180,7 +12526,7 @@
       </c>
       <c r="M31"/>
       <c r="N31" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="O31" t="s">
         <v>664</v>
@@ -13200,36 +12546,18 @@
       <c r="T31" t="s">
         <v>765</v>
       </c>
-      <c r="U31" t="s">
-        <v>824</v>
-      </c>
+      <c r="U31"/>
       <c r="V31"/>
       <c r="W31"/>
-      <c r="X31" t="s">
-        <v>848</v>
-      </c>
+      <c r="X31"/>
       <c r="Y31"/>
-      <c r="Z31" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>854</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>855</v>
-      </c>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
       <c r="AC31"/>
       <c r="AD31"/>
       <c r="AE31"/>
-      <c r="AF31" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -13290,36 +12618,18 @@
       <c r="T32" t="s">
         <v>745</v>
       </c>
-      <c r="U32" t="s">
-        <v>825</v>
-      </c>
-      <c r="V32" t="s">
-        <v>836</v>
-      </c>
+      <c r="U32"/>
+      <c r="V32"/>
       <c r="W32"/>
-      <c r="X32" t="s">
-        <v>848</v>
-      </c>
+      <c r="X32"/>
       <c r="Y32"/>
-      <c r="Z32" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>855</v>
-      </c>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
       <c r="AC32"/>
       <c r="AD32"/>
       <c r="AE32"/>
       <c r="AF32"/>
-      <c r="AG32" t="s">
-        <v>873</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>878</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -13380,34 +12690,18 @@
       <c r="T33" t="s">
         <v>766</v>
       </c>
-      <c r="U33" t="s">
-        <v>825</v>
-      </c>
+      <c r="U33"/>
       <c r="V33"/>
       <c r="W33"/>
-      <c r="X33" t="s">
-        <v>848</v>
-      </c>
+      <c r="X33"/>
       <c r="Y33"/>
-      <c r="Z33" t="s">
-        <v>854</v>
-      </c>
+      <c r="Z33"/>
       <c r="AA33"/>
-      <c r="AB33" t="s">
-        <v>855</v>
-      </c>
+      <c r="AB33"/>
       <c r="AC33"/>
       <c r="AD33"/>
       <c r="AE33"/>
-      <c r="AF33" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>344</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>879</v>
-      </c>
+      <c r="AF33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -13452,40 +12746,18 @@
         <v>728</v>
       </c>
       <c r="T34"/>
-      <c r="U34" t="s">
-        <v>824</v>
-      </c>
-      <c r="V34" t="s">
-        <v>837</v>
-      </c>
+      <c r="U34"/>
+      <c r="V34"/>
       <c r="W34"/>
-      <c r="X34" t="s">
-        <v>848</v>
-      </c>
+      <c r="X34"/>
       <c r="Y34"/>
-      <c r="Z34" t="s">
-        <v>854</v>
-      </c>
+      <c r="Z34"/>
       <c r="AA34"/>
-      <c r="AB34" t="s">
-        <v>857</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>529</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>483</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>874</v>
-      </c>
-      <c r="AH34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -13528,30 +12800,18 @@
         <v>47</v>
       </c>
       <c r="T35"/>
-      <c r="U35" t="s">
-        <v>825</v>
-      </c>
+      <c r="U35"/>
       <c r="V35"/>
       <c r="W35"/>
       <c r="X35"/>
       <c r="Y35"/>
       <c r="Z35"/>
       <c r="AA35"/>
-      <c r="AB35" t="s">
-        <v>857</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>858</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>2</v>
-      </c>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
       <c r="AF35"/>
-      <c r="AG35"/>
-      <c r="AH35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -13598,42 +12858,18 @@
       <c r="T36" t="s">
         <v>97</v>
       </c>
-      <c r="U36" t="s">
-        <v>825</v>
-      </c>
-      <c r="V36" t="s">
-        <v>837</v>
-      </c>
+      <c r="U36"/>
+      <c r="V36"/>
       <c r="W36"/>
-      <c r="X36" t="s">
-        <v>847</v>
-      </c>
+      <c r="X36"/>
       <c r="Y36"/>
-      <c r="Z36" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>855</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>531</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG36"/>
-      <c r="AH36" t="s">
-        <v>878</v>
-      </c>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -13677,29 +12913,23 @@
       </c>
       <c r="T37"/>
       <c r="U37" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="V37"/>
       <c r="W37"/>
       <c r="X37"/>
       <c r="Y37"/>
       <c r="Z37" t="s">
-        <v>854</v>
+        <v>821</v>
       </c>
       <c r="AA37"/>
       <c r="AB37"/>
-      <c r="AC37" t="s">
-        <v>106</v>
-      </c>
+      <c r="AC37"/>
       <c r="AD37" t="s">
-        <v>484</v>
+        <v>4</v>
       </c>
       <c r="AE37"/>
-      <c r="AF37" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG37"/>
-      <c r="AH37"/>
+      <c r="AF37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -13709,11 +12939,11 @@
         <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="F38" t="n">
         <v>4.0</v>
@@ -13739,41 +12969,21 @@
         <v>691</v>
       </c>
       <c r="S38" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="T38"/>
-      <c r="U38" t="s">
-        <v>824</v>
-      </c>
-      <c r="V38" t="s">
-        <v>838</v>
-      </c>
+      <c r="U38"/>
+      <c r="V38"/>
       <c r="W38"/>
-      <c r="X38" t="s">
-        <v>849</v>
-      </c>
+      <c r="X38"/>
       <c r="Y38"/>
-      <c r="Z38" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z38"/>
       <c r="AA38"/>
-      <c r="AB38" t="s">
-        <v>855</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>791</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>2</v>
-      </c>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
       <c r="AF38"/>
-      <c r="AG38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -13826,40 +13036,18 @@
       <c r="T39" t="s">
         <v>768</v>
       </c>
-      <c r="U39" t="s">
-        <v>824</v>
-      </c>
-      <c r="V39" t="s">
-        <v>839</v>
-      </c>
+      <c r="U39"/>
+      <c r="V39"/>
       <c r="W39"/>
-      <c r="X39" t="s">
-        <v>848</v>
-      </c>
+      <c r="X39"/>
       <c r="Y39"/>
-      <c r="Z39" t="s">
-        <v>854</v>
-      </c>
+      <c r="Z39"/>
       <c r="AA39"/>
-      <c r="AB39" t="s">
-        <v>855</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>866</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>869</v>
-      </c>
-      <c r="AH39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -13869,7 +13057,7 @@
         <v>486</v>
       </c>
       <c r="C40" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
@@ -13894,7 +13082,7 @@
         <v>323.0</v>
       </c>
       <c r="N40" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="O40"/>
       <c r="P40" t="s">
@@ -13905,43 +13093,23 @@
         <v>693</v>
       </c>
       <c r="S40" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="T40" t="s">
         <v>264</v>
       </c>
-      <c r="U40" t="s">
-        <v>824</v>
-      </c>
+      <c r="U40"/>
       <c r="V40"/>
       <c r="W40"/>
-      <c r="X40" t="s">
-        <v>848</v>
-      </c>
+      <c r="X40"/>
       <c r="Y40"/>
       <c r="Z40"/>
       <c r="AA40"/>
-      <c r="AB40" t="s">
-        <v>855</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>792</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>486</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>875</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>878</v>
-      </c>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+      <c r="AE40"/>
+      <c r="AF40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -13951,11 +13119,11 @@
         <v>487</v>
       </c>
       <c r="C41" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F41" t="n">
         <v>84.0</v>
@@ -13981,39 +13149,21 @@
         <v>199</v>
       </c>
       <c r="S41" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="T41"/>
-      <c r="U41" t="s">
-        <v>825</v>
-      </c>
+      <c r="U41"/>
       <c r="V41"/>
       <c r="W41"/>
       <c r="X41"/>
       <c r="Y41"/>
       <c r="Z41"/>
       <c r="AA41"/>
-      <c r="AB41" t="s">
-        <v>857</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>859</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>487</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>869</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>879</v>
-      </c>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41"/>
+      <c r="AF41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -14023,7 +13173,7 @@
         <v>488</v>
       </c>
       <c r="C42" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
@@ -14049,37 +13199,21 @@
         <v>208</v>
       </c>
       <c r="S42" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="T42"/>
-      <c r="U42" t="s">
-        <v>825</v>
-      </c>
+      <c r="U42"/>
       <c r="V42"/>
       <c r="W42"/>
       <c r="X42"/>
       <c r="Y42"/>
       <c r="Z42"/>
       <c r="AA42"/>
-      <c r="AB42" t="s">
-        <v>856</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>794</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>488</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>4</v>
-      </c>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+      <c r="AE42"/>
       <c r="AF42"/>
-      <c r="AG42" t="s">
-        <v>208</v>
-      </c>
-      <c r="AH42" t="s">
-        <v>879</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -14120,32 +13254,18 @@
       <c r="T43" t="s">
         <v>219</v>
       </c>
-      <c r="U43" t="s">
-        <v>824</v>
-      </c>
+      <c r="U43"/>
       <c r="V43"/>
       <c r="W43"/>
       <c r="X43"/>
       <c r="Y43"/>
       <c r="Z43"/>
       <c r="AA43"/>
-      <c r="AB43" t="s">
-        <v>856</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>214</v>
-      </c>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
       <c r="AE43"/>
-      <c r="AF43" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>869</v>
-      </c>
-      <c r="AH43"/>
+      <c r="AF43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -14155,7 +13275,7 @@
         <v>490</v>
       </c>
       <c r="C44" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D44" t="s">
         <v>230</v>
@@ -14181,43 +13301,23 @@
         <v>230</v>
       </c>
       <c r="S44" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="T44" t="s">
         <v>234</v>
       </c>
-      <c r="U44" t="s">
-        <v>824</v>
-      </c>
+      <c r="U44"/>
       <c r="V44"/>
       <c r="W44"/>
-      <c r="X44" t="s">
-        <v>848</v>
-      </c>
+      <c r="X44"/>
       <c r="Y44"/>
       <c r="Z44"/>
       <c r="AA44"/>
-      <c r="AB44" t="s">
-        <v>855</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>795</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>490</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>870</v>
-      </c>
-      <c r="AH44" t="s">
-        <v>878</v>
-      </c>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -14258,40 +13358,18 @@
       <c r="T45" t="s">
         <v>250</v>
       </c>
-      <c r="U45" t="s">
-        <v>826</v>
-      </c>
+      <c r="U45"/>
       <c r="V45"/>
       <c r="W45"/>
-      <c r="X45" t="s">
-        <v>847</v>
-      </c>
+      <c r="X45"/>
       <c r="Y45"/>
-      <c r="Z45" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z45"/>
       <c r="AA45"/>
-      <c r="AB45" t="s">
-        <v>856</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>491</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>867</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>694</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>878</v>
-      </c>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -14337,39 +13415,17 @@
         <v>256</v>
       </c>
       <c r="U46"/>
-      <c r="V46" t="s">
-        <v>840</v>
-      </c>
+      <c r="V46"/>
       <c r="W46"/>
-      <c r="X46" t="s">
-        <v>851</v>
-      </c>
+      <c r="X46"/>
       <c r="Y46"/>
-      <c r="Z46" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z46"/>
       <c r="AA46"/>
-      <c r="AB46" t="s">
-        <v>855</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>860</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>868</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>870</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>878</v>
-      </c>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -14422,38 +13478,18 @@
       <c r="T47" t="s">
         <v>264</v>
       </c>
-      <c r="U47" t="s">
-        <v>824</v>
-      </c>
+      <c r="U47"/>
       <c r="V47"/>
       <c r="W47"/>
-      <c r="X47" t="s">
-        <v>848</v>
-      </c>
+      <c r="X47"/>
       <c r="Y47"/>
-      <c r="Z47" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z47"/>
       <c r="AA47"/>
-      <c r="AB47" t="s">
-        <v>855</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>861</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>492</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>2</v>
-      </c>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
       <c r="AF47"/>
-      <c r="AG47" t="s">
-        <v>371</v>
-      </c>
-      <c r="AH47" t="s">
-        <v>879</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -14463,7 +13499,7 @@
         <v>493</v>
       </c>
       <c r="C48" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
@@ -14491,41 +13527,21 @@
         <v>14</v>
       </c>
       <c r="S48" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="T48"/>
-      <c r="U48" t="s">
-        <v>824</v>
-      </c>
+      <c r="U48"/>
       <c r="V48"/>
       <c r="W48"/>
-      <c r="X48" t="s">
-        <v>848</v>
-      </c>
+      <c r="X48"/>
       <c r="Y48"/>
-      <c r="Z48" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z48"/>
       <c r="AA48"/>
-      <c r="AB48" t="s">
-        <v>855</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>796</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>493</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF48" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG48"/>
-      <c r="AH48" t="s">
-        <v>878</v>
-      </c>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -14580,38 +13596,18 @@
       <c r="T49" t="s">
         <v>174</v>
       </c>
-      <c r="U49" t="s">
-        <v>824</v>
-      </c>
-      <c r="V49" t="s">
-        <v>831</v>
-      </c>
+      <c r="U49"/>
+      <c r="V49"/>
       <c r="W49"/>
       <c r="X49"/>
       <c r="Y49"/>
-      <c r="Z49" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z49"/>
       <c r="AA49"/>
-      <c r="AB49" t="s">
-        <v>857</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>862</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>280</v>
-      </c>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
       <c r="AE49"/>
-      <c r="AF49" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG49" t="s">
-        <v>208</v>
-      </c>
-      <c r="AH49" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -14652,36 +13648,18 @@
         <v>735</v>
       </c>
       <c r="T50"/>
-      <c r="U50" t="s">
-        <v>824</v>
-      </c>
-      <c r="V50" t="s">
-        <v>841</v>
-      </c>
+      <c r="U50"/>
+      <c r="V50"/>
       <c r="W50"/>
-      <c r="X50" t="s">
-        <v>847</v>
-      </c>
+      <c r="X50"/>
       <c r="Y50"/>
-      <c r="Z50" t="s">
-        <v>2</v>
-      </c>
+      <c r="Z50"/>
       <c r="AA50"/>
-      <c r="AB50" t="s">
-        <v>855</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>539</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>494</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>2</v>
-      </c>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
       <c r="AF50"/>
-      <c r="AG50"/>
-      <c r="AH50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -14718,36 +13696,18 @@
         <v>335</v>
       </c>
       <c r="T51"/>
-      <c r="U51" t="s">
-        <v>824</v>
-      </c>
+      <c r="U51"/>
       <c r="V51"/>
       <c r="W51"/>
       <c r="X51"/>
       <c r="Y51"/>
       <c r="Z51"/>
       <c r="AA51"/>
-      <c r="AB51" t="s">
-        <v>855</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>540</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>495</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG51" t="s">
-        <v>208</v>
-      </c>
-      <c r="AH51" t="s">
-        <v>878</v>
-      </c>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -14802,40 +13762,18 @@
       <c r="T52" t="s">
         <v>772</v>
       </c>
-      <c r="U52" t="s">
-        <v>824</v>
-      </c>
+      <c r="U52"/>
       <c r="V52"/>
       <c r="W52"/>
-      <c r="X52" t="s">
-        <v>848</v>
-      </c>
+      <c r="X52"/>
       <c r="Y52"/>
       <c r="Z52"/>
-      <c r="AA52" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>857</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>863</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>496</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF52" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>876</v>
-      </c>
-      <c r="AH52" t="s">
-        <v>878</v>
-      </c>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -14890,40 +13828,18 @@
       <c r="T53" t="s">
         <v>773</v>
       </c>
-      <c r="U53" t="s">
-        <v>825</v>
-      </c>
+      <c r="U53"/>
       <c r="V53"/>
       <c r="W53"/>
-      <c r="X53" t="s">
-        <v>848</v>
-      </c>
+      <c r="X53"/>
       <c r="Y53"/>
-      <c r="Z53" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z53"/>
       <c r="AA53"/>
-      <c r="AB53" t="s">
-        <v>855</v>
-      </c>
-      <c r="AC53" t="s">
-        <v>542</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>497</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF53" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG53" t="s">
-        <v>350</v>
-      </c>
-      <c r="AH53" t="s">
-        <v>878</v>
-      </c>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+      <c r="AE53"/>
+      <c r="AF53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -14933,7 +13849,7 @@
         <v>498</v>
       </c>
       <c r="C54" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
@@ -14961,39 +13877,21 @@
         <v>699</v>
       </c>
       <c r="S54" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="T54"/>
-      <c r="U54" t="s">
-        <v>824</v>
-      </c>
+      <c r="U54"/>
       <c r="V54"/>
       <c r="W54"/>
-      <c r="X54" t="s">
-        <v>848</v>
-      </c>
+      <c r="X54"/>
       <c r="Y54"/>
       <c r="Z54"/>
       <c r="AA54"/>
-      <c r="AB54" t="s">
-        <v>857</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>864</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>498</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>2</v>
-      </c>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54"/>
       <c r="AF54"/>
-      <c r="AG54" t="s">
-        <v>877</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>878</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -15040,36 +13938,18 @@
       <c r="T55" t="s">
         <v>774</v>
       </c>
-      <c r="U55" t="s">
-        <v>824</v>
-      </c>
+      <c r="U55"/>
       <c r="V55"/>
       <c r="W55"/>
-      <c r="X55" t="s">
-        <v>853</v>
-      </c>
+      <c r="X55"/>
       <c r="Y55"/>
       <c r="Z55"/>
       <c r="AA55"/>
-      <c r="AB55" t="s">
-        <v>855</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>865</v>
-      </c>
-      <c r="AD55" t="s">
-        <v>499</v>
-      </c>
-      <c r="AE55" t="s">
-        <v>4</v>
-      </c>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
       <c r="AF55"/>
-      <c r="AG55" t="s">
-        <v>869</v>
-      </c>
-      <c r="AH55" t="s">
-        <v>878</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -15119,15 +13999,7 @@
       <c r="AC56"/>
       <c r="AD56"/>
       <c r="AE56"/>
-      <c r="AF56" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>870</v>
-      </c>
-      <c r="AH56" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -15137,7 +14009,7 @@
         <v>501</v>
       </c>
       <c r="C57" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
@@ -15161,7 +14033,7 @@
         <v>701</v>
       </c>
       <c r="S57" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="T57"/>
       <c r="U57"/>
@@ -15175,15 +14047,7 @@
       <c r="AC57"/>
       <c r="AD57"/>
       <c r="AE57"/>
-      <c r="AF57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>876</v>
-      </c>
-      <c r="AH57" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -15227,15 +14091,7 @@
       <c r="AC58"/>
       <c r="AD58"/>
       <c r="AE58"/>
-      <c r="AF58" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG58" t="s">
-        <v>371</v>
-      </c>
-      <c r="AH58" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -15287,15 +14143,7 @@
       <c r="AC59"/>
       <c r="AD59"/>
       <c r="AE59"/>
-      <c r="AF59" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>208</v>
-      </c>
-      <c r="AH59" t="s">
-        <v>878</v>
-      </c>
+      <c r="AF59"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/dat/synchros-initiatives.xlsx
+++ b/dat/synchros-initiatives.xlsx
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
-    <sheet name="Table 1 updated" r:id="rId7" sheetId="6"/>
-    <sheet name="Table 1 complete" r:id="rId6" sheetId="7"/>
+    <sheet name="Table 1 updated" r:id="rId7" sheetId="12"/>
+    <sheet name="Table 1 complete" r:id="rId6" sheetId="13"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4829" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10539" uniqueCount="892">
   <si>
     <t>A consortium of agricultural cohort studies</t>
   </si>
@@ -2632,6 +2632,132 @@
   </si>
   <si>
     <t>Mix</t>
+  </si>
+  <si>
+    <t>AUS, CAN, CHL, CRI, DNK, FRA, NZL, NOR, KOR, ZAF, GBR, USA</t>
+  </si>
+  <si>
+    <t>CUB, MEX, DOM, PRI, CHN, PER, IND, VEN, AUT, AUS, GRC, ESP, FIN, POL, GBR, RUS, LTU, CZE, USA, JPN, GHA, NLD, KOR, ZAF, DNK, HUN, SWE, CHE, IRL, EST, BEL, ISR, SVN, HRV, LUX, PRT, FRA, DEU, ITA</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>CAN, DEU, ITA, IRL, GBR, FIN, NLD, NOR</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>GBR, FIN</t>
+  </si>
+  <si>
+    <t>NLD, ESP, GBR, DNK, SWE, BEL, NOR, FRA, FIN, GRC, DEU, CYP</t>
+  </si>
+  <si>
+    <t>DEU, ITA, NLD, ESP, GBR, SWE</t>
+  </si>
+  <si>
+    <t>CAN, NOR, FRA, DNK, EST, DEU, GRC, ITA, LTU, POL, RUS, IRL, PRT, BEL, ESP, SWE, NLD, GBR, FIN, AUS</t>
+  </si>
+  <si>
+    <t>DEU, GBR, FIN, EST, DNK, ITA, ESP, LTU, AUS, SWE, RUS, POL, FRA, NOR, CAN</t>
+  </si>
+  <si>
+    <t>USA, MEX, ISR, CRI, KOR, JPN, CHN, IND, GBR, AUT, BEL, HRV, CYP, CZE, DNK, EST, FIN, FRA, DEU, GRC, HUN, ITA, LVA, LTU, LUX, MLT, NLD, POL, PRT, ROU, SVK, SVN, ESP, SWE, CHE, IRL, IDN, GHA, RUS, ZAF, BRA, THA, MYS</t>
+  </si>
+  <si>
+    <t>DNK, FIN, ITA, NLD, NOR, GBR, AUS, SWE</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>FRA, GRC, LTU, NOR, ESP, GBR</t>
+  </si>
+  <si>
+    <t>CAN, CHN, IND, ZAF</t>
+  </si>
+  <si>
+    <t>USA, FIN, AUS</t>
+  </si>
+  <si>
+    <t>AUS, DNK, BRA, CHN, FRA, ITA, ISR, JPN, NOR, GBR, USA</t>
+  </si>
+  <si>
+    <t>SWE, GBR, FIN, FRA, DNK</t>
+  </si>
+  <si>
+    <t>SWE, DNK, FIN, USA, AUS</t>
+  </si>
+  <si>
+    <t>AUS, GBR, DNK, FRA, JPN, USA, LBN, ESP, SWE, MAR, CHN</t>
+  </si>
+  <si>
+    <t>GBR, IRL, PRT, FRA, CHE, ITA, FIN, USA, AUS</t>
+  </si>
+  <si>
+    <t>CAN, NLD, RUS, POL, NOR, DEU, USA, FRA, ITA</t>
+  </si>
+  <si>
+    <t>ARG, AUS, BEL, BRA, CAN, CHL, HRV, EGY, EST, DEU, GRC, HUN</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>KOR, VNM, KHM, JPN, CHN</t>
+  </si>
+  <si>
+    <t>CAN, CHN</t>
+  </si>
+  <si>
+    <t>BGD, JPN, TWN, KOR, CHN, IND, SGP, IRN, MNG, SGP, MYS, USA</t>
+  </si>
+  <si>
+    <t>GBR, NLD, DEU, FRA, DNK, GRC, FIN, NOR, SWE, USA</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>CHN, GHA, IND, MEX, RUS, ZAF, GBR, USA, AUT, BEL, DNK, FRA, DEU, GRC, ITA, CHE, NLD, ESP, SWE</t>
+  </si>
+  <si>
+    <t>BEL, CZE, DNK, FRO, FIN, FRA, DEU, GRC, IRL, ITA, LTU, NLD, NOR, POL, PRT, SVK, ESP, SWE, CHE, UKR, GBR</t>
+  </si>
+  <si>
+    <t>NOR, FIN, SWE, GBR, NLD, FRA, ESP, ITA</t>
+  </si>
+  <si>
+    <t>ESP, SWE, GBR, DNK, NOR, FRA, DEU, NLD, GRC, ITA</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>USA, SWE, FIN</t>
+  </si>
+  <si>
+    <t>ITA, NLD, GBR, SWE</t>
+  </si>
+  <si>
+    <t>CAN, FRA</t>
+  </si>
+  <si>
+    <t>FIN, DNK, NLD, DEU, ESP, BEL, ITA, POL</t>
   </si>
 </sst>
 </file>
@@ -7713,7 +7839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7826,13 +7952,13 @@
         <v>651</v>
       </c>
       <c r="P2" t="s">
-        <v>673</v>
+        <v>850</v>
       </c>
       <c r="Q2" t="n">
         <v>12.0</v>
       </c>
       <c r="R2" t="s">
-        <v>673</v>
+        <v>850</v>
       </c>
       <c r="S2" t="s">
         <v>703</v>
@@ -7886,13 +8012,13 @@
         <v>652</v>
       </c>
       <c r="P3" t="s">
-        <v>674</v>
+        <v>851</v>
       </c>
       <c r="Q3" t="n">
         <v>39.0</v>
       </c>
       <c r="R3" t="s">
-        <v>674</v>
+        <v>851</v>
       </c>
       <c r="S3" t="s">
         <v>704</v>
@@ -7944,13 +8070,13 @@
         <v>653</v>
       </c>
       <c r="P4" t="s">
-        <v>183</v>
+        <v>852</v>
       </c>
       <c r="Q4" t="n">
         <v>1.0</v>
       </c>
       <c r="R4" t="s">
-        <v>183</v>
+        <v>852</v>
       </c>
       <c r="S4" t="s">
         <v>5</v>
@@ -8000,13 +8126,13 @@
         <v>654</v>
       </c>
       <c r="P5" t="s">
-        <v>71</v>
+        <v>853</v>
       </c>
       <c r="Q5" t="n">
         <v>8.0</v>
       </c>
       <c r="R5" t="s">
-        <v>71</v>
+        <v>853</v>
       </c>
       <c r="S5" t="s">
         <v>705</v>
@@ -8060,13 +8186,13 @@
         <v>655</v>
       </c>
       <c r="P6" t="s">
-        <v>60</v>
+        <v>854</v>
       </c>
       <c r="Q6" t="n">
         <v>1.0</v>
       </c>
       <c r="R6" t="s">
-        <v>60</v>
+        <v>854</v>
       </c>
       <c r="S6" t="s">
         <v>706</v>
@@ -8120,13 +8246,13 @@
         <v>656</v>
       </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>855</v>
       </c>
       <c r="Q7" t="n">
         <v>1.0</v>
       </c>
       <c r="R7" t="s">
-        <v>88</v>
+        <v>855</v>
       </c>
       <c r="S7" t="s">
         <v>707</v>
@@ -8180,13 +8306,13 @@
         <v>657</v>
       </c>
       <c r="P8" t="s">
-        <v>304</v>
+        <v>856</v>
       </c>
       <c r="Q8" t="n">
         <v>1.0</v>
       </c>
       <c r="R8" t="s">
-        <v>304</v>
+        <v>856</v>
       </c>
       <c r="S8" t="s">
         <v>708</v>
@@ -8240,13 +8366,13 @@
         <v>658</v>
       </c>
       <c r="P9" t="s">
-        <v>675</v>
+        <v>857</v>
       </c>
       <c r="Q9" t="n">
         <v>2.0</v>
       </c>
       <c r="R9" t="s">
-        <v>675</v>
+        <v>857</v>
       </c>
       <c r="S9" t="s">
         <v>709</v>
@@ -8294,13 +8420,13 @@
       </c>
       <c r="O10"/>
       <c r="P10" t="s">
-        <v>676</v>
+        <v>858</v>
       </c>
       <c r="Q10" t="n">
         <v>12.0</v>
       </c>
       <c r="R10" t="s">
-        <v>676</v>
+        <v>858</v>
       </c>
       <c r="S10" t="s">
         <v>710</v>
@@ -8354,13 +8480,13 @@
         <v>659</v>
       </c>
       <c r="P11" t="s">
-        <v>677</v>
+        <v>859</v>
       </c>
       <c r="Q11" t="n">
         <v>6.0</v>
       </c>
       <c r="R11" t="s">
-        <v>677</v>
+        <v>859</v>
       </c>
       <c r="S11" t="s">
         <v>409</v>
@@ -8404,13 +8530,13 @@
       </c>
       <c r="O12"/>
       <c r="P12" t="s">
-        <v>678</v>
+        <v>860</v>
       </c>
       <c r="Q12" t="n">
         <v>20.0</v>
       </c>
       <c r="R12" t="s">
-        <v>678</v>
+        <v>860</v>
       </c>
       <c r="S12" t="s">
         <v>8</v>
@@ -8456,13 +8582,13 @@
         <v>660</v>
       </c>
       <c r="P13" t="s">
-        <v>679</v>
+        <v>861</v>
       </c>
       <c r="Q13" t="n">
         <v>15.0</v>
       </c>
       <c r="R13" t="s">
-        <v>679</v>
+        <v>861</v>
       </c>
       <c r="S13" t="s">
         <v>9</v>
@@ -8514,13 +8640,13 @@
         <v>661</v>
       </c>
       <c r="P14" t="s">
-        <v>680</v>
+        <v>862</v>
       </c>
       <c r="Q14" t="n">
         <v>43.0</v>
       </c>
       <c r="R14" t="s">
-        <v>680</v>
+        <v>862</v>
       </c>
       <c r="S14" t="s">
         <v>512</v>
@@ -8570,13 +8696,13 @@
         <v>662</v>
       </c>
       <c r="P15" t="s">
-        <v>681</v>
+        <v>863</v>
       </c>
       <c r="Q15" t="n">
         <v>8.0</v>
       </c>
       <c r="R15" t="s">
-        <v>681</v>
+        <v>863</v>
       </c>
       <c r="S15" t="s">
         <v>11</v>
@@ -8626,13 +8752,13 @@
         <v>661</v>
       </c>
       <c r="P16" t="s">
-        <v>95</v>
+        <v>864</v>
       </c>
       <c r="Q16" t="n">
         <v>1.0</v>
       </c>
       <c r="R16" t="s">
-        <v>95</v>
+        <v>864</v>
       </c>
       <c r="S16" t="s">
         <v>711</v>
@@ -8686,13 +8812,13 @@
         <v>663</v>
       </c>
       <c r="P17" t="s">
-        <v>682</v>
+        <v>865</v>
       </c>
       <c r="Q17" t="n">
         <v>6.0</v>
       </c>
       <c r="R17" t="s">
-        <v>682</v>
+        <v>865</v>
       </c>
       <c r="S17" t="s">
         <v>712</v>
@@ -8744,13 +8870,13 @@
         <v>664</v>
       </c>
       <c r="P18" t="s">
-        <v>166</v>
+        <v>866</v>
       </c>
       <c r="Q18" t="n">
         <v>4.0</v>
       </c>
       <c r="R18" t="s">
-        <v>166</v>
+        <v>866</v>
       </c>
       <c r="S18" t="s">
         <v>713</v>
@@ -8804,13 +8930,13 @@
         <v>660</v>
       </c>
       <c r="P19" t="s">
-        <v>683</v>
+        <v>867</v>
       </c>
       <c r="Q19" t="n">
         <v>3.0</v>
       </c>
       <c r="R19" t="s">
-        <v>683</v>
+        <v>867</v>
       </c>
       <c r="S19" t="s">
         <v>714</v>
@@ -8862,13 +8988,13 @@
         <v>665</v>
       </c>
       <c r="P20" t="s">
-        <v>684</v>
+        <v>868</v>
       </c>
       <c r="Q20" t="n">
         <v>11.0</v>
       </c>
       <c r="R20" t="s">
-        <v>684</v>
+        <v>868</v>
       </c>
       <c r="S20" t="s">
         <v>715</v>
@@ -8974,13 +9100,13 @@
       </c>
       <c r="O22"/>
       <c r="P22" t="s">
-        <v>685</v>
+        <v>869</v>
       </c>
       <c r="Q22" t="n">
         <v>5.0</v>
       </c>
       <c r="R22" t="s">
-        <v>685</v>
+        <v>869</v>
       </c>
       <c r="S22" t="s">
         <v>717</v>
@@ -9032,13 +9158,13 @@
       </c>
       <c r="O23"/>
       <c r="P23" t="s">
-        <v>686</v>
+        <v>870</v>
       </c>
       <c r="Q23" t="n">
         <v>5.0</v>
       </c>
       <c r="R23" t="s">
-        <v>686</v>
+        <v>870</v>
       </c>
       <c r="S23" t="s">
         <v>718</v>
@@ -9200,13 +9326,13 @@
         <v>668</v>
       </c>
       <c r="P26" t="s">
-        <v>687</v>
+        <v>871</v>
       </c>
       <c r="Q26" t="n">
         <v>11.0</v>
       </c>
       <c r="R26" t="s">
-        <v>687</v>
+        <v>871</v>
       </c>
       <c r="S26" t="s">
         <v>720</v>
@@ -9260,13 +9386,13 @@
         <v>669</v>
       </c>
       <c r="P27" t="s">
-        <v>688</v>
+        <v>872</v>
       </c>
       <c r="Q27" t="n">
         <v>9.0</v>
       </c>
       <c r="R27" t="s">
-        <v>688</v>
+        <v>872</v>
       </c>
       <c r="S27" t="s">
         <v>721</v>
@@ -9318,13 +9444,13 @@
         <v>670</v>
       </c>
       <c r="P28" t="s">
-        <v>689</v>
+        <v>873</v>
       </c>
       <c r="Q28" t="n">
         <v>9.0</v>
       </c>
       <c r="R28" t="s">
-        <v>689</v>
+        <v>873</v>
       </c>
       <c r="S28" t="s">
         <v>722</v>
@@ -9372,13 +9498,13 @@
       </c>
       <c r="O29"/>
       <c r="P29" t="s">
-        <v>88</v>
+        <v>855</v>
       </c>
       <c r="Q29" t="n">
         <v>1.0</v>
       </c>
       <c r="R29" t="s">
-        <v>88</v>
+        <v>855</v>
       </c>
       <c r="S29" t="s">
         <v>723</v>
@@ -9474,13 +9600,13 @@
         <v>664</v>
       </c>
       <c r="P31" t="s">
-        <v>690</v>
+        <v>874</v>
       </c>
       <c r="Q31" t="n">
         <v>12.0</v>
       </c>
       <c r="R31" t="s">
-        <v>690</v>
+        <v>874</v>
       </c>
       <c r="S31" t="s">
         <v>725</v>
@@ -9534,13 +9660,13 @@
         <v>671</v>
       </c>
       <c r="P32" t="s">
-        <v>237</v>
+        <v>875</v>
       </c>
       <c r="Q32" t="n">
         <v>1.0</v>
       </c>
       <c r="R32" t="s">
-        <v>237</v>
+        <v>875</v>
       </c>
       <c r="S32" t="s">
         <v>726</v>
@@ -9594,13 +9720,13 @@
         <v>672</v>
       </c>
       <c r="P33" t="s">
-        <v>344</v>
+        <v>876</v>
       </c>
       <c r="Q33" t="n">
         <v>1.0</v>
       </c>
       <c r="R33" t="s">
-        <v>344</v>
+        <v>876</v>
       </c>
       <c r="S33" t="s">
         <v>727</v>
@@ -9642,11 +9768,11 @@
       </c>
       <c r="O34"/>
       <c r="P34" t="s">
-        <v>42</v>
+        <v>877</v>
       </c>
       <c r="Q34"/>
       <c r="R34" t="s">
-        <v>42</v>
+        <v>877</v>
       </c>
       <c r="S34" t="s">
         <v>728</v>
@@ -9684,11 +9810,11 @@
       </c>
       <c r="O35"/>
       <c r="P35" t="s">
-        <v>199</v>
+        <v>839</v>
       </c>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>199</v>
+        <v>839</v>
       </c>
       <c r="S35" t="s">
         <v>530</v>
@@ -9728,11 +9854,11 @@
       </c>
       <c r="O36"/>
       <c r="P36" t="s">
-        <v>95</v>
+        <v>864</v>
       </c>
       <c r="Q36"/>
       <c r="R36" t="s">
-        <v>95</v>
+        <v>864</v>
       </c>
       <c r="S36" t="s">
         <v>729</v>
@@ -9814,11 +9940,11 @@
       </c>
       <c r="O38"/>
       <c r="P38" t="s">
-        <v>691</v>
+        <v>878</v>
       </c>
       <c r="Q38"/>
       <c r="R38" t="s">
-        <v>691</v>
+        <v>878</v>
       </c>
       <c r="S38" t="s">
         <v>730</v>
@@ -9864,11 +9990,11 @@
       </c>
       <c r="O39"/>
       <c r="P39" t="s">
-        <v>692</v>
+        <v>879</v>
       </c>
       <c r="Q39"/>
       <c r="R39" t="s">
-        <v>692</v>
+        <v>879</v>
       </c>
       <c r="S39" t="s">
         <v>485</v>
@@ -9914,11 +10040,11 @@
       </c>
       <c r="O40"/>
       <c r="P40" t="s">
-        <v>693</v>
+        <v>880</v>
       </c>
       <c r="Q40"/>
       <c r="R40" t="s">
-        <v>693</v>
+        <v>880</v>
       </c>
       <c r="S40" t="s">
         <v>731</v>
@@ -9958,11 +10084,11 @@
       </c>
       <c r="O41"/>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>839</v>
       </c>
       <c r="Q41"/>
       <c r="R41" t="s">
-        <v>199</v>
+        <v>839</v>
       </c>
       <c r="S41" t="s">
         <v>534</v>
@@ -9996,11 +10122,11 @@
       </c>
       <c r="O42"/>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>881</v>
       </c>
       <c r="Q42"/>
       <c r="R42" t="s">
-        <v>208</v>
+        <v>881</v>
       </c>
       <c r="S42" t="s">
         <v>732</v>
@@ -10114,11 +10240,11 @@
       </c>
       <c r="O45"/>
       <c r="P45" t="s">
-        <v>694</v>
+        <v>882</v>
       </c>
       <c r="Q45"/>
       <c r="R45" t="s">
-        <v>694</v>
+        <v>882</v>
       </c>
       <c r="S45" t="s">
         <v>491</v>
@@ -10210,11 +10336,11 @@
       </c>
       <c r="O47"/>
       <c r="P47" t="s">
-        <v>695</v>
+        <v>883</v>
       </c>
       <c r="Q47"/>
       <c r="R47" t="s">
-        <v>695</v>
+        <v>883</v>
       </c>
       <c r="S47" t="s">
         <v>537</v>
@@ -10346,11 +10472,11 @@
       </c>
       <c r="O50"/>
       <c r="P50" t="s">
-        <v>696</v>
+        <v>884</v>
       </c>
       <c r="Q50"/>
       <c r="R50" t="s">
-        <v>696</v>
+        <v>884</v>
       </c>
       <c r="S50" t="s">
         <v>735</v>
@@ -10382,11 +10508,11 @@
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51" t="s">
-        <v>697</v>
+        <v>885</v>
       </c>
       <c r="Q51"/>
       <c r="R51" t="s">
-        <v>697</v>
+        <v>885</v>
       </c>
       <c r="S51" t="s">
         <v>335</v>
@@ -10434,11 +10560,11 @@
       </c>
       <c r="O52"/>
       <c r="P52" t="s">
-        <v>698</v>
+        <v>886</v>
       </c>
       <c r="Q52"/>
       <c r="R52" t="s">
-        <v>698</v>
+        <v>886</v>
       </c>
       <c r="S52" t="s">
         <v>736</v>
@@ -10488,11 +10614,11 @@
       </c>
       <c r="O53"/>
       <c r="P53" t="s">
-        <v>350</v>
+        <v>887</v>
       </c>
       <c r="Q53"/>
       <c r="R53" t="s">
-        <v>350</v>
+        <v>887</v>
       </c>
       <c r="S53" t="s">
         <v>737</v>
@@ -10530,11 +10656,11 @@
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54" t="s">
-        <v>699</v>
+        <v>888</v>
       </c>
       <c r="Q54"/>
       <c r="R54" t="s">
-        <v>699</v>
+        <v>888</v>
       </c>
       <c r="S54" t="s">
         <v>738</v>
@@ -10614,11 +10740,11 @@
       </c>
       <c r="O56"/>
       <c r="P56" t="s">
-        <v>700</v>
+        <v>889</v>
       </c>
       <c r="Q56"/>
       <c r="R56" t="s">
-        <v>700</v>
+        <v>889</v>
       </c>
       <c r="S56" t="s">
         <v>739</v>
@@ -10650,11 +10776,11 @@
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57" t="s">
-        <v>701</v>
+        <v>890</v>
       </c>
       <c r="Q57"/>
       <c r="R57" t="s">
-        <v>701</v>
+        <v>890</v>
       </c>
       <c r="S57" t="s">
         <v>740</v>
@@ -10722,11 +10848,11 @@
       </c>
       <c r="O59"/>
       <c r="P59" t="s">
-        <v>702</v>
+        <v>891</v>
       </c>
       <c r="Q59"/>
       <c r="R59" t="s">
-        <v>702</v>
+        <v>891</v>
       </c>
       <c r="S59" t="s">
         <v>742</v>
@@ -10738,7 +10864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10887,13 +11013,13 @@
         <v>651</v>
       </c>
       <c r="P2" t="s">
-        <v>673</v>
+        <v>850</v>
       </c>
       <c r="Q2" t="n">
         <v>12.0</v>
       </c>
       <c r="R2" t="s">
-        <v>673</v>
+        <v>850</v>
       </c>
       <c r="S2" t="s">
         <v>703</v>
@@ -10975,13 +11101,13 @@
         <v>652</v>
       </c>
       <c r="P3" t="s">
-        <v>674</v>
+        <v>851</v>
       </c>
       <c r="Q3" t="n">
         <v>39.0</v>
       </c>
       <c r="R3" t="s">
-        <v>674</v>
+        <v>851</v>
       </c>
       <c r="S3" t="s">
         <v>704</v>
@@ -11063,13 +11189,13 @@
         <v>653</v>
       </c>
       <c r="P4" t="s">
-        <v>183</v>
+        <v>852</v>
       </c>
       <c r="Q4" t="n">
         <v>1.0</v>
       </c>
       <c r="R4" t="s">
-        <v>183</v>
+        <v>852</v>
       </c>
       <c r="S4" t="s">
         <v>5</v>
@@ -11141,13 +11267,13 @@
         <v>654</v>
       </c>
       <c r="P5" t="s">
-        <v>71</v>
+        <v>853</v>
       </c>
       <c r="Q5" t="n">
         <v>8.0</v>
       </c>
       <c r="R5" t="s">
-        <v>71</v>
+        <v>853</v>
       </c>
       <c r="S5" t="s">
         <v>705</v>
@@ -11233,13 +11359,13 @@
         <v>655</v>
       </c>
       <c r="P6" t="s">
-        <v>60</v>
+        <v>854</v>
       </c>
       <c r="Q6" t="n">
         <v>1.0</v>
       </c>
       <c r="R6" t="s">
-        <v>60</v>
+        <v>854</v>
       </c>
       <c r="S6" t="s">
         <v>706</v>
@@ -11325,13 +11451,13 @@
         <v>656</v>
       </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>855</v>
       </c>
       <c r="Q7" t="n">
         <v>1.0</v>
       </c>
       <c r="R7" t="s">
-        <v>88</v>
+        <v>855</v>
       </c>
       <c r="S7" t="s">
         <v>707</v>
@@ -11411,13 +11537,13 @@
         <v>657</v>
       </c>
       <c r="P8" t="s">
-        <v>304</v>
+        <v>856</v>
       </c>
       <c r="Q8" t="n">
         <v>1.0</v>
       </c>
       <c r="R8" t="s">
-        <v>304</v>
+        <v>856</v>
       </c>
       <c r="S8" t="s">
         <v>708</v>
@@ -11503,13 +11629,13 @@
         <v>658</v>
       </c>
       <c r="P9" t="s">
-        <v>675</v>
+        <v>857</v>
       </c>
       <c r="Q9" t="n">
         <v>2.0</v>
       </c>
       <c r="R9" t="s">
-        <v>675</v>
+        <v>857</v>
       </c>
       <c r="S9" t="s">
         <v>709</v>
@@ -11581,13 +11707,13 @@
       </c>
       <c r="O10"/>
       <c r="P10" t="s">
-        <v>676</v>
+        <v>858</v>
       </c>
       <c r="Q10" t="n">
         <v>12.0</v>
       </c>
       <c r="R10" t="s">
-        <v>676</v>
+        <v>858</v>
       </c>
       <c r="S10" t="s">
         <v>710</v>
@@ -11665,13 +11791,13 @@
         <v>659</v>
       </c>
       <c r="P11" t="s">
-        <v>677</v>
+        <v>859</v>
       </c>
       <c r="Q11" t="n">
         <v>6.0</v>
       </c>
       <c r="R11" t="s">
-        <v>677</v>
+        <v>859</v>
       </c>
       <c r="S11" t="s">
         <v>409</v>
@@ -11741,13 +11867,13 @@
       </c>
       <c r="O12"/>
       <c r="P12" t="s">
-        <v>678</v>
+        <v>860</v>
       </c>
       <c r="Q12" t="n">
         <v>20.0</v>
       </c>
       <c r="R12" t="s">
-        <v>678</v>
+        <v>860</v>
       </c>
       <c r="S12" t="s">
         <v>8</v>
@@ -11817,13 +11943,13 @@
         <v>660</v>
       </c>
       <c r="P13" t="s">
-        <v>679</v>
+        <v>861</v>
       </c>
       <c r="Q13" t="n">
         <v>15.0</v>
       </c>
       <c r="R13" t="s">
-        <v>679</v>
+        <v>861</v>
       </c>
       <c r="S13" t="s">
         <v>9</v>
@@ -11903,13 +12029,13 @@
         <v>661</v>
       </c>
       <c r="P14" t="s">
-        <v>680</v>
+        <v>862</v>
       </c>
       <c r="Q14" t="n">
         <v>43.0</v>
       </c>
       <c r="R14" t="s">
-        <v>680</v>
+        <v>862</v>
       </c>
       <c r="S14" t="s">
         <v>512</v>
@@ -11991,13 +12117,13 @@
         <v>662</v>
       </c>
       <c r="P15" t="s">
-        <v>681</v>
+        <v>863</v>
       </c>
       <c r="Q15" t="n">
         <v>8.0</v>
       </c>
       <c r="R15" t="s">
-        <v>681</v>
+        <v>863</v>
       </c>
       <c r="S15" t="s">
         <v>11</v>
@@ -12071,13 +12197,13 @@
         <v>661</v>
       </c>
       <c r="P16" t="s">
-        <v>95</v>
+        <v>864</v>
       </c>
       <c r="Q16" t="n">
         <v>1.0</v>
       </c>
       <c r="R16" t="s">
-        <v>95</v>
+        <v>864</v>
       </c>
       <c r="S16" t="s">
         <v>711</v>
@@ -12157,13 +12283,13 @@
         <v>663</v>
       </c>
       <c r="P17" t="s">
-        <v>682</v>
+        <v>865</v>
       </c>
       <c r="Q17" t="n">
         <v>6.0</v>
       </c>
       <c r="R17" t="s">
-        <v>682</v>
+        <v>865</v>
       </c>
       <c r="S17" t="s">
         <v>712</v>
@@ -12247,13 +12373,13 @@
         <v>664</v>
       </c>
       <c r="P18" t="s">
-        <v>166</v>
+        <v>866</v>
       </c>
       <c r="Q18" t="n">
         <v>4.0</v>
       </c>
       <c r="R18" t="s">
-        <v>166</v>
+        <v>866</v>
       </c>
       <c r="S18" t="s">
         <v>713</v>
@@ -12329,13 +12455,13 @@
         <v>660</v>
       </c>
       <c r="P19" t="s">
-        <v>683</v>
+        <v>867</v>
       </c>
       <c r="Q19" t="n">
         <v>3.0</v>
       </c>
       <c r="R19" t="s">
-        <v>683</v>
+        <v>867</v>
       </c>
       <c r="S19" t="s">
         <v>714</v>
@@ -12413,13 +12539,13 @@
         <v>665</v>
       </c>
       <c r="P20" t="s">
-        <v>684</v>
+        <v>868</v>
       </c>
       <c r="Q20" t="n">
         <v>11.0</v>
       </c>
       <c r="R20" t="s">
-        <v>684</v>
+        <v>868</v>
       </c>
       <c r="S20" t="s">
         <v>715</v>
@@ -12563,13 +12689,13 @@
       </c>
       <c r="O22"/>
       <c r="P22" t="s">
-        <v>685</v>
+        <v>869</v>
       </c>
       <c r="Q22" t="n">
         <v>5.0</v>
       </c>
       <c r="R22" t="s">
-        <v>685</v>
+        <v>869</v>
       </c>
       <c r="S22" t="s">
         <v>717</v>
@@ -12643,13 +12769,13 @@
       </c>
       <c r="O23"/>
       <c r="P23" t="s">
-        <v>686</v>
+        <v>870</v>
       </c>
       <c r="Q23" t="n">
         <v>5.0</v>
       </c>
       <c r="R23" t="s">
-        <v>686</v>
+        <v>870</v>
       </c>
       <c r="S23" t="s">
         <v>718</v>
@@ -12891,13 +13017,13 @@
         <v>668</v>
       </c>
       <c r="P26" t="s">
-        <v>687</v>
+        <v>871</v>
       </c>
       <c r="Q26" t="n">
         <v>11.0</v>
       </c>
       <c r="R26" t="s">
-        <v>687</v>
+        <v>871</v>
       </c>
       <c r="S26" t="s">
         <v>720</v>
@@ -12975,13 +13101,13 @@
         <v>669</v>
       </c>
       <c r="P27" t="s">
-        <v>688</v>
+        <v>872</v>
       </c>
       <c r="Q27" t="n">
         <v>9.0</v>
       </c>
       <c r="R27" t="s">
-        <v>688</v>
+        <v>872</v>
       </c>
       <c r="S27" t="s">
         <v>721</v>
@@ -13059,13 +13185,13 @@
         <v>670</v>
       </c>
       <c r="P28" t="s">
-        <v>689</v>
+        <v>873</v>
       </c>
       <c r="Q28" t="n">
         <v>9.0</v>
       </c>
       <c r="R28" t="s">
-        <v>689</v>
+        <v>873</v>
       </c>
       <c r="S28" t="s">
         <v>722</v>
@@ -13143,13 +13269,13 @@
       </c>
       <c r="O29"/>
       <c r="P29" t="s">
-        <v>88</v>
+        <v>855</v>
       </c>
       <c r="Q29" t="n">
         <v>1.0</v>
       </c>
       <c r="R29" t="s">
-        <v>88</v>
+        <v>855</v>
       </c>
       <c r="S29" t="s">
         <v>723</v>
@@ -13305,13 +13431,13 @@
         <v>664</v>
       </c>
       <c r="P31" t="s">
-        <v>690</v>
+        <v>874</v>
       </c>
       <c r="Q31" t="n">
         <v>12.0</v>
       </c>
       <c r="R31" t="s">
-        <v>690</v>
+        <v>874</v>
       </c>
       <c r="S31" t="s">
         <v>725</v>
@@ -13393,13 +13519,13 @@
         <v>671</v>
       </c>
       <c r="P32" t="s">
-        <v>237</v>
+        <v>875</v>
       </c>
       <c r="Q32" t="n">
         <v>1.0</v>
       </c>
       <c r="R32" t="s">
-        <v>237</v>
+        <v>875</v>
       </c>
       <c r="S32" t="s">
         <v>726</v>
@@ -13481,13 +13607,13 @@
         <v>672</v>
       </c>
       <c r="P33" t="s">
-        <v>344</v>
+        <v>876</v>
       </c>
       <c r="Q33" t="n">
         <v>1.0</v>
       </c>
       <c r="R33" t="s">
-        <v>344</v>
+        <v>876</v>
       </c>
       <c r="S33" t="s">
         <v>727</v>
@@ -13555,11 +13681,11 @@
       </c>
       <c r="O34"/>
       <c r="P34" t="s">
-        <v>42</v>
+        <v>877</v>
       </c>
       <c r="Q34"/>
       <c r="R34" t="s">
-        <v>42</v>
+        <v>877</v>
       </c>
       <c r="S34" t="s">
         <v>728</v>
@@ -13625,11 +13751,11 @@
       </c>
       <c r="O35"/>
       <c r="P35" t="s">
-        <v>199</v>
+        <v>839</v>
       </c>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>199</v>
+        <v>839</v>
       </c>
       <c r="S35" t="s">
         <v>47</v>
@@ -13687,11 +13813,11 @@
       </c>
       <c r="O36"/>
       <c r="P36" t="s">
-        <v>95</v>
+        <v>864</v>
       </c>
       <c r="Q36"/>
       <c r="R36" t="s">
-        <v>95</v>
+        <v>864</v>
       </c>
       <c r="S36" t="s">
         <v>729</v>
@@ -13821,11 +13947,11 @@
       </c>
       <c r="O38"/>
       <c r="P38" t="s">
-        <v>691</v>
+        <v>878</v>
       </c>
       <c r="Q38"/>
       <c r="R38" t="s">
-        <v>691</v>
+        <v>878</v>
       </c>
       <c r="S38" t="s">
         <v>796</v>
@@ -13897,11 +14023,11 @@
       </c>
       <c r="O39"/>
       <c r="P39" t="s">
-        <v>692</v>
+        <v>879</v>
       </c>
       <c r="Q39"/>
       <c r="R39" t="s">
-        <v>692</v>
+        <v>879</v>
       </c>
       <c r="S39" t="s">
         <v>176</v>
@@ -13975,11 +14101,11 @@
       </c>
       <c r="O40"/>
       <c r="P40" t="s">
-        <v>693</v>
+        <v>880</v>
       </c>
       <c r="Q40"/>
       <c r="R40" t="s">
-        <v>693</v>
+        <v>880</v>
       </c>
       <c r="S40" t="s">
         <v>797</v>
@@ -14045,11 +14171,11 @@
       </c>
       <c r="O41"/>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>839</v>
       </c>
       <c r="Q41"/>
       <c r="R41" t="s">
-        <v>199</v>
+        <v>839</v>
       </c>
       <c r="S41" t="s">
         <v>789</v>
@@ -14107,11 +14233,11 @@
       </c>
       <c r="O42"/>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>881</v>
       </c>
       <c r="Q42"/>
       <c r="R42" t="s">
-        <v>208</v>
+        <v>881</v>
       </c>
       <c r="S42" t="s">
         <v>798</v>
@@ -14293,11 +14419,11 @@
       </c>
       <c r="O45"/>
       <c r="P45" t="s">
-        <v>694</v>
+        <v>882</v>
       </c>
       <c r="Q45"/>
       <c r="R45" t="s">
-        <v>694</v>
+        <v>882</v>
       </c>
       <c r="S45" t="s">
         <v>491</v>
@@ -14445,11 +14571,11 @@
       </c>
       <c r="O47"/>
       <c r="P47" t="s">
-        <v>695</v>
+        <v>883</v>
       </c>
       <c r="Q47"/>
       <c r="R47" t="s">
-        <v>695</v>
+        <v>883</v>
       </c>
       <c r="S47" t="s">
         <v>259</v>
@@ -14659,11 +14785,11 @@
       </c>
       <c r="O50"/>
       <c r="P50" t="s">
-        <v>696</v>
+        <v>884</v>
       </c>
       <c r="Q50"/>
       <c r="R50" t="s">
-        <v>696</v>
+        <v>884</v>
       </c>
       <c r="S50" t="s">
         <v>735</v>
@@ -14719,11 +14845,11 @@
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51" t="s">
-        <v>697</v>
+        <v>885</v>
       </c>
       <c r="Q51"/>
       <c r="R51" t="s">
-        <v>697</v>
+        <v>885</v>
       </c>
       <c r="S51" t="s">
         <v>335</v>
@@ -14795,11 +14921,11 @@
       </c>
       <c r="O52"/>
       <c r="P52" t="s">
-        <v>698</v>
+        <v>886</v>
       </c>
       <c r="Q52"/>
       <c r="R52" t="s">
-        <v>698</v>
+        <v>886</v>
       </c>
       <c r="S52" t="s">
         <v>736</v>
@@ -14877,11 +15003,11 @@
       </c>
       <c r="O53"/>
       <c r="P53" t="s">
-        <v>350</v>
+        <v>887</v>
       </c>
       <c r="Q53"/>
       <c r="R53" t="s">
-        <v>350</v>
+        <v>887</v>
       </c>
       <c r="S53" t="s">
         <v>737</v>
@@ -14947,11 +15073,11 @@
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54" t="s">
-        <v>699</v>
+        <v>888</v>
       </c>
       <c r="Q54"/>
       <c r="R54" t="s">
-        <v>699</v>
+        <v>888</v>
       </c>
       <c r="S54" t="s">
         <v>801</v>
@@ -15079,11 +15205,11 @@
       </c>
       <c r="O56"/>
       <c r="P56" t="s">
-        <v>700</v>
+        <v>889</v>
       </c>
       <c r="Q56"/>
       <c r="R56" t="s">
-        <v>700</v>
+        <v>889</v>
       </c>
       <c r="S56" t="s">
         <v>739</v>
@@ -15133,11 +15259,11 @@
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57" t="s">
-        <v>701</v>
+        <v>890</v>
       </c>
       <c r="Q57"/>
       <c r="R57" t="s">
-        <v>701</v>
+        <v>890</v>
       </c>
       <c r="S57" t="s">
         <v>802</v>
@@ -15241,11 +15367,11 @@
       </c>
       <c r="O59"/>
       <c r="P59" t="s">
-        <v>702</v>
+        <v>891</v>
       </c>
       <c r="Q59"/>
       <c r="R59" t="s">
-        <v>702</v>
+        <v>891</v>
       </c>
       <c r="S59" t="s">
         <v>742</v>

--- a/dat/synchros-initiatives.xlsx
+++ b/dat/synchros-initiatives.xlsx
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
-    <sheet name="Table 1 updated" r:id="rId7" sheetId="12"/>
-    <sheet name="Table 1 complete" r:id="rId6" sheetId="13"/>
+    <sheet name="Table 1 updated" r:id="rId7" sheetId="16"/>
+    <sheet name="Table 1 complete" r:id="rId6" sheetId="17"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10539" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13687" uniqueCount="892">
   <si>
     <t>A consortium of agricultural cohort studies</t>
   </si>
@@ -7839,7 +7839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10864,7 +10864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11408,177 +11408,131 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>500</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>500</v>
       </c>
       <c r="C7" t="s">
-        <v>507</v>
+        <v>545</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>563</v>
-      </c>
-      <c r="F7" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>604</v>
-      </c>
-      <c r="I7" t="n">
-        <v>950000.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>950000.0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>12.0</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
       <c r="N7" t="s">
-        <v>611</v>
-      </c>
-      <c r="O7" t="s">
-        <v>656</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="O7"/>
       <c r="P7" t="s">
-        <v>855</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.0</v>
-      </c>
+        <v>889</v>
+      </c>
+      <c r="Q7"/>
       <c r="R7" t="s">
-        <v>855</v>
+        <v>889</v>
       </c>
       <c r="S7" t="s">
-        <v>707</v>
-      </c>
-      <c r="T7" t="s">
-        <v>747</v>
-      </c>
-      <c r="U7" t="s">
-        <v>804</v>
-      </c>
+        <v>739</v>
+      </c>
+      <c r="T7"/>
+      <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
-      <c r="X7" t="s">
-        <v>829</v>
-      </c>
+      <c r="X7"/>
       <c r="Y7"/>
-      <c r="Z7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>838</v>
-      </c>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
       <c r="AC7"/>
       <c r="AD7" t="s">
         <v>4</v>
       </c>
       <c r="AE7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF7"/>
+        <v>840</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="B8" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="C8" t="s">
-        <v>508</v>
+        <v>788</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="F8" t="n">
-        <v>35.0</v>
+        <v>14.0</v>
       </c>
       <c r="G8" t="n">
-        <v>35.0</v>
+        <v>14.0</v>
       </c>
       <c r="H8" t="s">
-        <v>604</v>
-      </c>
-      <c r="I8" t="n">
-        <v>188000.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>188000.0</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
       <c r="K8" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>84.0</v>
-      </c>
+        <v>50.0</v>
+      </c>
+      <c r="L8"/>
       <c r="M8" t="n">
-        <v>85.0</v>
+        <v>323.0</v>
       </c>
       <c r="N8" t="s">
-        <v>612</v>
-      </c>
-      <c r="O8" t="s">
-        <v>657</v>
-      </c>
+        <v>795</v>
+      </c>
+      <c r="O8"/>
       <c r="P8" t="s">
-        <v>856</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.0</v>
-      </c>
+        <v>880</v>
+      </c>
+      <c r="Q8"/>
       <c r="R8" t="s">
-        <v>856</v>
+        <v>880</v>
       </c>
       <c r="S8" t="s">
-        <v>708</v>
+        <v>797</v>
       </c>
       <c r="T8" t="s">
-        <v>748</v>
+        <v>264</v>
       </c>
       <c r="U8" t="s">
-        <v>804</v>
-      </c>
-      <c r="V8" t="s">
-        <v>810</v>
-      </c>
-      <c r="W8" t="s">
-        <v>823</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="V8"/>
+      <c r="W8"/>
       <c r="X8" t="s">
         <v>828</v>
       </c>
       <c r="Y8"/>
-      <c r="Z8" t="s">
-        <v>835</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>835</v>
-      </c>
+      <c r="Z8"/>
+      <c r="AA8"/>
       <c r="AB8" t="s">
         <v>836</v>
       </c>
-      <c r="AC8"/>
+      <c r="AC8" t="s">
+        <v>2</v>
+      </c>
       <c r="AD8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="s">
-        <v>304</v>
+        <v>845</v>
       </c>
       <c r="AF8" t="s">
         <v>848</v>
@@ -11586,62 +11540,48 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="B9" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="C9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D9"/>
+        <v>414</v>
+      </c>
+      <c r="D9" t="s">
+        <v>415</v>
+      </c>
       <c r="E9" t="s">
-        <v>565</v>
+        <v>602</v>
       </c>
       <c r="F9" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="H9" t="s">
         <v>605</v>
       </c>
-      <c r="I9" t="n">
-        <v>987.0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>987.0</v>
-      </c>
+      <c r="I9"/>
+      <c r="J9"/>
       <c r="K9" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>613</v>
-      </c>
-      <c r="O9" t="s">
-        <v>658</v>
-      </c>
-      <c r="P9" t="s">
-        <v>857</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.0</v>
-      </c>
+        <v>32.0</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
       <c r="R9" t="s">
-        <v>857</v>
+        <v>415</v>
       </c>
       <c r="S9" t="s">
-        <v>709</v>
+        <v>414</v>
       </c>
       <c r="T9" t="s">
-        <v>749</v>
+        <v>774</v>
       </c>
       <c r="U9" t="s">
         <v>803</v>
@@ -11649,7 +11589,7 @@
       <c r="V9"/>
       <c r="W9"/>
       <c r="X9" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="Y9"/>
       <c r="Z9"/>
@@ -11657,12 +11597,12 @@
       <c r="AB9" t="s">
         <v>836</v>
       </c>
-      <c r="AC9"/>
-      <c r="AD9" t="s">
+      <c r="AC9" t="s">
         <v>4</v>
       </c>
+      <c r="AD9"/>
       <c r="AE9" t="s">
-        <v>371</v>
+        <v>839</v>
       </c>
       <c r="AF9" t="s">
         <v>848</v>
@@ -11670,219 +11610,205 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="B10" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="C10" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>566</v>
+        <v>294</v>
       </c>
       <c r="F10" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>604</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.1E7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.0</v>
-      </c>
+        <v>77.0</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
-      <c r="M10" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="M10"/>
       <c r="N10" t="s">
-        <v>614</v>
+        <v>295</v>
       </c>
       <c r="O10"/>
       <c r="P10" t="s">
-        <v>858</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>12.0</v>
-      </c>
+        <v>884</v>
+      </c>
+      <c r="Q10"/>
       <c r="R10" t="s">
-        <v>858</v>
+        <v>884</v>
       </c>
       <c r="S10" t="s">
-        <v>710</v>
-      </c>
-      <c r="T10" t="s">
-        <v>330</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="T10"/>
       <c r="U10" t="s">
         <v>803</v>
       </c>
       <c r="V10" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="W10"/>
-      <c r="X10"/>
+      <c r="X10" t="s">
+        <v>827</v>
+      </c>
       <c r="Y10"/>
-      <c r="Z10"/>
+      <c r="Z10" t="s">
+        <v>2</v>
+      </c>
       <c r="AA10"/>
       <c r="AB10" t="s">
         <v>836</v>
       </c>
-      <c r="AC10"/>
-      <c r="AD10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>840</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>848</v>
-      </c>
+      <c r="AC10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>467</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>467</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>567</v>
+        <v>96</v>
       </c>
       <c r="F11" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>605</v>
-      </c>
+        <v>8.0</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
       <c r="I11" t="n">
-        <v>2941.0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1949.0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>85.0</v>
-      </c>
+        <v>119952.0</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
       <c r="M11" t="n">
-        <v>500.0</v>
+        <v>8.0</v>
       </c>
       <c r="N11" t="s">
-        <v>615</v>
-      </c>
-      <c r="O11" t="s">
-        <v>659</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="O11"/>
       <c r="P11" t="s">
-        <v>859</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>6.0</v>
-      </c>
+        <v>864</v>
+      </c>
+      <c r="Q11"/>
       <c r="R11" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="S11" t="s">
-        <v>409</v>
+        <v>729</v>
       </c>
       <c r="T11" t="s">
-        <v>751</v>
+        <v>97</v>
       </c>
       <c r="U11" t="s">
-        <v>803</v>
-      </c>
-      <c r="V11"/>
+        <v>804</v>
+      </c>
+      <c r="V11" t="s">
+        <v>817</v>
+      </c>
       <c r="W11"/>
       <c r="X11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="Y11"/>
       <c r="Z11" t="s">
-        <v>835</v>
+        <v>4</v>
       </c>
       <c r="AA11" t="s">
-        <v>835</v>
+        <v>4</v>
       </c>
       <c r="AB11" t="s">
-        <v>838</v>
-      </c>
-      <c r="AC11"/>
+        <v>836</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>2</v>
+      </c>
       <c r="AD11" t="s">
         <v>4</v>
       </c>
-      <c r="AE11" t="s">
-        <v>840</v>
-      </c>
-      <c r="AF11"/>
+      <c r="AE11"/>
+      <c r="AF11" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>468</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>468</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>507</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="F12" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="H12" t="s">
         <v>604</v>
       </c>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
+      <c r="I12" t="n">
+        <v>950000.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>950000.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>90.0</v>
+      </c>
       <c r="M12" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="N12" t="s">
-        <v>616</v>
-      </c>
-      <c r="O12"/>
+        <v>611</v>
+      </c>
+      <c r="O12" t="s">
+        <v>656</v>
+      </c>
       <c r="P12" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="R12" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="S12" t="s">
-        <v>8</v>
+        <v>707</v>
       </c>
       <c r="T12" t="s">
-        <v>273</v>
+        <v>747</v>
       </c>
       <c r="U12" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="V12"/>
       <c r="W12"/>
@@ -11890,82 +11816,98 @@
         <v>829</v>
       </c>
       <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
+      <c r="Z12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>2</v>
+      </c>
       <c r="AB12" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="AC12"/>
       <c r="AD12" t="s">
         <v>4</v>
       </c>
       <c r="AE12" t="s">
-        <v>840</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>848</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AF12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>464</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>464</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>549</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="D13"/>
       <c r="E13" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F13" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="G13"/>
+        <v>35.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>35.0</v>
+      </c>
       <c r="H13" t="s">
         <v>604</v>
       </c>
       <c r="I13" t="n">
-        <v>1000000.0</v>
-      </c>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
+        <v>188000.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>188000.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>85.0</v>
+      </c>
       <c r="N13" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="O13" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="P13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="R13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="S13" t="s">
-        <v>9</v>
-      </c>
-      <c r="T13"/>
+        <v>708</v>
+      </c>
+      <c r="T13" t="s">
+        <v>748</v>
+      </c>
       <c r="U13" t="s">
-        <v>803</v>
-      </c>
-      <c r="V13"/>
-      <c r="W13"/>
+        <v>804</v>
+      </c>
+      <c r="V13" t="s">
+        <v>810</v>
+      </c>
+      <c r="W13" t="s">
+        <v>823</v>
+      </c>
       <c r="X13" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="Y13"/>
       <c r="Z13" t="s">
-        <v>4</v>
+        <v>835</v>
       </c>
       <c r="AA13" t="s">
         <v>835</v>
@@ -11986,168 +11928,120 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="B14" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="C14" t="s">
-        <v>512</v>
+        <v>791</v>
       </c>
       <c r="D14" t="s">
-        <v>550</v>
+        <v>230</v>
       </c>
       <c r="E14" t="s">
-        <v>570</v>
-      </c>
-      <c r="F14" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>10.0</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14"/>
       <c r="H14" t="s">
-        <v>604</v>
-      </c>
-      <c r="I14" t="n">
-        <v>351000.0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>351000.0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>45.0</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
       <c r="L14"/>
-      <c r="M14" t="n">
-        <v>37000.0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>618</v>
-      </c>
-      <c r="O14" t="s">
-        <v>661</v>
-      </c>
-      <c r="P14" t="s">
-        <v>862</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>43.0</v>
-      </c>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
       <c r="R14" t="s">
-        <v>862</v>
+        <v>230</v>
       </c>
       <c r="S14" t="s">
-        <v>512</v>
+        <v>799</v>
       </c>
       <c r="T14" t="s">
-        <v>753</v>
+        <v>234</v>
       </c>
       <c r="U14" t="s">
         <v>803</v>
       </c>
-      <c r="V14" t="s">
-        <v>810</v>
-      </c>
-      <c r="W14" t="s">
-        <v>824</v>
-      </c>
+      <c r="V14"/>
+      <c r="W14"/>
       <c r="X14" t="s">
         <v>828</v>
       </c>
       <c r="Y14"/>
-      <c r="Z14" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>835</v>
-      </c>
+      <c r="Z14"/>
+      <c r="AA14"/>
       <c r="AB14" t="s">
         <v>836</v>
       </c>
-      <c r="AC14"/>
+      <c r="AC14" t="s">
+        <v>2</v>
+      </c>
       <c r="AD14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AF14" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>503</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>503</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>548</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>571</v>
+        <v>439</v>
       </c>
       <c r="F15" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>605</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1190000.0</v>
-      </c>
+        <v>20.0</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
       <c r="J15"/>
-      <c r="K15" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>85.0</v>
-      </c>
+      <c r="K15"/>
+      <c r="L15"/>
       <c r="M15"/>
       <c r="N15" t="s">
-        <v>619</v>
-      </c>
-      <c r="O15" t="s">
-        <v>662</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="O15"/>
       <c r="P15" t="s">
-        <v>863</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>8.0</v>
-      </c>
+        <v>891</v>
+      </c>
+      <c r="Q15"/>
       <c r="R15" t="s">
-        <v>863</v>
+        <v>891</v>
       </c>
       <c r="S15" t="s">
-        <v>11</v>
-      </c>
-      <c r="T15" t="s">
-        <v>754</v>
-      </c>
-      <c r="U15" t="s">
-        <v>803</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="T15"/>
+      <c r="U15"/>
       <c r="V15"/>
       <c r="W15"/>
-      <c r="X15" t="s">
-        <v>829</v>
-      </c>
+      <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15"/>
       <c r="AA15"/>
-      <c r="AB15" t="s">
-        <v>836</v>
-      </c>
+      <c r="AB15"/>
       <c r="AC15"/>
       <c r="AD15" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="s">
         <v>208</v>
@@ -12158,17 +12052,17 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="B16" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="C16" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="F16" t="n">
         <v>9.0</v>
@@ -12180,36 +12074,34 @@
         <v>605</v>
       </c>
       <c r="I16" t="n">
-        <v>40000.0</v>
+        <v>50562.0</v>
       </c>
       <c r="J16"/>
       <c r="K16" t="n">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="L16" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="M16"/>
+        <v>106.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>450.0</v>
+      </c>
       <c r="N16" t="s">
-        <v>620</v>
-      </c>
-      <c r="O16" t="s">
-        <v>661</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="O16"/>
       <c r="P16" t="s">
-        <v>864</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.0</v>
-      </c>
+        <v>887</v>
+      </c>
+      <c r="Q16"/>
       <c r="R16" t="s">
-        <v>864</v>
+        <v>887</v>
       </c>
       <c r="S16" t="s">
-        <v>711</v>
+        <v>737</v>
       </c>
       <c r="T16" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="U16" t="s">
         <v>804</v>
@@ -12217,7 +12109,7 @@
       <c r="V16"/>
       <c r="W16"/>
       <c r="X16" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="Y16"/>
       <c r="Z16" t="s">
@@ -12227,12 +12119,14 @@
       <c r="AB16" t="s">
         <v>836</v>
       </c>
-      <c r="AC16"/>
+      <c r="AC16" t="s">
+        <v>2</v>
+      </c>
       <c r="AD16" t="s">
         <v>2</v>
       </c>
       <c r="AE16" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="AF16" t="s">
         <v>848</v>
@@ -12240,171 +12134,149 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>487</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>487</v>
       </c>
       <c r="C17" t="s">
-        <v>514</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="D17"/>
       <c r="E17" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
       <c r="F17" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>605</v>
-      </c>
+        <v>84.0</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
       <c r="I17" t="n">
-        <v>32000.0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>32000.0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>12.0</v>
-      </c>
+        <v>50000.0</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
       <c r="M17"/>
       <c r="N17" t="s">
-        <v>621</v>
-      </c>
-      <c r="O17" t="s">
-        <v>663</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="O17"/>
       <c r="P17" t="s">
-        <v>865</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>6.0</v>
-      </c>
+        <v>839</v>
+      </c>
+      <c r="Q17"/>
       <c r="R17" t="s">
-        <v>865</v>
+        <v>839</v>
       </c>
       <c r="S17" t="s">
-        <v>712</v>
-      </c>
-      <c r="T17" t="s">
-        <v>756</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="T17"/>
       <c r="U17" t="s">
-        <v>803</v>
-      </c>
-      <c r="V17" t="s">
-        <v>812</v>
-      </c>
-      <c r="W17" t="s">
-        <v>825</v>
-      </c>
-      <c r="X17" t="s">
-        <v>828</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
       <c r="Y17"/>
-      <c r="Z17" t="s">
-        <v>835</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>835</v>
-      </c>
+      <c r="Z17"/>
+      <c r="AA17"/>
       <c r="AB17" t="s">
-        <v>836</v>
-      </c>
-      <c r="AC17"/>
+        <v>838</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>4</v>
+      </c>
       <c r="AD17" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE17" t="s">
-        <v>304</v>
+        <v>839</v>
       </c>
       <c r="AF17" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B18" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C18" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F18" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G18" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="H18" t="s">
         <v>605</v>
       </c>
       <c r="I18" t="n">
-        <v>22730.0</v>
+        <v>987.0</v>
       </c>
       <c r="J18" t="n">
-        <v>22000.0</v>
+        <v>987.0</v>
       </c>
       <c r="K18" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L18"/>
+        <v>65.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>150.0</v>
+      </c>
       <c r="M18" t="n">
-        <v>1043.0</v>
+        <v>1000.0</v>
       </c>
       <c r="N18" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="O18" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="P18" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="R18" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="S18" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="T18" t="s">
-        <v>174</v>
+        <v>749</v>
       </c>
       <c r="U18" t="s">
         <v>803</v>
       </c>
       <c r="V18"/>
       <c r="W18"/>
-      <c r="X18"/>
+      <c r="X18" t="s">
+        <v>828</v>
+      </c>
       <c r="Y18"/>
       <c r="Z18"/>
       <c r="AA18"/>
       <c r="AB18" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC18"/>
       <c r="AD18" t="s">
         <v>4</v>
       </c>
       <c r="AE18" t="s">
-        <v>841</v>
+        <v>371</v>
       </c>
       <c r="AF18" t="s">
         <v>848</v>
@@ -12412,75 +12284,67 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>466</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>466</v>
       </c>
       <c r="C19" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F19" t="n">
-        <v>7.0</v>
+        <v>40.0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="H19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I19" t="n">
-        <v>42189.0</v>
+        <v>2.1E7</v>
       </c>
       <c r="J19" t="n">
-        <v>31000.0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>19.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
       <c r="M19" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="N19" t="s">
-        <v>623</v>
-      </c>
-      <c r="O19" t="s">
-        <v>660</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="O19"/>
       <c r="P19" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="R19" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="S19" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="T19" t="s">
-        <v>757</v>
+        <v>330</v>
       </c>
       <c r="U19" t="s">
         <v>803</v>
       </c>
-      <c r="V19"/>
+      <c r="V19" t="s">
+        <v>811</v>
+      </c>
       <c r="W19"/>
-      <c r="X19" t="s">
-        <v>827</v>
-      </c>
+      <c r="X19"/>
       <c r="Y19"/>
-      <c r="Z19" t="s">
-        <v>835</v>
-      </c>
+      <c r="Z19"/>
       <c r="AA19"/>
       <c r="AB19" t="s">
         <v>836</v>
@@ -12490,25 +12354,25 @@
         <v>4</v>
       </c>
       <c r="AE19" t="s">
-        <v>350</v>
+        <v>840</v>
       </c>
       <c r="AF19" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B20" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C20" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F20" t="n">
         <v>6.0</v>
@@ -12517,41 +12381,43 @@
         <v>6.0</v>
       </c>
       <c r="H20" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I20" t="n">
-        <v>388120.0</v>
-      </c>
-      <c r="J20"/>
+        <v>2941.0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1949.0</v>
+      </c>
       <c r="K20" t="n">
-        <v>0.0</v>
+        <v>65.0</v>
       </c>
       <c r="L20" t="n">
-        <v>30.0</v>
+        <v>85.0</v>
       </c>
       <c r="M20" t="n">
-        <v>20.0</v>
+        <v>500.0</v>
       </c>
       <c r="N20" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="O20" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="P20" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="Q20" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="R20" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="S20" t="s">
-        <v>715</v>
+        <v>409</v>
       </c>
       <c r="T20" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="U20" t="s">
         <v>803</v>
@@ -12562,70 +12428,72 @@
         <v>828</v>
       </c>
       <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
+      <c r="Z20" t="s">
+        <v>835</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>835</v>
+      </c>
       <c r="AB20" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="AC20"/>
-      <c r="AD20"/>
+      <c r="AD20" t="s">
+        <v>4</v>
+      </c>
       <c r="AE20" t="s">
-        <v>350</v>
+        <v>840</v>
       </c>
       <c r="AF20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B21" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C21" t="s">
-        <v>518</v>
-      </c>
-      <c r="D21" t="s">
-        <v>551</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D21"/>
       <c r="E21" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="F21" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="G21" t="n">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="H21" t="s">
         <v>604</v>
       </c>
-      <c r="I21" t="n">
-        <v>7960.0</v>
-      </c>
+      <c r="I21"/>
       <c r="J21"/>
-      <c r="K21" t="n">
-        <v>95.0</v>
-      </c>
+      <c r="K21"/>
       <c r="L21"/>
-      <c r="M21"/>
+      <c r="M21" t="n">
+        <v>0.0</v>
+      </c>
       <c r="N21" t="s">
-        <v>625</v>
-      </c>
-      <c r="O21" t="s">
-        <v>666</v>
-      </c>
-      <c r="P21"/>
+        <v>616</v>
+      </c>
+      <c r="O21"/>
+      <c r="P21" t="s">
+        <v>860</v>
+      </c>
       <c r="Q21" t="n">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="R21" t="s">
-        <v>551</v>
+        <v>860</v>
       </c>
       <c r="S21" t="s">
-        <v>716</v>
+        <v>8</v>
       </c>
       <c r="T21" t="s">
-        <v>759</v>
+        <v>273</v>
       </c>
       <c r="U21" t="s">
         <v>803</v>
@@ -12633,7 +12501,7 @@
       <c r="V21"/>
       <c r="W21"/>
       <c r="X21" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="Y21"/>
       <c r="Z21"/>
@@ -12642,78 +12510,80 @@
         <v>836</v>
       </c>
       <c r="AC21"/>
-      <c r="AD21"/>
-      <c r="AE21"/>
-      <c r="AF21"/>
+      <c r="AD21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>840</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>474</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>474</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>519</v>
-      </c>
-      <c r="D22"/>
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>549</v>
+      </c>
       <c r="E22" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F22" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>6.0</v>
-      </c>
+        <v>32.0</v>
+      </c>
+      <c r="G22"/>
       <c r="H22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I22" t="n">
-        <v>5000000.0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>150000.0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="M22" t="n">
+        <v>1000000.0</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22" t="s">
+        <v>617</v>
+      </c>
+      <c r="O22" t="s">
+        <v>660</v>
+      </c>
+      <c r="P22" t="s">
+        <v>861</v>
+      </c>
+      <c r="Q22" t="n">
         <v>15.0</v>
       </c>
-      <c r="N22" t="s">
-        <v>626</v>
-      </c>
-      <c r="O22"/>
-      <c r="P22" t="s">
-        <v>869</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5.0</v>
-      </c>
       <c r="R22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="S22" t="s">
-        <v>717</v>
-      </c>
-      <c r="T22" t="s">
-        <v>760</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="T22"/>
       <c r="U22" t="s">
         <v>803</v>
       </c>
-      <c r="V22" t="s">
-        <v>811</v>
-      </c>
+      <c r="V22"/>
       <c r="W22"/>
-      <c r="X22"/>
+      <c r="X22" t="s">
+        <v>827</v>
+      </c>
       <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AA22"/>
+      <c r="Z22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>835</v>
+      </c>
       <c r="AB22" t="s">
         <v>836</v>
       </c>
@@ -12721,94 +12591,68 @@
       <c r="AD22" t="s">
         <v>4</v>
       </c>
-      <c r="AE22"/>
+      <c r="AE22" t="s">
+        <v>304</v>
+      </c>
       <c r="AF22" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>488</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>488</v>
       </c>
       <c r="C23" t="s">
-        <v>520</v>
+        <v>790</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>578</v>
-      </c>
-      <c r="F23" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>604</v>
-      </c>
-      <c r="I23" t="n">
-        <v>76233.0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>76233.0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>31.0</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
       <c r="N23" t="s">
-        <v>627</v>
+        <v>213</v>
       </c>
       <c r="O23"/>
       <c r="P23" t="s">
-        <v>870</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5.0</v>
-      </c>
+        <v>881</v>
+      </c>
+      <c r="Q23"/>
       <c r="R23" t="s">
-        <v>870</v>
+        <v>881</v>
       </c>
       <c r="S23" t="s">
-        <v>718</v>
-      </c>
-      <c r="T23" t="s">
-        <v>761</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="T23"/>
       <c r="U23" t="s">
-        <v>803</v>
-      </c>
-      <c r="V23" t="s">
-        <v>813</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="V23"/>
       <c r="W23"/>
-      <c r="X23" t="s">
-        <v>827</v>
-      </c>
+      <c r="X23"/>
       <c r="Y23"/>
-      <c r="Z23" t="s">
-        <v>835</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>2</v>
-      </c>
+      <c r="Z23"/>
+      <c r="AA23"/>
       <c r="AB23" t="s">
-        <v>836</v>
-      </c>
-      <c r="AC23"/>
-      <c r="AD23" t="s">
+        <v>837</v>
+      </c>
+      <c r="AC23" t="s">
         <v>4</v>
       </c>
+      <c r="AD23"/>
       <c r="AE23" t="s">
-        <v>839</v>
+        <v>208</v>
       </c>
       <c r="AF23" t="s">
         <v>849</v>
@@ -12816,64 +12660,82 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B24" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C24" t="s">
-        <v>521</v>
-      </c>
-      <c r="D24"/>
+        <v>512</v>
+      </c>
+      <c r="D24" t="s">
+        <v>550</v>
+      </c>
       <c r="E24" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F24" t="n">
-        <v>67.0</v>
+        <v>18.0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H24" t="s">
         <v>604</v>
       </c>
-      <c r="I24"/>
-      <c r="J24"/>
+      <c r="I24" t="n">
+        <v>351000.0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>351000.0</v>
+      </c>
       <c r="K24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="M24"/>
+        <v>45.0</v>
+      </c>
+      <c r="L24"/>
+      <c r="M24" t="n">
+        <v>37000.0</v>
+      </c>
       <c r="N24" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="O24" t="s">
-        <v>667</v>
-      </c>
-      <c r="P24"/>
+        <v>661</v>
+      </c>
+      <c r="P24" t="s">
+        <v>862</v>
+      </c>
       <c r="Q24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R24"/>
+        <v>43.0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>862</v>
+      </c>
       <c r="S24" t="s">
-        <v>719</v>
+        <v>512</v>
       </c>
       <c r="T24" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="U24" t="s">
         <v>803</v>
       </c>
-      <c r="V24"/>
-      <c r="W24"/>
+      <c r="V24" t="s">
+        <v>810</v>
+      </c>
+      <c r="W24" t="s">
+        <v>824</v>
+      </c>
       <c r="X24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="Y24"/>
-      <c r="Z24"/>
-      <c r="AA24"/>
+      <c r="Z24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>835</v>
+      </c>
       <c r="AB24" t="s">
         <v>836</v>
       </c>
@@ -12884,62 +12746,64 @@
       <c r="AE24" t="s">
         <v>839</v>
       </c>
-      <c r="AF24"/>
+      <c r="AF24" t="s">
+        <v>849</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>476</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>476</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>476</v>
-      </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D25"/>
       <c r="E25" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="F25" t="n">
-        <v>43.0</v>
+        <v>9.0</v>
       </c>
       <c r="G25" t="n">
-        <v>43.0</v>
+        <v>9.0</v>
       </c>
       <c r="H25" t="s">
         <v>605</v>
       </c>
       <c r="I25" t="n">
-        <v>1000000.0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1000000.0</v>
-      </c>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25" t="n">
-        <v>100.0</v>
-      </c>
+        <v>1190000.0</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="M25"/>
       <c r="N25" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="O25" t="s">
-        <v>656</v>
-      </c>
-      <c r="P25"/>
+        <v>662</v>
+      </c>
+      <c r="P25" t="s">
+        <v>863</v>
+      </c>
       <c r="Q25" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="R25" t="s">
-        <v>17</v>
+        <v>863</v>
       </c>
       <c r="S25" t="s">
-        <v>476</v>
+        <v>11</v>
       </c>
       <c r="T25" t="s">
-        <v>313</v>
+        <v>754</v>
       </c>
       <c r="U25" t="s">
         <v>803</v>
@@ -12947,24 +12811,20 @@
       <c r="V25"/>
       <c r="W25"/>
       <c r="X25" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="Y25"/>
-      <c r="Z25" t="s">
-        <v>835</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>2</v>
-      </c>
+      <c r="Z25"/>
+      <c r="AA25"/>
       <c r="AB25" t="s">
         <v>836</v>
       </c>
       <c r="AC25"/>
       <c r="AD25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="s">
-        <v>371</v>
+        <v>208</v>
       </c>
       <c r="AF25" t="s">
         <v>848</v>
@@ -12972,85 +12832,81 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B26" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C26" t="s">
-        <v>522</v>
-      </c>
-      <c r="D26" t="s">
-        <v>395</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="D26"/>
       <c r="E26" t="s">
-        <v>581</v>
+        <v>12</v>
       </c>
       <c r="F26" t="n">
-        <v>26.0</v>
+        <v>9.0</v>
       </c>
       <c r="G26" t="n">
-        <v>26.0</v>
+        <v>9.0</v>
       </c>
       <c r="H26" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I26" t="n">
-        <v>839666.0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>839666.0</v>
-      </c>
+        <v>40000.0</v>
+      </c>
+      <c r="J26"/>
       <c r="K26" t="n">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="L26" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1300.0</v>
-      </c>
+        <v>90.0</v>
+      </c>
+      <c r="M26"/>
       <c r="N26" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="O26" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="P26" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="Q26" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="R26" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="S26" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="T26" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="U26" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="V26"/>
       <c r="W26"/>
       <c r="X26" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="Y26"/>
-      <c r="Z26"/>
+      <c r="Z26" t="s">
+        <v>4</v>
+      </c>
       <c r="AA26"/>
       <c r="AB26" t="s">
         <v>836</v>
       </c>
       <c r="AC26"/>
       <c r="AD26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="AF26" t="s">
         <v>848</v>
@@ -13058,85 +12914,63 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="B27" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>793</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="F27" t="n">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
       <c r="G27" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>605</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1941000.0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>102774.0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>270.0</v>
-      </c>
-      <c r="N27" t="s">
-        <v>631</v>
-      </c>
-      <c r="O27" t="s">
-        <v>669</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
       <c r="P27" t="s">
-        <v>872</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>9.0</v>
-      </c>
+        <v>888</v>
+      </c>
+      <c r="Q27"/>
       <c r="R27" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="S27" t="s">
-        <v>721</v>
-      </c>
-      <c r="T27" t="s">
-        <v>743</v>
-      </c>
+        <v>801</v>
+      </c>
+      <c r="T27"/>
       <c r="U27" t="s">
         <v>803</v>
       </c>
       <c r="V27"/>
       <c r="W27"/>
       <c r="X27" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="Y27"/>
-      <c r="Z27" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z27"/>
       <c r="AA27"/>
       <c r="AB27" t="s">
-        <v>836</v>
-      </c>
-      <c r="AC27"/>
-      <c r="AD27" t="s">
-        <v>4</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD27"/>
       <c r="AE27" t="s">
-        <v>371</v>
+        <v>847</v>
       </c>
       <c r="AF27" t="s">
         <v>848</v>
@@ -13144,87 +12978,91 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>523</v>
-      </c>
-      <c r="D28"/>
+        <v>514</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
       <c r="E28" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="F28" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="G28" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="H28" t="s">
         <v>605</v>
       </c>
       <c r="I28" t="n">
-        <v>2662777.0</v>
+        <v>32000.0</v>
       </c>
       <c r="J28" t="n">
-        <v>2662777.0</v>
+        <v>32000.0</v>
       </c>
       <c r="K28" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="L28"/>
-      <c r="M28" t="n">
-        <v>2560.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M28"/>
       <c r="N28" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="O28" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="P28" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="Q28" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="R28" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="S28" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="T28" t="s">
-        <v>78</v>
+        <v>756</v>
       </c>
       <c r="U28" t="s">
         <v>803</v>
       </c>
       <c r="V28" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="W28" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="X28" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="Y28"/>
       <c r="Z28" t="s">
         <v>835</v>
       </c>
-      <c r="AA28"/>
+      <c r="AA28" t="s">
+        <v>835</v>
+      </c>
       <c r="AB28" t="s">
         <v>836</v>
       </c>
       <c r="AC28"/>
       <c r="AD28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="s">
-        <v>840</v>
+        <v>304</v>
       </c>
       <c r="AF28" t="s">
         <v>848</v>
@@ -13232,81 +13070,79 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>471</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>471</v>
       </c>
       <c r="C29" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F29" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H29" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I29" t="n">
-        <v>190268.0</v>
+        <v>22730.0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0</v>
+        <v>22000.0</v>
       </c>
       <c r="K29" t="n">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
       <c r="L29"/>
-      <c r="M29"/>
+      <c r="M29" t="n">
+        <v>1043.0</v>
+      </c>
       <c r="N29" t="s">
-        <v>633</v>
-      </c>
-      <c r="O29"/>
+        <v>622</v>
+      </c>
+      <c r="O29" t="s">
+        <v>664</v>
+      </c>
       <c r="P29" t="s">
-        <v>855</v>
+        <v>866</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="R29" t="s">
-        <v>855</v>
+        <v>866</v>
       </c>
       <c r="S29" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="T29" t="s">
-        <v>764</v>
+        <v>174</v>
       </c>
       <c r="U29" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="V29"/>
       <c r="W29"/>
-      <c r="X29" t="s">
-        <v>832</v>
-      </c>
+      <c r="X29"/>
       <c r="Y29"/>
-      <c r="Z29" t="s">
-        <v>835</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>835</v>
-      </c>
+      <c r="Z29"/>
+      <c r="AA29"/>
       <c r="AB29" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="AC29"/>
       <c r="AD29" t="s">
         <v>4</v>
       </c>
       <c r="AE29" t="s">
-        <v>88</v>
+        <v>841</v>
       </c>
       <c r="AF29" t="s">
         <v>848</v>
@@ -13314,66 +13150,76 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>525</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="D30"/>
       <c r="E30" t="s">
-        <v>585</v>
-      </c>
-      <c r="F30"/>
+        <v>574</v>
+      </c>
+      <c r="F30" t="n">
+        <v>7.0</v>
+      </c>
       <c r="G30" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="H30" t="s">
-        <v>604</v>
-      </c>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
+        <v>605</v>
+      </c>
+      <c r="I30" t="n">
+        <v>42189.0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>31000.0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>15.0</v>
+      </c>
       <c r="N30" t="s">
-        <v>634</v>
-      </c>
-      <c r="O30"/>
-      <c r="P30"/>
+        <v>623</v>
+      </c>
+      <c r="O30" t="s">
+        <v>660</v>
+      </c>
+      <c r="P30" t="s">
+        <v>867</v>
+      </c>
       <c r="Q30" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="R30" t="s">
-        <v>14</v>
+        <v>867</v>
       </c>
       <c r="S30" t="s">
-        <v>724</v>
-      </c>
-      <c r="T30"/>
+        <v>714</v>
+      </c>
+      <c r="T30" t="s">
+        <v>757</v>
+      </c>
       <c r="U30" t="s">
         <v>803</v>
       </c>
-      <c r="V30" t="s">
-        <v>815</v>
-      </c>
-      <c r="W30" t="s">
-        <v>826</v>
-      </c>
+      <c r="V30"/>
+      <c r="W30"/>
       <c r="X30" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="Y30"/>
       <c r="Z30" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>2</v>
-      </c>
+        <v>835</v>
+      </c>
+      <c r="AA30"/>
       <c r="AB30" t="s">
         <v>836</v>
       </c>
@@ -13382,68 +13228,68 @@
         <v>4</v>
       </c>
       <c r="AE30" t="s">
-        <v>842</v>
+        <v>350</v>
       </c>
       <c r="AF30" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B31" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C31" t="s">
-        <v>526</v>
-      </c>
-      <c r="D31" t="s">
-        <v>553</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="D31"/>
       <c r="E31" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="F31" t="n">
-        <v>27.0</v>
+        <v>6.0</v>
       </c>
       <c r="G31" t="n">
-        <v>27.0</v>
+        <v>6.0</v>
       </c>
       <c r="H31" t="s">
         <v>604</v>
       </c>
       <c r="I31" t="n">
-        <v>89889.0</v>
+        <v>388120.0</v>
       </c>
       <c r="J31"/>
       <c r="K31" t="n">
         <v>0.0</v>
       </c>
       <c r="L31" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="M31"/>
+        <v>30.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>20.0</v>
+      </c>
       <c r="N31" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="O31" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="P31" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="Q31" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="R31" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="S31" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="T31" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="U31" t="s">
         <v>803</v>
@@ -13454,185 +13300,157 @@
         <v>828</v>
       </c>
       <c r="Y31"/>
-      <c r="Z31" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>835</v>
-      </c>
+      <c r="Z31"/>
+      <c r="AA31"/>
       <c r="AB31" t="s">
         <v>836</v>
       </c>
       <c r="AC31"/>
-      <c r="AD31" t="s">
-        <v>4</v>
-      </c>
+      <c r="AD31"/>
       <c r="AE31" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>848</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="AF31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B32" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C32" t="s">
-        <v>527</v>
-      </c>
-      <c r="D32"/>
+        <v>518</v>
+      </c>
+      <c r="D32" t="s">
+        <v>551</v>
+      </c>
       <c r="E32" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="F32" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.0</v>
+        <v>18.0</v>
       </c>
       <c r="H32" t="s">
         <v>604</v>
       </c>
       <c r="I32" t="n">
-        <v>315000.0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>315000.0</v>
-      </c>
+        <v>7960.0</v>
+      </c>
+      <c r="J32"/>
       <c r="K32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>52.0</v>
-      </c>
+        <v>95.0</v>
+      </c>
+      <c r="L32"/>
+      <c r="M32"/>
       <c r="N32" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="O32" t="s">
-        <v>671</v>
-      </c>
-      <c r="P32" t="s">
-        <v>875</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="P32"/>
       <c r="Q32" t="n">
         <v>1.0</v>
       </c>
       <c r="R32" t="s">
-        <v>875</v>
+        <v>551</v>
       </c>
       <c r="S32" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="T32" t="s">
-        <v>745</v>
+        <v>759</v>
       </c>
       <c r="U32" t="s">
-        <v>804</v>
-      </c>
-      <c r="V32" t="s">
-        <v>816</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="V32"/>
       <c r="W32"/>
       <c r="X32" t="s">
         <v>828</v>
       </c>
       <c r="Y32"/>
-      <c r="Z32" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z32"/>
+      <c r="AA32"/>
       <c r="AB32" t="s">
         <v>836</v>
       </c>
       <c r="AC32"/>
       <c r="AD32"/>
-      <c r="AE32" t="s">
-        <v>843</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>848</v>
-      </c>
+      <c r="AE32"/>
+      <c r="AF32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B33" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C33" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="F33" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="G33" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="H33" t="s">
         <v>605</v>
       </c>
       <c r="I33" t="n">
-        <v>83006.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J33" t="n">
-        <v>83006.0</v>
+        <v>150000.0</v>
       </c>
       <c r="K33" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="L33" t="n">
-        <v>93.0</v>
+        <v>74.0</v>
       </c>
       <c r="M33" t="n">
-        <v>28.0</v>
+        <v>15.0</v>
       </c>
       <c r="N33" t="s">
-        <v>637</v>
-      </c>
-      <c r="O33" t="s">
-        <v>672</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="O33"/>
       <c r="P33" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="R33" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="S33" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="T33" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="U33" t="s">
-        <v>804</v>
-      </c>
-      <c r="V33"/>
+        <v>803</v>
+      </c>
+      <c r="V33" t="s">
+        <v>811</v>
+      </c>
       <c r="W33"/>
-      <c r="X33" t="s">
-        <v>828</v>
-      </c>
+      <c r="X33"/>
       <c r="Y33"/>
-      <c r="Z33" t="s">
-        <v>835</v>
-      </c>
+      <c r="Z33"/>
       <c r="AA33"/>
       <c r="AB33" t="s">
         <v>836</v>
@@ -13641,500 +13459,548 @@
       <c r="AD33" t="s">
         <v>4</v>
       </c>
-      <c r="AE33" t="s">
-        <v>344</v>
-      </c>
+      <c r="AE33"/>
       <c r="AF33" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>483</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>483</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="F34" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G34"/>
+        <v>18.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>18.0</v>
+      </c>
       <c r="H34" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I34" t="n">
-        <v>245000.0</v>
-      </c>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
+        <v>76233.0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>76233.0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>31.0</v>
+      </c>
       <c r="N34" t="s">
-        <v>46</v>
+        <v>627</v>
       </c>
       <c r="O34"/>
       <c r="P34" t="s">
-        <v>877</v>
-      </c>
-      <c r="Q34"/>
+        <v>870</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5.0</v>
+      </c>
       <c r="R34" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="S34" t="s">
-        <v>728</v>
-      </c>
-      <c r="T34"/>
+        <v>718</v>
+      </c>
+      <c r="T34" t="s">
+        <v>761</v>
+      </c>
       <c r="U34" t="s">
         <v>803</v>
       </c>
       <c r="V34" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="W34"/>
       <c r="X34" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="Y34"/>
       <c r="Z34" t="s">
         <v>835</v>
       </c>
-      <c r="AA34"/>
+      <c r="AA34" t="s">
+        <v>2</v>
+      </c>
       <c r="AB34" t="s">
-        <v>838</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>4</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="AC34"/>
       <c r="AD34" t="s">
         <v>4</v>
       </c>
       <c r="AE34" t="s">
-        <v>844</v>
-      </c>
-      <c r="AF34"/>
+        <v>839</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>849</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>475</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>475</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>521</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>579</v>
       </c>
       <c r="F35" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35" t="n">
-        <v>1221156.0</v>
-      </c>
+        <v>67.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>604</v>
+      </c>
+      <c r="I35"/>
       <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
+      <c r="K35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>150.0</v>
+      </c>
       <c r="M35"/>
       <c r="N35" t="s">
-        <v>639</v>
-      </c>
-      <c r="O35"/>
-      <c r="P35" t="s">
-        <v>839</v>
-      </c>
-      <c r="Q35"/>
-      <c r="R35" t="s">
-        <v>839</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="O35" t="s">
+        <v>667</v>
+      </c>
+      <c r="P35"/>
+      <c r="Q35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R35"/>
       <c r="S35" t="s">
-        <v>47</v>
-      </c>
-      <c r="T35"/>
+        <v>719</v>
+      </c>
+      <c r="T35" t="s">
+        <v>743</v>
+      </c>
       <c r="U35" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="V35"/>
       <c r="W35"/>
-      <c r="X35"/>
+      <c r="X35" t="s">
+        <v>830</v>
+      </c>
       <c r="Y35"/>
       <c r="Z35"/>
       <c r="AA35"/>
       <c r="AB35" t="s">
-        <v>838</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD35"/>
-      <c r="AE35"/>
+        <v>836</v>
+      </c>
+      <c r="AC35"/>
+      <c r="AD35" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>839</v>
+      </c>
       <c r="AF35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>476</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>476</v>
       </c>
       <c r="C36" t="s">
-        <v>531</v>
-      </c>
-      <c r="D36"/>
+        <v>476</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
       <c r="E36" t="s">
-        <v>96</v>
+        <v>580</v>
       </c>
       <c r="F36" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G36"/>
-      <c r="H36"/>
+        <v>43.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>605</v>
+      </c>
       <c r="I36" t="n">
-        <v>119952.0</v>
-      </c>
-      <c r="J36"/>
+        <v>1000000.0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1000000.0</v>
+      </c>
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36" t="n">
-        <v>8.0</v>
+        <v>100.0</v>
       </c>
       <c r="N36" t="s">
-        <v>98</v>
-      </c>
-      <c r="O36"/>
-      <c r="P36" t="s">
-        <v>864</v>
-      </c>
-      <c r="Q36"/>
+        <v>629</v>
+      </c>
+      <c r="O36" t="s">
+        <v>656</v>
+      </c>
+      <c r="P36"/>
+      <c r="Q36" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R36" t="s">
-        <v>864</v>
+        <v>17</v>
       </c>
       <c r="S36" t="s">
-        <v>729</v>
+        <v>476</v>
       </c>
       <c r="T36" t="s">
-        <v>97</v>
+        <v>313</v>
       </c>
       <c r="U36" t="s">
-        <v>804</v>
-      </c>
-      <c r="V36" t="s">
-        <v>817</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="V36"/>
       <c r="W36"/>
       <c r="X36" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="Y36"/>
       <c r="Z36" t="s">
-        <v>4</v>
+        <v>835</v>
       </c>
       <c r="AA36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB36" t="s">
         <v>836</v>
       </c>
-      <c r="AC36" t="s">
-        <v>2</v>
-      </c>
+      <c r="AC36"/>
       <c r="AD36" t="s">
         <v>4</v>
       </c>
-      <c r="AE36"/>
+      <c r="AE36" t="s">
+        <v>371</v>
+      </c>
       <c r="AF36" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B37" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>522</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>395</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>581</v>
       </c>
       <c r="F37" t="n">
-        <v>11.0</v>
+        <v>26.0</v>
       </c>
       <c r="G37" t="n">
-        <v>4.0</v>
+        <v>26.0</v>
       </c>
       <c r="H37" t="s">
         <v>604</v>
       </c>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
+      <c r="I37" t="n">
+        <v>839666.0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>839666.0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>630</v>
+      </c>
+      <c r="O37" t="s">
+        <v>668</v>
+      </c>
+      <c r="P37" t="s">
+        <v>871</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>11.0</v>
+      </c>
       <c r="R37" t="s">
-        <v>107</v>
+        <v>871</v>
       </c>
       <c r="S37" t="s">
-        <v>106</v>
-      </c>
-      <c r="T37"/>
+        <v>720</v>
+      </c>
+      <c r="T37" t="s">
+        <v>763</v>
+      </c>
       <c r="U37" t="s">
         <v>803</v>
       </c>
       <c r="V37"/>
       <c r="W37"/>
-      <c r="X37"/>
+      <c r="X37" t="s">
+        <v>828</v>
+      </c>
       <c r="Y37"/>
-      <c r="Z37" t="s">
-        <v>835</v>
-      </c>
+      <c r="Z37"/>
       <c r="AA37"/>
-      <c r="AB37"/>
+      <c r="AB37" t="s">
+        <v>836</v>
+      </c>
       <c r="AC37"/>
       <c r="AD37" t="s">
         <v>4</v>
       </c>
-      <c r="AE37"/>
-      <c r="AF37"/>
+      <c r="AE37" t="s">
+        <v>350</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>483</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>483</v>
       </c>
       <c r="C38" t="s">
-        <v>787</v>
+        <v>529</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F38" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="G38"/>
-      <c r="H38"/>
+      <c r="H38" t="s">
+        <v>605</v>
+      </c>
       <c r="I38" t="n">
-        <v>16527.0</v>
+        <v>245000.0</v>
       </c>
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="O38"/>
       <c r="P38" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="Q38"/>
       <c r="R38" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="S38" t="s">
-        <v>796</v>
+        <v>728</v>
       </c>
       <c r="T38"/>
       <c r="U38" t="s">
         <v>803</v>
       </c>
       <c r="V38" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="W38"/>
       <c r="X38" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Y38"/>
       <c r="Z38" t="s">
-        <v>4</v>
+        <v>835</v>
       </c>
       <c r="AA38"/>
       <c r="AB38" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="AC38" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD38"/>
+        <v>4</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>4</v>
+      </c>
       <c r="AE38" t="s">
-        <v>60</v>
+        <v>844</v>
       </c>
       <c r="AF38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>176</v>
-      </c>
-      <c r="B39"/>
+        <v>478</v>
+      </c>
+      <c r="B39" t="s">
+        <v>478</v>
+      </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F39" t="n">
-        <v>29.0</v>
+        <v>18.0</v>
       </c>
       <c r="G39" t="n">
-        <v>24.0</v>
+        <v>8.0</v>
       </c>
       <c r="H39" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I39" t="n">
-        <v>1221985.0</v>
+        <v>1941000.0</v>
       </c>
       <c r="J39" t="n">
-        <v>1221985.0</v>
+        <v>102774.0</v>
       </c>
       <c r="K39" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="L39"/>
+        <v>0.0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>150.0</v>
+      </c>
       <c r="M39" t="n">
-        <v>600.0</v>
+        <v>270.0</v>
       </c>
       <c r="N39" t="s">
-        <v>182</v>
-      </c>
-      <c r="O39"/>
+        <v>631</v>
+      </c>
+      <c r="O39" t="s">
+        <v>669</v>
+      </c>
       <c r="P39" t="s">
-        <v>879</v>
-      </c>
-      <c r="Q39"/>
+        <v>872</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>9.0</v>
+      </c>
       <c r="R39" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="S39" t="s">
-        <v>176</v>
+        <v>721</v>
       </c>
       <c r="T39" t="s">
-        <v>768</v>
+        <v>743</v>
       </c>
       <c r="U39" t="s">
         <v>803</v>
       </c>
-      <c r="V39" t="s">
-        <v>819</v>
-      </c>
+      <c r="V39"/>
       <c r="W39"/>
       <c r="X39" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="Y39"/>
       <c r="Z39" t="s">
-        <v>835</v>
+        <v>4</v>
       </c>
       <c r="AA39"/>
       <c r="AB39" t="s">
         <v>836</v>
       </c>
-      <c r="AC39" t="s">
-        <v>2</v>
-      </c>
+      <c r="AC39"/>
       <c r="AD39" t="s">
         <v>4</v>
       </c>
       <c r="AE39" t="s">
-        <v>839</v>
-      </c>
-      <c r="AF39"/>
+        <v>371</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="B40" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="C40" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>592</v>
-      </c>
-      <c r="F40" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="H40" t="s">
-        <v>605</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
-      <c r="K40" t="n">
-        <v>50.0</v>
-      </c>
+      <c r="K40"/>
       <c r="L40"/>
-      <c r="M40" t="n">
-        <v>323.0</v>
-      </c>
-      <c r="N40" t="s">
-        <v>795</v>
-      </c>
+      <c r="M40"/>
+      <c r="N40"/>
       <c r="O40"/>
       <c r="P40" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="Q40"/>
       <c r="R40" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="S40" t="s">
-        <v>797</v>
-      </c>
-      <c r="T40" t="s">
-        <v>264</v>
-      </c>
-      <c r="U40" t="s">
-        <v>803</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="T40"/>
+      <c r="U40"/>
       <c r="V40"/>
       <c r="W40"/>
-      <c r="X40" t="s">
-        <v>828</v>
-      </c>
+      <c r="X40"/>
       <c r="Y40"/>
       <c r="Z40"/>
       <c r="AA40"/>
-      <c r="AB40" t="s">
-        <v>836</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>2</v>
-      </c>
+      <c r="AB40"/>
+      <c r="AC40"/>
       <c r="AD40" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE40" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AF40" t="s">
         <v>848</v>
@@ -14142,47 +14008,41 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="B41" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C41" t="s">
-        <v>789</v>
+        <v>540</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>593</v>
-      </c>
-      <c r="F41" t="n">
-        <v>84.0</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="F41"/>
       <c r="G41"/>
       <c r="H41"/>
-      <c r="I41" t="n">
-        <v>50000.0</v>
-      </c>
+      <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
-      <c r="N41" t="s">
-        <v>206</v>
-      </c>
+      <c r="N41"/>
       <c r="O41"/>
       <c r="P41" t="s">
-        <v>839</v>
+        <v>885</v>
       </c>
       <c r="Q41"/>
       <c r="R41" t="s">
-        <v>839</v>
+        <v>885</v>
       </c>
       <c r="S41" t="s">
-        <v>789</v>
+        <v>335</v>
       </c>
       <c r="T41"/>
       <c r="U41" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="V41"/>
       <c r="W41"/>
@@ -14191,7 +14051,7 @@
       <c r="Z41"/>
       <c r="AA41"/>
       <c r="AB41" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AC41" t="s">
         <v>4</v>
@@ -14200,113 +14060,137 @@
         <v>4</v>
       </c>
       <c r="AE41" t="s">
-        <v>839</v>
+        <v>208</v>
       </c>
       <c r="AF41" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="B42" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="C42" t="s">
-        <v>790</v>
+        <v>541</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>594</v>
-      </c>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
+        <v>340</v>
+      </c>
+      <c r="F42" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>605</v>
+      </c>
+      <c r="I42" t="n">
+        <v>44010.0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>44010.0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>17.0</v>
+      </c>
       <c r="M42"/>
       <c r="N42" t="s">
-        <v>213</v>
+        <v>342</v>
       </c>
       <c r="O42"/>
       <c r="P42" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="Q42"/>
       <c r="R42" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="S42" t="s">
-        <v>798</v>
-      </c>
-      <c r="T42"/>
+        <v>736</v>
+      </c>
+      <c r="T42" t="s">
+        <v>772</v>
+      </c>
       <c r="U42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="V42"/>
       <c r="W42"/>
-      <c r="X42"/>
+      <c r="X42" t="s">
+        <v>828</v>
+      </c>
       <c r="Y42"/>
       <c r="Z42"/>
-      <c r="AA42"/>
+      <c r="AA42" t="s">
+        <v>4</v>
+      </c>
       <c r="AB42" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AC42" t="s">
         <v>4</v>
       </c>
-      <c r="AD42"/>
+      <c r="AD42" t="s">
+        <v>2</v>
+      </c>
       <c r="AE42" t="s">
-        <v>208</v>
+        <v>846</v>
       </c>
       <c r="AF42" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>214</v>
-      </c>
-      <c r="B43"/>
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
       <c r="C43" t="s">
-        <v>214</v>
-      </c>
-      <c r="D43" t="s">
-        <v>215</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D43"/>
       <c r="E43" t="s">
-        <v>595</v>
-      </c>
-      <c r="F43"/>
+        <v>49</v>
+      </c>
+      <c r="F43" t="n">
+        <v>11.0</v>
+      </c>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="n">
-        <v>100000.0</v>
+        <v>1221156.0</v>
       </c>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43" t="s">
-        <v>220</v>
+        <v>639</v>
       </c>
       <c r="O43"/>
-      <c r="P43"/>
+      <c r="P43" t="s">
+        <v>839</v>
+      </c>
       <c r="Q43"/>
       <c r="R43" t="s">
-        <v>215</v>
+        <v>839</v>
       </c>
       <c r="S43" t="s">
-        <v>214</v>
-      </c>
-      <c r="T43" t="s">
-        <v>219</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="T43"/>
       <c r="U43" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="V43"/>
       <c r="W43"/>
@@ -14315,75 +14199,95 @@
       <c r="Z43"/>
       <c r="AA43"/>
       <c r="AB43" t="s">
-        <v>837</v>
-      </c>
-      <c r="AC43"/>
-      <c r="AD43" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>839</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD43"/>
+      <c r="AE43"/>
       <c r="AF43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>490</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>490</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>791</v>
-      </c>
-      <c r="D44" t="s">
-        <v>230</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="D44"/>
       <c r="E44" t="s">
-        <v>596</v>
-      </c>
-      <c r="F44"/>
-      <c r="G44"/>
+        <v>583</v>
+      </c>
+      <c r="F44" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>9.0</v>
+      </c>
       <c r="H44" t="s">
         <v>605</v>
       </c>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
+      <c r="I44" t="n">
+        <v>2662777.0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2662777.0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>19.0</v>
+      </c>
       <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
+      <c r="M44" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>632</v>
+      </c>
+      <c r="O44" t="s">
+        <v>670</v>
+      </c>
+      <c r="P44" t="s">
+        <v>873</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.0</v>
+      </c>
       <c r="R44" t="s">
-        <v>230</v>
+        <v>873</v>
       </c>
       <c r="S44" t="s">
-        <v>799</v>
+        <v>722</v>
       </c>
       <c r="T44" t="s">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="U44" t="s">
         <v>803</v>
       </c>
-      <c r="V44"/>
-      <c r="W44"/>
+      <c r="V44" t="s">
+        <v>814</v>
+      </c>
+      <c r="W44" t="s">
+        <v>822</v>
+      </c>
       <c r="X44" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="Y44"/>
-      <c r="Z44"/>
+      <c r="Z44" t="s">
+        <v>835</v>
+      </c>
       <c r="AA44"/>
       <c r="AB44" t="s">
         <v>836</v>
       </c>
-      <c r="AC44" t="s">
-        <v>2</v>
-      </c>
+      <c r="AC44"/>
       <c r="AD44" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE44" t="s">
         <v>840</v>
@@ -14394,67 +14298,79 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>491</v>
-      </c>
-      <c r="B45"/>
+        <v>280</v>
+      </c>
+      <c r="B45" t="s">
+        <v>280</v>
+      </c>
       <c r="C45" t="s">
-        <v>491</v>
-      </c>
-      <c r="D45"/>
+        <v>280</v>
+      </c>
+      <c r="D45" t="s">
+        <v>281</v>
+      </c>
       <c r="E45" t="s">
-        <v>597</v>
-      </c>
-      <c r="F45"/>
-      <c r="G45"/>
+        <v>282</v>
+      </c>
+      <c r="F45" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>69.0</v>
+      </c>
       <c r="H45" t="s">
-        <v>605</v>
-      </c>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
+        <v>604</v>
+      </c>
+      <c r="I45" t="n">
+        <v>320000.0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>320000.0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>18.0</v>
+      </c>
       <c r="L45"/>
-      <c r="M45"/>
+      <c r="M45" t="n">
+        <v>281.0</v>
+      </c>
       <c r="N45" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="O45"/>
-      <c r="P45" t="s">
-        <v>882</v>
-      </c>
+      <c r="P45"/>
       <c r="Q45"/>
       <c r="R45" t="s">
-        <v>882</v>
+        <v>281</v>
       </c>
       <c r="S45" t="s">
-        <v>491</v>
+        <v>280</v>
       </c>
       <c r="T45" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="U45" t="s">
-        <v>805</v>
-      </c>
-      <c r="V45"/>
+        <v>803</v>
+      </c>
+      <c r="V45" t="s">
+        <v>811</v>
+      </c>
       <c r="W45"/>
-      <c r="X45" t="s">
-        <v>827</v>
-      </c>
+      <c r="X45"/>
       <c r="Y45"/>
       <c r="Z45" t="s">
         <v>4</v>
       </c>
       <c r="AA45"/>
       <c r="AB45" t="s">
-        <v>837</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>4</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="AC45"/>
       <c r="AD45" t="s">
         <v>4</v>
       </c>
       <c r="AE45" t="s">
-        <v>694</v>
+        <v>208</v>
       </c>
       <c r="AF45" t="s">
         <v>848</v>
@@ -14462,71 +14378,81 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>252</v>
-      </c>
-      <c r="B46"/>
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
       <c r="C46" t="s">
-        <v>252</v>
-      </c>
-      <c r="D46" t="s">
-        <v>14</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="D46"/>
       <c r="E46" t="s">
-        <v>253</v>
-      </c>
-      <c r="F46"/>
+        <v>584</v>
+      </c>
+      <c r="F46" t="n">
+        <v>15.0</v>
+      </c>
       <c r="G46" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="s">
         <v>604</v>
       </c>
       <c r="I46" t="n">
-        <v>250000.0</v>
-      </c>
-      <c r="J46"/>
-      <c r="K46"/>
+        <v>190268.0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>26.0</v>
+      </c>
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46" t="s">
-        <v>258</v>
+        <v>633</v>
       </c>
       <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
+      <c r="P46" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R46" t="s">
-        <v>14</v>
+        <v>855</v>
       </c>
       <c r="S46" t="s">
-        <v>252</v>
+        <v>723</v>
       </c>
       <c r="T46" t="s">
-        <v>256</v>
-      </c>
-      <c r="U46"/>
-      <c r="V46" t="s">
-        <v>820</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="U46" t="s">
+        <v>804</v>
+      </c>
+      <c r="V46"/>
       <c r="W46"/>
       <c r="X46" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="Y46"/>
       <c r="Z46" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA46"/>
+        <v>835</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>835</v>
+      </c>
       <c r="AB46" t="s">
         <v>836</v>
       </c>
-      <c r="AC46" t="s">
-        <v>4</v>
-      </c>
+      <c r="AC46"/>
       <c r="AD46" t="s">
         <v>4</v>
       </c>
       <c r="AE46" t="s">
-        <v>840</v>
+        <v>88</v>
       </c>
       <c r="AF46" t="s">
         <v>848</v>
@@ -14534,119 +14460,119 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B47" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="C47" t="s">
-        <v>259</v>
-      </c>
-      <c r="D47"/>
+        <v>525</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
       <c r="E47" t="s">
-        <v>598</v>
-      </c>
-      <c r="F47" t="n">
-        <v>6.0</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="F47"/>
       <c r="G47" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="H47" t="s">
-        <v>605</v>
-      </c>
-      <c r="I47" t="n">
-        <v>136128.0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>136128.0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>50.0</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47" t="s">
-        <v>266</v>
+        <v>634</v>
       </c>
       <c r="O47"/>
-      <c r="P47" t="s">
-        <v>883</v>
-      </c>
-      <c r="Q47"/>
+      <c r="P47"/>
+      <c r="Q47" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R47" t="s">
-        <v>883</v>
+        <v>14</v>
       </c>
       <c r="S47" t="s">
-        <v>259</v>
-      </c>
-      <c r="T47" t="s">
-        <v>264</v>
-      </c>
+        <v>724</v>
+      </c>
+      <c r="T47"/>
       <c r="U47" t="s">
         <v>803</v>
       </c>
-      <c r="V47"/>
-      <c r="W47"/>
+      <c r="V47" t="s">
+        <v>815</v>
+      </c>
+      <c r="W47" t="s">
+        <v>826</v>
+      </c>
       <c r="X47" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="Y47"/>
       <c r="Z47" t="s">
         <v>4</v>
       </c>
-      <c r="AA47"/>
+      <c r="AA47" t="s">
+        <v>2</v>
+      </c>
       <c r="AB47" t="s">
         <v>836</v>
       </c>
-      <c r="AC47" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD47"/>
+      <c r="AC47"/>
+      <c r="AD47" t="s">
+        <v>4</v>
+      </c>
       <c r="AE47" t="s">
-        <v>371</v>
+        <v>842</v>
       </c>
       <c r="AF47" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B48" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C48" t="s">
-        <v>792</v>
+        <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="E48" t="s">
-        <v>599</v>
+        <v>108</v>
       </c>
       <c r="F48" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G48"/>
-      <c r="H48"/>
+        <v>11.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>604</v>
+      </c>
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48"/>
-      <c r="N48" t="s">
-        <v>279</v>
-      </c>
+      <c r="N48"/>
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
       <c r="R48" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="S48" t="s">
-        <v>800</v>
+        <v>106</v>
       </c>
       <c r="T48"/>
       <c r="U48" t="s">
@@ -14654,103 +14580,101 @@
       </c>
       <c r="V48"/>
       <c r="W48"/>
-      <c r="X48" t="s">
-        <v>828</v>
-      </c>
+      <c r="X48"/>
       <c r="Y48"/>
       <c r="Z48" t="s">
-        <v>4</v>
+        <v>835</v>
       </c>
       <c r="AA48"/>
-      <c r="AB48" t="s">
-        <v>836</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>2</v>
-      </c>
+      <c r="AB48"/>
+      <c r="AC48"/>
       <c r="AD48" t="s">
         <v>4</v>
       </c>
       <c r="AE48"/>
-      <c r="AF48" t="s">
-        <v>848</v>
-      </c>
+      <c r="AF48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>280</v>
+        <v>480</v>
       </c>
       <c r="B49" t="s">
-        <v>280</v>
+        <v>480</v>
       </c>
       <c r="C49" t="s">
-        <v>280</v>
+        <v>526</v>
       </c>
       <c r="D49" t="s">
-        <v>281</v>
+        <v>553</v>
       </c>
       <c r="E49" t="s">
-        <v>282</v>
+        <v>586</v>
       </c>
       <c r="F49" t="n">
-        <v>69.0</v>
+        <v>27.0</v>
       </c>
       <c r="G49" t="n">
-        <v>69.0</v>
+        <v>27.0</v>
       </c>
       <c r="H49" t="s">
         <v>604</v>
       </c>
       <c r="I49" t="n">
-        <v>320000.0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>320000.0</v>
-      </c>
+        <v>89889.0</v>
+      </c>
+      <c r="J49"/>
       <c r="K49" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L49"/>
-      <c r="M49" t="n">
-        <v>281.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="M49"/>
       <c r="N49" t="s">
-        <v>283</v>
-      </c>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49"/>
+        <v>635</v>
+      </c>
+      <c r="O49" t="s">
+        <v>664</v>
+      </c>
+      <c r="P49" t="s">
+        <v>874</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>12.0</v>
+      </c>
       <c r="R49" t="s">
-        <v>281</v>
+        <v>874</v>
       </c>
       <c r="S49" t="s">
-        <v>280</v>
+        <v>725</v>
       </c>
       <c r="T49" t="s">
-        <v>174</v>
+        <v>765</v>
       </c>
       <c r="U49" t="s">
         <v>803</v>
       </c>
-      <c r="V49" t="s">
-        <v>811</v>
-      </c>
+      <c r="V49"/>
       <c r="W49"/>
-      <c r="X49"/>
+      <c r="X49" t="s">
+        <v>828</v>
+      </c>
       <c r="Y49"/>
       <c r="Z49" t="s">
         <v>4</v>
       </c>
-      <c r="AA49"/>
+      <c r="AA49" t="s">
+        <v>835</v>
+      </c>
       <c r="AB49" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AC49"/>
       <c r="AD49" t="s">
         <v>4</v>
       </c>
       <c r="AE49" t="s">
-        <v>208</v>
+        <v>60</v>
       </c>
       <c r="AF49" t="s">
         <v>848</v>
@@ -14758,20 +14682,22 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B50" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C50" t="s">
-        <v>539</v>
-      </c>
-      <c r="D50"/>
+        <v>792</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
       <c r="E50" t="s">
-        <v>294</v>
+        <v>599</v>
       </c>
       <c r="F50" t="n">
-        <v>77.0</v>
+        <v>20.0</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
@@ -14781,33 +14707,29 @@
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="O50"/>
-      <c r="P50" t="s">
-        <v>884</v>
-      </c>
+      <c r="P50"/>
       <c r="Q50"/>
       <c r="R50" t="s">
-        <v>884</v>
+        <v>14</v>
       </c>
       <c r="S50" t="s">
-        <v>735</v>
+        <v>800</v>
       </c>
       <c r="T50"/>
       <c r="U50" t="s">
         <v>803</v>
       </c>
-      <c r="V50" t="s">
-        <v>821</v>
-      </c>
+      <c r="V50"/>
       <c r="W50"/>
       <c r="X50" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="Y50"/>
       <c r="Z50" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA50"/>
       <c r="AB50" t="s">
@@ -14816,147 +14738,175 @@
       <c r="AC50" t="s">
         <v>2</v>
       </c>
-      <c r="AD50"/>
+      <c r="AD50" t="s">
+        <v>4</v>
+      </c>
       <c r="AE50"/>
-      <c r="AF50"/>
+      <c r="AF50" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B51" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C51" t="s">
-        <v>540</v>
+        <v>259</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
-        <v>337</v>
-      </c>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
+        <v>598</v>
+      </c>
+      <c r="F51" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>605</v>
+      </c>
+      <c r="I51" t="n">
+        <v>136128.0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>136128.0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>50.0</v>
+      </c>
       <c r="L51"/>
       <c r="M51"/>
-      <c r="N51"/>
+      <c r="N51" t="s">
+        <v>266</v>
+      </c>
       <c r="O51"/>
       <c r="P51" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="Q51"/>
       <c r="R51" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="S51" t="s">
-        <v>335</v>
-      </c>
-      <c r="T51"/>
+        <v>259</v>
+      </c>
+      <c r="T51" t="s">
+        <v>264</v>
+      </c>
       <c r="U51" t="s">
         <v>803</v>
       </c>
       <c r="V51"/>
       <c r="W51"/>
-      <c r="X51"/>
+      <c r="X51" t="s">
+        <v>828</v>
+      </c>
       <c r="Y51"/>
-      <c r="Z51"/>
+      <c r="Z51" t="s">
+        <v>4</v>
+      </c>
       <c r="AA51"/>
       <c r="AB51" t="s">
         <v>836</v>
       </c>
       <c r="AC51" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AD51"/>
       <c r="AE51" t="s">
-        <v>208</v>
+        <v>371</v>
       </c>
       <c r="AF51" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="B52" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C52" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
-        <v>340</v>
+        <v>587</v>
       </c>
       <c r="F52" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="G52" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="H52" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I52" t="n">
-        <v>44010.0</v>
+        <v>315000.0</v>
       </c>
       <c r="J52" t="n">
-        <v>44010.0</v>
+        <v>315000.0</v>
       </c>
       <c r="K52" t="n">
         <v>0.0</v>
       </c>
       <c r="L52" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="M52"/>
+        <v>120.0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>52.0</v>
+      </c>
       <c r="N52" t="s">
-        <v>342</v>
-      </c>
-      <c r="O52"/>
+        <v>636</v>
+      </c>
+      <c r="O52" t="s">
+        <v>671</v>
+      </c>
       <c r="P52" t="s">
-        <v>886</v>
-      </c>
-      <c r="Q52"/>
+        <v>875</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R52" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="S52" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="T52" t="s">
-        <v>772</v>
+        <v>745</v>
       </c>
       <c r="U52" t="s">
-        <v>803</v>
-      </c>
-      <c r="V52"/>
+        <v>804</v>
+      </c>
+      <c r="V52" t="s">
+        <v>816</v>
+      </c>
       <c r="W52"/>
       <c r="X52" t="s">
         <v>828</v>
       </c>
       <c r="Y52"/>
-      <c r="Z52"/>
+      <c r="Z52" t="s">
+        <v>4</v>
+      </c>
       <c r="AA52" t="s">
         <v>4</v>
       </c>
       <c r="AB52" t="s">
-        <v>838</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>2</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="AC52"/>
+      <c r="AD52"/>
       <c r="AE52" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="AF52" t="s">
         <v>848</v>
@@ -14964,56 +14914,62 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B53" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C53" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="D53"/>
       <c r="E53" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="F53" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="G53" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="H53" t="s">
         <v>605</v>
       </c>
       <c r="I53" t="n">
-        <v>50562.0</v>
-      </c>
-      <c r="J53"/>
+        <v>83006.0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>83006.0</v>
+      </c>
       <c r="K53" t="n">
-        <v>45.0</v>
+        <v>20.0</v>
       </c>
       <c r="L53" t="n">
-        <v>106.0</v>
+        <v>93.0</v>
       </c>
       <c r="M53" t="n">
-        <v>450.0</v>
+        <v>28.0</v>
       </c>
       <c r="N53" t="s">
-        <v>353</v>
-      </c>
-      <c r="O53"/>
+        <v>637</v>
+      </c>
+      <c r="O53" t="s">
+        <v>672</v>
+      </c>
       <c r="P53" t="s">
-        <v>887</v>
-      </c>
-      <c r="Q53"/>
+        <v>876</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R53" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="S53" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="T53" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="U53" t="s">
         <v>804</v>
@@ -15025,154 +14981,136 @@
       </c>
       <c r="Y53"/>
       <c r="Z53" t="s">
-        <v>4</v>
+        <v>835</v>
       </c>
       <c r="AA53"/>
       <c r="AB53" t="s">
         <v>836</v>
       </c>
-      <c r="AC53" t="s">
-        <v>2</v>
-      </c>
+      <c r="AC53"/>
       <c r="AD53" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE53" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AF53" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>498</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>498</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="F54" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>6.0</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="G54"/>
       <c r="H54"/>
-      <c r="I54"/>
+      <c r="I54" t="n">
+        <v>16527.0</v>
+      </c>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54"/>
       <c r="M54"/>
-      <c r="N54"/>
+      <c r="N54" t="s">
+        <v>116</v>
+      </c>
       <c r="O54"/>
       <c r="P54" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="Q54"/>
       <c r="R54" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="S54" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="T54"/>
       <c r="U54" t="s">
         <v>803</v>
       </c>
-      <c r="V54"/>
+      <c r="V54" t="s">
+        <v>818</v>
+      </c>
       <c r="W54"/>
       <c r="X54" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="Y54"/>
-      <c r="Z54"/>
+      <c r="Z54" t="s">
+        <v>4</v>
+      </c>
       <c r="AA54"/>
       <c r="AB54" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AC54" t="s">
         <v>2</v>
       </c>
       <c r="AD54"/>
       <c r="AE54" t="s">
-        <v>847</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>848</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AF54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B55" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C55" t="s">
-        <v>414</v>
-      </c>
-      <c r="D55" t="s">
-        <v>415</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="D55"/>
       <c r="E55" t="s">
-        <v>602</v>
-      </c>
-      <c r="F55" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H55" t="s">
-        <v>605</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
-      <c r="K55" t="n">
-        <v>32.0</v>
-      </c>
+      <c r="K55"/>
       <c r="L55"/>
       <c r="M55"/>
       <c r="N55"/>
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
-      <c r="R55" t="s">
-        <v>415</v>
-      </c>
+      <c r="R55"/>
       <c r="S55" t="s">
-        <v>414</v>
-      </c>
-      <c r="T55" t="s">
-        <v>774</v>
-      </c>
-      <c r="U55" t="s">
-        <v>803</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="T55"/>
+      <c r="U55"/>
       <c r="V55"/>
       <c r="W55"/>
-      <c r="X55" t="s">
-        <v>833</v>
-      </c>
+      <c r="X55"/>
       <c r="Y55"/>
       <c r="Z55"/>
       <c r="AA55"/>
-      <c r="AB55" t="s">
-        <v>836</v>
-      </c>
-      <c r="AC55" t="s">
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55" t="s">
         <v>4</v>
       </c>
-      <c r="AD55"/>
       <c r="AE55" t="s">
-        <v>839</v>
+        <v>371</v>
       </c>
       <c r="AF55" t="s">
         <v>848</v>
@@ -15180,159 +15118,207 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>500</v>
-      </c>
-      <c r="B56" t="s">
-        <v>500</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B56"/>
       <c r="C56" t="s">
-        <v>545</v>
+        <v>176</v>
       </c>
       <c r="D56"/>
       <c r="E56" t="s">
-        <v>422</v>
-      </c>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
+        <v>591</v>
+      </c>
+      <c r="F56" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>604</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1221985.0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1221985.0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>40.0</v>
+      </c>
       <c r="L56"/>
-      <c r="M56"/>
+      <c r="M56" t="n">
+        <v>600.0</v>
+      </c>
       <c r="N56" t="s">
-        <v>423</v>
+        <v>182</v>
       </c>
       <c r="O56"/>
       <c r="P56" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="Q56"/>
       <c r="R56" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="S56" t="s">
-        <v>739</v>
-      </c>
-      <c r="T56"/>
-      <c r="U56"/>
-      <c r="V56"/>
+        <v>176</v>
+      </c>
+      <c r="T56" t="s">
+        <v>768</v>
+      </c>
+      <c r="U56" t="s">
+        <v>803</v>
+      </c>
+      <c r="V56" t="s">
+        <v>819</v>
+      </c>
       <c r="W56"/>
-      <c r="X56"/>
+      <c r="X56" t="s">
+        <v>828</v>
+      </c>
       <c r="Y56"/>
-      <c r="Z56"/>
+      <c r="Z56" t="s">
+        <v>835</v>
+      </c>
       <c r="AA56"/>
-      <c r="AB56"/>
-      <c r="AC56"/>
+      <c r="AB56" t="s">
+        <v>836</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>2</v>
+      </c>
       <c r="AD56" t="s">
         <v>4</v>
       </c>
       <c r="AE56" t="s">
-        <v>840</v>
-      </c>
-      <c r="AF56" t="s">
-        <v>848</v>
-      </c>
+        <v>839</v>
+      </c>
+      <c r="AF56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>501</v>
-      </c>
-      <c r="B57" t="s">
-        <v>501</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B57"/>
       <c r="C57" t="s">
-        <v>794</v>
-      </c>
-      <c r="D57"/>
+        <v>214</v>
+      </c>
+      <c r="D57" t="s">
+        <v>215</v>
+      </c>
       <c r="E57" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57"/>
-      <c r="I57"/>
+      <c r="I57" t="n">
+        <v>100000.0</v>
+      </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57"/>
-      <c r="N57"/>
+      <c r="N57" t="s">
+        <v>220</v>
+      </c>
       <c r="O57"/>
-      <c r="P57" t="s">
-        <v>890</v>
-      </c>
+      <c r="P57"/>
       <c r="Q57"/>
       <c r="R57" t="s">
-        <v>890</v>
+        <v>215</v>
       </c>
       <c r="S57" t="s">
-        <v>802</v>
-      </c>
-      <c r="T57"/>
-      <c r="U57"/>
+        <v>214</v>
+      </c>
+      <c r="T57" t="s">
+        <v>219</v>
+      </c>
+      <c r="U57" t="s">
+        <v>803</v>
+      </c>
       <c r="V57"/>
       <c r="W57"/>
       <c r="X57"/>
       <c r="Y57"/>
       <c r="Z57"/>
       <c r="AA57"/>
-      <c r="AB57"/>
+      <c r="AB57" t="s">
+        <v>837</v>
+      </c>
       <c r="AC57"/>
       <c r="AD57" t="s">
         <v>4</v>
       </c>
       <c r="AE57" t="s">
-        <v>846</v>
-      </c>
-      <c r="AF57" t="s">
-        <v>848</v>
-      </c>
+        <v>839</v>
+      </c>
+      <c r="AF57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>502</v>
-      </c>
-      <c r="B58" t="s">
-        <v>502</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="B58"/>
       <c r="C58" t="s">
-        <v>547</v>
+        <v>491</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
-        <v>436</v>
+        <v>597</v>
       </c>
       <c r="F58"/>
       <c r="G58"/>
-      <c r="H58"/>
+      <c r="H58" t="s">
+        <v>605</v>
+      </c>
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58"/>
-      <c r="N58"/>
+      <c r="N58" t="s">
+        <v>251</v>
+      </c>
       <c r="O58"/>
-      <c r="P58"/>
+      <c r="P58" t="s">
+        <v>882</v>
+      </c>
       <c r="Q58"/>
-      <c r="R58"/>
+      <c r="R58" t="s">
+        <v>882</v>
+      </c>
       <c r="S58" t="s">
-        <v>741</v>
-      </c>
-      <c r="T58"/>
-      <c r="U58"/>
+        <v>491</v>
+      </c>
+      <c r="T58" t="s">
+        <v>250</v>
+      </c>
+      <c r="U58" t="s">
+        <v>805</v>
+      </c>
       <c r="V58"/>
       <c r="W58"/>
-      <c r="X58"/>
+      <c r="X58" t="s">
+        <v>827</v>
+      </c>
       <c r="Y58"/>
-      <c r="Z58"/>
+      <c r="Z58" t="s">
+        <v>4</v>
+      </c>
       <c r="AA58"/>
-      <c r="AB58"/>
-      <c r="AC58"/>
+      <c r="AB58" t="s">
+        <v>837</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>4</v>
+      </c>
       <c r="AD58" t="s">
         <v>4</v>
       </c>
       <c r="AE58" t="s">
-        <v>371</v>
+        <v>694</v>
       </c>
       <c r="AF58" t="s">
         <v>848</v>
@@ -15340,57 +15326,71 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>503</v>
-      </c>
-      <c r="B59" t="s">
-        <v>503</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="B59"/>
       <c r="C59" t="s">
-        <v>548</v>
-      </c>
-      <c r="D59"/>
+        <v>252</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
       <c r="E59" t="s">
-        <v>439</v>
-      </c>
-      <c r="F59" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
+        <v>253</v>
+      </c>
+      <c r="F59"/>
+      <c r="G59" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>604</v>
+      </c>
+      <c r="I59" t="n">
+        <v>250000.0</v>
+      </c>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59" t="s">
-        <v>441</v>
+        <v>258</v>
       </c>
       <c r="O59"/>
-      <c r="P59" t="s">
-        <v>891</v>
-      </c>
+      <c r="P59"/>
       <c r="Q59"/>
       <c r="R59" t="s">
-        <v>891</v>
+        <v>14</v>
       </c>
       <c r="S59" t="s">
-        <v>742</v>
-      </c>
-      <c r="T59"/>
+        <v>252</v>
+      </c>
+      <c r="T59" t="s">
+        <v>256</v>
+      </c>
       <c r="U59"/>
-      <c r="V59"/>
+      <c r="V59" t="s">
+        <v>820</v>
+      </c>
       <c r="W59"/>
-      <c r="X59"/>
+      <c r="X59" t="s">
+        <v>831</v>
+      </c>
       <c r="Y59"/>
-      <c r="Z59"/>
+      <c r="Z59" t="s">
+        <v>4</v>
+      </c>
       <c r="AA59"/>
-      <c r="AB59"/>
-      <c r="AC59"/>
+      <c r="AB59" t="s">
+        <v>836</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>4</v>
+      </c>
       <c r="AD59" t="s">
         <v>4</v>
       </c>
       <c r="AE59" t="s">
-        <v>208</v>
+        <v>840</v>
       </c>
       <c r="AF59" t="s">
         <v>848</v>
